--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O617"/>
+  <dimension ref="A1:O618"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27503,6 +27503,53 @@
         <v>13242844</v>
       </c>
     </row>
+    <row r="618">
+      <c r="A618" s="2">
+        <v>44347</v>
+      </c>
+      <c r="B618">
+        <v>2106183</v>
+      </c>
+      <c r="C618">
+        <v>4504.266666666666</v>
+      </c>
+      <c r="D618">
+        <v>762841</v>
+      </c>
+      <c r="E618">
+        <v>386298</v>
+      </c>
+      <c r="F618">
+        <v>16167339</v>
+      </c>
+      <c r="G618">
+        <v>12863798</v>
+      </c>
+      <c r="H618">
+        <v>4055705</v>
+      </c>
+      <c r="I618">
+        <v>338.03</v>
+      </c>
+      <c r="J618">
+        <v>43.8</v>
+      </c>
+      <c r="K618">
+        <v>27.23</v>
+      </c>
+      <c r="L618">
+        <v>317.1</v>
+      </c>
+      <c r="M618">
+        <v>116208643</v>
+      </c>
+      <c r="N618">
+        <v>14279851</v>
+      </c>
+      <c r="O618">
+        <v>13366382</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O618"/>
+  <dimension ref="A1:O619"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5407,7 +5407,7 @@
         <v>9516801</v>
       </c>
       <c r="H132">
-        <v>935066</v>
+        <v>934928</v>
       </c>
       <c r="I132">
         <v>94</v>
@@ -5419,10 +5419,10 @@
         <v>14.67</v>
       </c>
       <c r="L132">
-        <v>99.05</v>
+        <v>99.04000000000001</v>
       </c>
       <c r="M132">
-        <v>14066613</v>
+        <v>14066475</v>
       </c>
       <c r="N132">
         <v>9919645</v>
@@ -5466,7 +5466,7 @@
         <v>99.53</v>
       </c>
       <c r="M133">
-        <v>14469066</v>
+        <v>14468928</v>
       </c>
       <c r="N133">
         <v>9992123</v>
@@ -5510,7 +5510,7 @@
         <v>100.19</v>
       </c>
       <c r="M134">
-        <v>14604701</v>
+        <v>14604563</v>
       </c>
       <c r="N134">
         <v>9946214</v>
@@ -5554,7 +5554,7 @@
         <v>100.72</v>
       </c>
       <c r="M135">
-        <v>14690138</v>
+        <v>14690000</v>
       </c>
       <c r="N135">
         <v>9890722</v>
@@ -5598,7 +5598,7 @@
         <v>101.3</v>
       </c>
       <c r="M136">
-        <v>14866597</v>
+        <v>14866459</v>
       </c>
       <c r="N136">
         <v>9919839</v>
@@ -5642,7 +5642,7 @@
         <v>101.83</v>
       </c>
       <c r="M137">
-        <v>14861115</v>
+        <v>14860977</v>
       </c>
       <c r="N137">
         <v>9793604</v>
@@ -5686,7 +5686,7 @@
         <v>102.24</v>
       </c>
       <c r="M138">
-        <v>14670507</v>
+        <v>14670369</v>
       </c>
       <c r="N138">
         <v>9476838</v>
@@ -5730,7 +5730,7 @@
         <v>102.61</v>
       </c>
       <c r="M139">
-        <v>14466732</v>
+        <v>14466594</v>
       </c>
       <c r="N139">
         <v>9214474</v>
@@ -5747,7 +5747,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823601</v>
+        <v>823593</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -5774,10 +5774,10 @@
         <v>103.07</v>
       </c>
       <c r="M140">
-        <v>14131512</v>
+        <v>14131374</v>
       </c>
       <c r="N140">
-        <v>8935437</v>
+        <v>8935429</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -5815,13 +5815,13 @@
         <v>15.66</v>
       </c>
       <c r="L141">
-        <v>103.59</v>
+        <v>103.58</v>
       </c>
       <c r="M141">
-        <v>13893808</v>
+        <v>13893670</v>
       </c>
       <c r="N141">
-        <v>8781952</v>
+        <v>8781944</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -5862,10 +5862,10 @@
         <v>104.14</v>
       </c>
       <c r="M142">
-        <v>13749715</v>
+        <v>13749577</v>
       </c>
       <c r="N142">
-        <v>8776220</v>
+        <v>8776212</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -5903,13 +5903,13 @@
         <v>15.1</v>
       </c>
       <c r="L143">
-        <v>104.75</v>
+        <v>104.74</v>
       </c>
       <c r="M143">
-        <v>13621584</v>
+        <v>13621446</v>
       </c>
       <c r="N143">
-        <v>8836662</v>
+        <v>8836654</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -5953,7 +5953,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042470</v>
+        <v>9042462</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -5997,7 +5997,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9395090</v>
+        <v>9395082</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -6041,7 +6041,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9715954</v>
+        <v>9715946</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -6085,7 +6085,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916785</v>
+        <v>9916777</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -6129,7 +6129,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176418</v>
+        <v>10176410</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -6173,7 +6173,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10401999</v>
+        <v>10401991</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -6217,7 +6217,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586399</v>
+        <v>10586391</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -6261,7 +6261,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834312</v>
+        <v>10834304</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -7771,7 +7771,7 @@
         <v>1488338</v>
       </c>
       <c r="D186">
-        <v>590377</v>
+        <v>590383</v>
       </c>
       <c r="E186">
         <v>232183</v>
@@ -7783,7 +7783,7 @@
         <v>9067094</v>
       </c>
       <c r="H186">
-        <v>1209707</v>
+        <v>1209498</v>
       </c>
       <c r="I186">
         <v>126.92</v>
@@ -7795,13 +7795,13 @@
         <v>13.96</v>
       </c>
       <c r="L186">
-        <v>125.19</v>
+        <v>125.18</v>
       </c>
       <c r="M186">
-        <v>13890496</v>
+        <v>13890288</v>
       </c>
       <c r="N186">
-        <v>8211182</v>
+        <v>8211188</v>
       </c>
       <c r="O186">
         <v>2510371</v>
@@ -7839,13 +7839,13 @@
         <v>13.97</v>
       </c>
       <c r="L187">
-        <v>125.49</v>
+        <v>125.48</v>
       </c>
       <c r="M187">
-        <v>13966729</v>
+        <v>13966521</v>
       </c>
       <c r="N187">
-        <v>8231173</v>
+        <v>8231179</v>
       </c>
       <c r="O187">
         <v>2506811</v>
@@ -7886,10 +7886,10 @@
         <v>125.9</v>
       </c>
       <c r="M188">
-        <v>14177963</v>
+        <v>14177754</v>
       </c>
       <c r="N188">
-        <v>8310959</v>
+        <v>8310965</v>
       </c>
       <c r="O188">
         <v>2528409</v>
@@ -7927,13 +7927,13 @@
         <v>14.03</v>
       </c>
       <c r="L189">
-        <v>126.38</v>
+        <v>126.37</v>
       </c>
       <c r="M189">
-        <v>14261270</v>
+        <v>14261062</v>
       </c>
       <c r="N189">
-        <v>8315319</v>
+        <v>8315325</v>
       </c>
       <c r="O189">
         <v>2521451</v>
@@ -7974,10 +7974,10 @@
         <v>126.79</v>
       </c>
       <c r="M190">
-        <v>14423598</v>
+        <v>14423389</v>
       </c>
       <c r="N190">
-        <v>8370900</v>
+        <v>8370906</v>
       </c>
       <c r="O190">
         <v>2540060</v>
@@ -7991,7 +7991,7 @@
         <v>1667576</v>
       </c>
       <c r="D191">
-        <v>573527</v>
+        <v>573529</v>
       </c>
       <c r="E191">
         <v>207676</v>
@@ -8003,7 +8003,7 @@
         <v>8715190</v>
       </c>
       <c r="H191">
-        <v>1072981</v>
+        <v>1072988</v>
       </c>
       <c r="I191">
         <v>129.49</v>
@@ -8018,10 +8018,10 @@
         <v>127.14</v>
       </c>
       <c r="M191">
-        <v>14528676</v>
+        <v>14528474</v>
       </c>
       <c r="N191">
-        <v>8368401</v>
+        <v>8368409</v>
       </c>
       <c r="O191">
         <v>2551092</v>
@@ -8062,10 +8062,10 @@
         <v>127.59</v>
       </c>
       <c r="M192">
-        <v>14533451</v>
+        <v>14533249</v>
       </c>
       <c r="N192">
-        <v>8289975</v>
+        <v>8289983</v>
       </c>
       <c r="O192">
         <v>2547714</v>
@@ -8106,10 +8106,10 @@
         <v>128.14</v>
       </c>
       <c r="M193">
-        <v>14761974</v>
+        <v>14761773</v>
       </c>
       <c r="N193">
-        <v>8365067</v>
+        <v>8365075</v>
       </c>
       <c r="O193">
         <v>2572362</v>
@@ -8150,10 +8150,10 @@
         <v>128.88</v>
       </c>
       <c r="M194">
-        <v>14844655</v>
+        <v>14844454</v>
       </c>
       <c r="N194">
-        <v>8387954</v>
+        <v>8387962</v>
       </c>
       <c r="O194">
         <v>2570162</v>
@@ -8194,10 +8194,10 @@
         <v>129.54</v>
       </c>
       <c r="M195">
-        <v>14889586</v>
+        <v>14889384</v>
       </c>
       <c r="N195">
-        <v>8325426</v>
+        <v>8325434</v>
       </c>
       <c r="O195">
         <v>2571051</v>
@@ -8238,10 +8238,10 @@
         <v>130.2</v>
       </c>
       <c r="M196">
-        <v>14968268</v>
+        <v>14968066</v>
       </c>
       <c r="N196">
-        <v>8319922</v>
+        <v>8319930</v>
       </c>
       <c r="O196">
         <v>2563125</v>
@@ -8282,10 +8282,10 @@
         <v>130.87</v>
       </c>
       <c r="M197">
-        <v>15090412</v>
+        <v>15090210</v>
       </c>
       <c r="N197">
-        <v>8341386</v>
+        <v>8341394</v>
       </c>
       <c r="O197">
         <v>2566580</v>
@@ -8326,10 +8326,10 @@
         <v>131.55</v>
       </c>
       <c r="M198">
-        <v>15141430</v>
+        <v>15141437</v>
       </c>
       <c r="N198">
-        <v>8330287</v>
+        <v>8330289</v>
       </c>
       <c r="O198">
         <v>2567381</v>
@@ -8346,7 +8346,7 @@
         <v>525103</v>
       </c>
       <c r="E199">
-        <v>214624</v>
+        <v>214631</v>
       </c>
       <c r="F199">
         <v>10193543</v>
@@ -8370,13 +8370,13 @@
         <v>132.19</v>
       </c>
       <c r="M199">
-        <v>15308974</v>
+        <v>15308981</v>
       </c>
       <c r="N199">
-        <v>8356535</v>
+        <v>8356537</v>
       </c>
       <c r="O199">
-        <v>2587929</v>
+        <v>2587936</v>
       </c>
     </row>
     <row r="200">
@@ -8414,13 +8414,13 @@
         <v>132.87</v>
       </c>
       <c r="M200">
-        <v>15440584</v>
+        <v>15440590</v>
       </c>
       <c r="N200">
-        <v>8350554</v>
+        <v>8350556</v>
       </c>
       <c r="O200">
-        <v>2599982</v>
+        <v>2599989</v>
       </c>
     </row>
     <row r="201">
@@ -8458,13 +8458,13 @@
         <v>133.48</v>
       </c>
       <c r="M201">
-        <v>15510358</v>
+        <v>15510365</v>
       </c>
       <c r="N201">
-        <v>8368297</v>
+        <v>8368299</v>
       </c>
       <c r="O201">
-        <v>2605561</v>
+        <v>2605568</v>
       </c>
     </row>
     <row r="202">
@@ -8502,13 +8502,13 @@
         <v>134.04</v>
       </c>
       <c r="M202">
-        <v>15673668</v>
+        <v>15673675</v>
       </c>
       <c r="N202">
-        <v>8381854</v>
+        <v>8381856</v>
       </c>
       <c r="O202">
-        <v>2635473</v>
+        <v>2635480</v>
       </c>
     </row>
     <row r="203">
@@ -8552,7 +8552,7 @@
         <v>8380544</v>
       </c>
       <c r="O203">
-        <v>2650970</v>
+        <v>2650977</v>
       </c>
     </row>
     <row r="204">
@@ -8596,7 +8596,7 @@
         <v>8330361</v>
       </c>
       <c r="O204">
-        <v>2658792</v>
+        <v>2658799</v>
       </c>
     </row>
     <row r="205">
@@ -8640,7 +8640,7 @@
         <v>8360752</v>
       </c>
       <c r="O205">
-        <v>2687341</v>
+        <v>2687348</v>
       </c>
     </row>
     <row r="206">
@@ -8684,7 +8684,7 @@
         <v>8190399</v>
       </c>
       <c r="O206">
-        <v>2682395</v>
+        <v>2682402</v>
       </c>
     </row>
     <row r="207">
@@ -8728,7 +8728,7 @@
         <v>8167954</v>
       </c>
       <c r="O207">
-        <v>2694746</v>
+        <v>2694753</v>
       </c>
     </row>
     <row r="208">
@@ -8772,7 +8772,7 @@
         <v>8133267</v>
       </c>
       <c r="O208">
-        <v>2719329</v>
+        <v>2719336</v>
       </c>
     </row>
     <row r="209">
@@ -8816,7 +8816,7 @@
         <v>8038963</v>
       </c>
       <c r="O209">
-        <v>2707771</v>
+        <v>2707778</v>
       </c>
     </row>
     <row r="210">
@@ -8860,7 +8860,7 @@
         <v>7908330</v>
       </c>
       <c r="O210">
-        <v>2680336</v>
+        <v>2680343</v>
       </c>
     </row>
     <row r="211">
@@ -27273,28 +27273,28 @@
         <v>44196</v>
       </c>
       <c r="B613">
-        <v>4222265</v>
+        <v>4222033</v>
       </c>
       <c r="C613">
         <v>5655.4</v>
       </c>
       <c r="D613">
-        <v>875108</v>
+        <v>875069</v>
       </c>
       <c r="E613">
-        <v>1041448</v>
+        <v>1041444</v>
       </c>
       <c r="F613">
-        <v>23022902</v>
+        <v>23032212</v>
       </c>
       <c r="G613">
-        <v>20350461</v>
+        <v>20353740</v>
       </c>
       <c r="H613">
-        <v>6402241</v>
+        <v>6402828</v>
       </c>
       <c r="I613">
-        <v>339.43</v>
+        <v>339.4</v>
       </c>
       <c r="J613">
         <v>43.15</v>
@@ -27306,13 +27306,13 @@
         <v>318.84</v>
       </c>
       <c r="M613">
-        <v>143631994</v>
+        <v>143632581</v>
       </c>
       <c r="N613">
-        <v>30828547</v>
+        <v>30828508</v>
       </c>
       <c r="O613">
-        <v>11434859</v>
+        <v>11434855</v>
       </c>
     </row>
     <row r="614">
@@ -27320,46 +27320,46 @@
         <v>44227</v>
       </c>
       <c r="B614">
-        <v>4597775</v>
+        <v>4597461</v>
       </c>
       <c r="C614">
         <v>5366.6</v>
       </c>
       <c r="D614">
-        <v>910407</v>
+        <v>910455</v>
       </c>
       <c r="E614">
-        <v>820417</v>
+        <v>821762</v>
       </c>
       <c r="F614">
-        <v>22588802</v>
+        <v>22603535</v>
       </c>
       <c r="G614">
-        <v>17570534</v>
+        <v>17582072</v>
       </c>
       <c r="H614">
-        <v>5633871</v>
+        <v>5634654</v>
       </c>
       <c r="I614">
-        <v>345.72</v>
+        <v>345.53</v>
       </c>
       <c r="J614">
-        <v>42.94</v>
+        <v>42.95</v>
       </c>
       <c r="K614">
         <v>15.53</v>
       </c>
       <c r="L614">
-        <v>318.65</v>
+        <v>318.64</v>
       </c>
       <c r="M614">
-        <v>146318696</v>
+        <v>146320066</v>
       </c>
       <c r="N614">
-        <v>31002461</v>
+        <v>31002470</v>
       </c>
       <c r="O614">
-        <v>12103255</v>
+        <v>12104596</v>
       </c>
     </row>
     <row r="615">
@@ -27367,46 +27367,46 @@
         <v>44255</v>
       </c>
       <c r="B615">
-        <v>3555694</v>
+        <v>3555393</v>
       </c>
       <c r="C615">
         <v>5029.5</v>
       </c>
       <c r="D615">
-        <v>765776</v>
+        <v>765804</v>
       </c>
       <c r="E615">
-        <v>631818</v>
+        <v>633211</v>
       </c>
       <c r="F615">
-        <v>18833898</v>
+        <v>18855639</v>
       </c>
       <c r="G615">
-        <v>15858257</v>
+        <v>15868702</v>
       </c>
       <c r="H615">
-        <v>5076437</v>
+        <v>5077219</v>
       </c>
       <c r="I615">
-        <v>348.89</v>
+        <v>348.7</v>
       </c>
       <c r="J615">
-        <v>43.22</v>
+        <v>43.23</v>
       </c>
       <c r="K615">
         <v>15.66</v>
       </c>
       <c r="L615">
-        <v>318.51</v>
+        <v>318.5</v>
       </c>
       <c r="M615">
-        <v>148642086</v>
+        <v>148644237</v>
       </c>
       <c r="N615">
-        <v>31288807</v>
+        <v>31288844</v>
       </c>
       <c r="O615">
-        <v>12596426</v>
+        <v>12599160</v>
       </c>
     </row>
     <row r="616">
@@ -27414,46 +27414,46 @@
         <v>44286</v>
       </c>
       <c r="B616">
-        <v>4200844</v>
+        <v>4199946</v>
       </c>
       <c r="C616">
         <v>4460.9</v>
       </c>
       <c r="D616">
-        <v>855373</v>
+        <v>855436</v>
       </c>
       <c r="E616">
-        <v>608597</v>
+        <v>608806</v>
       </c>
       <c r="F616">
-        <v>18752509</v>
+        <v>18762448</v>
       </c>
       <c r="G616">
-        <v>16564941</v>
+        <v>16576496</v>
       </c>
       <c r="H616">
-        <v>5364539</v>
+        <v>5365492</v>
       </c>
       <c r="I616">
-        <v>351.04</v>
+        <v>350.83</v>
       </c>
       <c r="J616">
-        <v>43.84</v>
+        <v>43.85</v>
       </c>
       <c r="K616">
         <v>16.29</v>
       </c>
       <c r="L616">
-        <v>318.24</v>
+        <v>318.22</v>
       </c>
       <c r="M616">
-        <v>150114727</v>
+        <v>150117831</v>
       </c>
       <c r="N616">
-        <v>30434615</v>
+        <v>30434715</v>
       </c>
       <c r="O616">
-        <v>13040133</v>
+        <v>13043076</v>
       </c>
     </row>
     <row r="617">
@@ -27485,22 +27485,22 @@
         <v>347.13</v>
       </c>
       <c r="J617">
-        <v>43.94</v>
+        <v>43.95</v>
       </c>
       <c r="K617">
         <v>23.49</v>
       </c>
       <c r="L617">
-        <v>316.93</v>
+        <v>316.91</v>
       </c>
       <c r="M617">
-        <v>135879895</v>
+        <v>135882999</v>
       </c>
       <c r="N617">
-        <v>19273580</v>
+        <v>19273680</v>
       </c>
       <c r="O617">
-        <v>13242844</v>
+        <v>13245787</v>
       </c>
     </row>
     <row r="618">
@@ -27508,46 +27508,93 @@
         <v>44347</v>
       </c>
       <c r="B618">
-        <v>2106183</v>
+        <v>2221308</v>
       </c>
       <c r="C618">
-        <v>4504.266666666666</v>
+        <v>3591.2</v>
       </c>
       <c r="D618">
-        <v>762841</v>
+        <v>752182</v>
       </c>
       <c r="E618">
-        <v>386298</v>
+        <v>370545</v>
       </c>
       <c r="F618">
-        <v>16167339</v>
+        <v>15736408</v>
       </c>
       <c r="G618">
-        <v>12863798</v>
+        <v>12404360</v>
       </c>
       <c r="H618">
-        <v>4055705</v>
+        <v>3946877</v>
       </c>
       <c r="I618">
-        <v>338.03</v>
+        <v>341.89</v>
       </c>
       <c r="J618">
-        <v>43.8</v>
+        <v>43.76</v>
       </c>
       <c r="K618">
-        <v>27.23</v>
+        <v>27.22</v>
       </c>
       <c r="L618">
-        <v>317.1</v>
+        <v>317.17</v>
       </c>
       <c r="M618">
-        <v>116208643</v>
+        <v>116102918</v>
       </c>
       <c r="N618">
-        <v>14279851</v>
+        <v>14269292</v>
       </c>
       <c r="O618">
-        <v>13366382</v>
+        <v>13353572</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B619">
+        <v>2302392</v>
+      </c>
+      <c r="C619">
+        <v>4024.833333333333</v>
+      </c>
+      <c r="D619">
+        <v>646709</v>
+      </c>
+      <c r="E619">
+        <v>367295</v>
+      </c>
+      <c r="F619">
+        <v>13922302</v>
+      </c>
+      <c r="G619">
+        <v>12519960</v>
+      </c>
+      <c r="H619">
+        <v>3984539</v>
+      </c>
+      <c r="I619">
+        <v>341.05</v>
+      </c>
+      <c r="J619">
+        <v>42.43</v>
+      </c>
+      <c r="K619">
+        <v>27.68</v>
+      </c>
+      <c r="L619">
+        <v>320.81</v>
+      </c>
+      <c r="M619">
+        <v>97987248</v>
+      </c>
+      <c r="N619">
+        <v>11756823</v>
+      </c>
+      <c r="O619">
+        <v>13081883</v>
       </c>
     </row>
   </sheetData>

--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O619"/>
+  <dimension ref="A1:O620"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5407,7 +5407,7 @@
         <v>9516801</v>
       </c>
       <c r="H132">
-        <v>934928</v>
+        <v>934828</v>
       </c>
       <c r="I132">
         <v>94</v>
@@ -5422,7 +5422,7 @@
         <v>99.04000000000001</v>
       </c>
       <c r="M132">
-        <v>14066475</v>
+        <v>14066375</v>
       </c>
       <c r="N132">
         <v>9919645</v>
@@ -5466,7 +5466,7 @@
         <v>99.53</v>
       </c>
       <c r="M133">
-        <v>14468928</v>
+        <v>14468827</v>
       </c>
       <c r="N133">
         <v>9992123</v>
@@ -5510,7 +5510,7 @@
         <v>100.19</v>
       </c>
       <c r="M134">
-        <v>14604563</v>
+        <v>14604463</v>
       </c>
       <c r="N134">
         <v>9946214</v>
@@ -5554,7 +5554,7 @@
         <v>100.72</v>
       </c>
       <c r="M135">
-        <v>14690000</v>
+        <v>14689899</v>
       </c>
       <c r="N135">
         <v>9890722</v>
@@ -5598,7 +5598,7 @@
         <v>101.3</v>
       </c>
       <c r="M136">
-        <v>14866459</v>
+        <v>14866359</v>
       </c>
       <c r="N136">
         <v>9919839</v>
@@ -5642,7 +5642,7 @@
         <v>101.83</v>
       </c>
       <c r="M137">
-        <v>14860977</v>
+        <v>14860877</v>
       </c>
       <c r="N137">
         <v>9793604</v>
@@ -5686,7 +5686,7 @@
         <v>102.24</v>
       </c>
       <c r="M138">
-        <v>14670369</v>
+        <v>14670268</v>
       </c>
       <c r="N138">
         <v>9476838</v>
@@ -5730,7 +5730,7 @@
         <v>102.61</v>
       </c>
       <c r="M139">
-        <v>14466594</v>
+        <v>14466494</v>
       </c>
       <c r="N139">
         <v>9214474</v>
@@ -5747,7 +5747,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823593</v>
+        <v>823661</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -5774,10 +5774,10 @@
         <v>103.07</v>
       </c>
       <c r="M140">
-        <v>14131374</v>
+        <v>14131273</v>
       </c>
       <c r="N140">
-        <v>8935429</v>
+        <v>8935497</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -5818,10 +5818,10 @@
         <v>103.58</v>
       </c>
       <c r="M141">
-        <v>13893670</v>
+        <v>13893570</v>
       </c>
       <c r="N141">
-        <v>8781944</v>
+        <v>8782012</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -5862,10 +5862,10 @@
         <v>104.14</v>
       </c>
       <c r="M142">
-        <v>13749577</v>
+        <v>13749477</v>
       </c>
       <c r="N142">
-        <v>8776212</v>
+        <v>8776280</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -5906,10 +5906,10 @@
         <v>104.74</v>
       </c>
       <c r="M143">
-        <v>13621446</v>
+        <v>13621345</v>
       </c>
       <c r="N143">
-        <v>8836654</v>
+        <v>8836722</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -5953,7 +5953,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042462</v>
+        <v>9042530</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -5997,7 +5997,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9395082</v>
+        <v>9395150</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -6041,7 +6041,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9715946</v>
+        <v>9716014</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -6085,7 +6085,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916777</v>
+        <v>9916845</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -6117,7 +6117,7 @@
         <v>117.44</v>
       </c>
       <c r="J148">
-        <v>33.96</v>
+        <v>33.95</v>
       </c>
       <c r="K148">
         <v>14.25</v>
@@ -6129,7 +6129,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176410</v>
+        <v>10176478</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -6173,7 +6173,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10401991</v>
+        <v>10402059</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -6217,7 +6217,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586391</v>
+        <v>10586459</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -6261,7 +6261,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834304</v>
+        <v>10834372</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -7771,7 +7771,7 @@
         <v>1488338</v>
       </c>
       <c r="D186">
-        <v>590383</v>
+        <v>590392</v>
       </c>
       <c r="E186">
         <v>232183</v>
@@ -7783,7 +7783,7 @@
         <v>9067094</v>
       </c>
       <c r="H186">
-        <v>1209498</v>
+        <v>1209352</v>
       </c>
       <c r="I186">
         <v>126.92</v>
@@ -7798,10 +7798,10 @@
         <v>125.18</v>
       </c>
       <c r="M186">
-        <v>13890288</v>
+        <v>13890141</v>
       </c>
       <c r="N186">
-        <v>8211188</v>
+        <v>8211197</v>
       </c>
       <c r="O186">
         <v>2510371</v>
@@ -7842,10 +7842,10 @@
         <v>125.48</v>
       </c>
       <c r="M187">
-        <v>13966521</v>
+        <v>13966374</v>
       </c>
       <c r="N187">
-        <v>8231179</v>
+        <v>8231188</v>
       </c>
       <c r="O187">
         <v>2506811</v>
@@ -7886,10 +7886,10 @@
         <v>125.9</v>
       </c>
       <c r="M188">
-        <v>14177754</v>
+        <v>14177608</v>
       </c>
       <c r="N188">
-        <v>8310965</v>
+        <v>8310974</v>
       </c>
       <c r="O188">
         <v>2528409</v>
@@ -7930,10 +7930,10 @@
         <v>126.37</v>
       </c>
       <c r="M189">
-        <v>14261062</v>
+        <v>14260915</v>
       </c>
       <c r="N189">
-        <v>8315325</v>
+        <v>8315334</v>
       </c>
       <c r="O189">
         <v>2521451</v>
@@ -7974,10 +7974,10 @@
         <v>126.79</v>
       </c>
       <c r="M190">
-        <v>14423389</v>
+        <v>14423242</v>
       </c>
       <c r="N190">
-        <v>8370906</v>
+        <v>8370915</v>
       </c>
       <c r="O190">
         <v>2540060</v>
@@ -7991,10 +7991,10 @@
         <v>1667576</v>
       </c>
       <c r="D191">
-        <v>573529</v>
+        <v>573531</v>
       </c>
       <c r="E191">
-        <v>207676</v>
+        <v>207677</v>
       </c>
       <c r="F191">
         <v>9966680</v>
@@ -8003,7 +8003,7 @@
         <v>8715190</v>
       </c>
       <c r="H191">
-        <v>1072988</v>
+        <v>1072994</v>
       </c>
       <c r="I191">
         <v>129.49</v>
@@ -8018,13 +8018,13 @@
         <v>127.14</v>
       </c>
       <c r="M191">
-        <v>14528474</v>
+        <v>14528334</v>
       </c>
       <c r="N191">
-        <v>8368409</v>
+        <v>8368420</v>
       </c>
       <c r="O191">
-        <v>2551092</v>
+        <v>2551093</v>
       </c>
     </row>
     <row r="192">
@@ -8062,13 +8062,13 @@
         <v>127.59</v>
       </c>
       <c r="M192">
-        <v>14533249</v>
+        <v>14533108</v>
       </c>
       <c r="N192">
-        <v>8289983</v>
+        <v>8289994</v>
       </c>
       <c r="O192">
-        <v>2547714</v>
+        <v>2547715</v>
       </c>
     </row>
     <row r="193">
@@ -8106,13 +8106,13 @@
         <v>128.14</v>
       </c>
       <c r="M193">
-        <v>14761773</v>
+        <v>14761632</v>
       </c>
       <c r="N193">
-        <v>8365075</v>
+        <v>8365086</v>
       </c>
       <c r="O193">
-        <v>2572362</v>
+        <v>2572363</v>
       </c>
     </row>
     <row r="194">
@@ -8150,13 +8150,13 @@
         <v>128.88</v>
       </c>
       <c r="M194">
-        <v>14844454</v>
+        <v>14844313</v>
       </c>
       <c r="N194">
-        <v>8387962</v>
+        <v>8387973</v>
       </c>
       <c r="O194">
-        <v>2570162</v>
+        <v>2570163</v>
       </c>
     </row>
     <row r="195">
@@ -8194,13 +8194,13 @@
         <v>129.54</v>
       </c>
       <c r="M195">
-        <v>14889384</v>
+        <v>14889243</v>
       </c>
       <c r="N195">
-        <v>8325434</v>
+        <v>8325445</v>
       </c>
       <c r="O195">
-        <v>2571051</v>
+        <v>2571052</v>
       </c>
     </row>
     <row r="196">
@@ -8238,13 +8238,13 @@
         <v>130.2</v>
       </c>
       <c r="M196">
-        <v>14968066</v>
+        <v>14967925</v>
       </c>
       <c r="N196">
-        <v>8319930</v>
+        <v>8319941</v>
       </c>
       <c r="O196">
-        <v>2563125</v>
+        <v>2563126</v>
       </c>
     </row>
     <row r="197">
@@ -8279,16 +8279,16 @@
         <v>14.33</v>
       </c>
       <c r="L197">
-        <v>130.87</v>
+        <v>130.86</v>
       </c>
       <c r="M197">
-        <v>15090210</v>
+        <v>15090069</v>
       </c>
       <c r="N197">
-        <v>8341394</v>
+        <v>8341405</v>
       </c>
       <c r="O197">
-        <v>2566580</v>
+        <v>2566581</v>
       </c>
     </row>
     <row r="198">
@@ -8326,13 +8326,13 @@
         <v>131.55</v>
       </c>
       <c r="M198">
-        <v>15141437</v>
+        <v>15141443</v>
       </c>
       <c r="N198">
-        <v>8330289</v>
+        <v>8330291</v>
       </c>
       <c r="O198">
-        <v>2567381</v>
+        <v>2567382</v>
       </c>
     </row>
     <row r="199">
@@ -8346,7 +8346,7 @@
         <v>525103</v>
       </c>
       <c r="E199">
-        <v>214631</v>
+        <v>214627</v>
       </c>
       <c r="F199">
         <v>10193543</v>
@@ -8370,13 +8370,13 @@
         <v>132.19</v>
       </c>
       <c r="M199">
-        <v>15308981</v>
+        <v>15308986</v>
       </c>
       <c r="N199">
-        <v>8356537</v>
+        <v>8356539</v>
       </c>
       <c r="O199">
-        <v>2587936</v>
+        <v>2587933</v>
       </c>
     </row>
     <row r="200">
@@ -8414,13 +8414,13 @@
         <v>132.87</v>
       </c>
       <c r="M200">
-        <v>15440590</v>
+        <v>15440596</v>
       </c>
       <c r="N200">
-        <v>8350556</v>
+        <v>8350558</v>
       </c>
       <c r="O200">
-        <v>2599989</v>
+        <v>2599986</v>
       </c>
     </row>
     <row r="201">
@@ -8458,13 +8458,13 @@
         <v>133.48</v>
       </c>
       <c r="M201">
-        <v>15510365</v>
+        <v>15510370</v>
       </c>
       <c r="N201">
-        <v>8368299</v>
+        <v>8368301</v>
       </c>
       <c r="O201">
-        <v>2605568</v>
+        <v>2605565</v>
       </c>
     </row>
     <row r="202">
@@ -8502,13 +8502,13 @@
         <v>134.04</v>
       </c>
       <c r="M202">
-        <v>15673675</v>
+        <v>15673680</v>
       </c>
       <c r="N202">
-        <v>8381856</v>
+        <v>8381858</v>
       </c>
       <c r="O202">
-        <v>2635480</v>
+        <v>2635477</v>
       </c>
     </row>
     <row r="203">
@@ -8552,7 +8552,7 @@
         <v>8380544</v>
       </c>
       <c r="O203">
-        <v>2650977</v>
+        <v>2650973</v>
       </c>
     </row>
     <row r="204">
@@ -8596,7 +8596,7 @@
         <v>8330361</v>
       </c>
       <c r="O204">
-        <v>2658799</v>
+        <v>2658795</v>
       </c>
     </row>
     <row r="205">
@@ -8640,7 +8640,7 @@
         <v>8360752</v>
       </c>
       <c r="O205">
-        <v>2687348</v>
+        <v>2687344</v>
       </c>
     </row>
     <row r="206">
@@ -8684,7 +8684,7 @@
         <v>8190399</v>
       </c>
       <c r="O206">
-        <v>2682402</v>
+        <v>2682398</v>
       </c>
     </row>
     <row r="207">
@@ -8728,7 +8728,7 @@
         <v>8167954</v>
       </c>
       <c r="O207">
-        <v>2694753</v>
+        <v>2694749</v>
       </c>
     </row>
     <row r="208">
@@ -8772,7 +8772,7 @@
         <v>8133267</v>
       </c>
       <c r="O208">
-        <v>2719336</v>
+        <v>2719332</v>
       </c>
     </row>
     <row r="209">
@@ -8816,7 +8816,7 @@
         <v>8038963</v>
       </c>
       <c r="O209">
-        <v>2707778</v>
+        <v>2707774</v>
       </c>
     </row>
     <row r="210">
@@ -8860,7 +8860,7 @@
         <v>7908330</v>
       </c>
       <c r="O210">
-        <v>2680343</v>
+        <v>2680339</v>
       </c>
     </row>
     <row r="211">
@@ -27320,28 +27320,28 @@
         <v>44227</v>
       </c>
       <c r="B614">
-        <v>4597461</v>
+        <v>4597620</v>
       </c>
       <c r="C614">
         <v>5366.6</v>
       </c>
       <c r="D614">
-        <v>910455</v>
+        <v>911365</v>
       </c>
       <c r="E614">
-        <v>821762</v>
+        <v>821783</v>
       </c>
       <c r="F614">
-        <v>22603535</v>
+        <v>22603909</v>
       </c>
       <c r="G614">
-        <v>17582072</v>
+        <v>17582416</v>
       </c>
       <c r="H614">
-        <v>5634654</v>
+        <v>5634551</v>
       </c>
       <c r="I614">
-        <v>345.53</v>
+        <v>345.52</v>
       </c>
       <c r="J614">
         <v>42.95</v>
@@ -27353,13 +27353,13 @@
         <v>318.64</v>
       </c>
       <c r="M614">
-        <v>146320066</v>
+        <v>146319962</v>
       </c>
       <c r="N614">
-        <v>31002470</v>
+        <v>31003380</v>
       </c>
       <c r="O614">
-        <v>12104596</v>
+        <v>12104617</v>
       </c>
     </row>
     <row r="615">
@@ -27367,28 +27367,28 @@
         <v>44255</v>
       </c>
       <c r="B615">
-        <v>3555393</v>
+        <v>3555419</v>
       </c>
       <c r="C615">
         <v>5029.5</v>
       </c>
       <c r="D615">
-        <v>765804</v>
+        <v>766368</v>
       </c>
       <c r="E615">
-        <v>633211</v>
+        <v>633237</v>
       </c>
       <c r="F615">
-        <v>18855639</v>
+        <v>18855931</v>
       </c>
       <c r="G615">
-        <v>15868702</v>
+        <v>15868917</v>
       </c>
       <c r="H615">
-        <v>5077219</v>
+        <v>5077138</v>
       </c>
       <c r="I615">
-        <v>348.7</v>
+        <v>348.69</v>
       </c>
       <c r="J615">
         <v>43.23</v>
@@ -27400,13 +27400,13 @@
         <v>318.5</v>
       </c>
       <c r="M615">
-        <v>148644237</v>
+        <v>148644053</v>
       </c>
       <c r="N615">
-        <v>31288844</v>
+        <v>31290318</v>
       </c>
       <c r="O615">
-        <v>12599160</v>
+        <v>12599207</v>
       </c>
     </row>
     <row r="616">
@@ -27414,25 +27414,25 @@
         <v>44286</v>
       </c>
       <c r="B616">
-        <v>4199946</v>
+        <v>4200462</v>
       </c>
       <c r="C616">
         <v>4460.9</v>
       </c>
       <c r="D616">
-        <v>855436</v>
+        <v>849984</v>
       </c>
       <c r="E616">
-        <v>608806</v>
+        <v>608785</v>
       </c>
       <c r="F616">
-        <v>18762448</v>
+        <v>18758735</v>
       </c>
       <c r="G616">
-        <v>16576496</v>
+        <v>16573839</v>
       </c>
       <c r="H616">
-        <v>5365492</v>
+        <v>5364885</v>
       </c>
       <c r="I616">
         <v>350.83</v>
@@ -27441,19 +27441,19 @@
         <v>43.85</v>
       </c>
       <c r="K616">
-        <v>16.29</v>
+        <v>16.3</v>
       </c>
       <c r="L616">
         <v>318.22</v>
       </c>
       <c r="M616">
-        <v>150117831</v>
+        <v>150117039</v>
       </c>
       <c r="N616">
-        <v>30434715</v>
+        <v>30430737</v>
       </c>
       <c r="O616">
-        <v>13043076</v>
+        <v>13043102</v>
       </c>
     </row>
     <row r="617">
@@ -27488,19 +27488,19 @@
         <v>43.95</v>
       </c>
       <c r="K617">
-        <v>23.49</v>
+        <v>23.5</v>
       </c>
       <c r="L617">
         <v>316.91</v>
       </c>
       <c r="M617">
-        <v>135882999</v>
+        <v>135882208</v>
       </c>
       <c r="N617">
-        <v>19273680</v>
+        <v>19269702</v>
       </c>
       <c r="O617">
-        <v>13245787</v>
+        <v>13245813</v>
       </c>
     </row>
     <row r="618">
@@ -27535,19 +27535,19 @@
         <v>43.76</v>
       </c>
       <c r="K618">
-        <v>27.22</v>
+        <v>27.23</v>
       </c>
       <c r="L618">
         <v>317.17</v>
       </c>
       <c r="M618">
-        <v>116102918</v>
+        <v>116102127</v>
       </c>
       <c r="N618">
-        <v>14269292</v>
+        <v>14265314</v>
       </c>
       <c r="O618">
-        <v>13353572</v>
+        <v>13353598</v>
       </c>
     </row>
     <row r="619">
@@ -27555,46 +27555,93 @@
         <v>44377</v>
       </c>
       <c r="B619">
-        <v>2302392</v>
+        <v>2313415</v>
       </c>
       <c r="C619">
-        <v>4024.833333333333</v>
+        <v>3473.1</v>
       </c>
       <c r="D619">
-        <v>646709</v>
+        <v>651239</v>
       </c>
       <c r="E619">
-        <v>367295</v>
+        <v>333799</v>
       </c>
       <c r="F619">
-        <v>13922302</v>
+        <v>13923585</v>
       </c>
       <c r="G619">
-        <v>12519960</v>
+        <v>12502467</v>
       </c>
       <c r="H619">
-        <v>3984539</v>
+        <v>3996394</v>
       </c>
       <c r="I619">
-        <v>341.05</v>
+        <v>342.82</v>
       </c>
       <c r="J619">
         <v>42.43</v>
       </c>
       <c r="K619">
-        <v>27.68</v>
+        <v>27.67</v>
       </c>
       <c r="L619">
-        <v>320.81</v>
+        <v>320.88</v>
       </c>
       <c r="M619">
-        <v>97987248</v>
+        <v>97998312</v>
       </c>
       <c r="N619">
-        <v>11756823</v>
+        <v>11757375</v>
       </c>
       <c r="O619">
-        <v>13081883</v>
+        <v>13081280</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="2">
+        <v>44408</v>
+      </c>
+      <c r="B620">
+        <v>2188984</v>
+      </c>
+      <c r="C620">
+        <v>3695.566666666667</v>
+      </c>
+      <c r="D620">
+        <v>623817</v>
+      </c>
+      <c r="E620">
+        <v>341306</v>
+      </c>
+      <c r="F620">
+        <v>13597956</v>
+      </c>
+      <c r="G620">
+        <v>11403847</v>
+      </c>
+      <c r="H620">
+        <v>3583311</v>
+      </c>
+      <c r="I620">
+        <v>335.82</v>
+      </c>
+      <c r="J620">
+        <v>40.23</v>
+      </c>
+      <c r="K620">
+        <v>26.6</v>
+      </c>
+      <c r="L620">
+        <v>325.64</v>
+      </c>
+      <c r="M620">
+        <v>82935033</v>
+      </c>
+      <c r="N620">
+        <v>10225079</v>
+      </c>
+      <c r="O620">
+        <v>12472762</v>
       </c>
     </row>
   </sheetData>

--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O620"/>
+  <dimension ref="A1:O621"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3902,7 +3902,7 @@
         <v>1063136</v>
       </c>
       <c r="E98">
-        <v>210656</v>
+        <v>210657</v>
       </c>
       <c r="F98">
         <v>15063795</v>
@@ -3926,13 +3926,13 @@
         <v>79.33</v>
       </c>
       <c r="M98">
-        <v>8643083</v>
+        <v>8643084</v>
       </c>
       <c r="N98">
         <v>7816720</v>
       </c>
       <c r="O98">
-        <v>2726120</v>
+        <v>2726121</v>
       </c>
     </row>
     <row r="99">
@@ -3976,7 +3976,7 @@
         <v>7675188</v>
       </c>
       <c r="O99">
-        <v>2658760</v>
+        <v>2658761</v>
       </c>
     </row>
     <row r="100">
@@ -4020,7 +4020,7 @@
         <v>7655474</v>
       </c>
       <c r="O100">
-        <v>2569590</v>
+        <v>2569591</v>
       </c>
     </row>
     <row r="101">
@@ -4058,13 +4058,13 @@
         <v>80.95</v>
       </c>
       <c r="M101">
-        <v>8496267</v>
+        <v>8496268</v>
       </c>
       <c r="N101">
         <v>7630816</v>
       </c>
       <c r="O101">
-        <v>2496706</v>
+        <v>2496707</v>
       </c>
     </row>
     <row r="102">
@@ -4102,13 +4102,13 @@
         <v>81.34999999999999</v>
       </c>
       <c r="M102">
-        <v>8469970</v>
+        <v>8469971</v>
       </c>
       <c r="N102">
         <v>7605385</v>
       </c>
       <c r="O102">
-        <v>2447762</v>
+        <v>2447763</v>
       </c>
     </row>
     <row r="103">
@@ -4146,13 +4146,13 @@
         <v>81.74</v>
       </c>
       <c r="M103">
-        <v>8390308</v>
+        <v>8390309</v>
       </c>
       <c r="N103">
         <v>7610191</v>
       </c>
       <c r="O103">
-        <v>2369795</v>
+        <v>2369796</v>
       </c>
     </row>
     <row r="104">
@@ -4190,13 +4190,13 @@
         <v>82.12000000000001</v>
       </c>
       <c r="M104">
-        <v>8353733</v>
+        <v>8353734</v>
       </c>
       <c r="N104">
         <v>7610967</v>
       </c>
       <c r="O104">
-        <v>2306248</v>
+        <v>2306249</v>
       </c>
     </row>
     <row r="105">
@@ -4240,7 +4240,7 @@
         <v>7677889</v>
       </c>
       <c r="O105">
-        <v>2230961</v>
+        <v>2230962</v>
       </c>
     </row>
     <row r="106">
@@ -4278,13 +4278,13 @@
         <v>82.78</v>
       </c>
       <c r="M106">
-        <v>8313953</v>
+        <v>8313954</v>
       </c>
       <c r="N106">
         <v>7636142</v>
       </c>
       <c r="O106">
-        <v>2171019</v>
+        <v>2171020</v>
       </c>
     </row>
     <row r="107">
@@ -4322,13 +4322,13 @@
         <v>83.03</v>
       </c>
       <c r="M107">
-        <v>8307248</v>
+        <v>8307249</v>
       </c>
       <c r="N107">
         <v>7633029</v>
       </c>
       <c r="O107">
-        <v>2121247</v>
+        <v>2121248</v>
       </c>
     </row>
     <row r="108">
@@ -4366,13 +4366,13 @@
         <v>83.3</v>
       </c>
       <c r="M108">
-        <v>8263897</v>
+        <v>8263898</v>
       </c>
       <c r="N108">
         <v>7603593</v>
       </c>
       <c r="O108">
-        <v>2073372</v>
+        <v>2073373</v>
       </c>
     </row>
     <row r="109">
@@ -4410,13 +4410,13 @@
         <v>83.67</v>
       </c>
       <c r="M109">
-        <v>8212232</v>
+        <v>8212233</v>
       </c>
       <c r="N109">
         <v>7568310</v>
       </c>
       <c r="O109">
-        <v>2030434</v>
+        <v>2030435</v>
       </c>
     </row>
     <row r="110">
@@ -5407,7 +5407,7 @@
         <v>9516801</v>
       </c>
       <c r="H132">
-        <v>934828</v>
+        <v>934877</v>
       </c>
       <c r="I132">
         <v>94</v>
@@ -5422,7 +5422,7 @@
         <v>99.04000000000001</v>
       </c>
       <c r="M132">
-        <v>14066375</v>
+        <v>14066424</v>
       </c>
       <c r="N132">
         <v>9919645</v>
@@ -5466,7 +5466,7 @@
         <v>99.53</v>
       </c>
       <c r="M133">
-        <v>14468827</v>
+        <v>14468876</v>
       </c>
       <c r="N133">
         <v>9992123</v>
@@ -5510,7 +5510,7 @@
         <v>100.19</v>
       </c>
       <c r="M134">
-        <v>14604463</v>
+        <v>14604512</v>
       </c>
       <c r="N134">
         <v>9946214</v>
@@ -5554,7 +5554,7 @@
         <v>100.72</v>
       </c>
       <c r="M135">
-        <v>14689899</v>
+        <v>14689948</v>
       </c>
       <c r="N135">
         <v>9890722</v>
@@ -5598,7 +5598,7 @@
         <v>101.3</v>
       </c>
       <c r="M136">
-        <v>14866359</v>
+        <v>14866408</v>
       </c>
       <c r="N136">
         <v>9919839</v>
@@ -5642,7 +5642,7 @@
         <v>101.83</v>
       </c>
       <c r="M137">
-        <v>14860877</v>
+        <v>14860926</v>
       </c>
       <c r="N137">
         <v>9793604</v>
@@ -5686,7 +5686,7 @@
         <v>102.24</v>
       </c>
       <c r="M138">
-        <v>14670268</v>
+        <v>14670318</v>
       </c>
       <c r="N138">
         <v>9476838</v>
@@ -5730,7 +5730,7 @@
         <v>102.61</v>
       </c>
       <c r="M139">
-        <v>14466494</v>
+        <v>14466543</v>
       </c>
       <c r="N139">
         <v>9214474</v>
@@ -5747,7 +5747,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823661</v>
+        <v>823659</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -5774,10 +5774,10 @@
         <v>103.07</v>
       </c>
       <c r="M140">
-        <v>14131273</v>
+        <v>14131323</v>
       </c>
       <c r="N140">
-        <v>8935497</v>
+        <v>8935495</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -5818,10 +5818,10 @@
         <v>103.58</v>
       </c>
       <c r="M141">
-        <v>13893570</v>
+        <v>13893619</v>
       </c>
       <c r="N141">
-        <v>8782012</v>
+        <v>8782010</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -5862,10 +5862,10 @@
         <v>104.14</v>
       </c>
       <c r="M142">
-        <v>13749477</v>
+        <v>13749526</v>
       </c>
       <c r="N142">
-        <v>8776280</v>
+        <v>8776278</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -5906,10 +5906,10 @@
         <v>104.74</v>
       </c>
       <c r="M143">
-        <v>13621345</v>
+        <v>13621395</v>
       </c>
       <c r="N143">
-        <v>8836722</v>
+        <v>8836720</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -5953,7 +5953,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042530</v>
+        <v>9042528</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -5997,7 +5997,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9395150</v>
+        <v>9395148</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -6041,7 +6041,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9716014</v>
+        <v>9716012</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -6085,7 +6085,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916845</v>
+        <v>9916843</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -6129,7 +6129,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176478</v>
+        <v>10176476</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -6173,7 +6173,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10402059</v>
+        <v>10402057</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -6217,7 +6217,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586459</v>
+        <v>10586457</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -6261,7 +6261,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834372</v>
+        <v>10834370</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -7771,7 +7771,7 @@
         <v>1488338</v>
       </c>
       <c r="D186">
-        <v>590392</v>
+        <v>590398</v>
       </c>
       <c r="E186">
         <v>232183</v>
@@ -7783,7 +7783,7 @@
         <v>9067094</v>
       </c>
       <c r="H186">
-        <v>1209352</v>
+        <v>1209294</v>
       </c>
       <c r="I186">
         <v>126.92</v>
@@ -7798,10 +7798,10 @@
         <v>125.18</v>
       </c>
       <c r="M186">
-        <v>13890141</v>
+        <v>13890084</v>
       </c>
       <c r="N186">
-        <v>8211197</v>
+        <v>8211203</v>
       </c>
       <c r="O186">
         <v>2510371</v>
@@ -7842,10 +7842,10 @@
         <v>125.48</v>
       </c>
       <c r="M187">
-        <v>13966374</v>
+        <v>13966317</v>
       </c>
       <c r="N187">
-        <v>8231188</v>
+        <v>8231194</v>
       </c>
       <c r="O187">
         <v>2506811</v>
@@ -7886,10 +7886,10 @@
         <v>125.9</v>
       </c>
       <c r="M188">
-        <v>14177608</v>
+        <v>14177550</v>
       </c>
       <c r="N188">
-        <v>8310974</v>
+        <v>8310980</v>
       </c>
       <c r="O188">
         <v>2528409</v>
@@ -7930,10 +7930,10 @@
         <v>126.37</v>
       </c>
       <c r="M189">
-        <v>14260915</v>
+        <v>14260858</v>
       </c>
       <c r="N189">
-        <v>8315334</v>
+        <v>8315340</v>
       </c>
       <c r="O189">
         <v>2521451</v>
@@ -7974,10 +7974,10 @@
         <v>126.79</v>
       </c>
       <c r="M190">
-        <v>14423242</v>
+        <v>14423185</v>
       </c>
       <c r="N190">
-        <v>8370915</v>
+        <v>8370921</v>
       </c>
       <c r="O190">
         <v>2540060</v>
@@ -7991,10 +7991,10 @@
         <v>1667576</v>
       </c>
       <c r="D191">
-        <v>573531</v>
+        <v>573530</v>
       </c>
       <c r="E191">
-        <v>207677</v>
+        <v>207676</v>
       </c>
       <c r="F191">
         <v>9966680</v>
@@ -8003,7 +8003,7 @@
         <v>8715190</v>
       </c>
       <c r="H191">
-        <v>1072994</v>
+        <v>1072989</v>
       </c>
       <c r="I191">
         <v>129.49</v>
@@ -8018,13 +8018,13 @@
         <v>127.14</v>
       </c>
       <c r="M191">
-        <v>14528334</v>
+        <v>14528271</v>
       </c>
       <c r="N191">
-        <v>8368420</v>
+        <v>8368425</v>
       </c>
       <c r="O191">
-        <v>2551093</v>
+        <v>2551092</v>
       </c>
     </row>
     <row r="192">
@@ -8062,13 +8062,13 @@
         <v>127.59</v>
       </c>
       <c r="M192">
-        <v>14533108</v>
+        <v>14533046</v>
       </c>
       <c r="N192">
-        <v>8289994</v>
+        <v>8289999</v>
       </c>
       <c r="O192">
-        <v>2547715</v>
+        <v>2547714</v>
       </c>
     </row>
     <row r="193">
@@ -8106,13 +8106,13 @@
         <v>128.14</v>
       </c>
       <c r="M193">
-        <v>14761632</v>
+        <v>14761570</v>
       </c>
       <c r="N193">
-        <v>8365086</v>
+        <v>8365091</v>
       </c>
       <c r="O193">
-        <v>2572363</v>
+        <v>2572362</v>
       </c>
     </row>
     <row r="194">
@@ -8150,13 +8150,13 @@
         <v>128.88</v>
       </c>
       <c r="M194">
-        <v>14844313</v>
+        <v>14844250</v>
       </c>
       <c r="N194">
-        <v>8387973</v>
+        <v>8387978</v>
       </c>
       <c r="O194">
-        <v>2570163</v>
+        <v>2570162</v>
       </c>
     </row>
     <row r="195">
@@ -8194,13 +8194,13 @@
         <v>129.54</v>
       </c>
       <c r="M195">
-        <v>14889243</v>
+        <v>14889181</v>
       </c>
       <c r="N195">
-        <v>8325445</v>
+        <v>8325450</v>
       </c>
       <c r="O195">
-        <v>2571052</v>
+        <v>2571051</v>
       </c>
     </row>
     <row r="196">
@@ -8238,13 +8238,13 @@
         <v>130.2</v>
       </c>
       <c r="M196">
-        <v>14967925</v>
+        <v>14967863</v>
       </c>
       <c r="N196">
-        <v>8319941</v>
+        <v>8319946</v>
       </c>
       <c r="O196">
-        <v>2563126</v>
+        <v>2563125</v>
       </c>
     </row>
     <row r="197">
@@ -8282,13 +8282,13 @@
         <v>130.86</v>
       </c>
       <c r="M197">
-        <v>15090069</v>
+        <v>15090007</v>
       </c>
       <c r="N197">
-        <v>8341405</v>
+        <v>8341410</v>
       </c>
       <c r="O197">
-        <v>2566581</v>
+        <v>2566580</v>
       </c>
     </row>
     <row r="198">
@@ -8326,13 +8326,13 @@
         <v>131.55</v>
       </c>
       <c r="M198">
-        <v>15141443</v>
+        <v>15141438</v>
       </c>
       <c r="N198">
-        <v>8330291</v>
+        <v>8330290</v>
       </c>
       <c r="O198">
-        <v>2567382</v>
+        <v>2567381</v>
       </c>
     </row>
     <row r="199">
@@ -8346,7 +8346,7 @@
         <v>525103</v>
       </c>
       <c r="E199">
-        <v>214627</v>
+        <v>214626</v>
       </c>
       <c r="F199">
         <v>10193543</v>
@@ -8370,13 +8370,13 @@
         <v>132.19</v>
       </c>
       <c r="M199">
-        <v>15308986</v>
+        <v>15308982</v>
       </c>
       <c r="N199">
-        <v>8356539</v>
+        <v>8356538</v>
       </c>
       <c r="O199">
-        <v>2587933</v>
+        <v>2587931</v>
       </c>
     </row>
     <row r="200">
@@ -8414,13 +8414,13 @@
         <v>132.87</v>
       </c>
       <c r="M200">
-        <v>15440596</v>
+        <v>15440591</v>
       </c>
       <c r="N200">
-        <v>8350558</v>
+        <v>8350557</v>
       </c>
       <c r="O200">
-        <v>2599986</v>
+        <v>2599984</v>
       </c>
     </row>
     <row r="201">
@@ -8458,13 +8458,13 @@
         <v>133.48</v>
       </c>
       <c r="M201">
-        <v>15510370</v>
+        <v>15510366</v>
       </c>
       <c r="N201">
-        <v>8368301</v>
+        <v>8368300</v>
       </c>
       <c r="O201">
-        <v>2605565</v>
+        <v>2605563</v>
       </c>
     </row>
     <row r="202">
@@ -8502,13 +8502,13 @@
         <v>134.04</v>
       </c>
       <c r="M202">
-        <v>15673680</v>
+        <v>15673676</v>
       </c>
       <c r="N202">
-        <v>8381858</v>
+        <v>8381857</v>
       </c>
       <c r="O202">
-        <v>2635477</v>
+        <v>2635475</v>
       </c>
     </row>
     <row r="203">
@@ -8552,7 +8552,7 @@
         <v>8380544</v>
       </c>
       <c r="O203">
-        <v>2650973</v>
+        <v>2650972</v>
       </c>
     </row>
     <row r="204">
@@ -8596,7 +8596,7 @@
         <v>8330361</v>
       </c>
       <c r="O204">
-        <v>2658795</v>
+        <v>2658794</v>
       </c>
     </row>
     <row r="205">
@@ -8640,7 +8640,7 @@
         <v>8360752</v>
       </c>
       <c r="O205">
-        <v>2687344</v>
+        <v>2687343</v>
       </c>
     </row>
     <row r="206">
@@ -8684,7 +8684,7 @@
         <v>8190399</v>
       </c>
       <c r="O206">
-        <v>2682398</v>
+        <v>2682397</v>
       </c>
     </row>
     <row r="207">
@@ -8728,7 +8728,7 @@
         <v>8167954</v>
       </c>
       <c r="O207">
-        <v>2694749</v>
+        <v>2694748</v>
       </c>
     </row>
     <row r="208">
@@ -8772,7 +8772,7 @@
         <v>8133267</v>
       </c>
       <c r="O208">
-        <v>2719332</v>
+        <v>2719331</v>
       </c>
     </row>
     <row r="209">
@@ -8816,7 +8816,7 @@
         <v>8038963</v>
       </c>
       <c r="O209">
-        <v>2707774</v>
+        <v>2707773</v>
       </c>
     </row>
     <row r="210">
@@ -8860,7 +8860,7 @@
         <v>7908330</v>
       </c>
       <c r="O210">
-        <v>2680339</v>
+        <v>2680338</v>
       </c>
     </row>
     <row r="211">
@@ -27320,25 +27320,25 @@
         <v>44227</v>
       </c>
       <c r="B614">
-        <v>4597620</v>
+        <v>4597424</v>
       </c>
       <c r="C614">
         <v>5366.6</v>
       </c>
       <c r="D614">
-        <v>911365</v>
+        <v>910843</v>
       </c>
       <c r="E614">
-        <v>821783</v>
+        <v>821756</v>
       </c>
       <c r="F614">
-        <v>22603909</v>
+        <v>22600365</v>
       </c>
       <c r="G614">
-        <v>17582416</v>
+        <v>17581465</v>
       </c>
       <c r="H614">
-        <v>5634551</v>
+        <v>5634286</v>
       </c>
       <c r="I614">
         <v>345.52</v>
@@ -27353,13 +27353,13 @@
         <v>318.64</v>
       </c>
       <c r="M614">
-        <v>146319962</v>
+        <v>146319698</v>
       </c>
       <c r="N614">
-        <v>31003380</v>
+        <v>31002858</v>
       </c>
       <c r="O614">
-        <v>12104617</v>
+        <v>12104590</v>
       </c>
     </row>
     <row r="615">
@@ -27367,25 +27367,25 @@
         <v>44255</v>
       </c>
       <c r="B615">
-        <v>3555419</v>
+        <v>3555457</v>
       </c>
       <c r="C615">
         <v>5029.5</v>
       </c>
       <c r="D615">
-        <v>766368</v>
+        <v>766125</v>
       </c>
       <c r="E615">
-        <v>633237</v>
+        <v>633201</v>
       </c>
       <c r="F615">
-        <v>18855931</v>
+        <v>18854498</v>
       </c>
       <c r="G615">
-        <v>15868917</v>
+        <v>15866872</v>
       </c>
       <c r="H615">
-        <v>5077138</v>
+        <v>5076542</v>
       </c>
       <c r="I615">
         <v>348.69</v>
@@ -27400,13 +27400,13 @@
         <v>318.5</v>
       </c>
       <c r="M615">
-        <v>148644053</v>
+        <v>148643193</v>
       </c>
       <c r="N615">
-        <v>31290318</v>
+        <v>31289553</v>
       </c>
       <c r="O615">
-        <v>12599207</v>
+        <v>12599144</v>
       </c>
     </row>
     <row r="616">
@@ -27420,19 +27420,19 @@
         <v>4460.9</v>
       </c>
       <c r="D616">
-        <v>849984</v>
+        <v>849982</v>
       </c>
       <c r="E616">
-        <v>608785</v>
+        <v>608766</v>
       </c>
       <c r="F616">
-        <v>18758735</v>
+        <v>18758721</v>
       </c>
       <c r="G616">
-        <v>16573839</v>
+        <v>16573834</v>
       </c>
       <c r="H616">
-        <v>5364885</v>
+        <v>5364884</v>
       </c>
       <c r="I616">
         <v>350.83</v>
@@ -27447,13 +27447,13 @@
         <v>318.22</v>
       </c>
       <c r="M616">
-        <v>150117039</v>
+        <v>150116178</v>
       </c>
       <c r="N616">
-        <v>30430737</v>
+        <v>30429970</v>
       </c>
       <c r="O616">
-        <v>13043102</v>
+        <v>13043020</v>
       </c>
     </row>
     <row r="617">
@@ -27494,13 +27494,13 @@
         <v>316.91</v>
       </c>
       <c r="M617">
-        <v>135882208</v>
+        <v>135881346</v>
       </c>
       <c r="N617">
-        <v>19269702</v>
+        <v>19268935</v>
       </c>
       <c r="O617">
-        <v>13245813</v>
+        <v>13245731</v>
       </c>
     </row>
     <row r="618">
@@ -27541,13 +27541,13 @@
         <v>317.17</v>
       </c>
       <c r="M618">
-        <v>116102127</v>
+        <v>116101266</v>
       </c>
       <c r="N618">
-        <v>14265314</v>
+        <v>14264547</v>
       </c>
       <c r="O618">
-        <v>13353598</v>
+        <v>13353516</v>
       </c>
     </row>
     <row r="619">
@@ -27567,7 +27567,7 @@
         <v>333799</v>
       </c>
       <c r="F619">
-        <v>13923585</v>
+        <v>13923587</v>
       </c>
       <c r="G619">
         <v>12502467</v>
@@ -27588,13 +27588,13 @@
         <v>320.88</v>
       </c>
       <c r="M619">
-        <v>97998312</v>
+        <v>97997451</v>
       </c>
       <c r="N619">
-        <v>11757375</v>
+        <v>11756608</v>
       </c>
       <c r="O619">
-        <v>13081280</v>
+        <v>13081198</v>
       </c>
     </row>
     <row r="620">
@@ -27602,46 +27602,93 @@
         <v>44408</v>
       </c>
       <c r="B620">
-        <v>2188984</v>
+        <v>2051959</v>
       </c>
       <c r="C620">
-        <v>3695.566666666667</v>
+        <v>3413.7</v>
       </c>
       <c r="D620">
-        <v>623817</v>
+        <v>586421</v>
       </c>
       <c r="E620">
-        <v>341306</v>
+        <v>286121</v>
       </c>
       <c r="F620">
-        <v>13597956</v>
+        <v>12851095</v>
       </c>
       <c r="G620">
-        <v>11403847</v>
+        <v>10839736</v>
       </c>
       <c r="H620">
-        <v>3583311</v>
+        <v>3460723</v>
       </c>
       <c r="I620">
-        <v>335.82</v>
+        <v>342.09</v>
       </c>
       <c r="J620">
-        <v>40.23</v>
+        <v>40.05</v>
       </c>
       <c r="K620">
-        <v>26.6</v>
+        <v>26.64</v>
       </c>
       <c r="L620">
-        <v>325.64</v>
+        <v>325.87</v>
       </c>
       <c r="M620">
-        <v>82935033</v>
+        <v>82811584</v>
       </c>
       <c r="N620">
-        <v>10225079</v>
+        <v>10186916</v>
       </c>
       <c r="O620">
-        <v>12472762</v>
+        <v>12417495</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="2">
+        <v>44439</v>
+      </c>
+      <c r="B621">
+        <v>1529592</v>
+      </c>
+      <c r="C621">
+        <v>3492.666666666667</v>
+      </c>
+      <c r="D621">
+        <v>455563</v>
+      </c>
+      <c r="E621">
+        <v>274510</v>
+      </c>
+      <c r="F621">
+        <v>12787901</v>
+      </c>
+      <c r="G621">
+        <v>10514065</v>
+      </c>
+      <c r="H621">
+        <v>3417235</v>
+      </c>
+      <c r="I621">
+        <v>347.86</v>
+      </c>
+      <c r="J621">
+        <v>37.15</v>
+      </c>
+      <c r="K621">
+        <v>24.17</v>
+      </c>
+      <c r="L621">
+        <v>332.49</v>
+      </c>
+      <c r="M621">
+        <v>69862745</v>
+      </c>
+      <c r="N621">
+        <v>9327674</v>
+      </c>
+      <c r="O621">
+        <v>11625512</v>
       </c>
     </row>
   </sheetData>

--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O621"/>
+  <dimension ref="A1:O622"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4058,7 +4058,7 @@
         <v>80.95</v>
       </c>
       <c r="M101">
-        <v>8496268</v>
+        <v>8496267</v>
       </c>
       <c r="N101">
         <v>7630816</v>
@@ -4102,7 +4102,7 @@
         <v>81.34999999999999</v>
       </c>
       <c r="M102">
-        <v>8469971</v>
+        <v>8469970</v>
       </c>
       <c r="N102">
         <v>7605385</v>
@@ -4146,7 +4146,7 @@
         <v>81.74</v>
       </c>
       <c r="M103">
-        <v>8390309</v>
+        <v>8390308</v>
       </c>
       <c r="N103">
         <v>7610191</v>
@@ -4278,7 +4278,7 @@
         <v>82.78</v>
       </c>
       <c r="M106">
-        <v>8313954</v>
+        <v>8313953</v>
       </c>
       <c r="N106">
         <v>7636142</v>
@@ -4322,7 +4322,7 @@
         <v>83.03</v>
       </c>
       <c r="M107">
-        <v>8307249</v>
+        <v>8307248</v>
       </c>
       <c r="N107">
         <v>7633029</v>
@@ -4410,7 +4410,7 @@
         <v>83.67</v>
       </c>
       <c r="M109">
-        <v>8212233</v>
+        <v>8212232</v>
       </c>
       <c r="N109">
         <v>7568310</v>
@@ -5407,7 +5407,7 @@
         <v>9516801</v>
       </c>
       <c r="H132">
-        <v>934877</v>
+        <v>935077</v>
       </c>
       <c r="I132">
         <v>94</v>
@@ -5419,10 +5419,10 @@
         <v>14.67</v>
       </c>
       <c r="L132">
-        <v>99.04000000000001</v>
+        <v>99.05</v>
       </c>
       <c r="M132">
-        <v>14066424</v>
+        <v>14066624</v>
       </c>
       <c r="N132">
         <v>9919645</v>
@@ -5466,7 +5466,7 @@
         <v>99.53</v>
       </c>
       <c r="M133">
-        <v>14468876</v>
+        <v>14469077</v>
       </c>
       <c r="N133">
         <v>9992123</v>
@@ -5510,7 +5510,7 @@
         <v>100.19</v>
       </c>
       <c r="M134">
-        <v>14604512</v>
+        <v>14604712</v>
       </c>
       <c r="N134">
         <v>9946214</v>
@@ -5554,7 +5554,7 @@
         <v>100.72</v>
       </c>
       <c r="M135">
-        <v>14689948</v>
+        <v>14690149</v>
       </c>
       <c r="N135">
         <v>9890722</v>
@@ -5598,7 +5598,7 @@
         <v>101.3</v>
       </c>
       <c r="M136">
-        <v>14866408</v>
+        <v>14866608</v>
       </c>
       <c r="N136">
         <v>9919839</v>
@@ -5642,7 +5642,7 @@
         <v>101.83</v>
       </c>
       <c r="M137">
-        <v>14860926</v>
+        <v>14861126</v>
       </c>
       <c r="N137">
         <v>9793604</v>
@@ -5686,7 +5686,7 @@
         <v>102.24</v>
       </c>
       <c r="M138">
-        <v>14670318</v>
+        <v>14670518</v>
       </c>
       <c r="N138">
         <v>9476838</v>
@@ -5730,7 +5730,7 @@
         <v>102.61</v>
       </c>
       <c r="M139">
-        <v>14466543</v>
+        <v>14466743</v>
       </c>
       <c r="N139">
         <v>9214474</v>
@@ -5747,7 +5747,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823659</v>
+        <v>823658</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -5771,13 +5771,13 @@
         <v>15.74</v>
       </c>
       <c r="L140">
-        <v>103.07</v>
+        <v>103.08</v>
       </c>
       <c r="M140">
-        <v>14131323</v>
+        <v>14131523</v>
       </c>
       <c r="N140">
-        <v>8935495</v>
+        <v>8935494</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -5815,13 +5815,13 @@
         <v>15.66</v>
       </c>
       <c r="L141">
-        <v>103.58</v>
+        <v>103.59</v>
       </c>
       <c r="M141">
-        <v>13893619</v>
+        <v>13893819</v>
       </c>
       <c r="N141">
-        <v>8782010</v>
+        <v>8782009</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -5862,10 +5862,10 @@
         <v>104.14</v>
       </c>
       <c r="M142">
-        <v>13749526</v>
+        <v>13749726</v>
       </c>
       <c r="N142">
-        <v>8776278</v>
+        <v>8776277</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -5903,13 +5903,13 @@
         <v>15.1</v>
       </c>
       <c r="L143">
-        <v>104.74</v>
+        <v>104.75</v>
       </c>
       <c r="M143">
-        <v>13621395</v>
+        <v>13621595</v>
       </c>
       <c r="N143">
-        <v>8836720</v>
+        <v>8836719</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -5953,7 +5953,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042528</v>
+        <v>9042527</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -5997,7 +5997,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9395148</v>
+        <v>9395147</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -6041,7 +6041,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9716012</v>
+        <v>9716011</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -6085,7 +6085,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916843</v>
+        <v>9916842</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -6129,7 +6129,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176476</v>
+        <v>10176475</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -6173,7 +6173,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10402057</v>
+        <v>10402056</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -6217,7 +6217,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586457</v>
+        <v>10586456</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -6261,7 +6261,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834370</v>
+        <v>10834369</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -7771,7 +7771,7 @@
         <v>1488338</v>
       </c>
       <c r="D186">
-        <v>590398</v>
+        <v>590402</v>
       </c>
       <c r="E186">
         <v>232183</v>
@@ -7783,7 +7783,7 @@
         <v>9067094</v>
       </c>
       <c r="H186">
-        <v>1209294</v>
+        <v>1209199</v>
       </c>
       <c r="I186">
         <v>126.92</v>
@@ -7798,10 +7798,10 @@
         <v>125.18</v>
       </c>
       <c r="M186">
-        <v>13890084</v>
+        <v>13889989</v>
       </c>
       <c r="N186">
-        <v>8211203</v>
+        <v>8211207</v>
       </c>
       <c r="O186">
         <v>2510371</v>
@@ -7842,10 +7842,10 @@
         <v>125.48</v>
       </c>
       <c r="M187">
-        <v>13966317</v>
+        <v>13966222</v>
       </c>
       <c r="N187">
-        <v>8231194</v>
+        <v>8231198</v>
       </c>
       <c r="O187">
         <v>2506811</v>
@@ -7883,13 +7883,13 @@
         <v>14.01</v>
       </c>
       <c r="L188">
-        <v>125.9</v>
+        <v>125.89</v>
       </c>
       <c r="M188">
-        <v>14177550</v>
+        <v>14177455</v>
       </c>
       <c r="N188">
-        <v>8310980</v>
+        <v>8310984</v>
       </c>
       <c r="O188">
         <v>2528409</v>
@@ -7930,10 +7930,10 @@
         <v>126.37</v>
       </c>
       <c r="M189">
-        <v>14260858</v>
+        <v>14260763</v>
       </c>
       <c r="N189">
-        <v>8315340</v>
+        <v>8315344</v>
       </c>
       <c r="O189">
         <v>2521451</v>
@@ -7974,10 +7974,10 @@
         <v>126.79</v>
       </c>
       <c r="M190">
-        <v>14423185</v>
+        <v>14423090</v>
       </c>
       <c r="N190">
-        <v>8370921</v>
+        <v>8370925</v>
       </c>
       <c r="O190">
         <v>2540060</v>
@@ -7991,7 +7991,7 @@
         <v>1667576</v>
       </c>
       <c r="D191">
-        <v>573530</v>
+        <v>573529</v>
       </c>
       <c r="E191">
         <v>207676</v>
@@ -8003,7 +8003,7 @@
         <v>8715190</v>
       </c>
       <c r="H191">
-        <v>1072989</v>
+        <v>1072986</v>
       </c>
       <c r="I191">
         <v>129.49</v>
@@ -8018,10 +8018,10 @@
         <v>127.14</v>
       </c>
       <c r="M191">
-        <v>14528271</v>
+        <v>14528173</v>
       </c>
       <c r="N191">
-        <v>8368425</v>
+        <v>8368428</v>
       </c>
       <c r="O191">
         <v>2551092</v>
@@ -8062,10 +8062,10 @@
         <v>127.59</v>
       </c>
       <c r="M192">
-        <v>14533046</v>
+        <v>14532948</v>
       </c>
       <c r="N192">
-        <v>8289999</v>
+        <v>8290002</v>
       </c>
       <c r="O192">
         <v>2547714</v>
@@ -8106,10 +8106,10 @@
         <v>128.14</v>
       </c>
       <c r="M193">
-        <v>14761570</v>
+        <v>14761471</v>
       </c>
       <c r="N193">
-        <v>8365091</v>
+        <v>8365094</v>
       </c>
       <c r="O193">
         <v>2572362</v>
@@ -8150,10 +8150,10 @@
         <v>128.88</v>
       </c>
       <c r="M194">
-        <v>14844250</v>
+        <v>14844152</v>
       </c>
       <c r="N194">
-        <v>8387978</v>
+        <v>8387981</v>
       </c>
       <c r="O194">
         <v>2570162</v>
@@ -8194,10 +8194,10 @@
         <v>129.54</v>
       </c>
       <c r="M195">
-        <v>14889181</v>
+        <v>14889083</v>
       </c>
       <c r="N195">
-        <v>8325450</v>
+        <v>8325453</v>
       </c>
       <c r="O195">
         <v>2571051</v>
@@ -8238,10 +8238,10 @@
         <v>130.2</v>
       </c>
       <c r="M196">
-        <v>14967863</v>
+        <v>14967765</v>
       </c>
       <c r="N196">
-        <v>8319946</v>
+        <v>8319949</v>
       </c>
       <c r="O196">
         <v>2563125</v>
@@ -8282,10 +8282,10 @@
         <v>130.86</v>
       </c>
       <c r="M197">
-        <v>15090007</v>
+        <v>15089909</v>
       </c>
       <c r="N197">
-        <v>8341410</v>
+        <v>8341413</v>
       </c>
       <c r="O197">
         <v>2566580</v>
@@ -8326,10 +8326,10 @@
         <v>131.55</v>
       </c>
       <c r="M198">
-        <v>15141438</v>
+        <v>15141435</v>
       </c>
       <c r="N198">
-        <v>8330290</v>
+        <v>8330289</v>
       </c>
       <c r="O198">
         <v>2567381</v>
@@ -8370,10 +8370,10 @@
         <v>132.19</v>
       </c>
       <c r="M199">
-        <v>15308982</v>
+        <v>15308979</v>
       </c>
       <c r="N199">
-        <v>8356538</v>
+        <v>8356537</v>
       </c>
       <c r="O199">
         <v>2587931</v>
@@ -8414,10 +8414,10 @@
         <v>132.87</v>
       </c>
       <c r="M200">
-        <v>15440591</v>
+        <v>15440588</v>
       </c>
       <c r="N200">
-        <v>8350557</v>
+        <v>8350556</v>
       </c>
       <c r="O200">
         <v>2599984</v>
@@ -8458,10 +8458,10 @@
         <v>133.48</v>
       </c>
       <c r="M201">
-        <v>15510366</v>
+        <v>15510363</v>
       </c>
       <c r="N201">
-        <v>8368300</v>
+        <v>8368299</v>
       </c>
       <c r="O201">
         <v>2605563</v>
@@ -8502,10 +8502,10 @@
         <v>134.04</v>
       </c>
       <c r="M202">
-        <v>15673676</v>
+        <v>15673673</v>
       </c>
       <c r="N202">
-        <v>8381857</v>
+        <v>8381856</v>
       </c>
       <c r="O202">
         <v>2635475</v>
@@ -26915,7 +26915,7 @@
         <v>55690467</v>
       </c>
       <c r="H605">
-        <v>18332275</v>
+        <v>18328670</v>
       </c>
       <c r="I605">
         <v>334.29</v>
@@ -26927,10 +26927,10 @@
         <v>6.98</v>
       </c>
       <c r="L605">
-        <v>356.16</v>
+        <v>356.17</v>
       </c>
       <c r="M605">
-        <v>44510465</v>
+        <v>44506859</v>
       </c>
       <c r="N605">
         <v>18301723</v>
@@ -26944,7 +26944,7 @@
         <v>43982</v>
       </c>
       <c r="B606">
-        <v>9279282</v>
+        <v>9279296</v>
       </c>
       <c r="C606">
         <v>18746</v>
@@ -26956,16 +26956,16 @@
         <v>262760</v>
       </c>
       <c r="F606">
-        <v>87020528</v>
+        <v>86948621</v>
       </c>
       <c r="G606">
-        <v>76814427</v>
+        <v>76776856</v>
       </c>
       <c r="H606">
-        <v>23726957</v>
+        <v>23713379</v>
       </c>
       <c r="I606">
-        <v>319.44</v>
+        <v>319.46</v>
       </c>
       <c r="J606">
         <v>38.01</v>
@@ -26974,10 +26974,10 @@
         <v>8.390000000000001</v>
       </c>
       <c r="L606">
-        <v>341.82</v>
+        <v>341.84</v>
       </c>
       <c r="M606">
-        <v>66231612</v>
+        <v>66214428</v>
       </c>
       <c r="N606">
         <v>23707113</v>
@@ -26991,7 +26991,7 @@
         <v>44012</v>
       </c>
       <c r="B607">
-        <v>6646792</v>
+        <v>6646812</v>
       </c>
       <c r="C607">
         <v>17052.6</v>
@@ -27003,16 +27003,16 @@
         <v>606117</v>
       </c>
       <c r="F607">
-        <v>77536350</v>
+        <v>77460272</v>
       </c>
       <c r="G607">
-        <v>75533295</v>
+        <v>75424434</v>
       </c>
       <c r="H607">
-        <v>22100209</v>
+        <v>22065895</v>
       </c>
       <c r="I607">
-        <v>305.89</v>
+        <v>305.96</v>
       </c>
       <c r="J607">
         <v>46.67</v>
@@ -27021,10 +27021,10 @@
         <v>10.15</v>
       </c>
       <c r="L607">
-        <v>331.51</v>
+        <v>331.55</v>
       </c>
       <c r="M607">
-        <v>86415971</v>
+        <v>86364473</v>
       </c>
       <c r="N607">
         <v>26500891</v>
@@ -27038,7 +27038,7 @@
         <v>44043</v>
       </c>
       <c r="B608">
-        <v>5939042</v>
+        <v>5939361</v>
       </c>
       <c r="C608">
         <v>16315.1</v>
@@ -27050,28 +27050,28 @@
         <v>949824</v>
       </c>
       <c r="F608">
-        <v>68581582</v>
+        <v>68537745</v>
       </c>
       <c r="G608">
-        <v>64794858</v>
+        <v>64558876</v>
       </c>
       <c r="H608">
-        <v>18646590</v>
+        <v>18593113</v>
       </c>
       <c r="I608">
-        <v>303.93</v>
+        <v>304.37</v>
       </c>
       <c r="J608">
         <v>62.22</v>
       </c>
       <c r="K608">
-        <v>11.61</v>
+        <v>11.59</v>
       </c>
       <c r="L608">
-        <v>325.74</v>
+        <v>325.87</v>
       </c>
       <c r="M608">
-        <v>102748649</v>
+        <v>102643674</v>
       </c>
       <c r="N608">
         <v>28184477</v>
@@ -27085,7 +27085,7 @@
         <v>44074</v>
       </c>
       <c r="B609">
-        <v>3743036</v>
+        <v>3743201</v>
       </c>
       <c r="C609">
         <v>14100.6</v>
@@ -27097,28 +27097,28 @@
         <v>1066493</v>
       </c>
       <c r="F609">
-        <v>63190483</v>
+        <v>63156496</v>
       </c>
       <c r="G609">
-        <v>56487528</v>
+        <v>56382477</v>
       </c>
       <c r="H609">
-        <v>16366074</v>
+        <v>16343152</v>
       </c>
       <c r="I609">
-        <v>304.38</v>
+        <v>304.64</v>
       </c>
       <c r="J609">
         <v>80.68000000000001</v>
       </c>
       <c r="K609">
-        <v>12.97</v>
+        <v>12.95</v>
       </c>
       <c r="L609">
-        <v>322.12</v>
+        <v>322.27</v>
       </c>
       <c r="M609">
-        <v>117123687</v>
+        <v>116995790</v>
       </c>
       <c r="N609">
         <v>29143107</v>
@@ -27132,7 +27132,7 @@
         <v>44104</v>
       </c>
       <c r="B610">
-        <v>3489435</v>
+        <v>3489601</v>
       </c>
       <c r="C610">
         <v>12431.1</v>
@@ -27144,28 +27144,28 @@
         <v>3083064</v>
       </c>
       <c r="F610">
-        <v>49098458</v>
+        <v>49076262</v>
       </c>
       <c r="G610">
-        <v>45873012</v>
+        <v>45719747</v>
       </c>
       <c r="H610">
-        <v>13421459</v>
+        <v>13385489</v>
       </c>
       <c r="I610">
-        <v>308.91</v>
+        <v>309.4</v>
       </c>
       <c r="J610">
         <v>109.82</v>
       </c>
       <c r="K610">
-        <v>14.07</v>
+        <v>14.05</v>
       </c>
       <c r="L610">
-        <v>320.08</v>
+        <v>320.28</v>
       </c>
       <c r="M610">
-        <v>128601084</v>
+        <v>128437217</v>
       </c>
       <c r="N610">
         <v>29743624</v>
@@ -27179,43 +27179,43 @@
         <v>44135</v>
       </c>
       <c r="B611">
-        <v>3443451</v>
+        <v>3443574</v>
       </c>
       <c r="C611">
         <v>7612.8</v>
       </c>
       <c r="D611">
-        <v>761120</v>
+        <v>761121</v>
       </c>
       <c r="E611">
         <v>2433981</v>
       </c>
       <c r="F611">
-        <v>32048169</v>
+        <v>32036516</v>
       </c>
       <c r="G611">
-        <v>28413290</v>
+        <v>28268309</v>
       </c>
       <c r="H611">
-        <v>8356095</v>
+        <v>8327274</v>
       </c>
       <c r="I611">
-        <v>316</v>
+        <v>316.89</v>
       </c>
       <c r="J611">
         <v>51.09</v>
       </c>
       <c r="K611">
-        <v>14.65</v>
+        <v>14.63</v>
       </c>
       <c r="L611">
-        <v>319.16</v>
+        <v>319.4</v>
       </c>
       <c r="M611">
-        <v>135047188</v>
+        <v>134854500</v>
       </c>
       <c r="N611">
-        <v>30140372</v>
+        <v>30140373</v>
       </c>
       <c r="O611">
         <v>9350631</v>
@@ -27226,7 +27226,7 @@
         <v>44165</v>
       </c>
       <c r="B612">
-        <v>3431747</v>
+        <v>3431761</v>
       </c>
       <c r="C612">
         <v>6136</v>
@@ -27235,37 +27235,37 @@
         <v>741150</v>
       </c>
       <c r="E612">
-        <v>1329594</v>
+        <v>1329597</v>
       </c>
       <c r="F612">
-        <v>26430567</v>
+        <v>26421926</v>
       </c>
       <c r="G612">
-        <v>21910975</v>
+        <v>21860918</v>
       </c>
       <c r="H612">
-        <v>6687978</v>
+        <v>6677480</v>
       </c>
       <c r="I612">
-        <v>329.98</v>
+        <v>330.49</v>
       </c>
       <c r="J612">
         <v>44.51</v>
       </c>
       <c r="K612">
-        <v>15.03</v>
+        <v>15</v>
       </c>
       <c r="L612">
-        <v>318.99</v>
+        <v>319.25</v>
       </c>
       <c r="M612">
-        <v>139909101</v>
+        <v>139705915</v>
       </c>
       <c r="N612">
-        <v>30514876</v>
+        <v>30514877</v>
       </c>
       <c r="O612">
-        <v>10552322</v>
+        <v>10552325</v>
       </c>
     </row>
     <row r="613">
@@ -27273,7 +27273,7 @@
         <v>44196</v>
       </c>
       <c r="B613">
-        <v>4222033</v>
+        <v>4222043</v>
       </c>
       <c r="C613">
         <v>5655.4</v>
@@ -27282,37 +27282,37 @@
         <v>875069</v>
       </c>
       <c r="E613">
-        <v>1041444</v>
+        <v>1041451</v>
       </c>
       <c r="F613">
-        <v>23032212</v>
+        <v>23024234</v>
       </c>
       <c r="G613">
-        <v>20353740</v>
+        <v>20320439</v>
       </c>
       <c r="H613">
-        <v>6402828</v>
+        <v>6389468</v>
       </c>
       <c r="I613">
-        <v>339.4</v>
+        <v>339.82</v>
       </c>
       <c r="J613">
         <v>43.15</v>
       </c>
       <c r="K613">
-        <v>15.3</v>
+        <v>15.27</v>
       </c>
       <c r="L613">
-        <v>318.84</v>
+        <v>319.1</v>
       </c>
       <c r="M613">
-        <v>143632581</v>
+        <v>143416036</v>
       </c>
       <c r="N613">
-        <v>30828508</v>
+        <v>30828509</v>
       </c>
       <c r="O613">
-        <v>11434855</v>
+        <v>11434865</v>
       </c>
     </row>
     <row r="614">
@@ -27320,46 +27320,46 @@
         <v>44227</v>
       </c>
       <c r="B614">
-        <v>4597424</v>
+        <v>4597503</v>
       </c>
       <c r="C614">
         <v>5366.6</v>
       </c>
       <c r="D614">
-        <v>910843</v>
+        <v>910844</v>
       </c>
       <c r="E614">
-        <v>821756</v>
+        <v>821765</v>
       </c>
       <c r="F614">
-        <v>22600365</v>
+        <v>22584976</v>
       </c>
       <c r="G614">
-        <v>17581465</v>
+        <v>17533693</v>
       </c>
       <c r="H614">
-        <v>5634286</v>
+        <v>5618359</v>
       </c>
       <c r="I614">
-        <v>345.52</v>
+        <v>346.07</v>
       </c>
       <c r="J614">
         <v>42.95</v>
       </c>
       <c r="K614">
-        <v>15.53</v>
+        <v>15.5</v>
       </c>
       <c r="L614">
-        <v>318.64</v>
+        <v>318.91</v>
       </c>
       <c r="M614">
-        <v>146319698</v>
+        <v>146087225</v>
       </c>
       <c r="N614">
-        <v>31002858</v>
+        <v>31002860</v>
       </c>
       <c r="O614">
-        <v>12104590</v>
+        <v>12104609</v>
       </c>
     </row>
     <row r="615">
@@ -27367,7 +27367,7 @@
         <v>44255</v>
       </c>
       <c r="B615">
-        <v>3555457</v>
+        <v>3555489</v>
       </c>
       <c r="C615">
         <v>5029.5</v>
@@ -27376,37 +27376,37 @@
         <v>766125</v>
       </c>
       <c r="E615">
-        <v>633201</v>
+        <v>633206</v>
       </c>
       <c r="F615">
-        <v>18854498</v>
+        <v>18840926</v>
       </c>
       <c r="G615">
-        <v>15866872</v>
+        <v>15831126</v>
       </c>
       <c r="H615">
-        <v>5076542</v>
+        <v>5068153</v>
       </c>
       <c r="I615">
-        <v>348.69</v>
+        <v>349.14</v>
       </c>
       <c r="J615">
         <v>43.23</v>
       </c>
       <c r="K615">
-        <v>15.66</v>
+        <v>15.63</v>
       </c>
       <c r="L615">
-        <v>318.5</v>
+        <v>318.77</v>
       </c>
       <c r="M615">
-        <v>148643193</v>
+        <v>148402331</v>
       </c>
       <c r="N615">
-        <v>31289553</v>
+        <v>31289555</v>
       </c>
       <c r="O615">
-        <v>12599144</v>
+        <v>12599168</v>
       </c>
     </row>
     <row r="616">
@@ -27414,7 +27414,7 @@
         <v>44286</v>
       </c>
       <c r="B616">
-        <v>4200462</v>
+        <v>4200510</v>
       </c>
       <c r="C616">
         <v>4460.9</v>
@@ -27423,37 +27423,37 @@
         <v>849982</v>
       </c>
       <c r="E616">
-        <v>608766</v>
+        <v>608768</v>
       </c>
       <c r="F616">
-        <v>18758721</v>
+        <v>18758733</v>
       </c>
       <c r="G616">
-        <v>16573834</v>
+        <v>16492496</v>
       </c>
       <c r="H616">
-        <v>5364884</v>
+        <v>5346462</v>
       </c>
       <c r="I616">
-        <v>350.83</v>
+        <v>351.64</v>
       </c>
       <c r="J616">
         <v>43.85</v>
       </c>
       <c r="K616">
-        <v>16.3</v>
+        <v>16.26</v>
       </c>
       <c r="L616">
-        <v>318.22</v>
+        <v>318.51</v>
       </c>
       <c r="M616">
-        <v>150116178</v>
+        <v>149856894</v>
       </c>
       <c r="N616">
-        <v>30429970</v>
+        <v>30429972</v>
       </c>
       <c r="O616">
-        <v>13043020</v>
+        <v>13043046</v>
       </c>
     </row>
     <row r="617">
@@ -27461,7 +27461,7 @@
         <v>44316</v>
       </c>
       <c r="B617">
-        <v>3139747</v>
+        <v>3139798</v>
       </c>
       <c r="C617">
         <v>4022.4</v>
@@ -27470,37 +27470,37 @@
         <v>1066273</v>
       </c>
       <c r="E617">
-        <v>408731</v>
+        <v>408732</v>
       </c>
       <c r="F617">
-        <v>16107924</v>
+        <v>16107951</v>
       </c>
       <c r="G617">
-        <v>12595822</v>
+        <v>12468409</v>
       </c>
       <c r="H617">
-        <v>4097444</v>
+        <v>4068638</v>
       </c>
       <c r="I617">
-        <v>347.13</v>
+        <v>348.59</v>
       </c>
       <c r="J617">
         <v>43.95</v>
       </c>
       <c r="K617">
-        <v>23.5</v>
+        <v>23.44</v>
       </c>
       <c r="L617">
-        <v>316.91</v>
+        <v>317.26</v>
       </c>
       <c r="M617">
-        <v>135881346</v>
+        <v>135596863</v>
       </c>
       <c r="N617">
-        <v>19268935</v>
+        <v>19268937</v>
       </c>
       <c r="O617">
-        <v>13245731</v>
+        <v>13245758</v>
       </c>
     </row>
     <row r="618">
@@ -27508,46 +27508,46 @@
         <v>44347</v>
       </c>
       <c r="B618">
-        <v>2221308</v>
+        <v>2221329</v>
       </c>
       <c r="C618">
         <v>3591.2</v>
       </c>
       <c r="D618">
-        <v>752182</v>
+        <v>752154</v>
       </c>
       <c r="E618">
         <v>370545</v>
       </c>
       <c r="F618">
-        <v>15736408</v>
+        <v>15736709</v>
       </c>
       <c r="G618">
-        <v>12404360</v>
+        <v>12270097</v>
       </c>
       <c r="H618">
-        <v>3946877</v>
+        <v>3917566</v>
       </c>
       <c r="I618">
-        <v>341.89</v>
+        <v>343.42</v>
       </c>
       <c r="J618">
         <v>43.76</v>
       </c>
       <c r="K618">
-        <v>27.23</v>
+        <v>27.14</v>
       </c>
       <c r="L618">
-        <v>317.17</v>
+        <v>317.62</v>
       </c>
       <c r="M618">
-        <v>116101266</v>
+        <v>115801050</v>
       </c>
       <c r="N618">
-        <v>14264547</v>
+        <v>14264521</v>
       </c>
       <c r="O618">
-        <v>13353516</v>
+        <v>13353543</v>
       </c>
     </row>
     <row r="619">
@@ -27555,25 +27555,25 @@
         <v>44377</v>
       </c>
       <c r="B619">
-        <v>2313415</v>
+        <v>2313431</v>
       </c>
       <c r="C619">
         <v>3473.1</v>
       </c>
       <c r="D619">
-        <v>651239</v>
+        <v>651039</v>
       </c>
       <c r="E619">
-        <v>333799</v>
+        <v>334210</v>
       </c>
       <c r="F619">
-        <v>13923587</v>
+        <v>13918783</v>
       </c>
       <c r="G619">
-        <v>12502467</v>
+        <v>12497303</v>
       </c>
       <c r="H619">
-        <v>3996394</v>
+        <v>3994793</v>
       </c>
       <c r="I619">
         <v>342.82</v>
@@ -27582,19 +27582,19 @@
         <v>42.43</v>
       </c>
       <c r="K619">
-        <v>27.67</v>
+        <v>27.58</v>
       </c>
       <c r="L619">
-        <v>320.88</v>
+        <v>321.41</v>
       </c>
       <c r="M619">
-        <v>97997451</v>
+        <v>97729948</v>
       </c>
       <c r="N619">
-        <v>11756608</v>
+        <v>11756382</v>
       </c>
       <c r="O619">
-        <v>13081198</v>
+        <v>13081636</v>
       </c>
     </row>
     <row r="620">
@@ -27602,46 +27602,46 @@
         <v>44408</v>
       </c>
       <c r="B620">
-        <v>2051959</v>
+        <v>2052228</v>
       </c>
       <c r="C620">
         <v>3413.7</v>
       </c>
       <c r="D620">
-        <v>586421</v>
+        <v>586397</v>
       </c>
       <c r="E620">
-        <v>286121</v>
+        <v>286681</v>
       </c>
       <c r="F620">
-        <v>12851095</v>
+        <v>12849176</v>
       </c>
       <c r="G620">
-        <v>10839736</v>
+        <v>10704892</v>
       </c>
       <c r="H620">
-        <v>3460723</v>
+        <v>3431336</v>
       </c>
       <c r="I620">
-        <v>342.09</v>
+        <v>343.73</v>
       </c>
       <c r="J620">
-        <v>40.05</v>
+        <v>40.06</v>
       </c>
       <c r="K620">
-        <v>26.64</v>
+        <v>26.54</v>
       </c>
       <c r="L620">
-        <v>325.87</v>
+        <v>326.46</v>
       </c>
       <c r="M620">
-        <v>82811584</v>
+        <v>82568171</v>
       </c>
       <c r="N620">
-        <v>10186916</v>
+        <v>10186666</v>
       </c>
       <c r="O620">
-        <v>12417495</v>
+        <v>12418493</v>
       </c>
     </row>
     <row r="621">
@@ -27649,46 +27649,93 @@
         <v>44439</v>
       </c>
       <c r="B621">
-        <v>1529592</v>
+        <v>1517854</v>
       </c>
       <c r="C621">
-        <v>3492.666666666667</v>
+        <v>2944.1</v>
       </c>
       <c r="D621">
-        <v>455563</v>
+        <v>455562</v>
       </c>
       <c r="E621">
         <v>274510</v>
       </c>
       <c r="F621">
-        <v>12787901</v>
+        <v>12788245</v>
       </c>
       <c r="G621">
         <v>10514065</v>
       </c>
       <c r="H621">
-        <v>3417235</v>
+        <v>3417234</v>
       </c>
       <c r="I621">
         <v>347.86</v>
       </c>
       <c r="J621">
-        <v>37.15</v>
+        <v>37.16</v>
       </c>
       <c r="K621">
-        <v>24.17</v>
+        <v>24.07</v>
       </c>
       <c r="L621">
-        <v>332.49</v>
+        <v>333.16</v>
       </c>
       <c r="M621">
-        <v>69862745</v>
+        <v>69642253</v>
       </c>
       <c r="N621">
-        <v>9327674</v>
+        <v>9327423</v>
       </c>
       <c r="O621">
-        <v>11625512</v>
+        <v>11626510</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="2">
+        <v>44469</v>
+      </c>
+      <c r="B622">
+        <v>1414641</v>
+      </c>
+      <c r="C622">
+        <v>2479.4</v>
+      </c>
+      <c r="D622">
+        <v>476047</v>
+      </c>
+      <c r="E622">
+        <v>322858</v>
+      </c>
+      <c r="F622">
+        <v>10359699</v>
+      </c>
+      <c r="G622">
+        <v>8205694</v>
+      </c>
+      <c r="H622">
+        <v>2698093</v>
+      </c>
+      <c r="I622">
+        <v>348.84</v>
+      </c>
+      <c r="J622">
+        <v>29.14</v>
+      </c>
+      <c r="K622">
+        <v>21.03</v>
+      </c>
+      <c r="L622">
+        <v>339.85</v>
+      </c>
+      <c r="M622">
+        <v>58954857</v>
+      </c>
+      <c r="N622">
+        <v>8891763</v>
+      </c>
+      <c r="O622">
+        <v>8866304</v>
       </c>
     </row>
   </sheetData>

--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O622"/>
+  <dimension ref="A1:O623"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5407,7 +5407,7 @@
         <v>9516801</v>
       </c>
       <c r="H132">
-        <v>935077</v>
+        <v>935099</v>
       </c>
       <c r="I132">
         <v>94</v>
@@ -5422,7 +5422,7 @@
         <v>99.05</v>
       </c>
       <c r="M132">
-        <v>14066624</v>
+        <v>14066646</v>
       </c>
       <c r="N132">
         <v>9919645</v>
@@ -5466,7 +5466,7 @@
         <v>99.53</v>
       </c>
       <c r="M133">
-        <v>14469077</v>
+        <v>14469098</v>
       </c>
       <c r="N133">
         <v>9992123</v>
@@ -5510,7 +5510,7 @@
         <v>100.19</v>
       </c>
       <c r="M134">
-        <v>14604712</v>
+        <v>14604733</v>
       </c>
       <c r="N134">
         <v>9946214</v>
@@ -5554,7 +5554,7 @@
         <v>100.72</v>
       </c>
       <c r="M135">
-        <v>14690149</v>
+        <v>14690170</v>
       </c>
       <c r="N135">
         <v>9890722</v>
@@ -5598,7 +5598,7 @@
         <v>101.3</v>
       </c>
       <c r="M136">
-        <v>14866608</v>
+        <v>14866629</v>
       </c>
       <c r="N136">
         <v>9919839</v>
@@ -5642,7 +5642,7 @@
         <v>101.83</v>
       </c>
       <c r="M137">
-        <v>14861126</v>
+        <v>14861148</v>
       </c>
       <c r="N137">
         <v>9793604</v>
@@ -5686,7 +5686,7 @@
         <v>102.24</v>
       </c>
       <c r="M138">
-        <v>14670518</v>
+        <v>14670539</v>
       </c>
       <c r="N138">
         <v>9476838</v>
@@ -5730,7 +5730,7 @@
         <v>102.61</v>
       </c>
       <c r="M139">
-        <v>14466743</v>
+        <v>14466764</v>
       </c>
       <c r="N139">
         <v>9214474</v>
@@ -5747,7 +5747,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823658</v>
+        <v>823662</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -5774,10 +5774,10 @@
         <v>103.08</v>
       </c>
       <c r="M140">
-        <v>14131523</v>
+        <v>14131544</v>
       </c>
       <c r="N140">
-        <v>8935494</v>
+        <v>8935498</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -5818,10 +5818,10 @@
         <v>103.59</v>
       </c>
       <c r="M141">
-        <v>13893819</v>
+        <v>13893841</v>
       </c>
       <c r="N141">
-        <v>8782009</v>
+        <v>8782013</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -5862,10 +5862,10 @@
         <v>104.14</v>
       </c>
       <c r="M142">
-        <v>13749726</v>
+        <v>13749747</v>
       </c>
       <c r="N142">
-        <v>8776277</v>
+        <v>8776281</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -5906,10 +5906,10 @@
         <v>104.75</v>
       </c>
       <c r="M143">
-        <v>13621595</v>
+        <v>13621616</v>
       </c>
       <c r="N143">
-        <v>8836719</v>
+        <v>8836723</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -5953,7 +5953,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042527</v>
+        <v>9042531</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -5997,7 +5997,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9395147</v>
+        <v>9395151</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -6041,7 +6041,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9716011</v>
+        <v>9716015</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -6085,7 +6085,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916842</v>
+        <v>9916846</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -6129,7 +6129,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176475</v>
+        <v>10176479</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -6173,7 +6173,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10402056</v>
+        <v>10402060</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -6217,7 +6217,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586456</v>
+        <v>10586460</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -6261,7 +6261,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834369</v>
+        <v>10834373</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -7771,7 +7771,7 @@
         <v>1488338</v>
       </c>
       <c r="D186">
-        <v>590402</v>
+        <v>590411</v>
       </c>
       <c r="E186">
         <v>232183</v>
@@ -7783,7 +7783,7 @@
         <v>9067094</v>
       </c>
       <c r="H186">
-        <v>1209199</v>
+        <v>1209218</v>
       </c>
       <c r="I186">
         <v>126.92</v>
@@ -7798,10 +7798,10 @@
         <v>125.18</v>
       </c>
       <c r="M186">
-        <v>13889989</v>
+        <v>13890008</v>
       </c>
       <c r="N186">
-        <v>8211207</v>
+        <v>8211216</v>
       </c>
       <c r="O186">
         <v>2510371</v>
@@ -7842,10 +7842,10 @@
         <v>125.48</v>
       </c>
       <c r="M187">
-        <v>13966222</v>
+        <v>13966241</v>
       </c>
       <c r="N187">
-        <v>8231198</v>
+        <v>8231207</v>
       </c>
       <c r="O187">
         <v>2506811</v>
@@ -7886,10 +7886,10 @@
         <v>125.89</v>
       </c>
       <c r="M188">
-        <v>14177455</v>
+        <v>14177474</v>
       </c>
       <c r="N188">
-        <v>8310984</v>
+        <v>8310993</v>
       </c>
       <c r="O188">
         <v>2528409</v>
@@ -7930,10 +7930,10 @@
         <v>126.37</v>
       </c>
       <c r="M189">
-        <v>14260763</v>
+        <v>14260782</v>
       </c>
       <c r="N189">
-        <v>8315344</v>
+        <v>8315353</v>
       </c>
       <c r="O189">
         <v>2521451</v>
@@ -7974,10 +7974,10 @@
         <v>126.79</v>
       </c>
       <c r="M190">
-        <v>14423090</v>
+        <v>14423109</v>
       </c>
       <c r="N190">
-        <v>8370925</v>
+        <v>8370934</v>
       </c>
       <c r="O190">
         <v>2540060</v>
@@ -7991,7 +7991,7 @@
         <v>1667576</v>
       </c>
       <c r="D191">
-        <v>573529</v>
+        <v>573527</v>
       </c>
       <c r="E191">
         <v>207676</v>
@@ -8003,7 +8003,7 @@
         <v>8715190</v>
       </c>
       <c r="H191">
-        <v>1072986</v>
+        <v>1072983</v>
       </c>
       <c r="I191">
         <v>129.49</v>
@@ -8018,10 +8018,10 @@
         <v>127.14</v>
       </c>
       <c r="M191">
-        <v>14528173</v>
+        <v>14528189</v>
       </c>
       <c r="N191">
-        <v>8368428</v>
+        <v>8368435</v>
       </c>
       <c r="O191">
         <v>2551092</v>
@@ -8062,10 +8062,10 @@
         <v>127.59</v>
       </c>
       <c r="M192">
-        <v>14532948</v>
+        <v>14532964</v>
       </c>
       <c r="N192">
-        <v>8290002</v>
+        <v>8290009</v>
       </c>
       <c r="O192">
         <v>2547714</v>
@@ -8106,10 +8106,10 @@
         <v>128.14</v>
       </c>
       <c r="M193">
-        <v>14761471</v>
+        <v>14761487</v>
       </c>
       <c r="N193">
-        <v>8365094</v>
+        <v>8365101</v>
       </c>
       <c r="O193">
         <v>2572362</v>
@@ -8150,10 +8150,10 @@
         <v>128.88</v>
       </c>
       <c r="M194">
-        <v>14844152</v>
+        <v>14844168</v>
       </c>
       <c r="N194">
-        <v>8387981</v>
+        <v>8387988</v>
       </c>
       <c r="O194">
         <v>2570162</v>
@@ -8194,10 +8194,10 @@
         <v>129.54</v>
       </c>
       <c r="M195">
-        <v>14889083</v>
+        <v>14889099</v>
       </c>
       <c r="N195">
-        <v>8325453</v>
+        <v>8325460</v>
       </c>
       <c r="O195">
         <v>2571051</v>
@@ -8238,10 +8238,10 @@
         <v>130.2</v>
       </c>
       <c r="M196">
-        <v>14967765</v>
+        <v>14967780</v>
       </c>
       <c r="N196">
-        <v>8319949</v>
+        <v>8319956</v>
       </c>
       <c r="O196">
         <v>2563125</v>
@@ -8282,10 +8282,10 @@
         <v>130.86</v>
       </c>
       <c r="M197">
-        <v>15089909</v>
+        <v>15089925</v>
       </c>
       <c r="N197">
-        <v>8341413</v>
+        <v>8341420</v>
       </c>
       <c r="O197">
         <v>2566580</v>
@@ -8326,10 +8326,10 @@
         <v>131.55</v>
       </c>
       <c r="M198">
-        <v>15141435</v>
+        <v>15141431</v>
       </c>
       <c r="N198">
-        <v>8330289</v>
+        <v>8330287</v>
       </c>
       <c r="O198">
         <v>2567381</v>
@@ -8346,7 +8346,7 @@
         <v>525103</v>
       </c>
       <c r="E199">
-        <v>214626</v>
+        <v>214625</v>
       </c>
       <c r="F199">
         <v>10193543</v>
@@ -8370,13 +8370,13 @@
         <v>132.19</v>
       </c>
       <c r="M199">
-        <v>15308979</v>
+        <v>15308975</v>
       </c>
       <c r="N199">
-        <v>8356537</v>
+        <v>8356535</v>
       </c>
       <c r="O199">
-        <v>2587931</v>
+        <v>2587930</v>
       </c>
     </row>
     <row r="200">
@@ -8414,13 +8414,13 @@
         <v>132.87</v>
       </c>
       <c r="M200">
-        <v>15440588</v>
+        <v>15440585</v>
       </c>
       <c r="N200">
-        <v>8350556</v>
+        <v>8350554</v>
       </c>
       <c r="O200">
-        <v>2599984</v>
+        <v>2599983</v>
       </c>
     </row>
     <row r="201">
@@ -8458,13 +8458,13 @@
         <v>133.48</v>
       </c>
       <c r="M201">
-        <v>15510363</v>
+        <v>15510359</v>
       </c>
       <c r="N201">
-        <v>8368299</v>
+        <v>8368297</v>
       </c>
       <c r="O201">
-        <v>2605563</v>
+        <v>2605562</v>
       </c>
     </row>
     <row r="202">
@@ -8502,13 +8502,13 @@
         <v>134.04</v>
       </c>
       <c r="M202">
-        <v>15673673</v>
+        <v>15673669</v>
       </c>
       <c r="N202">
-        <v>8381856</v>
+        <v>8381854</v>
       </c>
       <c r="O202">
-        <v>2635475</v>
+        <v>2635474</v>
       </c>
     </row>
     <row r="203">
@@ -8552,7 +8552,7 @@
         <v>8380544</v>
       </c>
       <c r="O203">
-        <v>2650972</v>
+        <v>2650971</v>
       </c>
     </row>
     <row r="204">
@@ -8596,7 +8596,7 @@
         <v>8330361</v>
       </c>
       <c r="O204">
-        <v>2658794</v>
+        <v>2658793</v>
       </c>
     </row>
     <row r="205">
@@ -8640,7 +8640,7 @@
         <v>8360752</v>
       </c>
       <c r="O205">
-        <v>2687343</v>
+        <v>2687342</v>
       </c>
     </row>
     <row r="206">
@@ -8684,7 +8684,7 @@
         <v>8190399</v>
       </c>
       <c r="O206">
-        <v>2682397</v>
+        <v>2682396</v>
       </c>
     </row>
     <row r="207">
@@ -8728,7 +8728,7 @@
         <v>8167954</v>
       </c>
       <c r="O207">
-        <v>2694748</v>
+        <v>2694747</v>
       </c>
     </row>
     <row r="208">
@@ -8772,7 +8772,7 @@
         <v>8133267</v>
       </c>
       <c r="O208">
-        <v>2719331</v>
+        <v>2719330</v>
       </c>
     </row>
     <row r="209">
@@ -8816,7 +8816,7 @@
         <v>8038963</v>
       </c>
       <c r="O209">
-        <v>2707773</v>
+        <v>2707772</v>
       </c>
     </row>
     <row r="210">
@@ -8860,7 +8860,7 @@
         <v>7908330</v>
       </c>
       <c r="O210">
-        <v>2680338</v>
+        <v>2680337</v>
       </c>
     </row>
     <row r="211">
@@ -27555,46 +27555,46 @@
         <v>44377</v>
       </c>
       <c r="B619">
-        <v>2313431</v>
+        <v>2301654</v>
       </c>
       <c r="C619">
         <v>3473.1</v>
       </c>
       <c r="D619">
-        <v>651039</v>
+        <v>658602</v>
       </c>
       <c r="E619">
-        <v>334210</v>
+        <v>334050</v>
       </c>
       <c r="F619">
-        <v>13918783</v>
+        <v>13917720</v>
       </c>
       <c r="G619">
-        <v>12497303</v>
+        <v>12419612</v>
       </c>
       <c r="H619">
-        <v>3994793</v>
+        <v>3987205</v>
       </c>
       <c r="I619">
-        <v>342.82</v>
+        <v>344.61</v>
       </c>
       <c r="J619">
         <v>42.43</v>
       </c>
       <c r="K619">
-        <v>27.58</v>
+        <v>27.55</v>
       </c>
       <c r="L619">
-        <v>321.41</v>
+        <v>321.48</v>
       </c>
       <c r="M619">
-        <v>97729948</v>
+        <v>97722359</v>
       </c>
       <c r="N619">
-        <v>11756382</v>
+        <v>11763945</v>
       </c>
       <c r="O619">
-        <v>13081636</v>
+        <v>13081476</v>
       </c>
     </row>
     <row r="620">
@@ -27602,46 +27602,46 @@
         <v>44408</v>
       </c>
       <c r="B620">
-        <v>2052228</v>
+        <v>2049168</v>
       </c>
       <c r="C620">
         <v>3413.7</v>
       </c>
       <c r="D620">
-        <v>586397</v>
+        <v>590771</v>
       </c>
       <c r="E620">
-        <v>286681</v>
+        <v>286424</v>
       </c>
       <c r="F620">
-        <v>12849176</v>
+        <v>12847808</v>
       </c>
       <c r="G620">
-        <v>10704892</v>
+        <v>10786046</v>
       </c>
       <c r="H620">
-        <v>3431336</v>
+        <v>3457880</v>
       </c>
       <c r="I620">
         <v>343.73</v>
       </c>
       <c r="J620">
-        <v>40.06</v>
+        <v>40.05</v>
       </c>
       <c r="K620">
-        <v>26.54</v>
+        <v>26.51</v>
       </c>
       <c r="L620">
-        <v>326.46</v>
+        <v>326.54</v>
       </c>
       <c r="M620">
-        <v>82568171</v>
+        <v>82587126</v>
       </c>
       <c r="N620">
-        <v>10186666</v>
+        <v>10198603</v>
       </c>
       <c r="O620">
-        <v>12418493</v>
+        <v>12418076</v>
       </c>
     </row>
     <row r="621">
@@ -27649,25 +27649,25 @@
         <v>44439</v>
       </c>
       <c r="B621">
-        <v>1517854</v>
+        <v>1504461</v>
       </c>
       <c r="C621">
         <v>2944.1</v>
       </c>
       <c r="D621">
-        <v>455562</v>
+        <v>459840</v>
       </c>
       <c r="E621">
-        <v>274510</v>
+        <v>274281</v>
       </c>
       <c r="F621">
-        <v>12788245</v>
+        <v>12787374</v>
       </c>
       <c r="G621">
-        <v>10514065</v>
+        <v>10604782</v>
       </c>
       <c r="H621">
-        <v>3417234</v>
+        <v>3447449</v>
       </c>
       <c r="I621">
         <v>347.86</v>
@@ -27676,19 +27676,19 @@
         <v>37.16</v>
       </c>
       <c r="K621">
-        <v>24.07</v>
+        <v>24.04</v>
       </c>
       <c r="L621">
-        <v>333.16</v>
+        <v>333.27</v>
       </c>
       <c r="M621">
-        <v>69642253</v>
+        <v>69691423</v>
       </c>
       <c r="N621">
-        <v>9327423</v>
+        <v>9343638</v>
       </c>
       <c r="O621">
-        <v>11626510</v>
+        <v>11625864</v>
       </c>
     </row>
     <row r="622">
@@ -27696,46 +27696,93 @@
         <v>44469</v>
       </c>
       <c r="B622">
-        <v>1414641</v>
+        <v>1408523</v>
       </c>
       <c r="C622">
         <v>2479.4</v>
       </c>
       <c r="D622">
-        <v>476047</v>
+        <v>480304</v>
       </c>
       <c r="E622">
-        <v>322858</v>
+        <v>322658</v>
       </c>
       <c r="F622">
         <v>10359699</v>
       </c>
       <c r="G622">
-        <v>8205694</v>
+        <v>8292609</v>
       </c>
       <c r="H622">
-        <v>2698093</v>
+        <v>2727366</v>
       </c>
       <c r="I622">
-        <v>348.84</v>
+        <v>348.85</v>
       </c>
       <c r="J622">
-        <v>29.14</v>
+        <v>29.13</v>
       </c>
       <c r="K622">
-        <v>21.03</v>
+        <v>21</v>
       </c>
       <c r="L622">
-        <v>339.85</v>
+        <v>339.98</v>
       </c>
       <c r="M622">
-        <v>58954857</v>
+        <v>59033301</v>
       </c>
       <c r="N622">
-        <v>8891763</v>
+        <v>8912235</v>
       </c>
       <c r="O622">
-        <v>8866304</v>
+        <v>8865458</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="2">
+        <v>44500</v>
+      </c>
+      <c r="B623">
+        <v>1238505</v>
+      </c>
+      <c r="C623">
+        <v>2945.733333333333</v>
+      </c>
+      <c r="D623">
+        <v>360189</v>
+      </c>
+      <c r="E623">
+        <v>274338</v>
+      </c>
+      <c r="F623">
+        <v>9127049</v>
+      </c>
+      <c r="G623">
+        <v>6967141</v>
+      </c>
+      <c r="H623">
+        <v>2292105</v>
+      </c>
+      <c r="I623">
+        <v>347.35</v>
+      </c>
+      <c r="J623">
+        <v>34.8</v>
+      </c>
+      <c r="K623">
+        <v>19.49</v>
+      </c>
+      <c r="L623">
+        <v>344.19</v>
+      </c>
+      <c r="M623">
+        <v>52998131</v>
+      </c>
+      <c r="N623">
+        <v>8511303</v>
+      </c>
+      <c r="O623">
+        <v>6705815</v>
       </c>
     </row>
   </sheetData>

--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O623"/>
+  <dimension ref="A1:O625"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3902,7 +3902,7 @@
         <v>1063136</v>
       </c>
       <c r="E98">
-        <v>210657</v>
+        <v>210658</v>
       </c>
       <c r="F98">
         <v>15063795</v>
@@ -3911,7 +3911,7 @@
         <v>12152139</v>
       </c>
       <c r="H98">
-        <v>904862</v>
+        <v>904864</v>
       </c>
       <c r="I98">
         <v>104.65</v>
@@ -3926,13 +3926,13 @@
         <v>79.33</v>
       </c>
       <c r="M98">
-        <v>8643084</v>
+        <v>8643085</v>
       </c>
       <c r="N98">
         <v>7816720</v>
       </c>
       <c r="O98">
-        <v>2726121</v>
+        <v>2726122</v>
       </c>
     </row>
     <row r="99">
@@ -3970,13 +3970,13 @@
         <v>79.84</v>
       </c>
       <c r="M99">
-        <v>8586171</v>
+        <v>8586173</v>
       </c>
       <c r="N99">
         <v>7675188</v>
       </c>
       <c r="O99">
-        <v>2658761</v>
+        <v>2658762</v>
       </c>
     </row>
     <row r="100">
@@ -4014,13 +4014,13 @@
         <v>80.49</v>
       </c>
       <c r="M100">
-        <v>8552544</v>
+        <v>8552546</v>
       </c>
       <c r="N100">
         <v>7655474</v>
       </c>
       <c r="O100">
-        <v>2569591</v>
+        <v>2569592</v>
       </c>
     </row>
     <row r="101">
@@ -4058,13 +4058,13 @@
         <v>80.95</v>
       </c>
       <c r="M101">
-        <v>8496267</v>
+        <v>8496269</v>
       </c>
       <c r="N101">
         <v>7630816</v>
       </c>
       <c r="O101">
-        <v>2496707</v>
+        <v>2496708</v>
       </c>
     </row>
     <row r="102">
@@ -4102,13 +4102,13 @@
         <v>81.34999999999999</v>
       </c>
       <c r="M102">
-        <v>8469970</v>
+        <v>8469972</v>
       </c>
       <c r="N102">
         <v>7605385</v>
       </c>
       <c r="O102">
-        <v>2447763</v>
+        <v>2447764</v>
       </c>
     </row>
     <row r="103">
@@ -4146,13 +4146,13 @@
         <v>81.74</v>
       </c>
       <c r="M103">
-        <v>8390308</v>
+        <v>8390310</v>
       </c>
       <c r="N103">
         <v>7610191</v>
       </c>
       <c r="O103">
-        <v>2369796</v>
+        <v>2369797</v>
       </c>
     </row>
     <row r="104">
@@ -4190,13 +4190,13 @@
         <v>82.12000000000001</v>
       </c>
       <c r="M104">
-        <v>8353734</v>
+        <v>8353736</v>
       </c>
       <c r="N104">
         <v>7610967</v>
       </c>
       <c r="O104">
-        <v>2306249</v>
+        <v>2306250</v>
       </c>
     </row>
     <row r="105">
@@ -4234,13 +4234,13 @@
         <v>82.48</v>
       </c>
       <c r="M105">
-        <v>8358611</v>
+        <v>8358613</v>
       </c>
       <c r="N105">
         <v>7677889</v>
       </c>
       <c r="O105">
-        <v>2230962</v>
+        <v>2230963</v>
       </c>
     </row>
     <row r="106">
@@ -4278,13 +4278,13 @@
         <v>82.78</v>
       </c>
       <c r="M106">
-        <v>8313953</v>
+        <v>8313955</v>
       </c>
       <c r="N106">
         <v>7636142</v>
       </c>
       <c r="O106">
-        <v>2171020</v>
+        <v>2171021</v>
       </c>
     </row>
     <row r="107">
@@ -4322,13 +4322,13 @@
         <v>83.03</v>
       </c>
       <c r="M107">
-        <v>8307248</v>
+        <v>8307250</v>
       </c>
       <c r="N107">
         <v>7633029</v>
       </c>
       <c r="O107">
-        <v>2121248</v>
+        <v>2121249</v>
       </c>
     </row>
     <row r="108">
@@ -4366,13 +4366,13 @@
         <v>83.3</v>
       </c>
       <c r="M108">
-        <v>8263898</v>
+        <v>8263899</v>
       </c>
       <c r="N108">
         <v>7603593</v>
       </c>
       <c r="O108">
-        <v>2073373</v>
+        <v>2073374</v>
       </c>
     </row>
     <row r="109">
@@ -4410,13 +4410,13 @@
         <v>83.67</v>
       </c>
       <c r="M109">
-        <v>8212232</v>
+        <v>8212234</v>
       </c>
       <c r="N109">
         <v>7568310</v>
       </c>
       <c r="O109">
-        <v>2030435</v>
+        <v>2030436</v>
       </c>
     </row>
     <row r="110">
@@ -5407,7 +5407,7 @@
         <v>9516801</v>
       </c>
       <c r="H132">
-        <v>935099</v>
+        <v>935101</v>
       </c>
       <c r="I132">
         <v>94</v>
@@ -5422,7 +5422,7 @@
         <v>99.05</v>
       </c>
       <c r="M132">
-        <v>14066646</v>
+        <v>14066648</v>
       </c>
       <c r="N132">
         <v>9919645</v>
@@ -5466,7 +5466,7 @@
         <v>99.53</v>
       </c>
       <c r="M133">
-        <v>14469098</v>
+        <v>14469101</v>
       </c>
       <c r="N133">
         <v>9992123</v>
@@ -5510,7 +5510,7 @@
         <v>100.19</v>
       </c>
       <c r="M134">
-        <v>14604733</v>
+        <v>14604736</v>
       </c>
       <c r="N134">
         <v>9946214</v>
@@ -5554,7 +5554,7 @@
         <v>100.72</v>
       </c>
       <c r="M135">
-        <v>14690170</v>
+        <v>14690173</v>
       </c>
       <c r="N135">
         <v>9890722</v>
@@ -5598,7 +5598,7 @@
         <v>101.3</v>
       </c>
       <c r="M136">
-        <v>14866629</v>
+        <v>14866632</v>
       </c>
       <c r="N136">
         <v>9919839</v>
@@ -5642,7 +5642,7 @@
         <v>101.83</v>
       </c>
       <c r="M137">
-        <v>14861148</v>
+        <v>14861150</v>
       </c>
       <c r="N137">
         <v>9793604</v>
@@ -5686,7 +5686,7 @@
         <v>102.24</v>
       </c>
       <c r="M138">
-        <v>14670539</v>
+        <v>14670542</v>
       </c>
       <c r="N138">
         <v>9476838</v>
@@ -5730,7 +5730,7 @@
         <v>102.61</v>
       </c>
       <c r="M139">
-        <v>14466764</v>
+        <v>14466767</v>
       </c>
       <c r="N139">
         <v>9214474</v>
@@ -5747,7 +5747,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823662</v>
+        <v>823650</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -5774,10 +5774,10 @@
         <v>103.08</v>
       </c>
       <c r="M140">
-        <v>14131544</v>
+        <v>14131547</v>
       </c>
       <c r="N140">
-        <v>8935498</v>
+        <v>8935486</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -5818,10 +5818,10 @@
         <v>103.59</v>
       </c>
       <c r="M141">
-        <v>13893841</v>
+        <v>13893843</v>
       </c>
       <c r="N141">
-        <v>8782013</v>
+        <v>8782001</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -5862,10 +5862,10 @@
         <v>104.14</v>
       </c>
       <c r="M142">
-        <v>13749747</v>
+        <v>13749750</v>
       </c>
       <c r="N142">
-        <v>8776281</v>
+        <v>8776269</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -5906,10 +5906,10 @@
         <v>104.75</v>
       </c>
       <c r="M143">
-        <v>13621616</v>
+        <v>13621619</v>
       </c>
       <c r="N143">
-        <v>8836723</v>
+        <v>8836711</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -5953,7 +5953,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042531</v>
+        <v>9042519</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -5997,7 +5997,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9395151</v>
+        <v>9395139</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -6041,7 +6041,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9716015</v>
+        <v>9716003</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -6085,7 +6085,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916846</v>
+        <v>9916834</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -6129,7 +6129,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176479</v>
+        <v>10176467</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -6173,7 +6173,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10402060</v>
+        <v>10402048</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -6217,7 +6217,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586460</v>
+        <v>10586448</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -6261,7 +6261,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834373</v>
+        <v>10834361</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -7771,7 +7771,7 @@
         <v>1488338</v>
       </c>
       <c r="D186">
-        <v>590411</v>
+        <v>590407</v>
       </c>
       <c r="E186">
         <v>232183</v>
@@ -7783,7 +7783,7 @@
         <v>9067094</v>
       </c>
       <c r="H186">
-        <v>1209218</v>
+        <v>1209224</v>
       </c>
       <c r="I186">
         <v>126.92</v>
@@ -7798,10 +7798,10 @@
         <v>125.18</v>
       </c>
       <c r="M186">
-        <v>13890008</v>
+        <v>13890014</v>
       </c>
       <c r="N186">
-        <v>8211216</v>
+        <v>8211212</v>
       </c>
       <c r="O186">
         <v>2510371</v>
@@ -7842,10 +7842,10 @@
         <v>125.48</v>
       </c>
       <c r="M187">
-        <v>13966241</v>
+        <v>13966246</v>
       </c>
       <c r="N187">
-        <v>8231207</v>
+        <v>8231203</v>
       </c>
       <c r="O187">
         <v>2506811</v>
@@ -7886,10 +7886,10 @@
         <v>125.89</v>
       </c>
       <c r="M188">
-        <v>14177474</v>
+        <v>14177480</v>
       </c>
       <c r="N188">
-        <v>8310993</v>
+        <v>8310989</v>
       </c>
       <c r="O188">
         <v>2528409</v>
@@ -7930,10 +7930,10 @@
         <v>126.37</v>
       </c>
       <c r="M189">
-        <v>14260782</v>
+        <v>14260788</v>
       </c>
       <c r="N189">
-        <v>8315353</v>
+        <v>8315349</v>
       </c>
       <c r="O189">
         <v>2521451</v>
@@ -7974,10 +7974,10 @@
         <v>126.79</v>
       </c>
       <c r="M190">
-        <v>14423109</v>
+        <v>14423115</v>
       </c>
       <c r="N190">
-        <v>8370934</v>
+        <v>8370930</v>
       </c>
       <c r="O190">
         <v>2540060</v>
@@ -8018,10 +8018,10 @@
         <v>127.14</v>
       </c>
       <c r="M191">
-        <v>14528189</v>
+        <v>14528195</v>
       </c>
       <c r="N191">
-        <v>8368435</v>
+        <v>8368431</v>
       </c>
       <c r="O191">
         <v>2551092</v>
@@ -8062,10 +8062,10 @@
         <v>127.59</v>
       </c>
       <c r="M192">
-        <v>14532964</v>
+        <v>14532969</v>
       </c>
       <c r="N192">
-        <v>8290009</v>
+        <v>8290005</v>
       </c>
       <c r="O192">
         <v>2547714</v>
@@ -8106,10 +8106,10 @@
         <v>128.14</v>
       </c>
       <c r="M193">
-        <v>14761487</v>
+        <v>14761493</v>
       </c>
       <c r="N193">
-        <v>8365101</v>
+        <v>8365097</v>
       </c>
       <c r="O193">
         <v>2572362</v>
@@ -8150,10 +8150,10 @@
         <v>128.88</v>
       </c>
       <c r="M194">
-        <v>14844168</v>
+        <v>14844174</v>
       </c>
       <c r="N194">
-        <v>8387988</v>
+        <v>8387984</v>
       </c>
       <c r="O194">
         <v>2570162</v>
@@ -8194,10 +8194,10 @@
         <v>129.54</v>
       </c>
       <c r="M195">
-        <v>14889099</v>
+        <v>14889104</v>
       </c>
       <c r="N195">
-        <v>8325460</v>
+        <v>8325456</v>
       </c>
       <c r="O195">
         <v>2571051</v>
@@ -8238,10 +8238,10 @@
         <v>130.2</v>
       </c>
       <c r="M196">
-        <v>14967780</v>
+        <v>14967786</v>
       </c>
       <c r="N196">
-        <v>8319956</v>
+        <v>8319952</v>
       </c>
       <c r="O196">
         <v>2563125</v>
@@ -8282,10 +8282,10 @@
         <v>130.86</v>
       </c>
       <c r="M197">
-        <v>15089925</v>
+        <v>15089930</v>
       </c>
       <c r="N197">
-        <v>8341420</v>
+        <v>8341416</v>
       </c>
       <c r="O197">
         <v>2566580</v>
@@ -8434,7 +8434,7 @@
         <v>649662</v>
       </c>
       <c r="E201">
-        <v>210445</v>
+        <v>210444</v>
       </c>
       <c r="F201">
         <v>10189513</v>
@@ -8464,7 +8464,7 @@
         <v>8368297</v>
       </c>
       <c r="O201">
-        <v>2605562</v>
+        <v>2605561</v>
       </c>
     </row>
     <row r="202">
@@ -8508,7 +8508,7 @@
         <v>8381854</v>
       </c>
       <c r="O202">
-        <v>2635474</v>
+        <v>2635473</v>
       </c>
     </row>
     <row r="203">
@@ -8552,7 +8552,7 @@
         <v>8380544</v>
       </c>
       <c r="O203">
-        <v>2650971</v>
+        <v>2650970</v>
       </c>
     </row>
     <row r="204">
@@ -8596,7 +8596,7 @@
         <v>8330361</v>
       </c>
       <c r="O204">
-        <v>2658793</v>
+        <v>2658792</v>
       </c>
     </row>
     <row r="205">
@@ -8640,7 +8640,7 @@
         <v>8360752</v>
       </c>
       <c r="O205">
-        <v>2687342</v>
+        <v>2687341</v>
       </c>
     </row>
     <row r="206">
@@ -8684,7 +8684,7 @@
         <v>8190399</v>
       </c>
       <c r="O206">
-        <v>2682396</v>
+        <v>2682395</v>
       </c>
     </row>
     <row r="207">
@@ -8728,7 +8728,7 @@
         <v>8167954</v>
       </c>
       <c r="O207">
-        <v>2694747</v>
+        <v>2694746</v>
       </c>
     </row>
     <row r="208">
@@ -8772,7 +8772,7 @@
         <v>8133267</v>
       </c>
       <c r="O208">
-        <v>2719330</v>
+        <v>2719329</v>
       </c>
     </row>
     <row r="209">
@@ -8816,7 +8816,7 @@
         <v>8038963</v>
       </c>
       <c r="O209">
-        <v>2707772</v>
+        <v>2707771</v>
       </c>
     </row>
     <row r="210">
@@ -8860,7 +8860,7 @@
         <v>7908330</v>
       </c>
       <c r="O210">
-        <v>2680337</v>
+        <v>2680336</v>
       </c>
     </row>
     <row r="211">
@@ -8904,7 +8904,7 @@
         <v>7873641</v>
       </c>
       <c r="O211">
-        <v>2671980</v>
+        <v>2671979</v>
       </c>
     </row>
     <row r="212">
@@ -8948,7 +8948,7 @@
         <v>7781838</v>
       </c>
       <c r="O212">
-        <v>2637238</v>
+        <v>2637237</v>
       </c>
     </row>
     <row r="213">
@@ -27696,46 +27696,46 @@
         <v>44469</v>
       </c>
       <c r="B622">
-        <v>1408523</v>
+        <v>1407225</v>
       </c>
       <c r="C622">
         <v>2479.4</v>
       </c>
       <c r="D622">
-        <v>480304</v>
+        <v>478251</v>
       </c>
       <c r="E622">
-        <v>322658</v>
+        <v>305836</v>
       </c>
       <c r="F622">
-        <v>10359699</v>
+        <v>10043831</v>
       </c>
       <c r="G622">
-        <v>8292609</v>
+        <v>8099142</v>
       </c>
       <c r="H622">
-        <v>2727366</v>
+        <v>2686603</v>
       </c>
       <c r="I622">
-        <v>348.85</v>
+        <v>352.13</v>
       </c>
       <c r="J622">
-        <v>29.13</v>
+        <v>29.08</v>
       </c>
       <c r="K622">
-        <v>21</v>
+        <v>20.98</v>
       </c>
       <c r="L622">
-        <v>339.98</v>
+        <v>340.11</v>
       </c>
       <c r="M622">
-        <v>59033301</v>
+        <v>58992537</v>
       </c>
       <c r="N622">
-        <v>8912235</v>
+        <v>8910182</v>
       </c>
       <c r="O622">
-        <v>8865458</v>
+        <v>8848636</v>
       </c>
     </row>
     <row r="623">
@@ -27743,46 +27743,140 @@
         <v>44500</v>
       </c>
       <c r="B623">
-        <v>1238505</v>
+        <v>1216121</v>
       </c>
       <c r="C623">
-        <v>2945.733333333333</v>
+        <v>2027.6</v>
       </c>
       <c r="D623">
-        <v>360189</v>
+        <v>354645</v>
       </c>
       <c r="E623">
-        <v>274338</v>
+        <v>307007</v>
       </c>
       <c r="F623">
-        <v>9127049</v>
+        <v>8866995</v>
       </c>
       <c r="G623">
-        <v>6967141</v>
+        <v>6818087</v>
       </c>
       <c r="H623">
-        <v>2292105</v>
+        <v>2262244</v>
       </c>
       <c r="I623">
-        <v>347.35</v>
+        <v>350.57</v>
       </c>
       <c r="J623">
-        <v>34.8</v>
+        <v>34.88</v>
       </c>
       <c r="K623">
-        <v>19.49</v>
+        <v>19.46</v>
       </c>
       <c r="L623">
-        <v>344.19</v>
+        <v>344.48</v>
       </c>
       <c r="M623">
-        <v>52998131</v>
+        <v>52927507</v>
       </c>
       <c r="N623">
-        <v>8511303</v>
+        <v>8503706</v>
       </c>
       <c r="O623">
-        <v>6705815</v>
+        <v>6721662</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="2">
+        <v>44530</v>
+      </c>
+      <c r="B624">
+        <v>1162205</v>
+      </c>
+      <c r="C624">
+        <v>1814.8</v>
+      </c>
+      <c r="D624">
+        <v>328640</v>
+      </c>
+      <c r="E624">
+        <v>211306</v>
+      </c>
+      <c r="F624">
+        <v>7849530</v>
+      </c>
+      <c r="G624">
+        <v>6425366</v>
+      </c>
+      <c r="H624">
+        <v>2223065</v>
+      </c>
+      <c r="I624">
+        <v>364.76</v>
+      </c>
+      <c r="J624">
+        <v>39.28</v>
+      </c>
+      <c r="K624">
+        <v>18.55</v>
+      </c>
+      <c r="L624">
+        <v>347.37</v>
+      </c>
+      <c r="M624">
+        <v>48473092</v>
+      </c>
+      <c r="N624">
+        <v>8091196</v>
+      </c>
+      <c r="O624">
+        <v>5603371</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="2">
+        <v>44561</v>
+      </c>
+      <c r="B625">
+        <v>1280012</v>
+      </c>
+      <c r="C625">
+        <v>2107.266666666666</v>
+      </c>
+      <c r="D625">
+        <v>417825</v>
+      </c>
+      <c r="E625">
+        <v>274716.3333333333</v>
+      </c>
+      <c r="F625">
+        <v>7758919</v>
+      </c>
+      <c r="G625">
+        <v>6149407</v>
+      </c>
+      <c r="H625">
+        <v>2202553</v>
+      </c>
+      <c r="I625">
+        <v>374.88</v>
+      </c>
+      <c r="J625">
+        <v>40.35</v>
+      </c>
+      <c r="K625">
+        <v>17.8</v>
+      </c>
+      <c r="L625">
+        <v>349.76</v>
+      </c>
+      <c r="M625">
+        <v>44286177</v>
+      </c>
+      <c r="N625">
+        <v>7633952</v>
+      </c>
+      <c r="O625">
+        <v>4746752</v>
       </c>
     </row>
   </sheetData>

--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -27091,10 +27091,10 @@
         <v>14100.6</v>
       </c>
       <c r="D609">
-        <v>1314805</v>
+        <v>1315324</v>
       </c>
       <c r="E609">
-        <v>1066493</v>
+        <v>1067709</v>
       </c>
       <c r="F609">
         <v>63156496</v>
@@ -27103,28 +27103,28 @@
         <v>56382477</v>
       </c>
       <c r="H609">
-        <v>16343152</v>
+        <v>16352575</v>
       </c>
       <c r="I609">
         <v>304.64</v>
       </c>
       <c r="J609">
-        <v>80.68000000000001</v>
+        <v>80.70999999999999</v>
       </c>
       <c r="K609">
         <v>12.95</v>
       </c>
       <c r="L609">
-        <v>322.27</v>
+        <v>322.28</v>
       </c>
       <c r="M609">
-        <v>116995790</v>
+        <v>117005214</v>
       </c>
       <c r="N609">
-        <v>29143107</v>
+        <v>29143626</v>
       </c>
       <c r="O609">
-        <v>4114443</v>
+        <v>4115659</v>
       </c>
     </row>
     <row r="610">
@@ -27156,7 +27156,7 @@
         <v>309.4</v>
       </c>
       <c r="J610">
-        <v>109.82</v>
+        <v>109.83</v>
       </c>
       <c r="K610">
         <v>14.05</v>
@@ -27165,13 +27165,13 @@
         <v>320.28</v>
       </c>
       <c r="M610">
-        <v>128437217</v>
+        <v>128446641</v>
       </c>
       <c r="N610">
-        <v>29743624</v>
+        <v>29744143</v>
       </c>
       <c r="O610">
-        <v>7058270</v>
+        <v>7059486</v>
       </c>
     </row>
     <row r="611">
@@ -27203,7 +27203,7 @@
         <v>316.89</v>
       </c>
       <c r="J611">
-        <v>51.09</v>
+        <v>51.1</v>
       </c>
       <c r="K611">
         <v>14.63</v>
@@ -27212,13 +27212,13 @@
         <v>319.4</v>
       </c>
       <c r="M611">
-        <v>134854500</v>
+        <v>134863924</v>
       </c>
       <c r="N611">
-        <v>30140373</v>
+        <v>30140892</v>
       </c>
       <c r="O611">
-        <v>9350631</v>
+        <v>9351847</v>
       </c>
     </row>
     <row r="612">
@@ -27250,7 +27250,7 @@
         <v>330.49</v>
       </c>
       <c r="J612">
-        <v>44.51</v>
+        <v>44.52</v>
       </c>
       <c r="K612">
         <v>15</v>
@@ -27259,13 +27259,13 @@
         <v>319.25</v>
       </c>
       <c r="M612">
-        <v>139705915</v>
+        <v>139715339</v>
       </c>
       <c r="N612">
-        <v>30514877</v>
+        <v>30515396</v>
       </c>
       <c r="O612">
-        <v>10552325</v>
+        <v>10553541</v>
       </c>
     </row>
     <row r="613">
@@ -27306,13 +27306,13 @@
         <v>319.1</v>
       </c>
       <c r="M613">
-        <v>143416036</v>
+        <v>143425460</v>
       </c>
       <c r="N613">
-        <v>30828509</v>
+        <v>30829028</v>
       </c>
       <c r="O613">
-        <v>11434865</v>
+        <v>11436081</v>
       </c>
     </row>
     <row r="614">
@@ -27353,13 +27353,13 @@
         <v>318.91</v>
       </c>
       <c r="M614">
-        <v>146087225</v>
+        <v>146096649</v>
       </c>
       <c r="N614">
-        <v>31002860</v>
+        <v>31003379</v>
       </c>
       <c r="O614">
-        <v>12104609</v>
+        <v>12105825</v>
       </c>
     </row>
     <row r="615">
@@ -27391,22 +27391,22 @@
         <v>349.14</v>
       </c>
       <c r="J615">
-        <v>43.23</v>
+        <v>43.24</v>
       </c>
       <c r="K615">
         <v>15.63</v>
       </c>
       <c r="L615">
-        <v>318.77</v>
+        <v>318.78</v>
       </c>
       <c r="M615">
-        <v>148402331</v>
+        <v>148411755</v>
       </c>
       <c r="N615">
-        <v>31289555</v>
+        <v>31290074</v>
       </c>
       <c r="O615">
-        <v>12599168</v>
+        <v>12600384</v>
       </c>
     </row>
     <row r="616">
@@ -27447,13 +27447,13 @@
         <v>318.51</v>
       </c>
       <c r="M616">
-        <v>149856894</v>
+        <v>149866318</v>
       </c>
       <c r="N616">
-        <v>30429972</v>
+        <v>30430491</v>
       </c>
       <c r="O616">
-        <v>13043046</v>
+        <v>13044262</v>
       </c>
     </row>
     <row r="617">
@@ -27494,13 +27494,13 @@
         <v>317.26</v>
       </c>
       <c r="M617">
-        <v>135596863</v>
+        <v>135606287</v>
       </c>
       <c r="N617">
-        <v>19268937</v>
+        <v>19269456</v>
       </c>
       <c r="O617">
-        <v>13245758</v>
+        <v>13246974</v>
       </c>
     </row>
     <row r="618">
@@ -27541,13 +27541,13 @@
         <v>317.62</v>
       </c>
       <c r="M618">
-        <v>115801050</v>
+        <v>115810473</v>
       </c>
       <c r="N618">
-        <v>14264521</v>
+        <v>14265040</v>
       </c>
       <c r="O618">
-        <v>13353543</v>
+        <v>13354759</v>
       </c>
     </row>
     <row r="619">
@@ -27579,7 +27579,7 @@
         <v>344.61</v>
       </c>
       <c r="J619">
-        <v>42.43</v>
+        <v>42.44</v>
       </c>
       <c r="K619">
         <v>27.55</v>
@@ -27588,13 +27588,13 @@
         <v>321.48</v>
       </c>
       <c r="M619">
-        <v>97722359</v>
+        <v>97731783</v>
       </c>
       <c r="N619">
-        <v>11763945</v>
+        <v>11764464</v>
       </c>
       <c r="O619">
-        <v>13081476</v>
+        <v>13082692</v>
       </c>
     </row>
     <row r="620">
@@ -27626,7 +27626,7 @@
         <v>343.73</v>
       </c>
       <c r="J620">
-        <v>40.05</v>
+        <v>40.06</v>
       </c>
       <c r="K620">
         <v>26.51</v>
@@ -27635,13 +27635,13 @@
         <v>326.54</v>
       </c>
       <c r="M620">
-        <v>82587126</v>
+        <v>82596549</v>
       </c>
       <c r="N620">
-        <v>10198603</v>
+        <v>10199122</v>
       </c>
       <c r="O620">
-        <v>12418076</v>
+        <v>12419292</v>
       </c>
     </row>
     <row r="621">
@@ -27743,28 +27743,28 @@
         <v>44500</v>
       </c>
       <c r="B623">
-        <v>1216121</v>
+        <v>1211491</v>
       </c>
       <c r="C623">
         <v>2027.6</v>
       </c>
       <c r="D623">
-        <v>354645</v>
+        <v>353702</v>
       </c>
       <c r="E623">
-        <v>307007</v>
+        <v>306445</v>
       </c>
       <c r="F623">
-        <v>8866995</v>
+        <v>8857478</v>
       </c>
       <c r="G623">
-        <v>6818087</v>
+        <v>6809378</v>
       </c>
       <c r="H623">
-        <v>2262244</v>
+        <v>2257648</v>
       </c>
       <c r="I623">
-        <v>350.57</v>
+        <v>350.31</v>
       </c>
       <c r="J623">
         <v>34.88</v>
@@ -27773,16 +27773,16 @@
         <v>19.46</v>
       </c>
       <c r="L623">
-        <v>344.48</v>
+        <v>344.47</v>
       </c>
       <c r="M623">
-        <v>52927507</v>
+        <v>52922911</v>
       </c>
       <c r="N623">
-        <v>8503706</v>
+        <v>8502763</v>
       </c>
       <c r="O623">
-        <v>6721662</v>
+        <v>6721100</v>
       </c>
     </row>
     <row r="624">
@@ -27820,16 +27820,16 @@
         <v>18.55</v>
       </c>
       <c r="L624">
-        <v>347.37</v>
+        <v>347.35</v>
       </c>
       <c r="M624">
-        <v>48473092</v>
+        <v>48468496</v>
       </c>
       <c r="N624">
-        <v>8091196</v>
+        <v>8090253</v>
       </c>
       <c r="O624">
-        <v>5603371</v>
+        <v>5602809</v>
       </c>
     </row>
     <row r="625">
@@ -27840,13 +27840,13 @@
         <v>1280012</v>
       </c>
       <c r="C625">
-        <v>2107.266666666666</v>
+        <v>1632.8</v>
       </c>
       <c r="D625">
         <v>417825</v>
       </c>
       <c r="E625">
-        <v>274716.3333333333</v>
+        <v>274529</v>
       </c>
       <c r="F625">
         <v>7758919</v>
@@ -27861,22 +27861,22 @@
         <v>374.88</v>
       </c>
       <c r="J625">
-        <v>40.35</v>
+        <v>40.34</v>
       </c>
       <c r="K625">
         <v>17.8</v>
       </c>
       <c r="L625">
-        <v>349.76</v>
+        <v>349.75</v>
       </c>
       <c r="M625">
-        <v>44286177</v>
+        <v>44281581</v>
       </c>
       <c r="N625">
-        <v>7633952</v>
+        <v>7633009</v>
       </c>
       <c r="O625">
-        <v>4746752</v>
+        <v>4746190</v>
       </c>
     </row>
   </sheetData>

--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O625"/>
+  <dimension ref="A1:O627"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3902,7 +3902,7 @@
         <v>1063136</v>
       </c>
       <c r="E98">
-        <v>210658</v>
+        <v>210662</v>
       </c>
       <c r="F98">
         <v>15063795</v>
@@ -3911,7 +3911,7 @@
         <v>12152139</v>
       </c>
       <c r="H98">
-        <v>904864</v>
+        <v>904873</v>
       </c>
       <c r="I98">
         <v>104.65</v>
@@ -3926,13 +3926,13 @@
         <v>79.33</v>
       </c>
       <c r="M98">
-        <v>8643085</v>
+        <v>8643095</v>
       </c>
       <c r="N98">
         <v>7816720</v>
       </c>
       <c r="O98">
-        <v>2726122</v>
+        <v>2726126</v>
       </c>
     </row>
     <row r="99">
@@ -3970,13 +3970,13 @@
         <v>79.84</v>
       </c>
       <c r="M99">
-        <v>8586173</v>
+        <v>8586182</v>
       </c>
       <c r="N99">
         <v>7675188</v>
       </c>
       <c r="O99">
-        <v>2658762</v>
+        <v>2658766</v>
       </c>
     </row>
     <row r="100">
@@ -4014,13 +4014,13 @@
         <v>80.49</v>
       </c>
       <c r="M100">
-        <v>8552546</v>
+        <v>8552555</v>
       </c>
       <c r="N100">
         <v>7655474</v>
       </c>
       <c r="O100">
-        <v>2569592</v>
+        <v>2569596</v>
       </c>
     </row>
     <row r="101">
@@ -4058,13 +4058,13 @@
         <v>80.95</v>
       </c>
       <c r="M101">
-        <v>8496269</v>
+        <v>8496279</v>
       </c>
       <c r="N101">
         <v>7630816</v>
       </c>
       <c r="O101">
-        <v>2496708</v>
+        <v>2496712</v>
       </c>
     </row>
     <row r="102">
@@ -4102,13 +4102,13 @@
         <v>81.34999999999999</v>
       </c>
       <c r="M102">
-        <v>8469972</v>
+        <v>8469981</v>
       </c>
       <c r="N102">
         <v>7605385</v>
       </c>
       <c r="O102">
-        <v>2447764</v>
+        <v>2447768</v>
       </c>
     </row>
     <row r="103">
@@ -4146,13 +4146,13 @@
         <v>81.74</v>
       </c>
       <c r="M103">
-        <v>8390310</v>
+        <v>8390320</v>
       </c>
       <c r="N103">
         <v>7610191</v>
       </c>
       <c r="O103">
-        <v>2369797</v>
+        <v>2369801</v>
       </c>
     </row>
     <row r="104">
@@ -4190,13 +4190,13 @@
         <v>82.12000000000001</v>
       </c>
       <c r="M104">
-        <v>8353736</v>
+        <v>8353745</v>
       </c>
       <c r="N104">
         <v>7610967</v>
       </c>
       <c r="O104">
-        <v>2306250</v>
+        <v>2306254</v>
       </c>
     </row>
     <row r="105">
@@ -4231,16 +4231,16 @@
         <v>13.57</v>
       </c>
       <c r="L105">
-        <v>82.48</v>
+        <v>82.49</v>
       </c>
       <c r="M105">
-        <v>8358613</v>
+        <v>8358622</v>
       </c>
       <c r="N105">
         <v>7677889</v>
       </c>
       <c r="O105">
-        <v>2230963</v>
+        <v>2230967</v>
       </c>
     </row>
     <row r="106">
@@ -4278,13 +4278,13 @@
         <v>82.78</v>
       </c>
       <c r="M106">
-        <v>8313955</v>
+        <v>8313964</v>
       </c>
       <c r="N106">
         <v>7636142</v>
       </c>
       <c r="O106">
-        <v>2171021</v>
+        <v>2171025</v>
       </c>
     </row>
     <row r="107">
@@ -4322,13 +4322,13 @@
         <v>83.03</v>
       </c>
       <c r="M107">
-        <v>8307250</v>
+        <v>8307259</v>
       </c>
       <c r="N107">
         <v>7633029</v>
       </c>
       <c r="O107">
-        <v>2121249</v>
+        <v>2121253</v>
       </c>
     </row>
     <row r="108">
@@ -4366,13 +4366,13 @@
         <v>83.3</v>
       </c>
       <c r="M108">
-        <v>8263899</v>
+        <v>8263909</v>
       </c>
       <c r="N108">
         <v>7603593</v>
       </c>
       <c r="O108">
-        <v>2073374</v>
+        <v>2073378</v>
       </c>
     </row>
     <row r="109">
@@ -4410,13 +4410,13 @@
         <v>83.67</v>
       </c>
       <c r="M109">
-        <v>8212234</v>
+        <v>8212243</v>
       </c>
       <c r="N109">
         <v>7568310</v>
       </c>
       <c r="O109">
-        <v>2030436</v>
+        <v>2030440</v>
       </c>
     </row>
     <row r="110">
@@ -5407,7 +5407,7 @@
         <v>9516801</v>
       </c>
       <c r="H132">
-        <v>935101</v>
+        <v>935372</v>
       </c>
       <c r="I132">
         <v>94</v>
@@ -5422,7 +5422,7 @@
         <v>99.05</v>
       </c>
       <c r="M132">
-        <v>14066648</v>
+        <v>14066919</v>
       </c>
       <c r="N132">
         <v>9919645</v>
@@ -5466,7 +5466,7 @@
         <v>99.53</v>
       </c>
       <c r="M133">
-        <v>14469101</v>
+        <v>14469372</v>
       </c>
       <c r="N133">
         <v>9992123</v>
@@ -5507,10 +5507,10 @@
         <v>15.02</v>
       </c>
       <c r="L134">
-        <v>100.19</v>
+        <v>100.2</v>
       </c>
       <c r="M134">
-        <v>14604736</v>
+        <v>14605007</v>
       </c>
       <c r="N134">
         <v>9946214</v>
@@ -5554,7 +5554,7 @@
         <v>100.72</v>
       </c>
       <c r="M135">
-        <v>14690173</v>
+        <v>14690444</v>
       </c>
       <c r="N135">
         <v>9890722</v>
@@ -5595,10 +5595,10 @@
         <v>15.16</v>
       </c>
       <c r="L136">
-        <v>101.3</v>
+        <v>101.31</v>
       </c>
       <c r="M136">
-        <v>14866632</v>
+        <v>14866903</v>
       </c>
       <c r="N136">
         <v>9919839</v>
@@ -5642,7 +5642,7 @@
         <v>101.83</v>
       </c>
       <c r="M137">
-        <v>14861150</v>
+        <v>14861421</v>
       </c>
       <c r="N137">
         <v>9793604</v>
@@ -5683,10 +5683,10 @@
         <v>15.52</v>
       </c>
       <c r="L138">
-        <v>102.24</v>
+        <v>102.25</v>
       </c>
       <c r="M138">
-        <v>14670542</v>
+        <v>14670813</v>
       </c>
       <c r="N138">
         <v>9476838</v>
@@ -5730,7 +5730,7 @@
         <v>102.61</v>
       </c>
       <c r="M139">
-        <v>14466767</v>
+        <v>14467038</v>
       </c>
       <c r="N139">
         <v>9214474</v>
@@ -5747,7 +5747,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823650</v>
+        <v>823691</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -5774,10 +5774,10 @@
         <v>103.08</v>
       </c>
       <c r="M140">
-        <v>14131547</v>
+        <v>14131818</v>
       </c>
       <c r="N140">
-        <v>8935486</v>
+        <v>8935527</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -5818,10 +5818,10 @@
         <v>103.59</v>
       </c>
       <c r="M141">
-        <v>13893843</v>
+        <v>13894114</v>
       </c>
       <c r="N141">
-        <v>8782001</v>
+        <v>8782042</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -5862,10 +5862,10 @@
         <v>104.14</v>
       </c>
       <c r="M142">
-        <v>13749750</v>
+        <v>13750021</v>
       </c>
       <c r="N142">
-        <v>8776269</v>
+        <v>8776310</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -5906,10 +5906,10 @@
         <v>104.75</v>
       </c>
       <c r="M143">
-        <v>13621619</v>
+        <v>13621890</v>
       </c>
       <c r="N143">
-        <v>8836711</v>
+        <v>8836752</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -5953,7 +5953,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042519</v>
+        <v>9042560</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -5997,7 +5997,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9395139</v>
+        <v>9395180</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -6041,7 +6041,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9716003</v>
+        <v>9716044</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -6085,7 +6085,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916834</v>
+        <v>9916875</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -6129,7 +6129,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176467</v>
+        <v>10176508</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -6173,7 +6173,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10402048</v>
+        <v>10402089</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -6217,7 +6217,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586448</v>
+        <v>10586489</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -6261,7 +6261,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834361</v>
+        <v>10834402</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -7771,7 +7771,7 @@
         <v>1488338</v>
       </c>
       <c r="D186">
-        <v>590407</v>
+        <v>590497</v>
       </c>
       <c r="E186">
         <v>232183</v>
@@ -7783,7 +7783,7 @@
         <v>9067094</v>
       </c>
       <c r="H186">
-        <v>1209224</v>
+        <v>1209168</v>
       </c>
       <c r="I186">
         <v>126.92</v>
@@ -7798,10 +7798,10 @@
         <v>125.18</v>
       </c>
       <c r="M186">
-        <v>13890014</v>
+        <v>13889957</v>
       </c>
       <c r="N186">
-        <v>8211212</v>
+        <v>8211302</v>
       </c>
       <c r="O186">
         <v>2510371</v>
@@ -7842,10 +7842,10 @@
         <v>125.48</v>
       </c>
       <c r="M187">
-        <v>13966246</v>
+        <v>13966190</v>
       </c>
       <c r="N187">
-        <v>8231203</v>
+        <v>8231293</v>
       </c>
       <c r="O187">
         <v>2506811</v>
@@ -7886,10 +7886,10 @@
         <v>125.89</v>
       </c>
       <c r="M188">
-        <v>14177480</v>
+        <v>14177423</v>
       </c>
       <c r="N188">
-        <v>8310989</v>
+        <v>8311079</v>
       </c>
       <c r="O188">
         <v>2528409</v>
@@ -7930,10 +7930,10 @@
         <v>126.37</v>
       </c>
       <c r="M189">
-        <v>14260788</v>
+        <v>14260731</v>
       </c>
       <c r="N189">
-        <v>8315349</v>
+        <v>8315439</v>
       </c>
       <c r="O189">
         <v>2521451</v>
@@ -7950,7 +7950,7 @@
         <v>509987</v>
       </c>
       <c r="E190">
-        <v>181947</v>
+        <v>181946</v>
       </c>
       <c r="F190">
         <v>9164177</v>
@@ -7974,13 +7974,13 @@
         <v>126.79</v>
       </c>
       <c r="M190">
-        <v>14423115</v>
+        <v>14423058</v>
       </c>
       <c r="N190">
-        <v>8370930</v>
+        <v>8371020</v>
       </c>
       <c r="O190">
-        <v>2540060</v>
+        <v>2540059</v>
       </c>
     </row>
     <row r="191">
@@ -7991,10 +7991,10 @@
         <v>1667576</v>
       </c>
       <c r="D191">
-        <v>573527</v>
+        <v>573535</v>
       </c>
       <c r="E191">
-        <v>207676</v>
+        <v>207673</v>
       </c>
       <c r="F191">
         <v>9966680</v>
@@ -8003,7 +8003,7 @@
         <v>8715190</v>
       </c>
       <c r="H191">
-        <v>1072983</v>
+        <v>1073037</v>
       </c>
       <c r="I191">
         <v>129.49</v>
@@ -8018,13 +8018,13 @@
         <v>127.14</v>
       </c>
       <c r="M191">
-        <v>14528195</v>
+        <v>14528193</v>
       </c>
       <c r="N191">
-        <v>8368431</v>
+        <v>8368529</v>
       </c>
       <c r="O191">
-        <v>2551092</v>
+        <v>2551088</v>
       </c>
     </row>
     <row r="192">
@@ -8062,13 +8062,13 @@
         <v>127.59</v>
       </c>
       <c r="M192">
-        <v>14532969</v>
+        <v>14532967</v>
       </c>
       <c r="N192">
-        <v>8290005</v>
+        <v>8290103</v>
       </c>
       <c r="O192">
-        <v>2547714</v>
+        <v>2547710</v>
       </c>
     </row>
     <row r="193">
@@ -8106,13 +8106,13 @@
         <v>128.14</v>
       </c>
       <c r="M193">
-        <v>14761493</v>
+        <v>14761491</v>
       </c>
       <c r="N193">
-        <v>8365097</v>
+        <v>8365195</v>
       </c>
       <c r="O193">
-        <v>2572362</v>
+        <v>2572358</v>
       </c>
     </row>
     <row r="194">
@@ -8150,13 +8150,13 @@
         <v>128.88</v>
       </c>
       <c r="M194">
-        <v>14844174</v>
+        <v>14844172</v>
       </c>
       <c r="N194">
-        <v>8387984</v>
+        <v>8388082</v>
       </c>
       <c r="O194">
-        <v>2570162</v>
+        <v>2570158</v>
       </c>
     </row>
     <row r="195">
@@ -8194,13 +8194,13 @@
         <v>129.54</v>
       </c>
       <c r="M195">
-        <v>14889104</v>
+        <v>14889102</v>
       </c>
       <c r="N195">
-        <v>8325456</v>
+        <v>8325554</v>
       </c>
       <c r="O195">
-        <v>2571051</v>
+        <v>2571047</v>
       </c>
     </row>
     <row r="196">
@@ -8238,13 +8238,13 @@
         <v>130.2</v>
       </c>
       <c r="M196">
-        <v>14967786</v>
+        <v>14967784</v>
       </c>
       <c r="N196">
-        <v>8319952</v>
+        <v>8320050</v>
       </c>
       <c r="O196">
-        <v>2563125</v>
+        <v>2563121</v>
       </c>
     </row>
     <row r="197">
@@ -8282,13 +8282,13 @@
         <v>130.86</v>
       </c>
       <c r="M197">
-        <v>15089930</v>
+        <v>15089928</v>
       </c>
       <c r="N197">
-        <v>8341416</v>
+        <v>8341514</v>
       </c>
       <c r="O197">
-        <v>2566580</v>
+        <v>2566576</v>
       </c>
     </row>
     <row r="198">
@@ -8326,13 +8326,13 @@
         <v>131.55</v>
       </c>
       <c r="M198">
-        <v>15141431</v>
+        <v>15141486</v>
       </c>
       <c r="N198">
-        <v>8330287</v>
+        <v>8330295</v>
       </c>
       <c r="O198">
-        <v>2567381</v>
+        <v>2567377</v>
       </c>
     </row>
     <row r="199">
@@ -8346,7 +8346,7 @@
         <v>525103</v>
       </c>
       <c r="E199">
-        <v>214625</v>
+        <v>214628</v>
       </c>
       <c r="F199">
         <v>10193543</v>
@@ -8370,13 +8370,13 @@
         <v>132.19</v>
       </c>
       <c r="M199">
-        <v>15308975</v>
+        <v>15309029</v>
       </c>
       <c r="N199">
-        <v>8356535</v>
+        <v>8356543</v>
       </c>
       <c r="O199">
-        <v>2587930</v>
+        <v>2587929</v>
       </c>
     </row>
     <row r="200">
@@ -8390,7 +8390,7 @@
         <v>735606</v>
       </c>
       <c r="E200">
-        <v>247051</v>
+        <v>247052</v>
       </c>
       <c r="F200">
         <v>11601024</v>
@@ -8414,10 +8414,10 @@
         <v>132.87</v>
       </c>
       <c r="M200">
-        <v>15440585</v>
+        <v>15440639</v>
       </c>
       <c r="N200">
-        <v>8350554</v>
+        <v>8350562</v>
       </c>
       <c r="O200">
         <v>2599983</v>
@@ -8458,10 +8458,10 @@
         <v>133.48</v>
       </c>
       <c r="M201">
-        <v>15510359</v>
+        <v>15510414</v>
       </c>
       <c r="N201">
-        <v>8368297</v>
+        <v>8368305</v>
       </c>
       <c r="O201">
         <v>2605561</v>
@@ -8502,13 +8502,13 @@
         <v>134.04</v>
       </c>
       <c r="M202">
-        <v>15673669</v>
+        <v>15673723</v>
       </c>
       <c r="N202">
-        <v>8381854</v>
+        <v>8381862</v>
       </c>
       <c r="O202">
-        <v>2635473</v>
+        <v>2635474</v>
       </c>
     </row>
     <row r="203">
@@ -8552,7 +8552,7 @@
         <v>8380544</v>
       </c>
       <c r="O203">
-        <v>2650970</v>
+        <v>2650974</v>
       </c>
     </row>
     <row r="204">
@@ -8596,7 +8596,7 @@
         <v>8330361</v>
       </c>
       <c r="O204">
-        <v>2658792</v>
+        <v>2658796</v>
       </c>
     </row>
     <row r="205">
@@ -8640,7 +8640,7 @@
         <v>8360752</v>
       </c>
       <c r="O205">
-        <v>2687341</v>
+        <v>2687345</v>
       </c>
     </row>
     <row r="206">
@@ -8684,7 +8684,7 @@
         <v>8190399</v>
       </c>
       <c r="O206">
-        <v>2682395</v>
+        <v>2682399</v>
       </c>
     </row>
     <row r="207">
@@ -8728,7 +8728,7 @@
         <v>8167954</v>
       </c>
       <c r="O207">
-        <v>2694746</v>
+        <v>2694750</v>
       </c>
     </row>
     <row r="208">
@@ -8772,7 +8772,7 @@
         <v>8133267</v>
       </c>
       <c r="O208">
-        <v>2719329</v>
+        <v>2719333</v>
       </c>
     </row>
     <row r="209">
@@ -8816,7 +8816,7 @@
         <v>8038963</v>
       </c>
       <c r="O209">
-        <v>2707771</v>
+        <v>2707775</v>
       </c>
     </row>
     <row r="210">
@@ -8860,7 +8860,7 @@
         <v>7908330</v>
       </c>
       <c r="O210">
-        <v>2680336</v>
+        <v>2680340</v>
       </c>
     </row>
     <row r="211">
@@ -8904,7 +8904,7 @@
         <v>7873641</v>
       </c>
       <c r="O211">
-        <v>2671979</v>
+        <v>2671980</v>
       </c>
     </row>
     <row r="212">
@@ -26615,7 +26615,7 @@
         <v>43769</v>
       </c>
       <c r="B599">
-        <v>878358</v>
+        <v>878311</v>
       </c>
       <c r="C599">
         <v>1385.4</v>
@@ -26662,7 +26662,7 @@
         <v>43799</v>
       </c>
       <c r="B600">
-        <v>964408</v>
+        <v>964398</v>
       </c>
       <c r="C600">
         <v>1525.9</v>
@@ -26709,7 +26709,7 @@
         <v>43830</v>
       </c>
       <c r="B601">
-        <v>1366407</v>
+        <v>1366439</v>
       </c>
       <c r="C601">
         <v>1786.2</v>
@@ -26756,7 +26756,7 @@
         <v>43861</v>
       </c>
       <c r="B602">
-        <v>1215627</v>
+        <v>1215506</v>
       </c>
       <c r="C602">
         <v>2045.2</v>
@@ -26803,7 +26803,7 @@
         <v>43890</v>
       </c>
       <c r="B603">
-        <v>843175</v>
+        <v>843098</v>
       </c>
       <c r="C603">
         <v>2047.1</v>
@@ -26850,7 +26850,7 @@
         <v>43921</v>
       </c>
       <c r="B604">
-        <v>11768425</v>
+        <v>11763805</v>
       </c>
       <c r="C604">
         <v>2232.5</v>
@@ -26897,7 +26897,7 @@
         <v>43951</v>
       </c>
       <c r="B605">
-        <v>17624674</v>
+        <v>17606753</v>
       </c>
       <c r="C605">
         <v>17346.7</v>
@@ -26909,16 +26909,16 @@
         <v>206020</v>
       </c>
       <c r="F605">
-        <v>66075737</v>
+        <v>66031203</v>
       </c>
       <c r="G605">
-        <v>55690467</v>
+        <v>55683268</v>
       </c>
       <c r="H605">
         <v>18328670</v>
       </c>
       <c r="I605">
-        <v>334.29</v>
+        <v>334.3</v>
       </c>
       <c r="J605">
         <v>35.66</v>
@@ -26944,7 +26944,7 @@
         <v>43982</v>
       </c>
       <c r="B606">
-        <v>9279296</v>
+        <v>9273398</v>
       </c>
       <c r="C606">
         <v>18746</v>
@@ -26991,7 +26991,7 @@
         <v>44012</v>
       </c>
       <c r="B607">
-        <v>6646812</v>
+        <v>6640918</v>
       </c>
       <c r="C607">
         <v>17052.6</v>
@@ -27038,7 +27038,7 @@
         <v>44043</v>
       </c>
       <c r="B608">
-        <v>5939361</v>
+        <v>5932955</v>
       </c>
       <c r="C608">
         <v>16315.1</v>
@@ -27085,7 +27085,7 @@
         <v>44074</v>
       </c>
       <c r="B609">
-        <v>3743201</v>
+        <v>3739543</v>
       </c>
       <c r="C609">
         <v>14100.6</v>
@@ -27097,16 +27097,16 @@
         <v>1067709</v>
       </c>
       <c r="F609">
-        <v>63156496</v>
+        <v>63188394</v>
       </c>
       <c r="G609">
-        <v>56382477</v>
+        <v>56411415</v>
       </c>
       <c r="H609">
         <v>16352575</v>
       </c>
       <c r="I609">
-        <v>304.64</v>
+        <v>304.66</v>
       </c>
       <c r="J609">
         <v>80.70999999999999</v>
@@ -27132,7 +27132,7 @@
         <v>44104</v>
       </c>
       <c r="B610">
-        <v>3489601</v>
+        <v>3485891</v>
       </c>
       <c r="C610">
         <v>12431.1</v>
@@ -27179,7 +27179,7 @@
         <v>44135</v>
       </c>
       <c r="B611">
-        <v>3443574</v>
+        <v>3440134</v>
       </c>
       <c r="C611">
         <v>7612.8</v>
@@ -27226,7 +27226,7 @@
         <v>44165</v>
       </c>
       <c r="B612">
-        <v>3431761</v>
+        <v>3429538</v>
       </c>
       <c r="C612">
         <v>6136</v>
@@ -27273,7 +27273,7 @@
         <v>44196</v>
       </c>
       <c r="B613">
-        <v>4222043</v>
+        <v>4219889</v>
       </c>
       <c r="C613">
         <v>5655.4</v>
@@ -27320,25 +27320,25 @@
         <v>44227</v>
       </c>
       <c r="B614">
-        <v>4597503</v>
+        <v>4594918</v>
       </c>
       <c r="C614">
         <v>5366.6</v>
       </c>
       <c r="D614">
-        <v>910844</v>
+        <v>910845</v>
       </c>
       <c r="E614">
-        <v>821765</v>
+        <v>821766</v>
       </c>
       <c r="F614">
-        <v>22584976</v>
+        <v>22586280</v>
       </c>
       <c r="G614">
-        <v>17533693</v>
+        <v>17533723</v>
       </c>
       <c r="H614">
-        <v>5618359</v>
+        <v>5618369</v>
       </c>
       <c r="I614">
         <v>346.07</v>
@@ -27353,13 +27353,13 @@
         <v>318.91</v>
       </c>
       <c r="M614">
-        <v>146096649</v>
+        <v>146096658</v>
       </c>
       <c r="N614">
-        <v>31003379</v>
+        <v>31003380</v>
       </c>
       <c r="O614">
-        <v>12105825</v>
+        <v>12105826</v>
       </c>
     </row>
     <row r="615">
@@ -27367,25 +27367,25 @@
         <v>44255</v>
       </c>
       <c r="B615">
-        <v>3555489</v>
+        <v>3553419</v>
       </c>
       <c r="C615">
         <v>5029.5</v>
       </c>
       <c r="D615">
-        <v>766125</v>
+        <v>766126</v>
       </c>
       <c r="E615">
         <v>633206</v>
       </c>
       <c r="F615">
-        <v>18840926</v>
+        <v>18842134</v>
       </c>
       <c r="G615">
-        <v>15831126</v>
+        <v>15831135</v>
       </c>
       <c r="H615">
-        <v>5068153</v>
+        <v>5068157</v>
       </c>
       <c r="I615">
         <v>349.14</v>
@@ -27400,13 +27400,13 @@
         <v>318.78</v>
       </c>
       <c r="M615">
-        <v>148411755</v>
+        <v>148411768</v>
       </c>
       <c r="N615">
-        <v>31290074</v>
+        <v>31290076</v>
       </c>
       <c r="O615">
-        <v>12600384</v>
+        <v>12600385</v>
       </c>
     </row>
     <row r="616">
@@ -27414,7 +27414,7 @@
         <v>44286</v>
       </c>
       <c r="B616">
-        <v>4200510</v>
+        <v>4197753</v>
       </c>
       <c r="C616">
         <v>4460.9</v>
@@ -27447,13 +27447,13 @@
         <v>318.51</v>
       </c>
       <c r="M616">
-        <v>149866318</v>
+        <v>149866331</v>
       </c>
       <c r="N616">
-        <v>30430491</v>
+        <v>30430493</v>
       </c>
       <c r="O616">
-        <v>13044262</v>
+        <v>13044263</v>
       </c>
     </row>
     <row r="617">
@@ -27461,7 +27461,7 @@
         <v>44316</v>
       </c>
       <c r="B617">
-        <v>3139798</v>
+        <v>3131048</v>
       </c>
       <c r="C617">
         <v>4022.4</v>
@@ -27494,13 +27494,13 @@
         <v>317.26</v>
       </c>
       <c r="M617">
-        <v>135606287</v>
+        <v>135606300</v>
       </c>
       <c r="N617">
-        <v>19269456</v>
+        <v>19269458</v>
       </c>
       <c r="O617">
-        <v>13246974</v>
+        <v>13246975</v>
       </c>
     </row>
     <row r="618">
@@ -27508,7 +27508,7 @@
         <v>44347</v>
       </c>
       <c r="B618">
-        <v>2221329</v>
+        <v>2180777</v>
       </c>
       <c r="C618">
         <v>3591.2</v>
@@ -27541,13 +27541,13 @@
         <v>317.62</v>
       </c>
       <c r="M618">
-        <v>115810473</v>
+        <v>115810487</v>
       </c>
       <c r="N618">
-        <v>14265040</v>
+        <v>14265042</v>
       </c>
       <c r="O618">
-        <v>13354759</v>
+        <v>13354760</v>
       </c>
     </row>
     <row r="619">
@@ -27555,7 +27555,7 @@
         <v>44377</v>
       </c>
       <c r="B619">
-        <v>2301654</v>
+        <v>2290434</v>
       </c>
       <c r="C619">
         <v>3473.1</v>
@@ -27588,13 +27588,13 @@
         <v>321.48</v>
       </c>
       <c r="M619">
-        <v>97731783</v>
+        <v>97731796</v>
       </c>
       <c r="N619">
-        <v>11764464</v>
+        <v>11764466</v>
       </c>
       <c r="O619">
-        <v>13082692</v>
+        <v>13082693</v>
       </c>
     </row>
     <row r="620">
@@ -27602,7 +27602,7 @@
         <v>44408</v>
       </c>
       <c r="B620">
-        <v>2049168</v>
+        <v>2048833</v>
       </c>
       <c r="C620">
         <v>3413.7</v>
@@ -27635,13 +27635,13 @@
         <v>326.54</v>
       </c>
       <c r="M620">
-        <v>82596549</v>
+        <v>82596563</v>
       </c>
       <c r="N620">
-        <v>10199122</v>
+        <v>10199124</v>
       </c>
       <c r="O620">
-        <v>12419292</v>
+        <v>12419293</v>
       </c>
     </row>
     <row r="621">
@@ -27649,7 +27649,7 @@
         <v>44439</v>
       </c>
       <c r="B621">
-        <v>1504461</v>
+        <v>1504150</v>
       </c>
       <c r="C621">
         <v>2944.1</v>
@@ -27682,13 +27682,13 @@
         <v>333.27</v>
       </c>
       <c r="M621">
-        <v>69691423</v>
+        <v>69691437</v>
       </c>
       <c r="N621">
-        <v>9343638</v>
+        <v>9343640</v>
       </c>
       <c r="O621">
-        <v>11625864</v>
+        <v>11625865</v>
       </c>
     </row>
     <row r="622">
@@ -27696,7 +27696,7 @@
         <v>44469</v>
       </c>
       <c r="B622">
-        <v>1407225</v>
+        <v>1407016</v>
       </c>
       <c r="C622">
         <v>2479.4</v>
@@ -27729,13 +27729,13 @@
         <v>340.11</v>
       </c>
       <c r="M622">
-        <v>58992537</v>
+        <v>58992551</v>
       </c>
       <c r="N622">
-        <v>8910182</v>
+        <v>8910184</v>
       </c>
       <c r="O622">
-        <v>8848636</v>
+        <v>8848637</v>
       </c>
     </row>
     <row r="623">
@@ -27743,25 +27743,25 @@
         <v>44500</v>
       </c>
       <c r="B623">
-        <v>1211491</v>
+        <v>1211250</v>
       </c>
       <c r="C623">
         <v>2027.6</v>
       </c>
       <c r="D623">
-        <v>353702</v>
+        <v>353705</v>
       </c>
       <c r="E623">
-        <v>306445</v>
+        <v>306192</v>
       </c>
       <c r="F623">
-        <v>8857478</v>
+        <v>8857377</v>
       </c>
       <c r="G623">
-        <v>6809378</v>
+        <v>6809429</v>
       </c>
       <c r="H623">
-        <v>2257648</v>
+        <v>2257660</v>
       </c>
       <c r="I623">
         <v>350.31</v>
@@ -27776,13 +27776,13 @@
         <v>344.47</v>
       </c>
       <c r="M623">
-        <v>52922911</v>
+        <v>52922937</v>
       </c>
       <c r="N623">
-        <v>8502763</v>
+        <v>8502768</v>
       </c>
       <c r="O623">
-        <v>6721100</v>
+        <v>6720848</v>
       </c>
     </row>
     <row r="624">
@@ -27814,7 +27814,7 @@
         <v>364.76</v>
       </c>
       <c r="J624">
-        <v>39.28</v>
+        <v>39.27</v>
       </c>
       <c r="K624">
         <v>18.55</v>
@@ -27823,13 +27823,13 @@
         <v>347.35</v>
       </c>
       <c r="M624">
-        <v>48468496</v>
+        <v>48468521</v>
       </c>
       <c r="N624">
-        <v>8090253</v>
+        <v>8090258</v>
       </c>
       <c r="O624">
-        <v>5602809</v>
+        <v>5602557</v>
       </c>
     </row>
     <row r="625">
@@ -27837,46 +27837,140 @@
         <v>44561</v>
       </c>
       <c r="B625">
-        <v>1280012</v>
+        <v>1251228</v>
       </c>
       <c r="C625">
         <v>1632.8</v>
       </c>
       <c r="D625">
-        <v>417825</v>
+        <v>413290</v>
       </c>
       <c r="E625">
-        <v>274529</v>
+        <v>182257</v>
       </c>
       <c r="F625">
-        <v>7758919</v>
+        <v>7674241</v>
       </c>
       <c r="G625">
-        <v>6149407</v>
+        <v>6082392</v>
       </c>
       <c r="H625">
-        <v>2202553</v>
+        <v>2186017</v>
       </c>
       <c r="I625">
-        <v>374.88</v>
+        <v>376.27</v>
       </c>
       <c r="J625">
-        <v>40.34</v>
+        <v>40.32</v>
       </c>
       <c r="K625">
         <v>17.8</v>
       </c>
       <c r="L625">
-        <v>349.75</v>
+        <v>349.8</v>
       </c>
       <c r="M625">
-        <v>44281581</v>
+        <v>44265070</v>
       </c>
       <c r="N625">
-        <v>7633009</v>
+        <v>7628479</v>
       </c>
       <c r="O625">
-        <v>4746190</v>
+        <v>4743363</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="2">
+        <v>44592</v>
+      </c>
+      <c r="B626">
+        <v>1414633</v>
+      </c>
+      <c r="C626">
+        <v>1917.5</v>
+      </c>
+      <c r="D626">
+        <v>526769</v>
+      </c>
+      <c r="E626">
+        <v>177875</v>
+      </c>
+      <c r="F626">
+        <v>9136815</v>
+      </c>
+      <c r="G626">
+        <v>6989873</v>
+      </c>
+      <c r="H626">
+        <v>2493510</v>
+      </c>
+      <c r="I626">
+        <v>390.15</v>
+      </c>
+      <c r="J626">
+        <v>40.19</v>
+      </c>
+      <c r="K626">
+        <v>17.29</v>
+      </c>
+      <c r="L626">
+        <v>352.67</v>
+      </c>
+      <c r="M626">
+        <v>41140211</v>
+      </c>
+      <c r="N626">
+        <v>7244403</v>
+      </c>
+      <c r="O626">
+        <v>4099472</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="2">
+        <v>44620</v>
+      </c>
+      <c r="B627">
+        <v>910065</v>
+      </c>
+      <c r="C627">
+        <v>1898.8</v>
+      </c>
+      <c r="D627">
+        <v>390284</v>
+      </c>
+      <c r="E627">
+        <v>139374</v>
+      </c>
+      <c r="F627">
+        <v>7704863</v>
+      </c>
+      <c r="G627">
+        <v>6232920</v>
+      </c>
+      <c r="H627">
+        <v>2405341</v>
+      </c>
+      <c r="I627">
+        <v>399.55</v>
+      </c>
+      <c r="J627">
+        <v>38.59</v>
+      </c>
+      <c r="K627">
+        <v>16.84</v>
+      </c>
+      <c r="L627">
+        <v>355.79</v>
+      </c>
+      <c r="M627">
+        <v>38477395</v>
+      </c>
+      <c r="N627">
+        <v>6868561</v>
+      </c>
+      <c r="O627">
+        <v>3605640</v>
       </c>
     </row>
   </sheetData>

--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O627"/>
+  <dimension ref="A1:O628"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4058,7 +4058,7 @@
         <v>80.95</v>
       </c>
       <c r="M101">
-        <v>8496279</v>
+        <v>8496278</v>
       </c>
       <c r="N101">
         <v>7630816</v>
@@ -4146,7 +4146,7 @@
         <v>81.74</v>
       </c>
       <c r="M103">
-        <v>8390320</v>
+        <v>8390319</v>
       </c>
       <c r="N103">
         <v>7610191</v>
@@ -5407,7 +5407,7 @@
         <v>9516801</v>
       </c>
       <c r="H132">
-        <v>935372</v>
+        <v>935330</v>
       </c>
       <c r="I132">
         <v>94</v>
@@ -5422,7 +5422,7 @@
         <v>99.05</v>
       </c>
       <c r="M132">
-        <v>14066919</v>
+        <v>14066877</v>
       </c>
       <c r="N132">
         <v>9919645</v>
@@ -5466,7 +5466,7 @@
         <v>99.53</v>
       </c>
       <c r="M133">
-        <v>14469372</v>
+        <v>14469330</v>
       </c>
       <c r="N133">
         <v>9992123</v>
@@ -5510,7 +5510,7 @@
         <v>100.2</v>
       </c>
       <c r="M134">
-        <v>14605007</v>
+        <v>14604965</v>
       </c>
       <c r="N134">
         <v>9946214</v>
@@ -5554,7 +5554,7 @@
         <v>100.72</v>
       </c>
       <c r="M135">
-        <v>14690444</v>
+        <v>14690402</v>
       </c>
       <c r="N135">
         <v>9890722</v>
@@ -5598,7 +5598,7 @@
         <v>101.31</v>
       </c>
       <c r="M136">
-        <v>14866903</v>
+        <v>14866861</v>
       </c>
       <c r="N136">
         <v>9919839</v>
@@ -5642,7 +5642,7 @@
         <v>101.83</v>
       </c>
       <c r="M137">
-        <v>14861421</v>
+        <v>14861379</v>
       </c>
       <c r="N137">
         <v>9793604</v>
@@ -5686,7 +5686,7 @@
         <v>102.25</v>
       </c>
       <c r="M138">
-        <v>14670813</v>
+        <v>14670771</v>
       </c>
       <c r="N138">
         <v>9476838</v>
@@ -5730,7 +5730,7 @@
         <v>102.61</v>
       </c>
       <c r="M139">
-        <v>14467038</v>
+        <v>14466996</v>
       </c>
       <c r="N139">
         <v>9214474</v>
@@ -5747,7 +5747,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823691</v>
+        <v>823701</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -5774,10 +5774,10 @@
         <v>103.08</v>
       </c>
       <c r="M140">
-        <v>14131818</v>
+        <v>14131776</v>
       </c>
       <c r="N140">
-        <v>8935527</v>
+        <v>8935537</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -5818,10 +5818,10 @@
         <v>103.59</v>
       </c>
       <c r="M141">
-        <v>13894114</v>
+        <v>13894072</v>
       </c>
       <c r="N141">
-        <v>8782042</v>
+        <v>8782052</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -5862,10 +5862,10 @@
         <v>104.14</v>
       </c>
       <c r="M142">
-        <v>13750021</v>
+        <v>13749979</v>
       </c>
       <c r="N142">
-        <v>8776310</v>
+        <v>8776320</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -5906,10 +5906,10 @@
         <v>104.75</v>
       </c>
       <c r="M143">
-        <v>13621890</v>
+        <v>13621848</v>
       </c>
       <c r="N143">
-        <v>8836752</v>
+        <v>8836762</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -5953,7 +5953,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042560</v>
+        <v>9042570</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -5997,7 +5997,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9395180</v>
+        <v>9395190</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -6041,7 +6041,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9716044</v>
+        <v>9716054</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -6085,7 +6085,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916875</v>
+        <v>9916885</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -6129,7 +6129,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176508</v>
+        <v>10176518</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -6173,7 +6173,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10402089</v>
+        <v>10402099</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -6217,7 +6217,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586489</v>
+        <v>10586499</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -6261,7 +6261,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834402</v>
+        <v>10834412</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -7771,7 +7771,7 @@
         <v>1488338</v>
       </c>
       <c r="D186">
-        <v>590497</v>
+        <v>590505</v>
       </c>
       <c r="E186">
         <v>232183</v>
@@ -7783,7 +7783,7 @@
         <v>9067094</v>
       </c>
       <c r="H186">
-        <v>1209168</v>
+        <v>1209150</v>
       </c>
       <c r="I186">
         <v>126.92</v>
@@ -7798,10 +7798,10 @@
         <v>125.18</v>
       </c>
       <c r="M186">
-        <v>13889957</v>
+        <v>13889940</v>
       </c>
       <c r="N186">
-        <v>8211302</v>
+        <v>8211310</v>
       </c>
       <c r="O186">
         <v>2510371</v>
@@ -7842,10 +7842,10 @@
         <v>125.48</v>
       </c>
       <c r="M187">
-        <v>13966190</v>
+        <v>13966173</v>
       </c>
       <c r="N187">
-        <v>8231293</v>
+        <v>8231301</v>
       </c>
       <c r="O187">
         <v>2506811</v>
@@ -7886,10 +7886,10 @@
         <v>125.89</v>
       </c>
       <c r="M188">
-        <v>14177423</v>
+        <v>14177406</v>
       </c>
       <c r="N188">
-        <v>8311079</v>
+        <v>8311087</v>
       </c>
       <c r="O188">
         <v>2528409</v>
@@ -7930,10 +7930,10 @@
         <v>126.37</v>
       </c>
       <c r="M189">
-        <v>14260731</v>
+        <v>14260714</v>
       </c>
       <c r="N189">
-        <v>8315439</v>
+        <v>8315447</v>
       </c>
       <c r="O189">
         <v>2521451</v>
@@ -7974,10 +7974,10 @@
         <v>126.79</v>
       </c>
       <c r="M190">
-        <v>14423058</v>
+        <v>14423041</v>
       </c>
       <c r="N190">
-        <v>8371020</v>
+        <v>8371028</v>
       </c>
       <c r="O190">
         <v>2540059</v>
@@ -7991,7 +7991,7 @@
         <v>1667576</v>
       </c>
       <c r="D191">
-        <v>573535</v>
+        <v>573540</v>
       </c>
       <c r="E191">
         <v>207673</v>
@@ -8003,7 +8003,7 @@
         <v>8715190</v>
       </c>
       <c r="H191">
-        <v>1073037</v>
+        <v>1073044</v>
       </c>
       <c r="I191">
         <v>129.49</v>
@@ -8018,10 +8018,10 @@
         <v>127.14</v>
       </c>
       <c r="M191">
-        <v>14528193</v>
+        <v>14528182</v>
       </c>
       <c r="N191">
-        <v>8368529</v>
+        <v>8368542</v>
       </c>
       <c r="O191">
         <v>2551088</v>
@@ -8062,10 +8062,10 @@
         <v>127.59</v>
       </c>
       <c r="M192">
-        <v>14532967</v>
+        <v>14532957</v>
       </c>
       <c r="N192">
-        <v>8290103</v>
+        <v>8290116</v>
       </c>
       <c r="O192">
         <v>2547710</v>
@@ -8106,10 +8106,10 @@
         <v>128.14</v>
       </c>
       <c r="M193">
-        <v>14761491</v>
+        <v>14761480</v>
       </c>
       <c r="N193">
-        <v>8365195</v>
+        <v>8365208</v>
       </c>
       <c r="O193">
         <v>2572358</v>
@@ -8150,10 +8150,10 @@
         <v>128.88</v>
       </c>
       <c r="M194">
-        <v>14844172</v>
+        <v>14844161</v>
       </c>
       <c r="N194">
-        <v>8388082</v>
+        <v>8388095</v>
       </c>
       <c r="O194">
         <v>2570158</v>
@@ -8194,10 +8194,10 @@
         <v>129.54</v>
       </c>
       <c r="M195">
-        <v>14889102</v>
+        <v>14889092</v>
       </c>
       <c r="N195">
-        <v>8325554</v>
+        <v>8325567</v>
       </c>
       <c r="O195">
         <v>2571047</v>
@@ -8238,10 +8238,10 @@
         <v>130.2</v>
       </c>
       <c r="M196">
-        <v>14967784</v>
+        <v>14967773</v>
       </c>
       <c r="N196">
-        <v>8320050</v>
+        <v>8320063</v>
       </c>
       <c r="O196">
         <v>2563121</v>
@@ -8282,10 +8282,10 @@
         <v>130.86</v>
       </c>
       <c r="M197">
-        <v>15089928</v>
+        <v>15089918</v>
       </c>
       <c r="N197">
-        <v>8341514</v>
+        <v>8341527</v>
       </c>
       <c r="O197">
         <v>2566576</v>
@@ -8326,10 +8326,10 @@
         <v>131.55</v>
       </c>
       <c r="M198">
-        <v>15141486</v>
+        <v>15141492</v>
       </c>
       <c r="N198">
-        <v>8330295</v>
+        <v>8330300</v>
       </c>
       <c r="O198">
         <v>2567377</v>
@@ -8346,7 +8346,7 @@
         <v>525103</v>
       </c>
       <c r="E199">
-        <v>214628</v>
+        <v>214629</v>
       </c>
       <c r="F199">
         <v>10193543</v>
@@ -8370,13 +8370,13 @@
         <v>132.19</v>
       </c>
       <c r="M199">
-        <v>15309029</v>
+        <v>15309036</v>
       </c>
       <c r="N199">
-        <v>8356543</v>
+        <v>8356548</v>
       </c>
       <c r="O199">
-        <v>2587929</v>
+        <v>2587930</v>
       </c>
     </row>
     <row r="200">
@@ -8414,13 +8414,13 @@
         <v>132.87</v>
       </c>
       <c r="M200">
-        <v>15440639</v>
+        <v>15440646</v>
       </c>
       <c r="N200">
-        <v>8350562</v>
+        <v>8350567</v>
       </c>
       <c r="O200">
-        <v>2599983</v>
+        <v>2599984</v>
       </c>
     </row>
     <row r="201">
@@ -8458,13 +8458,13 @@
         <v>133.48</v>
       </c>
       <c r="M201">
-        <v>15510414</v>
+        <v>15510420</v>
       </c>
       <c r="N201">
-        <v>8368305</v>
+        <v>8368310</v>
       </c>
       <c r="O201">
-        <v>2605561</v>
+        <v>2605562</v>
       </c>
     </row>
     <row r="202">
@@ -8502,13 +8502,13 @@
         <v>134.04</v>
       </c>
       <c r="M202">
-        <v>15673723</v>
+        <v>15673730</v>
       </c>
       <c r="N202">
-        <v>8381862</v>
+        <v>8381867</v>
       </c>
       <c r="O202">
-        <v>2635474</v>
+        <v>2635475</v>
       </c>
     </row>
     <row r="203">
@@ -8552,7 +8552,7 @@
         <v>8380544</v>
       </c>
       <c r="O203">
-        <v>2650974</v>
+        <v>2650975</v>
       </c>
     </row>
     <row r="204">
@@ -8596,7 +8596,7 @@
         <v>8330361</v>
       </c>
       <c r="O204">
-        <v>2658796</v>
+        <v>2658797</v>
       </c>
     </row>
     <row r="205">
@@ -8640,7 +8640,7 @@
         <v>8360752</v>
       </c>
       <c r="O205">
-        <v>2687345</v>
+        <v>2687346</v>
       </c>
     </row>
     <row r="206">
@@ -8684,7 +8684,7 @@
         <v>8190399</v>
       </c>
       <c r="O206">
-        <v>2682399</v>
+        <v>2682400</v>
       </c>
     </row>
     <row r="207">
@@ -8728,7 +8728,7 @@
         <v>8167954</v>
       </c>
       <c r="O207">
-        <v>2694750</v>
+        <v>2694751</v>
       </c>
     </row>
     <row r="208">
@@ -8772,7 +8772,7 @@
         <v>8133267</v>
       </c>
       <c r="O208">
-        <v>2719333</v>
+        <v>2719334</v>
       </c>
     </row>
     <row r="209">
@@ -8816,7 +8816,7 @@
         <v>8038963</v>
       </c>
       <c r="O209">
-        <v>2707775</v>
+        <v>2707776</v>
       </c>
     </row>
     <row r="210">
@@ -8860,7 +8860,7 @@
         <v>7908330</v>
       </c>
       <c r="O210">
-        <v>2680340</v>
+        <v>2680341</v>
       </c>
     </row>
     <row r="211">
@@ -27890,10 +27890,10 @@
         <v>1917.5</v>
       </c>
       <c r="D626">
-        <v>526769</v>
+        <v>528433</v>
       </c>
       <c r="E626">
-        <v>177875</v>
+        <v>177871</v>
       </c>
       <c r="F626">
         <v>9136815</v>
@@ -27902,7 +27902,7 @@
         <v>6989873</v>
       </c>
       <c r="H626">
-        <v>2493510</v>
+        <v>2630921</v>
       </c>
       <c r="I626">
         <v>390.15</v>
@@ -27914,16 +27914,16 @@
         <v>17.29</v>
       </c>
       <c r="L626">
-        <v>352.67</v>
+        <v>352.69</v>
       </c>
       <c r="M626">
-        <v>41140211</v>
+        <v>41277623</v>
       </c>
       <c r="N626">
-        <v>7244403</v>
+        <v>7246067</v>
       </c>
       <c r="O626">
-        <v>4099472</v>
+        <v>4099468</v>
       </c>
     </row>
     <row r="627">
@@ -27931,28 +27931,28 @@
         <v>44620</v>
       </c>
       <c r="B627">
-        <v>910065</v>
+        <v>905593</v>
       </c>
       <c r="C627">
         <v>1898.8</v>
       </c>
       <c r="D627">
-        <v>390284</v>
+        <v>389644</v>
       </c>
       <c r="E627">
-        <v>139374</v>
+        <v>139256</v>
       </c>
       <c r="F627">
-        <v>7704863</v>
+        <v>7688500</v>
       </c>
       <c r="G627">
-        <v>6232920</v>
+        <v>6223864</v>
       </c>
       <c r="H627">
-        <v>2405341</v>
+        <v>2403369</v>
       </c>
       <c r="I627">
-        <v>399.55</v>
+        <v>399.79</v>
       </c>
       <c r="J627">
         <v>38.59</v>
@@ -27961,16 +27961,63 @@
         <v>16.84</v>
       </c>
       <c r="L627">
-        <v>355.79</v>
+        <v>355.82</v>
       </c>
       <c r="M627">
-        <v>38477395</v>
+        <v>38612835</v>
       </c>
       <c r="N627">
-        <v>6868561</v>
+        <v>6869585</v>
       </c>
       <c r="O627">
-        <v>3605640</v>
+        <v>3605518</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="2">
+        <v>44651</v>
+      </c>
+      <c r="B628">
+        <v>892663</v>
+      </c>
+      <c r="C628">
+        <v>1723</v>
+      </c>
+      <c r="D628">
+        <v>369742</v>
+      </c>
+      <c r="E628">
+        <v>168558</v>
+      </c>
+      <c r="F628">
+        <v>7553475</v>
+      </c>
+      <c r="G628">
+        <v>6413467</v>
+      </c>
+      <c r="H628">
+        <v>2536413</v>
+      </c>
+      <c r="I628">
+        <v>407.1</v>
+      </c>
+      <c r="J628">
+        <v>35.52</v>
+      </c>
+      <c r="K628">
+        <v>16.53</v>
+      </c>
+      <c r="L628">
+        <v>359.72</v>
+      </c>
+      <c r="M628">
+        <v>35802786</v>
+      </c>
+      <c r="N628">
+        <v>6389345</v>
+      </c>
+      <c r="O628">
+        <v>3165308</v>
       </c>
     </row>
   </sheetData>

--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R628"/>
+  <dimension ref="A1:R629"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4775,7 +4775,7 @@
         <v>28521</v>
       </c>
       <c r="B98">
-        <v>2372391</v>
+        <v>2273261</v>
       </c>
       <c r="D98">
         <v>1063136</v>
@@ -4784,16 +4784,16 @@
         <v>210662</v>
       </c>
       <c r="F98">
-        <v>15063795</v>
+        <v>13886960</v>
       </c>
       <c r="G98">
-        <v>12152139</v>
+        <v>11076395</v>
       </c>
       <c r="H98">
-        <v>904873</v>
+        <v>904872</v>
       </c>
       <c r="I98">
-        <v>104.65</v>
+        <v>84.12000000000001</v>
       </c>
       <c r="J98">
         <v>32.33</v>
@@ -4805,7 +4805,7 @@
         <v>79.33</v>
       </c>
       <c r="M98">
-        <v>8643095</v>
+        <v>8643094</v>
       </c>
       <c r="N98">
         <v>7816720</v>
@@ -5123,7 +5123,7 @@
         <v>82.12000000000001</v>
       </c>
       <c r="M104">
-        <v>8353745</v>
+        <v>8353744</v>
       </c>
       <c r="N104">
         <v>7610967</v>
@@ -5335,7 +5335,7 @@
         <v>83.3</v>
       </c>
       <c r="M108">
-        <v>8263909</v>
+        <v>8263908</v>
       </c>
       <c r="N108">
         <v>7603593</v>
@@ -6592,10 +6592,10 @@
         <v>9516801</v>
       </c>
       <c r="H132">
-        <v>935330</v>
+        <v>935342</v>
       </c>
       <c r="I132">
-        <v>94</v>
+        <v>100.69</v>
       </c>
       <c r="J132">
         <v>32.75</v>
@@ -6607,7 +6607,7 @@
         <v>99.05</v>
       </c>
       <c r="M132">
-        <v>14066877</v>
+        <v>14066889</v>
       </c>
       <c r="N132">
         <v>9919645</v>
@@ -6660,7 +6660,7 @@
         <v>99.53</v>
       </c>
       <c r="M133">
-        <v>14469330</v>
+        <v>14469341</v>
       </c>
       <c r="N133">
         <v>9992123</v>
@@ -6713,7 +6713,7 @@
         <v>100.2</v>
       </c>
       <c r="M134">
-        <v>14604965</v>
+        <v>14604977</v>
       </c>
       <c r="N134">
         <v>9946214</v>
@@ -6766,7 +6766,7 @@
         <v>100.72</v>
       </c>
       <c r="M135">
-        <v>14690402</v>
+        <v>14690413</v>
       </c>
       <c r="N135">
         <v>9890722</v>
@@ -6819,7 +6819,7 @@
         <v>101.31</v>
       </c>
       <c r="M136">
-        <v>14866861</v>
+        <v>14866873</v>
       </c>
       <c r="N136">
         <v>9919839</v>
@@ -6872,7 +6872,7 @@
         <v>101.83</v>
       </c>
       <c r="M137">
-        <v>14861379</v>
+        <v>14861391</v>
       </c>
       <c r="N137">
         <v>9793604</v>
@@ -6925,7 +6925,7 @@
         <v>102.25</v>
       </c>
       <c r="M138">
-        <v>14670771</v>
+        <v>14670782</v>
       </c>
       <c r="N138">
         <v>9476838</v>
@@ -6978,7 +6978,7 @@
         <v>102.61</v>
       </c>
       <c r="M139">
-        <v>14466996</v>
+        <v>14467007</v>
       </c>
       <c r="N139">
         <v>9214474</v>
@@ -7031,7 +7031,7 @@
         <v>103.08</v>
       </c>
       <c r="M140">
-        <v>14131776</v>
+        <v>14131787</v>
       </c>
       <c r="N140">
         <v>8935537</v>
@@ -7084,7 +7084,7 @@
         <v>103.59</v>
       </c>
       <c r="M141">
-        <v>13894072</v>
+        <v>13894084</v>
       </c>
       <c r="N141">
         <v>8782052</v>
@@ -7137,7 +7137,7 @@
         <v>104.14</v>
       </c>
       <c r="M142">
-        <v>13749979</v>
+        <v>13749990</v>
       </c>
       <c r="N142">
         <v>8776320</v>
@@ -7190,7 +7190,7 @@
         <v>104.75</v>
       </c>
       <c r="M143">
-        <v>13621848</v>
+        <v>13621859</v>
       </c>
       <c r="N143">
         <v>8836762</v>
@@ -9442,7 +9442,7 @@
         <v>1488338</v>
       </c>
       <c r="D186">
-        <v>590505</v>
+        <v>590513</v>
       </c>
       <c r="E186">
         <v>232183</v>
@@ -9451,13 +9451,13 @@
         <v>10937527</v>
       </c>
       <c r="G186">
-        <v>9067094</v>
+        <v>9819319</v>
       </c>
       <c r="H186">
-        <v>1209150</v>
+        <v>1209154</v>
       </c>
       <c r="I186">
-        <v>126.92</v>
+        <v>127.37</v>
       </c>
       <c r="J186">
         <v>32.49</v>
@@ -9469,10 +9469,10 @@
         <v>125.18</v>
       </c>
       <c r="M186">
-        <v>13889940</v>
+        <v>13889943</v>
       </c>
       <c r="N186">
-        <v>8211310</v>
+        <v>8211318</v>
       </c>
       <c r="O186">
         <v>2510371</v>
@@ -9522,10 +9522,10 @@
         <v>125.48</v>
       </c>
       <c r="M187">
-        <v>13966173</v>
+        <v>13966176</v>
       </c>
       <c r="N187">
-        <v>8231301</v>
+        <v>8231309</v>
       </c>
       <c r="O187">
         <v>2506811</v>
@@ -9575,10 +9575,10 @@
         <v>125.89</v>
       </c>
       <c r="M188">
-        <v>14177406</v>
+        <v>14177409</v>
       </c>
       <c r="N188">
-        <v>8311087</v>
+        <v>8311095</v>
       </c>
       <c r="O188">
         <v>2528409</v>
@@ -9628,10 +9628,10 @@
         <v>126.37</v>
       </c>
       <c r="M189">
-        <v>14260714</v>
+        <v>14260717</v>
       </c>
       <c r="N189">
-        <v>8315447</v>
+        <v>8315455</v>
       </c>
       <c r="O189">
         <v>2521451</v>
@@ -9681,10 +9681,10 @@
         <v>126.79</v>
       </c>
       <c r="M190">
-        <v>14423041</v>
+        <v>14423044</v>
       </c>
       <c r="N190">
-        <v>8371028</v>
+        <v>8371036</v>
       </c>
       <c r="O190">
         <v>2540059</v>
@@ -9707,22 +9707,22 @@
         <v>1667576</v>
       </c>
       <c r="D191">
-        <v>573540</v>
+        <v>573542</v>
       </c>
       <c r="E191">
-        <v>207673</v>
+        <v>207674</v>
       </c>
       <c r="F191">
         <v>9966680</v>
       </c>
       <c r="G191">
-        <v>8715190</v>
+        <v>8670362</v>
       </c>
       <c r="H191">
-        <v>1073044</v>
+        <v>1073048</v>
       </c>
       <c r="I191">
-        <v>129.49</v>
+        <v>128.59</v>
       </c>
       <c r="J191">
         <v>31.29</v>
@@ -9734,13 +9734,13 @@
         <v>127.14</v>
       </c>
       <c r="M191">
-        <v>14528182</v>
+        <v>14528189</v>
       </c>
       <c r="N191">
-        <v>8368542</v>
+        <v>8368552</v>
       </c>
       <c r="O191">
-        <v>2551088</v>
+        <v>2551089</v>
       </c>
       <c r="P191">
         <v>3864</v>
@@ -9787,13 +9787,13 @@
         <v>127.59</v>
       </c>
       <c r="M192">
-        <v>14532957</v>
+        <v>14532964</v>
       </c>
       <c r="N192">
-        <v>8290116</v>
+        <v>8290126</v>
       </c>
       <c r="O192">
-        <v>2547710</v>
+        <v>2547711</v>
       </c>
       <c r="P192">
         <v>3867</v>
@@ -9840,13 +9840,13 @@
         <v>128.14</v>
       </c>
       <c r="M193">
-        <v>14761480</v>
+        <v>14761487</v>
       </c>
       <c r="N193">
-        <v>8365208</v>
+        <v>8365218</v>
       </c>
       <c r="O193">
-        <v>2572358</v>
+        <v>2572359</v>
       </c>
       <c r="P193">
         <v>3862</v>
@@ -9872,7 +9872,7 @@
         <v>235008</v>
       </c>
       <c r="F194">
-        <v>14733942</v>
+        <v>14729048</v>
       </c>
       <c r="G194">
         <v>13027499</v>
@@ -9893,13 +9893,13 @@
         <v>128.88</v>
       </c>
       <c r="M194">
-        <v>14844161</v>
+        <v>14844168</v>
       </c>
       <c r="N194">
-        <v>8388095</v>
+        <v>8388105</v>
       </c>
       <c r="O194">
-        <v>2570158</v>
+        <v>2570159</v>
       </c>
       <c r="P194">
         <v>3869</v>
@@ -9946,13 +9946,13 @@
         <v>129.54</v>
       </c>
       <c r="M195">
-        <v>14889092</v>
+        <v>14889099</v>
       </c>
       <c r="N195">
-        <v>8325567</v>
+        <v>8325577</v>
       </c>
       <c r="O195">
-        <v>2571047</v>
+        <v>2571048</v>
       </c>
       <c r="P195">
         <v>3875</v>
@@ -9978,7 +9978,7 @@
         <v>219934</v>
       </c>
       <c r="F196">
-        <v>13104449</v>
+        <v>13097775</v>
       </c>
       <c r="G196">
         <v>11730221</v>
@@ -9999,13 +9999,13 @@
         <v>130.2</v>
       </c>
       <c r="M196">
-        <v>14967773</v>
+        <v>14967780</v>
       </c>
       <c r="N196">
-        <v>8320063</v>
+        <v>8320073</v>
       </c>
       <c r="O196">
-        <v>2563121</v>
+        <v>2563122</v>
       </c>
       <c r="P196">
         <v>3873</v>
@@ -10052,13 +10052,13 @@
         <v>130.86</v>
       </c>
       <c r="M197">
-        <v>15089918</v>
+        <v>15089925</v>
       </c>
       <c r="N197">
-        <v>8341527</v>
+        <v>8341537</v>
       </c>
       <c r="O197">
-        <v>2566576</v>
+        <v>2566577</v>
       </c>
       <c r="P197">
         <v>3878</v>
@@ -10105,13 +10105,13 @@
         <v>131.55</v>
       </c>
       <c r="M198">
-        <v>15141492</v>
+        <v>15141496</v>
       </c>
       <c r="N198">
-        <v>8330300</v>
+        <v>8330302</v>
       </c>
       <c r="O198">
-        <v>2567377</v>
+        <v>2567378</v>
       </c>
       <c r="P198">
         <v>3884</v>
@@ -10134,10 +10134,10 @@
         <v>525103</v>
       </c>
       <c r="E199">
-        <v>214629</v>
+        <v>214630</v>
       </c>
       <c r="F199">
-        <v>10193543</v>
+        <v>10187328</v>
       </c>
       <c r="G199">
         <v>9028611</v>
@@ -10158,13 +10158,13 @@
         <v>132.19</v>
       </c>
       <c r="M199">
-        <v>15309036</v>
+        <v>15309040</v>
       </c>
       <c r="N199">
-        <v>8356548</v>
+        <v>8356550</v>
       </c>
       <c r="O199">
-        <v>2587930</v>
+        <v>2587932</v>
       </c>
       <c r="P199">
         <v>3887</v>
@@ -10211,13 +10211,13 @@
         <v>132.87</v>
       </c>
       <c r="M200">
-        <v>15440646</v>
+        <v>15440650</v>
       </c>
       <c r="N200">
-        <v>8350567</v>
+        <v>8350569</v>
       </c>
       <c r="O200">
-        <v>2599984</v>
+        <v>2599986</v>
       </c>
       <c r="P200">
         <v>3886</v>
@@ -10264,13 +10264,13 @@
         <v>133.48</v>
       </c>
       <c r="M201">
-        <v>15510420</v>
+        <v>15510424</v>
       </c>
       <c r="N201">
-        <v>8368310</v>
+        <v>8368312</v>
       </c>
       <c r="O201">
-        <v>2605562</v>
+        <v>2605564</v>
       </c>
       <c r="P201">
         <v>3887</v>
@@ -10296,7 +10296,7 @@
         <v>211859</v>
       </c>
       <c r="F202">
-        <v>10049560</v>
+        <v>10071201</v>
       </c>
       <c r="G202">
         <v>8724780</v>
@@ -10317,13 +10317,13 @@
         <v>134.04</v>
       </c>
       <c r="M202">
-        <v>15673730</v>
+        <v>15673734</v>
       </c>
       <c r="N202">
-        <v>8381867</v>
+        <v>8381869</v>
       </c>
       <c r="O202">
-        <v>2635475</v>
+        <v>2635477</v>
       </c>
       <c r="P202">
         <v>3895</v>
@@ -10349,7 +10349,7 @@
         <v>223173</v>
       </c>
       <c r="F203">
-        <v>9821660</v>
+        <v>9851485</v>
       </c>
       <c r="G203">
         <v>8695175</v>
@@ -10376,7 +10376,7 @@
         <v>8380544</v>
       </c>
       <c r="O203">
-        <v>2650975</v>
+        <v>2650976</v>
       </c>
       <c r="P203">
         <v>3915</v>
@@ -10429,7 +10429,7 @@
         <v>8330361</v>
       </c>
       <c r="O204">
-        <v>2658797</v>
+        <v>2658798</v>
       </c>
       <c r="P204">
         <v>3927</v>
@@ -10482,7 +10482,7 @@
         <v>8360752</v>
       </c>
       <c r="O205">
-        <v>2687346</v>
+        <v>2687347</v>
       </c>
       <c r="P205">
         <v>3938</v>
@@ -10535,7 +10535,7 @@
         <v>8190399</v>
       </c>
       <c r="O206">
-        <v>2682400</v>
+        <v>2682401</v>
       </c>
       <c r="P206">
         <v>3943</v>
@@ -10588,7 +10588,7 @@
         <v>8167954</v>
       </c>
       <c r="O207">
-        <v>2694751</v>
+        <v>2694752</v>
       </c>
       <c r="P207">
         <v>3943</v>
@@ -10641,7 +10641,7 @@
         <v>8133267</v>
       </c>
       <c r="O208">
-        <v>2719334</v>
+        <v>2719335</v>
       </c>
       <c r="P208">
         <v>3945</v>
@@ -10694,7 +10694,7 @@
         <v>8038963</v>
       </c>
       <c r="O209">
-        <v>2707776</v>
+        <v>2707777</v>
       </c>
       <c r="P209">
         <v>3954</v>
@@ -10747,7 +10747,7 @@
         <v>7908330</v>
       </c>
       <c r="O210">
-        <v>2680341</v>
+        <v>2680342</v>
       </c>
       <c r="P210">
         <v>3955</v>
@@ -11877,7 +11877,7 @@
         <v>32598</v>
       </c>
       <c r="B232">
-        <v>1432990</v>
+        <v>1361133</v>
       </c>
       <c r="D232">
         <v>652549</v>
@@ -11886,7 +11886,7 @@
         <v>176192</v>
       </c>
       <c r="F232">
-        <v>12426342</v>
+        <v>11589001</v>
       </c>
       <c r="G232">
         <v>10451849</v>
@@ -26194,7 +26194,7 @@
         <v>17800134</v>
       </c>
       <c r="G495">
-        <v>15692937</v>
+        <v>15692944</v>
       </c>
       <c r="H495">
         <v>4521523</v>
@@ -26250,7 +26250,7 @@
         <v>18181100</v>
       </c>
       <c r="G496">
-        <v>16789015</v>
+        <v>16788728</v>
       </c>
       <c r="H496">
         <v>4855143</v>
@@ -26306,7 +26306,7 @@
         <v>15447230</v>
       </c>
       <c r="G497">
-        <v>13415030</v>
+        <v>13414873</v>
       </c>
       <c r="H497">
         <v>3848911</v>
@@ -28139,7 +28139,7 @@
         <v>41670</v>
       </c>
       <c r="B530">
-        <v>1865058</v>
+        <v>1861804</v>
       </c>
       <c r="C530">
         <v>3373.5</v>
@@ -28151,7 +28151,7 @@
         <v>285442</v>
       </c>
       <c r="F530">
-        <v>14353873</v>
+        <v>14351206</v>
       </c>
       <c r="G530">
         <v>12448061</v>
@@ -31331,7 +31331,7 @@
         <v>43404</v>
       </c>
       <c r="B587">
-        <v>899833</v>
+        <v>899689</v>
       </c>
       <c r="C587">
         <v>1373.8</v>
@@ -31346,7 +31346,7 @@
         <v>6141329</v>
       </c>
       <c r="G587">
-        <v>5490237</v>
+        <v>5490202</v>
       </c>
       <c r="H587">
         <v>1917797</v>
@@ -31387,7 +31387,7 @@
         <v>43434</v>
       </c>
       <c r="B588">
-        <v>1052191</v>
+        <v>1052002</v>
       </c>
       <c r="C588">
         <v>1445.6</v>
@@ -31402,7 +31402,7 @@
         <v>6062661</v>
       </c>
       <c r="G588">
-        <v>5165230</v>
+        <v>5165204</v>
       </c>
       <c r="H588">
         <v>1805056</v>
@@ -31443,7 +31443,7 @@
         <v>43465</v>
       </c>
       <c r="B589">
-        <v>1229540</v>
+        <v>1229360</v>
       </c>
       <c r="C589">
         <v>1751</v>
@@ -31458,13 +31458,13 @@
         <v>8148113</v>
       </c>
       <c r="G589">
-        <v>6601849</v>
+        <v>6603982</v>
       </c>
       <c r="H589">
         <v>2334618</v>
       </c>
       <c r="I589">
-        <v>363.2</v>
+        <v>363.19</v>
       </c>
       <c r="J589">
         <v>35.51</v>
@@ -33515,7 +33515,7 @@
         <v>44592</v>
       </c>
       <c r="B626">
-        <v>1414633</v>
+        <v>1413899</v>
       </c>
       <c r="C626">
         <v>1917.5</v>
@@ -33527,16 +33527,16 @@
         <v>177871</v>
       </c>
       <c r="F626">
-        <v>9136815</v>
+        <v>9145054</v>
       </c>
       <c r="G626">
-        <v>6989873</v>
+        <v>7008256</v>
       </c>
       <c r="H626">
         <v>2630921</v>
       </c>
       <c r="I626">
-        <v>390.15</v>
+        <v>390.26</v>
       </c>
       <c r="J626">
         <v>40.19</v>
@@ -33563,7 +33563,7 @@
         <v>14055</v>
       </c>
       <c r="R626">
-        <v>324157</v>
+        <v>323638</v>
       </c>
     </row>
     <row r="627">
@@ -33571,28 +33571,28 @@
         <v>44620</v>
       </c>
       <c r="B627">
-        <v>905593</v>
+        <v>905379</v>
       </c>
       <c r="C627">
         <v>1898.8</v>
       </c>
       <c r="D627">
-        <v>389644</v>
+        <v>391606</v>
       </c>
       <c r="E627">
-        <v>139256</v>
+        <v>139258</v>
       </c>
       <c r="F627">
-        <v>7688500</v>
+        <v>7687791</v>
       </c>
       <c r="G627">
-        <v>6223864</v>
+        <v>6243367</v>
       </c>
       <c r="H627">
-        <v>2403369</v>
+        <v>2411700</v>
       </c>
       <c r="I627">
-        <v>399.79</v>
+        <v>399.95</v>
       </c>
       <c r="J627">
         <v>38.59</v>
@@ -33601,25 +33601,25 @@
         <v>16.84</v>
       </c>
       <c r="L627">
-        <v>355.82</v>
+        <v>355.83</v>
       </c>
       <c r="M627">
-        <v>38612835</v>
+        <v>38621166</v>
       </c>
       <c r="N627">
-        <v>6869585</v>
+        <v>6871547</v>
       </c>
       <c r="O627">
-        <v>3605518</v>
+        <v>3605520</v>
       </c>
       <c r="P627">
-        <v>5207</v>
+        <v>5212</v>
       </c>
       <c r="Q627">
-        <v>14076</v>
+        <v>14073</v>
       </c>
       <c r="R627">
-        <v>323092</v>
+        <v>323990</v>
       </c>
     </row>
     <row r="628">
@@ -33657,22 +33657,36 @@
         <v>16.53</v>
       </c>
       <c r="L628">
-        <v>359.72</v>
+        <v>359.74</v>
       </c>
       <c r="M628">
-        <v>35802786</v>
+        <v>35811117</v>
       </c>
       <c r="N628">
-        <v>6389345</v>
+        <v>6391307</v>
       </c>
       <c r="O628">
-        <v>3165308</v>
+        <v>3165310</v>
       </c>
       <c r="P628">
-        <v>5193</v>
+        <v>5200</v>
       </c>
       <c r="Q628">
-        <v>14096</v>
+        <v>14091</v>
+      </c>
+      <c r="R628">
+        <v>322457</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="2">
+        <v>44681</v>
+      </c>
+      <c r="P629">
+        <v>5207</v>
+      </c>
+      <c r="Q629">
+        <v>14112</v>
       </c>
     </row>
   </sheetData>

--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R629"/>
+  <dimension ref="A1:R630"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4784,10 +4784,10 @@
         <v>210662</v>
       </c>
       <c r="F98">
-        <v>13886960</v>
+        <v>13886961</v>
       </c>
       <c r="G98">
-        <v>11076395</v>
+        <v>11076397</v>
       </c>
       <c r="H98">
         <v>904872</v>
@@ -4858,7 +4858,7 @@
         <v>79.84</v>
       </c>
       <c r="M99">
-        <v>8586182</v>
+        <v>8586181</v>
       </c>
       <c r="N99">
         <v>7675188</v>
@@ -5176,7 +5176,7 @@
         <v>82.49</v>
       </c>
       <c r="M105">
-        <v>8358622</v>
+        <v>8358621</v>
       </c>
       <c r="N105">
         <v>7677889</v>
@@ -6592,7 +6592,7 @@
         <v>9516801</v>
       </c>
       <c r="H132">
-        <v>935342</v>
+        <v>935347</v>
       </c>
       <c r="I132">
         <v>100.69</v>
@@ -6607,7 +6607,7 @@
         <v>99.05</v>
       </c>
       <c r="M132">
-        <v>14066889</v>
+        <v>14066894</v>
       </c>
       <c r="N132">
         <v>9919645</v>
@@ -6660,7 +6660,7 @@
         <v>99.53</v>
       </c>
       <c r="M133">
-        <v>14469341</v>
+        <v>14469347</v>
       </c>
       <c r="N133">
         <v>9992123</v>
@@ -6713,7 +6713,7 @@
         <v>100.2</v>
       </c>
       <c r="M134">
-        <v>14604977</v>
+        <v>14604982</v>
       </c>
       <c r="N134">
         <v>9946214</v>
@@ -6766,7 +6766,7 @@
         <v>100.72</v>
       </c>
       <c r="M135">
-        <v>14690413</v>
+        <v>14690419</v>
       </c>
       <c r="N135">
         <v>9890722</v>
@@ -6819,7 +6819,7 @@
         <v>101.31</v>
       </c>
       <c r="M136">
-        <v>14866873</v>
+        <v>14866878</v>
       </c>
       <c r="N136">
         <v>9919839</v>
@@ -6872,7 +6872,7 @@
         <v>101.83</v>
       </c>
       <c r="M137">
-        <v>14861391</v>
+        <v>14861396</v>
       </c>
       <c r="N137">
         <v>9793604</v>
@@ -6925,7 +6925,7 @@
         <v>102.25</v>
       </c>
       <c r="M138">
-        <v>14670782</v>
+        <v>14670788</v>
       </c>
       <c r="N138">
         <v>9476838</v>
@@ -6978,7 +6978,7 @@
         <v>102.61</v>
       </c>
       <c r="M139">
-        <v>14467007</v>
+        <v>14467013</v>
       </c>
       <c r="N139">
         <v>9214474</v>
@@ -7004,7 +7004,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823701</v>
+        <v>823721</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -7031,10 +7031,10 @@
         <v>103.08</v>
       </c>
       <c r="M140">
-        <v>14131787</v>
+        <v>14131793</v>
       </c>
       <c r="N140">
-        <v>8935537</v>
+        <v>8935557</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -7084,10 +7084,10 @@
         <v>103.59</v>
       </c>
       <c r="M141">
-        <v>13894084</v>
+        <v>13894089</v>
       </c>
       <c r="N141">
-        <v>8782052</v>
+        <v>8782072</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -7137,10 +7137,10 @@
         <v>104.14</v>
       </c>
       <c r="M142">
-        <v>13749990</v>
+        <v>13749996</v>
       </c>
       <c r="N142">
-        <v>8776320</v>
+        <v>8776340</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -7190,10 +7190,10 @@
         <v>104.75</v>
       </c>
       <c r="M143">
-        <v>13621859</v>
+        <v>13621865</v>
       </c>
       <c r="N143">
-        <v>8836762</v>
+        <v>8836782</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -7246,7 +7246,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042570</v>
+        <v>9042590</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -7299,7 +7299,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9395190</v>
+        <v>9395210</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -7352,7 +7352,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9716054</v>
+        <v>9716074</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -7405,7 +7405,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916885</v>
+        <v>9916905</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -7458,7 +7458,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176518</v>
+        <v>10176538</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -7511,7 +7511,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10402099</v>
+        <v>10402119</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -7564,7 +7564,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586499</v>
+        <v>10586519</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -7617,7 +7617,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834412</v>
+        <v>10834432</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -7870,7 +7870,7 @@
         <v>123.46</v>
       </c>
       <c r="J156">
-        <v>37.94</v>
+        <v>37.93</v>
       </c>
       <c r="K156">
         <v>15.57</v>
@@ -9442,7 +9442,7 @@
         <v>1488338</v>
       </c>
       <c r="D186">
-        <v>590513</v>
+        <v>590378</v>
       </c>
       <c r="E186">
         <v>232183</v>
@@ -9451,13 +9451,13 @@
         <v>10937527</v>
       </c>
       <c r="G186">
-        <v>9819319</v>
+        <v>9816802</v>
       </c>
       <c r="H186">
-        <v>1209154</v>
+        <v>1209084</v>
       </c>
       <c r="I186">
-        <v>127.37</v>
+        <v>127.39</v>
       </c>
       <c r="J186">
         <v>32.49</v>
@@ -9469,10 +9469,10 @@
         <v>125.18</v>
       </c>
       <c r="M186">
-        <v>13889943</v>
+        <v>13889874</v>
       </c>
       <c r="N186">
-        <v>8211318</v>
+        <v>8211183</v>
       </c>
       <c r="O186">
         <v>2510371</v>
@@ -9522,10 +9522,10 @@
         <v>125.48</v>
       </c>
       <c r="M187">
-        <v>13966176</v>
+        <v>13966106</v>
       </c>
       <c r="N187">
-        <v>8231309</v>
+        <v>8231174</v>
       </c>
       <c r="O187">
         <v>2506811</v>
@@ -9572,13 +9572,13 @@
         <v>14.01</v>
       </c>
       <c r="L188">
-        <v>125.89</v>
+        <v>125.9</v>
       </c>
       <c r="M188">
-        <v>14177409</v>
+        <v>14177340</v>
       </c>
       <c r="N188">
-        <v>8311095</v>
+        <v>8310960</v>
       </c>
       <c r="O188">
         <v>2528409</v>
@@ -9628,10 +9628,10 @@
         <v>126.37</v>
       </c>
       <c r="M189">
-        <v>14260717</v>
+        <v>14260648</v>
       </c>
       <c r="N189">
-        <v>8315455</v>
+        <v>8315320</v>
       </c>
       <c r="O189">
         <v>2521451</v>
@@ -9681,10 +9681,10 @@
         <v>126.79</v>
       </c>
       <c r="M190">
-        <v>14423044</v>
+        <v>14422975</v>
       </c>
       <c r="N190">
-        <v>8371036</v>
+        <v>8370901</v>
       </c>
       <c r="O190">
         <v>2540059</v>
@@ -9707,7 +9707,7 @@
         <v>1667576</v>
       </c>
       <c r="D191">
-        <v>573542</v>
+        <v>573544</v>
       </c>
       <c r="E191">
         <v>207674</v>
@@ -9716,10 +9716,10 @@
         <v>9966680</v>
       </c>
       <c r="G191">
-        <v>8670362</v>
+        <v>8670388</v>
       </c>
       <c r="H191">
-        <v>1073048</v>
+        <v>1073051</v>
       </c>
       <c r="I191">
         <v>128.59</v>
@@ -9734,10 +9734,10 @@
         <v>127.14</v>
       </c>
       <c r="M191">
-        <v>14528189</v>
+        <v>14528123</v>
       </c>
       <c r="N191">
-        <v>8368552</v>
+        <v>8368419</v>
       </c>
       <c r="O191">
         <v>2551089</v>
@@ -9787,10 +9787,10 @@
         <v>127.59</v>
       </c>
       <c r="M192">
-        <v>14532964</v>
+        <v>14532898</v>
       </c>
       <c r="N192">
-        <v>8290126</v>
+        <v>8289993</v>
       </c>
       <c r="O192">
         <v>2547711</v>
@@ -9840,10 +9840,10 @@
         <v>128.14</v>
       </c>
       <c r="M193">
-        <v>14761487</v>
+        <v>14761421</v>
       </c>
       <c r="N193">
-        <v>8365218</v>
+        <v>8365085</v>
       </c>
       <c r="O193">
         <v>2572359</v>
@@ -9872,7 +9872,7 @@
         <v>235008</v>
       </c>
       <c r="F194">
-        <v>14729048</v>
+        <v>14729052</v>
       </c>
       <c r="G194">
         <v>13027499</v>
@@ -9893,10 +9893,10 @@
         <v>128.88</v>
       </c>
       <c r="M194">
-        <v>14844168</v>
+        <v>14844102</v>
       </c>
       <c r="N194">
-        <v>8388105</v>
+        <v>8387972</v>
       </c>
       <c r="O194">
         <v>2570159</v>
@@ -9946,10 +9946,10 @@
         <v>129.54</v>
       </c>
       <c r="M195">
-        <v>14889099</v>
+        <v>14889033</v>
       </c>
       <c r="N195">
-        <v>8325577</v>
+        <v>8325444</v>
       </c>
       <c r="O195">
         <v>2571048</v>
@@ -9978,7 +9978,7 @@
         <v>219934</v>
       </c>
       <c r="F196">
-        <v>13097775</v>
+        <v>13097783</v>
       </c>
       <c r="G196">
         <v>11730221</v>
@@ -9999,10 +9999,10 @@
         <v>130.2</v>
       </c>
       <c r="M196">
-        <v>14967780</v>
+        <v>14967714</v>
       </c>
       <c r="N196">
-        <v>8320073</v>
+        <v>8319940</v>
       </c>
       <c r="O196">
         <v>2563122</v>
@@ -10052,10 +10052,10 @@
         <v>130.86</v>
       </c>
       <c r="M197">
-        <v>15089925</v>
+        <v>15089859</v>
       </c>
       <c r="N197">
-        <v>8341537</v>
+        <v>8341404</v>
       </c>
       <c r="O197">
         <v>2566577</v>
@@ -10105,10 +10105,10 @@
         <v>131.55</v>
       </c>
       <c r="M198">
-        <v>15141496</v>
+        <v>15141500</v>
       </c>
       <c r="N198">
-        <v>8330302</v>
+        <v>8330304</v>
       </c>
       <c r="O198">
         <v>2567378</v>
@@ -10158,10 +10158,10 @@
         <v>132.19</v>
       </c>
       <c r="M199">
-        <v>15309040</v>
+        <v>15309043</v>
       </c>
       <c r="N199">
-        <v>8356550</v>
+        <v>8356552</v>
       </c>
       <c r="O199">
         <v>2587932</v>
@@ -10211,10 +10211,10 @@
         <v>132.87</v>
       </c>
       <c r="M200">
-        <v>15440650</v>
+        <v>15440653</v>
       </c>
       <c r="N200">
-        <v>8350569</v>
+        <v>8350571</v>
       </c>
       <c r="O200">
         <v>2599986</v>
@@ -10240,7 +10240,7 @@
         <v>649662</v>
       </c>
       <c r="E201">
-        <v>210444</v>
+        <v>210443</v>
       </c>
       <c r="F201">
         <v>10189513</v>
@@ -10264,13 +10264,13 @@
         <v>133.48</v>
       </c>
       <c r="M201">
-        <v>15510424</v>
+        <v>15510428</v>
       </c>
       <c r="N201">
-        <v>8368312</v>
+        <v>8368314</v>
       </c>
       <c r="O201">
-        <v>2605564</v>
+        <v>2605563</v>
       </c>
       <c r="P201">
         <v>3887</v>
@@ -10296,7 +10296,7 @@
         <v>211859</v>
       </c>
       <c r="F202">
-        <v>10071201</v>
+        <v>10071208</v>
       </c>
       <c r="G202">
         <v>8724780</v>
@@ -10317,13 +10317,13 @@
         <v>134.04</v>
       </c>
       <c r="M202">
-        <v>15673734</v>
+        <v>15673738</v>
       </c>
       <c r="N202">
-        <v>8381869</v>
+        <v>8381871</v>
       </c>
       <c r="O202">
-        <v>2635477</v>
+        <v>2635476</v>
       </c>
       <c r="P202">
         <v>3895</v>
@@ -10349,7 +10349,7 @@
         <v>223173</v>
       </c>
       <c r="F203">
-        <v>9851485</v>
+        <v>9851482</v>
       </c>
       <c r="G203">
         <v>8695175</v>
@@ -10376,7 +10376,7 @@
         <v>8380544</v>
       </c>
       <c r="O203">
-        <v>2650976</v>
+        <v>2650975</v>
       </c>
       <c r="P203">
         <v>3915</v>
@@ -10429,7 +10429,7 @@
         <v>8330361</v>
       </c>
       <c r="O204">
-        <v>2658798</v>
+        <v>2658797</v>
       </c>
       <c r="P204">
         <v>3927</v>
@@ -10482,7 +10482,7 @@
         <v>8360752</v>
       </c>
       <c r="O205">
-        <v>2687347</v>
+        <v>2687346</v>
       </c>
       <c r="P205">
         <v>3938</v>
@@ -10535,7 +10535,7 @@
         <v>8190399</v>
       </c>
       <c r="O206">
-        <v>2682401</v>
+        <v>2682400</v>
       </c>
       <c r="P206">
         <v>3943</v>
@@ -10588,7 +10588,7 @@
         <v>8167954</v>
       </c>
       <c r="O207">
-        <v>2694752</v>
+        <v>2694751</v>
       </c>
       <c r="P207">
         <v>3943</v>
@@ -10641,7 +10641,7 @@
         <v>8133267</v>
       </c>
       <c r="O208">
-        <v>2719335</v>
+        <v>2719334</v>
       </c>
       <c r="P208">
         <v>3945</v>
@@ -10694,7 +10694,7 @@
         <v>8038963</v>
       </c>
       <c r="O209">
-        <v>2707777</v>
+        <v>2707776</v>
       </c>
       <c r="P209">
         <v>3954</v>
@@ -10747,7 +10747,7 @@
         <v>7908330</v>
       </c>
       <c r="O210">
-        <v>2680342</v>
+        <v>2680341</v>
       </c>
       <c r="P210">
         <v>3955</v>
@@ -10800,7 +10800,7 @@
         <v>7873641</v>
       </c>
       <c r="O211">
-        <v>2671980</v>
+        <v>2671979</v>
       </c>
       <c r="P211">
         <v>3950</v>
@@ -10853,7 +10853,7 @@
         <v>7781838</v>
       </c>
       <c r="O212">
-        <v>2637237</v>
+        <v>2637236</v>
       </c>
       <c r="P212">
         <v>3967</v>
@@ -11877,7 +11877,7 @@
         <v>32598</v>
       </c>
       <c r="B232">
-        <v>1361133</v>
+        <v>1361137</v>
       </c>
       <c r="D232">
         <v>652549</v>
@@ -11886,7 +11886,7 @@
         <v>176192</v>
       </c>
       <c r="F232">
-        <v>11589001</v>
+        <v>11589025</v>
       </c>
       <c r="G232">
         <v>10451849</v>
@@ -33403,25 +33403,25 @@
         <v>44530</v>
       </c>
       <c r="B624">
-        <v>1162205</v>
+        <v>1151677</v>
       </c>
       <c r="C624">
         <v>1814.8</v>
       </c>
       <c r="D624">
-        <v>328640</v>
+        <v>328617</v>
       </c>
       <c r="E624">
-        <v>211306</v>
+        <v>211223</v>
       </c>
       <c r="F624">
-        <v>7849530</v>
+        <v>7849467</v>
       </c>
       <c r="G624">
         <v>6425366</v>
       </c>
       <c r="H624">
-        <v>2223065</v>
+        <v>2223070</v>
       </c>
       <c r="I624">
         <v>364.76</v>
@@ -33436,13 +33436,13 @@
         <v>347.35</v>
       </c>
       <c r="M624">
-        <v>48468521</v>
+        <v>48468526</v>
       </c>
       <c r="N624">
-        <v>8090258</v>
+        <v>8090235</v>
       </c>
       <c r="O624">
-        <v>5602557</v>
+        <v>5602474</v>
       </c>
       <c r="P624">
         <v>5220</v>
@@ -33459,46 +33459,46 @@
         <v>44561</v>
       </c>
       <c r="B625">
-        <v>1251228</v>
+        <v>1249893</v>
       </c>
       <c r="C625">
         <v>1632.8</v>
       </c>
       <c r="D625">
-        <v>413290</v>
+        <v>413887</v>
       </c>
       <c r="E625">
-        <v>182257</v>
+        <v>182251</v>
       </c>
       <c r="F625">
-        <v>7674241</v>
+        <v>7672045</v>
       </c>
       <c r="G625">
-        <v>6082392</v>
+        <v>6097705</v>
       </c>
       <c r="H625">
-        <v>2186017</v>
+        <v>2192414</v>
       </c>
       <c r="I625">
-        <v>376.27</v>
+        <v>376.43</v>
       </c>
       <c r="J625">
         <v>40.32</v>
       </c>
       <c r="K625">
-        <v>17.8</v>
+        <v>17.81</v>
       </c>
       <c r="L625">
-        <v>349.8</v>
+        <v>349.81</v>
       </c>
       <c r="M625">
-        <v>44265070</v>
+        <v>44271472</v>
       </c>
       <c r="N625">
-        <v>7628479</v>
+        <v>7629053</v>
       </c>
       <c r="O625">
-        <v>4743363</v>
+        <v>4743274</v>
       </c>
       <c r="P625">
         <v>5237</v>
@@ -33533,7 +33533,7 @@
         <v>7008256</v>
       </c>
       <c r="H626">
-        <v>2630921</v>
+        <v>2634737</v>
       </c>
       <c r="I626">
         <v>390.26</v>
@@ -33545,16 +33545,16 @@
         <v>17.29</v>
       </c>
       <c r="L626">
-        <v>352.69</v>
+        <v>352.7</v>
       </c>
       <c r="M626">
-        <v>41277623</v>
+        <v>41287840</v>
       </c>
       <c r="N626">
-        <v>7246067</v>
+        <v>7246641</v>
       </c>
       <c r="O626">
-        <v>4099468</v>
+        <v>4099379</v>
       </c>
       <c r="P626">
         <v>5219</v>
@@ -33589,7 +33589,7 @@
         <v>6243367</v>
       </c>
       <c r="H627">
-        <v>2411700</v>
+        <v>2415448</v>
       </c>
       <c r="I627">
         <v>399.95</v>
@@ -33601,16 +33601,16 @@
         <v>16.84</v>
       </c>
       <c r="L627">
-        <v>355.83</v>
+        <v>355.84</v>
       </c>
       <c r="M627">
-        <v>38621166</v>
+        <v>38635131</v>
       </c>
       <c r="N627">
-        <v>6871547</v>
+        <v>6872121</v>
       </c>
       <c r="O627">
-        <v>3605520</v>
+        <v>3605431</v>
       </c>
       <c r="P627">
         <v>5212</v>
@@ -33619,7 +33619,7 @@
         <v>14073</v>
       </c>
       <c r="R627">
-        <v>323990</v>
+        <v>324761</v>
       </c>
     </row>
     <row r="628">
@@ -33642,10 +33642,10 @@
         <v>7553475</v>
       </c>
       <c r="G628">
-        <v>6413467</v>
+        <v>6440467</v>
       </c>
       <c r="H628">
-        <v>2536413</v>
+        <v>2541590</v>
       </c>
       <c r="I628">
         <v>407.1</v>
@@ -33657,36 +33657,131 @@
         <v>16.53</v>
       </c>
       <c r="L628">
-        <v>359.74</v>
+        <v>359.75</v>
       </c>
       <c r="M628">
-        <v>35811117</v>
+        <v>35830260</v>
       </c>
       <c r="N628">
-        <v>6391307</v>
+        <v>6391881</v>
       </c>
       <c r="O628">
-        <v>3165310</v>
+        <v>3165221</v>
       </c>
       <c r="P628">
-        <v>5200</v>
+        <v>5213</v>
       </c>
       <c r="Q628">
-        <v>14091</v>
+        <v>14087</v>
       </c>
       <c r="R628">
-        <v>322457</v>
+        <v>325304</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="2">
         <v>44681</v>
       </c>
+      <c r="B629">
+        <v>877536</v>
+      </c>
+      <c r="C629">
+        <v>1430</v>
+      </c>
+      <c r="D629">
+        <v>304514</v>
+      </c>
+      <c r="E629">
+        <v>125435</v>
+      </c>
+      <c r="F629">
+        <v>6045274</v>
+      </c>
+      <c r="G629">
+        <v>4792493</v>
+      </c>
+      <c r="H629">
+        <v>1887964</v>
+      </c>
+      <c r="I629">
+        <v>404</v>
+      </c>
+      <c r="J629">
+        <v>33.89</v>
+      </c>
+      <c r="K629">
+        <v>17.41</v>
+      </c>
+      <c r="L629">
+        <v>363.4</v>
+      </c>
+      <c r="M629">
+        <v>33649585</v>
+      </c>
+      <c r="N629">
+        <v>5630122</v>
+      </c>
+      <c r="O629">
+        <v>2881924</v>
+      </c>
       <c r="P629">
-        <v>5207</v>
+        <v>5224</v>
       </c>
       <c r="Q629">
-        <v>14112</v>
+        <v>14108</v>
+      </c>
+      <c r="R629">
+        <v>323956</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="2">
+        <v>44712</v>
+      </c>
+      <c r="B630">
+        <v>859766</v>
+      </c>
+      <c r="D630">
+        <v>312842</v>
+      </c>
+      <c r="E630">
+        <v>125662</v>
+      </c>
+      <c r="F630">
+        <v>5997528</v>
+      </c>
+      <c r="G630">
+        <v>4677140</v>
+      </c>
+      <c r="H630">
+        <v>1815690</v>
+      </c>
+      <c r="I630">
+        <v>397.16</v>
+      </c>
+      <c r="J630">
+        <v>32.6</v>
+      </c>
+      <c r="K630">
+        <v>17.42</v>
+      </c>
+      <c r="L630">
+        <v>367.86</v>
+      </c>
+      <c r="M630">
+        <v>31547709</v>
+      </c>
+      <c r="N630">
+        <v>5190810</v>
+      </c>
+      <c r="O630">
+        <v>2637041</v>
+      </c>
+      <c r="P630">
+        <v>5260</v>
+      </c>
+      <c r="Q630">
+        <v>14124</v>
       </c>
     </row>
   </sheetData>

--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R630"/>
+  <dimension ref="A1:R631"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6592,10 +6592,10 @@
         <v>9516801</v>
       </c>
       <c r="H132">
-        <v>935347</v>
+        <v>935363</v>
       </c>
       <c r="I132">
-        <v>100.69</v>
+        <v>100.7</v>
       </c>
       <c r="J132">
         <v>32.75</v>
@@ -6607,7 +6607,7 @@
         <v>99.05</v>
       </c>
       <c r="M132">
-        <v>14066894</v>
+        <v>14066910</v>
       </c>
       <c r="N132">
         <v>9919645</v>
@@ -6660,7 +6660,7 @@
         <v>99.53</v>
       </c>
       <c r="M133">
-        <v>14469347</v>
+        <v>14469363</v>
       </c>
       <c r="N133">
         <v>9992123</v>
@@ -6713,7 +6713,7 @@
         <v>100.2</v>
       </c>
       <c r="M134">
-        <v>14604982</v>
+        <v>14604998</v>
       </c>
       <c r="N134">
         <v>9946214</v>
@@ -6766,7 +6766,7 @@
         <v>100.72</v>
       </c>
       <c r="M135">
-        <v>14690419</v>
+        <v>14690435</v>
       </c>
       <c r="N135">
         <v>9890722</v>
@@ -6819,7 +6819,7 @@
         <v>101.31</v>
       </c>
       <c r="M136">
-        <v>14866878</v>
+        <v>14866894</v>
       </c>
       <c r="N136">
         <v>9919839</v>
@@ -6872,7 +6872,7 @@
         <v>101.83</v>
       </c>
       <c r="M137">
-        <v>14861396</v>
+        <v>14861412</v>
       </c>
       <c r="N137">
         <v>9793604</v>
@@ -6925,7 +6925,7 @@
         <v>102.25</v>
       </c>
       <c r="M138">
-        <v>14670788</v>
+        <v>14670804</v>
       </c>
       <c r="N138">
         <v>9476838</v>
@@ -6978,7 +6978,7 @@
         <v>102.61</v>
       </c>
       <c r="M139">
-        <v>14467013</v>
+        <v>14467029</v>
       </c>
       <c r="N139">
         <v>9214474</v>
@@ -7004,7 +7004,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823721</v>
+        <v>823731</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -7031,10 +7031,10 @@
         <v>103.08</v>
       </c>
       <c r="M140">
-        <v>14131793</v>
+        <v>14131809</v>
       </c>
       <c r="N140">
-        <v>8935557</v>
+        <v>8935567</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -7084,10 +7084,10 @@
         <v>103.59</v>
       </c>
       <c r="M141">
-        <v>13894089</v>
+        <v>13894105</v>
       </c>
       <c r="N141">
-        <v>8782072</v>
+        <v>8782082</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -7137,10 +7137,10 @@
         <v>104.14</v>
       </c>
       <c r="M142">
-        <v>13749996</v>
+        <v>13750012</v>
       </c>
       <c r="N142">
-        <v>8776340</v>
+        <v>8776350</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -7190,10 +7190,10 @@
         <v>104.75</v>
       </c>
       <c r="M143">
-        <v>13621865</v>
+        <v>13621881</v>
       </c>
       <c r="N143">
-        <v>8836782</v>
+        <v>8836792</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -7246,7 +7246,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042590</v>
+        <v>9042600</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -7299,7 +7299,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9395210</v>
+        <v>9395220</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -7352,7 +7352,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9716074</v>
+        <v>9716084</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -7405,7 +7405,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916905</v>
+        <v>9916915</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -7458,7 +7458,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176538</v>
+        <v>10176548</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -7511,7 +7511,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10402119</v>
+        <v>10402129</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -7564,7 +7564,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586519</v>
+        <v>10586529</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -7617,7 +7617,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834432</v>
+        <v>10834442</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -9442,7 +9442,7 @@
         <v>1488338</v>
       </c>
       <c r="D186">
-        <v>590378</v>
+        <v>590397</v>
       </c>
       <c r="E186">
         <v>232183</v>
@@ -9451,10 +9451,10 @@
         <v>10937527</v>
       </c>
       <c r="G186">
-        <v>9816802</v>
+        <v>9817199</v>
       </c>
       <c r="H186">
-        <v>1209084</v>
+        <v>1209108</v>
       </c>
       <c r="I186">
         <v>127.39</v>
@@ -9469,10 +9469,10 @@
         <v>125.18</v>
       </c>
       <c r="M186">
-        <v>13889874</v>
+        <v>13889898</v>
       </c>
       <c r="N186">
-        <v>8211183</v>
+        <v>8211202</v>
       </c>
       <c r="O186">
         <v>2510371</v>
@@ -9522,10 +9522,10 @@
         <v>125.48</v>
       </c>
       <c r="M187">
-        <v>13966106</v>
+        <v>13966131</v>
       </c>
       <c r="N187">
-        <v>8231174</v>
+        <v>8231193</v>
       </c>
       <c r="O187">
         <v>2506811</v>
@@ -9572,13 +9572,13 @@
         <v>14.01</v>
       </c>
       <c r="L188">
-        <v>125.9</v>
+        <v>125.89</v>
       </c>
       <c r="M188">
-        <v>14177340</v>
+        <v>14177364</v>
       </c>
       <c r="N188">
-        <v>8310960</v>
+        <v>8310979</v>
       </c>
       <c r="O188">
         <v>2528409</v>
@@ -9628,10 +9628,10 @@
         <v>126.37</v>
       </c>
       <c r="M189">
-        <v>14260648</v>
+        <v>14260672</v>
       </c>
       <c r="N189">
-        <v>8315320</v>
+        <v>8315339</v>
       </c>
       <c r="O189">
         <v>2521451</v>
@@ -9681,10 +9681,10 @@
         <v>126.79</v>
       </c>
       <c r="M190">
-        <v>14422975</v>
+        <v>14422999</v>
       </c>
       <c r="N190">
-        <v>8370901</v>
+        <v>8370920</v>
       </c>
       <c r="O190">
         <v>2540059</v>
@@ -9707,19 +9707,19 @@
         <v>1667576</v>
       </c>
       <c r="D191">
-        <v>573544</v>
+        <v>573545</v>
       </c>
       <c r="E191">
-        <v>207674</v>
+        <v>207675</v>
       </c>
       <c r="F191">
         <v>9966680</v>
       </c>
       <c r="G191">
-        <v>8670388</v>
+        <v>8670414</v>
       </c>
       <c r="H191">
-        <v>1073051</v>
+        <v>1073055</v>
       </c>
       <c r="I191">
         <v>128.59</v>
@@ -9734,13 +9734,13 @@
         <v>127.14</v>
       </c>
       <c r="M191">
-        <v>14528123</v>
+        <v>14528151</v>
       </c>
       <c r="N191">
-        <v>8368419</v>
+        <v>8368439</v>
       </c>
       <c r="O191">
-        <v>2551089</v>
+        <v>2551090</v>
       </c>
       <c r="P191">
         <v>3864</v>
@@ -9787,13 +9787,13 @@
         <v>127.59</v>
       </c>
       <c r="M192">
-        <v>14532898</v>
+        <v>14532926</v>
       </c>
       <c r="N192">
-        <v>8289993</v>
+        <v>8290013</v>
       </c>
       <c r="O192">
-        <v>2547711</v>
+        <v>2547712</v>
       </c>
       <c r="P192">
         <v>3867</v>
@@ -9840,13 +9840,13 @@
         <v>128.14</v>
       </c>
       <c r="M193">
-        <v>14761421</v>
+        <v>14761449</v>
       </c>
       <c r="N193">
-        <v>8365085</v>
+        <v>8365105</v>
       </c>
       <c r="O193">
-        <v>2572359</v>
+        <v>2572360</v>
       </c>
       <c r="P193">
         <v>3862</v>
@@ -9872,7 +9872,7 @@
         <v>235008</v>
       </c>
       <c r="F194">
-        <v>14729052</v>
+        <v>14729056</v>
       </c>
       <c r="G194">
         <v>13027499</v>
@@ -9893,13 +9893,13 @@
         <v>128.88</v>
       </c>
       <c r="M194">
-        <v>14844102</v>
+        <v>14844130</v>
       </c>
       <c r="N194">
-        <v>8387972</v>
+        <v>8387992</v>
       </c>
       <c r="O194">
-        <v>2570159</v>
+        <v>2570160</v>
       </c>
       <c r="P194">
         <v>3869</v>
@@ -9946,13 +9946,13 @@
         <v>129.54</v>
       </c>
       <c r="M195">
-        <v>14889033</v>
+        <v>14889061</v>
       </c>
       <c r="N195">
-        <v>8325444</v>
+        <v>8325464</v>
       </c>
       <c r="O195">
-        <v>2571048</v>
+        <v>2571049</v>
       </c>
       <c r="P195">
         <v>3875</v>
@@ -9978,7 +9978,7 @@
         <v>219934</v>
       </c>
       <c r="F196">
-        <v>13097783</v>
+        <v>13097790</v>
       </c>
       <c r="G196">
         <v>11730221</v>
@@ -9999,13 +9999,13 @@
         <v>130.2</v>
       </c>
       <c r="M196">
-        <v>14967714</v>
+        <v>14967742</v>
       </c>
       <c r="N196">
-        <v>8319940</v>
+        <v>8319960</v>
       </c>
       <c r="O196">
-        <v>2563122</v>
+        <v>2563123</v>
       </c>
       <c r="P196">
         <v>3873</v>
@@ -10052,13 +10052,13 @@
         <v>130.86</v>
       </c>
       <c r="M197">
-        <v>15089859</v>
+        <v>15089887</v>
       </c>
       <c r="N197">
-        <v>8341404</v>
+        <v>8341424</v>
       </c>
       <c r="O197">
-        <v>2566577</v>
+        <v>2566578</v>
       </c>
       <c r="P197">
         <v>3878</v>
@@ -10105,13 +10105,13 @@
         <v>131.55</v>
       </c>
       <c r="M198">
-        <v>15141500</v>
+        <v>15141503</v>
       </c>
       <c r="N198">
-        <v>8330304</v>
+        <v>8330305</v>
       </c>
       <c r="O198">
-        <v>2567378</v>
+        <v>2567379</v>
       </c>
       <c r="P198">
         <v>3884</v>
@@ -10134,10 +10134,10 @@
         <v>525103</v>
       </c>
       <c r="E199">
-        <v>214630</v>
+        <v>214620</v>
       </c>
       <c r="F199">
-        <v>10187328</v>
+        <v>10187302</v>
       </c>
       <c r="G199">
         <v>9028611</v>
@@ -10158,13 +10158,13 @@
         <v>132.19</v>
       </c>
       <c r="M199">
-        <v>15309043</v>
+        <v>15309047</v>
       </c>
       <c r="N199">
-        <v>8356552</v>
+        <v>8356553</v>
       </c>
       <c r="O199">
-        <v>2587932</v>
+        <v>2587923</v>
       </c>
       <c r="P199">
         <v>3887</v>
@@ -10187,7 +10187,7 @@
         <v>735606</v>
       </c>
       <c r="E200">
-        <v>247052</v>
+        <v>247051</v>
       </c>
       <c r="F200">
         <v>11601024</v>
@@ -10211,13 +10211,13 @@
         <v>132.87</v>
       </c>
       <c r="M200">
-        <v>15440653</v>
+        <v>15440657</v>
       </c>
       <c r="N200">
-        <v>8350571</v>
+        <v>8350572</v>
       </c>
       <c r="O200">
-        <v>2599986</v>
+        <v>2599976</v>
       </c>
       <c r="P200">
         <v>3886</v>
@@ -10264,13 +10264,13 @@
         <v>133.48</v>
       </c>
       <c r="M201">
-        <v>15510428</v>
+        <v>15510431</v>
       </c>
       <c r="N201">
-        <v>8368314</v>
+        <v>8368315</v>
       </c>
       <c r="O201">
-        <v>2605563</v>
+        <v>2605553</v>
       </c>
       <c r="P201">
         <v>3887</v>
@@ -10296,7 +10296,7 @@
         <v>211859</v>
       </c>
       <c r="F202">
-        <v>10071208</v>
+        <v>10071212</v>
       </c>
       <c r="G202">
         <v>8724780</v>
@@ -10317,13 +10317,13 @@
         <v>134.04</v>
       </c>
       <c r="M202">
-        <v>15673738</v>
+        <v>15673741</v>
       </c>
       <c r="N202">
-        <v>8381871</v>
+        <v>8381872</v>
       </c>
       <c r="O202">
-        <v>2635476</v>
+        <v>2635466</v>
       </c>
       <c r="P202">
         <v>3895</v>
@@ -10349,7 +10349,7 @@
         <v>223173</v>
       </c>
       <c r="F203">
-        <v>9851482</v>
+        <v>9851479</v>
       </c>
       <c r="G203">
         <v>8695175</v>
@@ -10376,7 +10376,7 @@
         <v>8380544</v>
       </c>
       <c r="O203">
-        <v>2650975</v>
+        <v>2650964</v>
       </c>
       <c r="P203">
         <v>3915</v>
@@ -10429,7 +10429,7 @@
         <v>8330361</v>
       </c>
       <c r="O204">
-        <v>2658797</v>
+        <v>2658786</v>
       </c>
       <c r="P204">
         <v>3927</v>
@@ -10482,7 +10482,7 @@
         <v>8360752</v>
       </c>
       <c r="O205">
-        <v>2687346</v>
+        <v>2687335</v>
       </c>
       <c r="P205">
         <v>3938</v>
@@ -10535,7 +10535,7 @@
         <v>8190399</v>
       </c>
       <c r="O206">
-        <v>2682400</v>
+        <v>2682389</v>
       </c>
       <c r="P206">
         <v>3943</v>
@@ -10588,7 +10588,7 @@
         <v>8167954</v>
       </c>
       <c r="O207">
-        <v>2694751</v>
+        <v>2694740</v>
       </c>
       <c r="P207">
         <v>3943</v>
@@ -10641,7 +10641,7 @@
         <v>8133267</v>
       </c>
       <c r="O208">
-        <v>2719334</v>
+        <v>2719323</v>
       </c>
       <c r="P208">
         <v>3945</v>
@@ -10694,7 +10694,7 @@
         <v>8038963</v>
       </c>
       <c r="O209">
-        <v>2707776</v>
+        <v>2707765</v>
       </c>
       <c r="P209">
         <v>3954</v>
@@ -10747,7 +10747,7 @@
         <v>7908330</v>
       </c>
       <c r="O210">
-        <v>2680341</v>
+        <v>2680330</v>
       </c>
       <c r="P210">
         <v>3955</v>
@@ -10800,7 +10800,7 @@
         <v>7873641</v>
       </c>
       <c r="O211">
-        <v>2671979</v>
+        <v>2671978</v>
       </c>
       <c r="P211">
         <v>3950</v>
@@ -11877,7 +11877,7 @@
         <v>32598</v>
       </c>
       <c r="B232">
-        <v>1361137</v>
+        <v>1361140</v>
       </c>
       <c r="D232">
         <v>652549</v>
@@ -11886,7 +11886,7 @@
         <v>176192</v>
       </c>
       <c r="F232">
-        <v>11589025</v>
+        <v>11589052</v>
       </c>
       <c r="G232">
         <v>10451849</v>
@@ -28859,7 +28859,7 @@
         <v>14150</v>
       </c>
       <c r="R542">
-        <v>260458</v>
+        <v>259965</v>
       </c>
     </row>
     <row r="543">
@@ -28915,7 +28915,7 @@
         <v>14160</v>
       </c>
       <c r="R543">
-        <v>258350</v>
+        <v>257775</v>
       </c>
     </row>
     <row r="544">
@@ -28971,7 +28971,7 @@
         <v>14155</v>
       </c>
       <c r="R544">
-        <v>262092</v>
+        <v>261012</v>
       </c>
     </row>
     <row r="545">
@@ -29027,7 +29027,7 @@
         <v>14172</v>
       </c>
       <c r="R545">
-        <v>270701</v>
+        <v>270673</v>
       </c>
     </row>
     <row r="546">
@@ -29083,7 +29083,7 @@
         <v>14185</v>
       </c>
       <c r="R546">
-        <v>271878</v>
+        <v>271406</v>
       </c>
     </row>
     <row r="547">
@@ -29139,7 +29139,7 @@
         <v>14188</v>
       </c>
       <c r="R547">
-        <v>278213</v>
+        <v>277417</v>
       </c>
     </row>
     <row r="548">
@@ -29195,7 +29195,7 @@
         <v>14221</v>
       </c>
       <c r="R548">
-        <v>277099</v>
+        <v>278205</v>
       </c>
     </row>
     <row r="549">
@@ -29251,7 +29251,7 @@
         <v>14223</v>
       </c>
       <c r="R549">
-        <v>282534</v>
+        <v>282646</v>
       </c>
     </row>
     <row r="550">
@@ -29307,7 +29307,7 @@
         <v>14198</v>
       </c>
       <c r="R550">
-        <v>275683</v>
+        <v>276631</v>
       </c>
     </row>
     <row r="551">
@@ -29363,7 +29363,7 @@
         <v>14213</v>
       </c>
       <c r="R551">
-        <v>268533</v>
+        <v>268209</v>
       </c>
     </row>
     <row r="552">
@@ -29419,7 +29419,7 @@
         <v>14225</v>
       </c>
       <c r="R552">
-        <v>264919</v>
+        <v>264976</v>
       </c>
     </row>
     <row r="553">
@@ -29475,7 +29475,7 @@
         <v>14233</v>
       </c>
       <c r="R553">
-        <v>274883</v>
+        <v>275959</v>
       </c>
     </row>
     <row r="554">
@@ -29531,7 +29531,7 @@
         <v>14253</v>
       </c>
       <c r="R554">
-        <v>280566</v>
+        <v>280469</v>
       </c>
     </row>
     <row r="555">
@@ -29587,7 +29587,7 @@
         <v>14275</v>
       </c>
       <c r="R555">
-        <v>277623</v>
+        <v>277366</v>
       </c>
     </row>
     <row r="556">
@@ -29643,7 +29643,7 @@
         <v>14303</v>
       </c>
       <c r="R556">
-        <v>278659</v>
+        <v>277856</v>
       </c>
     </row>
     <row r="557">
@@ -29699,7 +29699,7 @@
         <v>14302</v>
       </c>
       <c r="R557">
-        <v>274450</v>
+        <v>273930</v>
       </c>
     </row>
     <row r="558">
@@ -29755,7 +29755,7 @@
         <v>14315</v>
       </c>
       <c r="R558">
-        <v>270250</v>
+        <v>268982</v>
       </c>
     </row>
     <row r="559">
@@ -29811,7 +29811,7 @@
         <v>14276</v>
       </c>
       <c r="R559">
-        <v>277585</v>
+        <v>277867</v>
       </c>
     </row>
     <row r="560">
@@ -29867,7 +29867,7 @@
         <v>14374</v>
       </c>
       <c r="R560">
-        <v>270232</v>
+        <v>271197</v>
       </c>
     </row>
     <row r="561">
@@ -29923,7 +29923,7 @@
         <v>14366</v>
       </c>
       <c r="R561">
-        <v>270062</v>
+        <v>270605</v>
       </c>
     </row>
     <row r="562">
@@ -29979,7 +29979,7 @@
         <v>14367</v>
       </c>
       <c r="R562">
-        <v>274707</v>
+        <v>275330</v>
       </c>
     </row>
     <row r="563">
@@ -30035,7 +30035,7 @@
         <v>14359</v>
       </c>
       <c r="R563">
-        <v>277550</v>
+        <v>277190</v>
       </c>
     </row>
     <row r="564">
@@ -30091,7 +30091,7 @@
         <v>14344</v>
       </c>
       <c r="R564">
-        <v>278832</v>
+        <v>279346</v>
       </c>
     </row>
     <row r="565">
@@ -30147,7 +30147,7 @@
         <v>14350</v>
       </c>
       <c r="R565">
-        <v>272879</v>
+        <v>273242</v>
       </c>
     </row>
     <row r="566">
@@ -30203,7 +30203,7 @@
         <v>14347</v>
       </c>
       <c r="R566">
-        <v>266735</v>
+        <v>265817</v>
       </c>
     </row>
     <row r="567">
@@ -30259,7 +30259,7 @@
         <v>14354</v>
       </c>
       <c r="R567">
-        <v>275468</v>
+        <v>274813</v>
       </c>
     </row>
     <row r="568">
@@ -30315,7 +30315,7 @@
         <v>14356</v>
       </c>
       <c r="R568">
-        <v>275520</v>
+        <v>274938</v>
       </c>
     </row>
     <row r="569">
@@ -30371,7 +30371,7 @@
         <v>14368</v>
       </c>
       <c r="R569">
-        <v>269814</v>
+        <v>269068</v>
       </c>
     </row>
     <row r="570">
@@ -30427,7 +30427,7 @@
         <v>14358</v>
       </c>
       <c r="R570">
-        <v>277064</v>
+        <v>276032</v>
       </c>
     </row>
     <row r="571">
@@ -30483,7 +30483,7 @@
         <v>14381</v>
       </c>
       <c r="R571">
-        <v>275981</v>
+        <v>276214</v>
       </c>
     </row>
     <row r="572">
@@ -30539,7 +30539,7 @@
         <v>14390</v>
       </c>
       <c r="R572">
-        <v>274795</v>
+        <v>275407</v>
       </c>
     </row>
     <row r="573">
@@ -30595,7 +30595,7 @@
         <v>14339</v>
       </c>
       <c r="R573">
-        <v>274197</v>
+        <v>274823</v>
       </c>
     </row>
     <row r="574">
@@ -30651,7 +30651,7 @@
         <v>14390</v>
       </c>
       <c r="R574">
-        <v>275596</v>
+        <v>276182</v>
       </c>
     </row>
     <row r="575">
@@ -30707,7 +30707,7 @@
         <v>14407</v>
       </c>
       <c r="R575">
-        <v>280521</v>
+        <v>280369</v>
       </c>
     </row>
     <row r="576">
@@ -30763,7 +30763,7 @@
         <v>14427</v>
       </c>
       <c r="R576">
-        <v>281343</v>
+        <v>282255</v>
       </c>
     </row>
     <row r="577">
@@ -30819,7 +30819,7 @@
         <v>14431</v>
       </c>
       <c r="R577">
-        <v>280522</v>
+        <v>280943</v>
       </c>
     </row>
     <row r="578">
@@ -30875,7 +30875,7 @@
         <v>14421</v>
       </c>
       <c r="R578">
-        <v>278881</v>
+        <v>277852</v>
       </c>
     </row>
     <row r="579">
@@ -30931,7 +30931,7 @@
         <v>14468</v>
       </c>
       <c r="R579">
-        <v>281799</v>
+        <v>280562</v>
       </c>
     </row>
     <row r="580">
@@ -30987,7 +30987,7 @@
         <v>14472</v>
       </c>
       <c r="R580">
-        <v>285809</v>
+        <v>283384</v>
       </c>
     </row>
     <row r="581">
@@ -31043,7 +31043,7 @@
         <v>14473</v>
       </c>
       <c r="R581">
-        <v>290405</v>
+        <v>289594</v>
       </c>
     </row>
     <row r="582">
@@ -31099,7 +31099,7 @@
         <v>14486</v>
       </c>
       <c r="R582">
-        <v>291448</v>
+        <v>290459</v>
       </c>
     </row>
     <row r="583">
@@ -31155,7 +31155,7 @@
         <v>14499</v>
       </c>
       <c r="R583">
-        <v>291854</v>
+        <v>292179</v>
       </c>
     </row>
     <row r="584">
@@ -31211,7 +31211,7 @@
         <v>14470</v>
       </c>
       <c r="R584">
-        <v>293013</v>
+        <v>294239</v>
       </c>
     </row>
     <row r="585">
@@ -31267,7 +31267,7 @@
         <v>14485</v>
       </c>
       <c r="R585">
-        <v>297705</v>
+        <v>299237</v>
       </c>
     </row>
     <row r="586">
@@ -31323,7 +31323,7 @@
         <v>14491</v>
       </c>
       <c r="R586">
-        <v>287402</v>
+        <v>288223</v>
       </c>
     </row>
     <row r="587">
@@ -31379,7 +31379,7 @@
         <v>14495</v>
       </c>
       <c r="R587">
-        <v>286824</v>
+        <v>287127</v>
       </c>
     </row>
     <row r="588">
@@ -31435,7 +31435,7 @@
         <v>14500</v>
       </c>
       <c r="R588">
-        <v>283288</v>
+        <v>284038</v>
       </c>
     </row>
     <row r="589">
@@ -31491,7 +31491,7 @@
         <v>14526</v>
       </c>
       <c r="R589">
-        <v>286148</v>
+        <v>285939</v>
       </c>
     </row>
     <row r="590">
@@ -31547,7 +31547,7 @@
         <v>14541</v>
       </c>
       <c r="R590">
-        <v>296600</v>
+        <v>294337</v>
       </c>
     </row>
     <row r="591">
@@ -31603,7 +31603,7 @@
         <v>14540</v>
       </c>
       <c r="R591">
-        <v>306561</v>
+        <v>304478</v>
       </c>
     </row>
     <row r="592">
@@ -31659,7 +31659,7 @@
         <v>14569</v>
       </c>
       <c r="R592">
-        <v>309490</v>
+        <v>306575</v>
       </c>
     </row>
     <row r="593">
@@ -31715,7 +31715,7 @@
         <v>14600</v>
       </c>
       <c r="R593">
-        <v>327644</v>
+        <v>325704</v>
       </c>
     </row>
     <row r="594">
@@ -31771,7 +31771,7 @@
         <v>14586</v>
       </c>
       <c r="R594">
-        <v>319904</v>
+        <v>319802</v>
       </c>
     </row>
     <row r="595">
@@ -31827,7 +31827,7 @@
         <v>14577</v>
       </c>
       <c r="R595">
-        <v>317081</v>
+        <v>317784</v>
       </c>
     </row>
     <row r="596">
@@ -31883,7 +31883,7 @@
         <v>14526</v>
       </c>
       <c r="R596">
-        <v>321313</v>
+        <v>323496</v>
       </c>
     </row>
     <row r="597">
@@ -31939,7 +31939,7 @@
         <v>14524</v>
       </c>
       <c r="R597">
-        <v>319966</v>
+        <v>320574</v>
       </c>
     </row>
     <row r="598">
@@ -31995,7 +31995,7 @@
         <v>14578</v>
       </c>
       <c r="R598">
-        <v>324769</v>
+        <v>326564</v>
       </c>
     </row>
     <row r="599">
@@ -32051,7 +32051,7 @@
         <v>14604</v>
       </c>
       <c r="R599">
-        <v>321424</v>
+        <v>321586</v>
       </c>
     </row>
     <row r="600">
@@ -32107,7 +32107,7 @@
         <v>14625</v>
       </c>
       <c r="R600">
-        <v>322570</v>
+        <v>322969</v>
       </c>
     </row>
     <row r="601">
@@ -32163,7 +32163,7 @@
         <v>14648</v>
       </c>
       <c r="R601">
-        <v>328221</v>
+        <v>327985</v>
       </c>
     </row>
     <row r="602">
@@ -32219,7 +32219,7 @@
         <v>14665</v>
       </c>
       <c r="R602">
-        <v>338080</v>
+        <v>340651</v>
       </c>
     </row>
     <row r="603">
@@ -32275,7 +32275,7 @@
         <v>14708</v>
       </c>
       <c r="R603">
-        <v>341743</v>
+        <v>343283</v>
       </c>
     </row>
     <row r="604">
@@ -32331,7 +32331,7 @@
         <v>14701</v>
       </c>
       <c r="R604">
-        <v>344659</v>
+        <v>346029</v>
       </c>
     </row>
     <row r="605">
@@ -32387,7 +32387,7 @@
         <v>13938</v>
       </c>
       <c r="R605">
-        <v>333330</v>
+        <v>339150</v>
       </c>
     </row>
     <row r="606">
@@ -32443,7 +32443,7 @@
         <v>13464</v>
       </c>
       <c r="R606">
-        <v>342172</v>
+        <v>347971</v>
       </c>
     </row>
     <row r="607">
@@ -32499,7 +32499,7 @@
         <v>13458</v>
       </c>
       <c r="R607">
-        <v>331143</v>
+        <v>342763</v>
       </c>
     </row>
     <row r="608">
@@ -32555,7 +32555,7 @@
         <v>13520</v>
       </c>
       <c r="R608">
-        <v>322564</v>
+        <v>335639</v>
       </c>
     </row>
     <row r="609">
@@ -32611,7 +32611,7 @@
         <v>13693</v>
       </c>
       <c r="R609">
-        <v>324328</v>
+        <v>334827</v>
       </c>
     </row>
     <row r="610">
@@ -32667,7 +32667,7 @@
         <v>13699</v>
       </c>
       <c r="R610">
-        <v>322406</v>
+        <v>335975</v>
       </c>
     </row>
     <row r="611">
@@ -32723,7 +32723,7 @@
         <v>13712</v>
       </c>
       <c r="R611">
-        <v>324894</v>
+        <v>337708</v>
       </c>
     </row>
     <row r="612">
@@ -32779,7 +32779,7 @@
         <v>13727</v>
       </c>
       <c r="R612">
-        <v>328934</v>
+        <v>340627</v>
       </c>
     </row>
     <row r="613">
@@ -32835,7 +32835,7 @@
         <v>13718</v>
       </c>
       <c r="R613">
-        <v>331147</v>
+        <v>343583</v>
       </c>
     </row>
     <row r="614">
@@ -32891,7 +32891,7 @@
         <v>13748</v>
       </c>
       <c r="R614">
-        <v>328517</v>
+        <v>339314</v>
       </c>
     </row>
     <row r="615">
@@ -32947,7 +32947,7 @@
         <v>13760</v>
       </c>
       <c r="R615">
-        <v>320118</v>
+        <v>330248</v>
       </c>
     </row>
     <row r="616">
@@ -33003,7 +33003,7 @@
         <v>13801</v>
       </c>
       <c r="R616">
-        <v>319991</v>
+        <v>331515</v>
       </c>
     </row>
     <row r="617">
@@ -33059,7 +33059,7 @@
         <v>13842</v>
       </c>
       <c r="R617">
-        <v>321220</v>
+        <v>330197</v>
       </c>
     </row>
     <row r="618">
@@ -33115,7 +33115,7 @@
         <v>13856</v>
       </c>
       <c r="R618">
-        <v>319056</v>
+        <v>330699</v>
       </c>
     </row>
     <row r="619">
@@ -33171,7 +33171,7 @@
         <v>13889</v>
       </c>
       <c r="R619">
-        <v>315198</v>
+        <v>319412</v>
       </c>
     </row>
     <row r="620">
@@ -33227,7 +33227,7 @@
         <v>13948</v>
       </c>
       <c r="R620">
-        <v>318559</v>
+        <v>316105</v>
       </c>
     </row>
     <row r="621">
@@ -33283,7 +33283,7 @@
         <v>13984</v>
       </c>
       <c r="R621">
-        <v>323086</v>
+        <v>319627</v>
       </c>
     </row>
     <row r="622">
@@ -33339,7 +33339,7 @@
         <v>14002</v>
       </c>
       <c r="R622">
-        <v>324024</v>
+        <v>313283</v>
       </c>
     </row>
     <row r="623">
@@ -33395,7 +33395,7 @@
         <v>13990</v>
       </c>
       <c r="R623">
-        <v>325954</v>
+        <v>314809</v>
       </c>
     </row>
     <row r="624">
@@ -33451,7 +33451,7 @@
         <v>14010</v>
       </c>
       <c r="R624">
-        <v>325873</v>
+        <v>318834</v>
       </c>
     </row>
     <row r="625">
@@ -33507,7 +33507,7 @@
         <v>14028</v>
       </c>
       <c r="R625">
-        <v>323714</v>
+        <v>316775</v>
       </c>
     </row>
     <row r="626">
@@ -33563,7 +33563,7 @@
         <v>14055</v>
       </c>
       <c r="R626">
-        <v>323638</v>
+        <v>318072</v>
       </c>
     </row>
     <row r="627">
@@ -33619,7 +33619,7 @@
         <v>14073</v>
       </c>
       <c r="R627">
-        <v>324761</v>
+        <v>320065</v>
       </c>
     </row>
     <row r="628">
@@ -33642,13 +33642,13 @@
         <v>7553475</v>
       </c>
       <c r="G628">
-        <v>6440467</v>
+        <v>6442421</v>
       </c>
       <c r="H628">
-        <v>2541590</v>
+        <v>2542352</v>
       </c>
       <c r="I628">
-        <v>407.1</v>
+        <v>407.11</v>
       </c>
       <c r="J628">
         <v>35.52</v>
@@ -33660,7 +33660,7 @@
         <v>359.75</v>
       </c>
       <c r="M628">
-        <v>35830260</v>
+        <v>35831022</v>
       </c>
       <c r="N628">
         <v>6391881</v>
@@ -33675,7 +33675,7 @@
         <v>14087</v>
       </c>
       <c r="R628">
-        <v>325304</v>
+        <v>319759</v>
       </c>
     </row>
     <row r="629">
@@ -33716,7 +33716,7 @@
         <v>363.4</v>
       </c>
       <c r="M629">
-        <v>33649585</v>
+        <v>33650347</v>
       </c>
       <c r="N629">
         <v>5630122</v>
@@ -33725,13 +33725,13 @@
         <v>2881924</v>
       </c>
       <c r="P629">
-        <v>5224</v>
+        <v>5218</v>
       </c>
       <c r="Q629">
-        <v>14108</v>
+        <v>14091</v>
       </c>
       <c r="R629">
-        <v>323956</v>
+        <v>319650</v>
       </c>
     </row>
     <row r="630">
@@ -33741,6 +33741,9 @@
       <c r="B630">
         <v>859766</v>
       </c>
+      <c r="C630">
+        <v>1349.6</v>
+      </c>
       <c r="D630">
         <v>312842</v>
       </c>
@@ -33769,7 +33772,7 @@
         <v>367.86</v>
       </c>
       <c r="M630">
-        <v>31547709</v>
+        <v>31548472</v>
       </c>
       <c r="N630">
         <v>5190810</v>
@@ -33778,10 +33781,63 @@
         <v>2637041</v>
       </c>
       <c r="P630">
-        <v>5260</v>
+        <v>5254</v>
       </c>
       <c r="Q630">
-        <v>14124</v>
+        <v>14104</v>
+      </c>
+      <c r="R630">
+        <v>317251</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="2">
+        <v>44742</v>
+      </c>
+      <c r="B631">
+        <v>937491</v>
+      </c>
+      <c r="D631">
+        <v>327971</v>
+      </c>
+      <c r="E631">
+        <v>106846</v>
+      </c>
+      <c r="F631">
+        <v>5529454</v>
+      </c>
+      <c r="G631">
+        <v>4387469</v>
+      </c>
+      <c r="H631">
+        <v>1694212</v>
+      </c>
+      <c r="I631">
+        <v>394.7</v>
+      </c>
+      <c r="J631">
+        <v>31.59</v>
+      </c>
+      <c r="K631">
+        <v>16.95</v>
+      </c>
+      <c r="L631">
+        <v>372.74</v>
+      </c>
+      <c r="M631">
+        <v>29255479</v>
+      </c>
+      <c r="N631">
+        <v>4860179</v>
+      </c>
+      <c r="O631">
+        <v>2409837</v>
+      </c>
+      <c r="P631">
+        <v>5253</v>
+      </c>
+      <c r="Q631">
+        <v>14109</v>
       </c>
     </row>
   </sheetData>

--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R631"/>
+  <dimension ref="A1:R632"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4784,13 +4784,13 @@
         <v>210662</v>
       </c>
       <c r="F98">
-        <v>13886961</v>
+        <v>13886963</v>
       </c>
       <c r="G98">
-        <v>11076397</v>
+        <v>11076399</v>
       </c>
       <c r="H98">
-        <v>904872</v>
+        <v>904873</v>
       </c>
       <c r="I98">
         <v>84.12000000000001</v>
@@ -4858,7 +4858,7 @@
         <v>79.84</v>
       </c>
       <c r="M99">
-        <v>8586181</v>
+        <v>8586182</v>
       </c>
       <c r="N99">
         <v>7675188</v>
@@ -5176,7 +5176,7 @@
         <v>82.49</v>
       </c>
       <c r="M105">
-        <v>8358621</v>
+        <v>8358622</v>
       </c>
       <c r="N105">
         <v>7677889</v>
@@ -6592,7 +6592,7 @@
         <v>9516801</v>
       </c>
       <c r="H132">
-        <v>935363</v>
+        <v>935378</v>
       </c>
       <c r="I132">
         <v>100.7</v>
@@ -6607,7 +6607,7 @@
         <v>99.05</v>
       </c>
       <c r="M132">
-        <v>14066910</v>
+        <v>14066925</v>
       </c>
       <c r="N132">
         <v>9919645</v>
@@ -6660,7 +6660,7 @@
         <v>99.53</v>
       </c>
       <c r="M133">
-        <v>14469363</v>
+        <v>14469377</v>
       </c>
       <c r="N133">
         <v>9992123</v>
@@ -6713,7 +6713,7 @@
         <v>100.2</v>
       </c>
       <c r="M134">
-        <v>14604998</v>
+        <v>14605013</v>
       </c>
       <c r="N134">
         <v>9946214</v>
@@ -6766,7 +6766,7 @@
         <v>100.72</v>
       </c>
       <c r="M135">
-        <v>14690435</v>
+        <v>14690449</v>
       </c>
       <c r="N135">
         <v>9890722</v>
@@ -6819,7 +6819,7 @@
         <v>101.31</v>
       </c>
       <c r="M136">
-        <v>14866894</v>
+        <v>14866909</v>
       </c>
       <c r="N136">
         <v>9919839</v>
@@ -6872,7 +6872,7 @@
         <v>101.83</v>
       </c>
       <c r="M137">
-        <v>14861412</v>
+        <v>14861427</v>
       </c>
       <c r="N137">
         <v>9793604</v>
@@ -6925,7 +6925,7 @@
         <v>102.25</v>
       </c>
       <c r="M138">
-        <v>14670804</v>
+        <v>14670818</v>
       </c>
       <c r="N138">
         <v>9476838</v>
@@ -6978,7 +6978,7 @@
         <v>102.61</v>
       </c>
       <c r="M139">
-        <v>14467029</v>
+        <v>14467044</v>
       </c>
       <c r="N139">
         <v>9214474</v>
@@ -7004,7 +7004,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823731</v>
+        <v>823659</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -7031,10 +7031,10 @@
         <v>103.08</v>
       </c>
       <c r="M140">
-        <v>14131809</v>
+        <v>14131823</v>
       </c>
       <c r="N140">
-        <v>8935567</v>
+        <v>8935495</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -7084,10 +7084,10 @@
         <v>103.59</v>
       </c>
       <c r="M141">
-        <v>13894105</v>
+        <v>13894120</v>
       </c>
       <c r="N141">
-        <v>8782082</v>
+        <v>8782010</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -7137,10 +7137,10 @@
         <v>104.14</v>
       </c>
       <c r="M142">
-        <v>13750012</v>
+        <v>13750027</v>
       </c>
       <c r="N142">
-        <v>8776350</v>
+        <v>8776278</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -7190,10 +7190,10 @@
         <v>104.75</v>
       </c>
       <c r="M143">
-        <v>13621881</v>
+        <v>13621896</v>
       </c>
       <c r="N143">
-        <v>8836792</v>
+        <v>8836720</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -7246,7 +7246,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042600</v>
+        <v>9042528</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -7299,7 +7299,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9395220</v>
+        <v>9395148</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -7352,7 +7352,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9716084</v>
+        <v>9716012</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -7405,7 +7405,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916915</v>
+        <v>9916843</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -7458,7 +7458,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176548</v>
+        <v>10176476</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -7511,7 +7511,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10402129</v>
+        <v>10402057</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -7564,7 +7564,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586529</v>
+        <v>10586457</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -7617,7 +7617,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834442</v>
+        <v>10834370</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -7870,7 +7870,7 @@
         <v>123.46</v>
       </c>
       <c r="J156">
-        <v>37.93</v>
+        <v>37.94</v>
       </c>
       <c r="K156">
         <v>15.57</v>
@@ -9442,7 +9442,7 @@
         <v>1488338</v>
       </c>
       <c r="D186">
-        <v>590397</v>
+        <v>590414</v>
       </c>
       <c r="E186">
         <v>232183</v>
@@ -9451,10 +9451,10 @@
         <v>10937527</v>
       </c>
       <c r="G186">
-        <v>9817199</v>
+        <v>9817610</v>
       </c>
       <c r="H186">
-        <v>1209108</v>
+        <v>1209130</v>
       </c>
       <c r="I186">
         <v>127.39</v>
@@ -9469,10 +9469,10 @@
         <v>125.18</v>
       </c>
       <c r="M186">
-        <v>13889898</v>
+        <v>13889919</v>
       </c>
       <c r="N186">
-        <v>8211202</v>
+        <v>8211219</v>
       </c>
       <c r="O186">
         <v>2510371</v>
@@ -9522,10 +9522,10 @@
         <v>125.48</v>
       </c>
       <c r="M187">
-        <v>13966131</v>
+        <v>13966152</v>
       </c>
       <c r="N187">
-        <v>8231193</v>
+        <v>8231210</v>
       </c>
       <c r="O187">
         <v>2506811</v>
@@ -9575,10 +9575,10 @@
         <v>125.89</v>
       </c>
       <c r="M188">
-        <v>14177364</v>
+        <v>14177385</v>
       </c>
       <c r="N188">
-        <v>8310979</v>
+        <v>8310996</v>
       </c>
       <c r="O188">
         <v>2528409</v>
@@ -9604,7 +9604,7 @@
         <v>631919</v>
       </c>
       <c r="E189">
-        <v>204866</v>
+        <v>204865</v>
       </c>
       <c r="F189">
         <v>10180433</v>
@@ -9628,13 +9628,13 @@
         <v>126.37</v>
       </c>
       <c r="M189">
-        <v>14260672</v>
+        <v>14260693</v>
       </c>
       <c r="N189">
-        <v>8315339</v>
+        <v>8315356</v>
       </c>
       <c r="O189">
-        <v>2521451</v>
+        <v>2521450</v>
       </c>
       <c r="P189">
         <v>3841</v>
@@ -9681,13 +9681,13 @@
         <v>126.79</v>
       </c>
       <c r="M190">
-        <v>14422999</v>
+        <v>14423020</v>
       </c>
       <c r="N190">
-        <v>8370920</v>
+        <v>8370937</v>
       </c>
       <c r="O190">
-        <v>2540059</v>
+        <v>2540058</v>
       </c>
       <c r="P190">
         <v>3855</v>
@@ -9707,7 +9707,7 @@
         <v>1667576</v>
       </c>
       <c r="D191">
-        <v>573545</v>
+        <v>573547</v>
       </c>
       <c r="E191">
         <v>207675</v>
@@ -9716,10 +9716,10 @@
         <v>9966680</v>
       </c>
       <c r="G191">
-        <v>8670414</v>
+        <v>8670436</v>
       </c>
       <c r="H191">
-        <v>1073055</v>
+        <v>1073058</v>
       </c>
       <c r="I191">
         <v>128.59</v>
@@ -9734,13 +9734,13 @@
         <v>127.14</v>
       </c>
       <c r="M191">
-        <v>14528151</v>
+        <v>14528175</v>
       </c>
       <c r="N191">
-        <v>8368439</v>
+        <v>8368458</v>
       </c>
       <c r="O191">
-        <v>2551090</v>
+        <v>2551089</v>
       </c>
       <c r="P191">
         <v>3864</v>
@@ -9787,13 +9787,13 @@
         <v>127.59</v>
       </c>
       <c r="M192">
-        <v>14532926</v>
+        <v>14532950</v>
       </c>
       <c r="N192">
-        <v>8290013</v>
+        <v>8290032</v>
       </c>
       <c r="O192">
-        <v>2547712</v>
+        <v>2547711</v>
       </c>
       <c r="P192">
         <v>3867</v>
@@ -9840,13 +9840,13 @@
         <v>128.14</v>
       </c>
       <c r="M193">
-        <v>14761449</v>
+        <v>14761473</v>
       </c>
       <c r="N193">
-        <v>8365105</v>
+        <v>8365124</v>
       </c>
       <c r="O193">
-        <v>2572360</v>
+        <v>2572359</v>
       </c>
       <c r="P193">
         <v>3862</v>
@@ -9872,7 +9872,7 @@
         <v>235008</v>
       </c>
       <c r="F194">
-        <v>14729056</v>
+        <v>14729057</v>
       </c>
       <c r="G194">
         <v>13027499</v>
@@ -9893,13 +9893,13 @@
         <v>128.88</v>
       </c>
       <c r="M194">
-        <v>14844130</v>
+        <v>14844154</v>
       </c>
       <c r="N194">
-        <v>8387992</v>
+        <v>8388011</v>
       </c>
       <c r="O194">
-        <v>2570160</v>
+        <v>2570159</v>
       </c>
       <c r="P194">
         <v>3869</v>
@@ -9946,13 +9946,13 @@
         <v>129.54</v>
       </c>
       <c r="M195">
-        <v>14889061</v>
+        <v>14889085</v>
       </c>
       <c r="N195">
-        <v>8325464</v>
+        <v>8325483</v>
       </c>
       <c r="O195">
-        <v>2571049</v>
+        <v>2571048</v>
       </c>
       <c r="P195">
         <v>3875</v>
@@ -9978,7 +9978,7 @@
         <v>219934</v>
       </c>
       <c r="F196">
-        <v>13097790</v>
+        <v>13097796</v>
       </c>
       <c r="G196">
         <v>11730221</v>
@@ -9999,13 +9999,13 @@
         <v>130.2</v>
       </c>
       <c r="M196">
-        <v>14967742</v>
+        <v>14967767</v>
       </c>
       <c r="N196">
-        <v>8319960</v>
+        <v>8319979</v>
       </c>
       <c r="O196">
-        <v>2563123</v>
+        <v>2563122</v>
       </c>
       <c r="P196">
         <v>3873</v>
@@ -10052,13 +10052,13 @@
         <v>130.86</v>
       </c>
       <c r="M197">
-        <v>15089887</v>
+        <v>15089911</v>
       </c>
       <c r="N197">
-        <v>8341424</v>
+        <v>8341443</v>
       </c>
       <c r="O197">
-        <v>2566578</v>
+        <v>2566577</v>
       </c>
       <c r="P197">
         <v>3878</v>
@@ -10105,13 +10105,13 @@
         <v>131.55</v>
       </c>
       <c r="M198">
-        <v>15141503</v>
+        <v>15141506</v>
       </c>
       <c r="N198">
-        <v>8330305</v>
+        <v>8330307</v>
       </c>
       <c r="O198">
-        <v>2567379</v>
+        <v>2567378</v>
       </c>
       <c r="P198">
         <v>3884</v>
@@ -10134,10 +10134,10 @@
         <v>525103</v>
       </c>
       <c r="E199">
-        <v>214620</v>
+        <v>214621</v>
       </c>
       <c r="F199">
-        <v>10187302</v>
+        <v>10187305</v>
       </c>
       <c r="G199">
         <v>9028611</v>
@@ -10158,10 +10158,10 @@
         <v>132.19</v>
       </c>
       <c r="M199">
-        <v>15309047</v>
+        <v>15309050</v>
       </c>
       <c r="N199">
-        <v>8356553</v>
+        <v>8356555</v>
       </c>
       <c r="O199">
         <v>2587923</v>
@@ -10187,7 +10187,7 @@
         <v>735606</v>
       </c>
       <c r="E200">
-        <v>247051</v>
+        <v>247050</v>
       </c>
       <c r="F200">
         <v>11601024</v>
@@ -10211,13 +10211,13 @@
         <v>132.87</v>
       </c>
       <c r="M200">
-        <v>15440657</v>
+        <v>15440660</v>
       </c>
       <c r="N200">
-        <v>8350572</v>
+        <v>8350574</v>
       </c>
       <c r="O200">
-        <v>2599976</v>
+        <v>2599975</v>
       </c>
       <c r="P200">
         <v>3886</v>
@@ -10264,10 +10264,10 @@
         <v>133.48</v>
       </c>
       <c r="M201">
-        <v>15510431</v>
+        <v>15510434</v>
       </c>
       <c r="N201">
-        <v>8368315</v>
+        <v>8368317</v>
       </c>
       <c r="O201">
         <v>2605553</v>
@@ -10317,10 +10317,10 @@
         <v>134.04</v>
       </c>
       <c r="M202">
-        <v>15673741</v>
+        <v>15673744</v>
       </c>
       <c r="N202">
-        <v>8381872</v>
+        <v>8381874</v>
       </c>
       <c r="O202">
         <v>2635466</v>
@@ -10349,7 +10349,7 @@
         <v>223173</v>
       </c>
       <c r="F203">
-        <v>9851479</v>
+        <v>9851475</v>
       </c>
       <c r="G203">
         <v>8695175</v>
@@ -10800,7 +10800,7 @@
         <v>7873641</v>
       </c>
       <c r="O211">
-        <v>2671978</v>
+        <v>2671977</v>
       </c>
       <c r="P211">
         <v>3950</v>
@@ -11877,7 +11877,7 @@
         <v>32598</v>
       </c>
       <c r="B232">
-        <v>1361140</v>
+        <v>1361144</v>
       </c>
       <c r="D232">
         <v>652549</v>
@@ -11886,7 +11886,7 @@
         <v>176192</v>
       </c>
       <c r="F232">
-        <v>11589052</v>
+        <v>11589074</v>
       </c>
       <c r="G232">
         <v>10451849</v>
@@ -33471,7 +33471,7 @@
         <v>182251</v>
       </c>
       <c r="F625">
-        <v>7672045</v>
+        <v>7672046</v>
       </c>
       <c r="G625">
         <v>6097705</v>
@@ -33515,25 +33515,25 @@
         <v>44592</v>
       </c>
       <c r="B626">
-        <v>1413899</v>
+        <v>1413965</v>
       </c>
       <c r="C626">
         <v>1917.5</v>
       </c>
       <c r="D626">
-        <v>528433</v>
+        <v>528859</v>
       </c>
       <c r="E626">
-        <v>177871</v>
+        <v>177858</v>
       </c>
       <c r="F626">
-        <v>9145054</v>
+        <v>9156916</v>
       </c>
       <c r="G626">
-        <v>7008256</v>
+        <v>7010215</v>
       </c>
       <c r="H626">
-        <v>2634737</v>
+        <v>2635461</v>
       </c>
       <c r="I626">
         <v>390.26</v>
@@ -33548,13 +33548,13 @@
         <v>352.7</v>
       </c>
       <c r="M626">
-        <v>41287840</v>
+        <v>41288564</v>
       </c>
       <c r="N626">
-        <v>7246641</v>
+        <v>7247067</v>
       </c>
       <c r="O626">
-        <v>4099379</v>
+        <v>4099366</v>
       </c>
       <c r="P626">
         <v>5219</v>
@@ -33571,25 +33571,25 @@
         <v>44620</v>
       </c>
       <c r="B627">
-        <v>905379</v>
+        <v>905422</v>
       </c>
       <c r="C627">
         <v>1898.8</v>
       </c>
       <c r="D627">
-        <v>391606</v>
+        <v>391934</v>
       </c>
       <c r="E627">
         <v>139258</v>
       </c>
       <c r="F627">
-        <v>7687791</v>
+        <v>7687898</v>
       </c>
       <c r="G627">
-        <v>6243367</v>
+        <v>6245143</v>
       </c>
       <c r="H627">
-        <v>2415448</v>
+        <v>2416130</v>
       </c>
       <c r="I627">
         <v>399.95</v>
@@ -33604,13 +33604,13 @@
         <v>355.84</v>
       </c>
       <c r="M627">
-        <v>38635131</v>
+        <v>38636537</v>
       </c>
       <c r="N627">
-        <v>6872121</v>
+        <v>6872875</v>
       </c>
       <c r="O627">
-        <v>3605431</v>
+        <v>3605418</v>
       </c>
       <c r="P627">
         <v>5212</v>
@@ -33627,28 +33627,28 @@
         <v>44651</v>
       </c>
       <c r="B628">
-        <v>892663</v>
+        <v>892685</v>
       </c>
       <c r="C628">
         <v>1723</v>
       </c>
       <c r="D628">
-        <v>369742</v>
+        <v>369746</v>
       </c>
       <c r="E628">
-        <v>168558</v>
+        <v>168559</v>
       </c>
       <c r="F628">
-        <v>7553475</v>
+        <v>7553247</v>
       </c>
       <c r="G628">
-        <v>6442421</v>
+        <v>6442398</v>
       </c>
       <c r="H628">
-        <v>2542352</v>
+        <v>2542341</v>
       </c>
       <c r="I628">
-        <v>407.11</v>
+        <v>407.99</v>
       </c>
       <c r="J628">
         <v>35.52</v>
@@ -33657,16 +33657,16 @@
         <v>16.53</v>
       </c>
       <c r="L628">
-        <v>359.75</v>
+        <v>359.81</v>
       </c>
       <c r="M628">
-        <v>35831022</v>
+        <v>35832416</v>
       </c>
       <c r="N628">
-        <v>6391881</v>
+        <v>6392639</v>
       </c>
       <c r="O628">
-        <v>3165221</v>
+        <v>3165209</v>
       </c>
       <c r="P628">
         <v>5213</v>
@@ -33683,25 +33683,25 @@
         <v>44681</v>
       </c>
       <c r="B629">
-        <v>877536</v>
+        <v>877570</v>
       </c>
       <c r="C629">
         <v>1430</v>
       </c>
       <c r="D629">
-        <v>304514</v>
+        <v>304518</v>
       </c>
       <c r="E629">
-        <v>125435</v>
+        <v>125434</v>
       </c>
       <c r="F629">
-        <v>6045274</v>
+        <v>6045368</v>
       </c>
       <c r="G629">
-        <v>4792493</v>
+        <v>4792485</v>
       </c>
       <c r="H629">
-        <v>1887964</v>
+        <v>1887960</v>
       </c>
       <c r="I629">
         <v>404</v>
@@ -33710,19 +33710,19 @@
         <v>33.89</v>
       </c>
       <c r="K629">
-        <v>17.41</v>
+        <v>17.4</v>
       </c>
       <c r="L629">
-        <v>363.4</v>
+        <v>363.47</v>
       </c>
       <c r="M629">
-        <v>33650347</v>
+        <v>33651738</v>
       </c>
       <c r="N629">
-        <v>5630122</v>
+        <v>5630884</v>
       </c>
       <c r="O629">
-        <v>2881924</v>
+        <v>2881911</v>
       </c>
       <c r="P629">
         <v>5218</v>
@@ -33731,7 +33731,7 @@
         <v>14091</v>
       </c>
       <c r="R629">
-        <v>319650</v>
+        <v>323392</v>
       </c>
     </row>
     <row r="630">
@@ -33739,25 +33739,25 @@
         <v>44712</v>
       </c>
       <c r="B630">
-        <v>859766</v>
+        <v>859776</v>
       </c>
       <c r="C630">
         <v>1349.6</v>
       </c>
       <c r="D630">
-        <v>312842</v>
+        <v>312845</v>
       </c>
       <c r="E630">
         <v>125662</v>
       </c>
       <c r="F630">
-        <v>5997528</v>
+        <v>5997619</v>
       </c>
       <c r="G630">
-        <v>4677140</v>
+        <v>4677136</v>
       </c>
       <c r="H630">
-        <v>1815690</v>
+        <v>1815689</v>
       </c>
       <c r="I630">
         <v>397.16</v>
@@ -33766,28 +33766,28 @@
         <v>32.6</v>
       </c>
       <c r="K630">
-        <v>17.42</v>
+        <v>17.41</v>
       </c>
       <c r="L630">
-        <v>367.86</v>
+        <v>367.93</v>
       </c>
       <c r="M630">
-        <v>31548472</v>
+        <v>31549861</v>
       </c>
       <c r="N630">
-        <v>5190810</v>
+        <v>5191575</v>
       </c>
       <c r="O630">
-        <v>2637041</v>
+        <v>2637028</v>
       </c>
       <c r="P630">
-        <v>5254</v>
+        <v>5258</v>
       </c>
       <c r="Q630">
-        <v>14104</v>
+        <v>14105</v>
       </c>
       <c r="R630">
-        <v>317251</v>
+        <v>320626</v>
       </c>
     </row>
     <row r="631">
@@ -33795,49 +33795,99 @@
         <v>44742</v>
       </c>
       <c r="B631">
-        <v>937491</v>
+        <v>937470</v>
+      </c>
+      <c r="C631">
+        <v>1297.8</v>
       </c>
       <c r="D631">
-        <v>327971</v>
+        <v>327913</v>
       </c>
       <c r="E631">
-        <v>106846</v>
+        <v>106376</v>
       </c>
       <c r="F631">
-        <v>5529454</v>
+        <v>5526924</v>
       </c>
       <c r="G631">
-        <v>4387469</v>
+        <v>4384756</v>
       </c>
       <c r="H631">
-        <v>1694212</v>
+        <v>1693004</v>
       </c>
       <c r="I631">
-        <v>394.7</v>
+        <v>394.65</v>
       </c>
       <c r="J631">
-        <v>31.59</v>
+        <v>31.58</v>
       </c>
       <c r="K631">
         <v>16.95</v>
       </c>
       <c r="L631">
-        <v>372.74</v>
+        <v>372.8</v>
       </c>
       <c r="M631">
-        <v>29255479</v>
+        <v>29255661</v>
       </c>
       <c r="N631">
-        <v>4860179</v>
+        <v>4860886</v>
       </c>
       <c r="O631">
-        <v>2409837</v>
+        <v>2409354</v>
       </c>
       <c r="P631">
-        <v>5253</v>
+        <v>5250</v>
       </c>
       <c r="Q631">
-        <v>14109</v>
+        <v>14116</v>
+      </c>
+      <c r="R631">
+        <v>318721</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="2">
+        <v>44773</v>
+      </c>
+      <c r="B632">
+        <v>1018530</v>
+      </c>
+      <c r="F632">
+        <v>6551392</v>
+      </c>
+      <c r="G632">
+        <v>4917713</v>
+      </c>
+      <c r="H632">
+        <v>1825095</v>
+      </c>
+      <c r="I632">
+        <v>380.45</v>
+      </c>
+      <c r="J632">
+        <v>30.93</v>
+      </c>
+      <c r="K632">
+        <v>16.54</v>
+      </c>
+      <c r="L632">
+        <v>377.26</v>
+      </c>
+      <c r="M632">
+        <v>27622875</v>
+      </c>
+      <c r="N632">
+        <v>4626533</v>
+      </c>
+      <c r="O632">
+        <v>2241562</v>
+      </c>
+      <c r="P632">
+        <v>5260</v>
+      </c>
+      <c r="Q632">
+        <v>14153</v>
       </c>
     </row>
   </sheetData>

--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R632"/>
+  <dimension ref="A1:R633"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6592,7 +6592,7 @@
         <v>9516801</v>
       </c>
       <c r="H132">
-        <v>935378</v>
+        <v>935383</v>
       </c>
       <c r="I132">
         <v>100.7</v>
@@ -6607,7 +6607,7 @@
         <v>99.05</v>
       </c>
       <c r="M132">
-        <v>14066925</v>
+        <v>14066930</v>
       </c>
       <c r="N132">
         <v>9919645</v>
@@ -6660,7 +6660,7 @@
         <v>99.53</v>
       </c>
       <c r="M133">
-        <v>14469377</v>
+        <v>14469383</v>
       </c>
       <c r="N133">
         <v>9992123</v>
@@ -6713,7 +6713,7 @@
         <v>100.2</v>
       </c>
       <c r="M134">
-        <v>14605013</v>
+        <v>14605018</v>
       </c>
       <c r="N134">
         <v>9946214</v>
@@ -6766,7 +6766,7 @@
         <v>100.72</v>
       </c>
       <c r="M135">
-        <v>14690449</v>
+        <v>14690455</v>
       </c>
       <c r="N135">
         <v>9890722</v>
@@ -6819,7 +6819,7 @@
         <v>101.31</v>
       </c>
       <c r="M136">
-        <v>14866909</v>
+        <v>14866914</v>
       </c>
       <c r="N136">
         <v>9919839</v>
@@ -6872,7 +6872,7 @@
         <v>101.83</v>
       </c>
       <c r="M137">
-        <v>14861427</v>
+        <v>14861432</v>
       </c>
       <c r="N137">
         <v>9793604</v>
@@ -6925,7 +6925,7 @@
         <v>102.25</v>
       </c>
       <c r="M138">
-        <v>14670818</v>
+        <v>14670824</v>
       </c>
       <c r="N138">
         <v>9476838</v>
@@ -6978,7 +6978,7 @@
         <v>102.61</v>
       </c>
       <c r="M139">
-        <v>14467044</v>
+        <v>14467049</v>
       </c>
       <c r="N139">
         <v>9214474</v>
@@ -7004,7 +7004,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823659</v>
+        <v>823663</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -7031,10 +7031,10 @@
         <v>103.08</v>
       </c>
       <c r="M140">
-        <v>14131823</v>
+        <v>14131829</v>
       </c>
       <c r="N140">
-        <v>8935495</v>
+        <v>8935499</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -7084,10 +7084,10 @@
         <v>103.59</v>
       </c>
       <c r="M141">
-        <v>13894120</v>
+        <v>13894125</v>
       </c>
       <c r="N141">
-        <v>8782010</v>
+        <v>8782014</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -7137,10 +7137,10 @@
         <v>104.14</v>
       </c>
       <c r="M142">
-        <v>13750027</v>
+        <v>13750032</v>
       </c>
       <c r="N142">
-        <v>8776278</v>
+        <v>8776282</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -7190,10 +7190,10 @@
         <v>104.75</v>
       </c>
       <c r="M143">
-        <v>13621896</v>
+        <v>13621901</v>
       </c>
       <c r="N143">
-        <v>8836720</v>
+        <v>8836724</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -7246,7 +7246,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042528</v>
+        <v>9042532</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -7299,7 +7299,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9395148</v>
+        <v>9395152</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -7352,7 +7352,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9716012</v>
+        <v>9716016</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -7405,7 +7405,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916843</v>
+        <v>9916847</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -7458,7 +7458,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176476</v>
+        <v>10176480</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -7511,7 +7511,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10402057</v>
+        <v>10402061</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -7564,7 +7564,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586457</v>
+        <v>10586461</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -7617,7 +7617,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834370</v>
+        <v>10834374</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -9442,7 +9442,7 @@
         <v>1488338</v>
       </c>
       <c r="D186">
-        <v>590414</v>
+        <v>590420</v>
       </c>
       <c r="E186">
         <v>232183</v>
@@ -9451,13 +9451,13 @@
         <v>10937527</v>
       </c>
       <c r="G186">
-        <v>9817610</v>
+        <v>9817729</v>
       </c>
       <c r="H186">
-        <v>1209130</v>
+        <v>1209123</v>
       </c>
       <c r="I186">
-        <v>127.39</v>
+        <v>127.38</v>
       </c>
       <c r="J186">
         <v>32.49</v>
@@ -9469,10 +9469,10 @@
         <v>125.18</v>
       </c>
       <c r="M186">
-        <v>13889919</v>
+        <v>13889913</v>
       </c>
       <c r="N186">
-        <v>8211219</v>
+        <v>8211225</v>
       </c>
       <c r="O186">
         <v>2510371</v>
@@ -9522,10 +9522,10 @@
         <v>125.48</v>
       </c>
       <c r="M187">
-        <v>13966152</v>
+        <v>13966146</v>
       </c>
       <c r="N187">
-        <v>8231210</v>
+        <v>8231216</v>
       </c>
       <c r="O187">
         <v>2506811</v>
@@ -9575,10 +9575,10 @@
         <v>125.89</v>
       </c>
       <c r="M188">
-        <v>14177385</v>
+        <v>14177379</v>
       </c>
       <c r="N188">
-        <v>8310996</v>
+        <v>8311002</v>
       </c>
       <c r="O188">
         <v>2528409</v>
@@ -9628,10 +9628,10 @@
         <v>126.37</v>
       </c>
       <c r="M189">
-        <v>14260693</v>
+        <v>14260687</v>
       </c>
       <c r="N189">
-        <v>8315356</v>
+        <v>8315362</v>
       </c>
       <c r="O189">
         <v>2521450</v>
@@ -9657,7 +9657,7 @@
         <v>509987</v>
       </c>
       <c r="E190">
-        <v>181946</v>
+        <v>181945</v>
       </c>
       <c r="F190">
         <v>9164177</v>
@@ -9681,13 +9681,13 @@
         <v>126.79</v>
       </c>
       <c r="M190">
-        <v>14423020</v>
+        <v>14423014</v>
       </c>
       <c r="N190">
-        <v>8370937</v>
+        <v>8370943</v>
       </c>
       <c r="O190">
-        <v>2540058</v>
+        <v>2540057</v>
       </c>
       <c r="P190">
         <v>3855</v>
@@ -9707,7 +9707,7 @@
         <v>1667576</v>
       </c>
       <c r="D191">
-        <v>573547</v>
+        <v>573545</v>
       </c>
       <c r="E191">
         <v>207675</v>
@@ -9716,10 +9716,10 @@
         <v>9966680</v>
       </c>
       <c r="G191">
-        <v>8670436</v>
+        <v>8670421</v>
       </c>
       <c r="H191">
-        <v>1073058</v>
+        <v>1073056</v>
       </c>
       <c r="I191">
         <v>128.59</v>
@@ -9734,13 +9734,13 @@
         <v>127.14</v>
       </c>
       <c r="M191">
-        <v>14528175</v>
+        <v>14528167</v>
       </c>
       <c r="N191">
-        <v>8368458</v>
+        <v>8368462</v>
       </c>
       <c r="O191">
-        <v>2551089</v>
+        <v>2551088</v>
       </c>
       <c r="P191">
         <v>3864</v>
@@ -9787,13 +9787,13 @@
         <v>127.59</v>
       </c>
       <c r="M192">
-        <v>14532950</v>
+        <v>14532942</v>
       </c>
       <c r="N192">
-        <v>8290032</v>
+        <v>8290036</v>
       </c>
       <c r="O192">
-        <v>2547711</v>
+        <v>2547710</v>
       </c>
       <c r="P192">
         <v>3867</v>
@@ -9840,13 +9840,13 @@
         <v>128.14</v>
       </c>
       <c r="M193">
-        <v>14761473</v>
+        <v>14761466</v>
       </c>
       <c r="N193">
-        <v>8365124</v>
+        <v>8365128</v>
       </c>
       <c r="O193">
-        <v>2572359</v>
+        <v>2572358</v>
       </c>
       <c r="P193">
         <v>3862</v>
@@ -9872,7 +9872,7 @@
         <v>235008</v>
       </c>
       <c r="F194">
-        <v>14729057</v>
+        <v>14729055</v>
       </c>
       <c r="G194">
         <v>13027499</v>
@@ -9893,13 +9893,13 @@
         <v>128.88</v>
       </c>
       <c r="M194">
-        <v>14844154</v>
+        <v>14844146</v>
       </c>
       <c r="N194">
-        <v>8388011</v>
+        <v>8388015</v>
       </c>
       <c r="O194">
-        <v>2570159</v>
+        <v>2570158</v>
       </c>
       <c r="P194">
         <v>3869</v>
@@ -9946,13 +9946,13 @@
         <v>129.54</v>
       </c>
       <c r="M195">
-        <v>14889085</v>
+        <v>14889077</v>
       </c>
       <c r="N195">
-        <v>8325483</v>
+        <v>8325487</v>
       </c>
       <c r="O195">
-        <v>2571048</v>
+        <v>2571047</v>
       </c>
       <c r="P195">
         <v>3875</v>
@@ -9999,13 +9999,13 @@
         <v>130.2</v>
       </c>
       <c r="M196">
-        <v>14967767</v>
+        <v>14967759</v>
       </c>
       <c r="N196">
-        <v>8319979</v>
+        <v>8319983</v>
       </c>
       <c r="O196">
-        <v>2563122</v>
+        <v>2563121</v>
       </c>
       <c r="P196">
         <v>3873</v>
@@ -10052,13 +10052,13 @@
         <v>130.86</v>
       </c>
       <c r="M197">
-        <v>15089911</v>
+        <v>15089903</v>
       </c>
       <c r="N197">
-        <v>8341443</v>
+        <v>8341447</v>
       </c>
       <c r="O197">
-        <v>2566577</v>
+        <v>2566576</v>
       </c>
       <c r="P197">
         <v>3878</v>
@@ -10105,13 +10105,13 @@
         <v>131.55</v>
       </c>
       <c r="M198">
-        <v>15141506</v>
+        <v>15141505</v>
       </c>
       <c r="N198">
-        <v>8330307</v>
+        <v>8330305</v>
       </c>
       <c r="O198">
-        <v>2567378</v>
+        <v>2567377</v>
       </c>
       <c r="P198">
         <v>3884</v>
@@ -10134,10 +10134,10 @@
         <v>525103</v>
       </c>
       <c r="E199">
-        <v>214621</v>
+        <v>214622</v>
       </c>
       <c r="F199">
-        <v>10187305</v>
+        <v>10187306</v>
       </c>
       <c r="G199">
         <v>9028611</v>
@@ -10158,10 +10158,10 @@
         <v>132.19</v>
       </c>
       <c r="M199">
-        <v>15309050</v>
+        <v>15309049</v>
       </c>
       <c r="N199">
-        <v>8356555</v>
+        <v>8356553</v>
       </c>
       <c r="O199">
         <v>2587923</v>
@@ -10211,10 +10211,10 @@
         <v>132.87</v>
       </c>
       <c r="M200">
-        <v>15440660</v>
+        <v>15440658</v>
       </c>
       <c r="N200">
-        <v>8350574</v>
+        <v>8350572</v>
       </c>
       <c r="O200">
         <v>2599975</v>
@@ -10240,7 +10240,7 @@
         <v>649662</v>
       </c>
       <c r="E201">
-        <v>210443</v>
+        <v>210442</v>
       </c>
       <c r="F201">
         <v>10189513</v>
@@ -10264,13 +10264,13 @@
         <v>133.48</v>
       </c>
       <c r="M201">
-        <v>15510434</v>
+        <v>15510433</v>
       </c>
       <c r="N201">
-        <v>8368317</v>
+        <v>8368315</v>
       </c>
       <c r="O201">
-        <v>2605553</v>
+        <v>2605552</v>
       </c>
       <c r="P201">
         <v>3887</v>
@@ -10296,7 +10296,7 @@
         <v>211859</v>
       </c>
       <c r="F202">
-        <v>10071212</v>
+        <v>10071205</v>
       </c>
       <c r="G202">
         <v>8724780</v>
@@ -10317,10 +10317,10 @@
         <v>134.04</v>
       </c>
       <c r="M202">
-        <v>15673744</v>
+        <v>15673743</v>
       </c>
       <c r="N202">
-        <v>8381874</v>
+        <v>8381872</v>
       </c>
       <c r="O202">
         <v>2635466</v>
@@ -10349,7 +10349,7 @@
         <v>223173</v>
       </c>
       <c r="F203">
-        <v>9851475</v>
+        <v>9851462</v>
       </c>
       <c r="G203">
         <v>8695175</v>
@@ -10800,7 +10800,7 @@
         <v>7873641</v>
       </c>
       <c r="O211">
-        <v>2671977</v>
+        <v>2671976</v>
       </c>
       <c r="P211">
         <v>3950</v>
@@ -10853,7 +10853,7 @@
         <v>7781838</v>
       </c>
       <c r="O212">
-        <v>2637236</v>
+        <v>2637235</v>
       </c>
       <c r="P212">
         <v>3967</v>
@@ -11886,7 +11886,7 @@
         <v>176192</v>
       </c>
       <c r="F232">
-        <v>11589074</v>
+        <v>11589077</v>
       </c>
       <c r="G232">
         <v>10451849</v>
@@ -33837,13 +33837,13 @@
         <v>2409354</v>
       </c>
       <c r="P631">
-        <v>5250</v>
+        <v>5238</v>
       </c>
       <c r="Q631">
-        <v>14116</v>
+        <v>14084</v>
       </c>
       <c r="R631">
-        <v>318721</v>
+        <v>320891</v>
       </c>
     </row>
     <row r="632">
@@ -33851,43 +33851,105 @@
         <v>44773</v>
       </c>
       <c r="B632">
-        <v>1018530</v>
+        <v>1021327</v>
+      </c>
+      <c r="C632">
+        <v>1442.9</v>
+      </c>
+      <c r="D632">
+        <v>358042</v>
+      </c>
+      <c r="E632">
+        <v>117552</v>
       </c>
       <c r="F632">
-        <v>6551392</v>
+        <v>6504507</v>
       </c>
       <c r="G632">
-        <v>4917713</v>
+        <v>4876905</v>
       </c>
       <c r="H632">
-        <v>1825095</v>
+        <v>1819116</v>
       </c>
       <c r="I632">
-        <v>380.45</v>
+        <v>382.34</v>
       </c>
       <c r="J632">
-        <v>30.93</v>
+        <v>30.92</v>
       </c>
       <c r="K632">
-        <v>16.54</v>
+        <v>16.52</v>
       </c>
       <c r="L632">
-        <v>377.26</v>
+        <v>377.38</v>
       </c>
       <c r="M632">
-        <v>27622875</v>
+        <v>27616897</v>
       </c>
       <c r="N632">
-        <v>4626533</v>
+        <v>4628157</v>
       </c>
       <c r="O632">
-        <v>2241562</v>
+        <v>2240481</v>
       </c>
       <c r="P632">
-        <v>5260</v>
+        <v>5248</v>
       </c>
       <c r="Q632">
-        <v>14153</v>
+        <v>14114</v>
+      </c>
+      <c r="R632">
+        <v>326070</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="2">
+        <v>44804</v>
+      </c>
+      <c r="B633">
+        <v>865850</v>
+      </c>
+      <c r="D633">
+        <v>342017</v>
+      </c>
+      <c r="E633">
+        <v>133535</v>
+      </c>
+      <c r="F633">
+        <v>6437868</v>
+      </c>
+      <c r="G633">
+        <v>5324132</v>
+      </c>
+      <c r="H633">
+        <v>1993716</v>
+      </c>
+      <c r="I633">
+        <v>385.59</v>
+      </c>
+      <c r="J633">
+        <v>30.55</v>
+      </c>
+      <c r="K633">
+        <v>15.78</v>
+      </c>
+      <c r="L633">
+        <v>382.21</v>
+      </c>
+      <c r="M633">
+        <v>26163163</v>
+      </c>
+      <c r="N633">
+        <v>4510335</v>
+      </c>
+      <c r="O633">
+        <v>2099735</v>
+      </c>
+      <c r="P633">
+        <v>5251</v>
+      </c>
+      <c r="Q633">
+        <v>14120</v>
       </c>
     </row>
   </sheetData>

--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R633"/>
+  <dimension ref="A1:R634"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4784,13 +4784,13 @@
         <v>210662</v>
       </c>
       <c r="F98">
-        <v>13886963</v>
+        <v>13886962</v>
       </c>
       <c r="G98">
-        <v>11076399</v>
+        <v>11076398</v>
       </c>
       <c r="H98">
-        <v>904873</v>
+        <v>904872</v>
       </c>
       <c r="I98">
         <v>84.12000000000001</v>
@@ -6592,7 +6592,7 @@
         <v>9516801</v>
       </c>
       <c r="H132">
-        <v>935383</v>
+        <v>935377</v>
       </c>
       <c r="I132">
         <v>100.7</v>
@@ -6607,7 +6607,7 @@
         <v>99.05</v>
       </c>
       <c r="M132">
-        <v>14066930</v>
+        <v>14066924</v>
       </c>
       <c r="N132">
         <v>9919645</v>
@@ -6660,7 +6660,7 @@
         <v>99.53</v>
       </c>
       <c r="M133">
-        <v>14469383</v>
+        <v>14469376</v>
       </c>
       <c r="N133">
         <v>9992123</v>
@@ -6713,7 +6713,7 @@
         <v>100.2</v>
       </c>
       <c r="M134">
-        <v>14605018</v>
+        <v>14605011</v>
       </c>
       <c r="N134">
         <v>9946214</v>
@@ -6766,7 +6766,7 @@
         <v>100.72</v>
       </c>
       <c r="M135">
-        <v>14690455</v>
+        <v>14690448</v>
       </c>
       <c r="N135">
         <v>9890722</v>
@@ -6819,7 +6819,7 @@
         <v>101.31</v>
       </c>
       <c r="M136">
-        <v>14866914</v>
+        <v>14866907</v>
       </c>
       <c r="N136">
         <v>9919839</v>
@@ -6872,7 +6872,7 @@
         <v>101.83</v>
       </c>
       <c r="M137">
-        <v>14861432</v>
+        <v>14861425</v>
       </c>
       <c r="N137">
         <v>9793604</v>
@@ -6925,7 +6925,7 @@
         <v>102.25</v>
       </c>
       <c r="M138">
-        <v>14670824</v>
+        <v>14670817</v>
       </c>
       <c r="N138">
         <v>9476838</v>
@@ -6978,7 +6978,7 @@
         <v>102.61</v>
       </c>
       <c r="M139">
-        <v>14467049</v>
+        <v>14467042</v>
       </c>
       <c r="N139">
         <v>9214474</v>
@@ -7004,7 +7004,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823663</v>
+        <v>823668</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -7031,10 +7031,10 @@
         <v>103.08</v>
       </c>
       <c r="M140">
-        <v>14131829</v>
+        <v>14131822</v>
       </c>
       <c r="N140">
-        <v>8935499</v>
+        <v>8935504</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -7084,10 +7084,10 @@
         <v>103.59</v>
       </c>
       <c r="M141">
-        <v>13894125</v>
+        <v>13894119</v>
       </c>
       <c r="N141">
-        <v>8782014</v>
+        <v>8782019</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -7137,10 +7137,10 @@
         <v>104.14</v>
       </c>
       <c r="M142">
-        <v>13750032</v>
+        <v>13750025</v>
       </c>
       <c r="N142">
-        <v>8776282</v>
+        <v>8776287</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -7190,10 +7190,10 @@
         <v>104.75</v>
       </c>
       <c r="M143">
-        <v>13621901</v>
+        <v>13621894</v>
       </c>
       <c r="N143">
-        <v>8836724</v>
+        <v>8836729</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -7246,7 +7246,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042532</v>
+        <v>9042537</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -7299,7 +7299,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9395152</v>
+        <v>9395157</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -7352,7 +7352,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9716016</v>
+        <v>9716021</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -7405,7 +7405,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916847</v>
+        <v>9916852</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -7458,7 +7458,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176480</v>
+        <v>10176485</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -7511,7 +7511,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10402061</v>
+        <v>10402066</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -7564,7 +7564,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586461</v>
+        <v>10586466</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -7617,7 +7617,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834374</v>
+        <v>10834379</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -9442,7 +9442,7 @@
         <v>1488338</v>
       </c>
       <c r="D186">
-        <v>590420</v>
+        <v>590429</v>
       </c>
       <c r="E186">
         <v>232183</v>
@@ -9451,10 +9451,10 @@
         <v>10937527</v>
       </c>
       <c r="G186">
-        <v>9817729</v>
+        <v>9817905</v>
       </c>
       <c r="H186">
-        <v>1209123</v>
+        <v>1209134</v>
       </c>
       <c r="I186">
         <v>127.38</v>
@@ -9469,10 +9469,10 @@
         <v>125.18</v>
       </c>
       <c r="M186">
-        <v>13889913</v>
+        <v>13889924</v>
       </c>
       <c r="N186">
-        <v>8211225</v>
+        <v>8211234</v>
       </c>
       <c r="O186">
         <v>2510371</v>
@@ -9522,10 +9522,10 @@
         <v>125.48</v>
       </c>
       <c r="M187">
-        <v>13966146</v>
+        <v>13966157</v>
       </c>
       <c r="N187">
-        <v>8231216</v>
+        <v>8231225</v>
       </c>
       <c r="O187">
         <v>2506811</v>
@@ -9575,10 +9575,10 @@
         <v>125.89</v>
       </c>
       <c r="M188">
-        <v>14177379</v>
+        <v>14177390</v>
       </c>
       <c r="N188">
-        <v>8311002</v>
+        <v>8311011</v>
       </c>
       <c r="O188">
         <v>2528409</v>
@@ -9628,10 +9628,10 @@
         <v>126.37</v>
       </c>
       <c r="M189">
-        <v>14260687</v>
+        <v>14260698</v>
       </c>
       <c r="N189">
-        <v>8315362</v>
+        <v>8315371</v>
       </c>
       <c r="O189">
         <v>2521450</v>
@@ -9681,10 +9681,10 @@
         <v>126.79</v>
       </c>
       <c r="M190">
-        <v>14423014</v>
+        <v>14423025</v>
       </c>
       <c r="N190">
-        <v>8370943</v>
+        <v>8370952</v>
       </c>
       <c r="O190">
         <v>2540057</v>
@@ -9716,10 +9716,10 @@
         <v>9966680</v>
       </c>
       <c r="G191">
-        <v>8670421</v>
+        <v>8670408</v>
       </c>
       <c r="H191">
-        <v>1073056</v>
+        <v>1073055</v>
       </c>
       <c r="I191">
         <v>128.59</v>
@@ -9734,10 +9734,10 @@
         <v>127.14</v>
       </c>
       <c r="M191">
-        <v>14528167</v>
+        <v>14528177</v>
       </c>
       <c r="N191">
-        <v>8368462</v>
+        <v>8368471</v>
       </c>
       <c r="O191">
         <v>2551088</v>
@@ -9787,10 +9787,10 @@
         <v>127.59</v>
       </c>
       <c r="M192">
-        <v>14532942</v>
+        <v>14532951</v>
       </c>
       <c r="N192">
-        <v>8290036</v>
+        <v>8290045</v>
       </c>
       <c r="O192">
         <v>2547710</v>
@@ -9840,10 +9840,10 @@
         <v>128.14</v>
       </c>
       <c r="M193">
-        <v>14761466</v>
+        <v>14761475</v>
       </c>
       <c r="N193">
-        <v>8365128</v>
+        <v>8365137</v>
       </c>
       <c r="O193">
         <v>2572358</v>
@@ -9872,7 +9872,7 @@
         <v>235008</v>
       </c>
       <c r="F194">
-        <v>14729055</v>
+        <v>14729052</v>
       </c>
       <c r="G194">
         <v>13027499</v>
@@ -9893,10 +9893,10 @@
         <v>128.88</v>
       </c>
       <c r="M194">
-        <v>14844146</v>
+        <v>14844156</v>
       </c>
       <c r="N194">
-        <v>8388015</v>
+        <v>8388024</v>
       </c>
       <c r="O194">
         <v>2570158</v>
@@ -9946,10 +9946,10 @@
         <v>129.54</v>
       </c>
       <c r="M195">
-        <v>14889077</v>
+        <v>14889086</v>
       </c>
       <c r="N195">
-        <v>8325487</v>
+        <v>8325496</v>
       </c>
       <c r="O195">
         <v>2571047</v>
@@ -9978,7 +9978,7 @@
         <v>219934</v>
       </c>
       <c r="F196">
-        <v>13097796</v>
+        <v>13097794</v>
       </c>
       <c r="G196">
         <v>11730221</v>
@@ -9999,10 +9999,10 @@
         <v>130.2</v>
       </c>
       <c r="M196">
-        <v>14967759</v>
+        <v>14967768</v>
       </c>
       <c r="N196">
-        <v>8319983</v>
+        <v>8319992</v>
       </c>
       <c r="O196">
         <v>2563121</v>
@@ -10052,10 +10052,10 @@
         <v>130.86</v>
       </c>
       <c r="M197">
-        <v>15089903</v>
+        <v>15089912</v>
       </c>
       <c r="N197">
-        <v>8341447</v>
+        <v>8341456</v>
       </c>
       <c r="O197">
         <v>2566576</v>
@@ -10105,7 +10105,7 @@
         <v>131.55</v>
       </c>
       <c r="M198">
-        <v>15141505</v>
+        <v>15141503</v>
       </c>
       <c r="N198">
         <v>8330305</v>
@@ -10134,7 +10134,7 @@
         <v>525103</v>
       </c>
       <c r="E199">
-        <v>214622</v>
+        <v>214623</v>
       </c>
       <c r="F199">
         <v>10187306</v>
@@ -10158,13 +10158,13 @@
         <v>132.19</v>
       </c>
       <c r="M199">
-        <v>15309049</v>
+        <v>15309047</v>
       </c>
       <c r="N199">
         <v>8356553</v>
       </c>
       <c r="O199">
-        <v>2587923</v>
+        <v>2587924</v>
       </c>
       <c r="P199">
         <v>3887</v>
@@ -10211,13 +10211,13 @@
         <v>132.87</v>
       </c>
       <c r="M200">
-        <v>15440658</v>
+        <v>15440657</v>
       </c>
       <c r="N200">
         <v>8350572</v>
       </c>
       <c r="O200">
-        <v>2599975</v>
+        <v>2599976</v>
       </c>
       <c r="P200">
         <v>3886</v>
@@ -10264,13 +10264,13 @@
         <v>133.48</v>
       </c>
       <c r="M201">
-        <v>15510433</v>
+        <v>15510431</v>
       </c>
       <c r="N201">
         <v>8368315</v>
       </c>
       <c r="O201">
-        <v>2605552</v>
+        <v>2605553</v>
       </c>
       <c r="P201">
         <v>3887</v>
@@ -10296,7 +10296,7 @@
         <v>211859</v>
       </c>
       <c r="F202">
-        <v>10071205</v>
+        <v>10071201</v>
       </c>
       <c r="G202">
         <v>8724780</v>
@@ -10317,13 +10317,13 @@
         <v>134.04</v>
       </c>
       <c r="M202">
-        <v>15673743</v>
+        <v>15673741</v>
       </c>
       <c r="N202">
         <v>8381872</v>
       </c>
       <c r="O202">
-        <v>2635466</v>
+        <v>2635467</v>
       </c>
       <c r="P202">
         <v>3895</v>
@@ -10349,7 +10349,7 @@
         <v>223173</v>
       </c>
       <c r="F203">
-        <v>9851462</v>
+        <v>9851451</v>
       </c>
       <c r="G203">
         <v>8695175</v>
@@ -10376,7 +10376,7 @@
         <v>8380544</v>
       </c>
       <c r="O203">
-        <v>2650964</v>
+        <v>2650965</v>
       </c>
       <c r="P203">
         <v>3915</v>
@@ -10429,7 +10429,7 @@
         <v>8330361</v>
       </c>
       <c r="O204">
-        <v>2658786</v>
+        <v>2658787</v>
       </c>
       <c r="P204">
         <v>3927</v>
@@ -10482,7 +10482,7 @@
         <v>8360752</v>
       </c>
       <c r="O205">
-        <v>2687335</v>
+        <v>2687336</v>
       </c>
       <c r="P205">
         <v>3938</v>
@@ -10535,7 +10535,7 @@
         <v>8190399</v>
       </c>
       <c r="O206">
-        <v>2682389</v>
+        <v>2682390</v>
       </c>
       <c r="P206">
         <v>3943</v>
@@ -10588,7 +10588,7 @@
         <v>8167954</v>
       </c>
       <c r="O207">
-        <v>2694740</v>
+        <v>2694741</v>
       </c>
       <c r="P207">
         <v>3943</v>
@@ -10641,7 +10641,7 @@
         <v>8133267</v>
       </c>
       <c r="O208">
-        <v>2719323</v>
+        <v>2719324</v>
       </c>
       <c r="P208">
         <v>3945</v>
@@ -10694,7 +10694,7 @@
         <v>8038963</v>
       </c>
       <c r="O209">
-        <v>2707765</v>
+        <v>2707766</v>
       </c>
       <c r="P209">
         <v>3954</v>
@@ -10747,7 +10747,7 @@
         <v>7908330</v>
       </c>
       <c r="O210">
-        <v>2680330</v>
+        <v>2680331</v>
       </c>
       <c r="P210">
         <v>3955</v>
@@ -11877,7 +11877,7 @@
         <v>32598</v>
       </c>
       <c r="B232">
-        <v>1361144</v>
+        <v>1361143</v>
       </c>
       <c r="D232">
         <v>652549</v>
@@ -11886,7 +11886,7 @@
         <v>176192</v>
       </c>
       <c r="F232">
-        <v>11589077</v>
+        <v>11589066</v>
       </c>
       <c r="G232">
         <v>10451849</v>
@@ -33123,28 +33123,28 @@
         <v>44377</v>
       </c>
       <c r="B619">
-        <v>2290434</v>
+        <v>2287300</v>
       </c>
       <c r="C619">
         <v>3473.1</v>
       </c>
       <c r="D619">
-        <v>658602</v>
+        <v>658996</v>
       </c>
       <c r="E619">
-        <v>334050</v>
+        <v>333946</v>
       </c>
       <c r="F619">
-        <v>13917720</v>
+        <v>13905402</v>
       </c>
       <c r="G619">
-        <v>12419612</v>
+        <v>12418359</v>
       </c>
       <c r="H619">
-        <v>3987205</v>
+        <v>3986445</v>
       </c>
       <c r="I619">
-        <v>344.61</v>
+        <v>344.56</v>
       </c>
       <c r="J619">
         <v>42.44</v>
@@ -33156,13 +33156,13 @@
         <v>321.48</v>
       </c>
       <c r="M619">
-        <v>97731796</v>
+        <v>97731036</v>
       </c>
       <c r="N619">
-        <v>11764466</v>
+        <v>11764860</v>
       </c>
       <c r="O619">
-        <v>13082693</v>
+        <v>13082589</v>
       </c>
       <c r="P619">
         <v>5251</v>
@@ -33179,28 +33179,28 @@
         <v>44408</v>
       </c>
       <c r="B620">
-        <v>2048833</v>
+        <v>2044501</v>
       </c>
       <c r="C620">
         <v>3413.7</v>
       </c>
       <c r="D620">
-        <v>590771</v>
+        <v>590827</v>
       </c>
       <c r="E620">
-        <v>286424</v>
+        <v>286265</v>
       </c>
       <c r="F620">
-        <v>12847808</v>
+        <v>12835900</v>
       </c>
       <c r="G620">
-        <v>10786046</v>
+        <v>10782693</v>
       </c>
       <c r="H620">
-        <v>3457880</v>
+        <v>3456209</v>
       </c>
       <c r="I620">
-        <v>343.73</v>
+        <v>343.67</v>
       </c>
       <c r="J620">
         <v>40.06</v>
@@ -33212,13 +33212,13 @@
         <v>326.54</v>
       </c>
       <c r="M620">
-        <v>82596563</v>
+        <v>82594132</v>
       </c>
       <c r="N620">
-        <v>10199124</v>
+        <v>10199574</v>
       </c>
       <c r="O620">
-        <v>12419293</v>
+        <v>12419030</v>
       </c>
       <c r="P620">
         <v>5241</v>
@@ -33235,46 +33235,46 @@
         <v>44439</v>
       </c>
       <c r="B621">
-        <v>1504150</v>
+        <v>1503165</v>
       </c>
       <c r="C621">
         <v>2944.1</v>
       </c>
       <c r="D621">
-        <v>459840</v>
+        <v>460445</v>
       </c>
       <c r="E621">
-        <v>274281</v>
+        <v>274102</v>
       </c>
       <c r="F621">
-        <v>12787374</v>
+        <v>12782568</v>
       </c>
       <c r="G621">
-        <v>10604782</v>
+        <v>10601583</v>
       </c>
       <c r="H621">
-        <v>3447449</v>
+        <v>3445899</v>
       </c>
       <c r="I621">
-        <v>347.86</v>
+        <v>347.81</v>
       </c>
       <c r="J621">
-        <v>37.16</v>
+        <v>37.15</v>
       </c>
       <c r="K621">
-        <v>24.04</v>
+        <v>24.03</v>
       </c>
       <c r="L621">
-        <v>333.27</v>
+        <v>333.26</v>
       </c>
       <c r="M621">
-        <v>69691437</v>
+        <v>69687456</v>
       </c>
       <c r="N621">
-        <v>9343640</v>
+        <v>9344695</v>
       </c>
       <c r="O621">
-        <v>11625865</v>
+        <v>11625423</v>
       </c>
       <c r="P621">
         <v>5226</v>
@@ -33291,28 +33291,28 @@
         <v>44469</v>
       </c>
       <c r="B622">
-        <v>1407016</v>
+        <v>1410070</v>
       </c>
       <c r="C622">
         <v>2479.4</v>
       </c>
       <c r="D622">
-        <v>478251</v>
+        <v>478187</v>
       </c>
       <c r="E622">
-        <v>305836</v>
+        <v>305616</v>
       </c>
       <c r="F622">
-        <v>10043831</v>
+        <v>10027144</v>
       </c>
       <c r="G622">
-        <v>8099142</v>
+        <v>8093354</v>
       </c>
       <c r="H622">
-        <v>2686603</v>
+        <v>2683996</v>
       </c>
       <c r="I622">
-        <v>352.13</v>
+        <v>352.04</v>
       </c>
       <c r="J622">
         <v>29.08</v>
@@ -33321,16 +33321,16 @@
         <v>20.98</v>
       </c>
       <c r="L622">
-        <v>340.11</v>
+        <v>340.1</v>
       </c>
       <c r="M622">
-        <v>58992551</v>
+        <v>58985962</v>
       </c>
       <c r="N622">
-        <v>8910184</v>
+        <v>8911175</v>
       </c>
       <c r="O622">
-        <v>8848637</v>
+        <v>8847975</v>
       </c>
       <c r="P622">
         <v>5224</v>
@@ -33347,46 +33347,46 @@
         <v>44500</v>
       </c>
       <c r="B623">
-        <v>1211250</v>
+        <v>1211349</v>
       </c>
       <c r="C623">
         <v>2027.6</v>
       </c>
       <c r="D623">
-        <v>353705</v>
+        <v>353957</v>
       </c>
       <c r="E623">
-        <v>306192</v>
+        <v>305976</v>
       </c>
       <c r="F623">
-        <v>8857377</v>
+        <v>8847721</v>
       </c>
       <c r="G623">
-        <v>6809429</v>
+        <v>6804426</v>
       </c>
       <c r="H623">
-        <v>2257660</v>
+        <v>2255490</v>
       </c>
       <c r="I623">
-        <v>350.31</v>
+        <v>350.24</v>
       </c>
       <c r="J623">
-        <v>34.88</v>
+        <v>34.87</v>
       </c>
       <c r="K623">
         <v>19.46</v>
       </c>
       <c r="L623">
-        <v>344.47</v>
+        <v>344.45</v>
       </c>
       <c r="M623">
-        <v>52922937</v>
+        <v>52914178</v>
       </c>
       <c r="N623">
-        <v>8502768</v>
+        <v>8504011</v>
       </c>
       <c r="O623">
-        <v>6720848</v>
+        <v>6719970</v>
       </c>
       <c r="P623">
         <v>5224</v>
@@ -33403,46 +33403,46 @@
         <v>44530</v>
       </c>
       <c r="B624">
-        <v>1151677</v>
+        <v>1151226</v>
       </c>
       <c r="C624">
         <v>1814.8</v>
       </c>
       <c r="D624">
-        <v>328617</v>
+        <v>328969</v>
       </c>
       <c r="E624">
-        <v>211223</v>
+        <v>210991</v>
       </c>
       <c r="F624">
-        <v>7849467</v>
+        <v>7846184</v>
       </c>
       <c r="G624">
-        <v>6425366</v>
+        <v>6420069</v>
       </c>
       <c r="H624">
-        <v>2223070</v>
+        <v>2220710</v>
       </c>
       <c r="I624">
-        <v>364.76</v>
+        <v>364.68</v>
       </c>
       <c r="J624">
         <v>39.27</v>
       </c>
       <c r="K624">
-        <v>18.55</v>
+        <v>18.54</v>
       </c>
       <c r="L624">
-        <v>347.35</v>
+        <v>347.33</v>
       </c>
       <c r="M624">
-        <v>48468526</v>
+        <v>48457408</v>
       </c>
       <c r="N624">
-        <v>8090235</v>
+        <v>8091830</v>
       </c>
       <c r="O624">
-        <v>5602474</v>
+        <v>5601364</v>
       </c>
       <c r="P624">
         <v>5220</v>
@@ -33459,46 +33459,46 @@
         <v>44561</v>
       </c>
       <c r="B625">
-        <v>1249893</v>
+        <v>1249531</v>
       </c>
       <c r="C625">
         <v>1632.8</v>
       </c>
       <c r="D625">
-        <v>413887</v>
+        <v>414871</v>
       </c>
       <c r="E625">
-        <v>182251</v>
+        <v>182182</v>
       </c>
       <c r="F625">
-        <v>7672046</v>
+        <v>7669547</v>
       </c>
       <c r="G625">
-        <v>6097705</v>
+        <v>6098061</v>
       </c>
       <c r="H625">
-        <v>2192414</v>
+        <v>2192522</v>
       </c>
       <c r="I625">
         <v>376.43</v>
       </c>
       <c r="J625">
-        <v>40.32</v>
+        <v>40.31</v>
       </c>
       <c r="K625">
-        <v>17.81</v>
+        <v>17.8</v>
       </c>
       <c r="L625">
-        <v>349.81</v>
+        <v>349.78</v>
       </c>
       <c r="M625">
-        <v>44271472</v>
+        <v>44260461</v>
       </c>
       <c r="N625">
-        <v>7629053</v>
+        <v>7631632</v>
       </c>
       <c r="O625">
-        <v>4743274</v>
+        <v>4742095</v>
       </c>
       <c r="P625">
         <v>5237</v>
@@ -33515,46 +33515,46 @@
         <v>44592</v>
       </c>
       <c r="B626">
-        <v>1413965</v>
+        <v>1413668</v>
       </c>
       <c r="C626">
         <v>1917.5</v>
       </c>
       <c r="D626">
-        <v>528859</v>
+        <v>529876</v>
       </c>
       <c r="E626">
-        <v>177858</v>
+        <v>177774</v>
       </c>
       <c r="F626">
-        <v>9156916</v>
+        <v>9153312</v>
       </c>
       <c r="G626">
-        <v>7010215</v>
+        <v>7008471</v>
       </c>
       <c r="H626">
-        <v>2635461</v>
+        <v>2634696</v>
       </c>
       <c r="I626">
-        <v>390.26</v>
+        <v>390.24</v>
       </c>
       <c r="J626">
-        <v>40.19</v>
+        <v>40.18</v>
       </c>
       <c r="K626">
-        <v>17.29</v>
+        <v>17.28</v>
       </c>
       <c r="L626">
-        <v>352.7</v>
+        <v>352.67</v>
       </c>
       <c r="M626">
-        <v>41288564</v>
+        <v>41276789</v>
       </c>
       <c r="N626">
-        <v>7247067</v>
+        <v>7250663</v>
       </c>
       <c r="O626">
-        <v>4099366</v>
+        <v>4098103</v>
       </c>
       <c r="P626">
         <v>5219</v>
@@ -33571,46 +33571,46 @@
         <v>44620</v>
       </c>
       <c r="B627">
-        <v>905422</v>
+        <v>905143</v>
       </c>
       <c r="C627">
         <v>1898.8</v>
       </c>
       <c r="D627">
-        <v>391934</v>
+        <v>392661</v>
       </c>
       <c r="E627">
-        <v>139258</v>
+        <v>139214</v>
       </c>
       <c r="F627">
-        <v>7687898</v>
+        <v>7685163</v>
       </c>
       <c r="G627">
-        <v>6245143</v>
+        <v>6243758</v>
       </c>
       <c r="H627">
-        <v>2416130</v>
+        <v>2415534</v>
       </c>
       <c r="I627">
-        <v>399.95</v>
+        <v>399.94</v>
       </c>
       <c r="J627">
-        <v>38.59</v>
+        <v>38.57</v>
       </c>
       <c r="K627">
-        <v>16.84</v>
+        <v>16.82</v>
       </c>
       <c r="L627">
-        <v>355.84</v>
+        <v>355.81</v>
       </c>
       <c r="M627">
-        <v>38636537</v>
+        <v>38624166</v>
       </c>
       <c r="N627">
-        <v>6872875</v>
+        <v>6877198</v>
       </c>
       <c r="O627">
-        <v>3605418</v>
+        <v>3604111</v>
       </c>
       <c r="P627">
         <v>5212</v>
@@ -33627,46 +33627,46 @@
         <v>44651</v>
       </c>
       <c r="B628">
-        <v>892685</v>
+        <v>892242</v>
       </c>
       <c r="C628">
         <v>1723</v>
       </c>
       <c r="D628">
-        <v>369746</v>
+        <v>370108</v>
       </c>
       <c r="E628">
-        <v>168559</v>
+        <v>168482</v>
       </c>
       <c r="F628">
-        <v>7553247</v>
+        <v>7548038</v>
       </c>
       <c r="G628">
-        <v>6442398</v>
+        <v>6438790</v>
       </c>
       <c r="H628">
-        <v>2542341</v>
+        <v>2540724</v>
       </c>
       <c r="I628">
-        <v>407.99</v>
+        <v>407.97</v>
       </c>
       <c r="J628">
-        <v>35.52</v>
+        <v>35.5</v>
       </c>
       <c r="K628">
-        <v>16.53</v>
+        <v>16.51</v>
       </c>
       <c r="L628">
-        <v>359.81</v>
+        <v>359.77</v>
       </c>
       <c r="M628">
-        <v>35832416</v>
+        <v>35818429</v>
       </c>
       <c r="N628">
-        <v>6392639</v>
+        <v>6397324</v>
       </c>
       <c r="O628">
-        <v>3165209</v>
+        <v>3163825</v>
       </c>
       <c r="P628">
         <v>5213</v>
@@ -33683,46 +33683,46 @@
         <v>44681</v>
       </c>
       <c r="B629">
-        <v>877570</v>
+        <v>877095</v>
       </c>
       <c r="C629">
         <v>1430</v>
       </c>
       <c r="D629">
-        <v>304518</v>
+        <v>304709</v>
       </c>
       <c r="E629">
-        <v>125434</v>
+        <v>125343</v>
       </c>
       <c r="F629">
-        <v>6045368</v>
+        <v>6041681</v>
       </c>
       <c r="G629">
-        <v>4792485</v>
+        <v>4790100</v>
       </c>
       <c r="H629">
-        <v>1887960</v>
+        <v>1886936</v>
       </c>
       <c r="I629">
-        <v>404</v>
+        <v>403.98</v>
       </c>
       <c r="J629">
-        <v>33.89</v>
+        <v>33.87</v>
       </c>
       <c r="K629">
-        <v>17.4</v>
+        <v>17.38</v>
       </c>
       <c r="L629">
-        <v>363.47</v>
+        <v>363.43</v>
       </c>
       <c r="M629">
-        <v>33651738</v>
+        <v>33636726</v>
       </c>
       <c r="N629">
-        <v>5630884</v>
+        <v>5635760</v>
       </c>
       <c r="O629">
-        <v>2881911</v>
+        <v>2880436</v>
       </c>
       <c r="P629">
         <v>5218</v>
@@ -33739,46 +33739,46 @@
         <v>44712</v>
       </c>
       <c r="B630">
-        <v>859776</v>
+        <v>859355</v>
       </c>
       <c r="C630">
         <v>1349.6</v>
       </c>
       <c r="D630">
-        <v>312845</v>
+        <v>313024</v>
       </c>
       <c r="E630">
-        <v>125662</v>
+        <v>125577</v>
       </c>
       <c r="F630">
-        <v>5997619</v>
+        <v>5994282</v>
       </c>
       <c r="G630">
-        <v>4677136</v>
+        <v>4675798</v>
       </c>
       <c r="H630">
-        <v>1815689</v>
+        <v>1815114</v>
       </c>
       <c r="I630">
-        <v>397.16</v>
+        <v>397.15</v>
       </c>
       <c r="J630">
-        <v>32.6</v>
+        <v>32.57</v>
       </c>
       <c r="K630">
-        <v>17.41</v>
+        <v>17.39</v>
       </c>
       <c r="L630">
-        <v>367.93</v>
+        <v>367.89</v>
       </c>
       <c r="M630">
-        <v>31549861</v>
+        <v>31534275</v>
       </c>
       <c r="N630">
-        <v>5191575</v>
+        <v>5196630</v>
       </c>
       <c r="O630">
-        <v>2637028</v>
+        <v>2635468</v>
       </c>
       <c r="P630">
         <v>5258</v>
@@ -33795,46 +33795,46 @@
         <v>44742</v>
       </c>
       <c r="B631">
-        <v>937470</v>
+        <v>937326</v>
       </c>
       <c r="C631">
         <v>1297.8</v>
       </c>
       <c r="D631">
-        <v>327913</v>
+        <v>327883</v>
       </c>
       <c r="E631">
-        <v>106376</v>
+        <v>106319</v>
       </c>
       <c r="F631">
-        <v>5526924</v>
+        <v>5524780</v>
       </c>
       <c r="G631">
-        <v>4384756</v>
+        <v>4383369</v>
       </c>
       <c r="H631">
-        <v>1693004</v>
+        <v>1692387</v>
       </c>
       <c r="I631">
-        <v>394.65</v>
+        <v>394.63</v>
       </c>
       <c r="J631">
-        <v>31.58</v>
+        <v>31.55</v>
       </c>
       <c r="K631">
-        <v>16.95</v>
+        <v>16.92</v>
       </c>
       <c r="L631">
-        <v>372.8</v>
+        <v>372.77</v>
       </c>
       <c r="M631">
-        <v>29255661</v>
+        <v>29240217</v>
       </c>
       <c r="N631">
-        <v>4860886</v>
+        <v>4865517</v>
       </c>
       <c r="O631">
-        <v>2409354</v>
+        <v>2407841</v>
       </c>
       <c r="P631">
         <v>5238</v>
@@ -33843,7 +33843,7 @@
         <v>14084</v>
       </c>
       <c r="R631">
-        <v>320891</v>
+        <v>324999</v>
       </c>
     </row>
     <row r="632">
@@ -33851,55 +33851,55 @@
         <v>44773</v>
       </c>
       <c r="B632">
-        <v>1021327</v>
+        <v>1026178</v>
       </c>
       <c r="C632">
         <v>1442.9</v>
       </c>
       <c r="D632">
-        <v>358042</v>
+        <v>367178</v>
       </c>
       <c r="E632">
-        <v>117552</v>
+        <v>113875</v>
       </c>
       <c r="F632">
-        <v>6504507</v>
+        <v>6322433</v>
       </c>
       <c r="G632">
-        <v>4876905</v>
+        <v>4669006</v>
       </c>
       <c r="H632">
-        <v>1819116</v>
+        <v>1754749</v>
       </c>
       <c r="I632">
-        <v>382.34</v>
+        <v>384.03</v>
       </c>
       <c r="J632">
-        <v>30.92</v>
+        <v>30.83</v>
       </c>
       <c r="K632">
-        <v>16.52</v>
+        <v>16.42</v>
       </c>
       <c r="L632">
-        <v>377.38</v>
+        <v>377.44</v>
       </c>
       <c r="M632">
-        <v>27616897</v>
+        <v>27538757</v>
       </c>
       <c r="N632">
-        <v>4628157</v>
+        <v>4641868</v>
       </c>
       <c r="O632">
-        <v>2240481</v>
+        <v>2235451</v>
       </c>
       <c r="P632">
-        <v>5248</v>
+        <v>5246</v>
       </c>
       <c r="Q632">
-        <v>14114</v>
+        <v>14157</v>
       </c>
       <c r="R632">
-        <v>326070</v>
+        <v>331601</v>
       </c>
     </row>
     <row r="633">
@@ -33907,49 +33907,105 @@
         <v>44804</v>
       </c>
       <c r="B633">
-        <v>865850</v>
+        <v>885265</v>
+      </c>
+      <c r="C633">
+        <v>1399.5</v>
       </c>
       <c r="D633">
-        <v>342017</v>
+        <v>355160</v>
       </c>
       <c r="E633">
-        <v>133535</v>
+        <v>120804</v>
       </c>
       <c r="F633">
-        <v>6437868</v>
+        <v>6364213</v>
       </c>
       <c r="G633">
-        <v>5324132</v>
+        <v>5290199</v>
       </c>
       <c r="H633">
-        <v>1993716</v>
+        <v>2005846</v>
       </c>
       <c r="I633">
-        <v>385.59</v>
+        <v>389.97</v>
       </c>
       <c r="J633">
-        <v>30.55</v>
+        <v>30.28</v>
       </c>
       <c r="K633">
-        <v>15.78</v>
+        <v>15.63</v>
       </c>
       <c r="L633">
-        <v>382.21</v>
+        <v>382.63</v>
       </c>
       <c r="M633">
-        <v>26163163</v>
+        <v>26098703</v>
       </c>
       <c r="N633">
-        <v>4510335</v>
+        <v>4536583</v>
       </c>
       <c r="O633">
-        <v>2099735</v>
+        <v>2082153</v>
       </c>
       <c r="P633">
-        <v>5251</v>
+        <v>5247</v>
       </c>
       <c r="Q633">
-        <v>14120</v>
+        <v>14198</v>
+      </c>
+      <c r="R633">
+        <v>330337</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="2">
+        <v>44834</v>
+      </c>
+      <c r="B634">
+        <v>717451</v>
+      </c>
+      <c r="D634">
+        <v>285950</v>
+      </c>
+      <c r="E634">
+        <v>106802</v>
+      </c>
+      <c r="F634">
+        <v>5706132</v>
+      </c>
+      <c r="G634">
+        <v>4186917</v>
+      </c>
+      <c r="H634">
+        <v>1652775</v>
+      </c>
+      <c r="I634">
+        <v>403.8</v>
+      </c>
+      <c r="J634">
+        <v>29.44</v>
+      </c>
+      <c r="K634">
+        <v>15.42</v>
+      </c>
+      <c r="L634">
+        <v>387.52</v>
+      </c>
+      <c r="M634">
+        <v>25067483</v>
+      </c>
+      <c r="N634">
+        <v>4344346</v>
+      </c>
+      <c r="O634">
+        <v>1883339</v>
+      </c>
+      <c r="P634">
+        <v>5231</v>
+      </c>
+      <c r="Q634">
+        <v>14187</v>
       </c>
     </row>
   </sheetData>

--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R634"/>
+  <dimension ref="A1:R635"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4784,10 +4784,10 @@
         <v>210662</v>
       </c>
       <c r="F98">
-        <v>13886962</v>
+        <v>13886960</v>
       </c>
       <c r="G98">
-        <v>11076398</v>
+        <v>11076396</v>
       </c>
       <c r="H98">
         <v>904872</v>
@@ -4858,7 +4858,7 @@
         <v>79.84</v>
       </c>
       <c r="M99">
-        <v>8586182</v>
+        <v>8586181</v>
       </c>
       <c r="N99">
         <v>7675188</v>
@@ -4911,7 +4911,7 @@
         <v>80.49</v>
       </c>
       <c r="M100">
-        <v>8552555</v>
+        <v>8552554</v>
       </c>
       <c r="N100">
         <v>7655474</v>
@@ -5017,7 +5017,7 @@
         <v>81.34999999999999</v>
       </c>
       <c r="M102">
-        <v>8469981</v>
+        <v>8469980</v>
       </c>
       <c r="N102">
         <v>7605385</v>
@@ -5176,7 +5176,7 @@
         <v>82.49</v>
       </c>
       <c r="M105">
-        <v>8358622</v>
+        <v>8358621</v>
       </c>
       <c r="N105">
         <v>7677889</v>
@@ -5388,7 +5388,7 @@
         <v>83.67</v>
       </c>
       <c r="M109">
-        <v>8212243</v>
+        <v>8212242</v>
       </c>
       <c r="N109">
         <v>7568310</v>
@@ -6592,7 +6592,7 @@
         <v>9516801</v>
       </c>
       <c r="H132">
-        <v>935377</v>
+        <v>935373</v>
       </c>
       <c r="I132">
         <v>100.7</v>
@@ -6607,7 +6607,7 @@
         <v>99.05</v>
       </c>
       <c r="M132">
-        <v>14066924</v>
+        <v>14066920</v>
       </c>
       <c r="N132">
         <v>9919645</v>
@@ -6660,7 +6660,7 @@
         <v>99.53</v>
       </c>
       <c r="M133">
-        <v>14469376</v>
+        <v>14469372</v>
       </c>
       <c r="N133">
         <v>9992123</v>
@@ -6713,7 +6713,7 @@
         <v>100.2</v>
       </c>
       <c r="M134">
-        <v>14605011</v>
+        <v>14605008</v>
       </c>
       <c r="N134">
         <v>9946214</v>
@@ -6766,7 +6766,7 @@
         <v>100.72</v>
       </c>
       <c r="M135">
-        <v>14690448</v>
+        <v>14690445</v>
       </c>
       <c r="N135">
         <v>9890722</v>
@@ -6819,7 +6819,7 @@
         <v>101.31</v>
       </c>
       <c r="M136">
-        <v>14866907</v>
+        <v>14866904</v>
       </c>
       <c r="N136">
         <v>9919839</v>
@@ -6872,7 +6872,7 @@
         <v>101.83</v>
       </c>
       <c r="M137">
-        <v>14861425</v>
+        <v>14861422</v>
       </c>
       <c r="N137">
         <v>9793604</v>
@@ -6925,7 +6925,7 @@
         <v>102.25</v>
       </c>
       <c r="M138">
-        <v>14670817</v>
+        <v>14670814</v>
       </c>
       <c r="N138">
         <v>9476838</v>
@@ -6978,7 +6978,7 @@
         <v>102.61</v>
       </c>
       <c r="M139">
-        <v>14467042</v>
+        <v>14467039</v>
       </c>
       <c r="N139">
         <v>9214474</v>
@@ -7004,7 +7004,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823668</v>
+        <v>823674</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -7031,10 +7031,10 @@
         <v>103.08</v>
       </c>
       <c r="M140">
-        <v>14131822</v>
+        <v>14131819</v>
       </c>
       <c r="N140">
-        <v>8935504</v>
+        <v>8935510</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -7084,10 +7084,10 @@
         <v>103.59</v>
       </c>
       <c r="M141">
-        <v>13894119</v>
+        <v>13894115</v>
       </c>
       <c r="N141">
-        <v>8782019</v>
+        <v>8782025</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -7137,10 +7137,10 @@
         <v>104.14</v>
       </c>
       <c r="M142">
-        <v>13750025</v>
+        <v>13750022</v>
       </c>
       <c r="N142">
-        <v>8776287</v>
+        <v>8776293</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -7190,10 +7190,10 @@
         <v>104.75</v>
       </c>
       <c r="M143">
-        <v>13621894</v>
+        <v>13621891</v>
       </c>
       <c r="N143">
-        <v>8836729</v>
+        <v>8836735</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -7246,7 +7246,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042537</v>
+        <v>9042543</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -7299,7 +7299,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9395157</v>
+        <v>9395163</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -7352,7 +7352,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9716021</v>
+        <v>9716027</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -7405,7 +7405,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916852</v>
+        <v>9916858</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -7458,7 +7458,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176485</v>
+        <v>10176491</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -7511,7 +7511,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10402066</v>
+        <v>10402072</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -7564,7 +7564,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586466</v>
+        <v>10586472</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -7617,7 +7617,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834379</v>
+        <v>10834385</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -9442,7 +9442,7 @@
         <v>1488338</v>
       </c>
       <c r="D186">
-        <v>590429</v>
+        <v>590438</v>
       </c>
       <c r="E186">
         <v>232183</v>
@@ -9451,10 +9451,10 @@
         <v>10937527</v>
       </c>
       <c r="G186">
-        <v>9817905</v>
+        <v>9818082</v>
       </c>
       <c r="H186">
-        <v>1209134</v>
+        <v>1209143</v>
       </c>
       <c r="I186">
         <v>127.38</v>
@@ -9469,10 +9469,10 @@
         <v>125.18</v>
       </c>
       <c r="M186">
-        <v>13889924</v>
+        <v>13889933</v>
       </c>
       <c r="N186">
-        <v>8211234</v>
+        <v>8211243</v>
       </c>
       <c r="O186">
         <v>2510371</v>
@@ -9522,10 +9522,10 @@
         <v>125.48</v>
       </c>
       <c r="M187">
-        <v>13966157</v>
+        <v>13966166</v>
       </c>
       <c r="N187">
-        <v>8231225</v>
+        <v>8231234</v>
       </c>
       <c r="O187">
         <v>2506811</v>
@@ -9575,10 +9575,10 @@
         <v>125.89</v>
       </c>
       <c r="M188">
-        <v>14177390</v>
+        <v>14177399</v>
       </c>
       <c r="N188">
-        <v>8311011</v>
+        <v>8311020</v>
       </c>
       <c r="O188">
         <v>2528409</v>
@@ -9628,10 +9628,10 @@
         <v>126.37</v>
       </c>
       <c r="M189">
-        <v>14260698</v>
+        <v>14260707</v>
       </c>
       <c r="N189">
-        <v>8315371</v>
+        <v>8315380</v>
       </c>
       <c r="O189">
         <v>2521450</v>
@@ -9681,10 +9681,10 @@
         <v>126.79</v>
       </c>
       <c r="M190">
-        <v>14423025</v>
+        <v>14423034</v>
       </c>
       <c r="N190">
-        <v>8370952</v>
+        <v>8370961</v>
       </c>
       <c r="O190">
         <v>2540057</v>
@@ -9707,7 +9707,7 @@
         <v>1667576</v>
       </c>
       <c r="D191">
-        <v>573545</v>
+        <v>573544</v>
       </c>
       <c r="E191">
         <v>207675</v>
@@ -9716,10 +9716,10 @@
         <v>9966680</v>
       </c>
       <c r="G191">
-        <v>8670408</v>
+        <v>8670401</v>
       </c>
       <c r="H191">
-        <v>1073055</v>
+        <v>1073054</v>
       </c>
       <c r="I191">
         <v>128.59</v>
@@ -9734,10 +9734,10 @@
         <v>127.14</v>
       </c>
       <c r="M191">
-        <v>14528177</v>
+        <v>14528185</v>
       </c>
       <c r="N191">
-        <v>8368471</v>
+        <v>8368479</v>
       </c>
       <c r="O191">
         <v>2551088</v>
@@ -9787,10 +9787,10 @@
         <v>127.59</v>
       </c>
       <c r="M192">
-        <v>14532951</v>
+        <v>14532960</v>
       </c>
       <c r="N192">
-        <v>8290045</v>
+        <v>8290053</v>
       </c>
       <c r="O192">
         <v>2547710</v>
@@ -9840,10 +9840,10 @@
         <v>128.14</v>
       </c>
       <c r="M193">
-        <v>14761475</v>
+        <v>14761483</v>
       </c>
       <c r="N193">
-        <v>8365137</v>
+        <v>8365145</v>
       </c>
       <c r="O193">
         <v>2572358</v>
@@ -9872,7 +9872,7 @@
         <v>235008</v>
       </c>
       <c r="F194">
-        <v>14729052</v>
+        <v>14729050</v>
       </c>
       <c r="G194">
         <v>13027499</v>
@@ -9893,10 +9893,10 @@
         <v>128.88</v>
       </c>
       <c r="M194">
-        <v>14844156</v>
+        <v>14844164</v>
       </c>
       <c r="N194">
-        <v>8388024</v>
+        <v>8388032</v>
       </c>
       <c r="O194">
         <v>2570158</v>
@@ -9946,10 +9946,10 @@
         <v>129.54</v>
       </c>
       <c r="M195">
-        <v>14889086</v>
+        <v>14889094</v>
       </c>
       <c r="N195">
-        <v>8325496</v>
+        <v>8325504</v>
       </c>
       <c r="O195">
         <v>2571047</v>
@@ -9978,7 +9978,7 @@
         <v>219934</v>
       </c>
       <c r="F196">
-        <v>13097794</v>
+        <v>13097759</v>
       </c>
       <c r="G196">
         <v>11730221</v>
@@ -9999,10 +9999,10 @@
         <v>130.2</v>
       </c>
       <c r="M196">
-        <v>14967768</v>
+        <v>14967776</v>
       </c>
       <c r="N196">
-        <v>8319992</v>
+        <v>8320000</v>
       </c>
       <c r="O196">
         <v>2563121</v>
@@ -10052,10 +10052,10 @@
         <v>130.86</v>
       </c>
       <c r="M197">
-        <v>15089912</v>
+        <v>15089920</v>
       </c>
       <c r="N197">
-        <v>8341456</v>
+        <v>8341464</v>
       </c>
       <c r="O197">
         <v>2566576</v>
@@ -10105,10 +10105,10 @@
         <v>131.55</v>
       </c>
       <c r="M198">
-        <v>15141503</v>
+        <v>15141502</v>
       </c>
       <c r="N198">
-        <v>8330305</v>
+        <v>8330304</v>
       </c>
       <c r="O198">
         <v>2567377</v>
@@ -10137,7 +10137,7 @@
         <v>214623</v>
       </c>
       <c r="F199">
-        <v>10187306</v>
+        <v>10187307</v>
       </c>
       <c r="G199">
         <v>9028611</v>
@@ -10158,10 +10158,10 @@
         <v>132.19</v>
       </c>
       <c r="M199">
-        <v>15309047</v>
+        <v>15309046</v>
       </c>
       <c r="N199">
-        <v>8356553</v>
+        <v>8356552</v>
       </c>
       <c r="O199">
         <v>2587924</v>
@@ -10211,10 +10211,10 @@
         <v>132.87</v>
       </c>
       <c r="M200">
-        <v>15440657</v>
+        <v>15440656</v>
       </c>
       <c r="N200">
-        <v>8350572</v>
+        <v>8350571</v>
       </c>
       <c r="O200">
         <v>2599976</v>
@@ -10264,10 +10264,10 @@
         <v>133.48</v>
       </c>
       <c r="M201">
-        <v>15510431</v>
+        <v>15510430</v>
       </c>
       <c r="N201">
-        <v>8368315</v>
+        <v>8368314</v>
       </c>
       <c r="O201">
         <v>2605553</v>
@@ -10296,7 +10296,7 @@
         <v>211859</v>
       </c>
       <c r="F202">
-        <v>10071201</v>
+        <v>10071198</v>
       </c>
       <c r="G202">
         <v>8724780</v>
@@ -10317,10 +10317,10 @@
         <v>134.04</v>
       </c>
       <c r="M202">
-        <v>15673741</v>
+        <v>15673740</v>
       </c>
       <c r="N202">
-        <v>8381872</v>
+        <v>8381871</v>
       </c>
       <c r="O202">
         <v>2635467</v>
@@ -10349,7 +10349,7 @@
         <v>223173</v>
       </c>
       <c r="F203">
-        <v>9851451</v>
+        <v>9851440</v>
       </c>
       <c r="G203">
         <v>8695175</v>
@@ -11877,7 +11877,7 @@
         <v>32598</v>
       </c>
       <c r="B232">
-        <v>1361143</v>
+        <v>1361141</v>
       </c>
       <c r="D232">
         <v>652549</v>
@@ -11886,7 +11886,7 @@
         <v>176192</v>
       </c>
       <c r="F232">
-        <v>11589066</v>
+        <v>11589058</v>
       </c>
       <c r="G232">
         <v>10451849</v>
@@ -33459,28 +33459,28 @@
         <v>44561</v>
       </c>
       <c r="B625">
-        <v>1249531</v>
+        <v>1247376</v>
       </c>
       <c r="C625">
         <v>1632.8</v>
       </c>
       <c r="D625">
-        <v>414871</v>
+        <v>414843</v>
       </c>
       <c r="E625">
-        <v>182182</v>
+        <v>182033</v>
       </c>
       <c r="F625">
-        <v>7669547</v>
+        <v>7658471</v>
       </c>
       <c r="G625">
-        <v>6098061</v>
+        <v>6097968</v>
       </c>
       <c r="H625">
-        <v>2192522</v>
+        <v>2192492</v>
       </c>
       <c r="I625">
-        <v>376.43</v>
+        <v>376.45</v>
       </c>
       <c r="J625">
         <v>40.31</v>
@@ -33492,13 +33492,13 @@
         <v>349.78</v>
       </c>
       <c r="M625">
-        <v>44260461</v>
+        <v>44260432</v>
       </c>
       <c r="N625">
-        <v>7631632</v>
+        <v>7631604</v>
       </c>
       <c r="O625">
-        <v>4742095</v>
+        <v>4741946</v>
       </c>
       <c r="P625">
         <v>5237</v>
@@ -33515,28 +33515,28 @@
         <v>44592</v>
       </c>
       <c r="B626">
-        <v>1413668</v>
+        <v>1411078</v>
       </c>
       <c r="C626">
         <v>1917.5</v>
       </c>
       <c r="D626">
-        <v>529876</v>
+        <v>529855</v>
       </c>
       <c r="E626">
-        <v>177774</v>
+        <v>177702</v>
       </c>
       <c r="F626">
-        <v>9153312</v>
+        <v>9141591</v>
       </c>
       <c r="G626">
-        <v>7008471</v>
+        <v>7008417</v>
       </c>
       <c r="H626">
-        <v>2634696</v>
+        <v>2634682</v>
       </c>
       <c r="I626">
-        <v>390.24</v>
+        <v>390.26</v>
       </c>
       <c r="J626">
         <v>40.18</v>
@@ -33548,13 +33548,13 @@
         <v>352.67</v>
       </c>
       <c r="M626">
-        <v>41276789</v>
+        <v>41276745</v>
       </c>
       <c r="N626">
-        <v>7250663</v>
+        <v>7250614</v>
       </c>
       <c r="O626">
-        <v>4098103</v>
+        <v>4097882</v>
       </c>
       <c r="P626">
         <v>5219</v>
@@ -33571,28 +33571,28 @@
         <v>44620</v>
       </c>
       <c r="B627">
-        <v>905143</v>
+        <v>903307</v>
       </c>
       <c r="C627">
         <v>1898.8</v>
       </c>
       <c r="D627">
-        <v>392661</v>
+        <v>392635</v>
       </c>
       <c r="E627">
-        <v>139214</v>
+        <v>139177</v>
       </c>
       <c r="F627">
-        <v>7685163</v>
+        <v>7675337</v>
       </c>
       <c r="G627">
-        <v>6243758</v>
+        <v>6243755</v>
       </c>
       <c r="H627">
-        <v>2415534</v>
+        <v>2415529</v>
       </c>
       <c r="I627">
-        <v>399.94</v>
+        <v>399.95</v>
       </c>
       <c r="J627">
         <v>38.57</v>
@@ -33601,16 +33601,16 @@
         <v>16.82</v>
       </c>
       <c r="L627">
-        <v>355.81</v>
+        <v>355.82</v>
       </c>
       <c r="M627">
-        <v>38624166</v>
+        <v>38624118</v>
       </c>
       <c r="N627">
-        <v>6877198</v>
+        <v>6877123</v>
       </c>
       <c r="O627">
-        <v>3604111</v>
+        <v>3603853</v>
       </c>
       <c r="P627">
         <v>5212</v>
@@ -33627,28 +33627,28 @@
         <v>44651</v>
       </c>
       <c r="B628">
-        <v>892242</v>
+        <v>890106</v>
       </c>
       <c r="C628">
         <v>1723</v>
       </c>
       <c r="D628">
-        <v>370108</v>
+        <v>370087</v>
       </c>
       <c r="E628">
-        <v>168482</v>
+        <v>168457</v>
       </c>
       <c r="F628">
-        <v>7548038</v>
+        <v>7538477</v>
       </c>
       <c r="G628">
-        <v>6438790</v>
+        <v>6438750</v>
       </c>
       <c r="H628">
-        <v>2540724</v>
+        <v>2540715</v>
       </c>
       <c r="I628">
-        <v>407.97</v>
+        <v>407.98</v>
       </c>
       <c r="J628">
         <v>35.5</v>
@@ -33657,16 +33657,16 @@
         <v>16.51</v>
       </c>
       <c r="L628">
-        <v>359.77</v>
+        <v>359.78</v>
       </c>
       <c r="M628">
-        <v>35818429</v>
+        <v>35818370</v>
       </c>
       <c r="N628">
-        <v>6397324</v>
+        <v>6397228</v>
       </c>
       <c r="O628">
-        <v>3163825</v>
+        <v>3163542</v>
       </c>
       <c r="P628">
         <v>5213</v>
@@ -33683,28 +33683,28 @@
         <v>44681</v>
       </c>
       <c r="B629">
-        <v>877095</v>
+        <v>874137</v>
       </c>
       <c r="C629">
         <v>1430</v>
       </c>
       <c r="D629">
-        <v>304709</v>
+        <v>304699</v>
       </c>
       <c r="E629">
-        <v>125343</v>
+        <v>125345</v>
       </c>
       <c r="F629">
-        <v>6041681</v>
+        <v>6032730</v>
       </c>
       <c r="G629">
-        <v>4790100</v>
+        <v>4790066</v>
       </c>
       <c r="H629">
-        <v>1886936</v>
+        <v>1886923</v>
       </c>
       <c r="I629">
-        <v>403.98</v>
+        <v>403.99</v>
       </c>
       <c r="J629">
         <v>33.87</v>
@@ -33716,13 +33716,13 @@
         <v>363.43</v>
       </c>
       <c r="M629">
-        <v>33636726</v>
+        <v>33636655</v>
       </c>
       <c r="N629">
-        <v>5635760</v>
+        <v>5635654</v>
       </c>
       <c r="O629">
-        <v>2880436</v>
+        <v>2880155</v>
       </c>
       <c r="P629">
         <v>5218</v>
@@ -33772,13 +33772,13 @@
         <v>367.89</v>
       </c>
       <c r="M630">
-        <v>31534275</v>
+        <v>31534204</v>
       </c>
       <c r="N630">
-        <v>5196630</v>
+        <v>5196524</v>
       </c>
       <c r="O630">
-        <v>2635468</v>
+        <v>2635187</v>
       </c>
       <c r="P630">
         <v>5258</v>
@@ -33828,13 +33828,13 @@
         <v>372.77</v>
       </c>
       <c r="M631">
-        <v>29240217</v>
+        <v>29240146</v>
       </c>
       <c r="N631">
-        <v>4865517</v>
+        <v>4865411</v>
       </c>
       <c r="O631">
-        <v>2407841</v>
+        <v>2407560</v>
       </c>
       <c r="P631">
         <v>5238</v>
@@ -33851,31 +33851,31 @@
         <v>44773</v>
       </c>
       <c r="B632">
-        <v>1026178</v>
+        <v>1026150</v>
       </c>
       <c r="C632">
         <v>1442.9</v>
       </c>
       <c r="D632">
-        <v>367178</v>
+        <v>367190</v>
       </c>
       <c r="E632">
-        <v>113875</v>
+        <v>113474</v>
       </c>
       <c r="F632">
-        <v>6322433</v>
+        <v>6320919</v>
       </c>
       <c r="G632">
-        <v>4669006</v>
+        <v>4667208</v>
       </c>
       <c r="H632">
-        <v>1754749</v>
+        <v>1753875</v>
       </c>
       <c r="I632">
-        <v>384.03</v>
+        <v>383.98</v>
       </c>
       <c r="J632">
-        <v>30.83</v>
+        <v>30.82</v>
       </c>
       <c r="K632">
         <v>16.42</v>
@@ -33884,13 +33884,13 @@
         <v>377.44</v>
       </c>
       <c r="M632">
-        <v>27538757</v>
+        <v>27537812</v>
       </c>
       <c r="N632">
-        <v>4641868</v>
+        <v>4641774</v>
       </c>
       <c r="O632">
-        <v>2235451</v>
+        <v>2234769</v>
       </c>
       <c r="P632">
         <v>5246</v>
@@ -33899,7 +33899,7 @@
         <v>14157</v>
       </c>
       <c r="R632">
-        <v>331601</v>
+        <v>336811</v>
       </c>
     </row>
     <row r="633">
@@ -33907,31 +33907,31 @@
         <v>44804</v>
       </c>
       <c r="B633">
-        <v>885265</v>
+        <v>885169</v>
       </c>
       <c r="C633">
         <v>1399.5</v>
       </c>
       <c r="D633">
-        <v>355160</v>
+        <v>355131</v>
       </c>
       <c r="E633">
-        <v>120804</v>
+        <v>120402</v>
       </c>
       <c r="F633">
-        <v>6364213</v>
+        <v>6362974</v>
       </c>
       <c r="G633">
-        <v>5290199</v>
+        <v>5288548</v>
       </c>
       <c r="H633">
-        <v>2005846</v>
+        <v>2005155</v>
       </c>
       <c r="I633">
-        <v>389.97</v>
+        <v>389.96</v>
       </c>
       <c r="J633">
-        <v>30.28</v>
+        <v>30.26</v>
       </c>
       <c r="K633">
         <v>15.63</v>
@@ -33940,22 +33940,22 @@
         <v>382.63</v>
       </c>
       <c r="M633">
-        <v>26098703</v>
+        <v>26097068</v>
       </c>
       <c r="N633">
-        <v>4536583</v>
+        <v>4536460</v>
       </c>
       <c r="O633">
-        <v>2082153</v>
+        <v>2081069</v>
       </c>
       <c r="P633">
-        <v>5247</v>
+        <v>5261</v>
       </c>
       <c r="Q633">
-        <v>14198</v>
+        <v>14201</v>
       </c>
       <c r="R633">
-        <v>330337</v>
+        <v>342774</v>
       </c>
     </row>
     <row r="634">
@@ -33963,28 +33963,31 @@
         <v>44834</v>
       </c>
       <c r="B634">
-        <v>717451</v>
+        <v>718568</v>
+      </c>
+      <c r="C634">
+        <v>1218.6</v>
       </c>
       <c r="D634">
-        <v>285950</v>
+        <v>286050</v>
       </c>
       <c r="E634">
-        <v>106802</v>
+        <v>106776</v>
       </c>
       <c r="F634">
-        <v>5706132</v>
+        <v>5707588</v>
       </c>
       <c r="G634">
-        <v>4186917</v>
+        <v>4188330</v>
       </c>
       <c r="H634">
-        <v>1652775</v>
+        <v>1653091</v>
       </c>
       <c r="I634">
-        <v>403.8</v>
+        <v>403.73</v>
       </c>
       <c r="J634">
-        <v>29.44</v>
+        <v>29.42</v>
       </c>
       <c r="K634">
         <v>15.42</v>
@@ -33993,19 +33996,39 @@
         <v>387.52</v>
       </c>
       <c r="M634">
-        <v>25067483</v>
+        <v>25066164</v>
       </c>
       <c r="N634">
-        <v>4344346</v>
+        <v>4344323</v>
       </c>
       <c r="O634">
-        <v>1883339</v>
+        <v>1882229</v>
       </c>
       <c r="P634">
-        <v>5231</v>
+        <v>5261</v>
       </c>
       <c r="Q634">
-        <v>14187</v>
+        <v>14194</v>
+      </c>
+      <c r="R634">
+        <v>348166</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="2">
+        <v>44865</v>
+      </c>
+      <c r="C635">
+        <v>1222.3</v>
+      </c>
+      <c r="P635">
+        <v>5254</v>
+      </c>
+      <c r="Q635">
+        <v>14223</v>
+      </c>
+      <c r="R635">
+        <v>348475</v>
       </c>
     </row>
   </sheetData>

--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R635"/>
+  <dimension ref="A1:R636"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33739,28 +33739,28 @@
         <v>44712</v>
       </c>
       <c r="B630">
-        <v>859355</v>
+        <v>858243</v>
       </c>
       <c r="C630">
         <v>1349.6</v>
       </c>
       <c r="D630">
-        <v>313024</v>
+        <v>313021</v>
       </c>
       <c r="E630">
-        <v>125577</v>
+        <v>125552</v>
       </c>
       <c r="F630">
-        <v>5994282</v>
+        <v>5982003</v>
       </c>
       <c r="G630">
-        <v>4675798</v>
+        <v>4675812</v>
       </c>
       <c r="H630">
-        <v>1815114</v>
+        <v>1815116</v>
       </c>
       <c r="I630">
-        <v>397.15</v>
+        <v>397.16</v>
       </c>
       <c r="J630">
         <v>32.57</v>
@@ -33772,13 +33772,13 @@
         <v>367.89</v>
       </c>
       <c r="M630">
-        <v>31534204</v>
+        <v>31534206</v>
       </c>
       <c r="N630">
-        <v>5196524</v>
+        <v>5196521</v>
       </c>
       <c r="O630">
-        <v>2635187</v>
+        <v>2635162</v>
       </c>
       <c r="P630">
         <v>5258</v>
@@ -33795,28 +33795,28 @@
         <v>44742</v>
       </c>
       <c r="B631">
-        <v>937326</v>
+        <v>936213</v>
       </c>
       <c r="C631">
         <v>1297.8</v>
       </c>
       <c r="D631">
-        <v>327883</v>
+        <v>327875</v>
       </c>
       <c r="E631">
-        <v>106319</v>
+        <v>106283</v>
       </c>
       <c r="F631">
-        <v>5524780</v>
+        <v>5513046</v>
       </c>
       <c r="G631">
-        <v>4383369</v>
+        <v>4383367</v>
       </c>
       <c r="H631">
-        <v>1692387</v>
+        <v>1692379</v>
       </c>
       <c r="I631">
-        <v>394.63</v>
+        <v>394.65</v>
       </c>
       <c r="J631">
         <v>31.55</v>
@@ -33828,13 +33828,13 @@
         <v>372.77</v>
       </c>
       <c r="M631">
-        <v>29240146</v>
+        <v>29240140</v>
       </c>
       <c r="N631">
-        <v>4865411</v>
+        <v>4865400</v>
       </c>
       <c r="O631">
-        <v>2407560</v>
+        <v>2407499</v>
       </c>
       <c r="P631">
         <v>5238</v>
@@ -33863,7 +33863,7 @@
         <v>113474</v>
       </c>
       <c r="F632">
-        <v>6320919</v>
+        <v>6320944</v>
       </c>
       <c r="G632">
         <v>4667208</v>
@@ -33884,13 +33884,13 @@
         <v>377.44</v>
       </c>
       <c r="M632">
-        <v>27537812</v>
+        <v>27537806</v>
       </c>
       <c r="N632">
-        <v>4641774</v>
+        <v>4641763</v>
       </c>
       <c r="O632">
-        <v>2234769</v>
+        <v>2234708</v>
       </c>
       <c r="P632">
         <v>5246</v>
@@ -33907,46 +33907,46 @@
         <v>44804</v>
       </c>
       <c r="B633">
-        <v>885169</v>
+        <v>888742</v>
       </c>
       <c r="C633">
         <v>1399.5</v>
       </c>
       <c r="D633">
-        <v>355131</v>
+        <v>356591</v>
       </c>
       <c r="E633">
-        <v>120402</v>
+        <v>118733</v>
       </c>
       <c r="F633">
-        <v>6362974</v>
+        <v>6337806</v>
       </c>
       <c r="G633">
-        <v>5288548</v>
+        <v>5273207</v>
       </c>
       <c r="H633">
-        <v>2005155</v>
+        <v>2003703</v>
       </c>
       <c r="I633">
-        <v>389.96</v>
+        <v>390.7</v>
       </c>
       <c r="J633">
-        <v>30.26</v>
+        <v>30.24</v>
       </c>
       <c r="K633">
-        <v>15.63</v>
+        <v>15.62</v>
       </c>
       <c r="L633">
-        <v>382.63</v>
+        <v>382.69</v>
       </c>
       <c r="M633">
-        <v>26097068</v>
+        <v>26095610</v>
       </c>
       <c r="N633">
-        <v>4536460</v>
+        <v>4537909</v>
       </c>
       <c r="O633">
-        <v>2081069</v>
+        <v>2079339</v>
       </c>
       <c r="P633">
         <v>5261</v>
@@ -33963,72 +33963,122 @@
         <v>44834</v>
       </c>
       <c r="B634">
-        <v>718568</v>
+        <v>879662.6666666666</v>
       </c>
       <c r="C634">
-        <v>1218.6</v>
+        <v>1353.666666666667</v>
       </c>
       <c r="D634">
-        <v>286050</v>
+        <v>336686</v>
       </c>
       <c r="E634">
-        <v>106776</v>
+        <v>111378</v>
       </c>
       <c r="F634">
-        <v>5707588</v>
+        <v>6115849.666666667</v>
       </c>
       <c r="G634">
-        <v>4188330</v>
+        <v>4705372</v>
       </c>
       <c r="H634">
-        <v>1653091</v>
+        <v>1803645</v>
       </c>
       <c r="I634">
-        <v>403.73</v>
+        <v>393.14</v>
       </c>
       <c r="J634">
-        <v>29.42</v>
+        <v>30.12666666666667</v>
       </c>
       <c r="K634">
-        <v>15.42</v>
+        <v>15.81666666666667</v>
       </c>
       <c r="L634">
-        <v>387.52</v>
+        <v>382.59</v>
       </c>
       <c r="M634">
-        <v>25066164</v>
+        <v>26232795.66666667</v>
       </c>
       <c r="N634">
-        <v>4344323</v>
+        <v>4508557</v>
       </c>
       <c r="O634">
-        <v>1882229</v>
+        <v>2063232.333333333</v>
       </c>
       <c r="P634">
-        <v>5261</v>
+        <v>5260</v>
       </c>
       <c r="Q634">
-        <v>14194</v>
+        <v>14186</v>
       </c>
       <c r="R634">
-        <v>348166</v>
+        <v>342583.6666666667</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="2">
         <v>44865</v>
       </c>
+      <c r="B635">
+        <v>826695</v>
+      </c>
       <c r="C635">
         <v>1222.3</v>
       </c>
+      <c r="D635">
+        <v>294264</v>
+      </c>
+      <c r="E635">
+        <v>114228</v>
+      </c>
+      <c r="F635">
+        <v>5627721</v>
+      </c>
+      <c r="G635">
+        <v>4359116</v>
+      </c>
+      <c r="H635">
+        <v>1732508</v>
+      </c>
+      <c r="I635">
+        <v>407.33</v>
+      </c>
+      <c r="J635">
+        <v>29.88</v>
+      </c>
+      <c r="K635">
+        <v>15.06</v>
+      </c>
+      <c r="L635">
+        <v>392.77</v>
+      </c>
+      <c r="M635">
+        <v>24541990</v>
+      </c>
+      <c r="N635">
+        <v>4286306</v>
+      </c>
+      <c r="O635">
+        <v>1683902</v>
+      </c>
       <c r="P635">
-        <v>5254</v>
+        <v>5273</v>
       </c>
       <c r="Q635">
-        <v>14223</v>
+        <v>14231</v>
       </c>
       <c r="R635">
         <v>348475</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="2">
+        <v>44895</v>
+      </c>
+      <c r="P636">
+        <v>5284</v>
+      </c>
+      <c r="Q636">
+        <v>14263</v>
       </c>
     </row>
   </sheetData>

--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -34130,11 +34130,56 @@
       <c r="A637" s="2">
         <v>44926</v>
       </c>
+      <c r="B637">
+        <v>998172.3333333334</v>
+      </c>
+      <c r="C637">
+        <v>1375.4</v>
+      </c>
+      <c r="D637">
+        <v>370949.6666666667</v>
+      </c>
+      <c r="E637">
+        <v>113731.3333333333</v>
+      </c>
+      <c r="F637">
+        <v>5970677.333333333</v>
+      </c>
+      <c r="G637">
+        <v>4782585.333333333</v>
+      </c>
+      <c r="H637">
+        <v>1947630.333333333</v>
+      </c>
+      <c r="I637">
+        <v>415.3933333333333</v>
+      </c>
+      <c r="J637">
+        <v>30.54333333333333</v>
+      </c>
+      <c r="K637">
+        <v>14.60333333333333</v>
+      </c>
+      <c r="L637">
+        <v>397.1166666666667</v>
+      </c>
+      <c r="M637">
+        <v>24341787.66666667</v>
+      </c>
+      <c r="N637">
+        <v>4322390</v>
+      </c>
+      <c r="O637">
+        <v>1596513</v>
+      </c>
       <c r="P637">
-        <v>5269</v>
+        <v>5277</v>
       </c>
       <c r="Q637">
-        <v>14297</v>
+        <v>14270.33333333333</v>
+      </c>
+      <c r="R637">
+        <v>352213</v>
       </c>
     </row>
   </sheetData>

--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R636"/>
+  <dimension ref="A1:R637"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6592,7 +6592,7 @@
         <v>9516801</v>
       </c>
       <c r="H132">
-        <v>935373</v>
+        <v>935372</v>
       </c>
       <c r="I132">
         <v>100.7</v>
@@ -6607,7 +6607,7 @@
         <v>99.05</v>
       </c>
       <c r="M132">
-        <v>14066920</v>
+        <v>14066919</v>
       </c>
       <c r="N132">
         <v>9919645</v>
@@ -6660,7 +6660,7 @@
         <v>99.53</v>
       </c>
       <c r="M133">
-        <v>14469372</v>
+        <v>14469371</v>
       </c>
       <c r="N133">
         <v>9992123</v>
@@ -6713,7 +6713,7 @@
         <v>100.2</v>
       </c>
       <c r="M134">
-        <v>14605008</v>
+        <v>14605007</v>
       </c>
       <c r="N134">
         <v>9946214</v>
@@ -6766,7 +6766,7 @@
         <v>100.72</v>
       </c>
       <c r="M135">
-        <v>14690445</v>
+        <v>14690444</v>
       </c>
       <c r="N135">
         <v>9890722</v>
@@ -6819,7 +6819,7 @@
         <v>101.31</v>
       </c>
       <c r="M136">
-        <v>14866904</v>
+        <v>14866903</v>
       </c>
       <c r="N136">
         <v>9919839</v>
@@ -6872,7 +6872,7 @@
         <v>101.83</v>
       </c>
       <c r="M137">
-        <v>14861422</v>
+        <v>14861421</v>
       </c>
       <c r="N137">
         <v>9793604</v>
@@ -6925,7 +6925,7 @@
         <v>102.25</v>
       </c>
       <c r="M138">
-        <v>14670814</v>
+        <v>14670813</v>
       </c>
       <c r="N138">
         <v>9476838</v>
@@ -6978,7 +6978,7 @@
         <v>102.61</v>
       </c>
       <c r="M139">
-        <v>14467039</v>
+        <v>14467038</v>
       </c>
       <c r="N139">
         <v>9214474</v>
@@ -7004,7 +7004,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823674</v>
+        <v>823681</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -7031,10 +7031,10 @@
         <v>103.08</v>
       </c>
       <c r="M140">
-        <v>14131819</v>
+        <v>14131818</v>
       </c>
       <c r="N140">
-        <v>8935510</v>
+        <v>8935517</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -7084,10 +7084,10 @@
         <v>103.59</v>
       </c>
       <c r="M141">
-        <v>13894115</v>
+        <v>13894114</v>
       </c>
       <c r="N141">
-        <v>8782025</v>
+        <v>8782032</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -7137,10 +7137,10 @@
         <v>104.14</v>
       </c>
       <c r="M142">
-        <v>13750022</v>
+        <v>13750021</v>
       </c>
       <c r="N142">
-        <v>8776293</v>
+        <v>8776300</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -7190,10 +7190,10 @@
         <v>104.75</v>
       </c>
       <c r="M143">
-        <v>13621891</v>
+        <v>13621890</v>
       </c>
       <c r="N143">
-        <v>8836735</v>
+        <v>8836742</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -7246,7 +7246,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042543</v>
+        <v>9042550</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -7299,7 +7299,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9395163</v>
+        <v>9395170</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -7352,7 +7352,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9716027</v>
+        <v>9716034</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -7405,7 +7405,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916858</v>
+        <v>9916865</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -7458,7 +7458,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176491</v>
+        <v>10176498</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -7511,7 +7511,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10402072</v>
+        <v>10402079</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -7564,7 +7564,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586472</v>
+        <v>10586479</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -7617,7 +7617,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834385</v>
+        <v>10834392</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -9442,7 +9442,7 @@
         <v>1488338</v>
       </c>
       <c r="D186">
-        <v>590438</v>
+        <v>590435</v>
       </c>
       <c r="E186">
         <v>232183</v>
@@ -9451,10 +9451,10 @@
         <v>10937527</v>
       </c>
       <c r="G186">
-        <v>9818082</v>
+        <v>9818029</v>
       </c>
       <c r="H186">
-        <v>1209143</v>
+        <v>1209142</v>
       </c>
       <c r="I186">
         <v>127.38</v>
@@ -9469,10 +9469,10 @@
         <v>125.18</v>
       </c>
       <c r="M186">
-        <v>13889933</v>
+        <v>13889931</v>
       </c>
       <c r="N186">
-        <v>8211243</v>
+        <v>8211240</v>
       </c>
       <c r="O186">
         <v>2510371</v>
@@ -9522,10 +9522,10 @@
         <v>125.48</v>
       </c>
       <c r="M187">
-        <v>13966166</v>
+        <v>13966164</v>
       </c>
       <c r="N187">
-        <v>8231234</v>
+        <v>8231231</v>
       </c>
       <c r="O187">
         <v>2506811</v>
@@ -9575,10 +9575,10 @@
         <v>125.89</v>
       </c>
       <c r="M188">
-        <v>14177399</v>
+        <v>14177398</v>
       </c>
       <c r="N188">
-        <v>8311020</v>
+        <v>8311017</v>
       </c>
       <c r="O188">
         <v>2528409</v>
@@ -9628,10 +9628,10 @@
         <v>126.37</v>
       </c>
       <c r="M189">
-        <v>14260707</v>
+        <v>14260705</v>
       </c>
       <c r="N189">
-        <v>8315380</v>
+        <v>8315377</v>
       </c>
       <c r="O189">
         <v>2521450</v>
@@ -9681,10 +9681,10 @@
         <v>126.79</v>
       </c>
       <c r="M190">
-        <v>14423034</v>
+        <v>14423032</v>
       </c>
       <c r="N190">
-        <v>8370961</v>
+        <v>8370958</v>
       </c>
       <c r="O190">
         <v>2540057</v>
@@ -9716,7 +9716,7 @@
         <v>9966680</v>
       </c>
       <c r="G191">
-        <v>8670401</v>
+        <v>8670399</v>
       </c>
       <c r="H191">
         <v>1073054</v>
@@ -9734,10 +9734,10 @@
         <v>127.14</v>
       </c>
       <c r="M191">
-        <v>14528185</v>
+        <v>14528183</v>
       </c>
       <c r="N191">
-        <v>8368479</v>
+        <v>8368476</v>
       </c>
       <c r="O191">
         <v>2551088</v>
@@ -9787,10 +9787,10 @@
         <v>127.59</v>
       </c>
       <c r="M192">
-        <v>14532960</v>
+        <v>14532958</v>
       </c>
       <c r="N192">
-        <v>8290053</v>
+        <v>8290050</v>
       </c>
       <c r="O192">
         <v>2547710</v>
@@ -9840,10 +9840,10 @@
         <v>128.14</v>
       </c>
       <c r="M193">
-        <v>14761483</v>
+        <v>14761482</v>
       </c>
       <c r="N193">
-        <v>8365145</v>
+        <v>8365142</v>
       </c>
       <c r="O193">
         <v>2572358</v>
@@ -9872,7 +9872,7 @@
         <v>235008</v>
       </c>
       <c r="F194">
-        <v>14729050</v>
+        <v>14729049</v>
       </c>
       <c r="G194">
         <v>13027499</v>
@@ -9893,10 +9893,10 @@
         <v>128.88</v>
       </c>
       <c r="M194">
-        <v>14844164</v>
+        <v>14844162</v>
       </c>
       <c r="N194">
-        <v>8388032</v>
+        <v>8388029</v>
       </c>
       <c r="O194">
         <v>2570158</v>
@@ -9946,10 +9946,10 @@
         <v>129.54</v>
       </c>
       <c r="M195">
-        <v>14889094</v>
+        <v>14889093</v>
       </c>
       <c r="N195">
-        <v>8325504</v>
+        <v>8325501</v>
       </c>
       <c r="O195">
         <v>2571047</v>
@@ -9978,7 +9978,7 @@
         <v>219934</v>
       </c>
       <c r="F196">
-        <v>13097759</v>
+        <v>13097772</v>
       </c>
       <c r="G196">
         <v>11730221</v>
@@ -9999,10 +9999,10 @@
         <v>130.2</v>
       </c>
       <c r="M196">
-        <v>14967776</v>
+        <v>14967775</v>
       </c>
       <c r="N196">
-        <v>8320000</v>
+        <v>8319997</v>
       </c>
       <c r="O196">
         <v>2563121</v>
@@ -10052,10 +10052,10 @@
         <v>130.86</v>
       </c>
       <c r="M197">
-        <v>15089920</v>
+        <v>15089919</v>
       </c>
       <c r="N197">
-        <v>8341464</v>
+        <v>8341461</v>
       </c>
       <c r="O197">
         <v>2566576</v>
@@ -10134,10 +10134,10 @@
         <v>525103</v>
       </c>
       <c r="E199">
-        <v>214623</v>
+        <v>214624</v>
       </c>
       <c r="F199">
-        <v>10187307</v>
+        <v>10187308</v>
       </c>
       <c r="G199">
         <v>9028611</v>
@@ -10164,7 +10164,7 @@
         <v>8356552</v>
       </c>
       <c r="O199">
-        <v>2587924</v>
+        <v>2587925</v>
       </c>
       <c r="P199">
         <v>3887</v>
@@ -10217,7 +10217,7 @@
         <v>8350571</v>
       </c>
       <c r="O200">
-        <v>2599976</v>
+        <v>2599977</v>
       </c>
       <c r="P200">
         <v>3886</v>
@@ -10240,7 +10240,7 @@
         <v>649662</v>
       </c>
       <c r="E201">
-        <v>210442</v>
+        <v>210441</v>
       </c>
       <c r="F201">
         <v>10189513</v>
@@ -10296,7 +10296,7 @@
         <v>211859</v>
       </c>
       <c r="F202">
-        <v>10071198</v>
+        <v>10071195</v>
       </c>
       <c r="G202">
         <v>8724780</v>
@@ -10349,7 +10349,7 @@
         <v>223173</v>
       </c>
       <c r="F203">
-        <v>9851440</v>
+        <v>9851431</v>
       </c>
       <c r="G203">
         <v>8695175</v>
@@ -10800,7 +10800,7 @@
         <v>7873641</v>
       </c>
       <c r="O211">
-        <v>2671976</v>
+        <v>2671975</v>
       </c>
       <c r="P211">
         <v>3950</v>
@@ -10853,7 +10853,7 @@
         <v>7781838</v>
       </c>
       <c r="O212">
-        <v>2637235</v>
+        <v>2637234</v>
       </c>
       <c r="P212">
         <v>3967</v>
@@ -11886,7 +11886,7 @@
         <v>176192</v>
       </c>
       <c r="F232">
-        <v>11589058</v>
+        <v>11589052</v>
       </c>
       <c r="G232">
         <v>10451849</v>
@@ -33925,7 +33925,7 @@
         <v>5273207</v>
       </c>
       <c r="H633">
-        <v>2003703</v>
+        <v>2016703</v>
       </c>
       <c r="I633">
         <v>390.7</v>
@@ -33940,7 +33940,7 @@
         <v>382.69</v>
       </c>
       <c r="M633">
-        <v>26095610</v>
+        <v>26108610</v>
       </c>
       <c r="N633">
         <v>4537909</v>
@@ -33963,55 +33963,55 @@
         <v>44834</v>
       </c>
       <c r="B634">
-        <v>879662.6666666666</v>
+        <v>733018</v>
       </c>
       <c r="C634">
-        <v>1353.666666666667</v>
+        <v>1218.6</v>
       </c>
       <c r="D634">
-        <v>336686</v>
+        <v>288095</v>
       </c>
       <c r="E634">
-        <v>111378</v>
+        <v>102816</v>
       </c>
       <c r="F634">
-        <v>6115849.666666667</v>
+        <v>5707657</v>
       </c>
       <c r="G634">
-        <v>4705372</v>
+        <v>4191883</v>
       </c>
       <c r="H634">
-        <v>1803645</v>
+        <v>1657330</v>
       </c>
       <c r="I634">
-        <v>393.14</v>
+        <v>404.1</v>
       </c>
       <c r="J634">
-        <v>30.12666666666667</v>
+        <v>29.33</v>
       </c>
       <c r="K634">
-        <v>15.81666666666667</v>
+        <v>15.41</v>
       </c>
       <c r="L634">
-        <v>382.59</v>
+        <v>387.61</v>
       </c>
       <c r="M634">
-        <v>26232795.66666667</v>
+        <v>25081944</v>
       </c>
       <c r="N634">
-        <v>4508557</v>
+        <v>4347817</v>
       </c>
       <c r="O634">
-        <v>2063232.333333333</v>
+        <v>1876539</v>
       </c>
       <c r="P634">
-        <v>5260</v>
+        <v>5273</v>
       </c>
       <c r="Q634">
-        <v>14186</v>
+        <v>14200</v>
       </c>
       <c r="R634">
-        <v>342583.6666666667</v>
+        <v>351047</v>
       </c>
     </row>
     <row r="635">
@@ -34025,7 +34025,7 @@
         <v>1222.3</v>
       </c>
       <c r="D635">
-        <v>294264</v>
+        <v>296141</v>
       </c>
       <c r="E635">
         <v>114228</v>
@@ -34040,45 +34040,101 @@
         <v>1732508</v>
       </c>
       <c r="I635">
-        <v>407.33</v>
+        <v>406.33</v>
       </c>
       <c r="J635">
-        <v>29.88</v>
+        <v>29.9</v>
       </c>
       <c r="K635">
-        <v>15.06</v>
+        <v>15.05</v>
       </c>
       <c r="L635">
-        <v>392.77</v>
+        <v>392.67</v>
       </c>
       <c r="M635">
-        <v>24541990</v>
+        <v>24558962</v>
       </c>
       <c r="N635">
-        <v>4286306</v>
+        <v>4290001</v>
       </c>
       <c r="O635">
-        <v>1683902</v>
+        <v>1684791</v>
       </c>
       <c r="P635">
-        <v>5273</v>
+        <v>5274</v>
       </c>
       <c r="Q635">
-        <v>14231</v>
+        <v>14238</v>
       </c>
       <c r="R635">
-        <v>348475</v>
+        <v>353467</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="2">
         <v>44895</v>
       </c>
+      <c r="B636">
+        <v>1008252</v>
+      </c>
+      <c r="C636">
+        <v>1346</v>
+      </c>
+      <c r="D636">
+        <v>353240</v>
+      </c>
+      <c r="E636">
+        <v>112215</v>
+      </c>
+      <c r="F636">
+        <v>5707447</v>
+      </c>
+      <c r="G636">
+        <v>4583848</v>
+      </c>
+      <c r="H636">
+        <v>1872004</v>
+      </c>
+      <c r="I636">
+        <v>417.46</v>
+      </c>
+      <c r="J636">
+        <v>30.52</v>
+      </c>
+      <c r="K636">
+        <v>14.54</v>
+      </c>
+      <c r="L636">
+        <v>397.24</v>
+      </c>
+      <c r="M636">
+        <v>24210257</v>
+      </c>
+      <c r="N636">
+        <v>4314272</v>
+      </c>
+      <c r="O636">
+        <v>1586015</v>
+      </c>
       <c r="P636">
-        <v>5284</v>
+        <v>5288</v>
       </c>
       <c r="Q636">
-        <v>14263</v>
+        <v>14276</v>
+      </c>
+      <c r="R636">
+        <v>350959</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="2">
+        <v>44926</v>
+      </c>
+      <c r="P637">
+        <v>5269</v>
+      </c>
+      <c r="Q637">
+        <v>14297</v>
       </c>
     </row>
   </sheetData>

--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R637"/>
+  <dimension ref="A1:R638"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7004,7 +7004,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823681</v>
+        <v>823688</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -7034,7 +7034,7 @@
         <v>14131818</v>
       </c>
       <c r="N140">
-        <v>8935517</v>
+        <v>8935524</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -7087,7 +7087,7 @@
         <v>13894114</v>
       </c>
       <c r="N141">
-        <v>8782032</v>
+        <v>8782039</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -7140,7 +7140,7 @@
         <v>13750021</v>
       </c>
       <c r="N142">
-        <v>8776300</v>
+        <v>8776307</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -7193,7 +7193,7 @@
         <v>13621890</v>
       </c>
       <c r="N143">
-        <v>8836742</v>
+        <v>8836749</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -7246,7 +7246,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042550</v>
+        <v>9042557</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -7299,7 +7299,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9395170</v>
+        <v>9395177</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -7352,7 +7352,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9716034</v>
+        <v>9716041</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -7405,7 +7405,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916865</v>
+        <v>9916872</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -7458,7 +7458,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176498</v>
+        <v>10176505</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -7511,7 +7511,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10402079</v>
+        <v>10402086</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -7564,7 +7564,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586479</v>
+        <v>10586486</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -7617,7 +7617,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834392</v>
+        <v>10834399</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -9442,7 +9442,7 @@
         <v>1488338</v>
       </c>
       <c r="D186">
-        <v>590435</v>
+        <v>590434</v>
       </c>
       <c r="E186">
         <v>232183</v>
@@ -9451,7 +9451,7 @@
         <v>10937527</v>
       </c>
       <c r="G186">
-        <v>9818029</v>
+        <v>9818001</v>
       </c>
       <c r="H186">
         <v>1209142</v>
@@ -9469,10 +9469,10 @@
         <v>125.18</v>
       </c>
       <c r="M186">
-        <v>13889931</v>
+        <v>13889932</v>
       </c>
       <c r="N186">
-        <v>8211240</v>
+        <v>8211239</v>
       </c>
       <c r="O186">
         <v>2510371</v>
@@ -9522,10 +9522,10 @@
         <v>125.48</v>
       </c>
       <c r="M187">
-        <v>13966164</v>
+        <v>13966165</v>
       </c>
       <c r="N187">
-        <v>8231231</v>
+        <v>8231230</v>
       </c>
       <c r="O187">
         <v>2506811</v>
@@ -9578,7 +9578,7 @@
         <v>14177398</v>
       </c>
       <c r="N188">
-        <v>8311017</v>
+        <v>8311016</v>
       </c>
       <c r="O188">
         <v>2528409</v>
@@ -9628,10 +9628,10 @@
         <v>126.37</v>
       </c>
       <c r="M189">
-        <v>14260705</v>
+        <v>14260706</v>
       </c>
       <c r="N189">
-        <v>8315377</v>
+        <v>8315376</v>
       </c>
       <c r="O189">
         <v>2521450</v>
@@ -9681,10 +9681,10 @@
         <v>126.79</v>
       </c>
       <c r="M190">
-        <v>14423032</v>
+        <v>14423033</v>
       </c>
       <c r="N190">
-        <v>8370958</v>
+        <v>8370957</v>
       </c>
       <c r="O190">
         <v>2540057</v>
@@ -9716,7 +9716,7 @@
         <v>9966680</v>
       </c>
       <c r="G191">
-        <v>8670399</v>
+        <v>8670401</v>
       </c>
       <c r="H191">
         <v>1073054</v>
@@ -9734,10 +9734,10 @@
         <v>127.14</v>
       </c>
       <c r="M191">
-        <v>14528183</v>
+        <v>14528184</v>
       </c>
       <c r="N191">
-        <v>8368476</v>
+        <v>8368475</v>
       </c>
       <c r="O191">
         <v>2551088</v>
@@ -9787,10 +9787,10 @@
         <v>127.59</v>
       </c>
       <c r="M192">
-        <v>14532958</v>
+        <v>14532959</v>
       </c>
       <c r="N192">
-        <v>8290050</v>
+        <v>8290049</v>
       </c>
       <c r="O192">
         <v>2547710</v>
@@ -9843,7 +9843,7 @@
         <v>14761482</v>
       </c>
       <c r="N193">
-        <v>8365142</v>
+        <v>8365141</v>
       </c>
       <c r="O193">
         <v>2572358</v>
@@ -9872,7 +9872,7 @@
         <v>235008</v>
       </c>
       <c r="F194">
-        <v>14729049</v>
+        <v>14729047</v>
       </c>
       <c r="G194">
         <v>13027499</v>
@@ -9893,10 +9893,10 @@
         <v>128.88</v>
       </c>
       <c r="M194">
-        <v>14844162</v>
+        <v>14844163</v>
       </c>
       <c r="N194">
-        <v>8388029</v>
+        <v>8388028</v>
       </c>
       <c r="O194">
         <v>2570158</v>
@@ -9949,7 +9949,7 @@
         <v>14889093</v>
       </c>
       <c r="N195">
-        <v>8325501</v>
+        <v>8325500</v>
       </c>
       <c r="O195">
         <v>2571047</v>
@@ -9978,7 +9978,7 @@
         <v>219934</v>
       </c>
       <c r="F196">
-        <v>13097772</v>
+        <v>13097771</v>
       </c>
       <c r="G196">
         <v>11730221</v>
@@ -10002,7 +10002,7 @@
         <v>14967775</v>
       </c>
       <c r="N196">
-        <v>8319997</v>
+        <v>8319996</v>
       </c>
       <c r="O196">
         <v>2563121</v>
@@ -10055,7 +10055,7 @@
         <v>15089919</v>
       </c>
       <c r="N197">
-        <v>8341461</v>
+        <v>8341460</v>
       </c>
       <c r="O197">
         <v>2566576</v>
@@ -10137,7 +10137,7 @@
         <v>214624</v>
       </c>
       <c r="F199">
-        <v>10187308</v>
+        <v>10187307</v>
       </c>
       <c r="G199">
         <v>9028611</v>
@@ -10187,7 +10187,7 @@
         <v>735606</v>
       </c>
       <c r="E200">
-        <v>247050</v>
+        <v>247049</v>
       </c>
       <c r="F200">
         <v>11601024</v>
@@ -10217,7 +10217,7 @@
         <v>8350571</v>
       </c>
       <c r="O200">
-        <v>2599977</v>
+        <v>2599976</v>
       </c>
       <c r="P200">
         <v>3886</v>
@@ -10270,7 +10270,7 @@
         <v>8368314</v>
       </c>
       <c r="O201">
-        <v>2605553</v>
+        <v>2605552</v>
       </c>
       <c r="P201">
         <v>3887</v>
@@ -10296,7 +10296,7 @@
         <v>211859</v>
       </c>
       <c r="F202">
-        <v>10071195</v>
+        <v>10071196</v>
       </c>
       <c r="G202">
         <v>8724780</v>
@@ -10323,7 +10323,7 @@
         <v>8381871</v>
       </c>
       <c r="O202">
-        <v>2635467</v>
+        <v>2635466</v>
       </c>
       <c r="P202">
         <v>3895</v>
@@ -10349,7 +10349,7 @@
         <v>223173</v>
       </c>
       <c r="F203">
-        <v>9851431</v>
+        <v>9851424</v>
       </c>
       <c r="G203">
         <v>8695175</v>
@@ -10376,7 +10376,7 @@
         <v>8380544</v>
       </c>
       <c r="O203">
-        <v>2650965</v>
+        <v>2650964</v>
       </c>
       <c r="P203">
         <v>3915</v>
@@ -10429,7 +10429,7 @@
         <v>8330361</v>
       </c>
       <c r="O204">
-        <v>2658787</v>
+        <v>2658786</v>
       </c>
       <c r="P204">
         <v>3927</v>
@@ -10482,7 +10482,7 @@
         <v>8360752</v>
       </c>
       <c r="O205">
-        <v>2687336</v>
+        <v>2687335</v>
       </c>
       <c r="P205">
         <v>3938</v>
@@ -10535,7 +10535,7 @@
         <v>8190399</v>
       </c>
       <c r="O206">
-        <v>2682390</v>
+        <v>2682389</v>
       </c>
       <c r="P206">
         <v>3943</v>
@@ -10588,7 +10588,7 @@
         <v>8167954</v>
       </c>
       <c r="O207">
-        <v>2694741</v>
+        <v>2694740</v>
       </c>
       <c r="P207">
         <v>3943</v>
@@ -10641,7 +10641,7 @@
         <v>8133267</v>
       </c>
       <c r="O208">
-        <v>2719324</v>
+        <v>2719323</v>
       </c>
       <c r="P208">
         <v>3945</v>
@@ -10694,7 +10694,7 @@
         <v>8038963</v>
       </c>
       <c r="O209">
-        <v>2707766</v>
+        <v>2707765</v>
       </c>
       <c r="P209">
         <v>3954</v>
@@ -10747,7 +10747,7 @@
         <v>7908330</v>
       </c>
       <c r="O210">
-        <v>2680331</v>
+        <v>2680330</v>
       </c>
       <c r="P210">
         <v>3955</v>
@@ -10800,7 +10800,7 @@
         <v>7873641</v>
       </c>
       <c r="O211">
-        <v>2671975</v>
+        <v>2671974</v>
       </c>
       <c r="P211">
         <v>3950</v>
@@ -11877,7 +11877,7 @@
         <v>32598</v>
       </c>
       <c r="B232">
-        <v>1361141</v>
+        <v>1361140</v>
       </c>
       <c r="D232">
         <v>652549</v>
@@ -11886,7 +11886,7 @@
         <v>176192</v>
       </c>
       <c r="F232">
-        <v>11589052</v>
+        <v>11589048</v>
       </c>
       <c r="G232">
         <v>10451849</v>
@@ -30869,10 +30869,10 @@
         <v>2113548</v>
       </c>
       <c r="P578">
-        <v>5148</v>
+        <v>5152</v>
       </c>
       <c r="Q578">
-        <v>14421</v>
+        <v>14428</v>
       </c>
       <c r="R578">
         <v>277852</v>
@@ -30925,10 +30925,10 @@
         <v>2104858</v>
       </c>
       <c r="P579">
-        <v>5151</v>
+        <v>5156</v>
       </c>
       <c r="Q579">
-        <v>14468</v>
+        <v>14473</v>
       </c>
       <c r="R579">
         <v>280562</v>
@@ -30981,10 +30981,10 @@
         <v>2085631</v>
       </c>
       <c r="P580">
-        <v>5157</v>
+        <v>5164</v>
       </c>
       <c r="Q580">
-        <v>14472</v>
+        <v>14471</v>
       </c>
       <c r="R580">
         <v>283384</v>
@@ -31037,10 +31037,10 @@
         <v>2087750</v>
       </c>
       <c r="P581">
-        <v>5169</v>
+        <v>5177</v>
       </c>
       <c r="Q581">
-        <v>14473</v>
+        <v>14467</v>
       </c>
       <c r="R581">
         <v>289594</v>
@@ -31093,10 +31093,10 @@
         <v>2069598</v>
       </c>
       <c r="P582">
-        <v>5182</v>
+        <v>5174</v>
       </c>
       <c r="Q582">
-        <v>14486</v>
+        <v>14482</v>
       </c>
       <c r="R582">
         <v>290459</v>
@@ -31149,10 +31149,10 @@
         <v>2049463</v>
       </c>
       <c r="P583">
-        <v>5182</v>
+        <v>5179</v>
       </c>
       <c r="Q583">
-        <v>14499</v>
+        <v>14505</v>
       </c>
       <c r="R583">
         <v>292179</v>
@@ -31205,10 +31205,10 @@
         <v>2037492</v>
       </c>
       <c r="P584">
-        <v>5179</v>
+        <v>5175</v>
       </c>
       <c r="Q584">
-        <v>14470</v>
+        <v>14462</v>
       </c>
       <c r="R584">
         <v>294239</v>
@@ -31261,10 +31261,10 @@
         <v>2008305</v>
       </c>
       <c r="P585">
-        <v>5182</v>
+        <v>5174</v>
       </c>
       <c r="Q585">
-        <v>14485</v>
+        <v>14493</v>
       </c>
       <c r="R585">
         <v>299237</v>
@@ -31317,10 +31317,10 @@
         <v>1993343</v>
       </c>
       <c r="P586">
-        <v>5187</v>
+        <v>5183</v>
       </c>
       <c r="Q586">
-        <v>14491</v>
+        <v>14486</v>
       </c>
       <c r="R586">
         <v>288223</v>
@@ -31376,7 +31376,7 @@
         <v>5183</v>
       </c>
       <c r="Q587">
-        <v>14495</v>
+        <v>14491</v>
       </c>
       <c r="R587">
         <v>287127</v>
@@ -31432,7 +31432,7 @@
         <v>5165</v>
       </c>
       <c r="Q588">
-        <v>14500</v>
+        <v>14499</v>
       </c>
       <c r="R588">
         <v>284038</v>
@@ -31485,10 +31485,10 @@
         <v>1928041</v>
       </c>
       <c r="P589">
-        <v>5174</v>
+        <v>5176</v>
       </c>
       <c r="Q589">
-        <v>14526</v>
+        <v>14527</v>
       </c>
       <c r="R589">
         <v>285939</v>
@@ -31541,10 +31541,10 @@
         <v>1886164</v>
       </c>
       <c r="P590">
-        <v>5169</v>
+        <v>5174</v>
       </c>
       <c r="Q590">
-        <v>14541</v>
+        <v>14546</v>
       </c>
       <c r="R590">
         <v>294337</v>
@@ -31597,10 +31597,10 @@
         <v>1860730</v>
       </c>
       <c r="P591">
-        <v>5177</v>
+        <v>5183</v>
       </c>
       <c r="Q591">
-        <v>14540</v>
+        <v>14543</v>
       </c>
       <c r="R591">
         <v>304478</v>
@@ -31653,10 +31653,10 @@
         <v>1845056</v>
       </c>
       <c r="P592">
-        <v>5179</v>
+        <v>5192</v>
       </c>
       <c r="Q592">
-        <v>14569</v>
+        <v>14568</v>
       </c>
       <c r="R592">
         <v>306575</v>
@@ -31709,10 +31709,10 @@
         <v>1818905</v>
       </c>
       <c r="P593">
-        <v>5178</v>
+        <v>5192</v>
       </c>
       <c r="Q593">
-        <v>14600</v>
+        <v>14590</v>
       </c>
       <c r="R593">
         <v>325704</v>
@@ -31765,10 +31765,10 @@
         <v>1796642</v>
       </c>
       <c r="P594">
-        <v>5182</v>
+        <v>5151</v>
       </c>
       <c r="Q594">
-        <v>14586</v>
+        <v>14593</v>
       </c>
       <c r="R594">
         <v>319802</v>
@@ -31821,10 +31821,10 @@
         <v>1788814</v>
       </c>
       <c r="P595">
-        <v>5186</v>
+        <v>5171</v>
       </c>
       <c r="Q595">
-        <v>14577</v>
+        <v>14572</v>
       </c>
       <c r="R595">
         <v>317784</v>
@@ -31877,10 +31877,10 @@
         <v>1773255</v>
       </c>
       <c r="P596">
-        <v>5200</v>
+        <v>5192</v>
       </c>
       <c r="Q596">
-        <v>14526</v>
+        <v>14520</v>
       </c>
       <c r="R596">
         <v>323496</v>
@@ -31933,10 +31933,10 @@
         <v>1760936</v>
       </c>
       <c r="P597">
-        <v>5220</v>
+        <v>5212</v>
       </c>
       <c r="Q597">
-        <v>14524</v>
+        <v>14547</v>
       </c>
       <c r="R597">
         <v>320574</v>
@@ -31989,10 +31989,10 @@
         <v>1765644</v>
       </c>
       <c r="P598">
-        <v>5224</v>
+        <v>5219</v>
       </c>
       <c r="Q598">
-        <v>14578</v>
+        <v>14574</v>
       </c>
       <c r="R598">
         <v>326564</v>
@@ -32045,10 +32045,10 @@
         <v>1756475</v>
       </c>
       <c r="P599">
-        <v>5238</v>
+        <v>5237</v>
       </c>
       <c r="Q599">
-        <v>14604</v>
+        <v>14600</v>
       </c>
       <c r="R599">
         <v>321586</v>
@@ -32157,10 +32157,10 @@
         <v>1760492</v>
       </c>
       <c r="P601">
-        <v>5247</v>
+        <v>5248</v>
       </c>
       <c r="Q601">
-        <v>14648</v>
+        <v>14639</v>
       </c>
       <c r="R601">
         <v>327985</v>
@@ -32213,10 +32213,10 @@
         <v>1753952</v>
       </c>
       <c r="P602">
-        <v>5264</v>
+        <v>5271</v>
       </c>
       <c r="Q602">
-        <v>14665</v>
+        <v>14656</v>
       </c>
       <c r="R602">
         <v>340651</v>
@@ -32269,10 +32269,10 @@
         <v>1757299</v>
       </c>
       <c r="P603">
-        <v>5310</v>
+        <v>5317</v>
       </c>
       <c r="Q603">
-        <v>14708</v>
+        <v>14699</v>
       </c>
       <c r="R603">
         <v>343283</v>
@@ -32325,10 +32325,10 @@
         <v>1773952</v>
       </c>
       <c r="P604">
-        <v>5247</v>
+        <v>5266</v>
       </c>
       <c r="Q604">
-        <v>14701</v>
+        <v>14699</v>
       </c>
       <c r="R604">
         <v>346029</v>
@@ -32381,10 +32381,10 @@
         <v>1812574</v>
       </c>
       <c r="P605">
-        <v>5091</v>
+        <v>5117</v>
       </c>
       <c r="Q605">
-        <v>13938</v>
+        <v>13930</v>
       </c>
       <c r="R605">
         <v>339150</v>
@@ -32437,10 +32437,10 @@
         <v>1924685</v>
       </c>
       <c r="P606">
-        <v>5080</v>
+        <v>5060</v>
       </c>
       <c r="Q606">
-        <v>13464</v>
+        <v>13458</v>
       </c>
       <c r="R606">
         <v>347971</v>
@@ -32493,10 +32493,10 @@
         <v>2392117</v>
       </c>
       <c r="P607">
-        <v>5076</v>
+        <v>5061</v>
       </c>
       <c r="Q607">
-        <v>13458</v>
+        <v>13462</v>
       </c>
       <c r="R607">
         <v>342763</v>
@@ -32549,10 +32549,10 @@
         <v>3183893</v>
       </c>
       <c r="P608">
-        <v>5084</v>
+        <v>5071</v>
       </c>
       <c r="Q608">
-        <v>13520</v>
+        <v>13531</v>
       </c>
       <c r="R608">
         <v>335639</v>
@@ -32605,10 +32605,10 @@
         <v>4115659</v>
       </c>
       <c r="P609">
-        <v>5114</v>
+        <v>5116</v>
       </c>
       <c r="Q609">
-        <v>13693</v>
+        <v>13737</v>
       </c>
       <c r="R609">
         <v>334827</v>
@@ -32661,10 +32661,10 @@
         <v>7059486</v>
       </c>
       <c r="P610">
-        <v>5102</v>
+        <v>5095</v>
       </c>
       <c r="Q610">
-        <v>13699</v>
+        <v>13702</v>
       </c>
       <c r="R610">
         <v>335975</v>
@@ -32717,10 +32717,10 @@
         <v>9351847</v>
       </c>
       <c r="P611">
-        <v>5077</v>
+        <v>5073</v>
       </c>
       <c r="Q611">
-        <v>13712</v>
+        <v>13716</v>
       </c>
       <c r="R611">
         <v>337708</v>
@@ -32773,10 +32773,10 @@
         <v>10553541</v>
       </c>
       <c r="P612">
-        <v>5077</v>
+        <v>5074</v>
       </c>
       <c r="Q612">
-        <v>13727</v>
+        <v>13718</v>
       </c>
       <c r="R612">
         <v>340627</v>
@@ -32832,7 +32832,7 @@
         <v>5080</v>
       </c>
       <c r="Q613">
-        <v>13718</v>
+        <v>13696</v>
       </c>
       <c r="R613">
         <v>343583</v>
@@ -32885,10 +32885,10 @@
         <v>12105826</v>
       </c>
       <c r="P614">
-        <v>5154</v>
+        <v>5162</v>
       </c>
       <c r="Q614">
-        <v>13748</v>
+        <v>13732</v>
       </c>
       <c r="R614">
         <v>339314</v>
@@ -32941,10 +32941,10 @@
         <v>12600385</v>
       </c>
       <c r="P615">
-        <v>5157</v>
+        <v>5167</v>
       </c>
       <c r="Q615">
-        <v>13760</v>
+        <v>13745</v>
       </c>
       <c r="R615">
         <v>330248</v>
@@ -32997,10 +32997,10 @@
         <v>13044263</v>
       </c>
       <c r="P616">
-        <v>5170</v>
+        <v>5195</v>
       </c>
       <c r="Q616">
-        <v>13801</v>
+        <v>13794</v>
       </c>
       <c r="R616">
         <v>331515</v>
@@ -33053,10 +33053,10 @@
         <v>13246975</v>
       </c>
       <c r="P617">
-        <v>5173</v>
+        <v>5191</v>
       </c>
       <c r="Q617">
-        <v>13842</v>
+        <v>13839</v>
       </c>
       <c r="R617">
         <v>330197</v>
@@ -33109,10 +33109,10 @@
         <v>13354760</v>
       </c>
       <c r="P618">
-        <v>5231</v>
+        <v>5179</v>
       </c>
       <c r="Q618">
-        <v>13856</v>
+        <v>13860</v>
       </c>
       <c r="R618">
         <v>330699</v>
@@ -33165,10 +33165,10 @@
         <v>13082589</v>
       </c>
       <c r="P619">
-        <v>5251</v>
+        <v>5190</v>
       </c>
       <c r="Q619">
-        <v>13889</v>
+        <v>13920</v>
       </c>
       <c r="R619">
         <v>319412</v>
@@ -33221,10 +33221,10 @@
         <v>12419030</v>
       </c>
       <c r="P620">
-        <v>5241</v>
+        <v>5163</v>
       </c>
       <c r="Q620">
-        <v>13948</v>
+        <v>13986</v>
       </c>
       <c r="R620">
         <v>316105</v>
@@ -33277,10 +33277,10 @@
         <v>11625423</v>
       </c>
       <c r="P621">
-        <v>5226</v>
+        <v>5149</v>
       </c>
       <c r="Q621">
-        <v>13984</v>
+        <v>14061</v>
       </c>
       <c r="R621">
         <v>319627</v>
@@ -33291,25 +33291,25 @@
         <v>44469</v>
       </c>
       <c r="B622">
-        <v>1410070</v>
+        <v>1410079</v>
       </c>
       <c r="C622">
         <v>2479.4</v>
       </c>
       <c r="D622">
-        <v>478187</v>
+        <v>478045</v>
       </c>
       <c r="E622">
-        <v>305616</v>
+        <v>305612</v>
       </c>
       <c r="F622">
-        <v>10027144</v>
+        <v>10026882</v>
       </c>
       <c r="G622">
-        <v>8093354</v>
+        <v>8091977</v>
       </c>
       <c r="H622">
-        <v>2683996</v>
+        <v>2683520</v>
       </c>
       <c r="I622">
         <v>352.04</v>
@@ -33324,19 +33324,19 @@
         <v>340.1</v>
       </c>
       <c r="M622">
-        <v>58985962</v>
+        <v>58985486</v>
       </c>
       <c r="N622">
-        <v>8911175</v>
+        <v>8911033</v>
       </c>
       <c r="O622">
-        <v>8847975</v>
+        <v>8847971</v>
       </c>
       <c r="P622">
-        <v>5224</v>
+        <v>5138</v>
       </c>
       <c r="Q622">
-        <v>14002</v>
+        <v>14049</v>
       </c>
       <c r="R622">
         <v>313283</v>
@@ -33380,19 +33380,19 @@
         <v>344.45</v>
       </c>
       <c r="M623">
-        <v>52914178</v>
+        <v>52913702</v>
       </c>
       <c r="N623">
-        <v>8504011</v>
+        <v>8503869</v>
       </c>
       <c r="O623">
-        <v>6719970</v>
+        <v>6719966</v>
       </c>
       <c r="P623">
-        <v>5224</v>
+        <v>5132</v>
       </c>
       <c r="Q623">
-        <v>13990</v>
+        <v>14028</v>
       </c>
       <c r="R623">
         <v>314809</v>
@@ -33436,19 +33436,19 @@
         <v>347.33</v>
       </c>
       <c r="M624">
-        <v>48457408</v>
+        <v>48456932</v>
       </c>
       <c r="N624">
-        <v>8091830</v>
+        <v>8091688</v>
       </c>
       <c r="O624">
-        <v>5601364</v>
+        <v>5601360</v>
       </c>
       <c r="P624">
-        <v>5220</v>
+        <v>5120</v>
       </c>
       <c r="Q624">
-        <v>14010</v>
+        <v>14036</v>
       </c>
       <c r="R624">
         <v>318834</v>
@@ -33492,19 +33492,19 @@
         <v>349.78</v>
       </c>
       <c r="M625">
-        <v>44260432</v>
+        <v>44259956</v>
       </c>
       <c r="N625">
-        <v>7631604</v>
+        <v>7631462</v>
       </c>
       <c r="O625">
-        <v>4741946</v>
+        <v>4741942</v>
       </c>
       <c r="P625">
-        <v>5237</v>
+        <v>5113</v>
       </c>
       <c r="Q625">
-        <v>14028</v>
+        <v>14070</v>
       </c>
       <c r="R625">
         <v>316775</v>
@@ -33548,19 +33548,19 @@
         <v>352.67</v>
       </c>
       <c r="M626">
-        <v>41276745</v>
+        <v>41276269</v>
       </c>
       <c r="N626">
-        <v>7250614</v>
+        <v>7250472</v>
       </c>
       <c r="O626">
-        <v>4097882</v>
+        <v>4097878</v>
       </c>
       <c r="P626">
-        <v>5219</v>
+        <v>5101</v>
       </c>
       <c r="Q626">
-        <v>14055</v>
+        <v>14100</v>
       </c>
       <c r="R626">
         <v>318072</v>
@@ -33604,19 +33604,19 @@
         <v>355.82</v>
       </c>
       <c r="M627">
-        <v>38624118</v>
+        <v>38623642</v>
       </c>
       <c r="N627">
-        <v>6877123</v>
+        <v>6876981</v>
       </c>
       <c r="O627">
-        <v>3603853</v>
+        <v>3603849</v>
       </c>
       <c r="P627">
-        <v>5212</v>
+        <v>5088</v>
       </c>
       <c r="Q627">
-        <v>14073</v>
+        <v>14120</v>
       </c>
       <c r="R627">
         <v>320065</v>
@@ -33660,19 +33660,19 @@
         <v>359.78</v>
       </c>
       <c r="M628">
-        <v>35818370</v>
+        <v>35817894</v>
       </c>
       <c r="N628">
-        <v>6397228</v>
+        <v>6397086</v>
       </c>
       <c r="O628">
-        <v>3163542</v>
+        <v>3163538</v>
       </c>
       <c r="P628">
-        <v>5213</v>
+        <v>5063</v>
       </c>
       <c r="Q628">
-        <v>14087</v>
+        <v>14137</v>
       </c>
       <c r="R628">
         <v>319759</v>
@@ -33716,19 +33716,19 @@
         <v>363.43</v>
       </c>
       <c r="M629">
-        <v>33636655</v>
+        <v>33636179</v>
       </c>
       <c r="N629">
-        <v>5635654</v>
+        <v>5635512</v>
       </c>
       <c r="O629">
-        <v>2880155</v>
+        <v>2880151</v>
       </c>
       <c r="P629">
-        <v>5218</v>
+        <v>5077</v>
       </c>
       <c r="Q629">
-        <v>14091</v>
+        <v>14153</v>
       </c>
       <c r="R629">
         <v>323392</v>
@@ -33772,19 +33772,19 @@
         <v>367.89</v>
       </c>
       <c r="M630">
-        <v>31534206</v>
+        <v>31533730</v>
       </c>
       <c r="N630">
-        <v>5196521</v>
+        <v>5196379</v>
       </c>
       <c r="O630">
-        <v>2635162</v>
+        <v>2635158</v>
       </c>
       <c r="P630">
-        <v>5258</v>
+        <v>5092</v>
       </c>
       <c r="Q630">
-        <v>14105</v>
+        <v>14162</v>
       </c>
       <c r="R630">
         <v>320626</v>
@@ -33828,19 +33828,19 @@
         <v>372.77</v>
       </c>
       <c r="M631">
-        <v>29240140</v>
+        <v>29239664</v>
       </c>
       <c r="N631">
-        <v>4865400</v>
+        <v>4865258</v>
       </c>
       <c r="O631">
-        <v>2407499</v>
+        <v>2407495</v>
       </c>
       <c r="P631">
-        <v>5238</v>
+        <v>5090</v>
       </c>
       <c r="Q631">
-        <v>14084</v>
+        <v>14169</v>
       </c>
       <c r="R631">
         <v>324999</v>
@@ -33884,19 +33884,19 @@
         <v>377.44</v>
       </c>
       <c r="M632">
-        <v>27537806</v>
+        <v>27537330</v>
       </c>
       <c r="N632">
-        <v>4641763</v>
+        <v>4641621</v>
       </c>
       <c r="O632">
-        <v>2234708</v>
+        <v>2234704</v>
       </c>
       <c r="P632">
-        <v>5246</v>
+        <v>5103</v>
       </c>
       <c r="Q632">
-        <v>14157</v>
+        <v>14215</v>
       </c>
       <c r="R632">
         <v>336811</v>
@@ -33940,19 +33940,19 @@
         <v>382.69</v>
       </c>
       <c r="M633">
-        <v>26108610</v>
+        <v>26108134</v>
       </c>
       <c r="N633">
-        <v>4537909</v>
+        <v>4537767</v>
       </c>
       <c r="O633">
-        <v>2079339</v>
+        <v>2079335</v>
       </c>
       <c r="P633">
-        <v>5261</v>
+        <v>5109</v>
       </c>
       <c r="Q633">
-        <v>14201</v>
+        <v>14257</v>
       </c>
       <c r="R633">
         <v>342774</v>
@@ -34005,10 +34005,10 @@
         <v>1876539</v>
       </c>
       <c r="P634">
-        <v>5273</v>
+        <v>5115</v>
       </c>
       <c r="Q634">
-        <v>14200</v>
+        <v>14255</v>
       </c>
       <c r="R634">
         <v>351047</v>
@@ -34061,13 +34061,13 @@
         <v>1684791</v>
       </c>
       <c r="P635">
-        <v>5274</v>
+        <v>5104</v>
       </c>
       <c r="Q635">
-        <v>14238</v>
+        <v>14287</v>
       </c>
       <c r="R635">
-        <v>353467</v>
+        <v>353981</v>
       </c>
     </row>
     <row r="636">
@@ -34117,13 +34117,13 @@
         <v>1586015</v>
       </c>
       <c r="P636">
-        <v>5288</v>
+        <v>5116</v>
       </c>
       <c r="Q636">
-        <v>14276</v>
+        <v>14335</v>
       </c>
       <c r="R636">
-        <v>350959</v>
+        <v>354196</v>
       </c>
     </row>
     <row r="637">
@@ -34131,55 +34131,66 @@
         <v>44926</v>
       </c>
       <c r="B637">
-        <v>998172.3333333334</v>
+        <v>1159570</v>
       </c>
       <c r="C637">
-        <v>1375.4</v>
+        <v>1557.9</v>
       </c>
       <c r="D637">
-        <v>370949.6666666667</v>
+        <v>463468</v>
       </c>
       <c r="E637">
-        <v>113731.3333333333</v>
+        <v>114751</v>
       </c>
       <c r="F637">
-        <v>5970677.333333333</v>
+        <v>6576864</v>
       </c>
       <c r="G637">
-        <v>4782585.333333333</v>
+        <v>5404792</v>
       </c>
       <c r="H637">
-        <v>1947630.333333333</v>
+        <v>2238379</v>
       </c>
       <c r="I637">
-        <v>415.3933333333333</v>
+        <v>422.39</v>
       </c>
       <c r="J637">
-        <v>30.54333333333333</v>
+        <v>31.22</v>
       </c>
       <c r="K637">
-        <v>14.60333333333333</v>
+        <v>14.22</v>
       </c>
       <c r="L637">
-        <v>397.1166666666667</v>
+        <v>401.44</v>
       </c>
       <c r="M637">
-        <v>24341787.66666667</v>
+        <v>24256144</v>
       </c>
       <c r="N637">
-        <v>4322390</v>
+        <v>4362897</v>
       </c>
       <c r="O637">
-        <v>1596513</v>
+        <v>1518733</v>
       </c>
       <c r="P637">
-        <v>5277</v>
+        <v>5078</v>
       </c>
       <c r="Q637">
-        <v>14270.33333333333</v>
+        <v>14364</v>
       </c>
       <c r="R637">
-        <v>352213</v>
+        <v>353726</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="2">
+        <v>44957</v>
+      </c>
+      <c r="P638">
+        <v>5117</v>
+      </c>
+      <c r="Q638">
+        <v>14394</v>
       </c>
     </row>
   </sheetData>

--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R638"/>
+  <dimension ref="A1:R639"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4781,13 +4781,13 @@
         <v>1063136</v>
       </c>
       <c r="E98">
-        <v>210662</v>
+        <v>210661</v>
       </c>
       <c r="F98">
-        <v>13886960</v>
+        <v>13886970</v>
       </c>
       <c r="G98">
-        <v>11076396</v>
+        <v>11076405</v>
       </c>
       <c r="H98">
         <v>904872</v>
@@ -4811,7 +4811,7 @@
         <v>7816720</v>
       </c>
       <c r="O98">
-        <v>2726126</v>
+        <v>2726125</v>
       </c>
       <c r="P98">
         <v>3429</v>
@@ -4864,7 +4864,7 @@
         <v>7675188</v>
       </c>
       <c r="O99">
-        <v>2658766</v>
+        <v>2658765</v>
       </c>
       <c r="P99">
         <v>3442</v>
@@ -4917,7 +4917,7 @@
         <v>7655474</v>
       </c>
       <c r="O100">
-        <v>2569596</v>
+        <v>2569595</v>
       </c>
       <c r="P100">
         <v>3456</v>
@@ -4970,7 +4970,7 @@
         <v>7630816</v>
       </c>
       <c r="O101">
-        <v>2496712</v>
+        <v>2496711</v>
       </c>
       <c r="P101">
         <v>3472</v>
@@ -5023,7 +5023,7 @@
         <v>7605385</v>
       </c>
       <c r="O102">
-        <v>2447768</v>
+        <v>2447767</v>
       </c>
       <c r="P102">
         <v>3483</v>
@@ -5076,7 +5076,7 @@
         <v>7610191</v>
       </c>
       <c r="O103">
-        <v>2369801</v>
+        <v>2369800</v>
       </c>
       <c r="P103">
         <v>3482</v>
@@ -5129,7 +5129,7 @@
         <v>7610967</v>
       </c>
       <c r="O104">
-        <v>2306254</v>
+        <v>2306253</v>
       </c>
       <c r="P104">
         <v>3473</v>
@@ -5182,7 +5182,7 @@
         <v>7677889</v>
       </c>
       <c r="O105">
-        <v>2230967</v>
+        <v>2230966</v>
       </c>
       <c r="P105">
         <v>3475</v>
@@ -5235,7 +5235,7 @@
         <v>7636142</v>
       </c>
       <c r="O106">
-        <v>2171025</v>
+        <v>2171024</v>
       </c>
       <c r="P106">
         <v>3484</v>
@@ -5288,7 +5288,7 @@
         <v>7633029</v>
       </c>
       <c r="O107">
-        <v>2121253</v>
+        <v>2121252</v>
       </c>
       <c r="P107">
         <v>3488</v>
@@ -5341,7 +5341,7 @@
         <v>7603593</v>
       </c>
       <c r="O108">
-        <v>2073378</v>
+        <v>2073377</v>
       </c>
       <c r="P108">
         <v>3494</v>
@@ -5394,7 +5394,7 @@
         <v>7568310</v>
       </c>
       <c r="O109">
-        <v>2030440</v>
+        <v>2030439</v>
       </c>
       <c r="P109">
         <v>3500</v>
@@ -6592,10 +6592,10 @@
         <v>9516801</v>
       </c>
       <c r="H132">
-        <v>935372</v>
+        <v>935557</v>
       </c>
       <c r="I132">
-        <v>100.7</v>
+        <v>100.72</v>
       </c>
       <c r="J132">
         <v>32.75</v>
@@ -6607,7 +6607,7 @@
         <v>99.05</v>
       </c>
       <c r="M132">
-        <v>14066919</v>
+        <v>14067104</v>
       </c>
       <c r="N132">
         <v>9919645</v>
@@ -6660,7 +6660,7 @@
         <v>99.53</v>
       </c>
       <c r="M133">
-        <v>14469371</v>
+        <v>14469556</v>
       </c>
       <c r="N133">
         <v>9992123</v>
@@ -6713,7 +6713,7 @@
         <v>100.2</v>
       </c>
       <c r="M134">
-        <v>14605007</v>
+        <v>14605192</v>
       </c>
       <c r="N134">
         <v>9946214</v>
@@ -6766,7 +6766,7 @@
         <v>100.72</v>
       </c>
       <c r="M135">
-        <v>14690444</v>
+        <v>14690628</v>
       </c>
       <c r="N135">
         <v>9890722</v>
@@ -6819,7 +6819,7 @@
         <v>101.31</v>
       </c>
       <c r="M136">
-        <v>14866903</v>
+        <v>14867088</v>
       </c>
       <c r="N136">
         <v>9919839</v>
@@ -6872,7 +6872,7 @@
         <v>101.83</v>
       </c>
       <c r="M137">
-        <v>14861421</v>
+        <v>14861606</v>
       </c>
       <c r="N137">
         <v>9793604</v>
@@ -6925,7 +6925,7 @@
         <v>102.25</v>
       </c>
       <c r="M138">
-        <v>14670813</v>
+        <v>14670998</v>
       </c>
       <c r="N138">
         <v>9476838</v>
@@ -6978,7 +6978,7 @@
         <v>102.61</v>
       </c>
       <c r="M139">
-        <v>14467038</v>
+        <v>14467223</v>
       </c>
       <c r="N139">
         <v>9214474</v>
@@ -7004,7 +7004,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823688</v>
+        <v>823701</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -7031,10 +7031,10 @@
         <v>103.08</v>
       </c>
       <c r="M140">
-        <v>14131818</v>
+        <v>14132003</v>
       </c>
       <c r="N140">
-        <v>8935524</v>
+        <v>8935537</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -7084,10 +7084,10 @@
         <v>103.59</v>
       </c>
       <c r="M141">
-        <v>13894114</v>
+        <v>13894299</v>
       </c>
       <c r="N141">
-        <v>8782039</v>
+        <v>8782052</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -7137,10 +7137,10 @@
         <v>104.14</v>
       </c>
       <c r="M142">
-        <v>13750021</v>
+        <v>13750206</v>
       </c>
       <c r="N142">
-        <v>8776307</v>
+        <v>8776320</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -7190,10 +7190,10 @@
         <v>104.75</v>
       </c>
       <c r="M143">
-        <v>13621890</v>
+        <v>13622075</v>
       </c>
       <c r="N143">
-        <v>8836749</v>
+        <v>8836762</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -7246,7 +7246,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042557</v>
+        <v>9042570</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -7299,7 +7299,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9395177</v>
+        <v>9395190</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -7352,7 +7352,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9716041</v>
+        <v>9716054</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -7405,7 +7405,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916872</v>
+        <v>9916885</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -7458,7 +7458,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176505</v>
+        <v>10176518</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -7511,7 +7511,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10402086</v>
+        <v>10402099</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -7564,7 +7564,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586486</v>
+        <v>10586499</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -7617,7 +7617,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834399</v>
+        <v>10834412</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -9442,7 +9442,7 @@
         <v>1488338</v>
       </c>
       <c r="D186">
-        <v>590434</v>
+        <v>590478</v>
       </c>
       <c r="E186">
         <v>232183</v>
@@ -9451,13 +9451,13 @@
         <v>10937527</v>
       </c>
       <c r="G186">
-        <v>9818001</v>
+        <v>9818625</v>
       </c>
       <c r="H186">
-        <v>1209142</v>
+        <v>1208992</v>
       </c>
       <c r="I186">
-        <v>127.38</v>
+        <v>127.36</v>
       </c>
       <c r="J186">
         <v>32.49</v>
@@ -9469,10 +9469,10 @@
         <v>125.18</v>
       </c>
       <c r="M186">
-        <v>13889932</v>
+        <v>13889781</v>
       </c>
       <c r="N186">
-        <v>8211239</v>
+        <v>8211283</v>
       </c>
       <c r="O186">
         <v>2510371</v>
@@ -9522,10 +9522,10 @@
         <v>125.48</v>
       </c>
       <c r="M187">
-        <v>13966165</v>
+        <v>13966014</v>
       </c>
       <c r="N187">
-        <v>8231230</v>
+        <v>8231274</v>
       </c>
       <c r="O187">
         <v>2506811</v>
@@ -9575,10 +9575,10 @@
         <v>125.89</v>
       </c>
       <c r="M188">
-        <v>14177398</v>
+        <v>14177248</v>
       </c>
       <c r="N188">
-        <v>8311016</v>
+        <v>8311060</v>
       </c>
       <c r="O188">
         <v>2528409</v>
@@ -9604,7 +9604,7 @@
         <v>631919</v>
       </c>
       <c r="E189">
-        <v>204865</v>
+        <v>204866</v>
       </c>
       <c r="F189">
         <v>10180433</v>
@@ -9628,13 +9628,13 @@
         <v>126.37</v>
       </c>
       <c r="M189">
-        <v>14260706</v>
+        <v>14260555</v>
       </c>
       <c r="N189">
-        <v>8315376</v>
+        <v>8315420</v>
       </c>
       <c r="O189">
-        <v>2521450</v>
+        <v>2521451</v>
       </c>
       <c r="P189">
         <v>3841</v>
@@ -9657,7 +9657,7 @@
         <v>509987</v>
       </c>
       <c r="E190">
-        <v>181945</v>
+        <v>181944</v>
       </c>
       <c r="F190">
         <v>9164177</v>
@@ -9681,10 +9681,10 @@
         <v>126.79</v>
       </c>
       <c r="M190">
-        <v>14423033</v>
+        <v>14422882</v>
       </c>
       <c r="N190">
-        <v>8370957</v>
+        <v>8371001</v>
       </c>
       <c r="O190">
         <v>2540057</v>
@@ -9707,19 +9707,19 @@
         <v>1667576</v>
       </c>
       <c r="D191">
-        <v>573544</v>
+        <v>573547</v>
       </c>
       <c r="E191">
-        <v>207675</v>
+        <v>207670</v>
       </c>
       <c r="F191">
         <v>9966680</v>
       </c>
       <c r="G191">
-        <v>8670401</v>
+        <v>8670448</v>
       </c>
       <c r="H191">
-        <v>1073054</v>
+        <v>1073070</v>
       </c>
       <c r="I191">
         <v>128.59</v>
@@ -9734,13 +9734,13 @@
         <v>127.14</v>
       </c>
       <c r="M191">
-        <v>14528184</v>
+        <v>14528050</v>
       </c>
       <c r="N191">
-        <v>8368475</v>
+        <v>8368522</v>
       </c>
       <c r="O191">
-        <v>2551088</v>
+        <v>2551083</v>
       </c>
       <c r="P191">
         <v>3864</v>
@@ -9787,13 +9787,13 @@
         <v>127.59</v>
       </c>
       <c r="M192">
-        <v>14532959</v>
+        <v>14532825</v>
       </c>
       <c r="N192">
-        <v>8290049</v>
+        <v>8290096</v>
       </c>
       <c r="O192">
-        <v>2547710</v>
+        <v>2547705</v>
       </c>
       <c r="P192">
         <v>3867</v>
@@ -9840,13 +9840,13 @@
         <v>128.14</v>
       </c>
       <c r="M193">
-        <v>14761482</v>
+        <v>14761348</v>
       </c>
       <c r="N193">
-        <v>8365141</v>
+        <v>8365188</v>
       </c>
       <c r="O193">
-        <v>2572358</v>
+        <v>2572353</v>
       </c>
       <c r="P193">
         <v>3862</v>
@@ -9872,7 +9872,7 @@
         <v>235008</v>
       </c>
       <c r="F194">
-        <v>14729047</v>
+        <v>14729036</v>
       </c>
       <c r="G194">
         <v>13027499</v>
@@ -9893,13 +9893,13 @@
         <v>128.88</v>
       </c>
       <c r="M194">
-        <v>14844163</v>
+        <v>14844029</v>
       </c>
       <c r="N194">
-        <v>8388028</v>
+        <v>8388075</v>
       </c>
       <c r="O194">
-        <v>2570158</v>
+        <v>2570153</v>
       </c>
       <c r="P194">
         <v>3869</v>
@@ -9946,13 +9946,13 @@
         <v>129.54</v>
       </c>
       <c r="M195">
-        <v>14889093</v>
+        <v>14888959</v>
       </c>
       <c r="N195">
-        <v>8325500</v>
+        <v>8325547</v>
       </c>
       <c r="O195">
-        <v>2571047</v>
+        <v>2571042</v>
       </c>
       <c r="P195">
         <v>3875</v>
@@ -9978,7 +9978,7 @@
         <v>219934</v>
       </c>
       <c r="F196">
-        <v>13097771</v>
+        <v>13097784</v>
       </c>
       <c r="G196">
         <v>11730221</v>
@@ -9999,13 +9999,13 @@
         <v>130.2</v>
       </c>
       <c r="M196">
-        <v>14967775</v>
+        <v>14967641</v>
       </c>
       <c r="N196">
-        <v>8319996</v>
+        <v>8320043</v>
       </c>
       <c r="O196">
-        <v>2563121</v>
+        <v>2563116</v>
       </c>
       <c r="P196">
         <v>3873</v>
@@ -10052,13 +10052,13 @@
         <v>130.86</v>
       </c>
       <c r="M197">
-        <v>15089919</v>
+        <v>15089786</v>
       </c>
       <c r="N197">
-        <v>8341460</v>
+        <v>8341507</v>
       </c>
       <c r="O197">
-        <v>2566576</v>
+        <v>2566571</v>
       </c>
       <c r="P197">
         <v>3878</v>
@@ -10105,13 +10105,13 @@
         <v>131.55</v>
       </c>
       <c r="M198">
-        <v>15141502</v>
+        <v>15141519</v>
       </c>
       <c r="N198">
-        <v>8330304</v>
+        <v>8330307</v>
       </c>
       <c r="O198">
-        <v>2567377</v>
+        <v>2567372</v>
       </c>
       <c r="P198">
         <v>3884</v>
@@ -10134,10 +10134,10 @@
         <v>525103</v>
       </c>
       <c r="E199">
-        <v>214624</v>
+        <v>214628</v>
       </c>
       <c r="F199">
-        <v>10187307</v>
+        <v>10187312</v>
       </c>
       <c r="G199">
         <v>9028611</v>
@@ -10158,13 +10158,13 @@
         <v>132.19</v>
       </c>
       <c r="M199">
-        <v>15309046</v>
+        <v>15309063</v>
       </c>
       <c r="N199">
-        <v>8356552</v>
+        <v>8356555</v>
       </c>
       <c r="O199">
-        <v>2587925</v>
+        <v>2587924</v>
       </c>
       <c r="P199">
         <v>3887</v>
@@ -10187,7 +10187,7 @@
         <v>735606</v>
       </c>
       <c r="E200">
-        <v>247049</v>
+        <v>247050</v>
       </c>
       <c r="F200">
         <v>11601024</v>
@@ -10211,10 +10211,10 @@
         <v>132.87</v>
       </c>
       <c r="M200">
-        <v>15440656</v>
+        <v>15440672</v>
       </c>
       <c r="N200">
-        <v>8350571</v>
+        <v>8350574</v>
       </c>
       <c r="O200">
         <v>2599976</v>
@@ -10261,16 +10261,16 @@
         <v>14.4</v>
       </c>
       <c r="L201">
-        <v>133.48</v>
+        <v>133.49</v>
       </c>
       <c r="M201">
-        <v>15510430</v>
+        <v>15510447</v>
       </c>
       <c r="N201">
-        <v>8368314</v>
+        <v>8368317</v>
       </c>
       <c r="O201">
-        <v>2605552</v>
+        <v>2605551</v>
       </c>
       <c r="P201">
         <v>3887</v>
@@ -10296,7 +10296,7 @@
         <v>211859</v>
       </c>
       <c r="F202">
-        <v>10071196</v>
+        <v>10071173</v>
       </c>
       <c r="G202">
         <v>8724780</v>
@@ -10317,10 +10317,10 @@
         <v>134.04</v>
       </c>
       <c r="M202">
-        <v>15673740</v>
+        <v>15673757</v>
       </c>
       <c r="N202">
-        <v>8381871</v>
+        <v>8381874</v>
       </c>
       <c r="O202">
         <v>2635466</v>
@@ -10349,7 +10349,7 @@
         <v>223173</v>
       </c>
       <c r="F203">
-        <v>9851424</v>
+        <v>9851387</v>
       </c>
       <c r="G203">
         <v>8695175</v>
@@ -10376,7 +10376,7 @@
         <v>8380544</v>
       </c>
       <c r="O203">
-        <v>2650964</v>
+        <v>2650969</v>
       </c>
       <c r="P203">
         <v>3915</v>
@@ -10429,7 +10429,7 @@
         <v>8330361</v>
       </c>
       <c r="O204">
-        <v>2658786</v>
+        <v>2658791</v>
       </c>
       <c r="P204">
         <v>3927</v>
@@ -10482,7 +10482,7 @@
         <v>8360752</v>
       </c>
       <c r="O205">
-        <v>2687335</v>
+        <v>2687340</v>
       </c>
       <c r="P205">
         <v>3938</v>
@@ -10535,7 +10535,7 @@
         <v>8190399</v>
       </c>
       <c r="O206">
-        <v>2682389</v>
+        <v>2682394</v>
       </c>
       <c r="P206">
         <v>3943</v>
@@ -10588,7 +10588,7 @@
         <v>8167954</v>
       </c>
       <c r="O207">
-        <v>2694740</v>
+        <v>2694745</v>
       </c>
       <c r="P207">
         <v>3943</v>
@@ -10641,7 +10641,7 @@
         <v>8133267</v>
       </c>
       <c r="O208">
-        <v>2719323</v>
+        <v>2719328</v>
       </c>
       <c r="P208">
         <v>3945</v>
@@ -10694,7 +10694,7 @@
         <v>8038963</v>
       </c>
       <c r="O209">
-        <v>2707765</v>
+        <v>2707770</v>
       </c>
       <c r="P209">
         <v>3954</v>
@@ -10747,7 +10747,7 @@
         <v>7908330</v>
       </c>
       <c r="O210">
-        <v>2680330</v>
+        <v>2680335</v>
       </c>
       <c r="P210">
         <v>3955</v>
@@ -10800,7 +10800,7 @@
         <v>7873641</v>
       </c>
       <c r="O211">
-        <v>2671974</v>
+        <v>2671975</v>
       </c>
       <c r="P211">
         <v>3950</v>
@@ -11877,7 +11877,7 @@
         <v>32598</v>
       </c>
       <c r="B232">
-        <v>1361140</v>
+        <v>1361152</v>
       </c>
       <c r="D232">
         <v>652549</v>
@@ -11886,7 +11886,7 @@
         <v>176192</v>
       </c>
       <c r="F232">
-        <v>11589048</v>
+        <v>11589053</v>
       </c>
       <c r="G232">
         <v>10451849</v>
@@ -33692,7 +33692,7 @@
         <v>304699</v>
       </c>
       <c r="E629">
-        <v>125345</v>
+        <v>125379</v>
       </c>
       <c r="F629">
         <v>6032730</v>
@@ -33722,7 +33722,7 @@
         <v>5635512</v>
       </c>
       <c r="O629">
-        <v>2880151</v>
+        <v>2880185</v>
       </c>
       <c r="P629">
         <v>5077</v>
@@ -33748,7 +33748,7 @@
         <v>313021</v>
       </c>
       <c r="E630">
-        <v>125552</v>
+        <v>125575</v>
       </c>
       <c r="F630">
         <v>5982003</v>
@@ -33778,7 +33778,7 @@
         <v>5196379</v>
       </c>
       <c r="O630">
-        <v>2635158</v>
+        <v>2635215</v>
       </c>
       <c r="P630">
         <v>5092</v>
@@ -33804,7 +33804,7 @@
         <v>327875</v>
       </c>
       <c r="E631">
-        <v>106283</v>
+        <v>106325</v>
       </c>
       <c r="F631">
         <v>5513046</v>
@@ -33834,7 +33834,7 @@
         <v>4865258</v>
       </c>
       <c r="O631">
-        <v>2407495</v>
+        <v>2407594</v>
       </c>
       <c r="P631">
         <v>5090</v>
@@ -33890,7 +33890,7 @@
         <v>4641621</v>
       </c>
       <c r="O632">
-        <v>2234704</v>
+        <v>2234803</v>
       </c>
       <c r="P632">
         <v>5103</v>
@@ -33946,7 +33946,7 @@
         <v>4537767</v>
       </c>
       <c r="O633">
-        <v>2079335</v>
+        <v>2079434</v>
       </c>
       <c r="P633">
         <v>5109</v>
@@ -33987,7 +33987,7 @@
         <v>404.1</v>
       </c>
       <c r="J634">
-        <v>29.33</v>
+        <v>29.34</v>
       </c>
       <c r="K634">
         <v>15.41</v>
@@ -34002,7 +34002,7 @@
         <v>4347817</v>
       </c>
       <c r="O634">
-        <v>1876539</v>
+        <v>1876638</v>
       </c>
       <c r="P634">
         <v>5115</v>
@@ -34058,7 +34058,7 @@
         <v>4290001</v>
       </c>
       <c r="O635">
-        <v>1684791</v>
+        <v>1684890</v>
       </c>
       <c r="P635">
         <v>5104</v>
@@ -34090,7 +34090,7 @@
         <v>5707447</v>
       </c>
       <c r="G636">
-        <v>4583848</v>
+        <v>4583847</v>
       </c>
       <c r="H636">
         <v>1872004</v>
@@ -34114,7 +34114,7 @@
         <v>4314272</v>
       </c>
       <c r="O636">
-        <v>1586015</v>
+        <v>1586114</v>
       </c>
       <c r="P636">
         <v>5116</v>
@@ -34123,7 +34123,7 @@
         <v>14335</v>
       </c>
       <c r="R636">
-        <v>354196</v>
+        <v>355898</v>
       </c>
     </row>
     <row r="637">
@@ -34170,27 +34170,122 @@
         <v>4362897</v>
       </c>
       <c r="O637">
-        <v>1518733</v>
+        <v>1518832</v>
       </c>
       <c r="P637">
-        <v>5078</v>
+        <v>5087</v>
       </c>
       <c r="Q637">
-        <v>14364</v>
+        <v>14370</v>
       </c>
       <c r="R637">
-        <v>353726</v>
+        <v>356463</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="2">
         <v>44957</v>
       </c>
+      <c r="B638">
+        <v>1212366</v>
+      </c>
+      <c r="C638">
+        <v>1855.5</v>
+      </c>
+      <c r="D638">
+        <v>650635</v>
+      </c>
+      <c r="E638">
+        <v>139672</v>
+      </c>
+      <c r="F638">
+        <v>8985963</v>
+      </c>
+      <c r="G638">
+        <v>7351675</v>
+      </c>
+      <c r="H638">
+        <v>3117483</v>
+      </c>
+      <c r="I638">
+        <v>430.2</v>
+      </c>
+      <c r="J638">
+        <v>31.9</v>
+      </c>
+      <c r="K638">
+        <v>13.91</v>
+      </c>
+      <c r="L638">
+        <v>406.12</v>
+      </c>
+      <c r="M638">
+        <v>24738945</v>
+      </c>
+      <c r="N638">
+        <v>4483677</v>
+      </c>
+      <c r="O638">
+        <v>1480802</v>
+      </c>
       <c r="P638">
-        <v>5117</v>
+        <v>5162</v>
       </c>
       <c r="Q638">
-        <v>14394</v>
+        <v>14406</v>
+      </c>
+      <c r="R638">
+        <v>351554</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="2">
+        <v>44985</v>
+      </c>
+      <c r="B639">
+        <v>893566</v>
+      </c>
+      <c r="D639">
+        <v>467142</v>
+      </c>
+      <c r="E639">
+        <v>118210</v>
+      </c>
+      <c r="F639">
+        <v>7771440</v>
+      </c>
+      <c r="G639">
+        <v>6557147</v>
+      </c>
+      <c r="H639">
+        <v>2821285</v>
+      </c>
+      <c r="I639">
+        <v>437.68</v>
+      </c>
+      <c r="J639">
+        <v>32.17</v>
+      </c>
+      <c r="K639">
+        <v>13.75</v>
+      </c>
+      <c r="L639">
+        <v>410.06</v>
+      </c>
+      <c r="M639">
+        <v>25144701</v>
+      </c>
+      <c r="N639">
+        <v>4558184</v>
+      </c>
+      <c r="O639">
+        <v>1459835</v>
+      </c>
+      <c r="P639">
+        <v>5164</v>
+      </c>
+      <c r="Q639">
+        <v>14443</v>
       </c>
     </row>
   </sheetData>

--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R639"/>
+  <dimension ref="A1:R640"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2832,7 +2832,7 @@
         <v>745011</v>
       </c>
       <c r="I61">
-        <v>67.24</v>
+        <v>67.23999999999999</v>
       </c>
       <c r="J61">
         <v>30.96</v>
@@ -3265,7 +3265,7 @@
         <v>14.29</v>
       </c>
       <c r="L69">
-        <v>68.74</v>
+        <v>68.73999999999999</v>
       </c>
       <c r="M69">
         <v>10944048</v>
@@ -3362,7 +3362,7 @@
         <v>757012</v>
       </c>
       <c r="I71">
-        <v>72.37000000000001</v>
+        <v>72.37</v>
       </c>
       <c r="J71">
         <v>37.4</v>
@@ -4687,7 +4687,7 @@
         <v>597933</v>
       </c>
       <c r="I96">
-        <v>80.24</v>
+        <v>80.23999999999999</v>
       </c>
       <c r="J96">
         <v>32.98</v>
@@ -4793,7 +4793,7 @@
         <v>904872</v>
       </c>
       <c r="I98">
-        <v>84.12000000000001</v>
+        <v>84.12</v>
       </c>
       <c r="J98">
         <v>32.33</v>
@@ -4908,7 +4908,7 @@
         <v>14.26</v>
       </c>
       <c r="L100">
-        <v>80.49</v>
+        <v>80.48999999999999</v>
       </c>
       <c r="M100">
         <v>8552554</v>
@@ -5067,7 +5067,7 @@
         <v>13.87</v>
       </c>
       <c r="L103">
-        <v>81.74</v>
+        <v>81.73999999999999</v>
       </c>
       <c r="M103">
         <v>8390319</v>
@@ -5120,7 +5120,7 @@
         <v>13.74</v>
       </c>
       <c r="L104">
-        <v>82.12000000000001</v>
+        <v>82.12</v>
       </c>
       <c r="M104">
         <v>8353744</v>
@@ -5173,7 +5173,7 @@
         <v>13.57</v>
       </c>
       <c r="L105">
-        <v>82.49</v>
+        <v>82.48999999999999</v>
       </c>
       <c r="M105">
         <v>8358621</v>
@@ -5544,7 +5544,7 @@
         <v>13.21</v>
       </c>
       <c r="L112">
-        <v>85.12000000000001</v>
+        <v>85.12</v>
       </c>
       <c r="M112">
         <v>8256015</v>
@@ -5641,7 +5641,7 @@
         <v>725229</v>
       </c>
       <c r="I114">
-        <v>88.37000000000001</v>
+        <v>88.37</v>
       </c>
       <c r="J114">
         <v>25.87</v>
@@ -5968,7 +5968,7 @@
         <v>13.08</v>
       </c>
       <c r="L120">
-        <v>88.99</v>
+        <v>88.98999999999999</v>
       </c>
       <c r="M120">
         <v>9066829</v>
@@ -6277,7 +6277,7 @@
         <v>1196836</v>
       </c>
       <c r="I126">
-        <v>99.74</v>
+        <v>99.73999999999999</v>
       </c>
       <c r="J126">
         <v>28.31</v>
@@ -6592,10 +6592,10 @@
         <v>9516801</v>
       </c>
       <c r="H132">
-        <v>935557</v>
+        <v>935495</v>
       </c>
       <c r="I132">
-        <v>100.72</v>
+        <v>100.71</v>
       </c>
       <c r="J132">
         <v>32.75</v>
@@ -6607,7 +6607,7 @@
         <v>99.05</v>
       </c>
       <c r="M132">
-        <v>14067104</v>
+        <v>14067042</v>
       </c>
       <c r="N132">
         <v>9919645</v>
@@ -6660,7 +6660,7 @@
         <v>99.53</v>
       </c>
       <c r="M133">
-        <v>14469556</v>
+        <v>14469495</v>
       </c>
       <c r="N133">
         <v>9992123</v>
@@ -6713,7 +6713,7 @@
         <v>100.2</v>
       </c>
       <c r="M134">
-        <v>14605192</v>
+        <v>14605130</v>
       </c>
       <c r="N134">
         <v>9946214</v>
@@ -6766,7 +6766,7 @@
         <v>100.72</v>
       </c>
       <c r="M135">
-        <v>14690628</v>
+        <v>14690567</v>
       </c>
       <c r="N135">
         <v>9890722</v>
@@ -6819,7 +6819,7 @@
         <v>101.31</v>
       </c>
       <c r="M136">
-        <v>14867088</v>
+        <v>14867026</v>
       </c>
       <c r="N136">
         <v>9919839</v>
@@ -6872,7 +6872,7 @@
         <v>101.83</v>
       </c>
       <c r="M137">
-        <v>14861606</v>
+        <v>14861544</v>
       </c>
       <c r="N137">
         <v>9793604</v>
@@ -6925,7 +6925,7 @@
         <v>102.25</v>
       </c>
       <c r="M138">
-        <v>14670998</v>
+        <v>14670936</v>
       </c>
       <c r="N138">
         <v>9476838</v>
@@ -6978,7 +6978,7 @@
         <v>102.61</v>
       </c>
       <c r="M139">
-        <v>14467223</v>
+        <v>14467161</v>
       </c>
       <c r="N139">
         <v>9214474</v>
@@ -7004,7 +7004,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823701</v>
+        <v>823711</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -7031,10 +7031,10 @@
         <v>103.08</v>
       </c>
       <c r="M140">
-        <v>14132003</v>
+        <v>14131941</v>
       </c>
       <c r="N140">
-        <v>8935537</v>
+        <v>8935547</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -7084,10 +7084,10 @@
         <v>103.59</v>
       </c>
       <c r="M141">
-        <v>13894299</v>
+        <v>13894237</v>
       </c>
       <c r="N141">
-        <v>8782052</v>
+        <v>8782062</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -7137,10 +7137,10 @@
         <v>104.14</v>
       </c>
       <c r="M142">
-        <v>13750206</v>
+        <v>13750144</v>
       </c>
       <c r="N142">
-        <v>8776320</v>
+        <v>8776330</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -7190,10 +7190,10 @@
         <v>104.75</v>
       </c>
       <c r="M143">
-        <v>13622075</v>
+        <v>13622013</v>
       </c>
       <c r="N143">
-        <v>8836762</v>
+        <v>8836772</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -7246,7 +7246,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042570</v>
+        <v>9042580</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -7299,7 +7299,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9395190</v>
+        <v>9395200</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -7352,7 +7352,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9716054</v>
+        <v>9716064</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -7405,7 +7405,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916885</v>
+        <v>9916895</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -7458,7 +7458,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176518</v>
+        <v>10176528</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -7511,7 +7511,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10402099</v>
+        <v>10402109</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -7564,7 +7564,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586499</v>
+        <v>10586509</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -7617,7 +7617,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834412</v>
+        <v>10834422</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -9442,7 +9442,7 @@
         <v>1488338</v>
       </c>
       <c r="D186">
-        <v>590478</v>
+        <v>590485</v>
       </c>
       <c r="E186">
         <v>232183</v>
@@ -9451,10 +9451,10 @@
         <v>10937527</v>
       </c>
       <c r="G186">
-        <v>9818625</v>
+        <v>9818740</v>
       </c>
       <c r="H186">
-        <v>1208992</v>
+        <v>1208967</v>
       </c>
       <c r="I186">
         <v>127.36</v>
@@ -9469,10 +9469,10 @@
         <v>125.18</v>
       </c>
       <c r="M186">
-        <v>13889781</v>
+        <v>13889756</v>
       </c>
       <c r="N186">
-        <v>8211283</v>
+        <v>8211290</v>
       </c>
       <c r="O186">
         <v>2510371</v>
@@ -9522,10 +9522,10 @@
         <v>125.48</v>
       </c>
       <c r="M187">
-        <v>13966014</v>
+        <v>13965989</v>
       </c>
       <c r="N187">
-        <v>8231274</v>
+        <v>8231281</v>
       </c>
       <c r="O187">
         <v>2506811</v>
@@ -9575,10 +9575,10 @@
         <v>125.89</v>
       </c>
       <c r="M188">
-        <v>14177248</v>
+        <v>14177222</v>
       </c>
       <c r="N188">
-        <v>8311060</v>
+        <v>8311067</v>
       </c>
       <c r="O188">
         <v>2528409</v>
@@ -9628,10 +9628,10 @@
         <v>126.37</v>
       </c>
       <c r="M189">
-        <v>14260555</v>
+        <v>14260530</v>
       </c>
       <c r="N189">
-        <v>8315420</v>
+        <v>8315427</v>
       </c>
       <c r="O189">
         <v>2521451</v>
@@ -9678,13 +9678,13 @@
         <v>14.06</v>
       </c>
       <c r="L190">
-        <v>126.79</v>
+        <v>126.78</v>
       </c>
       <c r="M190">
-        <v>14422882</v>
+        <v>14422857</v>
       </c>
       <c r="N190">
-        <v>8371001</v>
+        <v>8371008</v>
       </c>
       <c r="O190">
         <v>2540057</v>
@@ -9707,19 +9707,19 @@
         <v>1667576</v>
       </c>
       <c r="D191">
-        <v>573547</v>
+        <v>573551</v>
       </c>
       <c r="E191">
-        <v>207670</v>
+        <v>207672</v>
       </c>
       <c r="F191">
         <v>9966680</v>
       </c>
       <c r="G191">
-        <v>8670448</v>
+        <v>8670501</v>
       </c>
       <c r="H191">
-        <v>1073070</v>
+        <v>1073073</v>
       </c>
       <c r="I191">
         <v>128.59</v>
@@ -9734,13 +9734,13 @@
         <v>127.14</v>
       </c>
       <c r="M191">
-        <v>14528050</v>
+        <v>14528027</v>
       </c>
       <c r="N191">
-        <v>8368522</v>
+        <v>8368533</v>
       </c>
       <c r="O191">
-        <v>2551083</v>
+        <v>2551085</v>
       </c>
       <c r="P191">
         <v>3864</v>
@@ -9787,13 +9787,13 @@
         <v>127.59</v>
       </c>
       <c r="M192">
-        <v>14532825</v>
+        <v>14532802</v>
       </c>
       <c r="N192">
-        <v>8290096</v>
+        <v>8290107</v>
       </c>
       <c r="O192">
-        <v>2547705</v>
+        <v>2547707</v>
       </c>
       <c r="P192">
         <v>3867</v>
@@ -9840,13 +9840,13 @@
         <v>128.14</v>
       </c>
       <c r="M193">
-        <v>14761348</v>
+        <v>14761325</v>
       </c>
       <c r="N193">
-        <v>8365188</v>
+        <v>8365199</v>
       </c>
       <c r="O193">
-        <v>2572353</v>
+        <v>2572355</v>
       </c>
       <c r="P193">
         <v>3862</v>
@@ -9872,7 +9872,7 @@
         <v>235008</v>
       </c>
       <c r="F194">
-        <v>14729036</v>
+        <v>14729039</v>
       </c>
       <c r="G194">
         <v>13027499</v>
@@ -9893,13 +9893,13 @@
         <v>128.88</v>
       </c>
       <c r="M194">
-        <v>14844029</v>
+        <v>14844006</v>
       </c>
       <c r="N194">
-        <v>8388075</v>
+        <v>8388086</v>
       </c>
       <c r="O194">
-        <v>2570153</v>
+        <v>2570155</v>
       </c>
       <c r="P194">
         <v>3869</v>
@@ -9946,13 +9946,13 @@
         <v>129.54</v>
       </c>
       <c r="M195">
-        <v>14888959</v>
+        <v>14888937</v>
       </c>
       <c r="N195">
-        <v>8325547</v>
+        <v>8325558</v>
       </c>
       <c r="O195">
-        <v>2571042</v>
+        <v>2571044</v>
       </c>
       <c r="P195">
         <v>3875</v>
@@ -9978,7 +9978,7 @@
         <v>219934</v>
       </c>
       <c r="F196">
-        <v>13097784</v>
+        <v>13097731</v>
       </c>
       <c r="G196">
         <v>11730221</v>
@@ -9999,13 +9999,13 @@
         <v>130.2</v>
       </c>
       <c r="M196">
-        <v>14967641</v>
+        <v>14967619</v>
       </c>
       <c r="N196">
-        <v>8320043</v>
+        <v>8320054</v>
       </c>
       <c r="O196">
-        <v>2563116</v>
+        <v>2563118</v>
       </c>
       <c r="P196">
         <v>3873</v>
@@ -10052,13 +10052,13 @@
         <v>130.86</v>
       </c>
       <c r="M197">
-        <v>15089786</v>
+        <v>15089763</v>
       </c>
       <c r="N197">
-        <v>8341507</v>
+        <v>8341518</v>
       </c>
       <c r="O197">
-        <v>2566571</v>
+        <v>2566573</v>
       </c>
       <c r="P197">
         <v>3878</v>
@@ -10105,13 +10105,13 @@
         <v>131.55</v>
       </c>
       <c r="M198">
-        <v>15141519</v>
+        <v>15141521</v>
       </c>
       <c r="N198">
-        <v>8330307</v>
+        <v>8330311</v>
       </c>
       <c r="O198">
-        <v>2567372</v>
+        <v>2567374</v>
       </c>
       <c r="P198">
         <v>3884</v>
@@ -10137,7 +10137,7 @@
         <v>214628</v>
       </c>
       <c r="F199">
-        <v>10187312</v>
+        <v>10187313</v>
       </c>
       <c r="G199">
         <v>9028611</v>
@@ -10158,13 +10158,13 @@
         <v>132.19</v>
       </c>
       <c r="M199">
-        <v>15309063</v>
+        <v>15309065</v>
       </c>
       <c r="N199">
-        <v>8356555</v>
+        <v>8356559</v>
       </c>
       <c r="O199">
-        <v>2587924</v>
+        <v>2587926</v>
       </c>
       <c r="P199">
         <v>3887</v>
@@ -10211,13 +10211,13 @@
         <v>132.87</v>
       </c>
       <c r="M200">
-        <v>15440672</v>
+        <v>15440675</v>
       </c>
       <c r="N200">
-        <v>8350574</v>
+        <v>8350578</v>
       </c>
       <c r="O200">
-        <v>2599976</v>
+        <v>2599978</v>
       </c>
       <c r="P200">
         <v>3886</v>
@@ -10264,13 +10264,13 @@
         <v>133.49</v>
       </c>
       <c r="M201">
-        <v>15510447</v>
+        <v>15510449</v>
       </c>
       <c r="N201">
-        <v>8368317</v>
+        <v>8368321</v>
       </c>
       <c r="O201">
-        <v>2605551</v>
+        <v>2605553</v>
       </c>
       <c r="P201">
         <v>3887</v>
@@ -10296,7 +10296,7 @@
         <v>211859</v>
       </c>
       <c r="F202">
-        <v>10071173</v>
+        <v>10071177</v>
       </c>
       <c r="G202">
         <v>8724780</v>
@@ -10317,13 +10317,13 @@
         <v>134.04</v>
       </c>
       <c r="M202">
-        <v>15673757</v>
+        <v>15673759</v>
       </c>
       <c r="N202">
-        <v>8381874</v>
+        <v>8381878</v>
       </c>
       <c r="O202">
-        <v>2635466</v>
+        <v>2635468</v>
       </c>
       <c r="P202">
         <v>3895</v>
@@ -10349,7 +10349,7 @@
         <v>223173</v>
       </c>
       <c r="F203">
-        <v>9851387</v>
+        <v>9851394</v>
       </c>
       <c r="G203">
         <v>8695175</v>
@@ -11877,7 +11877,7 @@
         <v>32598</v>
       </c>
       <c r="B232">
-        <v>1361152</v>
+        <v>1361128</v>
       </c>
       <c r="D232">
         <v>652549</v>
@@ -11886,7 +11886,7 @@
         <v>176192</v>
       </c>
       <c r="F232">
-        <v>11589053</v>
+        <v>11588963</v>
       </c>
       <c r="G232">
         <v>10451849</v>
@@ -33530,13 +33530,13 @@
         <v>9141591</v>
       </c>
       <c r="G626">
-        <v>7008417</v>
+        <v>7009776</v>
       </c>
       <c r="H626">
-        <v>2634682</v>
+        <v>2635174</v>
       </c>
       <c r="I626">
-        <v>390.26</v>
+        <v>390.25</v>
       </c>
       <c r="J626">
         <v>40.18</v>
@@ -33548,7 +33548,7 @@
         <v>352.67</v>
       </c>
       <c r="M626">
-        <v>41276269</v>
+        <v>41276761</v>
       </c>
       <c r="N626">
         <v>7250472</v>
@@ -33604,7 +33604,7 @@
         <v>355.82</v>
       </c>
       <c r="M627">
-        <v>38623642</v>
+        <v>38624133</v>
       </c>
       <c r="N627">
         <v>6876981</v>
@@ -33660,7 +33660,7 @@
         <v>359.78</v>
       </c>
       <c r="M628">
-        <v>35817894</v>
+        <v>35818386</v>
       </c>
       <c r="N628">
         <v>6397086</v>
@@ -33716,7 +33716,7 @@
         <v>363.43</v>
       </c>
       <c r="M629">
-        <v>33636179</v>
+        <v>33636671</v>
       </c>
       <c r="N629">
         <v>5635512</v>
@@ -33772,7 +33772,7 @@
         <v>367.89</v>
       </c>
       <c r="M630">
-        <v>31533730</v>
+        <v>31534221</v>
       </c>
       <c r="N630">
         <v>5196379</v>
@@ -33828,7 +33828,7 @@
         <v>372.77</v>
       </c>
       <c r="M631">
-        <v>29239664</v>
+        <v>29240156</v>
       </c>
       <c r="N631">
         <v>4865258</v>
@@ -33884,7 +33884,7 @@
         <v>377.44</v>
       </c>
       <c r="M632">
-        <v>27537330</v>
+        <v>27537822</v>
       </c>
       <c r="N632">
         <v>4641621</v>
@@ -33940,7 +33940,7 @@
         <v>382.69</v>
       </c>
       <c r="M633">
-        <v>26108134</v>
+        <v>26108626</v>
       </c>
       <c r="N633">
         <v>4537767</v>
@@ -33996,7 +33996,7 @@
         <v>387.61</v>
       </c>
       <c r="M634">
-        <v>25081944</v>
+        <v>25082436</v>
       </c>
       <c r="N634">
         <v>4347817</v>
@@ -34052,7 +34052,7 @@
         <v>392.67</v>
       </c>
       <c r="M635">
-        <v>24558962</v>
+        <v>24559454</v>
       </c>
       <c r="N635">
         <v>4290001</v>
@@ -34087,7 +34087,7 @@
         <v>112215</v>
       </c>
       <c r="F636">
-        <v>5707447</v>
+        <v>5707460</v>
       </c>
       <c r="G636">
         <v>4583847</v>
@@ -34108,7 +34108,7 @@
         <v>397.24</v>
       </c>
       <c r="M636">
-        <v>24210257</v>
+        <v>24210749</v>
       </c>
       <c r="N636">
         <v>4314272</v>
@@ -34143,7 +34143,7 @@
         <v>114751</v>
       </c>
       <c r="F637">
-        <v>6576864</v>
+        <v>6576878</v>
       </c>
       <c r="G637">
         <v>5404792</v>
@@ -34164,7 +34164,7 @@
         <v>401.44</v>
       </c>
       <c r="M637">
-        <v>24256144</v>
+        <v>24256635</v>
       </c>
       <c r="N637">
         <v>4362897</v>
@@ -34179,7 +34179,7 @@
         <v>14370</v>
       </c>
       <c r="R637">
-        <v>356463</v>
+        <v>359372</v>
       </c>
     </row>
     <row r="638">
@@ -34196,7 +34196,7 @@
         <v>650635</v>
       </c>
       <c r="E638">
-        <v>139672</v>
+        <v>140555</v>
       </c>
       <c r="F638">
         <v>8985963</v>
@@ -34211,7 +34211,7 @@
         <v>430.2</v>
       </c>
       <c r="J638">
-        <v>31.9</v>
+        <v>31.92</v>
       </c>
       <c r="K638">
         <v>13.91</v>
@@ -34226,16 +34226,16 @@
         <v>4483677</v>
       </c>
       <c r="O638">
-        <v>1480802</v>
+        <v>1481685</v>
       </c>
       <c r="P638">
-        <v>5162</v>
+        <v>5156</v>
       </c>
       <c r="Q638">
-        <v>14406</v>
+        <v>14408</v>
       </c>
       <c r="R638">
-        <v>351554</v>
+        <v>360187</v>
       </c>
     </row>
     <row r="639">
@@ -34245,11 +34245,14 @@
       <c r="B639">
         <v>893566</v>
       </c>
+      <c r="C639">
+        <v>1870.1</v>
+      </c>
       <c r="D639">
         <v>467142</v>
       </c>
       <c r="E639">
-        <v>118210</v>
+        <v>118685</v>
       </c>
       <c r="F639">
         <v>7771440</v>
@@ -34264,7 +34267,7 @@
         <v>437.68</v>
       </c>
       <c r="J639">
-        <v>32.17</v>
+        <v>32.2</v>
       </c>
       <c r="K639">
         <v>13.75</v>
@@ -34279,13 +34282,69 @@
         <v>4558184</v>
       </c>
       <c r="O639">
-        <v>1459835</v>
+        <v>1461193</v>
       </c>
       <c r="P639">
-        <v>5164</v>
+        <v>5171</v>
       </c>
       <c r="Q639">
-        <v>14443</v>
+        <v>14444</v>
+      </c>
+      <c r="R639">
+        <v>359010</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="2">
+        <v>45016</v>
+      </c>
+      <c r="B640">
+        <v>986619</v>
+      </c>
+      <c r="C640">
+        <v>1852.7</v>
+      </c>
+      <c r="D640">
+        <v>410200</v>
+      </c>
+      <c r="E640">
+        <v>130478</v>
+      </c>
+      <c r="F640">
+        <v>7973206</v>
+      </c>
+      <c r="G640">
+        <v>6870522</v>
+      </c>
+      <c r="H640">
+        <v>2978415</v>
+      </c>
+      <c r="I640">
+        <v>441.25</v>
+      </c>
+      <c r="J640">
+        <v>32.73</v>
+      </c>
+      <c r="K640">
+        <v>13.72</v>
+      </c>
+      <c r="L640">
+        <v>413.68</v>
+      </c>
+      <c r="M640">
+        <v>25582401</v>
+      </c>
+      <c r="N640">
+        <v>4598297</v>
+      </c>
+      <c r="O640">
+        <v>1423214</v>
+      </c>
+      <c r="P640">
+        <v>5184</v>
+      </c>
+      <c r="Q640">
+        <v>14470</v>
       </c>
     </row>
   </sheetData>

--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R640"/>
+  <dimension ref="A1:R641"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7004,7 +7004,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823711</v>
+        <v>823721</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -7034,7 +7034,7 @@
         <v>14131941</v>
       </c>
       <c r="N140">
-        <v>8935547</v>
+        <v>8935557</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -7087,7 +7087,7 @@
         <v>13894237</v>
       </c>
       <c r="N141">
-        <v>8782062</v>
+        <v>8782072</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -7140,7 +7140,7 @@
         <v>13750144</v>
       </c>
       <c r="N142">
-        <v>8776330</v>
+        <v>8776340</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -7193,7 +7193,7 @@
         <v>13622013</v>
       </c>
       <c r="N143">
-        <v>8836772</v>
+        <v>8836782</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -7246,7 +7246,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042580</v>
+        <v>9042590</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -7299,7 +7299,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9395200</v>
+        <v>9395210</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -7352,7 +7352,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9716064</v>
+        <v>9716074</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -7405,7 +7405,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916895</v>
+        <v>9916905</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -7458,7 +7458,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176528</v>
+        <v>10176538</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -7511,7 +7511,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10402109</v>
+        <v>10402119</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -7564,7 +7564,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586509</v>
+        <v>10586519</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -7617,7 +7617,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834422</v>
+        <v>10834432</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -7870,7 +7870,7 @@
         <v>123.46</v>
       </c>
       <c r="J156">
-        <v>37.94</v>
+        <v>37.93</v>
       </c>
       <c r="K156">
         <v>15.57</v>
@@ -9707,7 +9707,7 @@
         <v>1667576</v>
       </c>
       <c r="D191">
-        <v>573551</v>
+        <v>573553</v>
       </c>
       <c r="E191">
         <v>207672</v>
@@ -9716,10 +9716,10 @@
         <v>9966680</v>
       </c>
       <c r="G191">
-        <v>8670501</v>
+        <v>8670523</v>
       </c>
       <c r="H191">
-        <v>1073073</v>
+        <v>1073075</v>
       </c>
       <c r="I191">
         <v>128.59</v>
@@ -9734,10 +9734,10 @@
         <v>127.14</v>
       </c>
       <c r="M191">
-        <v>14528027</v>
+        <v>14528029</v>
       </c>
       <c r="N191">
-        <v>8368533</v>
+        <v>8368535</v>
       </c>
       <c r="O191">
         <v>2551085</v>
@@ -9787,10 +9787,10 @@
         <v>127.59</v>
       </c>
       <c r="M192">
-        <v>14532802</v>
+        <v>14532804</v>
       </c>
       <c r="N192">
-        <v>8290107</v>
+        <v>8290109</v>
       </c>
       <c r="O192">
         <v>2547707</v>
@@ -9840,10 +9840,10 @@
         <v>128.14</v>
       </c>
       <c r="M193">
-        <v>14761325</v>
+        <v>14761328</v>
       </c>
       <c r="N193">
-        <v>8365199</v>
+        <v>8365201</v>
       </c>
       <c r="O193">
         <v>2572355</v>
@@ -9872,7 +9872,7 @@
         <v>235008</v>
       </c>
       <c r="F194">
-        <v>14729039</v>
+        <v>14729043</v>
       </c>
       <c r="G194">
         <v>13027499</v>
@@ -9893,10 +9893,10 @@
         <v>128.88</v>
       </c>
       <c r="M194">
-        <v>14844006</v>
+        <v>14844008</v>
       </c>
       <c r="N194">
-        <v>8388086</v>
+        <v>8388088</v>
       </c>
       <c r="O194">
         <v>2570155</v>
@@ -9946,10 +9946,10 @@
         <v>129.54</v>
       </c>
       <c r="M195">
-        <v>14888937</v>
+        <v>14888939</v>
       </c>
       <c r="N195">
-        <v>8325558</v>
+        <v>8325560</v>
       </c>
       <c r="O195">
         <v>2571044</v>
@@ -9999,10 +9999,10 @@
         <v>130.2</v>
       </c>
       <c r="M196">
-        <v>14967619</v>
+        <v>14967621</v>
       </c>
       <c r="N196">
-        <v>8320054</v>
+        <v>8320056</v>
       </c>
       <c r="O196">
         <v>2563118</v>
@@ -10052,10 +10052,10 @@
         <v>130.86</v>
       </c>
       <c r="M197">
-        <v>15089763</v>
+        <v>15089765</v>
       </c>
       <c r="N197">
-        <v>8341518</v>
+        <v>8341520</v>
       </c>
       <c r="O197">
         <v>2566573</v>
@@ -10105,10 +10105,10 @@
         <v>131.55</v>
       </c>
       <c r="M198">
-        <v>15141521</v>
+        <v>15141524</v>
       </c>
       <c r="N198">
-        <v>8330311</v>
+        <v>8330313</v>
       </c>
       <c r="O198">
         <v>2567374</v>
@@ -10158,10 +10158,10 @@
         <v>132.19</v>
       </c>
       <c r="M199">
-        <v>15309065</v>
+        <v>15309067</v>
       </c>
       <c r="N199">
-        <v>8356559</v>
+        <v>8356561</v>
       </c>
       <c r="O199">
         <v>2587926</v>
@@ -10211,10 +10211,10 @@
         <v>132.87</v>
       </c>
       <c r="M200">
-        <v>15440675</v>
+        <v>15440677</v>
       </c>
       <c r="N200">
-        <v>8350578</v>
+        <v>8350580</v>
       </c>
       <c r="O200">
         <v>2599978</v>
@@ -10264,10 +10264,10 @@
         <v>133.49</v>
       </c>
       <c r="M201">
-        <v>15510449</v>
+        <v>15510451</v>
       </c>
       <c r="N201">
-        <v>8368321</v>
+        <v>8368323</v>
       </c>
       <c r="O201">
         <v>2605553</v>
@@ -10317,10 +10317,10 @@
         <v>134.04</v>
       </c>
       <c r="M202">
-        <v>15673759</v>
+        <v>15673761</v>
       </c>
       <c r="N202">
-        <v>8381878</v>
+        <v>8381880</v>
       </c>
       <c r="O202">
         <v>2635468</v>
@@ -34235,7 +34235,7 @@
         <v>14408</v>
       </c>
       <c r="R638">
-        <v>360187</v>
+        <v>363088</v>
       </c>
     </row>
     <row r="639">
@@ -34243,28 +34243,28 @@
         <v>44985</v>
       </c>
       <c r="B639">
-        <v>893566</v>
+        <v>893685</v>
       </c>
       <c r="C639">
         <v>1870.1</v>
       </c>
       <c r="D639">
-        <v>467142</v>
+        <v>467290</v>
       </c>
       <c r="E639">
-        <v>118685</v>
+        <v>118686</v>
       </c>
       <c r="F639">
-        <v>7771440</v>
+        <v>7772040</v>
       </c>
       <c r="G639">
-        <v>6557147</v>
+        <v>6557157</v>
       </c>
       <c r="H639">
-        <v>2821285</v>
+        <v>2820610</v>
       </c>
       <c r="I639">
-        <v>437.68</v>
+        <v>437.57</v>
       </c>
       <c r="J639">
         <v>32.2</v>
@@ -34273,25 +34273,25 @@
         <v>13.75</v>
       </c>
       <c r="L639">
-        <v>410.06</v>
+        <v>410.05</v>
       </c>
       <c r="M639">
-        <v>25144701</v>
+        <v>25144025</v>
       </c>
       <c r="N639">
-        <v>4558184</v>
+        <v>4558332</v>
       </c>
       <c r="O639">
-        <v>1461193</v>
+        <v>1461194</v>
       </c>
       <c r="P639">
-        <v>5171</v>
+        <v>5175</v>
       </c>
       <c r="Q639">
-        <v>14444</v>
+        <v>14435</v>
       </c>
       <c r="R639">
-        <v>359010</v>
+        <v>366545</v>
       </c>
     </row>
     <row r="640">
@@ -34299,28 +34299,28 @@
         <v>45016</v>
       </c>
       <c r="B640">
-        <v>986619</v>
+        <v>986628</v>
       </c>
       <c r="C640">
         <v>1852.7</v>
       </c>
       <c r="D640">
-        <v>410200</v>
+        <v>410627</v>
       </c>
       <c r="E640">
-        <v>130478</v>
+        <v>130480</v>
       </c>
       <c r="F640">
-        <v>7973206</v>
+        <v>7973299</v>
       </c>
       <c r="G640">
-        <v>6870522</v>
+        <v>6870559</v>
       </c>
       <c r="H640">
-        <v>2978415</v>
+        <v>2977145</v>
       </c>
       <c r="I640">
-        <v>441.25</v>
+        <v>441.06</v>
       </c>
       <c r="J640">
         <v>32.73</v>
@@ -34329,22 +34329,36 @@
         <v>13.72</v>
       </c>
       <c r="L640">
-        <v>413.68</v>
+        <v>413.65</v>
       </c>
       <c r="M640">
-        <v>25582401</v>
+        <v>25580456</v>
       </c>
       <c r="N640">
-        <v>4598297</v>
+        <v>4598872</v>
       </c>
       <c r="O640">
-        <v>1423214</v>
+        <v>1423217</v>
       </c>
       <c r="P640">
-        <v>5184</v>
+        <v>5188</v>
       </c>
       <c r="Q640">
-        <v>14470</v>
+        <v>14456</v>
+      </c>
+      <c r="R640">
+        <v>367595</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="2">
+        <v>45046</v>
+      </c>
+      <c r="P641">
+        <v>5191</v>
+      </c>
+      <c r="Q641">
+        <v>14473</v>
       </c>
     </row>
   </sheetData>

--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R641"/>
+  <dimension ref="A1:R642"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4781,13 +4781,13 @@
         <v>1063136</v>
       </c>
       <c r="E98">
-        <v>210661</v>
+        <v>210662</v>
       </c>
       <c r="F98">
-        <v>13886970</v>
+        <v>13886973</v>
       </c>
       <c r="G98">
-        <v>11076405</v>
+        <v>11076407</v>
       </c>
       <c r="H98">
         <v>904872</v>
@@ -4811,7 +4811,7 @@
         <v>7816720</v>
       </c>
       <c r="O98">
-        <v>2726125</v>
+        <v>2726126</v>
       </c>
       <c r="P98">
         <v>3429</v>
@@ -4864,7 +4864,7 @@
         <v>7675188</v>
       </c>
       <c r="O99">
-        <v>2658765</v>
+        <v>2658766</v>
       </c>
       <c r="P99">
         <v>3442</v>
@@ -4911,13 +4911,13 @@
         <v>80.48999999999999</v>
       </c>
       <c r="M100">
-        <v>8552554</v>
+        <v>8552555</v>
       </c>
       <c r="N100">
         <v>7655474</v>
       </c>
       <c r="O100">
-        <v>2569595</v>
+        <v>2569596</v>
       </c>
       <c r="P100">
         <v>3456</v>
@@ -4970,7 +4970,7 @@
         <v>7630816</v>
       </c>
       <c r="O101">
-        <v>2496711</v>
+        <v>2496712</v>
       </c>
       <c r="P101">
         <v>3472</v>
@@ -5017,13 +5017,13 @@
         <v>81.34999999999999</v>
       </c>
       <c r="M102">
-        <v>8469980</v>
+        <v>8469981</v>
       </c>
       <c r="N102">
         <v>7605385</v>
       </c>
       <c r="O102">
-        <v>2447767</v>
+        <v>2447768</v>
       </c>
       <c r="P102">
         <v>3483</v>
@@ -5076,7 +5076,7 @@
         <v>7610191</v>
       </c>
       <c r="O103">
-        <v>2369800</v>
+        <v>2369801</v>
       </c>
       <c r="P103">
         <v>3482</v>
@@ -5129,7 +5129,7 @@
         <v>7610967</v>
       </c>
       <c r="O104">
-        <v>2306253</v>
+        <v>2306254</v>
       </c>
       <c r="P104">
         <v>3473</v>
@@ -5182,7 +5182,7 @@
         <v>7677889</v>
       </c>
       <c r="O105">
-        <v>2230966</v>
+        <v>2230967</v>
       </c>
       <c r="P105">
         <v>3475</v>
@@ -5235,7 +5235,7 @@
         <v>7636142</v>
       </c>
       <c r="O106">
-        <v>2171024</v>
+        <v>2171025</v>
       </c>
       <c r="P106">
         <v>3484</v>
@@ -5288,7 +5288,7 @@
         <v>7633029</v>
       </c>
       <c r="O107">
-        <v>2121252</v>
+        <v>2121253</v>
       </c>
       <c r="P107">
         <v>3488</v>
@@ -5341,7 +5341,7 @@
         <v>7603593</v>
       </c>
       <c r="O108">
-        <v>2073377</v>
+        <v>2073378</v>
       </c>
       <c r="P108">
         <v>3494</v>
@@ -5388,13 +5388,13 @@
         <v>83.67</v>
       </c>
       <c r="M109">
-        <v>8212242</v>
+        <v>8212243</v>
       </c>
       <c r="N109">
         <v>7568310</v>
       </c>
       <c r="O109">
-        <v>2030439</v>
+        <v>2030440</v>
       </c>
       <c r="P109">
         <v>3500</v>
@@ -6592,10 +6592,10 @@
         <v>9516801</v>
       </c>
       <c r="H132">
-        <v>935495</v>
+        <v>935438</v>
       </c>
       <c r="I132">
-        <v>100.71</v>
+        <v>100.7</v>
       </c>
       <c r="J132">
         <v>32.75</v>
@@ -6607,7 +6607,7 @@
         <v>99.05</v>
       </c>
       <c r="M132">
-        <v>14067042</v>
+        <v>14066985</v>
       </c>
       <c r="N132">
         <v>9919645</v>
@@ -6660,7 +6660,7 @@
         <v>99.53</v>
       </c>
       <c r="M133">
-        <v>14469495</v>
+        <v>14469438</v>
       </c>
       <c r="N133">
         <v>9992123</v>
@@ -6713,7 +6713,7 @@
         <v>100.2</v>
       </c>
       <c r="M134">
-        <v>14605130</v>
+        <v>14605073</v>
       </c>
       <c r="N134">
         <v>9946214</v>
@@ -6766,7 +6766,7 @@
         <v>100.72</v>
       </c>
       <c r="M135">
-        <v>14690567</v>
+        <v>14690510</v>
       </c>
       <c r="N135">
         <v>9890722</v>
@@ -6819,7 +6819,7 @@
         <v>101.31</v>
       </c>
       <c r="M136">
-        <v>14867026</v>
+        <v>14866969</v>
       </c>
       <c r="N136">
         <v>9919839</v>
@@ -6872,7 +6872,7 @@
         <v>101.83</v>
       </c>
       <c r="M137">
-        <v>14861544</v>
+        <v>14861487</v>
       </c>
       <c r="N137">
         <v>9793604</v>
@@ -6925,7 +6925,7 @@
         <v>102.25</v>
       </c>
       <c r="M138">
-        <v>14670936</v>
+        <v>14670879</v>
       </c>
       <c r="N138">
         <v>9476838</v>
@@ -6978,7 +6978,7 @@
         <v>102.61</v>
       </c>
       <c r="M139">
-        <v>14467161</v>
+        <v>14467104</v>
       </c>
       <c r="N139">
         <v>9214474</v>
@@ -7004,7 +7004,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823721</v>
+        <v>823731</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -7031,10 +7031,10 @@
         <v>103.08</v>
       </c>
       <c r="M140">
-        <v>14131941</v>
+        <v>14131884</v>
       </c>
       <c r="N140">
-        <v>8935557</v>
+        <v>8935567</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -7084,10 +7084,10 @@
         <v>103.59</v>
       </c>
       <c r="M141">
-        <v>13894237</v>
+        <v>13894180</v>
       </c>
       <c r="N141">
-        <v>8782072</v>
+        <v>8782082</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -7137,10 +7137,10 @@
         <v>104.14</v>
       </c>
       <c r="M142">
-        <v>13750144</v>
+        <v>13750087</v>
       </c>
       <c r="N142">
-        <v>8776340</v>
+        <v>8776350</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -7190,10 +7190,10 @@
         <v>104.75</v>
       </c>
       <c r="M143">
-        <v>13622013</v>
+        <v>13621956</v>
       </c>
       <c r="N143">
-        <v>8836782</v>
+        <v>8836792</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -7246,7 +7246,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042590</v>
+        <v>9042600</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -7299,7 +7299,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9395210</v>
+        <v>9395220</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -7352,7 +7352,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9716074</v>
+        <v>9716084</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -7405,7 +7405,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916905</v>
+        <v>9916915</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -7458,7 +7458,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176538</v>
+        <v>10176548</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -7511,7 +7511,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10402119</v>
+        <v>10402129</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -7564,7 +7564,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586519</v>
+        <v>10586529</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -7617,7 +7617,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834432</v>
+        <v>10834442</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -9442,7 +9442,7 @@
         <v>1488338</v>
       </c>
       <c r="D186">
-        <v>590485</v>
+        <v>590389</v>
       </c>
       <c r="E186">
         <v>232183</v>
@@ -9451,13 +9451,13 @@
         <v>10937527</v>
       </c>
       <c r="G186">
-        <v>9818740</v>
+        <v>9817128</v>
       </c>
       <c r="H186">
-        <v>1208967</v>
+        <v>1209245</v>
       </c>
       <c r="I186">
-        <v>127.36</v>
+        <v>127.41</v>
       </c>
       <c r="J186">
         <v>32.49</v>
@@ -9469,10 +9469,10 @@
         <v>125.18</v>
       </c>
       <c r="M186">
-        <v>13889756</v>
+        <v>13890034</v>
       </c>
       <c r="N186">
-        <v>8211290</v>
+        <v>8211194</v>
       </c>
       <c r="O186">
         <v>2510371</v>
@@ -9522,10 +9522,10 @@
         <v>125.48</v>
       </c>
       <c r="M187">
-        <v>13965989</v>
+        <v>13966267</v>
       </c>
       <c r="N187">
-        <v>8231281</v>
+        <v>8231185</v>
       </c>
       <c r="O187">
         <v>2506811</v>
@@ -9572,13 +9572,13 @@
         <v>14.01</v>
       </c>
       <c r="L188">
-        <v>125.89</v>
+        <v>125.9</v>
       </c>
       <c r="M188">
-        <v>14177222</v>
+        <v>14177500</v>
       </c>
       <c r="N188">
-        <v>8311067</v>
+        <v>8310971</v>
       </c>
       <c r="O188">
         <v>2528409</v>
@@ -9604,7 +9604,7 @@
         <v>631919</v>
       </c>
       <c r="E189">
-        <v>204866</v>
+        <v>204865</v>
       </c>
       <c r="F189">
         <v>10180433</v>
@@ -9628,13 +9628,13 @@
         <v>126.37</v>
       </c>
       <c r="M189">
-        <v>14260530</v>
+        <v>14260808</v>
       </c>
       <c r="N189">
-        <v>8315427</v>
+        <v>8315331</v>
       </c>
       <c r="O189">
-        <v>2521451</v>
+        <v>2521450</v>
       </c>
       <c r="P189">
         <v>3841</v>
@@ -9678,16 +9678,16 @@
         <v>14.06</v>
       </c>
       <c r="L190">
-        <v>126.78</v>
+        <v>126.79</v>
       </c>
       <c r="M190">
-        <v>14422857</v>
+        <v>14423135</v>
       </c>
       <c r="N190">
-        <v>8371008</v>
+        <v>8370912</v>
       </c>
       <c r="O190">
-        <v>2540057</v>
+        <v>2540056</v>
       </c>
       <c r="P190">
         <v>3855</v>
@@ -9707,7 +9707,7 @@
         <v>1667576</v>
       </c>
       <c r="D191">
-        <v>573553</v>
+        <v>573554</v>
       </c>
       <c r="E191">
         <v>207672</v>
@@ -9716,10 +9716,10 @@
         <v>9966680</v>
       </c>
       <c r="G191">
-        <v>8670523</v>
+        <v>8670544</v>
       </c>
       <c r="H191">
-        <v>1073075</v>
+        <v>1073077</v>
       </c>
       <c r="I191">
         <v>128.59</v>
@@ -9734,13 +9734,13 @@
         <v>127.14</v>
       </c>
       <c r="M191">
-        <v>14528029</v>
+        <v>14528309</v>
       </c>
       <c r="N191">
-        <v>8368535</v>
+        <v>8368440</v>
       </c>
       <c r="O191">
-        <v>2551085</v>
+        <v>2551084</v>
       </c>
       <c r="P191">
         <v>3864</v>
@@ -9787,13 +9787,13 @@
         <v>127.59</v>
       </c>
       <c r="M192">
-        <v>14532804</v>
+        <v>14533084</v>
       </c>
       <c r="N192">
-        <v>8290109</v>
+        <v>8290014</v>
       </c>
       <c r="O192">
-        <v>2547707</v>
+        <v>2547706</v>
       </c>
       <c r="P192">
         <v>3867</v>
@@ -9840,13 +9840,13 @@
         <v>128.14</v>
       </c>
       <c r="M193">
-        <v>14761328</v>
+        <v>14761607</v>
       </c>
       <c r="N193">
-        <v>8365201</v>
+        <v>8365106</v>
       </c>
       <c r="O193">
-        <v>2572355</v>
+        <v>2572354</v>
       </c>
       <c r="P193">
         <v>3862</v>
@@ -9872,7 +9872,7 @@
         <v>235008</v>
       </c>
       <c r="F194">
-        <v>14729043</v>
+        <v>14729047</v>
       </c>
       <c r="G194">
         <v>13027499</v>
@@ -9893,13 +9893,13 @@
         <v>128.88</v>
       </c>
       <c r="M194">
-        <v>14844008</v>
+        <v>14844288</v>
       </c>
       <c r="N194">
-        <v>8388088</v>
+        <v>8387993</v>
       </c>
       <c r="O194">
-        <v>2570155</v>
+        <v>2570154</v>
       </c>
       <c r="P194">
         <v>3869</v>
@@ -9946,13 +9946,13 @@
         <v>129.54</v>
       </c>
       <c r="M195">
-        <v>14888939</v>
+        <v>14889219</v>
       </c>
       <c r="N195">
-        <v>8325560</v>
+        <v>8325465</v>
       </c>
       <c r="O195">
-        <v>2571044</v>
+        <v>2571043</v>
       </c>
       <c r="P195">
         <v>3875</v>
@@ -9978,7 +9978,7 @@
         <v>219934</v>
       </c>
       <c r="F196">
-        <v>13097731</v>
+        <v>13097742</v>
       </c>
       <c r="G196">
         <v>11730221</v>
@@ -9999,13 +9999,13 @@
         <v>130.2</v>
       </c>
       <c r="M196">
-        <v>14967621</v>
+        <v>14967901</v>
       </c>
       <c r="N196">
-        <v>8320056</v>
+        <v>8319961</v>
       </c>
       <c r="O196">
-        <v>2563118</v>
+        <v>2563117</v>
       </c>
       <c r="P196">
         <v>3873</v>
@@ -10052,13 +10052,13 @@
         <v>130.86</v>
       </c>
       <c r="M197">
-        <v>15089765</v>
+        <v>15090045</v>
       </c>
       <c r="N197">
-        <v>8341520</v>
+        <v>8341425</v>
       </c>
       <c r="O197">
-        <v>2566573</v>
+        <v>2566572</v>
       </c>
       <c r="P197">
         <v>3878</v>
@@ -10105,13 +10105,13 @@
         <v>131.55</v>
       </c>
       <c r="M198">
-        <v>15141524</v>
+        <v>15141525</v>
       </c>
       <c r="N198">
-        <v>8330313</v>
+        <v>8330314</v>
       </c>
       <c r="O198">
-        <v>2567374</v>
+        <v>2567373</v>
       </c>
       <c r="P198">
         <v>3884</v>
@@ -10137,7 +10137,7 @@
         <v>214628</v>
       </c>
       <c r="F199">
-        <v>10187313</v>
+        <v>10187314</v>
       </c>
       <c r="G199">
         <v>9028611</v>
@@ -10158,13 +10158,13 @@
         <v>132.19</v>
       </c>
       <c r="M199">
-        <v>15309067</v>
+        <v>15309069</v>
       </c>
       <c r="N199">
-        <v>8356561</v>
+        <v>8356562</v>
       </c>
       <c r="O199">
-        <v>2587926</v>
+        <v>2587925</v>
       </c>
       <c r="P199">
         <v>3887</v>
@@ -10211,13 +10211,13 @@
         <v>132.87</v>
       </c>
       <c r="M200">
-        <v>15440677</v>
+        <v>15440679</v>
       </c>
       <c r="N200">
-        <v>8350580</v>
+        <v>8350581</v>
       </c>
       <c r="O200">
-        <v>2599978</v>
+        <v>2599977</v>
       </c>
       <c r="P200">
         <v>3886</v>
@@ -10264,10 +10264,10 @@
         <v>133.49</v>
       </c>
       <c r="M201">
-        <v>15510451</v>
+        <v>15510453</v>
       </c>
       <c r="N201">
-        <v>8368323</v>
+        <v>8368324</v>
       </c>
       <c r="O201">
         <v>2605553</v>
@@ -10296,7 +10296,7 @@
         <v>211859</v>
       </c>
       <c r="F202">
-        <v>10071177</v>
+        <v>10071186</v>
       </c>
       <c r="G202">
         <v>8724780</v>
@@ -10317,10 +10317,10 @@
         <v>134.04</v>
       </c>
       <c r="M202">
-        <v>15673761</v>
+        <v>15673763</v>
       </c>
       <c r="N202">
-        <v>8381880</v>
+        <v>8381881</v>
       </c>
       <c r="O202">
         <v>2635468</v>
@@ -10349,7 +10349,7 @@
         <v>223173</v>
       </c>
       <c r="F203">
-        <v>9851394</v>
+        <v>9851389</v>
       </c>
       <c r="G203">
         <v>8695175</v>
@@ -11877,7 +11877,7 @@
         <v>32598</v>
       </c>
       <c r="B232">
-        <v>1361128</v>
+        <v>1361134</v>
       </c>
       <c r="D232">
         <v>652549</v>
@@ -11886,7 +11886,7 @@
         <v>176192</v>
       </c>
       <c r="F232">
-        <v>11588963</v>
+        <v>11588985</v>
       </c>
       <c r="G232">
         <v>10451849</v>
@@ -34143,10 +34143,10 @@
         <v>114751</v>
       </c>
       <c r="F637">
-        <v>6576878</v>
+        <v>6576877</v>
       </c>
       <c r="G637">
-        <v>5404792</v>
+        <v>5404791</v>
       </c>
       <c r="H637">
         <v>2238379</v>
@@ -34187,7 +34187,7 @@
         <v>44957</v>
       </c>
       <c r="B638">
-        <v>1212366</v>
+        <v>1226108</v>
       </c>
       <c r="C638">
         <v>1855.5</v>
@@ -34199,10 +34199,10 @@
         <v>140555</v>
       </c>
       <c r="F638">
-        <v>8985963</v>
+        <v>8985961</v>
       </c>
       <c r="G638">
-        <v>7351675</v>
+        <v>7351674</v>
       </c>
       <c r="H638">
         <v>3117483</v>
@@ -34220,7 +34220,7 @@
         <v>406.12</v>
       </c>
       <c r="M638">
-        <v>24738945</v>
+        <v>24738944</v>
       </c>
       <c r="N638">
         <v>4483677</v>
@@ -34243,7 +34243,7 @@
         <v>44985</v>
       </c>
       <c r="B639">
-        <v>893685</v>
+        <v>898658</v>
       </c>
       <c r="C639">
         <v>1870.1</v>
@@ -34255,10 +34255,10 @@
         <v>118686</v>
       </c>
       <c r="F639">
-        <v>7772040</v>
+        <v>7772038</v>
       </c>
       <c r="G639">
-        <v>6557157</v>
+        <v>6557155</v>
       </c>
       <c r="H639">
         <v>2820610</v>
@@ -34291,7 +34291,7 @@
         <v>14435</v>
       </c>
       <c r="R639">
-        <v>366545</v>
+        <v>372191</v>
       </c>
     </row>
     <row r="640">
@@ -34311,10 +34311,10 @@
         <v>130480</v>
       </c>
       <c r="F640">
-        <v>7973299</v>
+        <v>7973297</v>
       </c>
       <c r="G640">
-        <v>6870559</v>
+        <v>6870557</v>
       </c>
       <c r="H640">
         <v>2977145</v>
@@ -34332,7 +34332,7 @@
         <v>413.65</v>
       </c>
       <c r="M640">
-        <v>25580456</v>
+        <v>25580455</v>
       </c>
       <c r="N640">
         <v>4598872</v>
@@ -34341,24 +34341,119 @@
         <v>1423217</v>
       </c>
       <c r="P640">
-        <v>5188</v>
+        <v>5195</v>
       </c>
       <c r="Q640">
-        <v>14456</v>
+        <v>14464</v>
       </c>
       <c r="R640">
-        <v>367595</v>
+        <v>372261</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="2">
         <v>45046</v>
       </c>
+      <c r="B641">
+        <v>953723</v>
+      </c>
+      <c r="C641">
+        <v>1735</v>
+      </c>
+      <c r="D641">
+        <v>363589</v>
+      </c>
+      <c r="E641">
+        <v>148741</v>
+      </c>
+      <c r="F641">
+        <v>7611060</v>
+      </c>
+      <c r="G641">
+        <v>6114033</v>
+      </c>
+      <c r="H641">
+        <v>2614722</v>
+      </c>
+      <c r="I641">
+        <v>435.16</v>
+      </c>
+      <c r="J641">
+        <v>33.72</v>
+      </c>
+      <c r="K641">
+        <v>13.83</v>
+      </c>
+      <c r="L641">
+        <v>416.41</v>
+      </c>
+      <c r="M641">
+        <v>26308253</v>
+      </c>
+      <c r="N641">
+        <v>4657762</v>
+      </c>
+      <c r="O641">
+        <v>1446579</v>
+      </c>
       <c r="P641">
-        <v>5191</v>
+        <v>5207</v>
       </c>
       <c r="Q641">
-        <v>14473</v>
+        <v>14488</v>
+      </c>
+      <c r="R641">
+        <v>374659</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="2">
+        <v>45077</v>
+      </c>
+      <c r="B642">
+        <v>1002794</v>
+      </c>
+      <c r="D642">
+        <v>386155</v>
+      </c>
+      <c r="E642">
+        <v>155739</v>
+      </c>
+      <c r="F642">
+        <v>7216621</v>
+      </c>
+      <c r="G642">
+        <v>6150978</v>
+      </c>
+      <c r="H642">
+        <v>2648738</v>
+      </c>
+      <c r="I642">
+        <v>438.27</v>
+      </c>
+      <c r="J642">
+        <v>34.23</v>
+      </c>
+      <c r="K642">
+        <v>13.93</v>
+      </c>
+      <c r="L642">
+        <v>419.81</v>
+      </c>
+      <c r="M642">
+        <v>27141875</v>
+      </c>
+      <c r="N642">
+        <v>4730896</v>
+      </c>
+      <c r="O642">
+        <v>1476743</v>
+      </c>
+      <c r="P642">
+        <v>5226</v>
+      </c>
+      <c r="Q642">
+        <v>14518</v>
       </c>
     </row>
   </sheetData>

--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R642"/>
+  <dimension ref="A1:R643"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7004,7 +7004,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823731</v>
+        <v>823741</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -7034,7 +7034,7 @@
         <v>14131884</v>
       </c>
       <c r="N140">
-        <v>8935567</v>
+        <v>8935577</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -7087,7 +7087,7 @@
         <v>13894180</v>
       </c>
       <c r="N141">
-        <v>8782082</v>
+        <v>8782092</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -7140,7 +7140,7 @@
         <v>13750087</v>
       </c>
       <c r="N142">
-        <v>8776350</v>
+        <v>8776360</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -7193,7 +7193,7 @@
         <v>13621956</v>
       </c>
       <c r="N143">
-        <v>8836792</v>
+        <v>8836802</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -7246,7 +7246,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042600</v>
+        <v>9042610</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -7299,7 +7299,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9395220</v>
+        <v>9395230</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -7352,7 +7352,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9716084</v>
+        <v>9716094</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -7405,7 +7405,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916915</v>
+        <v>9916925</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -7458,7 +7458,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176548</v>
+        <v>10176558</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -7511,7 +7511,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10402129</v>
+        <v>10402139</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -7564,7 +7564,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586529</v>
+        <v>10586539</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -7617,7 +7617,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834442</v>
+        <v>10834452</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -9707,19 +9707,19 @@
         <v>1667576</v>
       </c>
       <c r="D191">
-        <v>573554</v>
+        <v>573556</v>
       </c>
       <c r="E191">
-        <v>207672</v>
+        <v>207673</v>
       </c>
       <c r="F191">
         <v>9966680</v>
       </c>
       <c r="G191">
-        <v>8670544</v>
+        <v>8670567</v>
       </c>
       <c r="H191">
-        <v>1073077</v>
+        <v>1073079</v>
       </c>
       <c r="I191">
         <v>128.59</v>
@@ -9734,13 +9734,13 @@
         <v>127.14</v>
       </c>
       <c r="M191">
-        <v>14528309</v>
+        <v>14528311</v>
       </c>
       <c r="N191">
-        <v>8368440</v>
+        <v>8368442</v>
       </c>
       <c r="O191">
-        <v>2551084</v>
+        <v>2551085</v>
       </c>
       <c r="P191">
         <v>3864</v>
@@ -9787,13 +9787,13 @@
         <v>127.59</v>
       </c>
       <c r="M192">
-        <v>14533084</v>
+        <v>14533086</v>
       </c>
       <c r="N192">
-        <v>8290014</v>
+        <v>8290016</v>
       </c>
       <c r="O192">
-        <v>2547706</v>
+        <v>2547707</v>
       </c>
       <c r="P192">
         <v>3867</v>
@@ -9840,13 +9840,13 @@
         <v>128.14</v>
       </c>
       <c r="M193">
-        <v>14761607</v>
+        <v>14761610</v>
       </c>
       <c r="N193">
-        <v>8365106</v>
+        <v>8365108</v>
       </c>
       <c r="O193">
-        <v>2572354</v>
+        <v>2572355</v>
       </c>
       <c r="P193">
         <v>3862</v>
@@ -9872,7 +9872,7 @@
         <v>235008</v>
       </c>
       <c r="F194">
-        <v>14729047</v>
+        <v>14729051</v>
       </c>
       <c r="G194">
         <v>13027499</v>
@@ -9893,13 +9893,13 @@
         <v>128.88</v>
       </c>
       <c r="M194">
-        <v>14844288</v>
+        <v>14844291</v>
       </c>
       <c r="N194">
-        <v>8387993</v>
+        <v>8387995</v>
       </c>
       <c r="O194">
-        <v>2570154</v>
+        <v>2570155</v>
       </c>
       <c r="P194">
         <v>3869</v>
@@ -9946,13 +9946,13 @@
         <v>129.54</v>
       </c>
       <c r="M195">
-        <v>14889219</v>
+        <v>14889221</v>
       </c>
       <c r="N195">
-        <v>8325465</v>
+        <v>8325467</v>
       </c>
       <c r="O195">
-        <v>2571043</v>
+        <v>2571044</v>
       </c>
       <c r="P195">
         <v>3875</v>
@@ -9978,7 +9978,7 @@
         <v>219934</v>
       </c>
       <c r="F196">
-        <v>13097742</v>
+        <v>13097745</v>
       </c>
       <c r="G196">
         <v>11730221</v>
@@ -9999,13 +9999,13 @@
         <v>130.2</v>
       </c>
       <c r="M196">
-        <v>14967901</v>
+        <v>14967903</v>
       </c>
       <c r="N196">
-        <v>8319961</v>
+        <v>8319963</v>
       </c>
       <c r="O196">
-        <v>2563117</v>
+        <v>2563118</v>
       </c>
       <c r="P196">
         <v>3873</v>
@@ -10052,13 +10052,13 @@
         <v>130.86</v>
       </c>
       <c r="M197">
-        <v>15090045</v>
+        <v>15090047</v>
       </c>
       <c r="N197">
-        <v>8341425</v>
+        <v>8341427</v>
       </c>
       <c r="O197">
-        <v>2566572</v>
+        <v>2566573</v>
       </c>
       <c r="P197">
         <v>3878</v>
@@ -10105,13 +10105,13 @@
         <v>131.55</v>
       </c>
       <c r="M198">
-        <v>15141525</v>
+        <v>15141527</v>
       </c>
       <c r="N198">
-        <v>8330314</v>
+        <v>8330316</v>
       </c>
       <c r="O198">
-        <v>2567373</v>
+        <v>2567374</v>
       </c>
       <c r="P198">
         <v>3884</v>
@@ -10134,7 +10134,7 @@
         <v>525103</v>
       </c>
       <c r="E199">
-        <v>214628</v>
+        <v>214622</v>
       </c>
       <c r="F199">
         <v>10187314</v>
@@ -10158,13 +10158,13 @@
         <v>132.19</v>
       </c>
       <c r="M199">
-        <v>15309069</v>
+        <v>15309071</v>
       </c>
       <c r="N199">
-        <v>8356562</v>
+        <v>8356564</v>
       </c>
       <c r="O199">
-        <v>2587925</v>
+        <v>2587920</v>
       </c>
       <c r="P199">
         <v>3887</v>
@@ -10211,13 +10211,13 @@
         <v>132.87</v>
       </c>
       <c r="M200">
-        <v>15440679</v>
+        <v>15440681</v>
       </c>
       <c r="N200">
-        <v>8350581</v>
+        <v>8350583</v>
       </c>
       <c r="O200">
-        <v>2599977</v>
+        <v>2599972</v>
       </c>
       <c r="P200">
         <v>3886</v>
@@ -10240,7 +10240,7 @@
         <v>649662</v>
       </c>
       <c r="E201">
-        <v>210441</v>
+        <v>210440</v>
       </c>
       <c r="F201">
         <v>10189513</v>
@@ -10264,13 +10264,13 @@
         <v>133.49</v>
       </c>
       <c r="M201">
-        <v>15510453</v>
+        <v>15510455</v>
       </c>
       <c r="N201">
-        <v>8368324</v>
+        <v>8368326</v>
       </c>
       <c r="O201">
-        <v>2605553</v>
+        <v>2605547</v>
       </c>
       <c r="P201">
         <v>3887</v>
@@ -10296,7 +10296,7 @@
         <v>211859</v>
       </c>
       <c r="F202">
-        <v>10071186</v>
+        <v>10071191</v>
       </c>
       <c r="G202">
         <v>8724780</v>
@@ -10317,13 +10317,13 @@
         <v>134.04</v>
       </c>
       <c r="M202">
-        <v>15673763</v>
+        <v>15673765</v>
       </c>
       <c r="N202">
-        <v>8381881</v>
+        <v>8381883</v>
       </c>
       <c r="O202">
-        <v>2635468</v>
+        <v>2635462</v>
       </c>
       <c r="P202">
         <v>3895</v>
@@ -10349,7 +10349,7 @@
         <v>223173</v>
       </c>
       <c r="F203">
-        <v>9851389</v>
+        <v>9851386</v>
       </c>
       <c r="G203">
         <v>8695175</v>
@@ -10376,7 +10376,7 @@
         <v>8380544</v>
       </c>
       <c r="O203">
-        <v>2650969</v>
+        <v>2650962</v>
       </c>
       <c r="P203">
         <v>3915</v>
@@ -10429,7 +10429,7 @@
         <v>8330361</v>
       </c>
       <c r="O204">
-        <v>2658791</v>
+        <v>2658784</v>
       </c>
       <c r="P204">
         <v>3927</v>
@@ -10482,7 +10482,7 @@
         <v>8360752</v>
       </c>
       <c r="O205">
-        <v>2687340</v>
+        <v>2687333</v>
       </c>
       <c r="P205">
         <v>3938</v>
@@ -10535,7 +10535,7 @@
         <v>8190399</v>
       </c>
       <c r="O206">
-        <v>2682394</v>
+        <v>2682387</v>
       </c>
       <c r="P206">
         <v>3943</v>
@@ -10588,7 +10588,7 @@
         <v>8167954</v>
       </c>
       <c r="O207">
-        <v>2694745</v>
+        <v>2694738</v>
       </c>
       <c r="P207">
         <v>3943</v>
@@ -10641,7 +10641,7 @@
         <v>8133267</v>
       </c>
       <c r="O208">
-        <v>2719328</v>
+        <v>2719321</v>
       </c>
       <c r="P208">
         <v>3945</v>
@@ -10694,7 +10694,7 @@
         <v>8038963</v>
       </c>
       <c r="O209">
-        <v>2707770</v>
+        <v>2707763</v>
       </c>
       <c r="P209">
         <v>3954</v>
@@ -10747,7 +10747,7 @@
         <v>7908330</v>
       </c>
       <c r="O210">
-        <v>2680335</v>
+        <v>2680328</v>
       </c>
       <c r="P210">
         <v>3955</v>
@@ -10800,7 +10800,7 @@
         <v>7873641</v>
       </c>
       <c r="O211">
-        <v>2671975</v>
+        <v>2671974</v>
       </c>
       <c r="P211">
         <v>3950</v>
@@ -10853,7 +10853,7 @@
         <v>7781838</v>
       </c>
       <c r="O212">
-        <v>2637234</v>
+        <v>2637233</v>
       </c>
       <c r="P212">
         <v>3967</v>
@@ -11877,7 +11877,7 @@
         <v>32598</v>
       </c>
       <c r="B232">
-        <v>1361134</v>
+        <v>1361136</v>
       </c>
       <c r="D232">
         <v>652549</v>
@@ -11886,7 +11886,7 @@
         <v>176192</v>
       </c>
       <c r="F232">
-        <v>11588985</v>
+        <v>11589022</v>
       </c>
       <c r="G232">
         <v>10451849</v>
@@ -29531,7 +29531,7 @@
         <v>14253</v>
       </c>
       <c r="R554">
-        <v>280469</v>
+        <v>280509</v>
       </c>
     </row>
     <row r="555">
@@ -29587,7 +29587,7 @@
         <v>14275</v>
       </c>
       <c r="R555">
-        <v>277366</v>
+        <v>278292</v>
       </c>
     </row>
     <row r="556">
@@ -29643,7 +29643,7 @@
         <v>14303</v>
       </c>
       <c r="R556">
-        <v>277856</v>
+        <v>277758</v>
       </c>
     </row>
     <row r="557">
@@ -29699,7 +29699,7 @@
         <v>14302</v>
       </c>
       <c r="R557">
-        <v>273930</v>
+        <v>272802</v>
       </c>
     </row>
     <row r="558">
@@ -29755,7 +29755,7 @@
         <v>14315</v>
       </c>
       <c r="R558">
-        <v>268982</v>
+        <v>268314</v>
       </c>
     </row>
     <row r="559">
@@ -29811,7 +29811,7 @@
         <v>14276</v>
       </c>
       <c r="R559">
-        <v>277867</v>
+        <v>278346</v>
       </c>
     </row>
     <row r="560">
@@ -29867,7 +29867,7 @@
         <v>14374</v>
       </c>
       <c r="R560">
-        <v>271197</v>
+        <v>270461</v>
       </c>
     </row>
     <row r="561">
@@ -29923,7 +29923,7 @@
         <v>14366</v>
       </c>
       <c r="R561">
-        <v>270605</v>
+        <v>271198</v>
       </c>
     </row>
     <row r="562">
@@ -29979,7 +29979,7 @@
         <v>14367</v>
       </c>
       <c r="R562">
-        <v>275330</v>
+        <v>275999</v>
       </c>
     </row>
     <row r="563">
@@ -30035,7 +30035,7 @@
         <v>14359</v>
       </c>
       <c r="R563">
-        <v>277190</v>
+        <v>277200</v>
       </c>
     </row>
     <row r="564">
@@ -30091,7 +30091,7 @@
         <v>14344</v>
       </c>
       <c r="R564">
-        <v>279346</v>
+        <v>280145</v>
       </c>
     </row>
     <row r="565">
@@ -30147,7 +30147,7 @@
         <v>14350</v>
       </c>
       <c r="R565">
-        <v>273242</v>
+        <v>272494</v>
       </c>
     </row>
     <row r="566">
@@ -30203,7 +30203,7 @@
         <v>14347</v>
       </c>
       <c r="R566">
-        <v>265817</v>
+        <v>266595</v>
       </c>
     </row>
     <row r="567">
@@ -30259,7 +30259,7 @@
         <v>14354</v>
       </c>
       <c r="R567">
-        <v>274813</v>
+        <v>274636</v>
       </c>
     </row>
     <row r="568">
@@ -30315,7 +30315,7 @@
         <v>14356</v>
       </c>
       <c r="R568">
-        <v>274938</v>
+        <v>274776</v>
       </c>
     </row>
     <row r="569">
@@ -30371,7 +30371,7 @@
         <v>14368</v>
       </c>
       <c r="R569">
-        <v>269068</v>
+        <v>267969</v>
       </c>
     </row>
     <row r="570">
@@ -30427,7 +30427,7 @@
         <v>14358</v>
       </c>
       <c r="R570">
-        <v>276032</v>
+        <v>275703</v>
       </c>
     </row>
     <row r="571">
@@ -30483,7 +30483,7 @@
         <v>14381</v>
       </c>
       <c r="R571">
-        <v>276214</v>
+        <v>276109</v>
       </c>
     </row>
     <row r="572">
@@ -30539,7 +30539,7 @@
         <v>14390</v>
       </c>
       <c r="R572">
-        <v>275407</v>
+        <v>275397</v>
       </c>
     </row>
     <row r="573">
@@ -30595,7 +30595,7 @@
         <v>14339</v>
       </c>
       <c r="R573">
-        <v>274823</v>
+        <v>275328</v>
       </c>
     </row>
     <row r="574">
@@ -30651,7 +30651,7 @@
         <v>14390</v>
       </c>
       <c r="R574">
-        <v>276182</v>
+        <v>275771</v>
       </c>
     </row>
     <row r="575">
@@ -30707,7 +30707,7 @@
         <v>14407</v>
       </c>
       <c r="R575">
-        <v>280369</v>
+        <v>280661</v>
       </c>
     </row>
     <row r="576">
@@ -30763,7 +30763,7 @@
         <v>14427</v>
       </c>
       <c r="R576">
-        <v>282255</v>
+        <v>284111</v>
       </c>
     </row>
     <row r="577">
@@ -30819,7 +30819,7 @@
         <v>14431</v>
       </c>
       <c r="R577">
-        <v>280943</v>
+        <v>279665</v>
       </c>
     </row>
     <row r="578">
@@ -30875,7 +30875,7 @@
         <v>14428</v>
       </c>
       <c r="R578">
-        <v>277852</v>
+        <v>278783</v>
       </c>
     </row>
     <row r="579">
@@ -30931,7 +30931,7 @@
         <v>14473</v>
       </c>
       <c r="R579">
-        <v>280562</v>
+        <v>280360</v>
       </c>
     </row>
     <row r="580">
@@ -30987,7 +30987,7 @@
         <v>14471</v>
       </c>
       <c r="R580">
-        <v>283384</v>
+        <v>282473</v>
       </c>
     </row>
     <row r="581">
@@ -31043,7 +31043,7 @@
         <v>14467</v>
       </c>
       <c r="R581">
-        <v>289594</v>
+        <v>289162</v>
       </c>
     </row>
     <row r="582">
@@ -31099,7 +31099,7 @@
         <v>14482</v>
       </c>
       <c r="R582">
-        <v>290459</v>
+        <v>290466</v>
       </c>
     </row>
     <row r="583">
@@ -31155,7 +31155,7 @@
         <v>14505</v>
       </c>
       <c r="R583">
-        <v>292179</v>
+        <v>291146</v>
       </c>
     </row>
     <row r="584">
@@ -31211,7 +31211,7 @@
         <v>14462</v>
       </c>
       <c r="R584">
-        <v>294239</v>
+        <v>294360</v>
       </c>
     </row>
     <row r="585">
@@ -31267,7 +31267,7 @@
         <v>14493</v>
       </c>
       <c r="R585">
-        <v>299237</v>
+        <v>299829</v>
       </c>
     </row>
     <row r="586">
@@ -31323,7 +31323,7 @@
         <v>14486</v>
       </c>
       <c r="R586">
-        <v>288223</v>
+        <v>287931</v>
       </c>
     </row>
     <row r="587">
@@ -31379,7 +31379,7 @@
         <v>14491</v>
       </c>
       <c r="R587">
-        <v>287127</v>
+        <v>287640</v>
       </c>
     </row>
     <row r="588">
@@ -31435,7 +31435,7 @@
         <v>14499</v>
       </c>
       <c r="R588">
-        <v>284038</v>
+        <v>285463</v>
       </c>
     </row>
     <row r="589">
@@ -31491,7 +31491,7 @@
         <v>14527</v>
       </c>
       <c r="R589">
-        <v>285939</v>
+        <v>285137</v>
       </c>
     </row>
     <row r="590">
@@ -31547,7 +31547,7 @@
         <v>14546</v>
       </c>
       <c r="R590">
-        <v>294337</v>
+        <v>295509</v>
       </c>
     </row>
     <row r="591">
@@ -31603,7 +31603,7 @@
         <v>14543</v>
       </c>
       <c r="R591">
-        <v>304478</v>
+        <v>304175</v>
       </c>
     </row>
     <row r="592">
@@ -31659,7 +31659,7 @@
         <v>14568</v>
       </c>
       <c r="R592">
-        <v>306575</v>
+        <v>305358</v>
       </c>
     </row>
     <row r="593">
@@ -31715,7 +31715,7 @@
         <v>14590</v>
       </c>
       <c r="R593">
-        <v>325704</v>
+        <v>324193</v>
       </c>
     </row>
     <row r="594">
@@ -31771,7 +31771,7 @@
         <v>14593</v>
       </c>
       <c r="R594">
-        <v>319802</v>
+        <v>320559</v>
       </c>
     </row>
     <row r="595">
@@ -31827,7 +31827,7 @@
         <v>14572</v>
       </c>
       <c r="R595">
-        <v>317784</v>
+        <v>317102</v>
       </c>
     </row>
     <row r="596">
@@ -31883,7 +31883,7 @@
         <v>14520</v>
       </c>
       <c r="R596">
-        <v>323496</v>
+        <v>324286</v>
       </c>
     </row>
     <row r="597">
@@ -31939,7 +31939,7 @@
         <v>14547</v>
       </c>
       <c r="R597">
-        <v>320574</v>
+        <v>320318</v>
       </c>
     </row>
     <row r="598">
@@ -31995,7 +31995,7 @@
         <v>14574</v>
       </c>
       <c r="R598">
-        <v>326564</v>
+        <v>326917</v>
       </c>
     </row>
     <row r="599">
@@ -32051,7 +32051,7 @@
         <v>14600</v>
       </c>
       <c r="R599">
-        <v>321586</v>
+        <v>322260</v>
       </c>
     </row>
     <row r="600">
@@ -32107,7 +32107,7 @@
         <v>14625</v>
       </c>
       <c r="R600">
-        <v>322969</v>
+        <v>323761</v>
       </c>
     </row>
     <row r="601">
@@ -32163,7 +32163,7 @@
         <v>14639</v>
       </c>
       <c r="R601">
-        <v>327985</v>
+        <v>326944</v>
       </c>
     </row>
     <row r="602">
@@ -32219,7 +32219,7 @@
         <v>14656</v>
       </c>
       <c r="R602">
-        <v>340651</v>
+        <v>342465</v>
       </c>
     </row>
     <row r="603">
@@ -32275,7 +32275,7 @@
         <v>14699</v>
       </c>
       <c r="R603">
-        <v>343283</v>
+        <v>342340</v>
       </c>
     </row>
     <row r="604">
@@ -32331,7 +32331,7 @@
         <v>14699</v>
       </c>
       <c r="R604">
-        <v>346029</v>
+        <v>345379</v>
       </c>
     </row>
     <row r="605">
@@ -32387,7 +32387,7 @@
         <v>13930</v>
       </c>
       <c r="R605">
-        <v>339150</v>
+        <v>338360</v>
       </c>
     </row>
     <row r="606">
@@ -32443,7 +32443,7 @@
         <v>13458</v>
       </c>
       <c r="R606">
-        <v>347971</v>
+        <v>347467</v>
       </c>
     </row>
     <row r="607">
@@ -32499,7 +32499,7 @@
         <v>13462</v>
       </c>
       <c r="R607">
-        <v>342763</v>
+        <v>342861</v>
       </c>
     </row>
     <row r="608">
@@ -32555,7 +32555,7 @@
         <v>13531</v>
       </c>
       <c r="R608">
-        <v>335639</v>
+        <v>336827</v>
       </c>
     </row>
     <row r="609">
@@ -32611,7 +32611,7 @@
         <v>13737</v>
       </c>
       <c r="R609">
-        <v>334827</v>
+        <v>334578</v>
       </c>
     </row>
     <row r="610">
@@ -32667,7 +32667,7 @@
         <v>13702</v>
       </c>
       <c r="R610">
-        <v>335975</v>
+        <v>335229</v>
       </c>
     </row>
     <row r="611">
@@ -32723,7 +32723,7 @@
         <v>13716</v>
       </c>
       <c r="R611">
-        <v>337708</v>
+        <v>337981</v>
       </c>
     </row>
     <row r="612">
@@ -32779,7 +32779,7 @@
         <v>13718</v>
       </c>
       <c r="R612">
-        <v>340627</v>
+        <v>342927</v>
       </c>
     </row>
     <row r="613">
@@ -32835,7 +32835,7 @@
         <v>13696</v>
       </c>
       <c r="R613">
-        <v>343583</v>
+        <v>343016</v>
       </c>
     </row>
     <row r="614">
@@ -32891,7 +32891,7 @@
         <v>13732</v>
       </c>
       <c r="R614">
-        <v>339314</v>
+        <v>345102</v>
       </c>
     </row>
     <row r="615">
@@ -32947,7 +32947,7 @@
         <v>13745</v>
       </c>
       <c r="R615">
-        <v>330248</v>
+        <v>335151</v>
       </c>
     </row>
     <row r="616">
@@ -33003,7 +33003,7 @@
         <v>13794</v>
       </c>
       <c r="R616">
-        <v>331515</v>
+        <v>336955</v>
       </c>
     </row>
     <row r="617">
@@ -33059,7 +33059,7 @@
         <v>13839</v>
       </c>
       <c r="R617">
-        <v>330197</v>
+        <v>335574</v>
       </c>
     </row>
     <row r="618">
@@ -33115,7 +33115,7 @@
         <v>13860</v>
       </c>
       <c r="R618">
-        <v>330699</v>
+        <v>338521</v>
       </c>
     </row>
     <row r="619">
@@ -33171,7 +33171,7 @@
         <v>13920</v>
       </c>
       <c r="R619">
-        <v>319412</v>
+        <v>329746</v>
       </c>
     </row>
     <row r="620">
@@ -33227,7 +33227,7 @@
         <v>13986</v>
       </c>
       <c r="R620">
-        <v>316105</v>
+        <v>328919</v>
       </c>
     </row>
     <row r="621">
@@ -33283,7 +33283,7 @@
         <v>14061</v>
       </c>
       <c r="R621">
-        <v>319627</v>
+        <v>333989</v>
       </c>
     </row>
     <row r="622">
@@ -33339,7 +33339,7 @@
         <v>14049</v>
       </c>
       <c r="R622">
-        <v>313283</v>
+        <v>326840</v>
       </c>
     </row>
     <row r="623">
@@ -33395,7 +33395,7 @@
         <v>14028</v>
       </c>
       <c r="R623">
-        <v>314809</v>
+        <v>327373</v>
       </c>
     </row>
     <row r="624">
@@ -33451,7 +33451,7 @@
         <v>14036</v>
       </c>
       <c r="R624">
-        <v>318834</v>
+        <v>331380</v>
       </c>
     </row>
     <row r="625">
@@ -33507,7 +33507,7 @@
         <v>14070</v>
       </c>
       <c r="R625">
-        <v>316775</v>
+        <v>331492</v>
       </c>
     </row>
     <row r="626">
@@ -33563,7 +33563,7 @@
         <v>14100</v>
       </c>
       <c r="R626">
-        <v>318072</v>
+        <v>334244</v>
       </c>
     </row>
     <row r="627">
@@ -33619,7 +33619,7 @@
         <v>14120</v>
       </c>
       <c r="R627">
-        <v>320065</v>
+        <v>338416</v>
       </c>
     </row>
     <row r="628">
@@ -33675,7 +33675,7 @@
         <v>14137</v>
       </c>
       <c r="R628">
-        <v>319759</v>
+        <v>339417</v>
       </c>
     </row>
     <row r="629">
@@ -33731,7 +33731,7 @@
         <v>14153</v>
       </c>
       <c r="R629">
-        <v>323392</v>
+        <v>345062</v>
       </c>
     </row>
     <row r="630">
@@ -33787,7 +33787,7 @@
         <v>14162</v>
       </c>
       <c r="R630">
-        <v>320626</v>
+        <v>339178</v>
       </c>
     </row>
     <row r="631">
@@ -33843,7 +33843,7 @@
         <v>14169</v>
       </c>
       <c r="R631">
-        <v>324999</v>
+        <v>342484</v>
       </c>
     </row>
     <row r="632">
@@ -33899,7 +33899,7 @@
         <v>14215</v>
       </c>
       <c r="R632">
-        <v>336811</v>
+        <v>350972</v>
       </c>
     </row>
     <row r="633">
@@ -33955,7 +33955,7 @@
         <v>14257</v>
       </c>
       <c r="R633">
-        <v>342774</v>
+        <v>350286</v>
       </c>
     </row>
     <row r="634">
@@ -34011,7 +34011,7 @@
         <v>14255</v>
       </c>
       <c r="R634">
-        <v>351047</v>
+        <v>355116</v>
       </c>
     </row>
     <row r="635">
@@ -34067,7 +34067,7 @@
         <v>14287</v>
       </c>
       <c r="R635">
-        <v>353981</v>
+        <v>354474</v>
       </c>
     </row>
     <row r="636">
@@ -34123,7 +34123,7 @@
         <v>14335</v>
       </c>
       <c r="R636">
-        <v>355898</v>
+        <v>359543</v>
       </c>
     </row>
     <row r="637">
@@ -34179,7 +34179,7 @@
         <v>14370</v>
       </c>
       <c r="R637">
-        <v>359372</v>
+        <v>361033</v>
       </c>
     </row>
     <row r="638">
@@ -34235,7 +34235,7 @@
         <v>14408</v>
       </c>
       <c r="R638">
-        <v>363088</v>
+        <v>364867</v>
       </c>
     </row>
     <row r="639">
@@ -34291,7 +34291,7 @@
         <v>14435</v>
       </c>
       <c r="R639">
-        <v>372191</v>
+        <v>371673</v>
       </c>
     </row>
     <row r="640">
@@ -34347,7 +34347,7 @@
         <v>14464</v>
       </c>
       <c r="R640">
-        <v>372261</v>
+        <v>374555</v>
       </c>
     </row>
     <row r="641">
@@ -34397,13 +34397,13 @@
         <v>1446579</v>
       </c>
       <c r="P641">
-        <v>5207</v>
+        <v>5202</v>
       </c>
       <c r="Q641">
-        <v>14488</v>
+        <v>14491</v>
       </c>
       <c r="R641">
-        <v>374659</v>
+        <v>375891</v>
       </c>
     </row>
     <row r="642">
@@ -34413,6 +34413,9 @@
       <c r="B642">
         <v>1002794</v>
       </c>
+      <c r="C642">
+        <v>1599.9</v>
+      </c>
       <c r="D642">
         <v>386155</v>
       </c>
@@ -34420,7 +34423,7 @@
         <v>155739</v>
       </c>
       <c r="F642">
-        <v>7216621</v>
+        <v>7190180</v>
       </c>
       <c r="G642">
         <v>6150978</v>
@@ -34450,10 +34453,63 @@
         <v>1476743</v>
       </c>
       <c r="P642">
-        <v>5226</v>
+        <v>5215</v>
       </c>
       <c r="Q642">
-        <v>14518</v>
+        <v>14522</v>
+      </c>
+      <c r="R642">
+        <v>377353</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B643">
+        <v>1012489</v>
+      </c>
+      <c r="D643">
+        <v>381565</v>
+      </c>
+      <c r="E643">
+        <v>134495</v>
+      </c>
+      <c r="F643">
+        <v>7120181</v>
+      </c>
+      <c r="G643">
+        <v>6051598</v>
+      </c>
+      <c r="H643">
+        <v>2536312</v>
+      </c>
+      <c r="I643">
+        <v>428.44</v>
+      </c>
+      <c r="J643">
+        <v>34.49</v>
+      </c>
+      <c r="K643">
+        <v>14.12</v>
+      </c>
+      <c r="L643">
+        <v>422.2</v>
+      </c>
+      <c r="M643">
+        <v>27985808</v>
+      </c>
+      <c r="N643">
+        <v>4784586</v>
+      </c>
+      <c r="O643">
+        <v>1504913</v>
+      </c>
+      <c r="P643">
+        <v>5242</v>
+      </c>
+      <c r="Q643">
+        <v>14554</v>
       </c>
     </row>
   </sheetData>

--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R643"/>
+  <dimension ref="A1:R644"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6592,7 +6592,7 @@
         <v>9516801</v>
       </c>
       <c r="H132">
-        <v>935438</v>
+        <v>935387</v>
       </c>
       <c r="I132">
         <v>100.7</v>
@@ -6607,7 +6607,7 @@
         <v>99.05</v>
       </c>
       <c r="M132">
-        <v>14066985</v>
+        <v>14066934</v>
       </c>
       <c r="N132">
         <v>9919645</v>
@@ -6660,7 +6660,7 @@
         <v>99.53</v>
       </c>
       <c r="M133">
-        <v>14469438</v>
+        <v>14469387</v>
       </c>
       <c r="N133">
         <v>9992123</v>
@@ -6713,7 +6713,7 @@
         <v>100.2</v>
       </c>
       <c r="M134">
-        <v>14605073</v>
+        <v>14605022</v>
       </c>
       <c r="N134">
         <v>9946214</v>
@@ -6766,7 +6766,7 @@
         <v>100.72</v>
       </c>
       <c r="M135">
-        <v>14690510</v>
+        <v>14690459</v>
       </c>
       <c r="N135">
         <v>9890722</v>
@@ -6819,7 +6819,7 @@
         <v>101.31</v>
       </c>
       <c r="M136">
-        <v>14866969</v>
+        <v>14866918</v>
       </c>
       <c r="N136">
         <v>9919839</v>
@@ -6872,7 +6872,7 @@
         <v>101.83</v>
       </c>
       <c r="M137">
-        <v>14861487</v>
+        <v>14861436</v>
       </c>
       <c r="N137">
         <v>9793604</v>
@@ -6925,7 +6925,7 @@
         <v>102.25</v>
       </c>
       <c r="M138">
-        <v>14670879</v>
+        <v>14670828</v>
       </c>
       <c r="N138">
         <v>9476838</v>
@@ -6978,7 +6978,7 @@
         <v>102.61</v>
       </c>
       <c r="M139">
-        <v>14467104</v>
+        <v>14467053</v>
       </c>
       <c r="N139">
         <v>9214474</v>
@@ -7004,7 +7004,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823741</v>
+        <v>823667</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -7031,10 +7031,10 @@
         <v>103.08</v>
       </c>
       <c r="M140">
-        <v>14131884</v>
+        <v>14131833</v>
       </c>
       <c r="N140">
-        <v>8935577</v>
+        <v>8935503</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -7084,10 +7084,10 @@
         <v>103.59</v>
       </c>
       <c r="M141">
-        <v>13894180</v>
+        <v>13894129</v>
       </c>
       <c r="N141">
-        <v>8782092</v>
+        <v>8782018</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -7137,10 +7137,10 @@
         <v>104.14</v>
       </c>
       <c r="M142">
-        <v>13750087</v>
+        <v>13750036</v>
       </c>
       <c r="N142">
-        <v>8776360</v>
+        <v>8776286</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -7190,10 +7190,10 @@
         <v>104.75</v>
       </c>
       <c r="M143">
-        <v>13621956</v>
+        <v>13621905</v>
       </c>
       <c r="N143">
-        <v>8836802</v>
+        <v>8836728</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -7246,7 +7246,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042610</v>
+        <v>9042536</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -7299,7 +7299,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9395230</v>
+        <v>9395156</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -7352,7 +7352,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9716094</v>
+        <v>9716020</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -7405,7 +7405,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916925</v>
+        <v>9916851</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -7458,7 +7458,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176558</v>
+        <v>10176484</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -7511,7 +7511,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10402139</v>
+        <v>10402065</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -7564,7 +7564,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586539</v>
+        <v>10586465</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -7617,7 +7617,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834452</v>
+        <v>10834378</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -7870,7 +7870,7 @@
         <v>123.46</v>
       </c>
       <c r="J156">
-        <v>37.93</v>
+        <v>37.94</v>
       </c>
       <c r="K156">
         <v>15.57</v>
@@ -9442,7 +9442,7 @@
         <v>1488338</v>
       </c>
       <c r="D186">
-        <v>590389</v>
+        <v>590412</v>
       </c>
       <c r="E186">
         <v>232183</v>
@@ -9451,13 +9451,13 @@
         <v>10937527</v>
       </c>
       <c r="G186">
-        <v>9817128</v>
+        <v>9817665</v>
       </c>
       <c r="H186">
-        <v>1209245</v>
+        <v>1209170</v>
       </c>
       <c r="I186">
-        <v>127.41</v>
+        <v>127.39</v>
       </c>
       <c r="J186">
         <v>32.49</v>
@@ -9469,10 +9469,10 @@
         <v>125.18</v>
       </c>
       <c r="M186">
-        <v>13890034</v>
+        <v>13889959</v>
       </c>
       <c r="N186">
-        <v>8211194</v>
+        <v>8211217</v>
       </c>
       <c r="O186">
         <v>2510371</v>
@@ -9522,10 +9522,10 @@
         <v>125.48</v>
       </c>
       <c r="M187">
-        <v>13966267</v>
+        <v>13966192</v>
       </c>
       <c r="N187">
-        <v>8231185</v>
+        <v>8231208</v>
       </c>
       <c r="O187">
         <v>2506811</v>
@@ -9572,13 +9572,13 @@
         <v>14.01</v>
       </c>
       <c r="L188">
-        <v>125.9</v>
+        <v>125.89</v>
       </c>
       <c r="M188">
-        <v>14177500</v>
+        <v>14177425</v>
       </c>
       <c r="N188">
-        <v>8310971</v>
+        <v>8310994</v>
       </c>
       <c r="O188">
         <v>2528409</v>
@@ -9628,10 +9628,10 @@
         <v>126.37</v>
       </c>
       <c r="M189">
-        <v>14260808</v>
+        <v>14260733</v>
       </c>
       <c r="N189">
-        <v>8315331</v>
+        <v>8315354</v>
       </c>
       <c r="O189">
         <v>2521450</v>
@@ -9681,10 +9681,10 @@
         <v>126.79</v>
       </c>
       <c r="M190">
-        <v>14423135</v>
+        <v>14423060</v>
       </c>
       <c r="N190">
-        <v>8370912</v>
+        <v>8370935</v>
       </c>
       <c r="O190">
         <v>2540056</v>
@@ -9707,7 +9707,7 @@
         <v>1667576</v>
       </c>
       <c r="D191">
-        <v>573556</v>
+        <v>573557</v>
       </c>
       <c r="E191">
         <v>207673</v>
@@ -9716,7 +9716,7 @@
         <v>9966680</v>
       </c>
       <c r="G191">
-        <v>8670567</v>
+        <v>8670582</v>
       </c>
       <c r="H191">
         <v>1073079</v>
@@ -9734,10 +9734,10 @@
         <v>127.14</v>
       </c>
       <c r="M191">
-        <v>14528311</v>
+        <v>14528237</v>
       </c>
       <c r="N191">
-        <v>8368442</v>
+        <v>8368466</v>
       </c>
       <c r="O191">
         <v>2551085</v>
@@ -9787,10 +9787,10 @@
         <v>127.59</v>
       </c>
       <c r="M192">
-        <v>14533086</v>
+        <v>14533012</v>
       </c>
       <c r="N192">
-        <v>8290016</v>
+        <v>8290040</v>
       </c>
       <c r="O192">
         <v>2547707</v>
@@ -9840,10 +9840,10 @@
         <v>128.14</v>
       </c>
       <c r="M193">
-        <v>14761610</v>
+        <v>14761535</v>
       </c>
       <c r="N193">
-        <v>8365108</v>
+        <v>8365132</v>
       </c>
       <c r="O193">
         <v>2572355</v>
@@ -9872,7 +9872,7 @@
         <v>235008</v>
       </c>
       <c r="F194">
-        <v>14729051</v>
+        <v>14729052</v>
       </c>
       <c r="G194">
         <v>13027499</v>
@@ -9893,10 +9893,10 @@
         <v>128.88</v>
       </c>
       <c r="M194">
-        <v>14844291</v>
+        <v>14844216</v>
       </c>
       <c r="N194">
-        <v>8387995</v>
+        <v>8388019</v>
       </c>
       <c r="O194">
         <v>2570155</v>
@@ -9946,10 +9946,10 @@
         <v>129.54</v>
       </c>
       <c r="M195">
-        <v>14889221</v>
+        <v>14889146</v>
       </c>
       <c r="N195">
-        <v>8325467</v>
+        <v>8325491</v>
       </c>
       <c r="O195">
         <v>2571044</v>
@@ -9978,7 +9978,7 @@
         <v>219934</v>
       </c>
       <c r="F196">
-        <v>13097745</v>
+        <v>13097750</v>
       </c>
       <c r="G196">
         <v>11730221</v>
@@ -9999,10 +9999,10 @@
         <v>130.2</v>
       </c>
       <c r="M196">
-        <v>14967903</v>
+        <v>14967828</v>
       </c>
       <c r="N196">
-        <v>8319963</v>
+        <v>8319987</v>
       </c>
       <c r="O196">
         <v>2563118</v>
@@ -10052,10 +10052,10 @@
         <v>130.86</v>
       </c>
       <c r="M197">
-        <v>15090047</v>
+        <v>15089972</v>
       </c>
       <c r="N197">
-        <v>8341427</v>
+        <v>8341451</v>
       </c>
       <c r="O197">
         <v>2566573</v>
@@ -10105,10 +10105,10 @@
         <v>131.55</v>
       </c>
       <c r="M198">
-        <v>15141527</v>
+        <v>15141528</v>
       </c>
       <c r="N198">
-        <v>8330316</v>
+        <v>8330317</v>
       </c>
       <c r="O198">
         <v>2567374</v>
@@ -10137,7 +10137,7 @@
         <v>214622</v>
       </c>
       <c r="F199">
-        <v>10187314</v>
+        <v>10187285</v>
       </c>
       <c r="G199">
         <v>9028611</v>
@@ -10158,10 +10158,10 @@
         <v>132.19</v>
       </c>
       <c r="M199">
-        <v>15309071</v>
+        <v>15309072</v>
       </c>
       <c r="N199">
-        <v>8356564</v>
+        <v>8356565</v>
       </c>
       <c r="O199">
         <v>2587920</v>
@@ -10187,7 +10187,7 @@
         <v>735606</v>
       </c>
       <c r="E200">
-        <v>247050</v>
+        <v>247048</v>
       </c>
       <c r="F200">
         <v>11601024</v>
@@ -10211,13 +10211,13 @@
         <v>132.87</v>
       </c>
       <c r="M200">
-        <v>15440681</v>
+        <v>15440682</v>
       </c>
       <c r="N200">
-        <v>8350583</v>
+        <v>8350584</v>
       </c>
       <c r="O200">
-        <v>2599972</v>
+        <v>2599970</v>
       </c>
       <c r="P200">
         <v>3886</v>
@@ -10264,13 +10264,13 @@
         <v>133.49</v>
       </c>
       <c r="M201">
-        <v>15510455</v>
+        <v>15510456</v>
       </c>
       <c r="N201">
-        <v>8368326</v>
+        <v>8368327</v>
       </c>
       <c r="O201">
-        <v>2605547</v>
+        <v>2605545</v>
       </c>
       <c r="P201">
         <v>3887</v>
@@ -10296,7 +10296,7 @@
         <v>211859</v>
       </c>
       <c r="F202">
-        <v>10071191</v>
+        <v>10071192</v>
       </c>
       <c r="G202">
         <v>8724780</v>
@@ -10317,13 +10317,13 @@
         <v>134.04</v>
       </c>
       <c r="M202">
-        <v>15673765</v>
+        <v>15673766</v>
       </c>
       <c r="N202">
-        <v>8381883</v>
+        <v>8381884</v>
       </c>
       <c r="O202">
-        <v>2635462</v>
+        <v>2635460</v>
       </c>
       <c r="P202">
         <v>3895</v>
@@ -10349,7 +10349,7 @@
         <v>223173</v>
       </c>
       <c r="F203">
-        <v>9851386</v>
+        <v>9851382</v>
       </c>
       <c r="G203">
         <v>8695175</v>
@@ -10376,7 +10376,7 @@
         <v>8380544</v>
       </c>
       <c r="O203">
-        <v>2650962</v>
+        <v>2650960</v>
       </c>
       <c r="P203">
         <v>3915</v>
@@ -10429,7 +10429,7 @@
         <v>8330361</v>
       </c>
       <c r="O204">
-        <v>2658784</v>
+        <v>2658782</v>
       </c>
       <c r="P204">
         <v>3927</v>
@@ -10482,7 +10482,7 @@
         <v>8360752</v>
       </c>
       <c r="O205">
-        <v>2687333</v>
+        <v>2687331</v>
       </c>
       <c r="P205">
         <v>3938</v>
@@ -10535,7 +10535,7 @@
         <v>8190399</v>
       </c>
       <c r="O206">
-        <v>2682387</v>
+        <v>2682385</v>
       </c>
       <c r="P206">
         <v>3943</v>
@@ -10588,7 +10588,7 @@
         <v>8167954</v>
       </c>
       <c r="O207">
-        <v>2694738</v>
+        <v>2694736</v>
       </c>
       <c r="P207">
         <v>3943</v>
@@ -10641,7 +10641,7 @@
         <v>8133267</v>
       </c>
       <c r="O208">
-        <v>2719321</v>
+        <v>2719319</v>
       </c>
       <c r="P208">
         <v>3945</v>
@@ -10694,7 +10694,7 @@
         <v>8038963</v>
       </c>
       <c r="O209">
-        <v>2707763</v>
+        <v>2707761</v>
       </c>
       <c r="P209">
         <v>3954</v>
@@ -10747,7 +10747,7 @@
         <v>7908330</v>
       </c>
       <c r="O210">
-        <v>2680328</v>
+        <v>2680326</v>
       </c>
       <c r="P210">
         <v>3955</v>
@@ -10800,7 +10800,7 @@
         <v>7873641</v>
       </c>
       <c r="O211">
-        <v>2671974</v>
+        <v>2671972</v>
       </c>
       <c r="P211">
         <v>3950</v>
@@ -11877,7 +11877,7 @@
         <v>32598</v>
       </c>
       <c r="B232">
-        <v>1361136</v>
+        <v>1361140</v>
       </c>
       <c r="D232">
         <v>652549</v>
@@ -11886,7 +11886,7 @@
         <v>176192</v>
       </c>
       <c r="F232">
-        <v>11589022</v>
+        <v>11589035</v>
       </c>
       <c r="G232">
         <v>10451849</v>
@@ -34403,7 +34403,7 @@
         <v>14491</v>
       </c>
       <c r="R641">
-        <v>375891</v>
+        <v>382073</v>
       </c>
     </row>
     <row r="642">
@@ -34453,13 +34453,13 @@
         <v>1476743</v>
       </c>
       <c r="P642">
-        <v>5215</v>
+        <v>5216</v>
       </c>
       <c r="Q642">
-        <v>14522</v>
+        <v>14494</v>
       </c>
       <c r="R642">
-        <v>377353</v>
+        <v>386202</v>
       </c>
     </row>
     <row r="643">
@@ -34467,49 +34467,105 @@
         <v>45107</v>
       </c>
       <c r="B643">
-        <v>1012489</v>
+        <v>1113048</v>
+      </c>
+      <c r="C643">
+        <v>1654.7</v>
       </c>
       <c r="D643">
-        <v>381565</v>
+        <v>417231</v>
       </c>
       <c r="E643">
-        <v>134495</v>
+        <v>135748</v>
       </c>
       <c r="F643">
-        <v>7120181</v>
+        <v>6939499</v>
       </c>
       <c r="G643">
-        <v>6051598</v>
+        <v>5720156</v>
       </c>
       <c r="H643">
-        <v>2536312</v>
+        <v>2439898</v>
       </c>
       <c r="I643">
-        <v>428.44</v>
+        <v>434.29</v>
       </c>
       <c r="J643">
-        <v>34.49</v>
+        <v>34.52</v>
       </c>
       <c r="K643">
-        <v>14.12</v>
+        <v>13.95</v>
       </c>
       <c r="L643">
-        <v>422.2</v>
+        <v>422.67</v>
       </c>
       <c r="M643">
-        <v>27985808</v>
+        <v>27889394</v>
       </c>
       <c r="N643">
-        <v>4784586</v>
+        <v>4820252</v>
       </c>
       <c r="O643">
-        <v>1504913</v>
+        <v>1506166</v>
       </c>
       <c r="P643">
-        <v>5242</v>
+        <v>5246</v>
       </c>
       <c r="Q643">
-        <v>14554</v>
+        <v>14518</v>
+      </c>
+      <c r="R643">
+        <v>387222</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="2">
+        <v>45138</v>
+      </c>
+      <c r="B644">
+        <v>1054535</v>
+      </c>
+      <c r="D644">
+        <v>462890</v>
+      </c>
+      <c r="E644">
+        <v>165809</v>
+      </c>
+      <c r="F644">
+        <v>8551248</v>
+      </c>
+      <c r="G644">
+        <v>6746674</v>
+      </c>
+      <c r="H644">
+        <v>2803815</v>
+      </c>
+      <c r="I644">
+        <v>423.2</v>
+      </c>
+      <c r="J644">
+        <v>34.76</v>
+      </c>
+      <c r="K644">
+        <v>14.1</v>
+      </c>
+      <c r="L644">
+        <v>425.31</v>
+      </c>
+      <c r="M644">
+        <v>28939334</v>
+      </c>
+      <c r="N644">
+        <v>4915952</v>
+      </c>
+      <c r="O644">
+        <v>1558501</v>
+      </c>
+      <c r="P644">
+        <v>5235</v>
+      </c>
+      <c r="Q644">
+        <v>14537</v>
       </c>
     </row>
   </sheetData>

--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R644"/>
+  <dimension ref="A1:R645"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6592,7 +6592,7 @@
         <v>9516801</v>
       </c>
       <c r="H132">
-        <v>935387</v>
+        <v>935410</v>
       </c>
       <c r="I132">
         <v>100.7</v>
@@ -6607,7 +6607,7 @@
         <v>99.05</v>
       </c>
       <c r="M132">
-        <v>14066934</v>
+        <v>14066957</v>
       </c>
       <c r="N132">
         <v>9919645</v>
@@ -6660,7 +6660,7 @@
         <v>99.53</v>
       </c>
       <c r="M133">
-        <v>14469387</v>
+        <v>14469409</v>
       </c>
       <c r="N133">
         <v>9992123</v>
@@ -6713,7 +6713,7 @@
         <v>100.2</v>
       </c>
       <c r="M134">
-        <v>14605022</v>
+        <v>14605045</v>
       </c>
       <c r="N134">
         <v>9946214</v>
@@ -6766,7 +6766,7 @@
         <v>100.72</v>
       </c>
       <c r="M135">
-        <v>14690459</v>
+        <v>14690482</v>
       </c>
       <c r="N135">
         <v>9890722</v>
@@ -6819,7 +6819,7 @@
         <v>101.31</v>
       </c>
       <c r="M136">
-        <v>14866918</v>
+        <v>14866941</v>
       </c>
       <c r="N136">
         <v>9919839</v>
@@ -6872,7 +6872,7 @@
         <v>101.83</v>
       </c>
       <c r="M137">
-        <v>14861436</v>
+        <v>14861459</v>
       </c>
       <c r="N137">
         <v>9793604</v>
@@ -6925,7 +6925,7 @@
         <v>102.25</v>
       </c>
       <c r="M138">
-        <v>14670828</v>
+        <v>14670851</v>
       </c>
       <c r="N138">
         <v>9476838</v>
@@ -6978,7 +6978,7 @@
         <v>102.61</v>
       </c>
       <c r="M139">
-        <v>14467053</v>
+        <v>14467076</v>
       </c>
       <c r="N139">
         <v>9214474</v>
@@ -7004,7 +7004,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823667</v>
+        <v>823672</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -7031,10 +7031,10 @@
         <v>103.08</v>
       </c>
       <c r="M140">
-        <v>14131833</v>
+        <v>14131856</v>
       </c>
       <c r="N140">
-        <v>8935503</v>
+        <v>8935508</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -7084,10 +7084,10 @@
         <v>103.59</v>
       </c>
       <c r="M141">
-        <v>13894129</v>
+        <v>13894152</v>
       </c>
       <c r="N141">
-        <v>8782018</v>
+        <v>8782023</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -7137,10 +7137,10 @@
         <v>104.14</v>
       </c>
       <c r="M142">
-        <v>13750036</v>
+        <v>13750059</v>
       </c>
       <c r="N142">
-        <v>8776286</v>
+        <v>8776291</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -7190,10 +7190,10 @@
         <v>104.75</v>
       </c>
       <c r="M143">
-        <v>13621905</v>
+        <v>13621928</v>
       </c>
       <c r="N143">
-        <v>8836728</v>
+        <v>8836733</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -7246,7 +7246,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042536</v>
+        <v>9042541</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -7299,7 +7299,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9395156</v>
+        <v>9395161</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -7352,7 +7352,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9716020</v>
+        <v>9716025</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -7405,7 +7405,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916851</v>
+        <v>9916856</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -7458,7 +7458,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176484</v>
+        <v>10176489</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -7511,7 +7511,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10402065</v>
+        <v>10402070</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -7564,7 +7564,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586465</v>
+        <v>10586470</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -7617,7 +7617,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834378</v>
+        <v>10834383</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -9442,7 +9442,7 @@
         <v>1488338</v>
       </c>
       <c r="D186">
-        <v>590412</v>
+        <v>590415</v>
       </c>
       <c r="E186">
         <v>232183</v>
@@ -9451,10 +9451,10 @@
         <v>10937527</v>
       </c>
       <c r="G186">
-        <v>9817665</v>
+        <v>9817743</v>
       </c>
       <c r="H186">
-        <v>1209170</v>
+        <v>1209143</v>
       </c>
       <c r="I186">
         <v>127.39</v>
@@ -9469,10 +9469,10 @@
         <v>125.18</v>
       </c>
       <c r="M186">
-        <v>13889959</v>
+        <v>13889932</v>
       </c>
       <c r="N186">
-        <v>8211217</v>
+        <v>8211220</v>
       </c>
       <c r="O186">
         <v>2510371</v>
@@ -9522,10 +9522,10 @@
         <v>125.48</v>
       </c>
       <c r="M187">
-        <v>13966192</v>
+        <v>13966165</v>
       </c>
       <c r="N187">
-        <v>8231208</v>
+        <v>8231211</v>
       </c>
       <c r="O187">
         <v>2506811</v>
@@ -9575,10 +9575,10 @@
         <v>125.89</v>
       </c>
       <c r="M188">
-        <v>14177425</v>
+        <v>14177399</v>
       </c>
       <c r="N188">
-        <v>8310994</v>
+        <v>8310997</v>
       </c>
       <c r="O188">
         <v>2528409</v>
@@ -9628,10 +9628,10 @@
         <v>126.37</v>
       </c>
       <c r="M189">
-        <v>14260733</v>
+        <v>14260706</v>
       </c>
       <c r="N189">
-        <v>8315354</v>
+        <v>8315357</v>
       </c>
       <c r="O189">
         <v>2521450</v>
@@ -9681,10 +9681,10 @@
         <v>126.79</v>
       </c>
       <c r="M190">
-        <v>14423060</v>
+        <v>14423034</v>
       </c>
       <c r="N190">
-        <v>8370935</v>
+        <v>8370938</v>
       </c>
       <c r="O190">
         <v>2540056</v>
@@ -9707,7 +9707,7 @@
         <v>1667576</v>
       </c>
       <c r="D191">
-        <v>573557</v>
+        <v>573556</v>
       </c>
       <c r="E191">
         <v>207673</v>
@@ -9716,7 +9716,7 @@
         <v>9966680</v>
       </c>
       <c r="G191">
-        <v>8670582</v>
+        <v>8670570</v>
       </c>
       <c r="H191">
         <v>1073079</v>
@@ -9734,10 +9734,10 @@
         <v>127.14</v>
       </c>
       <c r="M191">
-        <v>14528237</v>
+        <v>14528210</v>
       </c>
       <c r="N191">
-        <v>8368466</v>
+        <v>8368468</v>
       </c>
       <c r="O191">
         <v>2551085</v>
@@ -9787,10 +9787,10 @@
         <v>127.59</v>
       </c>
       <c r="M192">
-        <v>14533012</v>
+        <v>14532984</v>
       </c>
       <c r="N192">
-        <v>8290040</v>
+        <v>8290042</v>
       </c>
       <c r="O192">
         <v>2547707</v>
@@ -9840,10 +9840,10 @@
         <v>128.14</v>
       </c>
       <c r="M193">
-        <v>14761535</v>
+        <v>14761508</v>
       </c>
       <c r="N193">
-        <v>8365132</v>
+        <v>8365134</v>
       </c>
       <c r="O193">
         <v>2572355</v>
@@ -9872,7 +9872,7 @@
         <v>235008</v>
       </c>
       <c r="F194">
-        <v>14729052</v>
+        <v>14729050</v>
       </c>
       <c r="G194">
         <v>13027499</v>
@@ -9893,10 +9893,10 @@
         <v>128.88</v>
       </c>
       <c r="M194">
-        <v>14844216</v>
+        <v>14844189</v>
       </c>
       <c r="N194">
-        <v>8388019</v>
+        <v>8388021</v>
       </c>
       <c r="O194">
         <v>2570155</v>
@@ -9946,10 +9946,10 @@
         <v>129.54</v>
       </c>
       <c r="M195">
-        <v>14889146</v>
+        <v>14889119</v>
       </c>
       <c r="N195">
-        <v>8325491</v>
+        <v>8325493</v>
       </c>
       <c r="O195">
         <v>2571044</v>
@@ -9978,7 +9978,7 @@
         <v>219934</v>
       </c>
       <c r="F196">
-        <v>13097750</v>
+        <v>13097756</v>
       </c>
       <c r="G196">
         <v>11730221</v>
@@ -9999,10 +9999,10 @@
         <v>130.2</v>
       </c>
       <c r="M196">
-        <v>14967828</v>
+        <v>14967801</v>
       </c>
       <c r="N196">
-        <v>8319987</v>
+        <v>8319989</v>
       </c>
       <c r="O196">
         <v>2563118</v>
@@ -10052,10 +10052,10 @@
         <v>130.86</v>
       </c>
       <c r="M197">
-        <v>15089972</v>
+        <v>15089945</v>
       </c>
       <c r="N197">
-        <v>8341451</v>
+        <v>8341453</v>
       </c>
       <c r="O197">
         <v>2566573</v>
@@ -10105,10 +10105,10 @@
         <v>131.55</v>
       </c>
       <c r="M198">
-        <v>15141528</v>
+        <v>15141527</v>
       </c>
       <c r="N198">
-        <v>8330317</v>
+        <v>8330316</v>
       </c>
       <c r="O198">
         <v>2567374</v>
@@ -10134,10 +10134,10 @@
         <v>525103</v>
       </c>
       <c r="E199">
-        <v>214622</v>
+        <v>214623</v>
       </c>
       <c r="F199">
-        <v>10187285</v>
+        <v>10187289</v>
       </c>
       <c r="G199">
         <v>9028611</v>
@@ -10158,13 +10158,13 @@
         <v>132.19</v>
       </c>
       <c r="M199">
-        <v>15309072</v>
+        <v>15309071</v>
       </c>
       <c r="N199">
-        <v>8356565</v>
+        <v>8356564</v>
       </c>
       <c r="O199">
-        <v>2587920</v>
+        <v>2587921</v>
       </c>
       <c r="P199">
         <v>3887</v>
@@ -10211,13 +10211,13 @@
         <v>132.87</v>
       </c>
       <c r="M200">
-        <v>15440682</v>
+        <v>15440681</v>
       </c>
       <c r="N200">
-        <v>8350584</v>
+        <v>8350583</v>
       </c>
       <c r="O200">
-        <v>2599970</v>
+        <v>2599971</v>
       </c>
       <c r="P200">
         <v>3886</v>
@@ -10264,13 +10264,13 @@
         <v>133.49</v>
       </c>
       <c r="M201">
-        <v>15510456</v>
+        <v>15510455</v>
       </c>
       <c r="N201">
-        <v>8368327</v>
+        <v>8368326</v>
       </c>
       <c r="O201">
-        <v>2605545</v>
+        <v>2605546</v>
       </c>
       <c r="P201">
         <v>3887</v>
@@ -10296,7 +10296,7 @@
         <v>211859</v>
       </c>
       <c r="F202">
-        <v>10071192</v>
+        <v>10071183</v>
       </c>
       <c r="G202">
         <v>8724780</v>
@@ -10317,13 +10317,13 @@
         <v>134.04</v>
       </c>
       <c r="M202">
-        <v>15673766</v>
+        <v>15673765</v>
       </c>
       <c r="N202">
-        <v>8381884</v>
+        <v>8381883</v>
       </c>
       <c r="O202">
-        <v>2635460</v>
+        <v>2635461</v>
       </c>
       <c r="P202">
         <v>3895</v>
@@ -10349,7 +10349,7 @@
         <v>223173</v>
       </c>
       <c r="F203">
-        <v>9851382</v>
+        <v>9851370</v>
       </c>
       <c r="G203">
         <v>8695175</v>
@@ -10376,7 +10376,7 @@
         <v>8380544</v>
       </c>
       <c r="O203">
-        <v>2650960</v>
+        <v>2650961</v>
       </c>
       <c r="P203">
         <v>3915</v>
@@ -10429,7 +10429,7 @@
         <v>8330361</v>
       </c>
       <c r="O204">
-        <v>2658782</v>
+        <v>2658783</v>
       </c>
       <c r="P204">
         <v>3927</v>
@@ -10482,7 +10482,7 @@
         <v>8360752</v>
       </c>
       <c r="O205">
-        <v>2687331</v>
+        <v>2687332</v>
       </c>
       <c r="P205">
         <v>3938</v>
@@ -10535,7 +10535,7 @@
         <v>8190399</v>
       </c>
       <c r="O206">
-        <v>2682385</v>
+        <v>2682386</v>
       </c>
       <c r="P206">
         <v>3943</v>
@@ -10588,7 +10588,7 @@
         <v>8167954</v>
       </c>
       <c r="O207">
-        <v>2694736</v>
+        <v>2694737</v>
       </c>
       <c r="P207">
         <v>3943</v>
@@ -10641,7 +10641,7 @@
         <v>8133267</v>
       </c>
       <c r="O208">
-        <v>2719319</v>
+        <v>2719320</v>
       </c>
       <c r="P208">
         <v>3945</v>
@@ -10694,7 +10694,7 @@
         <v>8038963</v>
       </c>
       <c r="O209">
-        <v>2707761</v>
+        <v>2707762</v>
       </c>
       <c r="P209">
         <v>3954</v>
@@ -10747,7 +10747,7 @@
         <v>7908330</v>
       </c>
       <c r="O210">
-        <v>2680326</v>
+        <v>2680327</v>
       </c>
       <c r="P210">
         <v>3955</v>
@@ -11886,7 +11886,7 @@
         <v>176192</v>
       </c>
       <c r="F232">
-        <v>11589035</v>
+        <v>11589038</v>
       </c>
       <c r="G232">
         <v>10451849</v>
@@ -34459,7 +34459,7 @@
         <v>14494</v>
       </c>
       <c r="R642">
-        <v>386202</v>
+        <v>388978</v>
       </c>
     </row>
     <row r="643">
@@ -34509,13 +34509,13 @@
         <v>1506166</v>
       </c>
       <c r="P643">
-        <v>5246</v>
+        <v>5231</v>
       </c>
       <c r="Q643">
-        <v>14518</v>
+        <v>14492</v>
       </c>
       <c r="R643">
-        <v>387222</v>
+        <v>392077</v>
       </c>
     </row>
     <row r="644">
@@ -34523,49 +34523,102 @@
         <v>45138</v>
       </c>
       <c r="B644">
-        <v>1054535</v>
+        <v>1058725</v>
+      </c>
+      <c r="C644">
+        <v>1820.7</v>
       </c>
       <c r="D644">
-        <v>462890</v>
+        <v>467119</v>
       </c>
       <c r="E644">
-        <v>165809</v>
+        <v>165500</v>
       </c>
       <c r="F644">
-        <v>8551248</v>
+        <v>8556682</v>
       </c>
       <c r="G644">
-        <v>6746674</v>
+        <v>6749380</v>
       </c>
       <c r="H644">
-        <v>2803815</v>
+        <v>2807117</v>
       </c>
       <c r="I644">
-        <v>423.2</v>
+        <v>423.45</v>
       </c>
       <c r="J644">
-        <v>34.76</v>
+        <v>34.75</v>
       </c>
       <c r="K644">
-        <v>14.1</v>
+        <v>14.09</v>
       </c>
       <c r="L644">
-        <v>425.31</v>
+        <v>425.33</v>
       </c>
       <c r="M644">
-        <v>28939334</v>
+        <v>28942636</v>
       </c>
       <c r="N644">
-        <v>4915952</v>
+        <v>4920181</v>
       </c>
       <c r="O644">
-        <v>1558501</v>
+        <v>1558192</v>
       </c>
       <c r="P644">
-        <v>5235</v>
+        <v>5226</v>
       </c>
       <c r="Q644">
-        <v>14537</v>
+        <v>14493</v>
+      </c>
+      <c r="R644">
+        <v>391732</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="2">
+        <v>45169</v>
+      </c>
+      <c r="B645">
+        <v>911799</v>
+      </c>
+      <c r="E645">
+        <v>155688</v>
+      </c>
+      <c r="F645">
+        <v>7499819</v>
+      </c>
+      <c r="G645">
+        <v>6460346</v>
+      </c>
+      <c r="H645">
+        <v>2744881</v>
+      </c>
+      <c r="I645">
+        <v>432.02</v>
+      </c>
+      <c r="J645">
+        <v>34.99</v>
+      </c>
+      <c r="K645">
+        <v>14.18</v>
+      </c>
+      <c r="L645">
+        <v>428.52</v>
+      </c>
+      <c r="M645">
+        <v>29670814</v>
+      </c>
+      <c r="N645">
+        <v>4973753</v>
+      </c>
+      <c r="O645">
+        <v>1595147</v>
+      </c>
+      <c r="P645">
+        <v>5226</v>
+      </c>
+      <c r="Q645">
+        <v>14491</v>
       </c>
     </row>
   </sheetData>

--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R645"/>
+  <dimension ref="A1:R646"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4784,13 +4784,13 @@
         <v>210662</v>
       </c>
       <c r="F98">
-        <v>13886973</v>
+        <v>13886979</v>
       </c>
       <c r="G98">
-        <v>11076407</v>
+        <v>11076413</v>
       </c>
       <c r="H98">
-        <v>904872</v>
+        <v>904873</v>
       </c>
       <c r="I98">
         <v>84.12</v>
@@ -4805,7 +4805,7 @@
         <v>79.33</v>
       </c>
       <c r="M98">
-        <v>8643094</v>
+        <v>8643095</v>
       </c>
       <c r="N98">
         <v>7816720</v>
@@ -4858,7 +4858,7 @@
         <v>79.84</v>
       </c>
       <c r="M99">
-        <v>8586181</v>
+        <v>8586182</v>
       </c>
       <c r="N99">
         <v>7675188</v>
@@ -4964,7 +4964,7 @@
         <v>80.95</v>
       </c>
       <c r="M101">
-        <v>8496278</v>
+        <v>8496279</v>
       </c>
       <c r="N101">
         <v>7630816</v>
@@ -5017,7 +5017,7 @@
         <v>81.34999999999999</v>
       </c>
       <c r="M102">
-        <v>8469981</v>
+        <v>8469982</v>
       </c>
       <c r="N102">
         <v>7605385</v>
@@ -5070,7 +5070,7 @@
         <v>81.73999999999999</v>
       </c>
       <c r="M103">
-        <v>8390319</v>
+        <v>8390320</v>
       </c>
       <c r="N103">
         <v>7610191</v>
@@ -5123,7 +5123,7 @@
         <v>82.12</v>
       </c>
       <c r="M104">
-        <v>8353744</v>
+        <v>8353745</v>
       </c>
       <c r="N104">
         <v>7610967</v>
@@ -5176,7 +5176,7 @@
         <v>82.48999999999999</v>
       </c>
       <c r="M105">
-        <v>8358621</v>
+        <v>8358622</v>
       </c>
       <c r="N105">
         <v>7677889</v>
@@ -5229,7 +5229,7 @@
         <v>82.78</v>
       </c>
       <c r="M106">
-        <v>8313964</v>
+        <v>8313965</v>
       </c>
       <c r="N106">
         <v>7636142</v>
@@ -5282,7 +5282,7 @@
         <v>83.03</v>
       </c>
       <c r="M107">
-        <v>8307259</v>
+        <v>8307260</v>
       </c>
       <c r="N107">
         <v>7633029</v>
@@ -5335,7 +5335,7 @@
         <v>83.3</v>
       </c>
       <c r="M108">
-        <v>8263908</v>
+        <v>8263909</v>
       </c>
       <c r="N108">
         <v>7603593</v>
@@ -5388,7 +5388,7 @@
         <v>83.67</v>
       </c>
       <c r="M109">
-        <v>8212243</v>
+        <v>8212244</v>
       </c>
       <c r="N109">
         <v>7568310</v>
@@ -6592,7 +6592,7 @@
         <v>9516801</v>
       </c>
       <c r="H132">
-        <v>935410</v>
+        <v>935419</v>
       </c>
       <c r="I132">
         <v>100.7</v>
@@ -6607,7 +6607,7 @@
         <v>99.05</v>
       </c>
       <c r="M132">
-        <v>14066957</v>
+        <v>14066966</v>
       </c>
       <c r="N132">
         <v>9919645</v>
@@ -6660,7 +6660,7 @@
         <v>99.53</v>
       </c>
       <c r="M133">
-        <v>14469409</v>
+        <v>14469419</v>
       </c>
       <c r="N133">
         <v>9992123</v>
@@ -6713,7 +6713,7 @@
         <v>100.2</v>
       </c>
       <c r="M134">
-        <v>14605045</v>
+        <v>14605054</v>
       </c>
       <c r="N134">
         <v>9946214</v>
@@ -6766,7 +6766,7 @@
         <v>100.72</v>
       </c>
       <c r="M135">
-        <v>14690482</v>
+        <v>14690491</v>
       </c>
       <c r="N135">
         <v>9890722</v>
@@ -6819,7 +6819,7 @@
         <v>101.31</v>
       </c>
       <c r="M136">
-        <v>14866941</v>
+        <v>14866950</v>
       </c>
       <c r="N136">
         <v>9919839</v>
@@ -6872,7 +6872,7 @@
         <v>101.83</v>
       </c>
       <c r="M137">
-        <v>14861459</v>
+        <v>14861468</v>
       </c>
       <c r="N137">
         <v>9793604</v>
@@ -6925,7 +6925,7 @@
         <v>102.25</v>
       </c>
       <c r="M138">
-        <v>14670851</v>
+        <v>14670860</v>
       </c>
       <c r="N138">
         <v>9476838</v>
@@ -6978,7 +6978,7 @@
         <v>102.61</v>
       </c>
       <c r="M139">
-        <v>14467076</v>
+        <v>14467085</v>
       </c>
       <c r="N139">
         <v>9214474</v>
@@ -7004,7 +7004,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823672</v>
+        <v>823677</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -7031,10 +7031,10 @@
         <v>103.08</v>
       </c>
       <c r="M140">
-        <v>14131856</v>
+        <v>14131865</v>
       </c>
       <c r="N140">
-        <v>8935508</v>
+        <v>8935513</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -7084,10 +7084,10 @@
         <v>103.59</v>
       </c>
       <c r="M141">
-        <v>13894152</v>
+        <v>13894161</v>
       </c>
       <c r="N141">
-        <v>8782023</v>
+        <v>8782028</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -7137,10 +7137,10 @@
         <v>104.14</v>
       </c>
       <c r="M142">
-        <v>13750059</v>
+        <v>13750068</v>
       </c>
       <c r="N142">
-        <v>8776291</v>
+        <v>8776296</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -7190,10 +7190,10 @@
         <v>104.75</v>
       </c>
       <c r="M143">
-        <v>13621928</v>
+        <v>13621937</v>
       </c>
       <c r="N143">
-        <v>8836733</v>
+        <v>8836738</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -7246,7 +7246,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042541</v>
+        <v>9042546</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -7299,7 +7299,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9395161</v>
+        <v>9395166</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -7352,7 +7352,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9716025</v>
+        <v>9716030</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -7405,7 +7405,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916856</v>
+        <v>9916861</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -7458,7 +7458,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176489</v>
+        <v>10176494</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -7511,7 +7511,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10402070</v>
+        <v>10402075</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -7564,7 +7564,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586470</v>
+        <v>10586475</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -7617,7 +7617,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834383</v>
+        <v>10834388</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -9442,7 +9442,7 @@
         <v>1488338</v>
       </c>
       <c r="D186">
-        <v>590415</v>
+        <v>590421</v>
       </c>
       <c r="E186">
         <v>232183</v>
@@ -9451,13 +9451,13 @@
         <v>10937527</v>
       </c>
       <c r="G186">
-        <v>9817743</v>
+        <v>9817862</v>
       </c>
       <c r="H186">
-        <v>1209143</v>
+        <v>1209128</v>
       </c>
       <c r="I186">
-        <v>127.39</v>
+        <v>127.38</v>
       </c>
       <c r="J186">
         <v>32.49</v>
@@ -9469,10 +9469,10 @@
         <v>125.18</v>
       </c>
       <c r="M186">
-        <v>13889932</v>
+        <v>13889917</v>
       </c>
       <c r="N186">
-        <v>8211220</v>
+        <v>8211226</v>
       </c>
       <c r="O186">
         <v>2510371</v>
@@ -9522,10 +9522,10 @@
         <v>125.48</v>
       </c>
       <c r="M187">
-        <v>13966165</v>
+        <v>13966150</v>
       </c>
       <c r="N187">
-        <v>8231211</v>
+        <v>8231217</v>
       </c>
       <c r="O187">
         <v>2506811</v>
@@ -9575,10 +9575,10 @@
         <v>125.89</v>
       </c>
       <c r="M188">
-        <v>14177399</v>
+        <v>14177384</v>
       </c>
       <c r="N188">
-        <v>8310997</v>
+        <v>8311003</v>
       </c>
       <c r="O188">
         <v>2528409</v>
@@ -9628,10 +9628,10 @@
         <v>126.37</v>
       </c>
       <c r="M189">
-        <v>14260706</v>
+        <v>14260691</v>
       </c>
       <c r="N189">
-        <v>8315357</v>
+        <v>8315363</v>
       </c>
       <c r="O189">
         <v>2521450</v>
@@ -9681,10 +9681,10 @@
         <v>126.79</v>
       </c>
       <c r="M190">
-        <v>14423034</v>
+        <v>14423018</v>
       </c>
       <c r="N190">
-        <v>8370938</v>
+        <v>8370944</v>
       </c>
       <c r="O190">
         <v>2540056</v>
@@ -9707,7 +9707,7 @@
         <v>1667576</v>
       </c>
       <c r="D191">
-        <v>573556</v>
+        <v>573555</v>
       </c>
       <c r="E191">
         <v>207673</v>
@@ -9716,10 +9716,10 @@
         <v>9966680</v>
       </c>
       <c r="G191">
-        <v>8670570</v>
+        <v>8670559</v>
       </c>
       <c r="H191">
-        <v>1073079</v>
+        <v>1073078</v>
       </c>
       <c r="I191">
         <v>128.59</v>
@@ -9734,10 +9734,10 @@
         <v>127.14</v>
       </c>
       <c r="M191">
-        <v>14528210</v>
+        <v>14528194</v>
       </c>
       <c r="N191">
-        <v>8368468</v>
+        <v>8368473</v>
       </c>
       <c r="O191">
         <v>2551085</v>
@@ -9787,10 +9787,10 @@
         <v>127.59</v>
       </c>
       <c r="M192">
-        <v>14532984</v>
+        <v>14532968</v>
       </c>
       <c r="N192">
-        <v>8290042</v>
+        <v>8290047</v>
       </c>
       <c r="O192">
         <v>2547707</v>
@@ -9840,10 +9840,10 @@
         <v>128.14</v>
       </c>
       <c r="M193">
-        <v>14761508</v>
+        <v>14761492</v>
       </c>
       <c r="N193">
-        <v>8365134</v>
+        <v>8365139</v>
       </c>
       <c r="O193">
         <v>2572355</v>
@@ -9872,7 +9872,7 @@
         <v>235008</v>
       </c>
       <c r="F194">
-        <v>14729050</v>
+        <v>14729048</v>
       </c>
       <c r="G194">
         <v>13027499</v>
@@ -9893,10 +9893,10 @@
         <v>128.88</v>
       </c>
       <c r="M194">
-        <v>14844189</v>
+        <v>14844173</v>
       </c>
       <c r="N194">
-        <v>8388021</v>
+        <v>8388026</v>
       </c>
       <c r="O194">
         <v>2570155</v>
@@ -9946,10 +9946,10 @@
         <v>129.54</v>
       </c>
       <c r="M195">
-        <v>14889119</v>
+        <v>14889103</v>
       </c>
       <c r="N195">
-        <v>8325493</v>
+        <v>8325498</v>
       </c>
       <c r="O195">
         <v>2571044</v>
@@ -9978,7 +9978,7 @@
         <v>219934</v>
       </c>
       <c r="F196">
-        <v>13097756</v>
+        <v>13097754</v>
       </c>
       <c r="G196">
         <v>11730221</v>
@@ -9999,10 +9999,10 @@
         <v>130.2</v>
       </c>
       <c r="M196">
-        <v>14967801</v>
+        <v>14967785</v>
       </c>
       <c r="N196">
-        <v>8319989</v>
+        <v>8319994</v>
       </c>
       <c r="O196">
         <v>2563118</v>
@@ -10052,10 +10052,10 @@
         <v>130.86</v>
       </c>
       <c r="M197">
-        <v>15089945</v>
+        <v>15089929</v>
       </c>
       <c r="N197">
-        <v>8341453</v>
+        <v>8341458</v>
       </c>
       <c r="O197">
         <v>2566573</v>
@@ -10105,10 +10105,10 @@
         <v>131.55</v>
       </c>
       <c r="M198">
-        <v>15141527</v>
+        <v>15141526</v>
       </c>
       <c r="N198">
-        <v>8330316</v>
+        <v>8330315</v>
       </c>
       <c r="O198">
         <v>2567374</v>
@@ -10158,10 +10158,10 @@
         <v>132.19</v>
       </c>
       <c r="M199">
-        <v>15309071</v>
+        <v>15309070</v>
       </c>
       <c r="N199">
-        <v>8356564</v>
+        <v>8356563</v>
       </c>
       <c r="O199">
         <v>2587921</v>
@@ -10211,10 +10211,10 @@
         <v>132.87</v>
       </c>
       <c r="M200">
-        <v>15440681</v>
+        <v>15440680</v>
       </c>
       <c r="N200">
-        <v>8350583</v>
+        <v>8350582</v>
       </c>
       <c r="O200">
         <v>2599971</v>
@@ -10264,10 +10264,10 @@
         <v>133.49</v>
       </c>
       <c r="M201">
-        <v>15510455</v>
+        <v>15510454</v>
       </c>
       <c r="N201">
-        <v>8368326</v>
+        <v>8368325</v>
       </c>
       <c r="O201">
         <v>2605546</v>
@@ -10296,7 +10296,7 @@
         <v>211859</v>
       </c>
       <c r="F202">
-        <v>10071183</v>
+        <v>10071179</v>
       </c>
       <c r="G202">
         <v>8724780</v>
@@ -10317,10 +10317,10 @@
         <v>134.04</v>
       </c>
       <c r="M202">
-        <v>15673765</v>
+        <v>15673764</v>
       </c>
       <c r="N202">
-        <v>8381883</v>
+        <v>8381882</v>
       </c>
       <c r="O202">
         <v>2635461</v>
@@ -10349,7 +10349,7 @@
         <v>223173</v>
       </c>
       <c r="F203">
-        <v>9851370</v>
+        <v>9851360</v>
       </c>
       <c r="G203">
         <v>8695175</v>
@@ -11877,7 +11877,7 @@
         <v>32598</v>
       </c>
       <c r="B232">
-        <v>1361140</v>
+        <v>1361139</v>
       </c>
       <c r="D232">
         <v>652549</v>
@@ -11886,7 +11886,7 @@
         <v>176192</v>
       </c>
       <c r="F232">
-        <v>11589038</v>
+        <v>11589036</v>
       </c>
       <c r="G232">
         <v>10451849</v>
@@ -34075,28 +34075,28 @@
         <v>44895</v>
       </c>
       <c r="B636">
-        <v>1008252</v>
+        <v>1008284</v>
       </c>
       <c r="C636">
         <v>1346</v>
       </c>
       <c r="D636">
-        <v>353240</v>
+        <v>353166</v>
       </c>
       <c r="E636">
-        <v>112215</v>
+        <v>112106</v>
       </c>
       <c r="F636">
-        <v>5707460</v>
+        <v>5706299</v>
       </c>
       <c r="G636">
-        <v>4583847</v>
+        <v>4582761</v>
       </c>
       <c r="H636">
-        <v>1872004</v>
+        <v>1871519</v>
       </c>
       <c r="I636">
-        <v>417.46</v>
+        <v>417.45</v>
       </c>
       <c r="J636">
         <v>30.52</v>
@@ -34108,13 +34108,13 @@
         <v>397.24</v>
       </c>
       <c r="M636">
-        <v>24210749</v>
+        <v>24210263</v>
       </c>
       <c r="N636">
-        <v>4314272</v>
+        <v>4314198</v>
       </c>
       <c r="O636">
-        <v>1586114</v>
+        <v>1586005</v>
       </c>
       <c r="P636">
         <v>5116</v>
@@ -34131,31 +34131,31 @@
         <v>44926</v>
       </c>
       <c r="B637">
-        <v>1159570</v>
+        <v>1159588</v>
       </c>
       <c r="C637">
         <v>1557.9</v>
       </c>
       <c r="D637">
-        <v>463468</v>
+        <v>463463</v>
       </c>
       <c r="E637">
-        <v>114751</v>
+        <v>114578</v>
       </c>
       <c r="F637">
-        <v>6576877</v>
+        <v>6575471</v>
       </c>
       <c r="G637">
-        <v>5404791</v>
+        <v>5403279</v>
       </c>
       <c r="H637">
-        <v>2238379</v>
+        <v>2237864</v>
       </c>
       <c r="I637">
-        <v>422.39</v>
+        <v>422.41</v>
       </c>
       <c r="J637">
-        <v>31.22</v>
+        <v>31.21</v>
       </c>
       <c r="K637">
         <v>14.22</v>
@@ -34164,13 +34164,13 @@
         <v>401.44</v>
       </c>
       <c r="M637">
-        <v>24256635</v>
+        <v>24255635</v>
       </c>
       <c r="N637">
-        <v>4362897</v>
+        <v>4362818</v>
       </c>
       <c r="O637">
-        <v>1518832</v>
+        <v>1518550</v>
       </c>
       <c r="P637">
         <v>5087</v>
@@ -34187,31 +34187,31 @@
         <v>44957</v>
       </c>
       <c r="B638">
-        <v>1226108</v>
+        <v>1226023</v>
       </c>
       <c r="C638">
         <v>1855.5</v>
       </c>
       <c r="D638">
-        <v>650635</v>
+        <v>650582</v>
       </c>
       <c r="E638">
-        <v>140555</v>
+        <v>140525</v>
       </c>
       <c r="F638">
-        <v>8985961</v>
+        <v>8985035</v>
       </c>
       <c r="G638">
-        <v>7351674</v>
+        <v>7350768</v>
       </c>
       <c r="H638">
-        <v>3117483</v>
+        <v>3117353</v>
       </c>
       <c r="I638">
-        <v>430.2</v>
+        <v>430.24</v>
       </c>
       <c r="J638">
-        <v>31.92</v>
+        <v>31.91</v>
       </c>
       <c r="K638">
         <v>13.91</v>
@@ -34220,13 +34220,13 @@
         <v>406.12</v>
       </c>
       <c r="M638">
-        <v>24738944</v>
+        <v>24737814</v>
       </c>
       <c r="N638">
-        <v>4483677</v>
+        <v>4483545</v>
       </c>
       <c r="O638">
-        <v>1481685</v>
+        <v>1481373</v>
       </c>
       <c r="P638">
         <v>5156</v>
@@ -34243,31 +34243,31 @@
         <v>44985</v>
       </c>
       <c r="B639">
-        <v>898658</v>
+        <v>898590</v>
       </c>
       <c r="C639">
         <v>1870.1</v>
       </c>
       <c r="D639">
-        <v>467290</v>
+        <v>467248</v>
       </c>
       <c r="E639">
-        <v>118686</v>
+        <v>118662</v>
       </c>
       <c r="F639">
-        <v>7772038</v>
+        <v>7771291</v>
       </c>
       <c r="G639">
-        <v>6557155</v>
+        <v>6556427</v>
       </c>
       <c r="H639">
-        <v>2820610</v>
+        <v>2820505</v>
       </c>
       <c r="I639">
-        <v>437.57</v>
+        <v>437.6</v>
       </c>
       <c r="J639">
-        <v>32.2</v>
+        <v>32.19</v>
       </c>
       <c r="K639">
         <v>13.75</v>
@@ -34276,13 +34276,13 @@
         <v>410.05</v>
       </c>
       <c r="M639">
-        <v>25144025</v>
+        <v>25142790</v>
       </c>
       <c r="N639">
-        <v>4558332</v>
+        <v>4558158</v>
       </c>
       <c r="O639">
-        <v>1461194</v>
+        <v>1460858</v>
       </c>
       <c r="P639">
         <v>5175</v>
@@ -34299,28 +34299,28 @@
         <v>45016</v>
       </c>
       <c r="B640">
-        <v>986628</v>
+        <v>986573</v>
       </c>
       <c r="C640">
         <v>1852.7</v>
       </c>
       <c r="D640">
-        <v>410627</v>
+        <v>410593</v>
       </c>
       <c r="E640">
-        <v>130480</v>
+        <v>130461</v>
       </c>
       <c r="F640">
-        <v>7973297</v>
+        <v>7972699</v>
       </c>
       <c r="G640">
-        <v>6870557</v>
+        <v>6869973</v>
       </c>
       <c r="H640">
-        <v>2977145</v>
+        <v>2977061</v>
       </c>
       <c r="I640">
-        <v>441.06</v>
+        <v>441.08</v>
       </c>
       <c r="J640">
         <v>32.73</v>
@@ -34329,16 +34329,16 @@
         <v>13.72</v>
       </c>
       <c r="L640">
-        <v>413.65</v>
+        <v>413.66</v>
       </c>
       <c r="M640">
-        <v>25580455</v>
+        <v>25579137</v>
       </c>
       <c r="N640">
-        <v>4598872</v>
+        <v>4598664</v>
       </c>
       <c r="O640">
-        <v>1423217</v>
+        <v>1422862</v>
       </c>
       <c r="P640">
         <v>5195</v>
@@ -34379,22 +34379,22 @@
         <v>435.16</v>
       </c>
       <c r="J641">
-        <v>33.72</v>
+        <v>33.71</v>
       </c>
       <c r="K641">
         <v>13.83</v>
       </c>
       <c r="L641">
-        <v>416.41</v>
+        <v>416.42</v>
       </c>
       <c r="M641">
-        <v>26308253</v>
+        <v>26306935</v>
       </c>
       <c r="N641">
-        <v>4657762</v>
+        <v>4657554</v>
       </c>
       <c r="O641">
-        <v>1446579</v>
+        <v>1446224</v>
       </c>
       <c r="P641">
         <v>5202</v>
@@ -34411,46 +34411,46 @@
         <v>45077</v>
       </c>
       <c r="B642">
-        <v>1002794</v>
+        <v>1002759</v>
       </c>
       <c r="C642">
         <v>1599.9</v>
       </c>
       <c r="D642">
-        <v>386155</v>
+        <v>386133</v>
       </c>
       <c r="E642">
-        <v>155739</v>
+        <v>155727</v>
       </c>
       <c r="F642">
-        <v>7190180</v>
+        <v>7189797</v>
       </c>
       <c r="G642">
-        <v>6150978</v>
+        <v>6150605</v>
       </c>
       <c r="H642">
-        <v>2648738</v>
+        <v>2648685</v>
       </c>
       <c r="I642">
-        <v>438.27</v>
+        <v>438.29</v>
       </c>
       <c r="J642">
-        <v>34.23</v>
+        <v>34.22</v>
       </c>
       <c r="K642">
         <v>13.93</v>
       </c>
       <c r="L642">
-        <v>419.81</v>
+        <v>419.82</v>
       </c>
       <c r="M642">
-        <v>27141875</v>
+        <v>27140503</v>
       </c>
       <c r="N642">
-        <v>4730896</v>
+        <v>4730666</v>
       </c>
       <c r="O642">
-        <v>1476743</v>
+        <v>1476376</v>
       </c>
       <c r="P642">
         <v>5216</v>
@@ -34467,46 +34467,46 @@
         <v>45107</v>
       </c>
       <c r="B643">
-        <v>1113048</v>
+        <v>1113019</v>
       </c>
       <c r="C643">
         <v>1654.7</v>
       </c>
       <c r="D643">
-        <v>417231</v>
+        <v>417214</v>
       </c>
       <c r="E643">
-        <v>135748</v>
+        <v>135738</v>
       </c>
       <c r="F643">
-        <v>6939499</v>
+        <v>6939193</v>
       </c>
       <c r="G643">
-        <v>5720156</v>
+        <v>5719857</v>
       </c>
       <c r="H643">
-        <v>2439898</v>
+        <v>2439855</v>
       </c>
       <c r="I643">
-        <v>434.29</v>
+        <v>434.31</v>
       </c>
       <c r="J643">
-        <v>34.52</v>
+        <v>34.51</v>
       </c>
       <c r="K643">
         <v>13.95</v>
       </c>
       <c r="L643">
-        <v>422.67</v>
+        <v>422.68</v>
       </c>
       <c r="M643">
-        <v>27889394</v>
+        <v>27887979</v>
       </c>
       <c r="N643">
-        <v>4820252</v>
+        <v>4820005</v>
       </c>
       <c r="O643">
-        <v>1506166</v>
+        <v>1505789</v>
       </c>
       <c r="P643">
         <v>5231</v>
@@ -34515,7 +34515,7 @@
         <v>14492</v>
       </c>
       <c r="R643">
-        <v>392077</v>
+        <v>396538</v>
       </c>
     </row>
     <row r="644">
@@ -34523,55 +34523,55 @@
         <v>45138</v>
       </c>
       <c r="B644">
-        <v>1058725</v>
+        <v>1058702</v>
       </c>
       <c r="C644">
         <v>1820.7</v>
       </c>
       <c r="D644">
-        <v>467119</v>
+        <v>467105</v>
       </c>
       <c r="E644">
-        <v>165500</v>
+        <v>165492</v>
       </c>
       <c r="F644">
-        <v>8556682</v>
+        <v>8488625</v>
       </c>
       <c r="G644">
-        <v>6749380</v>
+        <v>6749139</v>
       </c>
       <c r="H644">
-        <v>2807117</v>
+        <v>2807083</v>
       </c>
       <c r="I644">
-        <v>423.45</v>
+        <v>423.46</v>
       </c>
       <c r="J644">
-        <v>34.75</v>
+        <v>34.74</v>
       </c>
       <c r="K644">
         <v>14.09</v>
       </c>
       <c r="L644">
-        <v>425.33</v>
+        <v>425.35</v>
       </c>
       <c r="M644">
-        <v>28942636</v>
+        <v>28941187</v>
       </c>
       <c r="N644">
-        <v>4920181</v>
+        <v>4919920</v>
       </c>
       <c r="O644">
-        <v>1558192</v>
+        <v>1557807</v>
       </c>
       <c r="P644">
-        <v>5226</v>
+        <v>5243</v>
       </c>
       <c r="Q644">
-        <v>14493</v>
+        <v>14561</v>
       </c>
       <c r="R644">
-        <v>391732</v>
+        <v>397510</v>
       </c>
     </row>
     <row r="645">
@@ -34579,46 +34579,105 @@
         <v>45169</v>
       </c>
       <c r="B645">
-        <v>911799</v>
+        <v>938609</v>
+      </c>
+      <c r="C645">
+        <v>1793.4</v>
+      </c>
+      <c r="D645">
+        <v>422943</v>
       </c>
       <c r="E645">
-        <v>155688</v>
+        <v>156311</v>
       </c>
       <c r="F645">
-        <v>7499819</v>
+        <v>7609986</v>
       </c>
       <c r="G645">
-        <v>6460346</v>
+        <v>6595457</v>
       </c>
       <c r="H645">
-        <v>2744881</v>
+        <v>2808780</v>
       </c>
       <c r="I645">
-        <v>432.02</v>
+        <v>433.61</v>
       </c>
       <c r="J645">
-        <v>34.99</v>
+        <v>35</v>
       </c>
       <c r="K645">
-        <v>14.18</v>
+        <v>14.17</v>
       </c>
       <c r="L645">
-        <v>428.52</v>
+        <v>428.68</v>
       </c>
       <c r="M645">
-        <v>29670814</v>
+        <v>29733264</v>
       </c>
       <c r="N645">
-        <v>4973753</v>
+        <v>4986272</v>
       </c>
       <c r="O645">
-        <v>1595147</v>
+        <v>1595385</v>
       </c>
       <c r="P645">
-        <v>5226</v>
+        <v>5267</v>
       </c>
       <c r="Q645">
-        <v>14491</v>
+        <v>14576</v>
+      </c>
+      <c r="R645">
+        <v>397601</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="2">
+        <v>45199</v>
+      </c>
+      <c r="B646">
+        <v>739107</v>
+      </c>
+      <c r="D646">
+        <v>287345</v>
+      </c>
+      <c r="E646">
+        <v>200527</v>
+      </c>
+      <c r="F646">
+        <v>6259636</v>
+      </c>
+      <c r="G646">
+        <v>5143477</v>
+      </c>
+      <c r="H646">
+        <v>2304278</v>
+      </c>
+      <c r="I646">
+        <v>456.77</v>
+      </c>
+      <c r="J646">
+        <v>36.82</v>
+      </c>
+      <c r="K646">
+        <v>14.36</v>
+      </c>
+      <c r="L646">
+        <v>432.12</v>
+      </c>
+      <c r="M646">
+        <v>30380213</v>
+      </c>
+      <c r="N646">
+        <v>4985522</v>
+      </c>
+      <c r="O646">
+        <v>1693096</v>
+      </c>
+      <c r="P646">
+        <v>5296</v>
+      </c>
+      <c r="Q646">
+        <v>14614</v>
       </c>
     </row>
   </sheetData>

--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R646"/>
+  <dimension ref="A1:R647"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4781,16 +4781,16 @@
         <v>1063136</v>
       </c>
       <c r="E98">
-        <v>210662</v>
+        <v>210661</v>
       </c>
       <c r="F98">
-        <v>13886979</v>
+        <v>13886955</v>
       </c>
       <c r="G98">
-        <v>11076413</v>
+        <v>11076389</v>
       </c>
       <c r="H98">
-        <v>904873</v>
+        <v>904869</v>
       </c>
       <c r="I98">
         <v>84.12</v>
@@ -4805,13 +4805,13 @@
         <v>79.33</v>
       </c>
       <c r="M98">
-        <v>8643095</v>
+        <v>8643091</v>
       </c>
       <c r="N98">
         <v>7816720</v>
       </c>
       <c r="O98">
-        <v>2726126</v>
+        <v>2726125</v>
       </c>
       <c r="P98">
         <v>3429</v>
@@ -4858,13 +4858,13 @@
         <v>79.84</v>
       </c>
       <c r="M99">
-        <v>8586182</v>
+        <v>8586178</v>
       </c>
       <c r="N99">
         <v>7675188</v>
       </c>
       <c r="O99">
-        <v>2658766</v>
+        <v>2658765</v>
       </c>
       <c r="P99">
         <v>3442</v>
@@ -4911,13 +4911,13 @@
         <v>80.48999999999999</v>
       </c>
       <c r="M100">
-        <v>8552555</v>
+        <v>8552551</v>
       </c>
       <c r="N100">
         <v>7655474</v>
       </c>
       <c r="O100">
-        <v>2569596</v>
+        <v>2569595</v>
       </c>
       <c r="P100">
         <v>3456</v>
@@ -4964,13 +4964,13 @@
         <v>80.95</v>
       </c>
       <c r="M101">
-        <v>8496279</v>
+        <v>8496275</v>
       </c>
       <c r="N101">
         <v>7630816</v>
       </c>
       <c r="O101">
-        <v>2496712</v>
+        <v>2496711</v>
       </c>
       <c r="P101">
         <v>3472</v>
@@ -5017,13 +5017,13 @@
         <v>81.34999999999999</v>
       </c>
       <c r="M102">
-        <v>8469982</v>
+        <v>8469978</v>
       </c>
       <c r="N102">
         <v>7605385</v>
       </c>
       <c r="O102">
-        <v>2447768</v>
+        <v>2447767</v>
       </c>
       <c r="P102">
         <v>3483</v>
@@ -5070,13 +5070,13 @@
         <v>81.73999999999999</v>
       </c>
       <c r="M103">
-        <v>8390320</v>
+        <v>8390316</v>
       </c>
       <c r="N103">
         <v>7610191</v>
       </c>
       <c r="O103">
-        <v>2369801</v>
+        <v>2369800</v>
       </c>
       <c r="P103">
         <v>3482</v>
@@ -5123,13 +5123,13 @@
         <v>82.12</v>
       </c>
       <c r="M104">
-        <v>8353745</v>
+        <v>8353741</v>
       </c>
       <c r="N104">
         <v>7610967</v>
       </c>
       <c r="O104">
-        <v>2306254</v>
+        <v>2306253</v>
       </c>
       <c r="P104">
         <v>3473</v>
@@ -5176,13 +5176,13 @@
         <v>82.48999999999999</v>
       </c>
       <c r="M105">
-        <v>8358622</v>
+        <v>8358618</v>
       </c>
       <c r="N105">
         <v>7677889</v>
       </c>
       <c r="O105">
-        <v>2230967</v>
+        <v>2230966</v>
       </c>
       <c r="P105">
         <v>3475</v>
@@ -5229,13 +5229,13 @@
         <v>82.78</v>
       </c>
       <c r="M106">
-        <v>8313965</v>
+        <v>8313961</v>
       </c>
       <c r="N106">
         <v>7636142</v>
       </c>
       <c r="O106">
-        <v>2171025</v>
+        <v>2171024</v>
       </c>
       <c r="P106">
         <v>3484</v>
@@ -5282,13 +5282,13 @@
         <v>83.03</v>
       </c>
       <c r="M107">
-        <v>8307260</v>
+        <v>8307256</v>
       </c>
       <c r="N107">
         <v>7633029</v>
       </c>
       <c r="O107">
-        <v>2121253</v>
+        <v>2121252</v>
       </c>
       <c r="P107">
         <v>3488</v>
@@ -5335,13 +5335,13 @@
         <v>83.3</v>
       </c>
       <c r="M108">
-        <v>8263909</v>
+        <v>8263905</v>
       </c>
       <c r="N108">
         <v>7603593</v>
       </c>
       <c r="O108">
-        <v>2073378</v>
+        <v>2073377</v>
       </c>
       <c r="P108">
         <v>3494</v>
@@ -5388,13 +5388,13 @@
         <v>83.67</v>
       </c>
       <c r="M109">
-        <v>8212244</v>
+        <v>8212240</v>
       </c>
       <c r="N109">
         <v>7568310</v>
       </c>
       <c r="O109">
-        <v>2030440</v>
+        <v>2030439</v>
       </c>
       <c r="P109">
         <v>3500</v>
@@ -6592,7 +6592,7 @@
         <v>9516801</v>
       </c>
       <c r="H132">
-        <v>935419</v>
+        <v>935428</v>
       </c>
       <c r="I132">
         <v>100.7</v>
@@ -6607,7 +6607,7 @@
         <v>99.05</v>
       </c>
       <c r="M132">
-        <v>14066966</v>
+        <v>14066975</v>
       </c>
       <c r="N132">
         <v>9919645</v>
@@ -6660,7 +6660,7 @@
         <v>99.53</v>
       </c>
       <c r="M133">
-        <v>14469419</v>
+        <v>14469428</v>
       </c>
       <c r="N133">
         <v>9992123</v>
@@ -6713,7 +6713,7 @@
         <v>100.2</v>
       </c>
       <c r="M134">
-        <v>14605054</v>
+        <v>14605063</v>
       </c>
       <c r="N134">
         <v>9946214</v>
@@ -6766,7 +6766,7 @@
         <v>100.72</v>
       </c>
       <c r="M135">
-        <v>14690491</v>
+        <v>14690500</v>
       </c>
       <c r="N135">
         <v>9890722</v>
@@ -6819,7 +6819,7 @@
         <v>101.31</v>
       </c>
       <c r="M136">
-        <v>14866950</v>
+        <v>14866959</v>
       </c>
       <c r="N136">
         <v>9919839</v>
@@ -6872,7 +6872,7 @@
         <v>101.83</v>
       </c>
       <c r="M137">
-        <v>14861468</v>
+        <v>14861477</v>
       </c>
       <c r="N137">
         <v>9793604</v>
@@ -6925,7 +6925,7 @@
         <v>102.25</v>
       </c>
       <c r="M138">
-        <v>14670860</v>
+        <v>14670869</v>
       </c>
       <c r="N138">
         <v>9476838</v>
@@ -6978,7 +6978,7 @@
         <v>102.61</v>
       </c>
       <c r="M139">
-        <v>14467085</v>
+        <v>14467094</v>
       </c>
       <c r="N139">
         <v>9214474</v>
@@ -7004,7 +7004,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823677</v>
+        <v>823683</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -7031,10 +7031,10 @@
         <v>103.08</v>
       </c>
       <c r="M140">
-        <v>14131865</v>
+        <v>14131874</v>
       </c>
       <c r="N140">
-        <v>8935513</v>
+        <v>8935519</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -7084,10 +7084,10 @@
         <v>103.59</v>
       </c>
       <c r="M141">
-        <v>13894161</v>
+        <v>13894170</v>
       </c>
       <c r="N141">
-        <v>8782028</v>
+        <v>8782034</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -7137,10 +7137,10 @@
         <v>104.14</v>
       </c>
       <c r="M142">
-        <v>13750068</v>
+        <v>13750077</v>
       </c>
       <c r="N142">
-        <v>8776296</v>
+        <v>8776302</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -7190,10 +7190,10 @@
         <v>104.75</v>
       </c>
       <c r="M143">
-        <v>13621937</v>
+        <v>13621946</v>
       </c>
       <c r="N143">
-        <v>8836738</v>
+        <v>8836744</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -7246,7 +7246,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042546</v>
+        <v>9042552</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -7299,7 +7299,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9395166</v>
+        <v>9395172</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -7352,7 +7352,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9716030</v>
+        <v>9716036</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -7405,7 +7405,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916861</v>
+        <v>9916867</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -7458,7 +7458,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176494</v>
+        <v>10176500</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -7511,7 +7511,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10402075</v>
+        <v>10402081</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -7564,7 +7564,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586475</v>
+        <v>10586481</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -7617,7 +7617,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834388</v>
+        <v>10834394</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -9442,7 +9442,7 @@
         <v>1488338</v>
       </c>
       <c r="D186">
-        <v>590421</v>
+        <v>590428</v>
       </c>
       <c r="E186">
         <v>232183</v>
@@ -9451,10 +9451,10 @@
         <v>10937527</v>
       </c>
       <c r="G186">
-        <v>9817862</v>
+        <v>9817969</v>
       </c>
       <c r="H186">
-        <v>1209128</v>
+        <v>1209104</v>
       </c>
       <c r="I186">
         <v>127.38</v>
@@ -9469,10 +9469,10 @@
         <v>125.18</v>
       </c>
       <c r="M186">
-        <v>13889917</v>
+        <v>13889894</v>
       </c>
       <c r="N186">
-        <v>8211226</v>
+        <v>8211233</v>
       </c>
       <c r="O186">
         <v>2510371</v>
@@ -9522,10 +9522,10 @@
         <v>125.48</v>
       </c>
       <c r="M187">
-        <v>13966150</v>
+        <v>13966127</v>
       </c>
       <c r="N187">
-        <v>8231217</v>
+        <v>8231224</v>
       </c>
       <c r="O187">
         <v>2506811</v>
@@ -9575,10 +9575,10 @@
         <v>125.89</v>
       </c>
       <c r="M188">
-        <v>14177384</v>
+        <v>14177360</v>
       </c>
       <c r="N188">
-        <v>8311003</v>
+        <v>8311010</v>
       </c>
       <c r="O188">
         <v>2528409</v>
@@ -9628,10 +9628,10 @@
         <v>126.37</v>
       </c>
       <c r="M189">
-        <v>14260691</v>
+        <v>14260668</v>
       </c>
       <c r="N189">
-        <v>8315363</v>
+        <v>8315370</v>
       </c>
       <c r="O189">
         <v>2521450</v>
@@ -9657,7 +9657,7 @@
         <v>509987</v>
       </c>
       <c r="E190">
-        <v>181944</v>
+        <v>181943</v>
       </c>
       <c r="F190">
         <v>9164177</v>
@@ -9681,13 +9681,13 @@
         <v>126.79</v>
       </c>
       <c r="M190">
-        <v>14423018</v>
+        <v>14422995</v>
       </c>
       <c r="N190">
-        <v>8370944</v>
+        <v>8370951</v>
       </c>
       <c r="O190">
-        <v>2540056</v>
+        <v>2540055</v>
       </c>
       <c r="P190">
         <v>3855</v>
@@ -9716,7 +9716,7 @@
         <v>9966680</v>
       </c>
       <c r="G191">
-        <v>8670559</v>
+        <v>8670553</v>
       </c>
       <c r="H191">
         <v>1073078</v>
@@ -9734,13 +9734,13 @@
         <v>127.14</v>
       </c>
       <c r="M191">
-        <v>14528194</v>
+        <v>14528170</v>
       </c>
       <c r="N191">
-        <v>8368473</v>
+        <v>8368480</v>
       </c>
       <c r="O191">
-        <v>2551085</v>
+        <v>2551084</v>
       </c>
       <c r="P191">
         <v>3864</v>
@@ -9787,13 +9787,13 @@
         <v>127.59</v>
       </c>
       <c r="M192">
-        <v>14532968</v>
+        <v>14532945</v>
       </c>
       <c r="N192">
-        <v>8290047</v>
+        <v>8290054</v>
       </c>
       <c r="O192">
-        <v>2547707</v>
+        <v>2547706</v>
       </c>
       <c r="P192">
         <v>3867</v>
@@ -9840,13 +9840,13 @@
         <v>128.14</v>
       </c>
       <c r="M193">
-        <v>14761492</v>
+        <v>14761468</v>
       </c>
       <c r="N193">
-        <v>8365139</v>
+        <v>8365146</v>
       </c>
       <c r="O193">
-        <v>2572355</v>
+        <v>2572354</v>
       </c>
       <c r="P193">
         <v>3862</v>
@@ -9872,7 +9872,7 @@
         <v>235008</v>
       </c>
       <c r="F194">
-        <v>14729048</v>
+        <v>14729046</v>
       </c>
       <c r="G194">
         <v>13027499</v>
@@ -9893,13 +9893,13 @@
         <v>128.88</v>
       </c>
       <c r="M194">
-        <v>14844173</v>
+        <v>14844149</v>
       </c>
       <c r="N194">
-        <v>8388026</v>
+        <v>8388033</v>
       </c>
       <c r="O194">
-        <v>2570155</v>
+        <v>2570154</v>
       </c>
       <c r="P194">
         <v>3869</v>
@@ -9946,13 +9946,13 @@
         <v>129.54</v>
       </c>
       <c r="M195">
-        <v>14889103</v>
+        <v>14889079</v>
       </c>
       <c r="N195">
-        <v>8325498</v>
+        <v>8325505</v>
       </c>
       <c r="O195">
-        <v>2571044</v>
+        <v>2571043</v>
       </c>
       <c r="P195">
         <v>3875</v>
@@ -9978,7 +9978,7 @@
         <v>219934</v>
       </c>
       <c r="F196">
-        <v>13097754</v>
+        <v>13097752</v>
       </c>
       <c r="G196">
         <v>11730221</v>
@@ -9999,13 +9999,13 @@
         <v>130.2</v>
       </c>
       <c r="M196">
-        <v>14967785</v>
+        <v>14967761</v>
       </c>
       <c r="N196">
-        <v>8319994</v>
+        <v>8320001</v>
       </c>
       <c r="O196">
-        <v>2563118</v>
+        <v>2563117</v>
       </c>
       <c r="P196">
         <v>3873</v>
@@ -10052,13 +10052,13 @@
         <v>130.86</v>
       </c>
       <c r="M197">
-        <v>15089929</v>
+        <v>15089905</v>
       </c>
       <c r="N197">
-        <v>8341458</v>
+        <v>8341465</v>
       </c>
       <c r="O197">
-        <v>2566573</v>
+        <v>2566572</v>
       </c>
       <c r="P197">
         <v>3878</v>
@@ -10111,7 +10111,7 @@
         <v>8330315</v>
       </c>
       <c r="O198">
-        <v>2567374</v>
+        <v>2567373</v>
       </c>
       <c r="P198">
         <v>3884</v>
@@ -10134,10 +10134,10 @@
         <v>525103</v>
       </c>
       <c r="E199">
-        <v>214623</v>
+        <v>214624</v>
       </c>
       <c r="F199">
-        <v>10187289</v>
+        <v>10187290</v>
       </c>
       <c r="G199">
         <v>9028611</v>
@@ -10240,7 +10240,7 @@
         <v>649662</v>
       </c>
       <c r="E201">
-        <v>210440</v>
+        <v>210439</v>
       </c>
       <c r="F201">
         <v>10189513</v>
@@ -10270,7 +10270,7 @@
         <v>8368325</v>
       </c>
       <c r="O201">
-        <v>2605546</v>
+        <v>2605545</v>
       </c>
       <c r="P201">
         <v>3887</v>
@@ -10296,7 +10296,7 @@
         <v>211859</v>
       </c>
       <c r="F202">
-        <v>10071179</v>
+        <v>10071177</v>
       </c>
       <c r="G202">
         <v>8724780</v>
@@ -10349,7 +10349,7 @@
         <v>223173</v>
       </c>
       <c r="F203">
-        <v>9851360</v>
+        <v>9851350</v>
       </c>
       <c r="G203">
         <v>8695175</v>
@@ -10800,7 +10800,7 @@
         <v>7873641</v>
       </c>
       <c r="O211">
-        <v>2671972</v>
+        <v>2671971</v>
       </c>
       <c r="P211">
         <v>3950</v>
@@ -10853,7 +10853,7 @@
         <v>7781838</v>
       </c>
       <c r="O212">
-        <v>2637233</v>
+        <v>2637232</v>
       </c>
       <c r="P212">
         <v>3967</v>
@@ -11877,7 +11877,7 @@
         <v>32598</v>
       </c>
       <c r="B232">
-        <v>1361139</v>
+        <v>1361138</v>
       </c>
       <c r="D232">
         <v>652549</v>
@@ -11886,7 +11886,7 @@
         <v>176192</v>
       </c>
       <c r="F232">
-        <v>11589036</v>
+        <v>11589023</v>
       </c>
       <c r="G232">
         <v>10451849</v>
@@ -34187,25 +34187,25 @@
         <v>44957</v>
       </c>
       <c r="B638">
-        <v>1226023</v>
+        <v>1225995</v>
       </c>
       <c r="C638">
         <v>1855.5</v>
       </c>
       <c r="D638">
-        <v>650582</v>
+        <v>650604</v>
       </c>
       <c r="E638">
-        <v>140525</v>
+        <v>140356</v>
       </c>
       <c r="F638">
-        <v>8985035</v>
+        <v>8984340</v>
       </c>
       <c r="G638">
-        <v>7350768</v>
+        <v>7349669</v>
       </c>
       <c r="H638">
-        <v>3117353</v>
+        <v>3116922</v>
       </c>
       <c r="I638">
         <v>430.24</v>
@@ -34220,13 +34220,13 @@
         <v>406.12</v>
       </c>
       <c r="M638">
-        <v>24737814</v>
+        <v>24737383</v>
       </c>
       <c r="N638">
-        <v>4483545</v>
+        <v>4483567</v>
       </c>
       <c r="O638">
-        <v>1481373</v>
+        <v>1481204</v>
       </c>
       <c r="P638">
         <v>5156</v>
@@ -34243,25 +34243,25 @@
         <v>44985</v>
       </c>
       <c r="B639">
-        <v>898590</v>
+        <v>898553</v>
       </c>
       <c r="C639">
         <v>1870.1</v>
       </c>
       <c r="D639">
-        <v>467248</v>
+        <v>467221</v>
       </c>
       <c r="E639">
-        <v>118662</v>
+        <v>118663</v>
       </c>
       <c r="F639">
-        <v>7771291</v>
+        <v>7770797</v>
       </c>
       <c r="G639">
-        <v>6556427</v>
+        <v>6555834</v>
       </c>
       <c r="H639">
-        <v>2820505</v>
+        <v>2820259</v>
       </c>
       <c r="I639">
         <v>437.6</v>
@@ -34276,13 +34276,13 @@
         <v>410.05</v>
       </c>
       <c r="M639">
-        <v>25142790</v>
+        <v>25142113</v>
       </c>
       <c r="N639">
-        <v>4558158</v>
+        <v>4558153</v>
       </c>
       <c r="O639">
-        <v>1460858</v>
+        <v>1460690</v>
       </c>
       <c r="P639">
         <v>5175</v>
@@ -34299,31 +34299,31 @@
         <v>45016</v>
       </c>
       <c r="B640">
-        <v>986573</v>
+        <v>986338</v>
       </c>
       <c r="C640">
         <v>1852.7</v>
       </c>
       <c r="D640">
-        <v>410593</v>
+        <v>410574</v>
       </c>
       <c r="E640">
-        <v>130461</v>
+        <v>130448</v>
       </c>
       <c r="F640">
-        <v>7972699</v>
+        <v>7971957</v>
       </c>
       <c r="G640">
-        <v>6869973</v>
+        <v>6869228</v>
       </c>
       <c r="H640">
-        <v>2977061</v>
+        <v>2976897</v>
       </c>
       <c r="I640">
-        <v>441.08</v>
+        <v>441.11</v>
       </c>
       <c r="J640">
-        <v>32.73</v>
+        <v>32.72</v>
       </c>
       <c r="K640">
         <v>13.72</v>
@@ -34332,13 +34332,13 @@
         <v>413.66</v>
       </c>
       <c r="M640">
-        <v>25579137</v>
+        <v>25578295</v>
       </c>
       <c r="N640">
-        <v>4598664</v>
+        <v>4598640</v>
       </c>
       <c r="O640">
-        <v>1422862</v>
+        <v>1422681</v>
       </c>
       <c r="P640">
         <v>5195</v>
@@ -34355,25 +34355,25 @@
         <v>45046</v>
       </c>
       <c r="B641">
-        <v>953723</v>
+        <v>953696</v>
       </c>
       <c r="C641">
         <v>1735</v>
       </c>
       <c r="D641">
-        <v>363589</v>
+        <v>363588</v>
       </c>
       <c r="E641">
         <v>148741</v>
       </c>
       <c r="F641">
-        <v>7611060</v>
+        <v>7610989</v>
       </c>
       <c r="G641">
-        <v>6114033</v>
+        <v>6114028</v>
       </c>
       <c r="H641">
-        <v>2614722</v>
+        <v>2614719</v>
       </c>
       <c r="I641">
         <v>435.16</v>
@@ -34388,13 +34388,13 @@
         <v>416.42</v>
       </c>
       <c r="M641">
-        <v>26306935</v>
+        <v>26306091</v>
       </c>
       <c r="N641">
-        <v>4657554</v>
+        <v>4657529</v>
       </c>
       <c r="O641">
-        <v>1446224</v>
+        <v>1446043</v>
       </c>
       <c r="P641">
         <v>5202</v>
@@ -34411,28 +34411,28 @@
         <v>45077</v>
       </c>
       <c r="B642">
-        <v>1002759</v>
+        <v>1002688</v>
       </c>
       <c r="C642">
         <v>1599.9</v>
       </c>
       <c r="D642">
-        <v>386133</v>
+        <v>385965</v>
       </c>
       <c r="E642">
-        <v>155727</v>
+        <v>155705</v>
       </c>
       <c r="F642">
-        <v>7189797</v>
+        <v>7188422</v>
       </c>
       <c r="G642">
-        <v>6150605</v>
+        <v>6149230</v>
       </c>
       <c r="H642">
-        <v>2648685</v>
+        <v>2648365</v>
       </c>
       <c r="I642">
-        <v>438.29</v>
+        <v>438.34</v>
       </c>
       <c r="J642">
         <v>34.22</v>
@@ -34441,16 +34441,16 @@
         <v>13.93</v>
       </c>
       <c r="L642">
-        <v>419.82</v>
+        <v>419.83</v>
       </c>
       <c r="M642">
-        <v>27140503</v>
+        <v>27139339</v>
       </c>
       <c r="N642">
-        <v>4730666</v>
+        <v>4730473</v>
       </c>
       <c r="O642">
-        <v>1476376</v>
+        <v>1476173</v>
       </c>
       <c r="P642">
         <v>5216</v>
@@ -34467,28 +34467,28 @@
         <v>45107</v>
       </c>
       <c r="B643">
-        <v>1113019</v>
+        <v>1112956</v>
       </c>
       <c r="C643">
         <v>1654.7</v>
       </c>
       <c r="D643">
-        <v>417214</v>
+        <v>417140</v>
       </c>
       <c r="E643">
-        <v>135738</v>
+        <v>135634</v>
       </c>
       <c r="F643">
-        <v>6939193</v>
+        <v>6937416</v>
       </c>
       <c r="G643">
-        <v>5719857</v>
+        <v>5717791</v>
       </c>
       <c r="H643">
-        <v>2439855</v>
+        <v>2439405</v>
       </c>
       <c r="I643">
-        <v>434.31</v>
+        <v>434.38</v>
       </c>
       <c r="J643">
         <v>34.51</v>
@@ -34497,16 +34497,16 @@
         <v>13.95</v>
       </c>
       <c r="L643">
-        <v>422.68</v>
+        <v>422.69</v>
       </c>
       <c r="M643">
-        <v>27887979</v>
+        <v>27886366</v>
       </c>
       <c r="N643">
-        <v>4820005</v>
+        <v>4819738</v>
       </c>
       <c r="O643">
-        <v>1505789</v>
+        <v>1505482</v>
       </c>
       <c r="P643">
         <v>5231</v>
@@ -34523,28 +34523,28 @@
         <v>45138</v>
       </c>
       <c r="B644">
-        <v>1058702</v>
+        <v>1058602</v>
       </c>
       <c r="C644">
         <v>1820.7</v>
       </c>
       <c r="D644">
-        <v>467105</v>
+        <v>467031</v>
       </c>
       <c r="E644">
-        <v>165492</v>
+        <v>165381</v>
       </c>
       <c r="F644">
-        <v>8488625</v>
+        <v>8486770</v>
       </c>
       <c r="G644">
-        <v>6749139</v>
+        <v>6747168</v>
       </c>
       <c r="H644">
-        <v>2807083</v>
+        <v>2806721</v>
       </c>
       <c r="I644">
-        <v>423.46</v>
+        <v>423.53</v>
       </c>
       <c r="J644">
         <v>34.74</v>
@@ -34553,16 +34553,16 @@
         <v>14.09</v>
       </c>
       <c r="L644">
-        <v>425.35</v>
+        <v>425.36</v>
       </c>
       <c r="M644">
-        <v>28941187</v>
+        <v>28939211</v>
       </c>
       <c r="N644">
-        <v>4919920</v>
+        <v>4919579</v>
       </c>
       <c r="O644">
-        <v>1557807</v>
+        <v>1557389</v>
       </c>
       <c r="P644">
         <v>5243</v>
@@ -34571,7 +34571,7 @@
         <v>14561</v>
       </c>
       <c r="R644">
-        <v>397510</v>
+        <v>404059</v>
       </c>
     </row>
     <row r="645">
@@ -34579,55 +34579,55 @@
         <v>45169</v>
       </c>
       <c r="B645">
-        <v>938609</v>
+        <v>938485</v>
       </c>
       <c r="C645">
         <v>1793.4</v>
       </c>
       <c r="D645">
-        <v>422943</v>
+        <v>422897</v>
       </c>
       <c r="E645">
-        <v>156311</v>
+        <v>156136</v>
       </c>
       <c r="F645">
-        <v>7609986</v>
+        <v>7608152</v>
       </c>
       <c r="G645">
-        <v>6595457</v>
+        <v>6593568</v>
       </c>
       <c r="H645">
-        <v>2808780</v>
+        <v>2808471</v>
       </c>
       <c r="I645">
-        <v>433.61</v>
+        <v>433.69</v>
       </c>
       <c r="J645">
-        <v>35</v>
+        <v>34.99</v>
       </c>
       <c r="K645">
         <v>14.17</v>
       </c>
       <c r="L645">
-        <v>428.68</v>
+        <v>428.71</v>
       </c>
       <c r="M645">
-        <v>29733264</v>
+        <v>29730979</v>
       </c>
       <c r="N645">
-        <v>4986272</v>
+        <v>4985885</v>
       </c>
       <c r="O645">
-        <v>1595385</v>
+        <v>1594792</v>
       </c>
       <c r="P645">
-        <v>5267</v>
+        <v>5261</v>
       </c>
       <c r="Q645">
-        <v>14576</v>
+        <v>14585</v>
       </c>
       <c r="R645">
-        <v>397601</v>
+        <v>404702</v>
       </c>
     </row>
     <row r="646">
@@ -34635,49 +34635,105 @@
         <v>45199</v>
       </c>
       <c r="B646">
-        <v>739107</v>
+        <v>753218</v>
+      </c>
+      <c r="C646">
+        <v>1567.9</v>
       </c>
       <c r="D646">
-        <v>287345</v>
+        <v>333047</v>
       </c>
       <c r="E646">
-        <v>200527</v>
+        <v>141177</v>
       </c>
       <c r="F646">
-        <v>6259636</v>
+        <v>6547926</v>
       </c>
       <c r="G646">
-        <v>5143477</v>
+        <v>5502967</v>
       </c>
       <c r="H646">
-        <v>2304278</v>
+        <v>2401698</v>
       </c>
       <c r="I646">
-        <v>456.77</v>
+        <v>444.67</v>
       </c>
       <c r="J646">
-        <v>36.82</v>
+        <v>35.51</v>
       </c>
       <c r="K646">
-        <v>14.36</v>
+        <v>14.3</v>
       </c>
       <c r="L646">
-        <v>432.12</v>
+        <v>431.35</v>
       </c>
       <c r="M646">
-        <v>30380213</v>
+        <v>30475347</v>
       </c>
       <c r="N646">
-        <v>4985522</v>
+        <v>5030837</v>
       </c>
       <c r="O646">
-        <v>1693096</v>
+        <v>1633153</v>
       </c>
       <c r="P646">
-        <v>5296</v>
+        <v>5271</v>
       </c>
       <c r="Q646">
-        <v>14614</v>
+        <v>14622</v>
+      </c>
+      <c r="R646">
+        <v>408391</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="2">
+        <v>45230</v>
+      </c>
+      <c r="B647">
+        <v>874855</v>
+      </c>
+      <c r="D647">
+        <v>356490</v>
+      </c>
+      <c r="E647">
+        <v>166552</v>
+      </c>
+      <c r="F647">
+        <v>7296844</v>
+      </c>
+      <c r="G647">
+        <v>6006369</v>
+      </c>
+      <c r="H647">
+        <v>2644919</v>
+      </c>
+      <c r="I647">
+        <v>448.43</v>
+      </c>
+      <c r="J647">
+        <v>36.19</v>
+      </c>
+      <c r="K647">
+        <v>14.45</v>
+      </c>
+      <c r="L647">
+        <v>434.21</v>
+      </c>
+      <c r="M647">
+        <v>31387758</v>
+      </c>
+      <c r="N647">
+        <v>5091186</v>
+      </c>
+      <c r="O647">
+        <v>1685477</v>
+      </c>
+      <c r="P647">
+        <v>5281</v>
+      </c>
+      <c r="Q647">
+        <v>14660</v>
       </c>
     </row>
   </sheetData>

--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R647"/>
+  <dimension ref="A1:R648"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4784,10 +4784,10 @@
         <v>210661</v>
       </c>
       <c r="F98">
-        <v>13886955</v>
+        <v>13886953</v>
       </c>
       <c r="G98">
-        <v>11076389</v>
+        <v>11076386</v>
       </c>
       <c r="H98">
         <v>904869</v>
@@ -5017,7 +5017,7 @@
         <v>81.34999999999999</v>
       </c>
       <c r="M102">
-        <v>8469978</v>
+        <v>8469977</v>
       </c>
       <c r="N102">
         <v>7605385</v>
@@ -5388,7 +5388,7 @@
         <v>83.67</v>
       </c>
       <c r="M109">
-        <v>8212240</v>
+        <v>8212239</v>
       </c>
       <c r="N109">
         <v>7568310</v>
@@ -7004,7 +7004,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823683</v>
+        <v>823690</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -7034,7 +7034,7 @@
         <v>14131874</v>
       </c>
       <c r="N140">
-        <v>8935519</v>
+        <v>8935526</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -7087,7 +7087,7 @@
         <v>13894170</v>
       </c>
       <c r="N141">
-        <v>8782034</v>
+        <v>8782041</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -7140,7 +7140,7 @@
         <v>13750077</v>
       </c>
       <c r="N142">
-        <v>8776302</v>
+        <v>8776309</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -7193,7 +7193,7 @@
         <v>13621946</v>
       </c>
       <c r="N143">
-        <v>8836744</v>
+        <v>8836751</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -7246,7 +7246,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042552</v>
+        <v>9042559</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -7299,7 +7299,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9395172</v>
+        <v>9395179</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -7352,7 +7352,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9716036</v>
+        <v>9716043</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -7405,7 +7405,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916867</v>
+        <v>9916874</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -7458,7 +7458,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176500</v>
+        <v>10176507</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -7511,7 +7511,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10402081</v>
+        <v>10402088</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -7564,7 +7564,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586481</v>
+        <v>10586488</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -7617,7 +7617,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834394</v>
+        <v>10834401</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -9716,10 +9716,10 @@
         <v>9966680</v>
       </c>
       <c r="G191">
-        <v>8670553</v>
+        <v>8670551</v>
       </c>
       <c r="H191">
-        <v>1073078</v>
+        <v>1073077</v>
       </c>
       <c r="I191">
         <v>128.59</v>
@@ -9872,7 +9872,7 @@
         <v>235008</v>
       </c>
       <c r="F194">
-        <v>14729046</v>
+        <v>14729045</v>
       </c>
       <c r="G194">
         <v>13027499</v>
@@ -9978,7 +9978,7 @@
         <v>219934</v>
       </c>
       <c r="F196">
-        <v>13097752</v>
+        <v>13097751</v>
       </c>
       <c r="G196">
         <v>11730221</v>
@@ -10137,7 +10137,7 @@
         <v>214624</v>
       </c>
       <c r="F199">
-        <v>10187290</v>
+        <v>10187291</v>
       </c>
       <c r="G199">
         <v>9028611</v>
@@ -10296,7 +10296,7 @@
         <v>211859</v>
       </c>
       <c r="F202">
-        <v>10071177</v>
+        <v>10071176</v>
       </c>
       <c r="G202">
         <v>8724780</v>
@@ -10349,7 +10349,7 @@
         <v>223173</v>
       </c>
       <c r="F203">
-        <v>9851350</v>
+        <v>9851341</v>
       </c>
       <c r="G203">
         <v>8695175</v>
@@ -34627,7 +34627,7 @@
         <v>14585</v>
       </c>
       <c r="R645">
-        <v>404702</v>
+        <v>407847</v>
       </c>
     </row>
     <row r="646">
@@ -34677,13 +34677,13 @@
         <v>1633153</v>
       </c>
       <c r="P646">
-        <v>5271</v>
+        <v>5288</v>
       </c>
       <c r="Q646">
-        <v>14622</v>
+        <v>14616</v>
       </c>
       <c r="R646">
-        <v>408391</v>
+        <v>413393</v>
       </c>
     </row>
     <row r="647">
@@ -34691,49 +34691,66 @@
         <v>45230</v>
       </c>
       <c r="B647">
-        <v>874855</v>
+        <v>888178</v>
+      </c>
+      <c r="C647">
+        <v>1567.9</v>
       </c>
       <c r="D647">
-        <v>356490</v>
+        <v>364014</v>
       </c>
       <c r="E647">
-        <v>166552</v>
+        <v>169726</v>
       </c>
       <c r="F647">
-        <v>7296844</v>
+        <v>7434123</v>
       </c>
       <c r="G647">
-        <v>6006369</v>
+        <v>6116644</v>
       </c>
       <c r="H647">
-        <v>2644919</v>
+        <v>2678905</v>
       </c>
       <c r="I647">
-        <v>448.43</v>
+        <v>446</v>
       </c>
       <c r="J647">
-        <v>36.19</v>
+        <v>36.26</v>
       </c>
       <c r="K647">
-        <v>14.45</v>
+        <v>14.46</v>
       </c>
       <c r="L647">
-        <v>434.21</v>
+        <v>434.03</v>
       </c>
       <c r="M647">
-        <v>31387758</v>
+        <v>31421745</v>
       </c>
       <c r="N647">
-        <v>5091186</v>
+        <v>5098710</v>
       </c>
       <c r="O647">
-        <v>1685477</v>
+        <v>1688651</v>
       </c>
       <c r="P647">
-        <v>5281</v>
+        <v>5317</v>
       </c>
       <c r="Q647">
-        <v>14660</v>
+        <v>14648</v>
+      </c>
+      <c r="R647">
+        <v>413602</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="2">
+        <v>45260</v>
+      </c>
+      <c r="P648">
+        <v>5334</v>
+      </c>
+      <c r="Q648">
+        <v>14680</v>
       </c>
     </row>
   </sheetData>

--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R648"/>
+  <dimension ref="A1:R649"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4784,10 +4784,10 @@
         <v>210661</v>
       </c>
       <c r="F98">
-        <v>13886953</v>
+        <v>13886952</v>
       </c>
       <c r="G98">
-        <v>11076386</v>
+        <v>11076385</v>
       </c>
       <c r="H98">
         <v>904869</v>
@@ -5229,7 +5229,7 @@
         <v>82.78</v>
       </c>
       <c r="M106">
-        <v>8313961</v>
+        <v>8313960</v>
       </c>
       <c r="N106">
         <v>7636142</v>
@@ -5282,7 +5282,7 @@
         <v>83.03</v>
       </c>
       <c r="M107">
-        <v>8307256</v>
+        <v>8307255</v>
       </c>
       <c r="N107">
         <v>7633029</v>
@@ -6592,7 +6592,7 @@
         <v>9516801</v>
       </c>
       <c r="H132">
-        <v>935428</v>
+        <v>935431</v>
       </c>
       <c r="I132">
         <v>100.7</v>
@@ -6607,7 +6607,7 @@
         <v>99.05</v>
       </c>
       <c r="M132">
-        <v>14066975</v>
+        <v>14066978</v>
       </c>
       <c r="N132">
         <v>9919645</v>
@@ -6660,7 +6660,7 @@
         <v>99.53</v>
       </c>
       <c r="M133">
-        <v>14469428</v>
+        <v>14469431</v>
       </c>
       <c r="N133">
         <v>9992123</v>
@@ -6713,7 +6713,7 @@
         <v>100.2</v>
       </c>
       <c r="M134">
-        <v>14605063</v>
+        <v>14605066</v>
       </c>
       <c r="N134">
         <v>9946214</v>
@@ -6766,7 +6766,7 @@
         <v>100.72</v>
       </c>
       <c r="M135">
-        <v>14690500</v>
+        <v>14690503</v>
       </c>
       <c r="N135">
         <v>9890722</v>
@@ -6819,7 +6819,7 @@
         <v>101.31</v>
       </c>
       <c r="M136">
-        <v>14866959</v>
+        <v>14866962</v>
       </c>
       <c r="N136">
         <v>9919839</v>
@@ -6872,7 +6872,7 @@
         <v>101.83</v>
       </c>
       <c r="M137">
-        <v>14861477</v>
+        <v>14861480</v>
       </c>
       <c r="N137">
         <v>9793604</v>
@@ -6925,7 +6925,7 @@
         <v>102.25</v>
       </c>
       <c r="M138">
-        <v>14670869</v>
+        <v>14670872</v>
       </c>
       <c r="N138">
         <v>9476838</v>
@@ -6978,7 +6978,7 @@
         <v>102.61</v>
       </c>
       <c r="M139">
-        <v>14467094</v>
+        <v>14467097</v>
       </c>
       <c r="N139">
         <v>9214474</v>
@@ -7004,7 +7004,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823690</v>
+        <v>823696</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -7031,10 +7031,10 @@
         <v>103.08</v>
       </c>
       <c r="M140">
-        <v>14131874</v>
+        <v>14131877</v>
       </c>
       <c r="N140">
-        <v>8935526</v>
+        <v>8935532</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -7084,10 +7084,10 @@
         <v>103.59</v>
       </c>
       <c r="M141">
-        <v>13894170</v>
+        <v>13894173</v>
       </c>
       <c r="N141">
-        <v>8782041</v>
+        <v>8782047</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -7137,10 +7137,10 @@
         <v>104.14</v>
       </c>
       <c r="M142">
-        <v>13750077</v>
+        <v>13750080</v>
       </c>
       <c r="N142">
-        <v>8776309</v>
+        <v>8776315</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -7190,10 +7190,10 @@
         <v>104.75</v>
       </c>
       <c r="M143">
-        <v>13621946</v>
+        <v>13621949</v>
       </c>
       <c r="N143">
-        <v>8836751</v>
+        <v>8836757</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -7246,7 +7246,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042559</v>
+        <v>9042565</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -7299,7 +7299,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9395179</v>
+        <v>9395185</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -7352,7 +7352,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9716043</v>
+        <v>9716049</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -7405,7 +7405,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916874</v>
+        <v>9916880</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -7458,7 +7458,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176507</v>
+        <v>10176513</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -7511,7 +7511,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10402088</v>
+        <v>10402094</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -7564,7 +7564,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586488</v>
+        <v>10586494</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -7617,7 +7617,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834401</v>
+        <v>10834407</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -9442,7 +9442,7 @@
         <v>1488338</v>
       </c>
       <c r="D186">
-        <v>590428</v>
+        <v>590425</v>
       </c>
       <c r="E186">
         <v>232183</v>
@@ -9451,10 +9451,10 @@
         <v>10937527</v>
       </c>
       <c r="G186">
-        <v>9817969</v>
+        <v>9817907</v>
       </c>
       <c r="H186">
-        <v>1209104</v>
+        <v>1209112</v>
       </c>
       <c r="I186">
         <v>127.38</v>
@@ -9469,10 +9469,10 @@
         <v>125.18</v>
       </c>
       <c r="M186">
-        <v>13889894</v>
+        <v>13889901</v>
       </c>
       <c r="N186">
-        <v>8211233</v>
+        <v>8211230</v>
       </c>
       <c r="O186">
         <v>2510371</v>
@@ -9522,10 +9522,10 @@
         <v>125.48</v>
       </c>
       <c r="M187">
-        <v>13966127</v>
+        <v>13966134</v>
       </c>
       <c r="N187">
-        <v>8231224</v>
+        <v>8231221</v>
       </c>
       <c r="O187">
         <v>2506811</v>
@@ -9575,10 +9575,10 @@
         <v>125.89</v>
       </c>
       <c r="M188">
-        <v>14177360</v>
+        <v>14177368</v>
       </c>
       <c r="N188">
-        <v>8311010</v>
+        <v>8311007</v>
       </c>
       <c r="O188">
         <v>2528409</v>
@@ -9628,10 +9628,10 @@
         <v>126.37</v>
       </c>
       <c r="M189">
-        <v>14260668</v>
+        <v>14260675</v>
       </c>
       <c r="N189">
-        <v>8315370</v>
+        <v>8315367</v>
       </c>
       <c r="O189">
         <v>2521450</v>
@@ -9681,10 +9681,10 @@
         <v>126.79</v>
       </c>
       <c r="M190">
-        <v>14422995</v>
+        <v>14423002</v>
       </c>
       <c r="N190">
-        <v>8370951</v>
+        <v>8370948</v>
       </c>
       <c r="O190">
         <v>2540055</v>
@@ -9716,10 +9716,10 @@
         <v>9966680</v>
       </c>
       <c r="G191">
-        <v>8670551</v>
+        <v>8670553</v>
       </c>
       <c r="H191">
-        <v>1073077</v>
+        <v>1073078</v>
       </c>
       <c r="I191">
         <v>128.59</v>
@@ -9734,10 +9734,10 @@
         <v>127.14</v>
       </c>
       <c r="M191">
-        <v>14528170</v>
+        <v>14528177</v>
       </c>
       <c r="N191">
-        <v>8368480</v>
+        <v>8368477</v>
       </c>
       <c r="O191">
         <v>2551084</v>
@@ -9787,10 +9787,10 @@
         <v>127.59</v>
       </c>
       <c r="M192">
-        <v>14532945</v>
+        <v>14532952</v>
       </c>
       <c r="N192">
-        <v>8290054</v>
+        <v>8290051</v>
       </c>
       <c r="O192">
         <v>2547706</v>
@@ -9840,10 +9840,10 @@
         <v>128.14</v>
       </c>
       <c r="M193">
-        <v>14761468</v>
+        <v>14761475</v>
       </c>
       <c r="N193">
-        <v>8365146</v>
+        <v>8365143</v>
       </c>
       <c r="O193">
         <v>2572354</v>
@@ -9872,7 +9872,7 @@
         <v>235008</v>
       </c>
       <c r="F194">
-        <v>14729045</v>
+        <v>14729044</v>
       </c>
       <c r="G194">
         <v>13027499</v>
@@ -9893,10 +9893,10 @@
         <v>128.88</v>
       </c>
       <c r="M194">
-        <v>14844149</v>
+        <v>14844156</v>
       </c>
       <c r="N194">
-        <v>8388033</v>
+        <v>8388030</v>
       </c>
       <c r="O194">
         <v>2570154</v>
@@ -9946,10 +9946,10 @@
         <v>129.54</v>
       </c>
       <c r="M195">
-        <v>14889079</v>
+        <v>14889087</v>
       </c>
       <c r="N195">
-        <v>8325505</v>
+        <v>8325502</v>
       </c>
       <c r="O195">
         <v>2571043</v>
@@ -9978,7 +9978,7 @@
         <v>219934</v>
       </c>
       <c r="F196">
-        <v>13097751</v>
+        <v>13097750</v>
       </c>
       <c r="G196">
         <v>11730221</v>
@@ -9999,10 +9999,10 @@
         <v>130.2</v>
       </c>
       <c r="M196">
-        <v>14967761</v>
+        <v>14967769</v>
       </c>
       <c r="N196">
-        <v>8320001</v>
+        <v>8319998</v>
       </c>
       <c r="O196">
         <v>2563117</v>
@@ -10052,10 +10052,10 @@
         <v>130.86</v>
       </c>
       <c r="M197">
-        <v>15089905</v>
+        <v>15089913</v>
       </c>
       <c r="N197">
-        <v>8341465</v>
+        <v>8341462</v>
       </c>
       <c r="O197">
         <v>2566572</v>
@@ -10137,7 +10137,7 @@
         <v>214624</v>
       </c>
       <c r="F199">
-        <v>10187291</v>
+        <v>10187290</v>
       </c>
       <c r="G199">
         <v>9028611</v>
@@ -10296,7 +10296,7 @@
         <v>211859</v>
       </c>
       <c r="F202">
-        <v>10071176</v>
+        <v>10071175</v>
       </c>
       <c r="G202">
         <v>8724780</v>
@@ -10349,7 +10349,7 @@
         <v>223173</v>
       </c>
       <c r="F203">
-        <v>9851341</v>
+        <v>9851335</v>
       </c>
       <c r="G203">
         <v>8695175</v>
@@ -11877,7 +11877,7 @@
         <v>32598</v>
       </c>
       <c r="B232">
-        <v>1361138</v>
+        <v>1361137</v>
       </c>
       <c r="D232">
         <v>652549</v>
@@ -11886,7 +11886,7 @@
         <v>176192</v>
       </c>
       <c r="F232">
-        <v>11589023</v>
+        <v>11589015</v>
       </c>
       <c r="G232">
         <v>10451849</v>
@@ -34683,7 +34683,7 @@
         <v>14616</v>
       </c>
       <c r="R646">
-        <v>413393</v>
+        <v>418897</v>
       </c>
     </row>
     <row r="647">
@@ -34691,7 +34691,7 @@
         <v>45230</v>
       </c>
       <c r="B647">
-        <v>888178</v>
+        <v>888018</v>
       </c>
       <c r="C647">
         <v>1567.9</v>
@@ -34733,24 +34733,116 @@
         <v>1688651</v>
       </c>
       <c r="P647">
-        <v>5317</v>
+        <v>5314</v>
       </c>
       <c r="Q647">
-        <v>14648</v>
+        <v>14644</v>
       </c>
       <c r="R647">
-        <v>413602</v>
+        <v>424368</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="2">
         <v>45260</v>
       </c>
+      <c r="B648">
+        <v>1026284</v>
+      </c>
+      <c r="D648">
+        <v>390425</v>
+      </c>
+      <c r="E648">
+        <v>151099</v>
+      </c>
+      <c r="F648">
+        <v>6840473</v>
+      </c>
+      <c r="G648">
+        <v>5684541</v>
+      </c>
+      <c r="H648">
+        <v>2509195</v>
+      </c>
+      <c r="I648">
+        <v>451.23</v>
+      </c>
+      <c r="J648">
+        <v>36.52</v>
+      </c>
+      <c r="K648">
+        <v>14.56</v>
+      </c>
+      <c r="L648">
+        <v>436.34</v>
+      </c>
+      <c r="M648">
+        <v>32059421</v>
+      </c>
+      <c r="N648">
+        <v>5135969</v>
+      </c>
+      <c r="O648">
+        <v>1727644</v>
+      </c>
       <c r="P648">
-        <v>5334</v>
+        <v>5318</v>
       </c>
       <c r="Q648">
-        <v>14680</v>
+        <v>14675</v>
+      </c>
+      <c r="R648">
+        <v>422385</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="2">
+        <v>45291</v>
+      </c>
+      <c r="B649">
+        <v>1152035</v>
+      </c>
+      <c r="D649">
+        <v>464005</v>
+      </c>
+      <c r="E649">
+        <v>152204</v>
+      </c>
+      <c r="F649">
+        <v>7911652</v>
+      </c>
+      <c r="G649">
+        <v>6250266</v>
+      </c>
+      <c r="H649">
+        <v>2788844</v>
+      </c>
+      <c r="I649">
+        <v>453.4</v>
+      </c>
+      <c r="J649">
+        <v>36.63</v>
+      </c>
+      <c r="K649">
+        <v>14.73</v>
+      </c>
+      <c r="L649">
+        <v>438.74</v>
+      </c>
+      <c r="M649">
+        <v>32610401</v>
+      </c>
+      <c r="N649">
+        <v>5136511</v>
+      </c>
+      <c r="O649">
+        <v>1765270</v>
+      </c>
+      <c r="P649">
+        <v>5326</v>
+      </c>
+      <c r="Q649">
+        <v>14712</v>
       </c>
     </row>
   </sheetData>

--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R649"/>
+  <dimension ref="A1:R650"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4781,16 +4781,16 @@
         <v>1063136</v>
       </c>
       <c r="E98">
-        <v>210661</v>
+        <v>210660</v>
       </c>
       <c r="F98">
-        <v>13886952</v>
+        <v>13886948</v>
       </c>
       <c r="G98">
-        <v>11076385</v>
+        <v>11076380</v>
       </c>
       <c r="H98">
-        <v>904869</v>
+        <v>904867</v>
       </c>
       <c r="I98">
         <v>84.12</v>
@@ -4805,13 +4805,13 @@
         <v>79.33</v>
       </c>
       <c r="M98">
-        <v>8643091</v>
+        <v>8643089</v>
       </c>
       <c r="N98">
         <v>7816720</v>
       </c>
       <c r="O98">
-        <v>2726125</v>
+        <v>2726124</v>
       </c>
       <c r="P98">
         <v>3429</v>
@@ -4858,13 +4858,13 @@
         <v>79.84</v>
       </c>
       <c r="M99">
-        <v>8586178</v>
+        <v>8586177</v>
       </c>
       <c r="N99">
         <v>7675188</v>
       </c>
       <c r="O99">
-        <v>2658765</v>
+        <v>2658764</v>
       </c>
       <c r="P99">
         <v>3442</v>
@@ -4911,13 +4911,13 @@
         <v>80.48999999999999</v>
       </c>
       <c r="M100">
-        <v>8552551</v>
+        <v>8552550</v>
       </c>
       <c r="N100">
         <v>7655474</v>
       </c>
       <c r="O100">
-        <v>2569595</v>
+        <v>2569594</v>
       </c>
       <c r="P100">
         <v>3456</v>
@@ -4964,13 +4964,13 @@
         <v>80.95</v>
       </c>
       <c r="M101">
-        <v>8496275</v>
+        <v>8496273</v>
       </c>
       <c r="N101">
         <v>7630816</v>
       </c>
       <c r="O101">
-        <v>2496711</v>
+        <v>2496710</v>
       </c>
       <c r="P101">
         <v>3472</v>
@@ -5017,13 +5017,13 @@
         <v>81.34999999999999</v>
       </c>
       <c r="M102">
-        <v>8469977</v>
+        <v>8469976</v>
       </c>
       <c r="N102">
         <v>7605385</v>
       </c>
       <c r="O102">
-        <v>2447767</v>
+        <v>2447766</v>
       </c>
       <c r="P102">
         <v>3483</v>
@@ -5070,13 +5070,13 @@
         <v>81.73999999999999</v>
       </c>
       <c r="M103">
-        <v>8390316</v>
+        <v>8390314</v>
       </c>
       <c r="N103">
         <v>7610191</v>
       </c>
       <c r="O103">
-        <v>2369800</v>
+        <v>2369799</v>
       </c>
       <c r="P103">
         <v>3482</v>
@@ -5123,13 +5123,13 @@
         <v>82.12</v>
       </c>
       <c r="M104">
-        <v>8353741</v>
+        <v>8353739</v>
       </c>
       <c r="N104">
         <v>7610967</v>
       </c>
       <c r="O104">
-        <v>2306253</v>
+        <v>2306252</v>
       </c>
       <c r="P104">
         <v>3473</v>
@@ -5176,13 +5176,13 @@
         <v>82.48999999999999</v>
       </c>
       <c r="M105">
-        <v>8358618</v>
+        <v>8358617</v>
       </c>
       <c r="N105">
         <v>7677889</v>
       </c>
       <c r="O105">
-        <v>2230966</v>
+        <v>2230965</v>
       </c>
       <c r="P105">
         <v>3475</v>
@@ -5229,13 +5229,13 @@
         <v>82.78</v>
       </c>
       <c r="M106">
-        <v>8313960</v>
+        <v>8313959</v>
       </c>
       <c r="N106">
         <v>7636142</v>
       </c>
       <c r="O106">
-        <v>2171024</v>
+        <v>2171023</v>
       </c>
       <c r="P106">
         <v>3484</v>
@@ -5282,13 +5282,13 @@
         <v>83.03</v>
       </c>
       <c r="M107">
-        <v>8307255</v>
+        <v>8307254</v>
       </c>
       <c r="N107">
         <v>7633029</v>
       </c>
       <c r="O107">
-        <v>2121252</v>
+        <v>2121251</v>
       </c>
       <c r="P107">
         <v>3488</v>
@@ -5335,13 +5335,13 @@
         <v>83.3</v>
       </c>
       <c r="M108">
-        <v>8263905</v>
+        <v>8263903</v>
       </c>
       <c r="N108">
         <v>7603593</v>
       </c>
       <c r="O108">
-        <v>2073377</v>
+        <v>2073376</v>
       </c>
       <c r="P108">
         <v>3494</v>
@@ -5388,13 +5388,13 @@
         <v>83.67</v>
       </c>
       <c r="M109">
-        <v>8212239</v>
+        <v>8212238</v>
       </c>
       <c r="N109">
         <v>7568310</v>
       </c>
       <c r="O109">
-        <v>2030439</v>
+        <v>2030438</v>
       </c>
       <c r="P109">
         <v>3500</v>
@@ -6592,10 +6592,10 @@
         <v>9516801</v>
       </c>
       <c r="H132">
-        <v>935431</v>
+        <v>935849</v>
       </c>
       <c r="I132">
-        <v>100.7</v>
+        <v>100.75</v>
       </c>
       <c r="J132">
         <v>32.75</v>
@@ -6607,7 +6607,7 @@
         <v>99.05</v>
       </c>
       <c r="M132">
-        <v>14066978</v>
+        <v>14067396</v>
       </c>
       <c r="N132">
         <v>9919645</v>
@@ -6660,7 +6660,7 @@
         <v>99.53</v>
       </c>
       <c r="M133">
-        <v>14469431</v>
+        <v>14469849</v>
       </c>
       <c r="N133">
         <v>9992123</v>
@@ -6713,7 +6713,7 @@
         <v>100.2</v>
       </c>
       <c r="M134">
-        <v>14605066</v>
+        <v>14605484</v>
       </c>
       <c r="N134">
         <v>9946214</v>
@@ -6763,10 +6763,10 @@
         <v>15.11</v>
       </c>
       <c r="L135">
-        <v>100.72</v>
+        <v>100.73</v>
       </c>
       <c r="M135">
-        <v>14690503</v>
+        <v>14690921</v>
       </c>
       <c r="N135">
         <v>9890722</v>
@@ -6819,7 +6819,7 @@
         <v>101.31</v>
       </c>
       <c r="M136">
-        <v>14866962</v>
+        <v>14867380</v>
       </c>
       <c r="N136">
         <v>9919839</v>
@@ -6872,7 +6872,7 @@
         <v>101.83</v>
       </c>
       <c r="M137">
-        <v>14861480</v>
+        <v>14861898</v>
       </c>
       <c r="N137">
         <v>9793604</v>
@@ -6925,7 +6925,7 @@
         <v>102.25</v>
       </c>
       <c r="M138">
-        <v>14670872</v>
+        <v>14671290</v>
       </c>
       <c r="N138">
         <v>9476838</v>
@@ -6978,7 +6978,7 @@
         <v>102.61</v>
       </c>
       <c r="M139">
-        <v>14467097</v>
+        <v>14467515</v>
       </c>
       <c r="N139">
         <v>9214474</v>
@@ -7004,7 +7004,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823696</v>
+        <v>823698</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -7031,10 +7031,10 @@
         <v>103.08</v>
       </c>
       <c r="M140">
-        <v>14131877</v>
+        <v>14132295</v>
       </c>
       <c r="N140">
-        <v>8935532</v>
+        <v>8935534</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -7084,10 +7084,10 @@
         <v>103.59</v>
       </c>
       <c r="M141">
-        <v>13894173</v>
+        <v>13894591</v>
       </c>
       <c r="N141">
-        <v>8782047</v>
+        <v>8782049</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -7134,13 +7134,13 @@
         <v>15.43</v>
       </c>
       <c r="L142">
-        <v>104.14</v>
+        <v>104.15</v>
       </c>
       <c r="M142">
-        <v>13750080</v>
+        <v>13750498</v>
       </c>
       <c r="N142">
-        <v>8776315</v>
+        <v>8776317</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -7190,10 +7190,10 @@
         <v>104.75</v>
       </c>
       <c r="M143">
-        <v>13621949</v>
+        <v>13622367</v>
       </c>
       <c r="N143">
-        <v>8836757</v>
+        <v>8836759</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -7246,7 +7246,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042565</v>
+        <v>9042567</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -7299,7 +7299,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9395185</v>
+        <v>9395187</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -7352,7 +7352,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9716049</v>
+        <v>9716051</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -7405,7 +7405,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916880</v>
+        <v>9916882</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -7458,7 +7458,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176513</v>
+        <v>10176515</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -7511,7 +7511,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10402094</v>
+        <v>10402096</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -7564,7 +7564,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586494</v>
+        <v>10586496</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -7617,7 +7617,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834407</v>
+        <v>10834409</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -9442,7 +9442,7 @@
         <v>1488338</v>
       </c>
       <c r="D186">
-        <v>590425</v>
+        <v>590459</v>
       </c>
       <c r="E186">
         <v>232183</v>
@@ -9451,13 +9451,13 @@
         <v>10937527</v>
       </c>
       <c r="G186">
-        <v>9817907</v>
+        <v>9818108</v>
       </c>
       <c r="H186">
-        <v>1209112</v>
+        <v>1208955</v>
       </c>
       <c r="I186">
-        <v>127.38</v>
+        <v>127.36</v>
       </c>
       <c r="J186">
         <v>32.49</v>
@@ -9469,10 +9469,10 @@
         <v>125.18</v>
       </c>
       <c r="M186">
-        <v>13889901</v>
+        <v>13889745</v>
       </c>
       <c r="N186">
-        <v>8211230</v>
+        <v>8211264</v>
       </c>
       <c r="O186">
         <v>2510371</v>
@@ -9522,10 +9522,10 @@
         <v>125.48</v>
       </c>
       <c r="M187">
-        <v>13966134</v>
+        <v>13965978</v>
       </c>
       <c r="N187">
-        <v>8231221</v>
+        <v>8231255</v>
       </c>
       <c r="O187">
         <v>2506811</v>
@@ -9575,10 +9575,10 @@
         <v>125.89</v>
       </c>
       <c r="M188">
-        <v>14177368</v>
+        <v>14177211</v>
       </c>
       <c r="N188">
-        <v>8311007</v>
+        <v>8311041</v>
       </c>
       <c r="O188">
         <v>2528409</v>
@@ -9604,7 +9604,7 @@
         <v>631919</v>
       </c>
       <c r="E189">
-        <v>204865</v>
+        <v>204866</v>
       </c>
       <c r="F189">
         <v>10180433</v>
@@ -9628,13 +9628,13 @@
         <v>126.37</v>
       </c>
       <c r="M189">
-        <v>14260675</v>
+        <v>14260519</v>
       </c>
       <c r="N189">
-        <v>8315367</v>
+        <v>8315401</v>
       </c>
       <c r="O189">
-        <v>2521450</v>
+        <v>2521451</v>
       </c>
       <c r="P189">
         <v>3841</v>
@@ -9657,7 +9657,7 @@
         <v>509987</v>
       </c>
       <c r="E190">
-        <v>181943</v>
+        <v>181942</v>
       </c>
       <c r="F190">
         <v>9164177</v>
@@ -9681,10 +9681,10 @@
         <v>126.79</v>
       </c>
       <c r="M190">
-        <v>14423002</v>
+        <v>14422846</v>
       </c>
       <c r="N190">
-        <v>8370948</v>
+        <v>8370982</v>
       </c>
       <c r="O190">
         <v>2540055</v>
@@ -9707,19 +9707,19 @@
         <v>1667576</v>
       </c>
       <c r="D191">
-        <v>573555</v>
+        <v>573557</v>
       </c>
       <c r="E191">
-        <v>207673</v>
+        <v>207668</v>
       </c>
       <c r="F191">
         <v>9966680</v>
       </c>
       <c r="G191">
-        <v>8670553</v>
+        <v>8670591</v>
       </c>
       <c r="H191">
-        <v>1073078</v>
+        <v>1073110</v>
       </c>
       <c r="I191">
         <v>128.59</v>
@@ -9734,13 +9734,13 @@
         <v>127.14</v>
       </c>
       <c r="M191">
-        <v>14528177</v>
+        <v>14528053</v>
       </c>
       <c r="N191">
-        <v>8368477</v>
+        <v>8368513</v>
       </c>
       <c r="O191">
-        <v>2551084</v>
+        <v>2551079</v>
       </c>
       <c r="P191">
         <v>3864</v>
@@ -9787,13 +9787,13 @@
         <v>127.59</v>
       </c>
       <c r="M192">
-        <v>14532952</v>
+        <v>14532828</v>
       </c>
       <c r="N192">
-        <v>8290051</v>
+        <v>8290087</v>
       </c>
       <c r="O192">
-        <v>2547706</v>
+        <v>2547701</v>
       </c>
       <c r="P192">
         <v>3867</v>
@@ -9840,13 +9840,13 @@
         <v>128.14</v>
       </c>
       <c r="M193">
-        <v>14761475</v>
+        <v>14761352</v>
       </c>
       <c r="N193">
-        <v>8365143</v>
+        <v>8365179</v>
       </c>
       <c r="O193">
-        <v>2572354</v>
+        <v>2572349</v>
       </c>
       <c r="P193">
         <v>3862</v>
@@ -9872,7 +9872,7 @@
         <v>235008</v>
       </c>
       <c r="F194">
-        <v>14729044</v>
+        <v>14729039</v>
       </c>
       <c r="G194">
         <v>13027499</v>
@@ -9893,13 +9893,13 @@
         <v>128.88</v>
       </c>
       <c r="M194">
-        <v>14844156</v>
+        <v>14844032</v>
       </c>
       <c r="N194">
-        <v>8388030</v>
+        <v>8388066</v>
       </c>
       <c r="O194">
-        <v>2570154</v>
+        <v>2570149</v>
       </c>
       <c r="P194">
         <v>3869</v>
@@ -9946,13 +9946,13 @@
         <v>129.54</v>
       </c>
       <c r="M195">
-        <v>14889087</v>
+        <v>14888963</v>
       </c>
       <c r="N195">
-        <v>8325502</v>
+        <v>8325538</v>
       </c>
       <c r="O195">
-        <v>2571043</v>
+        <v>2571038</v>
       </c>
       <c r="P195">
         <v>3875</v>
@@ -9978,7 +9978,7 @@
         <v>219934</v>
       </c>
       <c r="F196">
-        <v>13097750</v>
+        <v>13097762</v>
       </c>
       <c r="G196">
         <v>11730221</v>
@@ -9999,13 +9999,13 @@
         <v>130.2</v>
       </c>
       <c r="M196">
-        <v>14967769</v>
+        <v>14967645</v>
       </c>
       <c r="N196">
-        <v>8319998</v>
+        <v>8320034</v>
       </c>
       <c r="O196">
-        <v>2563117</v>
+        <v>2563112</v>
       </c>
       <c r="P196">
         <v>3873</v>
@@ -10052,13 +10052,13 @@
         <v>130.86</v>
       </c>
       <c r="M197">
-        <v>15089913</v>
+        <v>15089789</v>
       </c>
       <c r="N197">
-        <v>8341462</v>
+        <v>8341498</v>
       </c>
       <c r="O197">
-        <v>2566572</v>
+        <v>2566567</v>
       </c>
       <c r="P197">
         <v>3878</v>
@@ -10105,13 +10105,13 @@
         <v>131.55</v>
       </c>
       <c r="M198">
-        <v>15141526</v>
+        <v>15141559</v>
       </c>
       <c r="N198">
-        <v>8330315</v>
+        <v>8330317</v>
       </c>
       <c r="O198">
-        <v>2567373</v>
+        <v>2567368</v>
       </c>
       <c r="P198">
         <v>3884</v>
@@ -10134,10 +10134,10 @@
         <v>525103</v>
       </c>
       <c r="E199">
-        <v>214624</v>
+        <v>214626</v>
       </c>
       <c r="F199">
-        <v>10187290</v>
+        <v>10187292</v>
       </c>
       <c r="G199">
         <v>9028611</v>
@@ -10158,13 +10158,13 @@
         <v>132.19</v>
       </c>
       <c r="M199">
-        <v>15309070</v>
+        <v>15309102</v>
       </c>
       <c r="N199">
-        <v>8356563</v>
+        <v>8356565</v>
       </c>
       <c r="O199">
-        <v>2587921</v>
+        <v>2587918</v>
       </c>
       <c r="P199">
         <v>3887</v>
@@ -10187,7 +10187,7 @@
         <v>735606</v>
       </c>
       <c r="E200">
-        <v>247048</v>
+        <v>247049</v>
       </c>
       <c r="F200">
         <v>11601024</v>
@@ -10211,13 +10211,13 @@
         <v>132.87</v>
       </c>
       <c r="M200">
-        <v>15440680</v>
+        <v>15440712</v>
       </c>
       <c r="N200">
-        <v>8350582</v>
+        <v>8350584</v>
       </c>
       <c r="O200">
-        <v>2599971</v>
+        <v>2599969</v>
       </c>
       <c r="P200">
         <v>3886</v>
@@ -10240,7 +10240,7 @@
         <v>649662</v>
       </c>
       <c r="E201">
-        <v>210439</v>
+        <v>210440</v>
       </c>
       <c r="F201">
         <v>10189513</v>
@@ -10264,13 +10264,13 @@
         <v>133.49</v>
       </c>
       <c r="M201">
-        <v>15510454</v>
+        <v>15510487</v>
       </c>
       <c r="N201">
-        <v>8368325</v>
+        <v>8368327</v>
       </c>
       <c r="O201">
-        <v>2605545</v>
+        <v>2605543</v>
       </c>
       <c r="P201">
         <v>3887</v>
@@ -10296,7 +10296,7 @@
         <v>211859</v>
       </c>
       <c r="F202">
-        <v>10071175</v>
+        <v>10071123</v>
       </c>
       <c r="G202">
         <v>8724780</v>
@@ -10314,16 +10314,16 @@
         <v>14.46</v>
       </c>
       <c r="L202">
-        <v>134.04</v>
+        <v>134.05</v>
       </c>
       <c r="M202">
-        <v>15673764</v>
+        <v>15673796</v>
       </c>
       <c r="N202">
-        <v>8381882</v>
+        <v>8381884</v>
       </c>
       <c r="O202">
-        <v>2635461</v>
+        <v>2635460</v>
       </c>
       <c r="P202">
         <v>3895</v>
@@ -10349,7 +10349,7 @@
         <v>223173</v>
       </c>
       <c r="F203">
-        <v>9851335</v>
+        <v>9851284</v>
       </c>
       <c r="G203">
         <v>8695175</v>
@@ -10376,7 +10376,7 @@
         <v>8380544</v>
       </c>
       <c r="O203">
-        <v>2650961</v>
+        <v>2650965</v>
       </c>
       <c r="P203">
         <v>3915</v>
@@ -10429,7 +10429,7 @@
         <v>8330361</v>
       </c>
       <c r="O204">
-        <v>2658783</v>
+        <v>2658787</v>
       </c>
       <c r="P204">
         <v>3927</v>
@@ -10482,7 +10482,7 @@
         <v>8360752</v>
       </c>
       <c r="O205">
-        <v>2687332</v>
+        <v>2687336</v>
       </c>
       <c r="P205">
         <v>3938</v>
@@ -10535,7 +10535,7 @@
         <v>8190399</v>
       </c>
       <c r="O206">
-        <v>2682386</v>
+        <v>2682390</v>
       </c>
       <c r="P206">
         <v>3943</v>
@@ -10588,7 +10588,7 @@
         <v>8167954</v>
       </c>
       <c r="O207">
-        <v>2694737</v>
+        <v>2694741</v>
       </c>
       <c r="P207">
         <v>3943</v>
@@ -10641,7 +10641,7 @@
         <v>8133267</v>
       </c>
       <c r="O208">
-        <v>2719320</v>
+        <v>2719324</v>
       </c>
       <c r="P208">
         <v>3945</v>
@@ -10694,7 +10694,7 @@
         <v>8038963</v>
       </c>
       <c r="O209">
-        <v>2707762</v>
+        <v>2707766</v>
       </c>
       <c r="P209">
         <v>3954</v>
@@ -10747,7 +10747,7 @@
         <v>7908330</v>
       </c>
       <c r="O210">
-        <v>2680327</v>
+        <v>2680331</v>
       </c>
       <c r="P210">
         <v>3955</v>
@@ -10800,7 +10800,7 @@
         <v>7873641</v>
       </c>
       <c r="O211">
-        <v>2671971</v>
+        <v>2671973</v>
       </c>
       <c r="P211">
         <v>3950</v>
@@ -10853,7 +10853,7 @@
         <v>7781838</v>
       </c>
       <c r="O212">
-        <v>2637232</v>
+        <v>2637233</v>
       </c>
       <c r="P212">
         <v>3967</v>
@@ -11877,7 +11877,7 @@
         <v>32598</v>
       </c>
       <c r="B232">
-        <v>1361137</v>
+        <v>1361148</v>
       </c>
       <c r="D232">
         <v>652549</v>
@@ -11886,7 +11886,7 @@
         <v>176192</v>
       </c>
       <c r="F232">
-        <v>11589015</v>
+        <v>11589009</v>
       </c>
       <c r="G232">
         <v>10451849</v>
@@ -31541,10 +31541,10 @@
         <v>1886164</v>
       </c>
       <c r="P590">
-        <v>5174</v>
+        <v>5173</v>
       </c>
       <c r="Q590">
-        <v>14546</v>
+        <v>14527</v>
       </c>
       <c r="R590">
         <v>295509</v>
@@ -31597,10 +31597,10 @@
         <v>1860730</v>
       </c>
       <c r="P591">
-        <v>5183</v>
+        <v>5182</v>
       </c>
       <c r="Q591">
-        <v>14543</v>
+        <v>14533</v>
       </c>
       <c r="R591">
         <v>304175</v>
@@ -31653,10 +31653,10 @@
         <v>1845056</v>
       </c>
       <c r="P592">
-        <v>5192</v>
+        <v>5191</v>
       </c>
       <c r="Q592">
-        <v>14568</v>
+        <v>14567</v>
       </c>
       <c r="R592">
         <v>305358</v>
@@ -31712,7 +31712,7 @@
         <v>5192</v>
       </c>
       <c r="Q593">
-        <v>14590</v>
+        <v>14600</v>
       </c>
       <c r="R593">
         <v>324193</v>
@@ -31765,10 +31765,10 @@
         <v>1796642</v>
       </c>
       <c r="P594">
-        <v>5151</v>
+        <v>5150</v>
       </c>
       <c r="Q594">
-        <v>14593</v>
+        <v>14583</v>
       </c>
       <c r="R594">
         <v>320559</v>
@@ -31821,10 +31821,10 @@
         <v>1788814</v>
       </c>
       <c r="P595">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="Q595">
-        <v>14572</v>
+        <v>14601</v>
       </c>
       <c r="R595">
         <v>317102</v>
@@ -31877,10 +31877,10 @@
         <v>1773255</v>
       </c>
       <c r="P596">
-        <v>5192</v>
+        <v>5191</v>
       </c>
       <c r="Q596">
-        <v>14520</v>
+        <v>14552</v>
       </c>
       <c r="R596">
         <v>324286</v>
@@ -31933,10 +31933,10 @@
         <v>1760936</v>
       </c>
       <c r="P597">
-        <v>5212</v>
+        <v>5213</v>
       </c>
       <c r="Q597">
-        <v>14547</v>
+        <v>14558</v>
       </c>
       <c r="R597">
         <v>320318</v>
@@ -31992,7 +31992,7 @@
         <v>5219</v>
       </c>
       <c r="Q598">
-        <v>14574</v>
+        <v>14582</v>
       </c>
       <c r="R598">
         <v>326917</v>
@@ -32045,10 +32045,10 @@
         <v>1756475</v>
       </c>
       <c r="P599">
-        <v>5237</v>
+        <v>5239</v>
       </c>
       <c r="Q599">
-        <v>14600</v>
+        <v>14594</v>
       </c>
       <c r="R599">
         <v>322260</v>
@@ -32101,10 +32101,10 @@
         <v>1752481</v>
       </c>
       <c r="P600">
-        <v>5247</v>
+        <v>5248</v>
       </c>
       <c r="Q600">
-        <v>14625</v>
+        <v>14619</v>
       </c>
       <c r="R600">
         <v>323761</v>
@@ -32157,10 +32157,10 @@
         <v>1760492</v>
       </c>
       <c r="P601">
-        <v>5248</v>
+        <v>5251</v>
       </c>
       <c r="Q601">
-        <v>14639</v>
+        <v>14638</v>
       </c>
       <c r="R601">
         <v>326944</v>
@@ -32213,10 +32213,10 @@
         <v>1753952</v>
       </c>
       <c r="P602">
-        <v>5271</v>
+        <v>5270</v>
       </c>
       <c r="Q602">
-        <v>14656</v>
+        <v>14666</v>
       </c>
       <c r="R602">
         <v>342465</v>
@@ -32269,10 +32269,10 @@
         <v>1757299</v>
       </c>
       <c r="P603">
-        <v>5317</v>
+        <v>5319</v>
       </c>
       <c r="Q603">
-        <v>14699</v>
+        <v>14697</v>
       </c>
       <c r="R603">
         <v>342340</v>
@@ -32328,7 +32328,7 @@
         <v>5266</v>
       </c>
       <c r="Q604">
-        <v>14699</v>
+        <v>14692</v>
       </c>
       <c r="R604">
         <v>345379</v>
@@ -32381,10 +32381,10 @@
         <v>1812574</v>
       </c>
       <c r="P605">
-        <v>5117</v>
+        <v>5115</v>
       </c>
       <c r="Q605">
-        <v>13930</v>
+        <v>13925</v>
       </c>
       <c r="R605">
         <v>338360</v>
@@ -32437,10 +32437,10 @@
         <v>1924685</v>
       </c>
       <c r="P606">
-        <v>5060</v>
+        <v>5057</v>
       </c>
       <c r="Q606">
-        <v>13458</v>
+        <v>13460</v>
       </c>
       <c r="R606">
         <v>347467</v>
@@ -32493,10 +32493,10 @@
         <v>2392117</v>
       </c>
       <c r="P607">
-        <v>5061</v>
+        <v>5059</v>
       </c>
       <c r="Q607">
-        <v>13462</v>
+        <v>13485</v>
       </c>
       <c r="R607">
         <v>342861</v>
@@ -32549,10 +32549,10 @@
         <v>3183893</v>
       </c>
       <c r="P608">
-        <v>5071</v>
+        <v>5070</v>
       </c>
       <c r="Q608">
-        <v>13531</v>
+        <v>13559</v>
       </c>
       <c r="R608">
         <v>336827</v>
@@ -32605,10 +32605,10 @@
         <v>4115659</v>
       </c>
       <c r="P609">
-        <v>5116</v>
+        <v>5115</v>
       </c>
       <c r="Q609">
-        <v>13737</v>
+        <v>13715</v>
       </c>
       <c r="R609">
         <v>334578</v>
@@ -32661,10 +32661,10 @@
         <v>7059486</v>
       </c>
       <c r="P610">
-        <v>5095</v>
+        <v>5096</v>
       </c>
       <c r="Q610">
-        <v>13702</v>
+        <v>13718</v>
       </c>
       <c r="R610">
         <v>335229</v>
@@ -32717,10 +32717,10 @@
         <v>9351847</v>
       </c>
       <c r="P611">
-        <v>5073</v>
+        <v>5074</v>
       </c>
       <c r="Q611">
-        <v>13716</v>
+        <v>13710</v>
       </c>
       <c r="R611">
         <v>337981</v>
@@ -32773,10 +32773,10 @@
         <v>10553541</v>
       </c>
       <c r="P612">
-        <v>5074</v>
+        <v>5077</v>
       </c>
       <c r="Q612">
-        <v>13718</v>
+        <v>13711</v>
       </c>
       <c r="R612">
         <v>342927</v>
@@ -32829,10 +32829,10 @@
         <v>11436081</v>
       </c>
       <c r="P613">
-        <v>5080</v>
+        <v>5083</v>
       </c>
       <c r="Q613">
-        <v>13696</v>
+        <v>13698</v>
       </c>
       <c r="R613">
         <v>343016</v>
@@ -32885,10 +32885,10 @@
         <v>12105826</v>
       </c>
       <c r="P614">
-        <v>5162</v>
+        <v>5159</v>
       </c>
       <c r="Q614">
-        <v>13732</v>
+        <v>13746</v>
       </c>
       <c r="R614">
         <v>345102</v>
@@ -32941,10 +32941,10 @@
         <v>12600385</v>
       </c>
       <c r="P615">
-        <v>5167</v>
+        <v>5166</v>
       </c>
       <c r="Q615">
-        <v>13745</v>
+        <v>13733</v>
       </c>
       <c r="R615">
         <v>335151</v>
@@ -32997,10 +32997,10 @@
         <v>13044263</v>
       </c>
       <c r="P616">
-        <v>5195</v>
+        <v>5196</v>
       </c>
       <c r="Q616">
-        <v>13794</v>
+        <v>13781</v>
       </c>
       <c r="R616">
         <v>336955</v>
@@ -33053,10 +33053,10 @@
         <v>13246975</v>
       </c>
       <c r="P617">
-        <v>5191</v>
+        <v>5189</v>
       </c>
       <c r="Q617">
-        <v>13839</v>
+        <v>13830</v>
       </c>
       <c r="R617">
         <v>335574</v>
@@ -33109,10 +33109,10 @@
         <v>13354760</v>
       </c>
       <c r="P618">
-        <v>5179</v>
+        <v>5174</v>
       </c>
       <c r="Q618">
-        <v>13860</v>
+        <v>13854</v>
       </c>
       <c r="R618">
         <v>338521</v>
@@ -33165,10 +33165,10 @@
         <v>13082589</v>
       </c>
       <c r="P619">
-        <v>5190</v>
+        <v>5188</v>
       </c>
       <c r="Q619">
-        <v>13920</v>
+        <v>13941</v>
       </c>
       <c r="R619">
         <v>329746</v>
@@ -33221,10 +33221,10 @@
         <v>12419030</v>
       </c>
       <c r="P620">
-        <v>5163</v>
+        <v>5164</v>
       </c>
       <c r="Q620">
-        <v>13986</v>
+        <v>14023</v>
       </c>
       <c r="R620">
         <v>328919</v>
@@ -33277,10 +33277,10 @@
         <v>11625423</v>
       </c>
       <c r="P621">
-        <v>5149</v>
+        <v>5150</v>
       </c>
       <c r="Q621">
-        <v>14061</v>
+        <v>14053</v>
       </c>
       <c r="R621">
         <v>333989</v>
@@ -33333,10 +33333,10 @@
         <v>8847971</v>
       </c>
       <c r="P622">
-        <v>5138</v>
+        <v>5141</v>
       </c>
       <c r="Q622">
-        <v>14049</v>
+        <v>14047</v>
       </c>
       <c r="R622">
         <v>326840</v>
@@ -33389,10 +33389,10 @@
         <v>6719966</v>
       </c>
       <c r="P623">
-        <v>5132</v>
+        <v>5136</v>
       </c>
       <c r="Q623">
-        <v>14028</v>
+        <v>14022</v>
       </c>
       <c r="R623">
         <v>327373</v>
@@ -33445,10 +33445,10 @@
         <v>5601360</v>
       </c>
       <c r="P624">
-        <v>5120</v>
+        <v>5123</v>
       </c>
       <c r="Q624">
-        <v>14036</v>
+        <v>14028</v>
       </c>
       <c r="R624">
         <v>331380</v>
@@ -33501,10 +33501,10 @@
         <v>4741942</v>
       </c>
       <c r="P625">
-        <v>5113</v>
+        <v>5121</v>
       </c>
       <c r="Q625">
-        <v>14070</v>
+        <v>14063</v>
       </c>
       <c r="R625">
         <v>331492</v>
@@ -33557,10 +33557,10 @@
         <v>4097878</v>
       </c>
       <c r="P626">
-        <v>5101</v>
+        <v>5094</v>
       </c>
       <c r="Q626">
-        <v>14100</v>
+        <v>14084</v>
       </c>
       <c r="R626">
         <v>334244</v>
@@ -33613,10 +33613,10 @@
         <v>3603849</v>
       </c>
       <c r="P627">
-        <v>5088</v>
+        <v>5083</v>
       </c>
       <c r="Q627">
-        <v>14120</v>
+        <v>14099</v>
       </c>
       <c r="R627">
         <v>338416</v>
@@ -33669,10 +33669,10 @@
         <v>3163538</v>
       </c>
       <c r="P628">
-        <v>5063</v>
+        <v>5065</v>
       </c>
       <c r="Q628">
-        <v>14137</v>
+        <v>14118</v>
       </c>
       <c r="R628">
         <v>339417</v>
@@ -33725,10 +33725,10 @@
         <v>2880185</v>
       </c>
       <c r="P629">
-        <v>5077</v>
+        <v>5080</v>
       </c>
       <c r="Q629">
-        <v>14153</v>
+        <v>14140</v>
       </c>
       <c r="R629">
         <v>345062</v>
@@ -33781,10 +33781,10 @@
         <v>2635215</v>
       </c>
       <c r="P630">
-        <v>5092</v>
+        <v>5096</v>
       </c>
       <c r="Q630">
-        <v>14162</v>
+        <v>14153</v>
       </c>
       <c r="R630">
         <v>339178</v>
@@ -33837,10 +33837,10 @@
         <v>2407594</v>
       </c>
       <c r="P631">
-        <v>5090</v>
+        <v>5103</v>
       </c>
       <c r="Q631">
-        <v>14169</v>
+        <v>14161</v>
       </c>
       <c r="R631">
         <v>342484</v>
@@ -33893,10 +33893,10 @@
         <v>2234803</v>
       </c>
       <c r="P632">
-        <v>5103</v>
+        <v>5129</v>
       </c>
       <c r="Q632">
-        <v>14215</v>
+        <v>14272</v>
       </c>
       <c r="R632">
         <v>350972</v>
@@ -33949,10 +33949,10 @@
         <v>2079434</v>
       </c>
       <c r="P633">
-        <v>5109</v>
+        <v>5139</v>
       </c>
       <c r="Q633">
-        <v>14257</v>
+        <v>14266</v>
       </c>
       <c r="R633">
         <v>350286</v>
@@ -34005,10 +34005,10 @@
         <v>1876638</v>
       </c>
       <c r="P634">
-        <v>5115</v>
+        <v>5148</v>
       </c>
       <c r="Q634">
-        <v>14255</v>
+        <v>14260</v>
       </c>
       <c r="R634">
         <v>355116</v>
@@ -34061,7 +34061,7 @@
         <v>1684890</v>
       </c>
       <c r="P635">
-        <v>5104</v>
+        <v>5143</v>
       </c>
       <c r="Q635">
         <v>14287</v>
@@ -34117,10 +34117,10 @@
         <v>1586005</v>
       </c>
       <c r="P636">
-        <v>5116</v>
+        <v>5161</v>
       </c>
       <c r="Q636">
-        <v>14335</v>
+        <v>14328</v>
       </c>
       <c r="R636">
         <v>359543</v>
@@ -34173,10 +34173,10 @@
         <v>1518550</v>
       </c>
       <c r="P637">
-        <v>5087</v>
+        <v>5131</v>
       </c>
       <c r="Q637">
-        <v>14370</v>
+        <v>14360</v>
       </c>
       <c r="R637">
         <v>361033</v>
@@ -34229,10 +34229,10 @@
         <v>1481204</v>
       </c>
       <c r="P638">
-        <v>5156</v>
+        <v>5206</v>
       </c>
       <c r="Q638">
-        <v>14408</v>
+        <v>14402</v>
       </c>
       <c r="R638">
         <v>364867</v>
@@ -34285,10 +34285,10 @@
         <v>1460690</v>
       </c>
       <c r="P639">
-        <v>5175</v>
+        <v>5229</v>
       </c>
       <c r="Q639">
-        <v>14435</v>
+        <v>14430</v>
       </c>
       <c r="R639">
         <v>371673</v>
@@ -34341,10 +34341,10 @@
         <v>1422681</v>
       </c>
       <c r="P640">
-        <v>5195</v>
+        <v>5249</v>
       </c>
       <c r="Q640">
-        <v>14464</v>
+        <v>14457</v>
       </c>
       <c r="R640">
         <v>374555</v>
@@ -34397,10 +34397,10 @@
         <v>1446043</v>
       </c>
       <c r="P641">
-        <v>5202</v>
+        <v>5263</v>
       </c>
       <c r="Q641">
-        <v>14491</v>
+        <v>14482</v>
       </c>
       <c r="R641">
         <v>382073</v>
@@ -34453,10 +34453,10 @@
         <v>1476173</v>
       </c>
       <c r="P642">
-        <v>5216</v>
+        <v>5280</v>
       </c>
       <c r="Q642">
-        <v>14494</v>
+        <v>14508</v>
       </c>
       <c r="R642">
         <v>388978</v>
@@ -34509,10 +34509,10 @@
         <v>1505482</v>
       </c>
       <c r="P643">
-        <v>5231</v>
+        <v>5301</v>
       </c>
       <c r="Q643">
-        <v>14492</v>
+        <v>14536</v>
       </c>
       <c r="R643">
         <v>396538</v>
@@ -34565,10 +34565,10 @@
         <v>1557389</v>
       </c>
       <c r="P644">
-        <v>5243</v>
+        <v>5301</v>
       </c>
       <c r="Q644">
-        <v>14561</v>
+        <v>14564</v>
       </c>
       <c r="R644">
         <v>404059</v>
@@ -34621,7 +34621,7 @@
         <v>1594792</v>
       </c>
       <c r="P645">
-        <v>5261</v>
+        <v>5329</v>
       </c>
       <c r="Q645">
         <v>14585</v>
@@ -34677,10 +34677,10 @@
         <v>1633153</v>
       </c>
       <c r="P646">
-        <v>5288</v>
+        <v>5346</v>
       </c>
       <c r="Q646">
-        <v>14616</v>
+        <v>14612</v>
       </c>
       <c r="R646">
         <v>418897</v>
@@ -34691,7 +34691,7 @@
         <v>45230</v>
       </c>
       <c r="B647">
-        <v>888018</v>
+        <v>886874</v>
       </c>
       <c r="C647">
         <v>1567.9</v>
@@ -34733,13 +34733,13 @@
         <v>1688651</v>
       </c>
       <c r="P647">
-        <v>5314</v>
+        <v>5375</v>
       </c>
       <c r="Q647">
-        <v>14644</v>
+        <v>14642</v>
       </c>
       <c r="R647">
-        <v>424368</v>
+        <v>432334</v>
       </c>
     </row>
     <row r="648">
@@ -34747,7 +34747,10 @@
         <v>45260</v>
       </c>
       <c r="B648">
-        <v>1026284</v>
+        <v>1025249</v>
+      </c>
+      <c r="C648">
+        <v>1553.7</v>
       </c>
       <c r="D648">
         <v>390425</v>
@@ -34786,13 +34789,13 @@
         <v>1727644</v>
       </c>
       <c r="P648">
-        <v>5318</v>
+        <v>5383</v>
       </c>
       <c r="Q648">
-        <v>14675</v>
+        <v>14665</v>
       </c>
       <c r="R648">
-        <v>422385</v>
+        <v>435823</v>
       </c>
     </row>
     <row r="649">
@@ -34800,49 +34803,69 @@
         <v>45291</v>
       </c>
       <c r="B649">
-        <v>1152035</v>
+        <v>1158429</v>
+      </c>
+      <c r="C649">
+        <v>1818.4</v>
       </c>
       <c r="D649">
-        <v>464005</v>
+        <v>462927</v>
       </c>
       <c r="E649">
-        <v>152204</v>
+        <v>159304</v>
       </c>
       <c r="F649">
-        <v>7911652</v>
+        <v>8148402</v>
       </c>
       <c r="G649">
-        <v>6250266</v>
+        <v>6418440</v>
       </c>
       <c r="H649">
-        <v>2788844</v>
+        <v>2852132</v>
       </c>
       <c r="I649">
-        <v>453.4</v>
+        <v>452.36</v>
       </c>
       <c r="J649">
-        <v>36.63</v>
+        <v>36.77</v>
       </c>
       <c r="K649">
-        <v>14.73</v>
+        <v>14.76</v>
       </c>
       <c r="L649">
-        <v>438.74</v>
+        <v>438.68</v>
       </c>
       <c r="M649">
-        <v>32610401</v>
+        <v>32673689</v>
       </c>
       <c r="N649">
-        <v>5136511</v>
+        <v>5135433</v>
       </c>
       <c r="O649">
-        <v>1765270</v>
+        <v>1772370</v>
       </c>
       <c r="P649">
-        <v>5326</v>
+        <v>5398</v>
       </c>
       <c r="Q649">
-        <v>14712</v>
+        <v>14700</v>
+      </c>
+      <c r="R649">
+        <v>439670</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="2">
+        <v>45322</v>
+      </c>
+      <c r="C650">
+        <v>2050.7</v>
+      </c>
+      <c r="P650">
+        <v>5408</v>
+      </c>
+      <c r="Q650">
+        <v>14715</v>
       </c>
     </row>
   </sheetData>

--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R650"/>
+  <dimension ref="A1:R651"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4787,10 +4787,10 @@
         <v>13886948</v>
       </c>
       <c r="G98">
-        <v>11076380</v>
+        <v>11076381</v>
       </c>
       <c r="H98">
-        <v>904867</v>
+        <v>904868</v>
       </c>
       <c r="I98">
         <v>84.12</v>
@@ -6592,10 +6592,10 @@
         <v>9516801</v>
       </c>
       <c r="H132">
-        <v>935849</v>
+        <v>935681</v>
       </c>
       <c r="I132">
-        <v>100.75</v>
+        <v>100.73</v>
       </c>
       <c r="J132">
         <v>32.75</v>
@@ -6607,7 +6607,7 @@
         <v>99.05</v>
       </c>
       <c r="M132">
-        <v>14067396</v>
+        <v>14067228</v>
       </c>
       <c r="N132">
         <v>9919645</v>
@@ -6660,7 +6660,7 @@
         <v>99.53</v>
       </c>
       <c r="M133">
-        <v>14469849</v>
+        <v>14469680</v>
       </c>
       <c r="N133">
         <v>9992123</v>
@@ -6713,7 +6713,7 @@
         <v>100.2</v>
       </c>
       <c r="M134">
-        <v>14605484</v>
+        <v>14605315</v>
       </c>
       <c r="N134">
         <v>9946214</v>
@@ -6763,10 +6763,10 @@
         <v>15.11</v>
       </c>
       <c r="L135">
-        <v>100.73</v>
+        <v>100.72</v>
       </c>
       <c r="M135">
-        <v>14690921</v>
+        <v>14690752</v>
       </c>
       <c r="N135">
         <v>9890722</v>
@@ -6819,7 +6819,7 @@
         <v>101.31</v>
       </c>
       <c r="M136">
-        <v>14867380</v>
+        <v>14867211</v>
       </c>
       <c r="N136">
         <v>9919839</v>
@@ -6872,7 +6872,7 @@
         <v>101.83</v>
       </c>
       <c r="M137">
-        <v>14861898</v>
+        <v>14861730</v>
       </c>
       <c r="N137">
         <v>9793604</v>
@@ -6925,7 +6925,7 @@
         <v>102.25</v>
       </c>
       <c r="M138">
-        <v>14671290</v>
+        <v>14671121</v>
       </c>
       <c r="N138">
         <v>9476838</v>
@@ -6978,7 +6978,7 @@
         <v>102.61</v>
       </c>
       <c r="M139">
-        <v>14467515</v>
+        <v>14467346</v>
       </c>
       <c r="N139">
         <v>9214474</v>
@@ -7004,7 +7004,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823698</v>
+        <v>823705</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -7031,10 +7031,10 @@
         <v>103.08</v>
       </c>
       <c r="M140">
-        <v>14132295</v>
+        <v>14132126</v>
       </c>
       <c r="N140">
-        <v>8935534</v>
+        <v>8935541</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -7084,10 +7084,10 @@
         <v>103.59</v>
       </c>
       <c r="M141">
-        <v>13894591</v>
+        <v>13894423</v>
       </c>
       <c r="N141">
-        <v>8782049</v>
+        <v>8782056</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -7137,10 +7137,10 @@
         <v>104.15</v>
       </c>
       <c r="M142">
-        <v>13750498</v>
+        <v>13750329</v>
       </c>
       <c r="N142">
-        <v>8776317</v>
+        <v>8776324</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -7190,10 +7190,10 @@
         <v>104.75</v>
       </c>
       <c r="M143">
-        <v>13622367</v>
+        <v>13622198</v>
       </c>
       <c r="N143">
-        <v>8836759</v>
+        <v>8836766</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -7246,7 +7246,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042567</v>
+        <v>9042574</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -7299,7 +7299,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9395187</v>
+        <v>9395194</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -7352,7 +7352,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9716051</v>
+        <v>9716058</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -7405,7 +7405,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916882</v>
+        <v>9916889</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -7458,7 +7458,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176515</v>
+        <v>10176522</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -7511,7 +7511,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10402096</v>
+        <v>10402103</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -7564,7 +7564,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586496</v>
+        <v>10586503</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -7617,7 +7617,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834409</v>
+        <v>10834416</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -9442,7 +9442,7 @@
         <v>1488338</v>
       </c>
       <c r="D186">
-        <v>590459</v>
+        <v>590463</v>
       </c>
       <c r="E186">
         <v>232183</v>
@@ -9451,13 +9451,13 @@
         <v>10937527</v>
       </c>
       <c r="G186">
-        <v>9818108</v>
+        <v>9818278</v>
       </c>
       <c r="H186">
-        <v>1208955</v>
+        <v>1208850</v>
       </c>
       <c r="I186">
-        <v>127.36</v>
+        <v>127.35</v>
       </c>
       <c r="J186">
         <v>32.49</v>
@@ -9469,10 +9469,10 @@
         <v>125.18</v>
       </c>
       <c r="M186">
-        <v>13889745</v>
+        <v>13889640</v>
       </c>
       <c r="N186">
-        <v>8211264</v>
+        <v>8211268</v>
       </c>
       <c r="O186">
         <v>2510371</v>
@@ -9522,10 +9522,10 @@
         <v>125.48</v>
       </c>
       <c r="M187">
-        <v>13965978</v>
+        <v>13965873</v>
       </c>
       <c r="N187">
-        <v>8231255</v>
+        <v>8231259</v>
       </c>
       <c r="O187">
         <v>2506811</v>
@@ -9575,10 +9575,10 @@
         <v>125.89</v>
       </c>
       <c r="M188">
-        <v>14177211</v>
+        <v>14177106</v>
       </c>
       <c r="N188">
-        <v>8311041</v>
+        <v>8311045</v>
       </c>
       <c r="O188">
         <v>2528409</v>
@@ -9628,10 +9628,10 @@
         <v>126.37</v>
       </c>
       <c r="M189">
-        <v>14260519</v>
+        <v>14260414</v>
       </c>
       <c r="N189">
-        <v>8315401</v>
+        <v>8315405</v>
       </c>
       <c r="O189">
         <v>2521451</v>
@@ -9678,13 +9678,13 @@
         <v>14.06</v>
       </c>
       <c r="L190">
-        <v>126.79</v>
+        <v>126.78</v>
       </c>
       <c r="M190">
-        <v>14422846</v>
+        <v>14422741</v>
       </c>
       <c r="N190">
-        <v>8370982</v>
+        <v>8370986</v>
       </c>
       <c r="O190">
         <v>2540055</v>
@@ -9707,16 +9707,16 @@
         <v>1667576</v>
       </c>
       <c r="D191">
-        <v>573557</v>
+        <v>573560</v>
       </c>
       <c r="E191">
-        <v>207668</v>
+        <v>207669</v>
       </c>
       <c r="F191">
         <v>9966680</v>
       </c>
       <c r="G191">
-        <v>8670591</v>
+        <v>8670637</v>
       </c>
       <c r="H191">
         <v>1073110</v>
@@ -9734,13 +9734,13 @@
         <v>127.14</v>
       </c>
       <c r="M191">
-        <v>14528053</v>
+        <v>14527949</v>
       </c>
       <c r="N191">
-        <v>8368513</v>
+        <v>8368520</v>
       </c>
       <c r="O191">
-        <v>2551079</v>
+        <v>2551080</v>
       </c>
       <c r="P191">
         <v>3864</v>
@@ -9787,13 +9787,13 @@
         <v>127.59</v>
       </c>
       <c r="M192">
-        <v>14532828</v>
+        <v>14532723</v>
       </c>
       <c r="N192">
-        <v>8290087</v>
+        <v>8290094</v>
       </c>
       <c r="O192">
-        <v>2547701</v>
+        <v>2547702</v>
       </c>
       <c r="P192">
         <v>3867</v>
@@ -9840,13 +9840,13 @@
         <v>128.14</v>
       </c>
       <c r="M193">
-        <v>14761352</v>
+        <v>14761247</v>
       </c>
       <c r="N193">
-        <v>8365179</v>
+        <v>8365186</v>
       </c>
       <c r="O193">
-        <v>2572349</v>
+        <v>2572350</v>
       </c>
       <c r="P193">
         <v>3862</v>
@@ -9872,7 +9872,7 @@
         <v>235008</v>
       </c>
       <c r="F194">
-        <v>14729039</v>
+        <v>14729042</v>
       </c>
       <c r="G194">
         <v>13027499</v>
@@ -9893,13 +9893,13 @@
         <v>128.88</v>
       </c>
       <c r="M194">
-        <v>14844032</v>
+        <v>14843928</v>
       </c>
       <c r="N194">
-        <v>8388066</v>
+        <v>8388073</v>
       </c>
       <c r="O194">
-        <v>2570149</v>
+        <v>2570150</v>
       </c>
       <c r="P194">
         <v>3869</v>
@@ -9946,13 +9946,13 @@
         <v>129.54</v>
       </c>
       <c r="M195">
-        <v>14888963</v>
+        <v>14888858</v>
       </c>
       <c r="N195">
-        <v>8325538</v>
+        <v>8325545</v>
       </c>
       <c r="O195">
-        <v>2571038</v>
+        <v>2571039</v>
       </c>
       <c r="P195">
         <v>3875</v>
@@ -9978,7 +9978,7 @@
         <v>219934</v>
       </c>
       <c r="F196">
-        <v>13097762</v>
+        <v>13097763</v>
       </c>
       <c r="G196">
         <v>11730221</v>
@@ -9996,16 +9996,16 @@
         <v>14.32</v>
       </c>
       <c r="L196">
-        <v>130.2</v>
+        <v>130.19</v>
       </c>
       <c r="M196">
-        <v>14967645</v>
+        <v>14967540</v>
       </c>
       <c r="N196">
-        <v>8320034</v>
+        <v>8320041</v>
       </c>
       <c r="O196">
-        <v>2563112</v>
+        <v>2563113</v>
       </c>
       <c r="P196">
         <v>3873</v>
@@ -10052,13 +10052,13 @@
         <v>130.86</v>
       </c>
       <c r="M197">
-        <v>15089789</v>
+        <v>15089684</v>
       </c>
       <c r="N197">
-        <v>8341498</v>
+        <v>8341505</v>
       </c>
       <c r="O197">
-        <v>2566567</v>
+        <v>2566568</v>
       </c>
       <c r="P197">
         <v>3878</v>
@@ -10108,10 +10108,10 @@
         <v>15141559</v>
       </c>
       <c r="N198">
-        <v>8330317</v>
+        <v>8330320</v>
       </c>
       <c r="O198">
-        <v>2567368</v>
+        <v>2567369</v>
       </c>
       <c r="P198">
         <v>3884</v>
@@ -10158,13 +10158,13 @@
         <v>132.19</v>
       </c>
       <c r="M199">
-        <v>15309102</v>
+        <v>15309103</v>
       </c>
       <c r="N199">
-        <v>8356565</v>
+        <v>8356568</v>
       </c>
       <c r="O199">
-        <v>2587918</v>
+        <v>2587919</v>
       </c>
       <c r="P199">
         <v>3887</v>
@@ -10214,10 +10214,10 @@
         <v>15440712</v>
       </c>
       <c r="N200">
-        <v>8350584</v>
+        <v>8350587</v>
       </c>
       <c r="O200">
-        <v>2599969</v>
+        <v>2599970</v>
       </c>
       <c r="P200">
         <v>3886</v>
@@ -10240,7 +10240,7 @@
         <v>649662</v>
       </c>
       <c r="E201">
-        <v>210440</v>
+        <v>210439</v>
       </c>
       <c r="F201">
         <v>10189513</v>
@@ -10267,7 +10267,7 @@
         <v>15510487</v>
       </c>
       <c r="N201">
-        <v>8368327</v>
+        <v>8368330</v>
       </c>
       <c r="O201">
         <v>2605543</v>
@@ -10296,7 +10296,7 @@
         <v>211859</v>
       </c>
       <c r="F202">
-        <v>10071123</v>
+        <v>10071156</v>
       </c>
       <c r="G202">
         <v>8724780</v>
@@ -10317,10 +10317,10 @@
         <v>134.05</v>
       </c>
       <c r="M202">
-        <v>15673796</v>
+        <v>15673797</v>
       </c>
       <c r="N202">
-        <v>8381884</v>
+        <v>8381887</v>
       </c>
       <c r="O202">
         <v>2635460</v>
@@ -10349,7 +10349,7 @@
         <v>223173</v>
       </c>
       <c r="F203">
-        <v>9851284</v>
+        <v>9851297</v>
       </c>
       <c r="G203">
         <v>8695175</v>
@@ -10376,7 +10376,7 @@
         <v>8380544</v>
       </c>
       <c r="O203">
-        <v>2650965</v>
+        <v>2650964</v>
       </c>
       <c r="P203">
         <v>3915</v>
@@ -10429,7 +10429,7 @@
         <v>8330361</v>
       </c>
       <c r="O204">
-        <v>2658787</v>
+        <v>2658786</v>
       </c>
       <c r="P204">
         <v>3927</v>
@@ -10482,7 +10482,7 @@
         <v>8360752</v>
       </c>
       <c r="O205">
-        <v>2687336</v>
+        <v>2687335</v>
       </c>
       <c r="P205">
         <v>3938</v>
@@ -10535,7 +10535,7 @@
         <v>8190399</v>
       </c>
       <c r="O206">
-        <v>2682390</v>
+        <v>2682389</v>
       </c>
       <c r="P206">
         <v>3943</v>
@@ -10588,7 +10588,7 @@
         <v>8167954</v>
       </c>
       <c r="O207">
-        <v>2694741</v>
+        <v>2694740</v>
       </c>
       <c r="P207">
         <v>3943</v>
@@ -10641,7 +10641,7 @@
         <v>8133267</v>
       </c>
       <c r="O208">
-        <v>2719324</v>
+        <v>2719323</v>
       </c>
       <c r="P208">
         <v>3945</v>
@@ -10694,7 +10694,7 @@
         <v>8038963</v>
       </c>
       <c r="O209">
-        <v>2707766</v>
+        <v>2707765</v>
       </c>
       <c r="P209">
         <v>3954</v>
@@ -10747,7 +10747,7 @@
         <v>7908330</v>
       </c>
       <c r="O210">
-        <v>2680331</v>
+        <v>2680330</v>
       </c>
       <c r="P210">
         <v>3955</v>
@@ -10800,7 +10800,7 @@
         <v>7873641</v>
       </c>
       <c r="O211">
-        <v>2671973</v>
+        <v>2671972</v>
       </c>
       <c r="P211">
         <v>3950</v>
@@ -10853,7 +10853,7 @@
         <v>7781838</v>
       </c>
       <c r="O212">
-        <v>2637233</v>
+        <v>2637232</v>
       </c>
       <c r="P212">
         <v>3967</v>
@@ -11886,7 +11886,7 @@
         <v>176192</v>
       </c>
       <c r="F232">
-        <v>11589009</v>
+        <v>11589008</v>
       </c>
       <c r="G232">
         <v>10451849</v>
@@ -33297,10 +33297,10 @@
         <v>2479.4</v>
       </c>
       <c r="D622">
-        <v>478045</v>
+        <v>481449</v>
       </c>
       <c r="E622">
-        <v>305612</v>
+        <v>307606</v>
       </c>
       <c r="F622">
         <v>10026882</v>
@@ -33309,7 +33309,7 @@
         <v>8091977</v>
       </c>
       <c r="H622">
-        <v>2683520</v>
+        <v>2691144</v>
       </c>
       <c r="I622">
         <v>352.04</v>
@@ -33318,19 +33318,19 @@
         <v>29.08</v>
       </c>
       <c r="K622">
-        <v>20.98</v>
+        <v>20.97</v>
       </c>
       <c r="L622">
-        <v>340.1</v>
+        <v>340.08</v>
       </c>
       <c r="M622">
-        <v>58985486</v>
+        <v>58993111</v>
       </c>
       <c r="N622">
-        <v>8911033</v>
+        <v>8914437</v>
       </c>
       <c r="O622">
-        <v>8847971</v>
+        <v>8849965</v>
       </c>
       <c r="P622">
         <v>5141</v>
@@ -33371,22 +33371,22 @@
         <v>350.24</v>
       </c>
       <c r="J623">
-        <v>34.87</v>
+        <v>34.88</v>
       </c>
       <c r="K623">
-        <v>19.46</v>
+        <v>19.45</v>
       </c>
       <c r="L623">
-        <v>344.45</v>
+        <v>344.43</v>
       </c>
       <c r="M623">
-        <v>52913702</v>
+        <v>52921327</v>
       </c>
       <c r="N623">
-        <v>8503869</v>
+        <v>8507273</v>
       </c>
       <c r="O623">
-        <v>6719966</v>
+        <v>6721960</v>
       </c>
       <c r="P623">
         <v>5136</v>
@@ -33427,22 +33427,22 @@
         <v>364.68</v>
       </c>
       <c r="J624">
-        <v>39.27</v>
+        <v>39.28</v>
       </c>
       <c r="K624">
         <v>18.54</v>
       </c>
       <c r="L624">
-        <v>347.33</v>
+        <v>347.31</v>
       </c>
       <c r="M624">
-        <v>48456932</v>
+        <v>48464556</v>
       </c>
       <c r="N624">
-        <v>8091688</v>
+        <v>8095092</v>
       </c>
       <c r="O624">
-        <v>5601360</v>
+        <v>5603354</v>
       </c>
       <c r="P624">
         <v>5123</v>
@@ -33483,22 +33483,22 @@
         <v>376.45</v>
       </c>
       <c r="J625">
-        <v>40.31</v>
+        <v>40.32</v>
       </c>
       <c r="K625">
-        <v>17.8</v>
+        <v>17.79</v>
       </c>
       <c r="L625">
-        <v>349.78</v>
+        <v>349.76</v>
       </c>
       <c r="M625">
-        <v>44259956</v>
+        <v>44267580</v>
       </c>
       <c r="N625">
-        <v>7631462</v>
+        <v>7634866</v>
       </c>
       <c r="O625">
-        <v>4741942</v>
+        <v>4743936</v>
       </c>
       <c r="P625">
         <v>5121</v>
@@ -33539,22 +33539,22 @@
         <v>390.25</v>
       </c>
       <c r="J626">
-        <v>40.18</v>
+        <v>40.2</v>
       </c>
       <c r="K626">
         <v>17.28</v>
       </c>
       <c r="L626">
-        <v>352.67</v>
+        <v>352.64</v>
       </c>
       <c r="M626">
-        <v>41276761</v>
+        <v>41284386</v>
       </c>
       <c r="N626">
-        <v>7250472</v>
+        <v>7253876</v>
       </c>
       <c r="O626">
-        <v>4097878</v>
+        <v>4099872</v>
       </c>
       <c r="P626">
         <v>5094</v>
@@ -33595,22 +33595,22 @@
         <v>399.95</v>
       </c>
       <c r="J627">
-        <v>38.57</v>
+        <v>38.59</v>
       </c>
       <c r="K627">
         <v>16.82</v>
       </c>
       <c r="L627">
-        <v>355.82</v>
+        <v>355.79</v>
       </c>
       <c r="M627">
-        <v>38624133</v>
+        <v>38631758</v>
       </c>
       <c r="N627">
-        <v>6876981</v>
+        <v>6880385</v>
       </c>
       <c r="O627">
-        <v>3603849</v>
+        <v>3605843</v>
       </c>
       <c r="P627">
         <v>5083</v>
@@ -33651,22 +33651,22 @@
         <v>407.98</v>
       </c>
       <c r="J628">
-        <v>35.5</v>
+        <v>35.51</v>
       </c>
       <c r="K628">
         <v>16.51</v>
       </c>
       <c r="L628">
-        <v>359.78</v>
+        <v>359.74</v>
       </c>
       <c r="M628">
-        <v>35818386</v>
+        <v>35826011</v>
       </c>
       <c r="N628">
-        <v>6397086</v>
+        <v>6400490</v>
       </c>
       <c r="O628">
-        <v>3163538</v>
+        <v>3165532</v>
       </c>
       <c r="P628">
         <v>5065</v>
@@ -33707,22 +33707,22 @@
         <v>403.99</v>
       </c>
       <c r="J629">
-        <v>33.87</v>
+        <v>33.88</v>
       </c>
       <c r="K629">
         <v>17.38</v>
       </c>
       <c r="L629">
-        <v>363.43</v>
+        <v>363.39</v>
       </c>
       <c r="M629">
-        <v>33636671</v>
+        <v>33644296</v>
       </c>
       <c r="N629">
-        <v>5635512</v>
+        <v>5638916</v>
       </c>
       <c r="O629">
-        <v>2880185</v>
+        <v>2882179</v>
       </c>
       <c r="P629">
         <v>5080</v>
@@ -33763,22 +33763,22 @@
         <v>397.16</v>
       </c>
       <c r="J630">
-        <v>32.57</v>
+        <v>32.58</v>
       </c>
       <c r="K630">
         <v>17.39</v>
       </c>
       <c r="L630">
-        <v>367.89</v>
+        <v>367.85</v>
       </c>
       <c r="M630">
-        <v>31534221</v>
+        <v>31541846</v>
       </c>
       <c r="N630">
-        <v>5196379</v>
+        <v>5199783</v>
       </c>
       <c r="O630">
-        <v>2635215</v>
+        <v>2637209</v>
       </c>
       <c r="P630">
         <v>5096</v>
@@ -33819,22 +33819,22 @@
         <v>394.65</v>
       </c>
       <c r="J631">
-        <v>31.55</v>
+        <v>31.56</v>
       </c>
       <c r="K631">
         <v>16.92</v>
       </c>
       <c r="L631">
-        <v>372.77</v>
+        <v>372.72</v>
       </c>
       <c r="M631">
-        <v>29240156</v>
+        <v>29247780</v>
       </c>
       <c r="N631">
-        <v>4865258</v>
+        <v>4868662</v>
       </c>
       <c r="O631">
-        <v>2407594</v>
+        <v>2409588</v>
       </c>
       <c r="P631">
         <v>5103</v>
@@ -33875,22 +33875,22 @@
         <v>383.98</v>
       </c>
       <c r="J632">
-        <v>30.82</v>
+        <v>30.84</v>
       </c>
       <c r="K632">
         <v>16.42</v>
       </c>
       <c r="L632">
-        <v>377.44</v>
+        <v>377.39</v>
       </c>
       <c r="M632">
-        <v>27537822</v>
+        <v>27545447</v>
       </c>
       <c r="N632">
-        <v>4641621</v>
+        <v>4645025</v>
       </c>
       <c r="O632">
-        <v>2234803</v>
+        <v>2236797</v>
       </c>
       <c r="P632">
         <v>5129</v>
@@ -33931,22 +33931,22 @@
         <v>390.7</v>
       </c>
       <c r="J633">
-        <v>30.24</v>
+        <v>30.25</v>
       </c>
       <c r="K633">
         <v>15.62</v>
       </c>
       <c r="L633">
-        <v>382.69</v>
+        <v>382.63</v>
       </c>
       <c r="M633">
-        <v>26108626</v>
+        <v>26116251</v>
       </c>
       <c r="N633">
-        <v>4537767</v>
+        <v>4541171</v>
       </c>
       <c r="O633">
-        <v>2079434</v>
+        <v>2081428</v>
       </c>
       <c r="P633">
         <v>5139</v>
@@ -33987,7 +33987,7 @@
         <v>404.1</v>
       </c>
       <c r="J634">
-        <v>29.34</v>
+        <v>29.32</v>
       </c>
       <c r="K634">
         <v>15.41</v>
@@ -34043,7 +34043,7 @@
         <v>406.33</v>
       </c>
       <c r="J635">
-        <v>29.9</v>
+        <v>29.88</v>
       </c>
       <c r="K635">
         <v>15.05</v>
@@ -34099,7 +34099,7 @@
         <v>417.45</v>
       </c>
       <c r="J636">
-        <v>30.52</v>
+        <v>30.5</v>
       </c>
       <c r="K636">
         <v>14.54</v>
@@ -34155,7 +34155,7 @@
         <v>422.41</v>
       </c>
       <c r="J637">
-        <v>31.21</v>
+        <v>31.19</v>
       </c>
       <c r="K637">
         <v>14.22</v>
@@ -34211,7 +34211,7 @@
         <v>430.24</v>
       </c>
       <c r="J638">
-        <v>31.91</v>
+        <v>31.89</v>
       </c>
       <c r="K638">
         <v>13.91</v>
@@ -34267,7 +34267,7 @@
         <v>437.6</v>
       </c>
       <c r="J639">
-        <v>32.19</v>
+        <v>32.17</v>
       </c>
       <c r="K639">
         <v>13.75</v>
@@ -34691,7 +34691,7 @@
         <v>45230</v>
       </c>
       <c r="B647">
-        <v>886874</v>
+        <v>886888</v>
       </c>
       <c r="C647">
         <v>1567.9</v>
@@ -34703,7 +34703,7 @@
         <v>169726</v>
       </c>
       <c r="F647">
-        <v>7434123</v>
+        <v>7434462</v>
       </c>
       <c r="G647">
         <v>6116644</v>
@@ -34759,7 +34759,7 @@
         <v>151099</v>
       </c>
       <c r="F648">
-        <v>6840473</v>
+        <v>6834458</v>
       </c>
       <c r="G648">
         <v>5684541</v>
@@ -34795,7 +34795,7 @@
         <v>14665</v>
       </c>
       <c r="R648">
-        <v>435823</v>
+        <v>440095</v>
       </c>
     </row>
     <row r="649">
@@ -34803,25 +34803,25 @@
         <v>45291</v>
       </c>
       <c r="B649">
-        <v>1158429</v>
+        <v>1158534</v>
       </c>
       <c r="C649">
         <v>1818.4</v>
       </c>
       <c r="D649">
-        <v>462927</v>
+        <v>463070</v>
       </c>
       <c r="E649">
-        <v>159304</v>
+        <v>159299</v>
       </c>
       <c r="F649">
-        <v>8148402</v>
+        <v>8153979</v>
       </c>
       <c r="G649">
-        <v>6418440</v>
+        <v>6419891</v>
       </c>
       <c r="H649">
-        <v>2852132</v>
+        <v>2852757</v>
       </c>
       <c r="I649">
         <v>452.36</v>
@@ -34836,36 +34836,128 @@
         <v>438.68</v>
       </c>
       <c r="M649">
-        <v>32673689</v>
+        <v>32674314</v>
       </c>
       <c r="N649">
-        <v>5135433</v>
+        <v>5135576</v>
       </c>
       <c r="O649">
-        <v>1772370</v>
+        <v>1772365</v>
       </c>
       <c r="P649">
-        <v>5398</v>
+        <v>5404</v>
       </c>
       <c r="Q649">
-        <v>14700</v>
+        <v>14711</v>
       </c>
       <c r="R649">
-        <v>439670</v>
+        <v>446948</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="2">
         <v>45322</v>
       </c>
+      <c r="B650">
+        <v>1249992</v>
+      </c>
       <c r="C650">
         <v>2050.7</v>
       </c>
+      <c r="D650">
+        <v>676831</v>
+      </c>
+      <c r="E650">
+        <v>184513</v>
+      </c>
+      <c r="F650">
+        <v>9546269</v>
+      </c>
+      <c r="G650">
+        <v>8372902</v>
+      </c>
+      <c r="H650">
+        <v>3777907</v>
+      </c>
+      <c r="I650">
+        <v>459.14</v>
+      </c>
+      <c r="J650">
+        <v>36.92</v>
+      </c>
+      <c r="K650">
+        <v>14.89</v>
+      </c>
+      <c r="L650">
+        <v>441.73</v>
+      </c>
+      <c r="M650">
+        <v>33335299</v>
+      </c>
+      <c r="N650">
+        <v>5161803</v>
+      </c>
+      <c r="O650">
+        <v>1816522</v>
+      </c>
       <c r="P650">
-        <v>5408</v>
+        <v>5423</v>
       </c>
       <c r="Q650">
-        <v>14715</v>
+        <v>14732</v>
+      </c>
+      <c r="R650">
+        <v>442475</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="2">
+        <v>45351</v>
+      </c>
+      <c r="B651">
+        <v>878730</v>
+      </c>
+      <c r="D651">
+        <v>489893</v>
+      </c>
+      <c r="E651">
+        <v>155281</v>
+      </c>
+      <c r="F651">
+        <v>8517536</v>
+      </c>
+      <c r="G651">
+        <v>7380472</v>
+      </c>
+      <c r="H651">
+        <v>3332499</v>
+      </c>
+      <c r="I651">
+        <v>459.69</v>
+      </c>
+      <c r="J651">
+        <v>37.17</v>
+      </c>
+      <c r="K651">
+        <v>14.98</v>
+      </c>
+      <c r="L651">
+        <v>443.79</v>
+      </c>
+      <c r="M651">
+        <v>33847539</v>
+      </c>
+      <c r="N651">
+        <v>5184475</v>
+      </c>
+      <c r="O651">
+        <v>1853140</v>
+      </c>
+      <c r="P651">
+        <v>5428</v>
+      </c>
+      <c r="Q651">
+        <v>14770</v>
       </c>
     </row>
   </sheetData>

--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R651"/>
+  <dimension ref="A1:R652"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4784,10 +4784,10 @@
         <v>210660</v>
       </c>
       <c r="F98">
-        <v>13886948</v>
+        <v>13886949</v>
       </c>
       <c r="G98">
-        <v>11076381</v>
+        <v>11076382</v>
       </c>
       <c r="H98">
         <v>904868</v>
@@ -4805,7 +4805,7 @@
         <v>79.33</v>
       </c>
       <c r="M98">
-        <v>8643089</v>
+        <v>8643090</v>
       </c>
       <c r="N98">
         <v>7816720</v>
@@ -5123,7 +5123,7 @@
         <v>82.12</v>
       </c>
       <c r="M104">
-        <v>8353739</v>
+        <v>8353740</v>
       </c>
       <c r="N104">
         <v>7610967</v>
@@ -5335,7 +5335,7 @@
         <v>83.3</v>
       </c>
       <c r="M108">
-        <v>8263903</v>
+        <v>8263904</v>
       </c>
       <c r="N108">
         <v>7603593</v>
@@ -7004,7 +7004,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823705</v>
+        <v>823714</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -7034,7 +7034,7 @@
         <v>14132126</v>
       </c>
       <c r="N140">
-        <v>8935541</v>
+        <v>8935550</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -7087,7 +7087,7 @@
         <v>13894423</v>
       </c>
       <c r="N141">
-        <v>8782056</v>
+        <v>8782065</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -7140,7 +7140,7 @@
         <v>13750329</v>
       </c>
       <c r="N142">
-        <v>8776324</v>
+        <v>8776333</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -7193,7 +7193,7 @@
         <v>13622198</v>
       </c>
       <c r="N143">
-        <v>8836766</v>
+        <v>8836775</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -7246,7 +7246,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042574</v>
+        <v>9042583</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -7299,7 +7299,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9395194</v>
+        <v>9395203</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -7352,7 +7352,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9716058</v>
+        <v>9716067</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -7405,7 +7405,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916889</v>
+        <v>9916898</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -7458,7 +7458,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176522</v>
+        <v>10176531</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -7511,7 +7511,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10402103</v>
+        <v>10402112</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -7564,7 +7564,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586503</v>
+        <v>10586512</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -7617,7 +7617,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834416</v>
+        <v>10834425</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -7870,7 +7870,7 @@
         <v>123.46</v>
       </c>
       <c r="J156">
-        <v>37.94</v>
+        <v>37.93</v>
       </c>
       <c r="K156">
         <v>15.57</v>
@@ -9707,19 +9707,19 @@
         <v>1667576</v>
       </c>
       <c r="D191">
-        <v>573560</v>
+        <v>573564</v>
       </c>
       <c r="E191">
-        <v>207669</v>
+        <v>207671</v>
       </c>
       <c r="F191">
         <v>9966680</v>
       </c>
       <c r="G191">
-        <v>8670637</v>
+        <v>8670689</v>
       </c>
       <c r="H191">
-        <v>1073110</v>
+        <v>1073112</v>
       </c>
       <c r="I191">
         <v>128.59</v>
@@ -9734,13 +9734,13 @@
         <v>127.14</v>
       </c>
       <c r="M191">
-        <v>14527949</v>
+        <v>14527950</v>
       </c>
       <c r="N191">
-        <v>8368520</v>
+        <v>8368524</v>
       </c>
       <c r="O191">
-        <v>2551080</v>
+        <v>2551082</v>
       </c>
       <c r="P191">
         <v>3864</v>
@@ -9787,13 +9787,13 @@
         <v>127.59</v>
       </c>
       <c r="M192">
-        <v>14532723</v>
+        <v>14532725</v>
       </c>
       <c r="N192">
-        <v>8290094</v>
+        <v>8290098</v>
       </c>
       <c r="O192">
-        <v>2547702</v>
+        <v>2547704</v>
       </c>
       <c r="P192">
         <v>3867</v>
@@ -9840,13 +9840,13 @@
         <v>128.14</v>
       </c>
       <c r="M193">
-        <v>14761247</v>
+        <v>14761249</v>
       </c>
       <c r="N193">
-        <v>8365186</v>
+        <v>8365190</v>
       </c>
       <c r="O193">
-        <v>2572350</v>
+        <v>2572352</v>
       </c>
       <c r="P193">
         <v>3862</v>
@@ -9872,7 +9872,7 @@
         <v>235008</v>
       </c>
       <c r="F194">
-        <v>14729042</v>
+        <v>14729044</v>
       </c>
       <c r="G194">
         <v>13027499</v>
@@ -9893,13 +9893,13 @@
         <v>128.88</v>
       </c>
       <c r="M194">
-        <v>14843928</v>
+        <v>14843930</v>
       </c>
       <c r="N194">
-        <v>8388073</v>
+        <v>8388077</v>
       </c>
       <c r="O194">
-        <v>2570150</v>
+        <v>2570152</v>
       </c>
       <c r="P194">
         <v>3869</v>
@@ -9946,13 +9946,13 @@
         <v>129.54</v>
       </c>
       <c r="M195">
-        <v>14888858</v>
+        <v>14888860</v>
       </c>
       <c r="N195">
-        <v>8325545</v>
+        <v>8325549</v>
       </c>
       <c r="O195">
-        <v>2571039</v>
+        <v>2571041</v>
       </c>
       <c r="P195">
         <v>3875</v>
@@ -9978,7 +9978,7 @@
         <v>219934</v>
       </c>
       <c r="F196">
-        <v>13097763</v>
+        <v>13097747</v>
       </c>
       <c r="G196">
         <v>11730221</v>
@@ -9999,13 +9999,13 @@
         <v>130.19</v>
       </c>
       <c r="M196">
-        <v>14967540</v>
+        <v>14967542</v>
       </c>
       <c r="N196">
-        <v>8320041</v>
+        <v>8320045</v>
       </c>
       <c r="O196">
-        <v>2563113</v>
+        <v>2563115</v>
       </c>
       <c r="P196">
         <v>3873</v>
@@ -10052,13 +10052,13 @@
         <v>130.86</v>
       </c>
       <c r="M197">
-        <v>15089684</v>
+        <v>15089686</v>
       </c>
       <c r="N197">
-        <v>8341505</v>
+        <v>8341509</v>
       </c>
       <c r="O197">
-        <v>2566568</v>
+        <v>2566570</v>
       </c>
       <c r="P197">
         <v>3878</v>
@@ -10105,13 +10105,13 @@
         <v>131.55</v>
       </c>
       <c r="M198">
-        <v>15141559</v>
+        <v>15141561</v>
       </c>
       <c r="N198">
-        <v>8330320</v>
+        <v>8330324</v>
       </c>
       <c r="O198">
-        <v>2567369</v>
+        <v>2567371</v>
       </c>
       <c r="P198">
         <v>3884</v>
@@ -10137,7 +10137,7 @@
         <v>214626</v>
       </c>
       <c r="F199">
-        <v>10187292</v>
+        <v>10187293</v>
       </c>
       <c r="G199">
         <v>9028611</v>
@@ -10158,13 +10158,13 @@
         <v>132.19</v>
       </c>
       <c r="M199">
-        <v>15309103</v>
+        <v>15309105</v>
       </c>
       <c r="N199">
-        <v>8356568</v>
+        <v>8356572</v>
       </c>
       <c r="O199">
-        <v>2587919</v>
+        <v>2587921</v>
       </c>
       <c r="P199">
         <v>3887</v>
@@ -10211,13 +10211,13 @@
         <v>132.87</v>
       </c>
       <c r="M200">
-        <v>15440712</v>
+        <v>15440714</v>
       </c>
       <c r="N200">
-        <v>8350587</v>
+        <v>8350591</v>
       </c>
       <c r="O200">
-        <v>2599970</v>
+        <v>2599972</v>
       </c>
       <c r="P200">
         <v>3886</v>
@@ -10264,13 +10264,13 @@
         <v>133.49</v>
       </c>
       <c r="M201">
-        <v>15510487</v>
+        <v>15510489</v>
       </c>
       <c r="N201">
-        <v>8368330</v>
+        <v>8368334</v>
       </c>
       <c r="O201">
-        <v>2605543</v>
+        <v>2605545</v>
       </c>
       <c r="P201">
         <v>3887</v>
@@ -10296,7 +10296,7 @@
         <v>211859</v>
       </c>
       <c r="F202">
-        <v>10071156</v>
+        <v>10071161</v>
       </c>
       <c r="G202">
         <v>8724780</v>
@@ -10314,16 +10314,16 @@
         <v>14.46</v>
       </c>
       <c r="L202">
-        <v>134.05</v>
+        <v>134.04</v>
       </c>
       <c r="M202">
-        <v>15673797</v>
+        <v>15673799</v>
       </c>
       <c r="N202">
-        <v>8381887</v>
+        <v>8381891</v>
       </c>
       <c r="O202">
-        <v>2635460</v>
+        <v>2635462</v>
       </c>
       <c r="P202">
         <v>3895</v>
@@ -10349,7 +10349,7 @@
         <v>223173</v>
       </c>
       <c r="F203">
-        <v>9851297</v>
+        <v>9851303</v>
       </c>
       <c r="G203">
         <v>8695175</v>
@@ -11877,7 +11877,7 @@
         <v>32598</v>
       </c>
       <c r="B232">
-        <v>1361148</v>
+        <v>1361125</v>
       </c>
       <c r="D232">
         <v>652549</v>
@@ -11886,7 +11886,7 @@
         <v>176192</v>
       </c>
       <c r="F232">
-        <v>11589008</v>
+        <v>11588933</v>
       </c>
       <c r="G232">
         <v>10451849</v>
@@ -33297,10 +33297,10 @@
         <v>2479.4</v>
       </c>
       <c r="D622">
-        <v>481449</v>
+        <v>478045</v>
       </c>
       <c r="E622">
-        <v>307606</v>
+        <v>305612</v>
       </c>
       <c r="F622">
         <v>10026882</v>
@@ -33309,7 +33309,7 @@
         <v>8091977</v>
       </c>
       <c r="H622">
-        <v>2691144</v>
+        <v>2683520</v>
       </c>
       <c r="I622">
         <v>352.04</v>
@@ -33318,19 +33318,19 @@
         <v>29.08</v>
       </c>
       <c r="K622">
-        <v>20.97</v>
+        <v>20.98</v>
       </c>
       <c r="L622">
-        <v>340.08</v>
+        <v>340.1</v>
       </c>
       <c r="M622">
-        <v>58993111</v>
+        <v>58985486</v>
       </c>
       <c r="N622">
-        <v>8914437</v>
+        <v>8911033</v>
       </c>
       <c r="O622">
-        <v>8849965</v>
+        <v>8847971</v>
       </c>
       <c r="P622">
         <v>5141</v>
@@ -33371,22 +33371,22 @@
         <v>350.24</v>
       </c>
       <c r="J623">
-        <v>34.88</v>
+        <v>34.87</v>
       </c>
       <c r="K623">
-        <v>19.45</v>
+        <v>19.46</v>
       </c>
       <c r="L623">
-        <v>344.43</v>
+        <v>344.45</v>
       </c>
       <c r="M623">
-        <v>52921327</v>
+        <v>52913702</v>
       </c>
       <c r="N623">
-        <v>8507273</v>
+        <v>8503869</v>
       </c>
       <c r="O623">
-        <v>6721960</v>
+        <v>6719966</v>
       </c>
       <c r="P623">
         <v>5136</v>
@@ -33427,22 +33427,22 @@
         <v>364.68</v>
       </c>
       <c r="J624">
-        <v>39.28</v>
+        <v>39.27</v>
       </c>
       <c r="K624">
         <v>18.54</v>
       </c>
       <c r="L624">
-        <v>347.31</v>
+        <v>347.33</v>
       </c>
       <c r="M624">
-        <v>48464556</v>
+        <v>48456932</v>
       </c>
       <c r="N624">
-        <v>8095092</v>
+        <v>8091688</v>
       </c>
       <c r="O624">
-        <v>5603354</v>
+        <v>5601360</v>
       </c>
       <c r="P624">
         <v>5123</v>
@@ -33483,22 +33483,22 @@
         <v>376.45</v>
       </c>
       <c r="J625">
-        <v>40.32</v>
+        <v>40.31</v>
       </c>
       <c r="K625">
-        <v>17.79</v>
+        <v>17.8</v>
       </c>
       <c r="L625">
-        <v>349.76</v>
+        <v>349.78</v>
       </c>
       <c r="M625">
-        <v>44267580</v>
+        <v>44259956</v>
       </c>
       <c r="N625">
-        <v>7634866</v>
+        <v>7631462</v>
       </c>
       <c r="O625">
-        <v>4743936</v>
+        <v>4741942</v>
       </c>
       <c r="P625">
         <v>5121</v>
@@ -33539,22 +33539,22 @@
         <v>390.25</v>
       </c>
       <c r="J626">
-        <v>40.2</v>
+        <v>40.18</v>
       </c>
       <c r="K626">
         <v>17.28</v>
       </c>
       <c r="L626">
-        <v>352.64</v>
+        <v>352.67</v>
       </c>
       <c r="M626">
-        <v>41284386</v>
+        <v>41276761</v>
       </c>
       <c r="N626">
-        <v>7253876</v>
+        <v>7250472</v>
       </c>
       <c r="O626">
-        <v>4099872</v>
+        <v>4097878</v>
       </c>
       <c r="P626">
         <v>5094</v>
@@ -33595,22 +33595,22 @@
         <v>399.95</v>
       </c>
       <c r="J627">
-        <v>38.59</v>
+        <v>38.57</v>
       </c>
       <c r="K627">
         <v>16.82</v>
       </c>
       <c r="L627">
-        <v>355.79</v>
+        <v>355.82</v>
       </c>
       <c r="M627">
-        <v>38631758</v>
+        <v>38624133</v>
       </c>
       <c r="N627">
-        <v>6880385</v>
+        <v>6876981</v>
       </c>
       <c r="O627">
-        <v>3605843</v>
+        <v>3603849</v>
       </c>
       <c r="P627">
         <v>5083</v>
@@ -33651,22 +33651,22 @@
         <v>407.98</v>
       </c>
       <c r="J628">
-        <v>35.51</v>
+        <v>35.5</v>
       </c>
       <c r="K628">
         <v>16.51</v>
       </c>
       <c r="L628">
-        <v>359.74</v>
+        <v>359.78</v>
       </c>
       <c r="M628">
-        <v>35826011</v>
+        <v>35818386</v>
       </c>
       <c r="N628">
-        <v>6400490</v>
+        <v>6397086</v>
       </c>
       <c r="O628">
-        <v>3165532</v>
+        <v>3163538</v>
       </c>
       <c r="P628">
         <v>5065</v>
@@ -33707,22 +33707,22 @@
         <v>403.99</v>
       </c>
       <c r="J629">
-        <v>33.88</v>
+        <v>33.87</v>
       </c>
       <c r="K629">
         <v>17.38</v>
       </c>
       <c r="L629">
-        <v>363.39</v>
+        <v>363.43</v>
       </c>
       <c r="M629">
-        <v>33644296</v>
+        <v>33636671</v>
       </c>
       <c r="N629">
-        <v>5638916</v>
+        <v>5635512</v>
       </c>
       <c r="O629">
-        <v>2882179</v>
+        <v>2880185</v>
       </c>
       <c r="P629">
         <v>5080</v>
@@ -33763,22 +33763,22 @@
         <v>397.16</v>
       </c>
       <c r="J630">
-        <v>32.58</v>
+        <v>32.57</v>
       </c>
       <c r="K630">
         <v>17.39</v>
       </c>
       <c r="L630">
-        <v>367.85</v>
+        <v>367.89</v>
       </c>
       <c r="M630">
-        <v>31541846</v>
+        <v>31534221</v>
       </c>
       <c r="N630">
-        <v>5199783</v>
+        <v>5196379</v>
       </c>
       <c r="O630">
-        <v>2637209</v>
+        <v>2635215</v>
       </c>
       <c r="P630">
         <v>5096</v>
@@ -33798,7 +33798,7 @@
         <v>936213</v>
       </c>
       <c r="C631">
-        <v>1297.8</v>
+        <v>1297.2</v>
       </c>
       <c r="D631">
         <v>327875</v>
@@ -33819,22 +33819,22 @@
         <v>394.65</v>
       </c>
       <c r="J631">
-        <v>31.56</v>
+        <v>31.55</v>
       </c>
       <c r="K631">
         <v>16.92</v>
       </c>
       <c r="L631">
-        <v>372.72</v>
+        <v>372.77</v>
       </c>
       <c r="M631">
-        <v>29247780</v>
+        <v>29240156</v>
       </c>
       <c r="N631">
-        <v>4868662</v>
+        <v>4865258</v>
       </c>
       <c r="O631">
-        <v>2409588</v>
+        <v>2407594</v>
       </c>
       <c r="P631">
         <v>5103</v>
@@ -33875,22 +33875,22 @@
         <v>383.98</v>
       </c>
       <c r="J632">
-        <v>30.84</v>
+        <v>30.82</v>
       </c>
       <c r="K632">
         <v>16.42</v>
       </c>
       <c r="L632">
-        <v>377.39</v>
+        <v>377.44</v>
       </c>
       <c r="M632">
-        <v>27545447</v>
+        <v>27537822</v>
       </c>
       <c r="N632">
-        <v>4645025</v>
+        <v>4641621</v>
       </c>
       <c r="O632">
-        <v>2236797</v>
+        <v>2234803</v>
       </c>
       <c r="P632">
         <v>5129</v>
@@ -33931,22 +33931,22 @@
         <v>390.7</v>
       </c>
       <c r="J633">
-        <v>30.25</v>
+        <v>30.24</v>
       </c>
       <c r="K633">
         <v>15.62</v>
       </c>
       <c r="L633">
-        <v>382.63</v>
+        <v>382.69</v>
       </c>
       <c r="M633">
-        <v>26116251</v>
+        <v>26108626</v>
       </c>
       <c r="N633">
-        <v>4541171</v>
+        <v>4537767</v>
       </c>
       <c r="O633">
-        <v>2081428</v>
+        <v>2079434</v>
       </c>
       <c r="P633">
         <v>5139</v>
@@ -33987,7 +33987,7 @@
         <v>404.1</v>
       </c>
       <c r="J634">
-        <v>29.32</v>
+        <v>29.34</v>
       </c>
       <c r="K634">
         <v>15.41</v>
@@ -34043,7 +34043,7 @@
         <v>406.33</v>
       </c>
       <c r="J635">
-        <v>29.88</v>
+        <v>29.9</v>
       </c>
       <c r="K635">
         <v>15.05</v>
@@ -34099,7 +34099,7 @@
         <v>417.45</v>
       </c>
       <c r="J636">
-        <v>30.5</v>
+        <v>30.52</v>
       </c>
       <c r="K636">
         <v>14.54</v>
@@ -34155,7 +34155,7 @@
         <v>422.41</v>
       </c>
       <c r="J637">
-        <v>31.19</v>
+        <v>31.21</v>
       </c>
       <c r="K637">
         <v>14.22</v>
@@ -34211,7 +34211,7 @@
         <v>430.24</v>
       </c>
       <c r="J638">
-        <v>31.89</v>
+        <v>31.91</v>
       </c>
       <c r="K638">
         <v>13.91</v>
@@ -34267,7 +34267,7 @@
         <v>437.6</v>
       </c>
       <c r="J639">
-        <v>32.17</v>
+        <v>32.19</v>
       </c>
       <c r="K639">
         <v>13.75</v>
@@ -34851,7 +34851,7 @@
         <v>14711</v>
       </c>
       <c r="R649">
-        <v>446948</v>
+        <v>446894</v>
       </c>
     </row>
     <row r="650">
@@ -34901,13 +34901,13 @@
         <v>1816522</v>
       </c>
       <c r="P650">
-        <v>5423</v>
+        <v>5420</v>
       </c>
       <c r="Q650">
-        <v>14732</v>
+        <v>14742</v>
       </c>
       <c r="R650">
-        <v>442475</v>
+        <v>443767</v>
       </c>
     </row>
     <row r="651">
@@ -34915,49 +34915,105 @@
         <v>45351</v>
       </c>
       <c r="B651">
-        <v>878730</v>
+        <v>881571</v>
+      </c>
+      <c r="C651">
+        <v>2059.2</v>
       </c>
       <c r="D651">
-        <v>489893</v>
+        <v>487456</v>
       </c>
       <c r="E651">
-        <v>155281</v>
+        <v>157472</v>
       </c>
       <c r="F651">
-        <v>8517536</v>
+        <v>8524590</v>
       </c>
       <c r="G651">
-        <v>7380472</v>
+        <v>7385863</v>
       </c>
       <c r="H651">
-        <v>3332499</v>
+        <v>3339684</v>
       </c>
       <c r="I651">
-        <v>459.69</v>
+        <v>459.48</v>
       </c>
       <c r="J651">
-        <v>37.17</v>
+        <v>37.21</v>
       </c>
       <c r="K651">
-        <v>14.98</v>
+        <v>14.99</v>
       </c>
       <c r="L651">
-        <v>443.79</v>
+        <v>443.77</v>
       </c>
       <c r="M651">
-        <v>33847539</v>
+        <v>33854725</v>
       </c>
       <c r="N651">
-        <v>5184475</v>
+        <v>5182038</v>
       </c>
       <c r="O651">
-        <v>1853140</v>
+        <v>1855331</v>
       </c>
       <c r="P651">
-        <v>5428</v>
+        <v>5431</v>
       </c>
       <c r="Q651">
-        <v>14770</v>
+        <v>14784</v>
+      </c>
+      <c r="R651">
+        <v>438817</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B652">
+        <v>1180153</v>
+      </c>
+      <c r="D652">
+        <v>451949</v>
+      </c>
+      <c r="E652">
+        <v>144376</v>
+      </c>
+      <c r="F652">
+        <v>8854339</v>
+      </c>
+      <c r="G652">
+        <v>7495292</v>
+      </c>
+      <c r="H652">
+        <v>3308275</v>
+      </c>
+      <c r="I652">
+        <v>448.03</v>
+      </c>
+      <c r="J652">
+        <v>37.16</v>
+      </c>
+      <c r="K652">
+        <v>14.99</v>
+      </c>
+      <c r="L652">
+        <v>444.41</v>
+      </c>
+      <c r="M652">
+        <v>34186103</v>
+      </c>
+      <c r="N652">
+        <v>5223413</v>
+      </c>
+      <c r="O652">
+        <v>1869259</v>
+      </c>
+      <c r="P652">
+        <v>5444</v>
+      </c>
+      <c r="Q652">
+        <v>14833</v>
       </c>
     </row>
   </sheetData>

--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R650"/>
+  <dimension ref="A1:R653"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4781,16 +4781,16 @@
         <v>1063136</v>
       </c>
       <c r="E98">
-        <v>210660</v>
+        <v>210661</v>
       </c>
       <c r="F98">
-        <v>13886948</v>
+        <v>13886950</v>
       </c>
       <c r="G98">
-        <v>11076380</v>
+        <v>11076383</v>
       </c>
       <c r="H98">
-        <v>904867</v>
+        <v>904868</v>
       </c>
       <c r="I98">
         <v>84.12</v>
@@ -4805,13 +4805,13 @@
         <v>79.33</v>
       </c>
       <c r="M98">
-        <v>8643089</v>
+        <v>8643090</v>
       </c>
       <c r="N98">
         <v>7816720</v>
       </c>
       <c r="O98">
-        <v>2726124</v>
+        <v>2726125</v>
       </c>
       <c r="P98">
         <v>3429</v>
@@ -4864,7 +4864,7 @@
         <v>7675188</v>
       </c>
       <c r="O99">
-        <v>2658764</v>
+        <v>2658765</v>
       </c>
       <c r="P99">
         <v>3442</v>
@@ -4917,7 +4917,7 @@
         <v>7655474</v>
       </c>
       <c r="O100">
-        <v>2569594</v>
+        <v>2569595</v>
       </c>
       <c r="P100">
         <v>3456</v>
@@ -4964,13 +4964,13 @@
         <v>80.95</v>
       </c>
       <c r="M101">
-        <v>8496273</v>
+        <v>8496274</v>
       </c>
       <c r="N101">
         <v>7630816</v>
       </c>
       <c r="O101">
-        <v>2496710</v>
+        <v>2496711</v>
       </c>
       <c r="P101">
         <v>3472</v>
@@ -5023,7 +5023,7 @@
         <v>7605385</v>
       </c>
       <c r="O102">
-        <v>2447766</v>
+        <v>2447767</v>
       </c>
       <c r="P102">
         <v>3483</v>
@@ -5070,13 +5070,13 @@
         <v>81.73999999999999</v>
       </c>
       <c r="M103">
-        <v>8390314</v>
+        <v>8390315</v>
       </c>
       <c r="N103">
         <v>7610191</v>
       </c>
       <c r="O103">
-        <v>2369799</v>
+        <v>2369800</v>
       </c>
       <c r="P103">
         <v>3482</v>
@@ -5123,13 +5123,13 @@
         <v>82.12</v>
       </c>
       <c r="M104">
-        <v>8353739</v>
+        <v>8353740</v>
       </c>
       <c r="N104">
         <v>7610967</v>
       </c>
       <c r="O104">
-        <v>2306252</v>
+        <v>2306253</v>
       </c>
       <c r="P104">
         <v>3473</v>
@@ -5182,7 +5182,7 @@
         <v>7677889</v>
       </c>
       <c r="O105">
-        <v>2230965</v>
+        <v>2230966</v>
       </c>
       <c r="P105">
         <v>3475</v>
@@ -5235,7 +5235,7 @@
         <v>7636142</v>
       </c>
       <c r="O106">
-        <v>2171023</v>
+        <v>2171024</v>
       </c>
       <c r="P106">
         <v>3484</v>
@@ -5288,7 +5288,7 @@
         <v>7633029</v>
       </c>
       <c r="O107">
-        <v>2121251</v>
+        <v>2121252</v>
       </c>
       <c r="P107">
         <v>3488</v>
@@ -5335,13 +5335,13 @@
         <v>83.3</v>
       </c>
       <c r="M108">
-        <v>8263903</v>
+        <v>8263904</v>
       </c>
       <c r="N108">
         <v>7603593</v>
       </c>
       <c r="O108">
-        <v>2073376</v>
+        <v>2073377</v>
       </c>
       <c r="P108">
         <v>3494</v>
@@ -5394,7 +5394,7 @@
         <v>7568310</v>
       </c>
       <c r="O109">
-        <v>2030438</v>
+        <v>2030439</v>
       </c>
       <c r="P109">
         <v>3500</v>
@@ -6592,10 +6592,10 @@
         <v>9516801</v>
       </c>
       <c r="H132">
-        <v>935849</v>
+        <v>935504</v>
       </c>
       <c r="I132">
-        <v>100.75</v>
+        <v>100.71</v>
       </c>
       <c r="J132">
         <v>32.75</v>
@@ -6607,7 +6607,7 @@
         <v>99.05</v>
       </c>
       <c r="M132">
-        <v>14067396</v>
+        <v>14067051</v>
       </c>
       <c r="N132">
         <v>9919645</v>
@@ -6660,7 +6660,7 @@
         <v>99.53</v>
       </c>
       <c r="M133">
-        <v>14469849</v>
+        <v>14469504</v>
       </c>
       <c r="N133">
         <v>9992123</v>
@@ -6713,7 +6713,7 @@
         <v>100.2</v>
       </c>
       <c r="M134">
-        <v>14605484</v>
+        <v>14605139</v>
       </c>
       <c r="N134">
         <v>9946214</v>
@@ -6763,10 +6763,10 @@
         <v>15.11</v>
       </c>
       <c r="L135">
-        <v>100.73</v>
+        <v>100.72</v>
       </c>
       <c r="M135">
-        <v>14690921</v>
+        <v>14690576</v>
       </c>
       <c r="N135">
         <v>9890722</v>
@@ -6819,7 +6819,7 @@
         <v>101.31</v>
       </c>
       <c r="M136">
-        <v>14867380</v>
+        <v>14867035</v>
       </c>
       <c r="N136">
         <v>9919839</v>
@@ -6872,7 +6872,7 @@
         <v>101.83</v>
       </c>
       <c r="M137">
-        <v>14861898</v>
+        <v>14861553</v>
       </c>
       <c r="N137">
         <v>9793604</v>
@@ -6925,7 +6925,7 @@
         <v>102.25</v>
       </c>
       <c r="M138">
-        <v>14671290</v>
+        <v>14670945</v>
       </c>
       <c r="N138">
         <v>9476838</v>
@@ -6978,7 +6978,7 @@
         <v>102.61</v>
       </c>
       <c r="M139">
-        <v>14467515</v>
+        <v>14467170</v>
       </c>
       <c r="N139">
         <v>9214474</v>
@@ -7004,7 +7004,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823698</v>
+        <v>823677</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -7031,10 +7031,10 @@
         <v>103.08</v>
       </c>
       <c r="M140">
-        <v>14132295</v>
+        <v>14131950</v>
       </c>
       <c r="N140">
-        <v>8935534</v>
+        <v>8935513</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -7084,10 +7084,10 @@
         <v>103.59</v>
       </c>
       <c r="M141">
-        <v>13894591</v>
+        <v>13894246</v>
       </c>
       <c r="N141">
-        <v>8782049</v>
+        <v>8782028</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -7134,13 +7134,13 @@
         <v>15.43</v>
       </c>
       <c r="L142">
-        <v>104.15</v>
+        <v>104.14</v>
       </c>
       <c r="M142">
-        <v>13750498</v>
+        <v>13750153</v>
       </c>
       <c r="N142">
-        <v>8776317</v>
+        <v>8776296</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -7190,10 +7190,10 @@
         <v>104.75</v>
       </c>
       <c r="M143">
-        <v>13622367</v>
+        <v>13622022</v>
       </c>
       <c r="N143">
-        <v>8836759</v>
+        <v>8836738</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -7246,7 +7246,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042567</v>
+        <v>9042546</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -7299,7 +7299,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9395187</v>
+        <v>9395166</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -7352,7 +7352,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9716051</v>
+        <v>9716030</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -7405,7 +7405,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916882</v>
+        <v>9916861</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -7458,7 +7458,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176515</v>
+        <v>10176494</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -7511,7 +7511,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10402096</v>
+        <v>10402075</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -7564,7 +7564,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586496</v>
+        <v>10586475</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -7617,7 +7617,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834409</v>
+        <v>10834388</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -9442,7 +9442,7 @@
         <v>1488338</v>
       </c>
       <c r="D186">
-        <v>590459</v>
+        <v>590475</v>
       </c>
       <c r="E186">
         <v>232183</v>
@@ -9451,13 +9451,13 @@
         <v>10937527</v>
       </c>
       <c r="G186">
-        <v>9818108</v>
+        <v>9818448</v>
       </c>
       <c r="H186">
-        <v>1208955</v>
+        <v>1208792</v>
       </c>
       <c r="I186">
-        <v>127.36</v>
+        <v>127.34</v>
       </c>
       <c r="J186">
         <v>32.49</v>
@@ -9469,10 +9469,10 @@
         <v>125.18</v>
       </c>
       <c r="M186">
-        <v>13889745</v>
+        <v>13889581</v>
       </c>
       <c r="N186">
-        <v>8211264</v>
+        <v>8211280</v>
       </c>
       <c r="O186">
         <v>2510371</v>
@@ -9522,10 +9522,10 @@
         <v>125.48</v>
       </c>
       <c r="M187">
-        <v>13965978</v>
+        <v>13965814</v>
       </c>
       <c r="N187">
-        <v>8231255</v>
+        <v>8231271</v>
       </c>
       <c r="O187">
         <v>2506811</v>
@@ -9575,10 +9575,10 @@
         <v>125.89</v>
       </c>
       <c r="M188">
-        <v>14177211</v>
+        <v>14177047</v>
       </c>
       <c r="N188">
-        <v>8311041</v>
+        <v>8311057</v>
       </c>
       <c r="O188">
         <v>2528409</v>
@@ -9628,10 +9628,10 @@
         <v>126.37</v>
       </c>
       <c r="M189">
-        <v>14260519</v>
+        <v>14260355</v>
       </c>
       <c r="N189">
-        <v>8315401</v>
+        <v>8315417</v>
       </c>
       <c r="O189">
         <v>2521451</v>
@@ -9678,13 +9678,13 @@
         <v>14.06</v>
       </c>
       <c r="L190">
-        <v>126.79</v>
+        <v>126.78</v>
       </c>
       <c r="M190">
-        <v>14422846</v>
+        <v>14422682</v>
       </c>
       <c r="N190">
-        <v>8370982</v>
+        <v>8370998</v>
       </c>
       <c r="O190">
         <v>2540055</v>
@@ -9707,19 +9707,19 @@
         <v>1667576</v>
       </c>
       <c r="D191">
-        <v>573557</v>
+        <v>573566</v>
       </c>
       <c r="E191">
-        <v>207668</v>
+        <v>207671</v>
       </c>
       <c r="F191">
         <v>9966680</v>
       </c>
       <c r="G191">
-        <v>8670591</v>
+        <v>8670703</v>
       </c>
       <c r="H191">
-        <v>1073110</v>
+        <v>1073112</v>
       </c>
       <c r="I191">
         <v>128.59</v>
@@ -9734,13 +9734,13 @@
         <v>127.14</v>
       </c>
       <c r="M191">
-        <v>14528053</v>
+        <v>14527891</v>
       </c>
       <c r="N191">
-        <v>8368513</v>
+        <v>8368538</v>
       </c>
       <c r="O191">
-        <v>2551079</v>
+        <v>2551082</v>
       </c>
       <c r="P191">
         <v>3864</v>
@@ -9787,13 +9787,13 @@
         <v>127.59</v>
       </c>
       <c r="M192">
-        <v>14532828</v>
+        <v>14532666</v>
       </c>
       <c r="N192">
-        <v>8290087</v>
+        <v>8290112</v>
       </c>
       <c r="O192">
-        <v>2547701</v>
+        <v>2547704</v>
       </c>
       <c r="P192">
         <v>3867</v>
@@ -9837,16 +9837,16 @@
         <v>14.26</v>
       </c>
       <c r="L193">
-        <v>128.14</v>
+        <v>128.13</v>
       </c>
       <c r="M193">
-        <v>14761352</v>
+        <v>14761189</v>
       </c>
       <c r="N193">
-        <v>8365179</v>
+        <v>8365204</v>
       </c>
       <c r="O193">
-        <v>2572349</v>
+        <v>2572352</v>
       </c>
       <c r="P193">
         <v>3862</v>
@@ -9872,7 +9872,7 @@
         <v>235008</v>
       </c>
       <c r="F194">
-        <v>14729039</v>
+        <v>14729048</v>
       </c>
       <c r="G194">
         <v>13027499</v>
@@ -9893,13 +9893,13 @@
         <v>128.88</v>
       </c>
       <c r="M194">
-        <v>14844032</v>
+        <v>14843870</v>
       </c>
       <c r="N194">
-        <v>8388066</v>
+        <v>8388091</v>
       </c>
       <c r="O194">
-        <v>2570149</v>
+        <v>2570152</v>
       </c>
       <c r="P194">
         <v>3869</v>
@@ -9946,13 +9946,13 @@
         <v>129.54</v>
       </c>
       <c r="M195">
-        <v>14888963</v>
+        <v>14888801</v>
       </c>
       <c r="N195">
-        <v>8325538</v>
+        <v>8325563</v>
       </c>
       <c r="O195">
-        <v>2571038</v>
+        <v>2571041</v>
       </c>
       <c r="P195">
         <v>3875</v>
@@ -9978,7 +9978,7 @@
         <v>219934</v>
       </c>
       <c r="F196">
-        <v>13097762</v>
+        <v>13097724</v>
       </c>
       <c r="G196">
         <v>11730221</v>
@@ -9996,16 +9996,16 @@
         <v>14.32</v>
       </c>
       <c r="L196">
-        <v>130.2</v>
+        <v>130.19</v>
       </c>
       <c r="M196">
-        <v>14967645</v>
+        <v>14967483</v>
       </c>
       <c r="N196">
-        <v>8320034</v>
+        <v>8320059</v>
       </c>
       <c r="O196">
-        <v>2563112</v>
+        <v>2563115</v>
       </c>
       <c r="P196">
         <v>3873</v>
@@ -10052,13 +10052,13 @@
         <v>130.86</v>
       </c>
       <c r="M197">
-        <v>15089789</v>
+        <v>15089627</v>
       </c>
       <c r="N197">
-        <v>8341498</v>
+        <v>8341523</v>
       </c>
       <c r="O197">
-        <v>2566567</v>
+        <v>2566570</v>
       </c>
       <c r="P197">
         <v>3878</v>
@@ -10105,13 +10105,13 @@
         <v>131.55</v>
       </c>
       <c r="M198">
-        <v>15141559</v>
+        <v>15141560</v>
       </c>
       <c r="N198">
-        <v>8330317</v>
+        <v>8330326</v>
       </c>
       <c r="O198">
-        <v>2567368</v>
+        <v>2567371</v>
       </c>
       <c r="P198">
         <v>3884</v>
@@ -10134,10 +10134,10 @@
         <v>525103</v>
       </c>
       <c r="E199">
-        <v>214626</v>
+        <v>214627</v>
       </c>
       <c r="F199">
-        <v>10187292</v>
+        <v>10187293</v>
       </c>
       <c r="G199">
         <v>9028611</v>
@@ -10158,13 +10158,13 @@
         <v>132.19</v>
       </c>
       <c r="M199">
-        <v>15309102</v>
+        <v>15309104</v>
       </c>
       <c r="N199">
-        <v>8356565</v>
+        <v>8356574</v>
       </c>
       <c r="O199">
-        <v>2587918</v>
+        <v>2587922</v>
       </c>
       <c r="P199">
         <v>3887</v>
@@ -10211,13 +10211,13 @@
         <v>132.87</v>
       </c>
       <c r="M200">
-        <v>15440712</v>
+        <v>15440714</v>
       </c>
       <c r="N200">
-        <v>8350584</v>
+        <v>8350593</v>
       </c>
       <c r="O200">
-        <v>2599969</v>
+        <v>2599973</v>
       </c>
       <c r="P200">
         <v>3886</v>
@@ -10240,7 +10240,7 @@
         <v>649662</v>
       </c>
       <c r="E201">
-        <v>210440</v>
+        <v>210439</v>
       </c>
       <c r="F201">
         <v>10189513</v>
@@ -10264,13 +10264,13 @@
         <v>133.49</v>
       </c>
       <c r="M201">
-        <v>15510487</v>
+        <v>15510488</v>
       </c>
       <c r="N201">
-        <v>8368327</v>
+        <v>8368336</v>
       </c>
       <c r="O201">
-        <v>2605543</v>
+        <v>2605546</v>
       </c>
       <c r="P201">
         <v>3887</v>
@@ -10296,7 +10296,7 @@
         <v>211859</v>
       </c>
       <c r="F202">
-        <v>10071123</v>
+        <v>10071167</v>
       </c>
       <c r="G202">
         <v>8724780</v>
@@ -10314,16 +10314,16 @@
         <v>14.46</v>
       </c>
       <c r="L202">
-        <v>134.05</v>
+        <v>134.04</v>
       </c>
       <c r="M202">
-        <v>15673796</v>
+        <v>15673798</v>
       </c>
       <c r="N202">
-        <v>8381884</v>
+        <v>8381893</v>
       </c>
       <c r="O202">
-        <v>2635460</v>
+        <v>2635463</v>
       </c>
       <c r="P202">
         <v>3895</v>
@@ -10349,7 +10349,7 @@
         <v>223173</v>
       </c>
       <c r="F203">
-        <v>9851284</v>
+        <v>9851301</v>
       </c>
       <c r="G203">
         <v>8695175</v>
@@ -10800,7 +10800,7 @@
         <v>7873641</v>
       </c>
       <c r="O211">
-        <v>2671973</v>
+        <v>2671972</v>
       </c>
       <c r="P211">
         <v>3950</v>
@@ -10853,7 +10853,7 @@
         <v>7781838</v>
       </c>
       <c r="O212">
-        <v>2637233</v>
+        <v>2637232</v>
       </c>
       <c r="P212">
         <v>3967</v>
@@ -11877,7 +11877,7 @@
         <v>32598</v>
       </c>
       <c r="B232">
-        <v>1361148</v>
+        <v>1361127</v>
       </c>
       <c r="D232">
         <v>652549</v>
@@ -11886,7 +11886,7 @@
         <v>176192</v>
       </c>
       <c r="F232">
-        <v>11589009</v>
+        <v>11588944</v>
       </c>
       <c r="G232">
         <v>10451849</v>
@@ -33067,46 +33067,46 @@
         <v>44347</v>
       </c>
       <c r="B618">
-        <v>2180777</v>
+        <v>2170100</v>
       </c>
       <c r="C618">
         <v>3591.2</v>
       </c>
       <c r="D618">
-        <v>752154</v>
+        <v>739032</v>
       </c>
       <c r="E618">
-        <v>370545</v>
+        <v>370013</v>
       </c>
       <c r="F618">
-        <v>15736709</v>
+        <v>15707588</v>
       </c>
       <c r="G618">
-        <v>12270097</v>
+        <v>12258671</v>
       </c>
       <c r="H618">
-        <v>3917566</v>
+        <v>3915227</v>
       </c>
       <c r="I618">
-        <v>343.42</v>
+        <v>343.57</v>
       </c>
       <c r="J618">
         <v>43.76</v>
       </c>
       <c r="K618">
-        <v>27.14</v>
+        <v>27.16</v>
       </c>
       <c r="L618">
         <v>317.62</v>
       </c>
       <c r="M618">
-        <v>115810487</v>
+        <v>115808148</v>
       </c>
       <c r="N618">
-        <v>14265042</v>
+        <v>14251920</v>
       </c>
       <c r="O618">
-        <v>13354760</v>
+        <v>13354228</v>
       </c>
       <c r="P618">
         <v>5174</v>
@@ -33123,46 +33123,46 @@
         <v>44377</v>
       </c>
       <c r="B619">
-        <v>2287300</v>
+        <v>2276059</v>
       </c>
       <c r="C619">
         <v>3473.1</v>
       </c>
       <c r="D619">
-        <v>658996</v>
+        <v>648134</v>
       </c>
       <c r="E619">
-        <v>333946</v>
+        <v>333050</v>
       </c>
       <c r="F619">
-        <v>13905402</v>
+        <v>13881779</v>
       </c>
       <c r="G619">
-        <v>12418359</v>
+        <v>12406668</v>
       </c>
       <c r="H619">
-        <v>3986445</v>
+        <v>3984012</v>
       </c>
       <c r="I619">
-        <v>344.56</v>
+        <v>344.71</v>
       </c>
       <c r="J619">
-        <v>42.44</v>
+        <v>42.43</v>
       </c>
       <c r="K619">
-        <v>27.55</v>
+        <v>27.61</v>
       </c>
       <c r="L619">
-        <v>321.48</v>
+        <v>321.49</v>
       </c>
       <c r="M619">
-        <v>97731036</v>
+        <v>97726265</v>
       </c>
       <c r="N619">
-        <v>11764860</v>
+        <v>11740876</v>
       </c>
       <c r="O619">
-        <v>13082589</v>
+        <v>13081161</v>
       </c>
       <c r="P619">
         <v>5188</v>
@@ -33179,46 +33179,46 @@
         <v>44408</v>
       </c>
       <c r="B620">
-        <v>2044501</v>
+        <v>2038137</v>
       </c>
       <c r="C620">
         <v>3413.7</v>
       </c>
       <c r="D620">
-        <v>590827</v>
+        <v>579629</v>
       </c>
       <c r="E620">
-        <v>286265</v>
+        <v>284614</v>
       </c>
       <c r="F620">
-        <v>12835900</v>
+        <v>12814496</v>
       </c>
       <c r="G620">
-        <v>10782693</v>
+        <v>10772991</v>
       </c>
       <c r="H620">
-        <v>3456209</v>
+        <v>3454196</v>
       </c>
       <c r="I620">
-        <v>343.67</v>
+        <v>343.82</v>
       </c>
       <c r="J620">
-        <v>40.06</v>
+        <v>40.05</v>
       </c>
       <c r="K620">
-        <v>26.51</v>
+        <v>26.6</v>
       </c>
       <c r="L620">
-        <v>326.54</v>
+        <v>326.56</v>
       </c>
       <c r="M620">
-        <v>82594132</v>
+        <v>82587347</v>
       </c>
       <c r="N620">
-        <v>10199574</v>
+        <v>10164392</v>
       </c>
       <c r="O620">
-        <v>12419030</v>
+        <v>12415951</v>
       </c>
       <c r="P620">
         <v>5164</v>
@@ -33235,46 +33235,46 @@
         <v>44439</v>
       </c>
       <c r="B621">
-        <v>1503165</v>
+        <v>1493082</v>
       </c>
       <c r="C621">
         <v>2944.1</v>
       </c>
       <c r="D621">
-        <v>460445</v>
+        <v>451885</v>
       </c>
       <c r="E621">
-        <v>274102</v>
+        <v>273512</v>
       </c>
       <c r="F621">
-        <v>12782568</v>
+        <v>12774229</v>
       </c>
       <c r="G621">
-        <v>10601583</v>
+        <v>10596732</v>
       </c>
       <c r="H621">
-        <v>3445899</v>
+        <v>3444830</v>
       </c>
       <c r="I621">
-        <v>347.81</v>
+        <v>347.88</v>
       </c>
       <c r="J621">
-        <v>37.15</v>
+        <v>37.14</v>
       </c>
       <c r="K621">
-        <v>24.03</v>
+        <v>24.14</v>
       </c>
       <c r="L621">
-        <v>333.26</v>
+        <v>333.28</v>
       </c>
       <c r="M621">
-        <v>69687456</v>
+        <v>69679602</v>
       </c>
       <c r="N621">
-        <v>9344695</v>
+        <v>9300953</v>
       </c>
       <c r="O621">
-        <v>11625423</v>
+        <v>11621754</v>
       </c>
       <c r="P621">
         <v>5150</v>
@@ -33347,46 +33347,46 @@
         <v>44500</v>
       </c>
       <c r="B623">
-        <v>1211349</v>
+        <v>1207675</v>
       </c>
       <c r="C623">
         <v>2027.6</v>
       </c>
       <c r="D623">
-        <v>353957</v>
+        <v>351531</v>
       </c>
       <c r="E623">
-        <v>305976</v>
+        <v>305616</v>
       </c>
       <c r="F623">
-        <v>8847721</v>
+        <v>8889318</v>
       </c>
       <c r="G623">
-        <v>6804426</v>
+        <v>6799644</v>
       </c>
       <c r="H623">
-        <v>2255490</v>
+        <v>2254103</v>
       </c>
       <c r="I623">
-        <v>350.24</v>
+        <v>350.3</v>
       </c>
       <c r="J623">
-        <v>34.87</v>
+        <v>34.85</v>
       </c>
       <c r="K623">
-        <v>19.46</v>
+        <v>19.56</v>
       </c>
       <c r="L623">
-        <v>344.45</v>
+        <v>344.49</v>
       </c>
       <c r="M623">
-        <v>52913702</v>
+        <v>52904462</v>
       </c>
       <c r="N623">
-        <v>8503869</v>
+        <v>8457701</v>
       </c>
       <c r="O623">
-        <v>6719966</v>
+        <v>6715937</v>
       </c>
       <c r="P623">
         <v>5136</v>
@@ -33403,46 +33403,46 @@
         <v>44530</v>
       </c>
       <c r="B624">
-        <v>1151226</v>
+        <v>1153591</v>
       </c>
       <c r="C624">
         <v>1814.8</v>
       </c>
       <c r="D624">
-        <v>328969</v>
+        <v>328956</v>
       </c>
       <c r="E624">
-        <v>210991</v>
+        <v>210746</v>
       </c>
       <c r="F624">
-        <v>7846184</v>
+        <v>7874109</v>
       </c>
       <c r="G624">
-        <v>6420069</v>
+        <v>6419879</v>
       </c>
       <c r="H624">
-        <v>2220710</v>
+        <v>2218755</v>
       </c>
       <c r="I624">
-        <v>364.68</v>
+        <v>364.38</v>
       </c>
       <c r="J624">
         <v>39.27</v>
       </c>
       <c r="K624">
-        <v>18.54</v>
+        <v>18.64</v>
       </c>
       <c r="L624">
-        <v>347.33</v>
+        <v>347.36</v>
       </c>
       <c r="M624">
-        <v>48456932</v>
+        <v>48445736</v>
       </c>
       <c r="N624">
-        <v>8091688</v>
+        <v>8045507</v>
       </c>
       <c r="O624">
-        <v>5601360</v>
+        <v>5597086</v>
       </c>
       <c r="P624">
         <v>5123</v>
@@ -33459,46 +33459,46 @@
         <v>44561</v>
       </c>
       <c r="B625">
-        <v>1247376</v>
+        <v>1247295</v>
       </c>
       <c r="C625">
         <v>1632.8</v>
       </c>
       <c r="D625">
-        <v>414843</v>
+        <v>412378</v>
       </c>
       <c r="E625">
-        <v>182033</v>
+        <v>181848</v>
       </c>
       <c r="F625">
-        <v>7658471</v>
+        <v>7658373</v>
       </c>
       <c r="G625">
-        <v>6097968</v>
+        <v>6097092</v>
       </c>
       <c r="H625">
-        <v>2192492</v>
+        <v>2192366</v>
       </c>
       <c r="I625">
-        <v>376.45</v>
+        <v>376.49</v>
       </c>
       <c r="J625">
-        <v>40.31</v>
+        <v>40.35</v>
       </c>
       <c r="K625">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="L625">
-        <v>349.78</v>
+        <v>349.82</v>
       </c>
       <c r="M625">
-        <v>44259956</v>
+        <v>44248635</v>
       </c>
       <c r="N625">
-        <v>7631462</v>
+        <v>7582816</v>
       </c>
       <c r="O625">
-        <v>4741942</v>
+        <v>4737483</v>
       </c>
       <c r="P625">
         <v>5121</v>
@@ -33515,46 +33515,46 @@
         <v>44592</v>
       </c>
       <c r="B626">
-        <v>1411078</v>
+        <v>1411393</v>
       </c>
       <c r="C626">
         <v>1917.5</v>
       </c>
       <c r="D626">
-        <v>529855</v>
+        <v>530195</v>
       </c>
       <c r="E626">
-        <v>177702</v>
+        <v>177533</v>
       </c>
       <c r="F626">
-        <v>9141591</v>
+        <v>9144650</v>
       </c>
       <c r="G626">
-        <v>7009776</v>
+        <v>7009170</v>
       </c>
       <c r="H626">
-        <v>2635174</v>
+        <v>2635046</v>
       </c>
       <c r="I626">
-        <v>390.25</v>
+        <v>390.27</v>
       </c>
       <c r="J626">
-        <v>40.18</v>
+        <v>40.27</v>
       </c>
       <c r="K626">
-        <v>17.28</v>
+        <v>17.39</v>
       </c>
       <c r="L626">
-        <v>352.67</v>
+        <v>352.71</v>
       </c>
       <c r="M626">
-        <v>41276761</v>
+        <v>41265312</v>
       </c>
       <c r="N626">
-        <v>7250472</v>
+        <v>7202166</v>
       </c>
       <c r="O626">
-        <v>4097878</v>
+        <v>4093250</v>
       </c>
       <c r="P626">
         <v>5094</v>
@@ -33571,46 +33571,46 @@
         <v>44620</v>
       </c>
       <c r="B627">
-        <v>903307</v>
+        <v>903454</v>
       </c>
       <c r="C627">
         <v>1898.8</v>
       </c>
       <c r="D627">
-        <v>392635</v>
+        <v>393772</v>
       </c>
       <c r="E627">
-        <v>139177</v>
+        <v>139066</v>
       </c>
       <c r="F627">
-        <v>7675337</v>
+        <v>7678320</v>
       </c>
       <c r="G627">
-        <v>6243755</v>
+        <v>6242847</v>
       </c>
       <c r="H627">
-        <v>2415529</v>
+        <v>2415395</v>
       </c>
       <c r="I627">
-        <v>399.95</v>
+        <v>399.99</v>
       </c>
       <c r="J627">
-        <v>38.57</v>
+        <v>38.7</v>
       </c>
       <c r="K627">
-        <v>16.82</v>
+        <v>16.93</v>
       </c>
       <c r="L627">
-        <v>355.82</v>
+        <v>355.86</v>
       </c>
       <c r="M627">
-        <v>38624133</v>
+        <v>38612550</v>
       </c>
       <c r="N627">
-        <v>6876981</v>
+        <v>6829812</v>
       </c>
       <c r="O627">
-        <v>3603849</v>
+        <v>3599110</v>
       </c>
       <c r="P627">
         <v>5083</v>
@@ -33627,46 +33627,46 @@
         <v>44651</v>
       </c>
       <c r="B628">
-        <v>890106</v>
+        <v>890343</v>
       </c>
       <c r="C628">
         <v>1723</v>
       </c>
       <c r="D628">
-        <v>370087</v>
+        <v>374654</v>
       </c>
       <c r="E628">
-        <v>168457</v>
+        <v>168366</v>
       </c>
       <c r="F628">
-        <v>7538477</v>
+        <v>7540956</v>
       </c>
       <c r="G628">
-        <v>6438750</v>
+        <v>6437416</v>
       </c>
       <c r="H628">
-        <v>2540715</v>
+        <v>2540508</v>
       </c>
       <c r="I628">
-        <v>407.98</v>
+        <v>408.04</v>
       </c>
       <c r="J628">
-        <v>35.5</v>
+        <v>35.62</v>
       </c>
       <c r="K628">
-        <v>16.51</v>
+        <v>16.62</v>
       </c>
       <c r="L628">
-        <v>359.78</v>
+        <v>359.83</v>
       </c>
       <c r="M628">
-        <v>35818386</v>
+        <v>35806596</v>
       </c>
       <c r="N628">
-        <v>6397086</v>
+        <v>6354484</v>
       </c>
       <c r="O628">
-        <v>3163538</v>
+        <v>3158708</v>
       </c>
       <c r="P628">
         <v>5065</v>
@@ -33707,22 +33707,22 @@
         <v>403.99</v>
       </c>
       <c r="J629">
-        <v>33.87</v>
+        <v>34</v>
       </c>
       <c r="K629">
-        <v>17.38</v>
+        <v>17.51</v>
       </c>
       <c r="L629">
-        <v>363.43</v>
+        <v>363.49</v>
       </c>
       <c r="M629">
-        <v>33636671</v>
+        <v>33624881</v>
       </c>
       <c r="N629">
-        <v>5635512</v>
+        <v>5592910</v>
       </c>
       <c r="O629">
-        <v>2880185</v>
+        <v>2875355</v>
       </c>
       <c r="P629">
         <v>5080</v>
@@ -33763,22 +33763,22 @@
         <v>397.16</v>
       </c>
       <c r="J630">
-        <v>32.57</v>
+        <v>32.7</v>
       </c>
       <c r="K630">
-        <v>17.39</v>
+        <v>17.48</v>
       </c>
       <c r="L630">
-        <v>367.89</v>
+        <v>367.94</v>
       </c>
       <c r="M630">
-        <v>31534221</v>
+        <v>31524771</v>
       </c>
       <c r="N630">
-        <v>5196379</v>
+        <v>5166899</v>
       </c>
       <c r="O630">
-        <v>2635215</v>
+        <v>2630917</v>
       </c>
       <c r="P630">
         <v>5096</v>
@@ -33798,7 +33798,7 @@
         <v>936213</v>
       </c>
       <c r="C631">
-        <v>1297.8</v>
+        <v>1297.2</v>
       </c>
       <c r="D631">
         <v>327875</v>
@@ -33819,22 +33819,22 @@
         <v>394.65</v>
       </c>
       <c r="J631">
-        <v>31.55</v>
+        <v>31.71</v>
       </c>
       <c r="K631">
-        <v>16.92</v>
+        <v>16.98</v>
       </c>
       <c r="L631">
-        <v>372.77</v>
+        <v>372.8</v>
       </c>
       <c r="M631">
-        <v>29240156</v>
+        <v>29233138</v>
       </c>
       <c r="N631">
-        <v>4865258</v>
+        <v>4846640</v>
       </c>
       <c r="O631">
-        <v>2407594</v>
+        <v>2404192</v>
       </c>
       <c r="P631">
         <v>5103</v>
@@ -33875,22 +33875,22 @@
         <v>383.98</v>
       </c>
       <c r="J632">
-        <v>30.82</v>
+        <v>31.01</v>
       </c>
       <c r="K632">
-        <v>16.42</v>
+        <v>16.45</v>
       </c>
       <c r="L632">
-        <v>377.44</v>
+        <v>377.45</v>
       </c>
       <c r="M632">
-        <v>27537822</v>
+        <v>27532817</v>
       </c>
       <c r="N632">
-        <v>4641621</v>
+        <v>4634201</v>
       </c>
       <c r="O632">
-        <v>2234803</v>
+        <v>2233052</v>
       </c>
       <c r="P632">
         <v>5129</v>
@@ -33931,7 +33931,7 @@
         <v>390.7</v>
       </c>
       <c r="J633">
-        <v>30.24</v>
+        <v>30.43</v>
       </c>
       <c r="K633">
         <v>15.62</v>
@@ -33940,13 +33940,13 @@
         <v>382.69</v>
       </c>
       <c r="M633">
-        <v>26108626</v>
+        <v>26104690</v>
       </c>
       <c r="N633">
-        <v>4537767</v>
+        <v>4538907</v>
       </c>
       <c r="O633">
-        <v>2079434</v>
+        <v>2078273</v>
       </c>
       <c r="P633">
         <v>5139</v>
@@ -33987,22 +33987,22 @@
         <v>404.1</v>
       </c>
       <c r="J634">
-        <v>29.34</v>
+        <v>29.51</v>
       </c>
       <c r="K634">
-        <v>15.41</v>
+        <v>15.4</v>
       </c>
       <c r="L634">
-        <v>387.61</v>
+        <v>387.6</v>
       </c>
       <c r="M634">
-        <v>25082436</v>
+        <v>25078500</v>
       </c>
       <c r="N634">
-        <v>4347817</v>
+        <v>4348957</v>
       </c>
       <c r="O634">
-        <v>1876638</v>
+        <v>1875477</v>
       </c>
       <c r="P634">
         <v>5148</v>
@@ -34043,22 +34043,22 @@
         <v>406.33</v>
       </c>
       <c r="J635">
-        <v>29.9</v>
+        <v>30.11</v>
       </c>
       <c r="K635">
-        <v>15.05</v>
+        <v>15.03</v>
       </c>
       <c r="L635">
-        <v>392.67</v>
+        <v>392.65</v>
       </c>
       <c r="M635">
-        <v>24559454</v>
+        <v>24556904</v>
       </c>
       <c r="N635">
-        <v>4290001</v>
+        <v>4293567</v>
       </c>
       <c r="O635">
-        <v>1684890</v>
+        <v>1684089</v>
       </c>
       <c r="P635">
         <v>5143</v>
@@ -34099,22 +34099,22 @@
         <v>417.45</v>
       </c>
       <c r="J636">
-        <v>30.52</v>
+        <v>30.68</v>
       </c>
       <c r="K636">
-        <v>14.54</v>
+        <v>14.52</v>
       </c>
       <c r="L636">
-        <v>397.24</v>
+        <v>397.26</v>
       </c>
       <c r="M636">
-        <v>24210263</v>
+        <v>24209669</v>
       </c>
       <c r="N636">
-        <v>4314198</v>
+        <v>4317777</v>
       </c>
       <c r="O636">
-        <v>1586005</v>
+        <v>1585449</v>
       </c>
       <c r="P636">
         <v>5161</v>
@@ -34155,22 +34155,22 @@
         <v>422.41</v>
       </c>
       <c r="J637">
-        <v>31.21</v>
+        <v>31.32</v>
       </c>
       <c r="K637">
-        <v>14.22</v>
+        <v>14.2</v>
       </c>
       <c r="L637">
-        <v>401.44</v>
+        <v>401.45</v>
       </c>
       <c r="M637">
-        <v>24255635</v>
+        <v>24255166</v>
       </c>
       <c r="N637">
-        <v>4362818</v>
+        <v>4368862</v>
       </c>
       <c r="O637">
-        <v>1518550</v>
+        <v>1518179</v>
       </c>
       <c r="P637">
         <v>5131</v>
@@ -34211,22 +34211,22 @@
         <v>430.24</v>
       </c>
       <c r="J638">
-        <v>31.91</v>
+        <v>31.96</v>
       </c>
       <c r="K638">
-        <v>13.91</v>
+        <v>13.89</v>
       </c>
       <c r="L638">
-        <v>406.12</v>
+        <v>406.13</v>
       </c>
       <c r="M638">
-        <v>24737383</v>
+        <v>24737043</v>
       </c>
       <c r="N638">
-        <v>4483567</v>
+        <v>4489271</v>
       </c>
       <c r="O638">
-        <v>1481204</v>
+        <v>1481002</v>
       </c>
       <c r="P638">
         <v>5206</v>
@@ -34267,22 +34267,22 @@
         <v>437.6</v>
       </c>
       <c r="J639">
-        <v>32.19</v>
+        <v>32.18</v>
       </c>
       <c r="K639">
-        <v>13.75</v>
+        <v>13.74</v>
       </c>
       <c r="L639">
-        <v>410.05</v>
+        <v>410.06</v>
       </c>
       <c r="M639">
-        <v>25142113</v>
+        <v>25141906</v>
       </c>
       <c r="N639">
-        <v>4558153</v>
+        <v>4562720</v>
       </c>
       <c r="O639">
-        <v>1460690</v>
+        <v>1460599</v>
       </c>
       <c r="P639">
         <v>5229</v>
@@ -34323,7 +34323,7 @@
         <v>441.11</v>
       </c>
       <c r="J640">
-        <v>32.72</v>
+        <v>32.71</v>
       </c>
       <c r="K640">
         <v>13.72</v>
@@ -34379,7 +34379,7 @@
         <v>435.16</v>
       </c>
       <c r="J641">
-        <v>33.71</v>
+        <v>33.68</v>
       </c>
       <c r="K641">
         <v>13.83</v>
@@ -34435,7 +34435,7 @@
         <v>438.34</v>
       </c>
       <c r="J642">
-        <v>34.22</v>
+        <v>34.19</v>
       </c>
       <c r="K642">
         <v>13.93</v>
@@ -34491,7 +34491,7 @@
         <v>434.38</v>
       </c>
       <c r="J643">
-        <v>34.51</v>
+        <v>34.46</v>
       </c>
       <c r="K643">
         <v>13.95</v>
@@ -34547,7 +34547,7 @@
         <v>423.53</v>
       </c>
       <c r="J644">
-        <v>34.74</v>
+        <v>34.69</v>
       </c>
       <c r="K644">
         <v>14.09</v>
@@ -34603,7 +34603,7 @@
         <v>433.69</v>
       </c>
       <c r="J645">
-        <v>34.99</v>
+        <v>34.95</v>
       </c>
       <c r="K645">
         <v>14.17</v>
@@ -34691,7 +34691,7 @@
         <v>45230</v>
       </c>
       <c r="B647">
-        <v>886874</v>
+        <v>886888</v>
       </c>
       <c r="C647">
         <v>1567.9</v>
@@ -34703,7 +34703,7 @@
         <v>169726</v>
       </c>
       <c r="F647">
-        <v>7434123</v>
+        <v>7434462</v>
       </c>
       <c r="G647">
         <v>6116644</v>
@@ -34759,7 +34759,7 @@
         <v>151099</v>
       </c>
       <c r="F648">
-        <v>6840473</v>
+        <v>6834458</v>
       </c>
       <c r="G648">
         <v>5684541</v>
@@ -34795,7 +34795,7 @@
         <v>14665</v>
       </c>
       <c r="R648">
-        <v>435823</v>
+        <v>440095</v>
       </c>
     </row>
     <row r="649">
@@ -34803,25 +34803,25 @@
         <v>45291</v>
       </c>
       <c r="B649">
-        <v>1158429</v>
+        <v>1158534</v>
       </c>
       <c r="C649">
         <v>1818.4</v>
       </c>
       <c r="D649">
-        <v>462927</v>
+        <v>463070</v>
       </c>
       <c r="E649">
-        <v>159304</v>
+        <v>159299</v>
       </c>
       <c r="F649">
-        <v>8148402</v>
+        <v>8153979</v>
       </c>
       <c r="G649">
-        <v>6418440</v>
+        <v>6419891</v>
       </c>
       <c r="H649">
-        <v>2852132</v>
+        <v>2852757</v>
       </c>
       <c r="I649">
         <v>452.36</v>
@@ -34836,36 +34836,240 @@
         <v>438.68</v>
       </c>
       <c r="M649">
-        <v>32673689</v>
+        <v>32674314</v>
       </c>
       <c r="N649">
-        <v>5135433</v>
+        <v>5135576</v>
       </c>
       <c r="O649">
-        <v>1772370</v>
+        <v>1772365</v>
       </c>
       <c r="P649">
-        <v>5398</v>
+        <v>5404</v>
       </c>
       <c r="Q649">
-        <v>14700</v>
+        <v>14711</v>
       </c>
       <c r="R649">
-        <v>439670</v>
+        <v>446894</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="2">
         <v>45322</v>
       </c>
+      <c r="B650">
+        <v>1249992</v>
+      </c>
       <c r="C650">
         <v>2050.7</v>
       </c>
+      <c r="D650">
+        <v>676831</v>
+      </c>
+      <c r="E650">
+        <v>184513</v>
+      </c>
+      <c r="F650">
+        <v>9546269</v>
+      </c>
+      <c r="G650">
+        <v>8372902</v>
+      </c>
+      <c r="H650">
+        <v>3777907</v>
+      </c>
+      <c r="I650">
+        <v>459.14</v>
+      </c>
+      <c r="J650">
+        <v>36.92</v>
+      </c>
+      <c r="K650">
+        <v>14.89</v>
+      </c>
+      <c r="L650">
+        <v>441.73</v>
+      </c>
+      <c r="M650">
+        <v>33335299</v>
+      </c>
+      <c r="N650">
+        <v>5161803</v>
+      </c>
+      <c r="O650">
+        <v>1816522</v>
+      </c>
       <c r="P650">
-        <v>5408</v>
+        <v>5420</v>
       </c>
       <c r="Q650">
-        <v>14715</v>
+        <v>14742</v>
+      </c>
+      <c r="R650">
+        <v>445408</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="2">
+        <v>45351</v>
+      </c>
+      <c r="B651">
+        <v>881571</v>
+      </c>
+      <c r="C651">
+        <v>2059.2</v>
+      </c>
+      <c r="D651">
+        <v>487456</v>
+      </c>
+      <c r="E651">
+        <v>157472</v>
+      </c>
+      <c r="F651">
+        <v>8524590</v>
+      </c>
+      <c r="G651">
+        <v>7385863</v>
+      </c>
+      <c r="H651">
+        <v>3339684</v>
+      </c>
+      <c r="I651">
+        <v>459.48</v>
+      </c>
+      <c r="J651">
+        <v>37.21</v>
+      </c>
+      <c r="K651">
+        <v>14.99</v>
+      </c>
+      <c r="L651">
+        <v>443.77</v>
+      </c>
+      <c r="M651">
+        <v>33854725</v>
+      </c>
+      <c r="N651">
+        <v>5182038</v>
+      </c>
+      <c r="O651">
+        <v>1855331</v>
+      </c>
+      <c r="P651">
+        <v>5434</v>
+      </c>
+      <c r="Q651">
+        <v>14776</v>
+      </c>
+      <c r="R651">
+        <v>444717</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B652">
+        <v>844934</v>
+      </c>
+      <c r="C652">
+        <v>2000.4</v>
+      </c>
+      <c r="D652">
+        <v>405832</v>
+      </c>
+      <c r="E652">
+        <v>163774</v>
+      </c>
+      <c r="F652">
+        <v>8834568</v>
+      </c>
+      <c r="G652">
+        <v>7331803</v>
+      </c>
+      <c r="H652">
+        <v>3288506</v>
+      </c>
+      <c r="I652">
+        <v>455.87</v>
+      </c>
+      <c r="J652">
+        <v>37.54</v>
+      </c>
+      <c r="K652">
+        <v>15.09</v>
+      </c>
+      <c r="L652">
+        <v>445.14</v>
+      </c>
+      <c r="M652">
+        <v>34166334</v>
+      </c>
+      <c r="N652">
+        <v>5177296</v>
+      </c>
+      <c r="O652">
+        <v>1888657</v>
+      </c>
+      <c r="P652">
+        <v>5445</v>
+      </c>
+      <c r="Q652">
+        <v>14827</v>
+      </c>
+      <c r="R652">
+        <v>447315</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="2">
+        <v>45412</v>
+      </c>
+      <c r="B653">
+        <v>980055</v>
+      </c>
+      <c r="D653">
+        <v>503374</v>
+      </c>
+      <c r="E653">
+        <v>176039</v>
+      </c>
+      <c r="F653">
+        <v>8565796</v>
+      </c>
+      <c r="G653">
+        <v>7464763</v>
+      </c>
+      <c r="H653">
+        <v>3278597</v>
+      </c>
+      <c r="I653">
+        <v>445.94</v>
+      </c>
+      <c r="J653">
+        <v>37.58</v>
+      </c>
+      <c r="K653">
+        <v>14.95</v>
+      </c>
+      <c r="L653">
+        <v>445.98</v>
+      </c>
+      <c r="M653">
+        <v>34830212</v>
+      </c>
+      <c r="N653">
+        <v>5317082</v>
+      </c>
+      <c r="O653">
+        <v>1915955</v>
+      </c>
+      <c r="P653">
+        <v>5451</v>
+      </c>
+      <c r="Q653">
+        <v>14827</v>
       </c>
     </row>
   </sheetData>

--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R653"/>
+  <dimension ref="A1:R654"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7004,7 +7004,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823677</v>
+        <v>823662</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -7034,7 +7034,7 @@
         <v>14131950</v>
       </c>
       <c r="N140">
-        <v>8935513</v>
+        <v>8935498</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -7087,7 +7087,7 @@
         <v>13894246</v>
       </c>
       <c r="N141">
-        <v>8782028</v>
+        <v>8782013</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -7140,7 +7140,7 @@
         <v>13750153</v>
       </c>
       <c r="N142">
-        <v>8776296</v>
+        <v>8776281</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -7193,7 +7193,7 @@
         <v>13622022</v>
       </c>
       <c r="N143">
-        <v>8836738</v>
+        <v>8836723</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -7246,7 +7246,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042546</v>
+        <v>9042531</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -7299,7 +7299,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9395166</v>
+        <v>9395151</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -7352,7 +7352,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9716030</v>
+        <v>9716015</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -7405,7 +7405,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916861</v>
+        <v>9916846</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -7458,7 +7458,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176494</v>
+        <v>10176479</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -7511,7 +7511,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10402075</v>
+        <v>10402060</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -7564,7 +7564,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586475</v>
+        <v>10586460</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -7617,7 +7617,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834388</v>
+        <v>10834373</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -9707,7 +9707,7 @@
         <v>1667576</v>
       </c>
       <c r="D191">
-        <v>573566</v>
+        <v>573567</v>
       </c>
       <c r="E191">
         <v>207671</v>
@@ -9716,10 +9716,10 @@
         <v>9966680</v>
       </c>
       <c r="G191">
-        <v>8670703</v>
+        <v>8670722</v>
       </c>
       <c r="H191">
-        <v>1073112</v>
+        <v>1073113</v>
       </c>
       <c r="I191">
         <v>128.59</v>
@@ -9734,10 +9734,10 @@
         <v>127.14</v>
       </c>
       <c r="M191">
-        <v>14527891</v>
+        <v>14527892</v>
       </c>
       <c r="N191">
-        <v>8368538</v>
+        <v>8368539</v>
       </c>
       <c r="O191">
         <v>2551082</v>
@@ -9787,10 +9787,10 @@
         <v>127.59</v>
       </c>
       <c r="M192">
-        <v>14532666</v>
+        <v>14532667</v>
       </c>
       <c r="N192">
-        <v>8290112</v>
+        <v>8290113</v>
       </c>
       <c r="O192">
         <v>2547704</v>
@@ -9840,10 +9840,10 @@
         <v>128.13</v>
       </c>
       <c r="M193">
-        <v>14761189</v>
+        <v>14761190</v>
       </c>
       <c r="N193">
-        <v>8365204</v>
+        <v>8365205</v>
       </c>
       <c r="O193">
         <v>2572352</v>
@@ -9872,7 +9872,7 @@
         <v>235008</v>
       </c>
       <c r="F194">
-        <v>14729048</v>
+        <v>14729051</v>
       </c>
       <c r="G194">
         <v>13027499</v>
@@ -9893,10 +9893,10 @@
         <v>128.88</v>
       </c>
       <c r="M194">
-        <v>14843870</v>
+        <v>14843871</v>
       </c>
       <c r="N194">
-        <v>8388091</v>
+        <v>8388092</v>
       </c>
       <c r="O194">
         <v>2570152</v>
@@ -9946,10 +9946,10 @@
         <v>129.54</v>
       </c>
       <c r="M195">
-        <v>14888801</v>
+        <v>14888802</v>
       </c>
       <c r="N195">
-        <v>8325563</v>
+        <v>8325564</v>
       </c>
       <c r="O195">
         <v>2571041</v>
@@ -9978,7 +9978,7 @@
         <v>219934</v>
       </c>
       <c r="F196">
-        <v>13097724</v>
+        <v>13097726</v>
       </c>
       <c r="G196">
         <v>11730221</v>
@@ -10002,7 +10002,7 @@
         <v>14967483</v>
       </c>
       <c r="N196">
-        <v>8320059</v>
+        <v>8320060</v>
       </c>
       <c r="O196">
         <v>2563115</v>
@@ -10052,10 +10052,10 @@
         <v>130.86</v>
       </c>
       <c r="M197">
-        <v>15089627</v>
+        <v>15089628</v>
       </c>
       <c r="N197">
-        <v>8341523</v>
+        <v>8341524</v>
       </c>
       <c r="O197">
         <v>2566570</v>
@@ -10105,10 +10105,10 @@
         <v>131.55</v>
       </c>
       <c r="M198">
-        <v>15141560</v>
+        <v>15141561</v>
       </c>
       <c r="N198">
-        <v>8330326</v>
+        <v>8330327</v>
       </c>
       <c r="O198">
         <v>2567371</v>
@@ -10158,10 +10158,10 @@
         <v>132.19</v>
       </c>
       <c r="M199">
-        <v>15309104</v>
+        <v>15309105</v>
       </c>
       <c r="N199">
-        <v>8356574</v>
+        <v>8356575</v>
       </c>
       <c r="O199">
         <v>2587922</v>
@@ -10211,10 +10211,10 @@
         <v>132.87</v>
       </c>
       <c r="M200">
-        <v>15440714</v>
+        <v>15440715</v>
       </c>
       <c r="N200">
-        <v>8350593</v>
+        <v>8350594</v>
       </c>
       <c r="O200">
         <v>2599973</v>
@@ -10264,10 +10264,10 @@
         <v>133.49</v>
       </c>
       <c r="M201">
-        <v>15510488</v>
+        <v>15510489</v>
       </c>
       <c r="N201">
-        <v>8368336</v>
+        <v>8368337</v>
       </c>
       <c r="O201">
         <v>2605546</v>
@@ -10296,7 +10296,7 @@
         <v>211859</v>
       </c>
       <c r="F202">
-        <v>10071167</v>
+        <v>10071173</v>
       </c>
       <c r="G202">
         <v>8724780</v>
@@ -10317,10 +10317,10 @@
         <v>134.04</v>
       </c>
       <c r="M202">
-        <v>15673798</v>
+        <v>15673799</v>
       </c>
       <c r="N202">
-        <v>8381893</v>
+        <v>8381894</v>
       </c>
       <c r="O202">
         <v>2635463</v>
@@ -10349,7 +10349,7 @@
         <v>223173</v>
       </c>
       <c r="F203">
-        <v>9851301</v>
+        <v>9851299</v>
       </c>
       <c r="G203">
         <v>8695175</v>
@@ -11877,7 +11877,7 @@
         <v>32598</v>
       </c>
       <c r="B232">
-        <v>1361127</v>
+        <v>1361131</v>
       </c>
       <c r="D232">
         <v>652549</v>
@@ -11886,7 +11886,7 @@
         <v>176192</v>
       </c>
       <c r="F232">
-        <v>11588944</v>
+        <v>11588964</v>
       </c>
       <c r="G232">
         <v>10451849</v>
@@ -33683,46 +33683,46 @@
         <v>44681</v>
       </c>
       <c r="B629">
-        <v>874137</v>
+        <v>874410</v>
       </c>
       <c r="C629">
         <v>1430</v>
       </c>
       <c r="D629">
-        <v>304699</v>
+        <v>306178</v>
       </c>
       <c r="E629">
-        <v>125379</v>
+        <v>125233</v>
       </c>
       <c r="F629">
-        <v>6032730</v>
+        <v>6035329</v>
       </c>
       <c r="G629">
-        <v>4790066</v>
+        <v>4788802</v>
       </c>
       <c r="H629">
-        <v>1886923</v>
+        <v>1886565</v>
       </c>
       <c r="I629">
-        <v>403.99</v>
+        <v>404.03</v>
       </c>
       <c r="J629">
         <v>34</v>
       </c>
       <c r="K629">
-        <v>17.51</v>
+        <v>17.5</v>
       </c>
       <c r="L629">
         <v>363.49</v>
       </c>
       <c r="M629">
-        <v>33624881</v>
+        <v>33624523</v>
       </c>
       <c r="N629">
-        <v>5592910</v>
+        <v>5594389</v>
       </c>
       <c r="O629">
-        <v>2875355</v>
+        <v>2875209</v>
       </c>
       <c r="P629">
         <v>5080</v>
@@ -33739,46 +33739,46 @@
         <v>44712</v>
       </c>
       <c r="B630">
-        <v>858243</v>
+        <v>858698</v>
       </c>
       <c r="C630">
         <v>1349.6</v>
       </c>
       <c r="D630">
-        <v>313021</v>
+        <v>314495</v>
       </c>
       <c r="E630">
-        <v>125575</v>
+        <v>125343</v>
       </c>
       <c r="F630">
-        <v>5982003</v>
+        <v>5985008</v>
       </c>
       <c r="G630">
-        <v>4675812</v>
+        <v>4674532</v>
       </c>
       <c r="H630">
-        <v>1815116</v>
+        <v>1814777</v>
       </c>
       <c r="I630">
-        <v>397.16</v>
+        <v>397.2</v>
       </c>
       <c r="J630">
         <v>32.7</v>
       </c>
       <c r="K630">
-        <v>17.48</v>
+        <v>17.47</v>
       </c>
       <c r="L630">
         <v>367.94</v>
       </c>
       <c r="M630">
-        <v>31524771</v>
+        <v>31524073</v>
       </c>
       <c r="N630">
-        <v>5166899</v>
+        <v>5169852</v>
       </c>
       <c r="O630">
-        <v>2630917</v>
+        <v>2630539</v>
       </c>
       <c r="P630">
         <v>5096</v>
@@ -33795,46 +33795,46 @@
         <v>44742</v>
       </c>
       <c r="B631">
-        <v>936213</v>
+        <v>936253</v>
       </c>
       <c r="C631">
         <v>1297.2</v>
       </c>
       <c r="D631">
-        <v>327875</v>
+        <v>330035</v>
       </c>
       <c r="E631">
-        <v>106325</v>
+        <v>106212</v>
       </c>
       <c r="F631">
-        <v>5513046</v>
+        <v>5513141</v>
       </c>
       <c r="G631">
-        <v>4383367</v>
+        <v>4382172</v>
       </c>
       <c r="H631">
-        <v>1692379</v>
+        <v>1692062</v>
       </c>
       <c r="I631">
-        <v>394.65</v>
+        <v>394.69</v>
       </c>
       <c r="J631">
-        <v>31.71</v>
+        <v>31.7</v>
       </c>
       <c r="K631">
-        <v>16.98</v>
+        <v>16.97</v>
       </c>
       <c r="L631">
         <v>372.8</v>
       </c>
       <c r="M631">
-        <v>29233138</v>
+        <v>29232123</v>
       </c>
       <c r="N631">
-        <v>4846640</v>
+        <v>4851753</v>
       </c>
       <c r="O631">
-        <v>2404192</v>
+        <v>2403701</v>
       </c>
       <c r="P631">
         <v>5103</v>
@@ -33851,46 +33851,46 @@
         <v>44773</v>
       </c>
       <c r="B632">
-        <v>1026150</v>
+        <v>1026213</v>
       </c>
       <c r="C632">
         <v>1442.9</v>
       </c>
       <c r="D632">
-        <v>367190</v>
+        <v>370301</v>
       </c>
       <c r="E632">
-        <v>113474</v>
+        <v>113343</v>
       </c>
       <c r="F632">
-        <v>6320944</v>
+        <v>6321687</v>
       </c>
       <c r="G632">
-        <v>4667208</v>
+        <v>4662531</v>
       </c>
       <c r="H632">
-        <v>1753875</v>
+        <v>1753029</v>
       </c>
       <c r="I632">
-        <v>383.98</v>
+        <v>384.2</v>
       </c>
       <c r="J632">
-        <v>31.01</v>
+        <v>31</v>
       </c>
       <c r="K632">
-        <v>16.45</v>
+        <v>16.41</v>
       </c>
       <c r="L632">
-        <v>377.45</v>
+        <v>377.47</v>
       </c>
       <c r="M632">
-        <v>27532817</v>
+        <v>27530957</v>
       </c>
       <c r="N632">
-        <v>4634201</v>
+        <v>4642425</v>
       </c>
       <c r="O632">
-        <v>2233052</v>
+        <v>2232430</v>
       </c>
       <c r="P632">
         <v>5129</v>
@@ -33907,46 +33907,46 @@
         <v>44804</v>
       </c>
       <c r="B633">
-        <v>888742</v>
+        <v>888796</v>
       </c>
       <c r="C633">
         <v>1399.5</v>
       </c>
       <c r="D633">
-        <v>356591</v>
+        <v>358825</v>
       </c>
       <c r="E633">
-        <v>118733</v>
+        <v>118519</v>
       </c>
       <c r="F633">
-        <v>6337806</v>
+        <v>6337895</v>
       </c>
       <c r="G633">
-        <v>5273207</v>
+        <v>5268267</v>
       </c>
       <c r="H633">
-        <v>2016703</v>
+        <v>2015867</v>
       </c>
       <c r="I633">
-        <v>390.7</v>
+        <v>390.91</v>
       </c>
       <c r="J633">
-        <v>30.43</v>
+        <v>30.42</v>
       </c>
       <c r="K633">
-        <v>15.62</v>
+        <v>15.58</v>
       </c>
       <c r="L633">
-        <v>382.69</v>
+        <v>382.72</v>
       </c>
       <c r="M633">
-        <v>26104690</v>
+        <v>26101993</v>
       </c>
       <c r="N633">
-        <v>4538907</v>
+        <v>4549365</v>
       </c>
       <c r="O633">
-        <v>2078273</v>
+        <v>2077437</v>
       </c>
       <c r="P633">
         <v>5139</v>
@@ -34019,46 +34019,46 @@
         <v>44865</v>
       </c>
       <c r="B635">
-        <v>826695</v>
+        <v>826718</v>
       </c>
       <c r="C635">
         <v>1222.3</v>
       </c>
       <c r="D635">
-        <v>296141</v>
+        <v>297387</v>
       </c>
       <c r="E635">
-        <v>114228</v>
+        <v>114214</v>
       </c>
       <c r="F635">
-        <v>5627721</v>
+        <v>5628808</v>
       </c>
       <c r="G635">
-        <v>4359116</v>
+        <v>4354514</v>
       </c>
       <c r="H635">
-        <v>1732508</v>
+        <v>1731817</v>
       </c>
       <c r="I635">
-        <v>406.33</v>
+        <v>406.58</v>
       </c>
       <c r="J635">
-        <v>30.11</v>
+        <v>30.09</v>
       </c>
       <c r="K635">
-        <v>15.03</v>
+        <v>14.99</v>
       </c>
       <c r="L635">
-        <v>392.65</v>
+        <v>392.71</v>
       </c>
       <c r="M635">
-        <v>24556904</v>
+        <v>24553517</v>
       </c>
       <c r="N635">
-        <v>4293567</v>
+        <v>4305271</v>
       </c>
       <c r="O635">
-        <v>1684089</v>
+        <v>1683239</v>
       </c>
       <c r="P635">
         <v>5143</v>
@@ -34075,46 +34075,46 @@
         <v>44895</v>
       </c>
       <c r="B636">
-        <v>1008284</v>
+        <v>1008304</v>
       </c>
       <c r="C636">
         <v>1346</v>
       </c>
       <c r="D636">
-        <v>353166</v>
+        <v>354722</v>
       </c>
       <c r="E636">
-        <v>112106</v>
+        <v>112078</v>
       </c>
       <c r="F636">
-        <v>5706299</v>
+        <v>5706653</v>
       </c>
       <c r="G636">
-        <v>4582761</v>
+        <v>4577416</v>
       </c>
       <c r="H636">
-        <v>1871519</v>
+        <v>1870547</v>
       </c>
       <c r="I636">
-        <v>417.45</v>
+        <v>417.71</v>
       </c>
       <c r="J636">
-        <v>30.68</v>
+        <v>30.65</v>
       </c>
       <c r="K636">
-        <v>14.52</v>
+        <v>14.47</v>
       </c>
       <c r="L636">
-        <v>397.26</v>
+        <v>397.34</v>
       </c>
       <c r="M636">
-        <v>24209669</v>
+        <v>24205309</v>
       </c>
       <c r="N636">
-        <v>4317777</v>
+        <v>4331037</v>
       </c>
       <c r="O636">
-        <v>1585449</v>
+        <v>1584571</v>
       </c>
       <c r="P636">
         <v>5161</v>
@@ -34131,46 +34131,46 @@
         <v>44926</v>
       </c>
       <c r="B637">
-        <v>1159588</v>
+        <v>1159592</v>
       </c>
       <c r="C637">
         <v>1557.9</v>
       </c>
       <c r="D637">
-        <v>463463</v>
+        <v>466257</v>
       </c>
       <c r="E637">
-        <v>114578</v>
+        <v>114559</v>
       </c>
       <c r="F637">
-        <v>6575471</v>
+        <v>6576089</v>
       </c>
       <c r="G637">
-        <v>5403279</v>
+        <v>5398665</v>
       </c>
       <c r="H637">
-        <v>2237864</v>
+        <v>2237212</v>
       </c>
       <c r="I637">
-        <v>422.41</v>
+        <v>422.64</v>
       </c>
       <c r="J637">
-        <v>31.32</v>
+        <v>31.27</v>
       </c>
       <c r="K637">
-        <v>14.2</v>
+        <v>14.14</v>
       </c>
       <c r="L637">
-        <v>401.45</v>
+        <v>401.55</v>
       </c>
       <c r="M637">
-        <v>24255166</v>
+        <v>24250155</v>
       </c>
       <c r="N637">
-        <v>4368862</v>
+        <v>4384916</v>
       </c>
       <c r="O637">
-        <v>1518179</v>
+        <v>1517282</v>
       </c>
       <c r="P637">
         <v>5131</v>
@@ -34187,46 +34187,46 @@
         <v>44957</v>
       </c>
       <c r="B638">
-        <v>1225995</v>
+        <v>1226029</v>
       </c>
       <c r="C638">
         <v>1855.5</v>
       </c>
       <c r="D638">
-        <v>650604</v>
+        <v>654556</v>
       </c>
       <c r="E638">
-        <v>140356</v>
+        <v>140315</v>
       </c>
       <c r="F638">
-        <v>8984340</v>
+        <v>8985388</v>
       </c>
       <c r="G638">
-        <v>7349669</v>
+        <v>7343897</v>
       </c>
       <c r="H638">
-        <v>3116922</v>
+        <v>3116021</v>
       </c>
       <c r="I638">
-        <v>430.24</v>
+        <v>430.45</v>
       </c>
       <c r="J638">
-        <v>31.96</v>
+        <v>31.88</v>
       </c>
       <c r="K638">
-        <v>13.89</v>
+        <v>13.82</v>
       </c>
       <c r="L638">
-        <v>406.13</v>
+        <v>406.25</v>
       </c>
       <c r="M638">
-        <v>24737043</v>
+        <v>24731131</v>
       </c>
       <c r="N638">
-        <v>4489271</v>
+        <v>4509277</v>
       </c>
       <c r="O638">
-        <v>1481002</v>
+        <v>1480064</v>
       </c>
       <c r="P638">
         <v>5206</v>
@@ -34243,46 +34243,46 @@
         <v>44985</v>
       </c>
       <c r="B639">
-        <v>898553</v>
+        <v>898601</v>
       </c>
       <c r="C639">
         <v>1870.1</v>
       </c>
       <c r="D639">
-        <v>467221</v>
+        <v>472095</v>
       </c>
       <c r="E639">
-        <v>118663</v>
+        <v>118647</v>
       </c>
       <c r="F639">
-        <v>7770797</v>
+        <v>7771908</v>
       </c>
       <c r="G639">
-        <v>6555834</v>
+        <v>6550061</v>
       </c>
       <c r="H639">
-        <v>2820259</v>
+        <v>2819434</v>
       </c>
       <c r="I639">
-        <v>437.6</v>
+        <v>437.85</v>
       </c>
       <c r="J639">
-        <v>32.18</v>
+        <v>32.08</v>
       </c>
       <c r="K639">
-        <v>13.74</v>
+        <v>13.65</v>
       </c>
       <c r="L639">
-        <v>410.06</v>
+        <v>410.21</v>
       </c>
       <c r="M639">
-        <v>25141906</v>
+        <v>25135170</v>
       </c>
       <c r="N639">
-        <v>4562720</v>
+        <v>4587600</v>
       </c>
       <c r="O639">
-        <v>1460599</v>
+        <v>1459645</v>
       </c>
       <c r="P639">
         <v>5229</v>
@@ -34299,46 +34299,46 @@
         <v>45016</v>
       </c>
       <c r="B640">
-        <v>986338</v>
+        <v>986350</v>
       </c>
       <c r="C640">
         <v>1852.7</v>
       </c>
       <c r="D640">
-        <v>410574</v>
+        <v>416346</v>
       </c>
       <c r="E640">
-        <v>130448</v>
+        <v>130431</v>
       </c>
       <c r="F640">
-        <v>7971957</v>
+        <v>7972838</v>
       </c>
       <c r="G640">
-        <v>6869228</v>
+        <v>6862763</v>
       </c>
       <c r="H640">
-        <v>2976897</v>
+        <v>2975986</v>
       </c>
       <c r="I640">
-        <v>441.11</v>
+        <v>441.38</v>
       </c>
       <c r="J640">
-        <v>32.71</v>
+        <v>32.61</v>
       </c>
       <c r="K640">
-        <v>13.72</v>
+        <v>13.62</v>
       </c>
       <c r="L640">
-        <v>413.66</v>
+        <v>413.84</v>
       </c>
       <c r="M640">
-        <v>25578295</v>
+        <v>25570647</v>
       </c>
       <c r="N640">
-        <v>4598640</v>
+        <v>4629292</v>
       </c>
       <c r="O640">
-        <v>1422681</v>
+        <v>1421710</v>
       </c>
       <c r="P640">
         <v>5249</v>
@@ -34355,46 +34355,46 @@
         <v>45046</v>
       </c>
       <c r="B641">
-        <v>953696</v>
+        <v>953756</v>
       </c>
       <c r="C641">
         <v>1735</v>
       </c>
       <c r="D641">
-        <v>363588</v>
+        <v>368203</v>
       </c>
       <c r="E641">
-        <v>148741</v>
+        <v>148730</v>
       </c>
       <c r="F641">
-        <v>7610989</v>
+        <v>7612406</v>
       </c>
       <c r="G641">
-        <v>6114028</v>
+        <v>6109205</v>
       </c>
       <c r="H641">
-        <v>2614719</v>
+        <v>2614090</v>
       </c>
       <c r="I641">
-        <v>435.16</v>
+        <v>435.4</v>
       </c>
       <c r="J641">
-        <v>33.68</v>
+        <v>33.57</v>
       </c>
       <c r="K641">
-        <v>13.83</v>
+        <v>13.72</v>
       </c>
       <c r="L641">
-        <v>416.42</v>
+        <v>416.62</v>
       </c>
       <c r="M641">
-        <v>26306091</v>
+        <v>26298172</v>
       </c>
       <c r="N641">
-        <v>4657529</v>
+        <v>4691317</v>
       </c>
       <c r="O641">
-        <v>1446043</v>
+        <v>1445207</v>
       </c>
       <c r="P641">
         <v>5263</v>
@@ -34411,46 +34411,46 @@
         <v>45077</v>
       </c>
       <c r="B642">
-        <v>1002688</v>
+        <v>1002739</v>
       </c>
       <c r="C642">
         <v>1599.9</v>
       </c>
       <c r="D642">
-        <v>385965</v>
+        <v>389455</v>
       </c>
       <c r="E642">
-        <v>155705</v>
+        <v>155692</v>
       </c>
       <c r="F642">
-        <v>7188422</v>
+        <v>7189107</v>
       </c>
       <c r="G642">
-        <v>6149230</v>
+        <v>6143710</v>
       </c>
       <c r="H642">
-        <v>2648365</v>
+        <v>2647741</v>
       </c>
       <c r="I642">
-        <v>438.34</v>
+        <v>438.63</v>
       </c>
       <c r="J642">
-        <v>34.19</v>
+        <v>34.07</v>
       </c>
       <c r="K642">
-        <v>13.93</v>
+        <v>13.81</v>
       </c>
       <c r="L642">
-        <v>419.83</v>
+        <v>420.04</v>
       </c>
       <c r="M642">
-        <v>27139339</v>
+        <v>27131137</v>
       </c>
       <c r="N642">
-        <v>4730473</v>
+        <v>4766277</v>
       </c>
       <c r="O642">
-        <v>1476173</v>
+        <v>1475556</v>
       </c>
       <c r="P642">
         <v>5280</v>
@@ -34467,46 +34467,46 @@
         <v>45107</v>
       </c>
       <c r="B643">
-        <v>1112956</v>
+        <v>1113040</v>
       </c>
       <c r="C643">
         <v>1654.7</v>
       </c>
       <c r="D643">
-        <v>417140</v>
+        <v>421109</v>
       </c>
       <c r="E643">
-        <v>135634</v>
+        <v>135616</v>
       </c>
       <c r="F643">
-        <v>6937416</v>
+        <v>6938449</v>
       </c>
       <c r="G643">
-        <v>5717791</v>
+        <v>5712665</v>
       </c>
       <c r="H643">
-        <v>2439405</v>
+        <v>2438803</v>
       </c>
       <c r="I643">
-        <v>434.38</v>
+        <v>434.67</v>
       </c>
       <c r="J643">
-        <v>34.46</v>
+        <v>34.32</v>
       </c>
       <c r="K643">
-        <v>13.95</v>
+        <v>13.83</v>
       </c>
       <c r="L643">
-        <v>422.69</v>
+        <v>422.92</v>
       </c>
       <c r="M643">
-        <v>27886366</v>
+        <v>27877878</v>
       </c>
       <c r="N643">
-        <v>4819738</v>
+        <v>4857351</v>
       </c>
       <c r="O643">
-        <v>1505482</v>
+        <v>1504960</v>
       </c>
       <c r="P643">
         <v>5301</v>
@@ -34523,46 +34523,46 @@
         <v>45138</v>
       </c>
       <c r="B644">
-        <v>1058602</v>
+        <v>1058538</v>
       </c>
       <c r="C644">
         <v>1820.7</v>
       </c>
       <c r="D644">
-        <v>467031</v>
+        <v>469985</v>
       </c>
       <c r="E644">
-        <v>165381</v>
+        <v>165374</v>
       </c>
       <c r="F644">
-        <v>8486770</v>
+        <v>8488527</v>
       </c>
       <c r="G644">
-        <v>6747168</v>
+        <v>6742198</v>
       </c>
       <c r="H644">
-        <v>2806721</v>
+        <v>2806162</v>
       </c>
       <c r="I644">
-        <v>423.53</v>
+        <v>423.76</v>
       </c>
       <c r="J644">
-        <v>34.69</v>
+        <v>34.53</v>
       </c>
       <c r="K644">
-        <v>14.09</v>
+        <v>13.97</v>
       </c>
       <c r="L644">
-        <v>425.36</v>
+        <v>425.6</v>
       </c>
       <c r="M644">
-        <v>28939211</v>
+        <v>28931011</v>
       </c>
       <c r="N644">
-        <v>4919579</v>
+        <v>4957035</v>
       </c>
       <c r="O644">
-        <v>1557389</v>
+        <v>1556991</v>
       </c>
       <c r="P644">
         <v>5301</v>
@@ -34579,46 +34579,46 @@
         <v>45169</v>
       </c>
       <c r="B645">
-        <v>938485</v>
+        <v>938430</v>
       </c>
       <c r="C645">
         <v>1793.4</v>
       </c>
       <c r="D645">
-        <v>422897</v>
+        <v>425850</v>
       </c>
       <c r="E645">
-        <v>156136</v>
+        <v>156122</v>
       </c>
       <c r="F645">
-        <v>7608152</v>
+        <v>7609003</v>
       </c>
       <c r="G645">
-        <v>6593568</v>
+        <v>6588428</v>
       </c>
       <c r="H645">
-        <v>2808471</v>
+        <v>2807863</v>
       </c>
       <c r="I645">
-        <v>433.69</v>
+        <v>433.94</v>
       </c>
       <c r="J645">
-        <v>34.95</v>
+        <v>34.76</v>
       </c>
       <c r="K645">
-        <v>14.17</v>
+        <v>14.05</v>
       </c>
       <c r="L645">
-        <v>428.71</v>
+        <v>428.95</v>
       </c>
       <c r="M645">
-        <v>29730979</v>
+        <v>29723007</v>
       </c>
       <c r="N645">
-        <v>4985885</v>
+        <v>5024060</v>
       </c>
       <c r="O645">
-        <v>1594792</v>
+        <v>1594594</v>
       </c>
       <c r="P645">
         <v>5329</v>
@@ -34635,46 +34635,46 @@
         <v>45199</v>
       </c>
       <c r="B646">
-        <v>753218</v>
+        <v>753093</v>
       </c>
       <c r="C646">
         <v>1567.9</v>
       </c>
       <c r="D646">
-        <v>333047</v>
+        <v>336506</v>
       </c>
       <c r="E646">
-        <v>141177</v>
+        <v>141157</v>
       </c>
       <c r="F646">
-        <v>6547926</v>
+        <v>6549102</v>
       </c>
       <c r="G646">
-        <v>5502967</v>
+        <v>5497178</v>
       </c>
       <c r="H646">
-        <v>2401698</v>
+        <v>2401080</v>
       </c>
       <c r="I646">
-        <v>444.67</v>
+        <v>445.04</v>
       </c>
       <c r="J646">
-        <v>35.51</v>
+        <v>35.27</v>
       </c>
       <c r="K646">
-        <v>14.3</v>
+        <v>14.17</v>
       </c>
       <c r="L646">
-        <v>431.35</v>
+        <v>431.61</v>
       </c>
       <c r="M646">
-        <v>30475347</v>
+        <v>30466757</v>
       </c>
       <c r="N646">
-        <v>5030837</v>
+        <v>5072471</v>
       </c>
       <c r="O646">
-        <v>1633153</v>
+        <v>1632935</v>
       </c>
       <c r="P646">
         <v>5346</v>
@@ -34691,46 +34691,46 @@
         <v>45230</v>
       </c>
       <c r="B647">
-        <v>886888</v>
+        <v>886919</v>
       </c>
       <c r="C647">
         <v>1567.9</v>
       </c>
       <c r="D647">
-        <v>364014</v>
+        <v>367417</v>
       </c>
       <c r="E647">
-        <v>169726</v>
+        <v>169709</v>
       </c>
       <c r="F647">
-        <v>7434462</v>
+        <v>7436039</v>
       </c>
       <c r="G647">
-        <v>6116644</v>
+        <v>6110566</v>
       </c>
       <c r="H647">
-        <v>2678905</v>
+        <v>2678275</v>
       </c>
       <c r="I647">
-        <v>446</v>
+        <v>446.34</v>
       </c>
       <c r="J647">
-        <v>36.26</v>
+        <v>35.99</v>
       </c>
       <c r="K647">
-        <v>14.46</v>
+        <v>14.32</v>
       </c>
       <c r="L647">
-        <v>434.03</v>
+        <v>434.3</v>
       </c>
       <c r="M647">
-        <v>31421745</v>
+        <v>31413215</v>
       </c>
       <c r="N647">
-        <v>5098710</v>
+        <v>5142501</v>
       </c>
       <c r="O647">
-        <v>1688651</v>
+        <v>1688430</v>
       </c>
       <c r="P647">
         <v>5375</v>
@@ -34747,46 +34747,46 @@
         <v>45260</v>
       </c>
       <c r="B648">
-        <v>1025249</v>
+        <v>1025076</v>
       </c>
       <c r="C648">
         <v>1553.7</v>
       </c>
       <c r="D648">
-        <v>390425</v>
+        <v>393328</v>
       </c>
       <c r="E648">
         <v>151099</v>
       </c>
       <c r="F648">
-        <v>6834458</v>
+        <v>6835461</v>
       </c>
       <c r="G648">
-        <v>5684541</v>
+        <v>5679700</v>
       </c>
       <c r="H648">
-        <v>2509195</v>
+        <v>2508710</v>
       </c>
       <c r="I648">
-        <v>451.23</v>
+        <v>451.54</v>
       </c>
       <c r="J648">
-        <v>36.52</v>
+        <v>36.24</v>
       </c>
       <c r="K648">
-        <v>14.56</v>
+        <v>14.43</v>
       </c>
       <c r="L648">
-        <v>436.34</v>
+        <v>436.61</v>
       </c>
       <c r="M648">
-        <v>32059421</v>
+        <v>32051378</v>
       </c>
       <c r="N648">
-        <v>5135969</v>
+        <v>5181107</v>
       </c>
       <c r="O648">
-        <v>1727644</v>
+        <v>1727451</v>
       </c>
       <c r="P648">
         <v>5383</v>
@@ -34803,46 +34803,46 @@
         <v>45291</v>
       </c>
       <c r="B649">
-        <v>1158534</v>
+        <v>1158324</v>
       </c>
       <c r="C649">
         <v>1818.4</v>
       </c>
       <c r="D649">
-        <v>463070</v>
+        <v>466261</v>
       </c>
       <c r="E649">
-        <v>159299</v>
+        <v>159293</v>
       </c>
       <c r="F649">
-        <v>8153979</v>
+        <v>8154128</v>
       </c>
       <c r="G649">
-        <v>6419891</v>
+        <v>6415249</v>
       </c>
       <c r="H649">
-        <v>2852757</v>
+        <v>2852284</v>
       </c>
       <c r="I649">
-        <v>452.36</v>
+        <v>452.62</v>
       </c>
       <c r="J649">
-        <v>36.77</v>
+        <v>36.48</v>
       </c>
       <c r="K649">
-        <v>14.76</v>
+        <v>14.62</v>
       </c>
       <c r="L649">
-        <v>438.68</v>
+        <v>438.95</v>
       </c>
       <c r="M649">
-        <v>32674314</v>
+        <v>32666450</v>
       </c>
       <c r="N649">
-        <v>5135576</v>
+        <v>5181111</v>
       </c>
       <c r="O649">
-        <v>1772365</v>
+        <v>1772185</v>
       </c>
       <c r="P649">
         <v>5404</v>
@@ -34859,46 +34859,46 @@
         <v>45322</v>
       </c>
       <c r="B650">
-        <v>1249992</v>
+        <v>1249757</v>
       </c>
       <c r="C650">
         <v>2050.7</v>
       </c>
       <c r="D650">
-        <v>676831</v>
+        <v>680599</v>
       </c>
       <c r="E650">
-        <v>184513</v>
+        <v>184503</v>
       </c>
       <c r="F650">
-        <v>9546269</v>
+        <v>9547638</v>
       </c>
       <c r="G650">
-        <v>8372902</v>
+        <v>8366985</v>
       </c>
       <c r="H650">
-        <v>3777907</v>
+        <v>3777341</v>
       </c>
       <c r="I650">
-        <v>459.14</v>
+        <v>459.4</v>
       </c>
       <c r="J650">
-        <v>36.92</v>
+        <v>36.64</v>
       </c>
       <c r="K650">
-        <v>14.89</v>
+        <v>14.74</v>
       </c>
       <c r="L650">
-        <v>441.73</v>
+        <v>442</v>
       </c>
       <c r="M650">
-        <v>33335299</v>
+        <v>33327769</v>
       </c>
       <c r="N650">
-        <v>5161803</v>
+        <v>5207154</v>
       </c>
       <c r="O650">
-        <v>1816522</v>
+        <v>1816373</v>
       </c>
       <c r="P650">
         <v>5420</v>
@@ -34915,46 +34915,46 @@
         <v>45351</v>
       </c>
       <c r="B651">
-        <v>881571</v>
+        <v>881185</v>
       </c>
       <c r="C651">
         <v>2059.2</v>
       </c>
       <c r="D651">
-        <v>487456</v>
+        <v>490557</v>
       </c>
       <c r="E651">
-        <v>157472</v>
+        <v>157469</v>
       </c>
       <c r="F651">
-        <v>8524590</v>
+        <v>8525643</v>
       </c>
       <c r="G651">
-        <v>7385863</v>
+        <v>7382243</v>
       </c>
       <c r="H651">
-        <v>3339684</v>
+        <v>3339076</v>
       </c>
       <c r="I651">
-        <v>459.48</v>
+        <v>459.63</v>
       </c>
       <c r="J651">
-        <v>37.21</v>
+        <v>36.93</v>
       </c>
       <c r="K651">
-        <v>14.99</v>
+        <v>14.85</v>
       </c>
       <c r="L651">
-        <v>443.77</v>
+        <v>444.04</v>
       </c>
       <c r="M651">
-        <v>33854725</v>
+        <v>33847411</v>
       </c>
       <c r="N651">
-        <v>5182038</v>
+        <v>5225616</v>
       </c>
       <c r="O651">
-        <v>1855331</v>
+        <v>1855195</v>
       </c>
       <c r="P651">
         <v>5434</v>
@@ -34963,7 +34963,7 @@
         <v>14776</v>
       </c>
       <c r="R651">
-        <v>444717</v>
+        <v>448458</v>
       </c>
     </row>
     <row r="652">
@@ -34971,55 +34971,55 @@
         <v>45382</v>
       </c>
       <c r="B652">
-        <v>844934</v>
+        <v>844605</v>
       </c>
       <c r="C652">
         <v>2000.4</v>
       </c>
       <c r="D652">
-        <v>405832</v>
+        <v>409088</v>
       </c>
       <c r="E652">
         <v>163774</v>
       </c>
       <c r="F652">
-        <v>8834568</v>
+        <v>8835172</v>
       </c>
       <c r="G652">
-        <v>7331803</v>
+        <v>7328647</v>
       </c>
       <c r="H652">
-        <v>3288506</v>
+        <v>3287976</v>
       </c>
       <c r="I652">
-        <v>455.87</v>
+        <v>456</v>
       </c>
       <c r="J652">
-        <v>37.54</v>
+        <v>37.23</v>
       </c>
       <c r="K652">
-        <v>15.09</v>
+        <v>14.96</v>
       </c>
       <c r="L652">
-        <v>445.14</v>
+        <v>445.39</v>
       </c>
       <c r="M652">
-        <v>34166334</v>
+        <v>34159401</v>
       </c>
       <c r="N652">
-        <v>5177296</v>
+        <v>5218358</v>
       </c>
       <c r="O652">
-        <v>1888657</v>
+        <v>1888538</v>
       </c>
       <c r="P652">
-        <v>5445</v>
+        <v>5444</v>
       </c>
       <c r="Q652">
-        <v>14827</v>
+        <v>14832</v>
       </c>
       <c r="R652">
-        <v>447315</v>
+        <v>453062</v>
       </c>
     </row>
     <row r="653">
@@ -35027,49 +35027,105 @@
         <v>45412</v>
       </c>
       <c r="B653">
-        <v>980055</v>
+        <v>913252</v>
+      </c>
+      <c r="C653">
+        <v>1807.6</v>
       </c>
       <c r="D653">
-        <v>503374</v>
+        <v>398632</v>
       </c>
       <c r="E653">
-        <v>176039</v>
+        <v>184164</v>
       </c>
       <c r="F653">
-        <v>8565796</v>
+        <v>8023953</v>
       </c>
       <c r="G653">
-        <v>7464763</v>
+        <v>7141893</v>
       </c>
       <c r="H653">
-        <v>3278597</v>
+        <v>3190590</v>
       </c>
       <c r="I653">
-        <v>445.94</v>
+        <v>454.58</v>
       </c>
       <c r="J653">
-        <v>37.58</v>
+        <v>37.41</v>
       </c>
       <c r="K653">
-        <v>14.95</v>
+        <v>15.07</v>
       </c>
       <c r="L653">
-        <v>445.98</v>
+        <v>447</v>
       </c>
       <c r="M653">
-        <v>34830212</v>
+        <v>34735901</v>
       </c>
       <c r="N653">
-        <v>5317082</v>
+        <v>5248787</v>
       </c>
       <c r="O653">
-        <v>1915955</v>
+        <v>1923972</v>
       </c>
       <c r="P653">
-        <v>5451</v>
+        <v>5450</v>
       </c>
       <c r="Q653">
-        <v>14827</v>
+        <v>14831</v>
+      </c>
+      <c r="R653">
+        <v>451154</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="2">
+        <v>45443</v>
+      </c>
+      <c r="B654">
+        <v>849074</v>
+      </c>
+      <c r="D654">
+        <v>370357</v>
+      </c>
+      <c r="E654">
+        <v>165347</v>
+      </c>
+      <c r="F654">
+        <v>7881011</v>
+      </c>
+      <c r="G654">
+        <v>6680702</v>
+      </c>
+      <c r="H654">
+        <v>2920528</v>
+      </c>
+      <c r="I654">
+        <v>444.88</v>
+      </c>
+      <c r="J654">
+        <v>37.32</v>
+      </c>
+      <c r="K654">
+        <v>15.23</v>
+      </c>
+      <c r="L654">
+        <v>447.46</v>
+      </c>
+      <c r="M654">
+        <v>35008688</v>
+      </c>
+      <c r="N654">
+        <v>5229689</v>
+      </c>
+      <c r="O654">
+        <v>1933627</v>
+      </c>
+      <c r="P654">
+        <v>5455</v>
+      </c>
+      <c r="Q654">
+        <v>14865</v>
       </c>
     </row>
   </sheetData>

--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R654"/>
+  <dimension ref="A1:R655"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4784,10 +4784,10 @@
         <v>210661</v>
       </c>
       <c r="F98">
-        <v>13886950</v>
+        <v>13886953</v>
       </c>
       <c r="G98">
-        <v>11076383</v>
+        <v>11076386</v>
       </c>
       <c r="H98">
         <v>904868</v>
@@ -5229,7 +5229,7 @@
         <v>82.78</v>
       </c>
       <c r="M106">
-        <v>8313959</v>
+        <v>8313960</v>
       </c>
       <c r="N106">
         <v>7636142</v>
@@ -5282,7 +5282,7 @@
         <v>83.03</v>
       </c>
       <c r="M107">
-        <v>8307254</v>
+        <v>8307255</v>
       </c>
       <c r="N107">
         <v>7633029</v>
@@ -6592,7 +6592,7 @@
         <v>9516801</v>
       </c>
       <c r="H132">
-        <v>935504</v>
+        <v>935482</v>
       </c>
       <c r="I132">
         <v>100.71</v>
@@ -6607,7 +6607,7 @@
         <v>99.05</v>
       </c>
       <c r="M132">
-        <v>14067051</v>
+        <v>14067029</v>
       </c>
       <c r="N132">
         <v>9919645</v>
@@ -6660,7 +6660,7 @@
         <v>99.53</v>
       </c>
       <c r="M133">
-        <v>14469504</v>
+        <v>14469482</v>
       </c>
       <c r="N133">
         <v>9992123</v>
@@ -6713,7 +6713,7 @@
         <v>100.2</v>
       </c>
       <c r="M134">
-        <v>14605139</v>
+        <v>14605117</v>
       </c>
       <c r="N134">
         <v>9946214</v>
@@ -6766,7 +6766,7 @@
         <v>100.72</v>
       </c>
       <c r="M135">
-        <v>14690576</v>
+        <v>14690554</v>
       </c>
       <c r="N135">
         <v>9890722</v>
@@ -6819,7 +6819,7 @@
         <v>101.31</v>
       </c>
       <c r="M136">
-        <v>14867035</v>
+        <v>14867013</v>
       </c>
       <c r="N136">
         <v>9919839</v>
@@ -6872,7 +6872,7 @@
         <v>101.83</v>
       </c>
       <c r="M137">
-        <v>14861553</v>
+        <v>14861531</v>
       </c>
       <c r="N137">
         <v>9793604</v>
@@ -6925,7 +6925,7 @@
         <v>102.25</v>
       </c>
       <c r="M138">
-        <v>14670945</v>
+        <v>14670923</v>
       </c>
       <c r="N138">
         <v>9476838</v>
@@ -6978,7 +6978,7 @@
         <v>102.61</v>
       </c>
       <c r="M139">
-        <v>14467170</v>
+        <v>14467148</v>
       </c>
       <c r="N139">
         <v>9214474</v>
@@ -7004,7 +7004,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823662</v>
+        <v>823668</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -7031,10 +7031,10 @@
         <v>103.08</v>
       </c>
       <c r="M140">
-        <v>14131950</v>
+        <v>14131928</v>
       </c>
       <c r="N140">
-        <v>8935498</v>
+        <v>8935504</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -7084,10 +7084,10 @@
         <v>103.59</v>
       </c>
       <c r="M141">
-        <v>13894246</v>
+        <v>13894224</v>
       </c>
       <c r="N141">
-        <v>8782013</v>
+        <v>8782019</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -7137,10 +7137,10 @@
         <v>104.14</v>
       </c>
       <c r="M142">
-        <v>13750153</v>
+        <v>13750131</v>
       </c>
       <c r="N142">
-        <v>8776281</v>
+        <v>8776287</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -7190,10 +7190,10 @@
         <v>104.75</v>
       </c>
       <c r="M143">
-        <v>13622022</v>
+        <v>13622000</v>
       </c>
       <c r="N143">
-        <v>8836723</v>
+        <v>8836729</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -7246,7 +7246,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042531</v>
+        <v>9042537</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -7299,7 +7299,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9395151</v>
+        <v>9395157</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -7352,7 +7352,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9716015</v>
+        <v>9716021</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -7405,7 +7405,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916846</v>
+        <v>9916852</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -7458,7 +7458,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176479</v>
+        <v>10176485</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -7511,7 +7511,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10402060</v>
+        <v>10402066</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -7564,7 +7564,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586460</v>
+        <v>10586466</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -7617,7 +7617,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834373</v>
+        <v>10834379</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -9442,7 +9442,7 @@
         <v>1488338</v>
       </c>
       <c r="D186">
-        <v>590475</v>
+        <v>590382</v>
       </c>
       <c r="E186">
         <v>232183</v>
@@ -9451,13 +9451,13 @@
         <v>10937527</v>
       </c>
       <c r="G186">
-        <v>9818448</v>
+        <v>9816754</v>
       </c>
       <c r="H186">
-        <v>1208792</v>
+        <v>1208947</v>
       </c>
       <c r="I186">
-        <v>127.34</v>
+        <v>127.38</v>
       </c>
       <c r="J186">
         <v>32.49</v>
@@ -9469,10 +9469,10 @@
         <v>125.18</v>
       </c>
       <c r="M186">
-        <v>13889581</v>
+        <v>13889737</v>
       </c>
       <c r="N186">
-        <v>8211280</v>
+        <v>8211187</v>
       </c>
       <c r="O186">
         <v>2510371</v>
@@ -9522,10 +9522,10 @@
         <v>125.48</v>
       </c>
       <c r="M187">
-        <v>13965814</v>
+        <v>13965969</v>
       </c>
       <c r="N187">
-        <v>8231271</v>
+        <v>8231178</v>
       </c>
       <c r="O187">
         <v>2506811</v>
@@ -9575,10 +9575,10 @@
         <v>125.89</v>
       </c>
       <c r="M188">
-        <v>14177047</v>
+        <v>14177203</v>
       </c>
       <c r="N188">
-        <v>8311057</v>
+        <v>8310964</v>
       </c>
       <c r="O188">
         <v>2528409</v>
@@ -9628,10 +9628,10 @@
         <v>126.37</v>
       </c>
       <c r="M189">
-        <v>14260355</v>
+        <v>14260511</v>
       </c>
       <c r="N189">
-        <v>8315417</v>
+        <v>8315324</v>
       </c>
       <c r="O189">
         <v>2521451</v>
@@ -9678,13 +9678,13 @@
         <v>14.06</v>
       </c>
       <c r="L190">
-        <v>126.78</v>
+        <v>126.79</v>
       </c>
       <c r="M190">
-        <v>14422682</v>
+        <v>14422838</v>
       </c>
       <c r="N190">
-        <v>8370998</v>
+        <v>8370905</v>
       </c>
       <c r="O190">
         <v>2540055</v>
@@ -9707,19 +9707,19 @@
         <v>1667576</v>
       </c>
       <c r="D191">
-        <v>573567</v>
+        <v>573568</v>
       </c>
       <c r="E191">
-        <v>207671</v>
+        <v>207672</v>
       </c>
       <c r="F191">
         <v>9966680</v>
       </c>
       <c r="G191">
-        <v>8670722</v>
+        <v>8670741</v>
       </c>
       <c r="H191">
-        <v>1073113</v>
+        <v>1073114</v>
       </c>
       <c r="I191">
         <v>128.59</v>
@@ -9734,13 +9734,13 @@
         <v>127.14</v>
       </c>
       <c r="M191">
-        <v>14527892</v>
+        <v>14528048</v>
       </c>
       <c r="N191">
-        <v>8368539</v>
+        <v>8368447</v>
       </c>
       <c r="O191">
-        <v>2551082</v>
+        <v>2551083</v>
       </c>
       <c r="P191">
         <v>3864</v>
@@ -9787,13 +9787,13 @@
         <v>127.59</v>
       </c>
       <c r="M192">
-        <v>14532667</v>
+        <v>14532823</v>
       </c>
       <c r="N192">
-        <v>8290113</v>
+        <v>8290021</v>
       </c>
       <c r="O192">
-        <v>2547704</v>
+        <v>2547705</v>
       </c>
       <c r="P192">
         <v>3867</v>
@@ -9837,16 +9837,16 @@
         <v>14.26</v>
       </c>
       <c r="L193">
-        <v>128.13</v>
+        <v>128.14</v>
       </c>
       <c r="M193">
-        <v>14761190</v>
+        <v>14761347</v>
       </c>
       <c r="N193">
-        <v>8365205</v>
+        <v>8365113</v>
       </c>
       <c r="O193">
-        <v>2572352</v>
+        <v>2572353</v>
       </c>
       <c r="P193">
         <v>3862</v>
@@ -9872,7 +9872,7 @@
         <v>235008</v>
       </c>
       <c r="F194">
-        <v>14729051</v>
+        <v>14729055</v>
       </c>
       <c r="G194">
         <v>13027499</v>
@@ -9893,13 +9893,13 @@
         <v>128.88</v>
       </c>
       <c r="M194">
-        <v>14843871</v>
+        <v>14844028</v>
       </c>
       <c r="N194">
-        <v>8388092</v>
+        <v>8388000</v>
       </c>
       <c r="O194">
-        <v>2570152</v>
+        <v>2570153</v>
       </c>
       <c r="P194">
         <v>3869</v>
@@ -9946,13 +9946,13 @@
         <v>129.54</v>
       </c>
       <c r="M195">
-        <v>14888802</v>
+        <v>14888958</v>
       </c>
       <c r="N195">
-        <v>8325564</v>
+        <v>8325472</v>
       </c>
       <c r="O195">
-        <v>2571041</v>
+        <v>2571042</v>
       </c>
       <c r="P195">
         <v>3875</v>
@@ -9978,7 +9978,7 @@
         <v>219934</v>
       </c>
       <c r="F196">
-        <v>13097726</v>
+        <v>13097735</v>
       </c>
       <c r="G196">
         <v>11730221</v>
@@ -9996,16 +9996,16 @@
         <v>14.32</v>
       </c>
       <c r="L196">
-        <v>130.19</v>
+        <v>130.2</v>
       </c>
       <c r="M196">
-        <v>14967483</v>
+        <v>14967640</v>
       </c>
       <c r="N196">
-        <v>8320060</v>
+        <v>8319968</v>
       </c>
       <c r="O196">
-        <v>2563115</v>
+        <v>2563116</v>
       </c>
       <c r="P196">
         <v>3873</v>
@@ -10052,13 +10052,13 @@
         <v>130.86</v>
       </c>
       <c r="M197">
-        <v>15089628</v>
+        <v>15089784</v>
       </c>
       <c r="N197">
-        <v>8341524</v>
+        <v>8341432</v>
       </c>
       <c r="O197">
-        <v>2566570</v>
+        <v>2566571</v>
       </c>
       <c r="P197">
         <v>3878</v>
@@ -10105,13 +10105,13 @@
         <v>131.55</v>
       </c>
       <c r="M198">
-        <v>15141561</v>
+        <v>15141562</v>
       </c>
       <c r="N198">
-        <v>8330327</v>
+        <v>8330328</v>
       </c>
       <c r="O198">
-        <v>2567371</v>
+        <v>2567372</v>
       </c>
       <c r="P198">
         <v>3884</v>
@@ -10134,10 +10134,10 @@
         <v>525103</v>
       </c>
       <c r="E199">
-        <v>214627</v>
+        <v>214624</v>
       </c>
       <c r="F199">
-        <v>10187293</v>
+        <v>10187273</v>
       </c>
       <c r="G199">
         <v>9028611</v>
@@ -10158,13 +10158,13 @@
         <v>132.19</v>
       </c>
       <c r="M199">
-        <v>15309105</v>
+        <v>15309106</v>
       </c>
       <c r="N199">
-        <v>8356575</v>
+        <v>8356576</v>
       </c>
       <c r="O199">
-        <v>2587922</v>
+        <v>2587920</v>
       </c>
       <c r="P199">
         <v>3887</v>
@@ -10211,13 +10211,13 @@
         <v>132.87</v>
       </c>
       <c r="M200">
-        <v>15440715</v>
+        <v>15440716</v>
       </c>
       <c r="N200">
-        <v>8350594</v>
+        <v>8350595</v>
       </c>
       <c r="O200">
-        <v>2599973</v>
+        <v>2599971</v>
       </c>
       <c r="P200">
         <v>3886</v>
@@ -10240,7 +10240,7 @@
         <v>649662</v>
       </c>
       <c r="E201">
-        <v>210439</v>
+        <v>210438</v>
       </c>
       <c r="F201">
         <v>10189513</v>
@@ -10264,13 +10264,13 @@
         <v>133.49</v>
       </c>
       <c r="M201">
-        <v>15510489</v>
+        <v>15510490</v>
       </c>
       <c r="N201">
-        <v>8368337</v>
+        <v>8368338</v>
       </c>
       <c r="O201">
-        <v>2605546</v>
+        <v>2605543</v>
       </c>
       <c r="P201">
         <v>3887</v>
@@ -10296,7 +10296,7 @@
         <v>211859</v>
       </c>
       <c r="F202">
-        <v>10071173</v>
+        <v>10071175</v>
       </c>
       <c r="G202">
         <v>8724780</v>
@@ -10317,13 +10317,13 @@
         <v>134.04</v>
       </c>
       <c r="M202">
-        <v>15673799</v>
+        <v>15673800</v>
       </c>
       <c r="N202">
-        <v>8381894</v>
+        <v>8381895</v>
       </c>
       <c r="O202">
-        <v>2635463</v>
+        <v>2635460</v>
       </c>
       <c r="P202">
         <v>3895</v>
@@ -10349,7 +10349,7 @@
         <v>223173</v>
       </c>
       <c r="F203">
-        <v>9851299</v>
+        <v>9851296</v>
       </c>
       <c r="G203">
         <v>8695175</v>
@@ -10376,7 +10376,7 @@
         <v>8380544</v>
       </c>
       <c r="O203">
-        <v>2650965</v>
+        <v>2650961</v>
       </c>
       <c r="P203">
         <v>3915</v>
@@ -10429,7 +10429,7 @@
         <v>8330361</v>
       </c>
       <c r="O204">
-        <v>2658787</v>
+        <v>2658783</v>
       </c>
       <c r="P204">
         <v>3927</v>
@@ -10482,7 +10482,7 @@
         <v>8360752</v>
       </c>
       <c r="O205">
-        <v>2687336</v>
+        <v>2687332</v>
       </c>
       <c r="P205">
         <v>3938</v>
@@ -10535,7 +10535,7 @@
         <v>8190399</v>
       </c>
       <c r="O206">
-        <v>2682390</v>
+        <v>2682386</v>
       </c>
       <c r="P206">
         <v>3943</v>
@@ -10588,7 +10588,7 @@
         <v>8167954</v>
       </c>
       <c r="O207">
-        <v>2694741</v>
+        <v>2694737</v>
       </c>
       <c r="P207">
         <v>3943</v>
@@ -10641,7 +10641,7 @@
         <v>8133267</v>
       </c>
       <c r="O208">
-        <v>2719324</v>
+        <v>2719320</v>
       </c>
       <c r="P208">
         <v>3945</v>
@@ -10694,7 +10694,7 @@
         <v>8038963</v>
       </c>
       <c r="O209">
-        <v>2707766</v>
+        <v>2707762</v>
       </c>
       <c r="P209">
         <v>3954</v>
@@ -10747,7 +10747,7 @@
         <v>7908330</v>
       </c>
       <c r="O210">
-        <v>2680331</v>
+        <v>2680327</v>
       </c>
       <c r="P210">
         <v>3955</v>
@@ -10800,7 +10800,7 @@
         <v>7873641</v>
       </c>
       <c r="O211">
-        <v>2671972</v>
+        <v>2671971</v>
       </c>
       <c r="P211">
         <v>3950</v>
@@ -10853,7 +10853,7 @@
         <v>7781838</v>
       </c>
       <c r="O212">
-        <v>2637232</v>
+        <v>2637231</v>
       </c>
       <c r="P212">
         <v>3967</v>
@@ -11877,7 +11877,7 @@
         <v>32598</v>
       </c>
       <c r="B232">
-        <v>1361131</v>
+        <v>1361133</v>
       </c>
       <c r="D232">
         <v>652549</v>
@@ -11886,7 +11886,7 @@
         <v>176192</v>
       </c>
       <c r="F232">
-        <v>11588964</v>
+        <v>11588984</v>
       </c>
       <c r="G232">
         <v>10451849</v>
@@ -30203,7 +30203,7 @@
         <v>14347</v>
       </c>
       <c r="R566">
-        <v>266595</v>
+        <v>267025</v>
       </c>
     </row>
     <row r="567">
@@ -30259,7 +30259,7 @@
         <v>14354</v>
       </c>
       <c r="R567">
-        <v>274636</v>
+        <v>275638</v>
       </c>
     </row>
     <row r="568">
@@ -30315,7 +30315,7 @@
         <v>14356</v>
       </c>
       <c r="R568">
-        <v>274776</v>
+        <v>275640</v>
       </c>
     </row>
     <row r="569">
@@ -30371,7 +30371,7 @@
         <v>14368</v>
       </c>
       <c r="R569">
-        <v>267969</v>
+        <v>267752</v>
       </c>
     </row>
     <row r="570">
@@ -30427,7 +30427,7 @@
         <v>14358</v>
       </c>
       <c r="R570">
-        <v>275703</v>
+        <v>274777</v>
       </c>
     </row>
     <row r="571">
@@ -30483,7 +30483,7 @@
         <v>14381</v>
       </c>
       <c r="R571">
-        <v>276109</v>
+        <v>276096</v>
       </c>
     </row>
     <row r="572">
@@ -30539,7 +30539,7 @@
         <v>14390</v>
       </c>
       <c r="R572">
-        <v>275397</v>
+        <v>275423</v>
       </c>
     </row>
     <row r="573">
@@ -30595,7 +30595,7 @@
         <v>14339</v>
       </c>
       <c r="R573">
-        <v>275328</v>
+        <v>275382</v>
       </c>
     </row>
     <row r="574">
@@ -30651,7 +30651,7 @@
         <v>14390</v>
       </c>
       <c r="R574">
-        <v>275771</v>
+        <v>275268</v>
       </c>
     </row>
     <row r="575">
@@ -30707,7 +30707,7 @@
         <v>14407</v>
       </c>
       <c r="R575">
-        <v>280661</v>
+        <v>281006</v>
       </c>
     </row>
     <row r="576">
@@ -30763,7 +30763,7 @@
         <v>14427</v>
       </c>
       <c r="R576">
-        <v>284111</v>
+        <v>284408</v>
       </c>
     </row>
     <row r="577">
@@ -30819,7 +30819,7 @@
         <v>14431</v>
       </c>
       <c r="R577">
-        <v>279665</v>
+        <v>279803</v>
       </c>
     </row>
     <row r="578">
@@ -30875,7 +30875,7 @@
         <v>14428</v>
       </c>
       <c r="R578">
-        <v>278783</v>
+        <v>278536</v>
       </c>
     </row>
     <row r="579">
@@ -30931,7 +30931,7 @@
         <v>14473</v>
       </c>
       <c r="R579">
-        <v>280360</v>
+        <v>281407</v>
       </c>
     </row>
     <row r="580">
@@ -30987,7 +30987,7 @@
         <v>14471</v>
       </c>
       <c r="R580">
-        <v>282473</v>
+        <v>283722</v>
       </c>
     </row>
     <row r="581">
@@ -31043,7 +31043,7 @@
         <v>14467</v>
       </c>
       <c r="R581">
-        <v>289162</v>
+        <v>288622</v>
       </c>
     </row>
     <row r="582">
@@ -31099,7 +31099,7 @@
         <v>14482</v>
       </c>
       <c r="R582">
-        <v>290466</v>
+        <v>290059</v>
       </c>
     </row>
     <row r="583">
@@ -31155,7 +31155,7 @@
         <v>14505</v>
       </c>
       <c r="R583">
-        <v>291146</v>
+        <v>290567</v>
       </c>
     </row>
     <row r="584">
@@ -31211,7 +31211,7 @@
         <v>14462</v>
       </c>
       <c r="R584">
-        <v>294360</v>
+        <v>294781</v>
       </c>
     </row>
     <row r="585">
@@ -31267,7 +31267,7 @@
         <v>14493</v>
       </c>
       <c r="R585">
-        <v>299829</v>
+        <v>299258</v>
       </c>
     </row>
     <row r="586">
@@ -31323,7 +31323,7 @@
         <v>14486</v>
       </c>
       <c r="R586">
-        <v>287931</v>
+        <v>288216</v>
       </c>
     </row>
     <row r="587">
@@ -31379,7 +31379,7 @@
         <v>14491</v>
       </c>
       <c r="R587">
-        <v>287640</v>
+        <v>287133</v>
       </c>
     </row>
     <row r="588">
@@ -31435,7 +31435,7 @@
         <v>14499</v>
       </c>
       <c r="R588">
-        <v>285463</v>
+        <v>285853</v>
       </c>
     </row>
     <row r="589">
@@ -31491,7 +31491,7 @@
         <v>14527</v>
       </c>
       <c r="R589">
-        <v>285137</v>
+        <v>285645</v>
       </c>
     </row>
     <row r="590">
@@ -31547,7 +31547,7 @@
         <v>14527</v>
       </c>
       <c r="R590">
-        <v>295509</v>
+        <v>295719</v>
       </c>
     </row>
     <row r="591">
@@ -31603,7 +31603,7 @@
         <v>14533</v>
       </c>
       <c r="R591">
-        <v>304175</v>
+        <v>305067</v>
       </c>
     </row>
     <row r="592">
@@ -31659,7 +31659,7 @@
         <v>14567</v>
       </c>
       <c r="R592">
-        <v>305358</v>
+        <v>306010</v>
       </c>
     </row>
     <row r="593">
@@ -31715,7 +31715,7 @@
         <v>14600</v>
       </c>
       <c r="R593">
-        <v>324193</v>
+        <v>323581</v>
       </c>
     </row>
     <row r="594">
@@ -31771,7 +31771,7 @@
         <v>14583</v>
       </c>
       <c r="R594">
-        <v>320559</v>
+        <v>319247</v>
       </c>
     </row>
     <row r="595">
@@ -31827,7 +31827,7 @@
         <v>14601</v>
       </c>
       <c r="R595">
-        <v>317102</v>
+        <v>317261</v>
       </c>
     </row>
     <row r="596">
@@ -31883,7 +31883,7 @@
         <v>14552</v>
       </c>
       <c r="R596">
-        <v>324286</v>
+        <v>324076</v>
       </c>
     </row>
     <row r="597">
@@ -31939,7 +31939,7 @@
         <v>14558</v>
       </c>
       <c r="R597">
-        <v>320318</v>
+        <v>320471</v>
       </c>
     </row>
     <row r="598">
@@ -31995,7 +31995,7 @@
         <v>14582</v>
       </c>
       <c r="R598">
-        <v>326917</v>
+        <v>326913</v>
       </c>
     </row>
     <row r="599">
@@ -32051,7 +32051,7 @@
         <v>14594</v>
       </c>
       <c r="R599">
-        <v>322260</v>
+        <v>321971</v>
       </c>
     </row>
     <row r="600">
@@ -32107,7 +32107,7 @@
         <v>14619</v>
       </c>
       <c r="R600">
-        <v>323761</v>
+        <v>323942</v>
       </c>
     </row>
     <row r="601">
@@ -32163,7 +32163,7 @@
         <v>14638</v>
       </c>
       <c r="R601">
-        <v>326944</v>
+        <v>327795</v>
       </c>
     </row>
     <row r="602">
@@ -32219,7 +32219,7 @@
         <v>14666</v>
       </c>
       <c r="R602">
-        <v>342465</v>
+        <v>341963</v>
       </c>
     </row>
     <row r="603">
@@ -32275,7 +32275,7 @@
         <v>14697</v>
       </c>
       <c r="R603">
-        <v>342340</v>
+        <v>343097</v>
       </c>
     </row>
     <row r="604">
@@ -32331,7 +32331,7 @@
         <v>14692</v>
       </c>
       <c r="R604">
-        <v>345379</v>
+        <v>346286</v>
       </c>
     </row>
     <row r="605">
@@ -32387,7 +32387,7 @@
         <v>13925</v>
       </c>
       <c r="R605">
-        <v>338360</v>
+        <v>337598</v>
       </c>
     </row>
     <row r="606">
@@ -32443,7 +32443,7 @@
         <v>13460</v>
       </c>
       <c r="R606">
-        <v>347467</v>
+        <v>346584</v>
       </c>
     </row>
     <row r="607">
@@ -32499,7 +32499,7 @@
         <v>13485</v>
       </c>
       <c r="R607">
-        <v>342861</v>
+        <v>342378</v>
       </c>
     </row>
     <row r="608">
@@ -32555,7 +32555,7 @@
         <v>13559</v>
       </c>
       <c r="R608">
-        <v>336827</v>
+        <v>336713</v>
       </c>
     </row>
     <row r="609">
@@ -32611,7 +32611,7 @@
         <v>13715</v>
       </c>
       <c r="R609">
-        <v>334578</v>
+        <v>335100</v>
       </c>
     </row>
     <row r="610">
@@ -32667,7 +32667,7 @@
         <v>13718</v>
       </c>
       <c r="R610">
-        <v>335229</v>
+        <v>334831</v>
       </c>
     </row>
     <row r="611">
@@ -32723,7 +32723,7 @@
         <v>13710</v>
       </c>
       <c r="R611">
-        <v>337981</v>
+        <v>337476</v>
       </c>
     </row>
     <row r="612">
@@ -32779,7 +32779,7 @@
         <v>13711</v>
       </c>
       <c r="R612">
-        <v>342927</v>
+        <v>343612</v>
       </c>
     </row>
     <row r="613">
@@ -32835,7 +32835,7 @@
         <v>13698</v>
       </c>
       <c r="R613">
-        <v>343016</v>
+        <v>343531</v>
       </c>
     </row>
     <row r="614">
@@ -32891,7 +32891,7 @@
         <v>13746</v>
       </c>
       <c r="R614">
-        <v>345102</v>
+        <v>345096</v>
       </c>
     </row>
     <row r="615">
@@ -32947,7 +32947,7 @@
         <v>13733</v>
       </c>
       <c r="R615">
-        <v>335151</v>
+        <v>336315</v>
       </c>
     </row>
     <row r="616">
@@ -33003,7 +33003,7 @@
         <v>13781</v>
       </c>
       <c r="R616">
-        <v>336955</v>
+        <v>336681</v>
       </c>
     </row>
     <row r="617">
@@ -33059,7 +33059,7 @@
         <v>13830</v>
       </c>
       <c r="R617">
-        <v>335574</v>
+        <v>334978</v>
       </c>
     </row>
     <row r="618">
@@ -33115,7 +33115,7 @@
         <v>13854</v>
       </c>
       <c r="R618">
-        <v>338521</v>
+        <v>337801</v>
       </c>
     </row>
     <row r="619">
@@ -33171,7 +33171,7 @@
         <v>13941</v>
       </c>
       <c r="R619">
-        <v>329746</v>
+        <v>328950</v>
       </c>
     </row>
     <row r="620">
@@ -33227,7 +33227,7 @@
         <v>14023</v>
       </c>
       <c r="R620">
-        <v>328919</v>
+        <v>329615</v>
       </c>
     </row>
     <row r="621">
@@ -33283,7 +33283,7 @@
         <v>14053</v>
       </c>
       <c r="R621">
-        <v>333989</v>
+        <v>334864</v>
       </c>
     </row>
     <row r="622">
@@ -33339,7 +33339,7 @@
         <v>14047</v>
       </c>
       <c r="R622">
-        <v>326840</v>
+        <v>326687</v>
       </c>
     </row>
     <row r="623">
@@ -33395,7 +33395,7 @@
         <v>14022</v>
       </c>
       <c r="R623">
-        <v>327373</v>
+        <v>326597</v>
       </c>
     </row>
     <row r="624">
@@ -33451,7 +33451,7 @@
         <v>14028</v>
       </c>
       <c r="R624">
-        <v>331380</v>
+        <v>331859</v>
       </c>
     </row>
     <row r="625">
@@ -33507,7 +33507,7 @@
         <v>14063</v>
       </c>
       <c r="R625">
-        <v>331492</v>
+        <v>331023</v>
       </c>
     </row>
     <row r="626">
@@ -33563,7 +33563,7 @@
         <v>14084</v>
       </c>
       <c r="R626">
-        <v>334244</v>
+        <v>336477</v>
       </c>
     </row>
     <row r="627">
@@ -33619,7 +33619,7 @@
         <v>14099</v>
       </c>
       <c r="R627">
-        <v>338416</v>
+        <v>342490</v>
       </c>
     </row>
     <row r="628">
@@ -33675,7 +33675,7 @@
         <v>14118</v>
       </c>
       <c r="R628">
-        <v>339417</v>
+        <v>342356</v>
       </c>
     </row>
     <row r="629">
@@ -33731,7 +33731,7 @@
         <v>14140</v>
       </c>
       <c r="R629">
-        <v>345062</v>
+        <v>348326</v>
       </c>
     </row>
     <row r="630">
@@ -33787,7 +33787,7 @@
         <v>14153</v>
       </c>
       <c r="R630">
-        <v>339178</v>
+        <v>343789</v>
       </c>
     </row>
     <row r="631">
@@ -33843,7 +33843,7 @@
         <v>14161</v>
       </c>
       <c r="R631">
-        <v>342484</v>
+        <v>347954</v>
       </c>
     </row>
     <row r="632">
@@ -33899,7 +33899,7 @@
         <v>14272</v>
       </c>
       <c r="R632">
-        <v>350972</v>
+        <v>359534</v>
       </c>
     </row>
     <row r="633">
@@ -33955,7 +33955,7 @@
         <v>14266</v>
       </c>
       <c r="R633">
-        <v>350286</v>
+        <v>361704</v>
       </c>
     </row>
     <row r="634">
@@ -34011,7 +34011,7 @@
         <v>14260</v>
       </c>
       <c r="R634">
-        <v>355116</v>
+        <v>366800</v>
       </c>
     </row>
     <row r="635">
@@ -34067,7 +34067,7 @@
         <v>14287</v>
       </c>
       <c r="R635">
-        <v>354474</v>
+        <v>366024</v>
       </c>
     </row>
     <row r="636">
@@ -34123,7 +34123,7 @@
         <v>14328</v>
       </c>
       <c r="R636">
-        <v>359543</v>
+        <v>367116</v>
       </c>
     </row>
     <row r="637">
@@ -34179,7 +34179,7 @@
         <v>14360</v>
       </c>
       <c r="R637">
-        <v>361033</v>
+        <v>372938</v>
       </c>
     </row>
     <row r="638">
@@ -34235,7 +34235,7 @@
         <v>14402</v>
       </c>
       <c r="R638">
-        <v>364867</v>
+        <v>378357</v>
       </c>
     </row>
     <row r="639">
@@ -34291,7 +34291,7 @@
         <v>14430</v>
       </c>
       <c r="R639">
-        <v>371673</v>
+        <v>387772</v>
       </c>
     </row>
     <row r="640">
@@ -34347,7 +34347,7 @@
         <v>14457</v>
       </c>
       <c r="R640">
-        <v>374555</v>
+        <v>394738</v>
       </c>
     </row>
     <row r="641">
@@ -34403,7 +34403,7 @@
         <v>14482</v>
       </c>
       <c r="R641">
-        <v>382073</v>
+        <v>403577</v>
       </c>
     </row>
     <row r="642">
@@ -34459,7 +34459,7 @@
         <v>14508</v>
       </c>
       <c r="R642">
-        <v>388978</v>
+        <v>411117</v>
       </c>
     </row>
     <row r="643">
@@ -34515,7 +34515,7 @@
         <v>14536</v>
       </c>
       <c r="R643">
-        <v>396538</v>
+        <v>418667</v>
       </c>
     </row>
     <row r="644">
@@ -34571,7 +34571,7 @@
         <v>14564</v>
       </c>
       <c r="R644">
-        <v>404059</v>
+        <v>417761</v>
       </c>
     </row>
     <row r="645">
@@ -34627,7 +34627,7 @@
         <v>14585</v>
       </c>
       <c r="R645">
-        <v>407847</v>
+        <v>420853</v>
       </c>
     </row>
     <row r="646">
@@ -34683,7 +34683,7 @@
         <v>14612</v>
       </c>
       <c r="R646">
-        <v>418897</v>
+        <v>429575</v>
       </c>
     </row>
     <row r="647">
@@ -34739,7 +34739,7 @@
         <v>14642</v>
       </c>
       <c r="R647">
-        <v>432334</v>
+        <v>440206</v>
       </c>
     </row>
     <row r="648">
@@ -34795,7 +34795,7 @@
         <v>14665</v>
       </c>
       <c r="R648">
-        <v>440095</v>
+        <v>445839</v>
       </c>
     </row>
     <row r="649">
@@ -34851,7 +34851,7 @@
         <v>14711</v>
       </c>
       <c r="R649">
-        <v>446894</v>
+        <v>446422</v>
       </c>
     </row>
     <row r="650">
@@ -34859,7 +34859,7 @@
         <v>45322</v>
       </c>
       <c r="B650">
-        <v>1249757</v>
+        <v>1249509</v>
       </c>
       <c r="C650">
         <v>2050.7</v>
@@ -34871,7 +34871,7 @@
         <v>184503</v>
       </c>
       <c r="F650">
-        <v>9547638</v>
+        <v>9545422</v>
       </c>
       <c r="G650">
         <v>8366985</v>
@@ -34907,7 +34907,7 @@
         <v>14742</v>
       </c>
       <c r="R650">
-        <v>445408</v>
+        <v>442338</v>
       </c>
     </row>
     <row r="651">
@@ -34915,7 +34915,7 @@
         <v>45351</v>
       </c>
       <c r="B651">
-        <v>881185</v>
+        <v>880875</v>
       </c>
       <c r="C651">
         <v>2059.2</v>
@@ -34927,7 +34927,7 @@
         <v>157469</v>
       </c>
       <c r="F651">
-        <v>8525643</v>
+        <v>8522402</v>
       </c>
       <c r="G651">
         <v>7382243</v>
@@ -34963,7 +34963,7 @@
         <v>14776</v>
       </c>
       <c r="R651">
-        <v>448458</v>
+        <v>445503</v>
       </c>
     </row>
     <row r="652">
@@ -34971,7 +34971,7 @@
         <v>45382</v>
       </c>
       <c r="B652">
-        <v>844605</v>
+        <v>844295</v>
       </c>
       <c r="C652">
         <v>2000.4</v>
@@ -34983,10 +34983,10 @@
         <v>163774</v>
       </c>
       <c r="F652">
-        <v>8835172</v>
+        <v>8832185</v>
       </c>
       <c r="G652">
-        <v>7328647</v>
+        <v>7328646</v>
       </c>
       <c r="H652">
         <v>3287976</v>
@@ -35019,7 +35019,7 @@
         <v>14832</v>
       </c>
       <c r="R652">
-        <v>453062</v>
+        <v>450173</v>
       </c>
     </row>
     <row r="653">
@@ -35027,55 +35027,55 @@
         <v>45412</v>
       </c>
       <c r="B653">
-        <v>913252</v>
+        <v>901307</v>
       </c>
       <c r="C653">
         <v>1807.6</v>
       </c>
       <c r="D653">
-        <v>398632</v>
+        <v>383176</v>
       </c>
       <c r="E653">
-        <v>184164</v>
+        <v>185614</v>
       </c>
       <c r="F653">
-        <v>8023953</v>
+        <v>7954954</v>
       </c>
       <c r="G653">
-        <v>7141893</v>
+        <v>7093451</v>
       </c>
       <c r="H653">
-        <v>3190590</v>
+        <v>3176831</v>
       </c>
       <c r="I653">
-        <v>454.58</v>
+        <v>455.89</v>
       </c>
       <c r="J653">
-        <v>37.41</v>
+        <v>37.44</v>
       </c>
       <c r="K653">
-        <v>15.07</v>
+        <v>15.11</v>
       </c>
       <c r="L653">
-        <v>447</v>
+        <v>447.11</v>
       </c>
       <c r="M653">
-        <v>34735901</v>
+        <v>34722142</v>
       </c>
       <c r="N653">
-        <v>5248787</v>
+        <v>5233331</v>
       </c>
       <c r="O653">
-        <v>1923972</v>
+        <v>1925422</v>
       </c>
       <c r="P653">
-        <v>5450</v>
+        <v>5448</v>
       </c>
       <c r="Q653">
-        <v>14831</v>
+        <v>14828</v>
       </c>
       <c r="R653">
-        <v>451154</v>
+        <v>449323</v>
       </c>
     </row>
     <row r="654">
@@ -35083,49 +35083,105 @@
         <v>45443</v>
       </c>
       <c r="B654">
-        <v>849074</v>
+        <v>879497</v>
+      </c>
+      <c r="C654">
+        <v>1650</v>
       </c>
       <c r="D654">
-        <v>370357</v>
+        <v>379072</v>
       </c>
       <c r="E654">
-        <v>165347</v>
+        <v>168486</v>
       </c>
       <c r="F654">
-        <v>7881011</v>
+        <v>7050699</v>
       </c>
       <c r="G654">
-        <v>6680702</v>
+        <v>6012983</v>
       </c>
       <c r="H654">
-        <v>2920528</v>
+        <v>2693919</v>
       </c>
       <c r="I654">
-        <v>444.88</v>
+        <v>455.88</v>
       </c>
       <c r="J654">
-        <v>37.32</v>
+        <v>37.41</v>
       </c>
       <c r="K654">
-        <v>15.23</v>
+        <v>15.11</v>
       </c>
       <c r="L654">
-        <v>447.46</v>
+        <v>448.44</v>
       </c>
       <c r="M654">
-        <v>35008688</v>
+        <v>34768319</v>
       </c>
       <c r="N654">
-        <v>5229689</v>
+        <v>5222948</v>
       </c>
       <c r="O654">
-        <v>1933627</v>
+        <v>1938216</v>
       </c>
       <c r="P654">
-        <v>5455</v>
+        <v>5439</v>
       </c>
       <c r="Q654">
-        <v>14865</v>
+        <v>14859</v>
+      </c>
+      <c r="R654">
+        <v>450429</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="2">
+        <v>45473</v>
+      </c>
+      <c r="B655">
+        <v>968255</v>
+      </c>
+      <c r="D655">
+        <v>405557</v>
+      </c>
+      <c r="E655">
+        <v>159552</v>
+      </c>
+      <c r="F655">
+        <v>7675482</v>
+      </c>
+      <c r="G655">
+        <v>6015484</v>
+      </c>
+      <c r="H655">
+        <v>2623430</v>
+      </c>
+      <c r="I655">
+        <v>444.04</v>
+      </c>
+      <c r="J655">
+        <v>37.87</v>
+      </c>
+      <c r="K655">
+        <v>15.22</v>
+      </c>
+      <c r="L655">
+        <v>449.09</v>
+      </c>
+      <c r="M655">
+        <v>34952946</v>
+      </c>
+      <c r="N655">
+        <v>5207396</v>
+      </c>
+      <c r="O655">
+        <v>1962152</v>
+      </c>
+      <c r="P655">
+        <v>5465</v>
+      </c>
+      <c r="Q655">
+        <v>14898</v>
       </c>
     </row>
   </sheetData>

--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R654"/>
+  <dimension ref="A1:R656"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4784,13 +4784,13 @@
         <v>210661</v>
       </c>
       <c r="F98">
-        <v>13886950</v>
+        <v>13886955</v>
       </c>
       <c r="G98">
-        <v>11076383</v>
+        <v>11076388</v>
       </c>
       <c r="H98">
-        <v>904868</v>
+        <v>904869</v>
       </c>
       <c r="I98">
         <v>84.12</v>
@@ -4858,7 +4858,7 @@
         <v>79.84</v>
       </c>
       <c r="M99">
-        <v>8586177</v>
+        <v>8586178</v>
       </c>
       <c r="N99">
         <v>7675188</v>
@@ -4911,7 +4911,7 @@
         <v>80.48999999999999</v>
       </c>
       <c r="M100">
-        <v>8552550</v>
+        <v>8552551</v>
       </c>
       <c r="N100">
         <v>7655474</v>
@@ -5017,7 +5017,7 @@
         <v>81.34999999999999</v>
       </c>
       <c r="M102">
-        <v>8469976</v>
+        <v>8469977</v>
       </c>
       <c r="N102">
         <v>7605385</v>
@@ -5176,7 +5176,7 @@
         <v>82.48999999999999</v>
       </c>
       <c r="M105">
-        <v>8358617</v>
+        <v>8358618</v>
       </c>
       <c r="N105">
         <v>7677889</v>
@@ -5229,7 +5229,7 @@
         <v>82.78</v>
       </c>
       <c r="M106">
-        <v>8313959</v>
+        <v>8313960</v>
       </c>
       <c r="N106">
         <v>7636142</v>
@@ -5282,7 +5282,7 @@
         <v>83.03</v>
       </c>
       <c r="M107">
-        <v>8307254</v>
+        <v>8307255</v>
       </c>
       <c r="N107">
         <v>7633029</v>
@@ -5388,7 +5388,7 @@
         <v>83.67</v>
       </c>
       <c r="M109">
-        <v>8212238</v>
+        <v>8212239</v>
       </c>
       <c r="N109">
         <v>7568310</v>
@@ -6592,10 +6592,10 @@
         <v>9516801</v>
       </c>
       <c r="H132">
-        <v>935504</v>
+        <v>935438</v>
       </c>
       <c r="I132">
-        <v>100.71</v>
+        <v>100.7</v>
       </c>
       <c r="J132">
         <v>32.75</v>
@@ -6607,7 +6607,7 @@
         <v>99.05</v>
       </c>
       <c r="M132">
-        <v>14067051</v>
+        <v>14066985</v>
       </c>
       <c r="N132">
         <v>9919645</v>
@@ -6660,7 +6660,7 @@
         <v>99.53</v>
       </c>
       <c r="M133">
-        <v>14469504</v>
+        <v>14469437</v>
       </c>
       <c r="N133">
         <v>9992123</v>
@@ -6713,7 +6713,7 @@
         <v>100.2</v>
       </c>
       <c r="M134">
-        <v>14605139</v>
+        <v>14605072</v>
       </c>
       <c r="N134">
         <v>9946214</v>
@@ -6766,7 +6766,7 @@
         <v>100.72</v>
       </c>
       <c r="M135">
-        <v>14690576</v>
+        <v>14690509</v>
       </c>
       <c r="N135">
         <v>9890722</v>
@@ -6819,7 +6819,7 @@
         <v>101.31</v>
       </c>
       <c r="M136">
-        <v>14867035</v>
+        <v>14866968</v>
       </c>
       <c r="N136">
         <v>9919839</v>
@@ -6872,7 +6872,7 @@
         <v>101.83</v>
       </c>
       <c r="M137">
-        <v>14861553</v>
+        <v>14861486</v>
       </c>
       <c r="N137">
         <v>9793604</v>
@@ -6925,7 +6925,7 @@
         <v>102.25</v>
       </c>
       <c r="M138">
-        <v>14670945</v>
+        <v>14670878</v>
       </c>
       <c r="N138">
         <v>9476838</v>
@@ -6978,7 +6978,7 @@
         <v>102.61</v>
       </c>
       <c r="M139">
-        <v>14467170</v>
+        <v>14467103</v>
       </c>
       <c r="N139">
         <v>9214474</v>
@@ -7004,7 +7004,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823662</v>
+        <v>823631</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -7031,10 +7031,10 @@
         <v>103.08</v>
       </c>
       <c r="M140">
-        <v>14131950</v>
+        <v>14131883</v>
       </c>
       <c r="N140">
-        <v>8935498</v>
+        <v>8935467</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -7084,10 +7084,10 @@
         <v>103.59</v>
       </c>
       <c r="M141">
-        <v>13894246</v>
+        <v>13894180</v>
       </c>
       <c r="N141">
-        <v>8782013</v>
+        <v>8781982</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -7137,10 +7137,10 @@
         <v>104.14</v>
       </c>
       <c r="M142">
-        <v>13750153</v>
+        <v>13750086</v>
       </c>
       <c r="N142">
-        <v>8776281</v>
+        <v>8776250</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -7190,10 +7190,10 @@
         <v>104.75</v>
       </c>
       <c r="M143">
-        <v>13622022</v>
+        <v>13621955</v>
       </c>
       <c r="N143">
-        <v>8836723</v>
+        <v>8836692</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -7246,7 +7246,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042531</v>
+        <v>9042500</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -7299,7 +7299,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9395151</v>
+        <v>9395120</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -7352,7 +7352,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9716015</v>
+        <v>9715984</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -7405,7 +7405,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916846</v>
+        <v>9916815</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -7458,7 +7458,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176479</v>
+        <v>10176448</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -7511,7 +7511,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10402060</v>
+        <v>10402029</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -7564,7 +7564,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586460</v>
+        <v>10586429</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -7617,7 +7617,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834373</v>
+        <v>10834342</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -9442,7 +9442,7 @@
         <v>1488338</v>
       </c>
       <c r="D186">
-        <v>590475</v>
+        <v>590390</v>
       </c>
       <c r="E186">
         <v>232183</v>
@@ -9451,13 +9451,13 @@
         <v>10937527</v>
       </c>
       <c r="G186">
-        <v>9818448</v>
+        <v>9816965</v>
       </c>
       <c r="H186">
-        <v>1208792</v>
+        <v>1208882</v>
       </c>
       <c r="I186">
-        <v>127.34</v>
+        <v>127.37</v>
       </c>
       <c r="J186">
         <v>32.49</v>
@@ -9469,10 +9469,10 @@
         <v>125.18</v>
       </c>
       <c r="M186">
-        <v>13889581</v>
+        <v>13889671</v>
       </c>
       <c r="N186">
-        <v>8211280</v>
+        <v>8211195</v>
       </c>
       <c r="O186">
         <v>2510371</v>
@@ -9522,10 +9522,10 @@
         <v>125.48</v>
       </c>
       <c r="M187">
-        <v>13965814</v>
+        <v>13965904</v>
       </c>
       <c r="N187">
-        <v>8231271</v>
+        <v>8231186</v>
       </c>
       <c r="O187">
         <v>2506811</v>
@@ -9575,10 +9575,10 @@
         <v>125.89</v>
       </c>
       <c r="M188">
-        <v>14177047</v>
+        <v>14177137</v>
       </c>
       <c r="N188">
-        <v>8311057</v>
+        <v>8310972</v>
       </c>
       <c r="O188">
         <v>2528409</v>
@@ -9628,10 +9628,10 @@
         <v>126.37</v>
       </c>
       <c r="M189">
-        <v>14260355</v>
+        <v>14260445</v>
       </c>
       <c r="N189">
-        <v>8315417</v>
+        <v>8315332</v>
       </c>
       <c r="O189">
         <v>2521451</v>
@@ -9678,13 +9678,13 @@
         <v>14.06</v>
       </c>
       <c r="L190">
-        <v>126.78</v>
+        <v>126.79</v>
       </c>
       <c r="M190">
-        <v>14422682</v>
+        <v>14422772</v>
       </c>
       <c r="N190">
-        <v>8370998</v>
+        <v>8370913</v>
       </c>
       <c r="O190">
         <v>2540055</v>
@@ -9707,19 +9707,19 @@
         <v>1667576</v>
       </c>
       <c r="D191">
-        <v>573567</v>
+        <v>573569</v>
       </c>
       <c r="E191">
-        <v>207671</v>
+        <v>207672</v>
       </c>
       <c r="F191">
         <v>9966680</v>
       </c>
       <c r="G191">
-        <v>8670722</v>
+        <v>8670752</v>
       </c>
       <c r="H191">
-        <v>1073113</v>
+        <v>1073112</v>
       </c>
       <c r="I191">
         <v>128.59</v>
@@ -9734,13 +9734,13 @@
         <v>127.14</v>
       </c>
       <c r="M191">
-        <v>14527892</v>
+        <v>14527982</v>
       </c>
       <c r="N191">
-        <v>8368539</v>
+        <v>8368456</v>
       </c>
       <c r="O191">
-        <v>2551082</v>
+        <v>2551083</v>
       </c>
       <c r="P191">
         <v>3864</v>
@@ -9787,13 +9787,13 @@
         <v>127.59</v>
       </c>
       <c r="M192">
-        <v>14532667</v>
+        <v>14532757</v>
       </c>
       <c r="N192">
-        <v>8290113</v>
+        <v>8290030</v>
       </c>
       <c r="O192">
-        <v>2547704</v>
+        <v>2547705</v>
       </c>
       <c r="P192">
         <v>3867</v>
@@ -9837,16 +9837,16 @@
         <v>14.26</v>
       </c>
       <c r="L193">
-        <v>128.13</v>
+        <v>128.14</v>
       </c>
       <c r="M193">
-        <v>14761190</v>
+        <v>14761280</v>
       </c>
       <c r="N193">
-        <v>8365205</v>
+        <v>8365122</v>
       </c>
       <c r="O193">
-        <v>2572352</v>
+        <v>2572353</v>
       </c>
       <c r="P193">
         <v>3862</v>
@@ -9872,7 +9872,7 @@
         <v>235008</v>
       </c>
       <c r="F194">
-        <v>14729051</v>
+        <v>14729055</v>
       </c>
       <c r="G194">
         <v>13027499</v>
@@ -9893,13 +9893,13 @@
         <v>128.88</v>
       </c>
       <c r="M194">
-        <v>14843871</v>
+        <v>14843961</v>
       </c>
       <c r="N194">
-        <v>8388092</v>
+        <v>8388009</v>
       </c>
       <c r="O194">
-        <v>2570152</v>
+        <v>2570153</v>
       </c>
       <c r="P194">
         <v>3869</v>
@@ -9946,13 +9946,13 @@
         <v>129.54</v>
       </c>
       <c r="M195">
-        <v>14888802</v>
+        <v>14888892</v>
       </c>
       <c r="N195">
-        <v>8325564</v>
+        <v>8325481</v>
       </c>
       <c r="O195">
-        <v>2571041</v>
+        <v>2571042</v>
       </c>
       <c r="P195">
         <v>3875</v>
@@ -9978,7 +9978,7 @@
         <v>219934</v>
       </c>
       <c r="F196">
-        <v>13097726</v>
+        <v>13097739</v>
       </c>
       <c r="G196">
         <v>11730221</v>
@@ -9996,16 +9996,16 @@
         <v>14.32</v>
       </c>
       <c r="L196">
-        <v>130.19</v>
+        <v>130.2</v>
       </c>
       <c r="M196">
-        <v>14967483</v>
+        <v>14967573</v>
       </c>
       <c r="N196">
-        <v>8320060</v>
+        <v>8319977</v>
       </c>
       <c r="O196">
-        <v>2563115</v>
+        <v>2563116</v>
       </c>
       <c r="P196">
         <v>3873</v>
@@ -10052,13 +10052,13 @@
         <v>130.86</v>
       </c>
       <c r="M197">
-        <v>15089628</v>
+        <v>15089718</v>
       </c>
       <c r="N197">
-        <v>8341524</v>
+        <v>8341441</v>
       </c>
       <c r="O197">
-        <v>2566570</v>
+        <v>2566571</v>
       </c>
       <c r="P197">
         <v>3878</v>
@@ -10108,10 +10108,10 @@
         <v>15141561</v>
       </c>
       <c r="N198">
-        <v>8330327</v>
+        <v>8330329</v>
       </c>
       <c r="O198">
-        <v>2567371</v>
+        <v>2567372</v>
       </c>
       <c r="P198">
         <v>3884</v>
@@ -10134,10 +10134,10 @@
         <v>525103</v>
       </c>
       <c r="E199">
-        <v>214627</v>
+        <v>214625</v>
       </c>
       <c r="F199">
-        <v>10187293</v>
+        <v>10187276</v>
       </c>
       <c r="G199">
         <v>9028611</v>
@@ -10161,10 +10161,10 @@
         <v>15309105</v>
       </c>
       <c r="N199">
-        <v>8356575</v>
+        <v>8356577</v>
       </c>
       <c r="O199">
-        <v>2587922</v>
+        <v>2587921</v>
       </c>
       <c r="P199">
         <v>3887</v>
@@ -10187,7 +10187,7 @@
         <v>735606</v>
       </c>
       <c r="E200">
-        <v>247049</v>
+        <v>247047</v>
       </c>
       <c r="F200">
         <v>11601024</v>
@@ -10214,10 +10214,10 @@
         <v>15440715</v>
       </c>
       <c r="N200">
-        <v>8350594</v>
+        <v>8350596</v>
       </c>
       <c r="O200">
-        <v>2599973</v>
+        <v>2599970</v>
       </c>
       <c r="P200">
         <v>3886</v>
@@ -10240,7 +10240,7 @@
         <v>649662</v>
       </c>
       <c r="E201">
-        <v>210439</v>
+        <v>210438</v>
       </c>
       <c r="F201">
         <v>10189513</v>
@@ -10267,10 +10267,10 @@
         <v>15510489</v>
       </c>
       <c r="N201">
-        <v>8368337</v>
+        <v>8368339</v>
       </c>
       <c r="O201">
-        <v>2605546</v>
+        <v>2605542</v>
       </c>
       <c r="P201">
         <v>3887</v>
@@ -10296,7 +10296,7 @@
         <v>211859</v>
       </c>
       <c r="F202">
-        <v>10071173</v>
+        <v>10071177</v>
       </c>
       <c r="G202">
         <v>8724780</v>
@@ -10320,10 +10320,10 @@
         <v>15673799</v>
       </c>
       <c r="N202">
-        <v>8381894</v>
+        <v>8381896</v>
       </c>
       <c r="O202">
-        <v>2635463</v>
+        <v>2635459</v>
       </c>
       <c r="P202">
         <v>3895</v>
@@ -10349,7 +10349,7 @@
         <v>223173</v>
       </c>
       <c r="F203">
-        <v>9851299</v>
+        <v>9851292</v>
       </c>
       <c r="G203">
         <v>8695175</v>
@@ -10376,7 +10376,7 @@
         <v>8380544</v>
       </c>
       <c r="O203">
-        <v>2650965</v>
+        <v>2650960</v>
       </c>
       <c r="P203">
         <v>3915</v>
@@ -10429,7 +10429,7 @@
         <v>8330361</v>
       </c>
       <c r="O204">
-        <v>2658787</v>
+        <v>2658782</v>
       </c>
       <c r="P204">
         <v>3927</v>
@@ -10482,7 +10482,7 @@
         <v>8360752</v>
       </c>
       <c r="O205">
-        <v>2687336</v>
+        <v>2687331</v>
       </c>
       <c r="P205">
         <v>3938</v>
@@ -10535,7 +10535,7 @@
         <v>8190399</v>
       </c>
       <c r="O206">
-        <v>2682390</v>
+        <v>2682385</v>
       </c>
       <c r="P206">
         <v>3943</v>
@@ -10588,7 +10588,7 @@
         <v>8167954</v>
       </c>
       <c r="O207">
-        <v>2694741</v>
+        <v>2694736</v>
       </c>
       <c r="P207">
         <v>3943</v>
@@ -10641,7 +10641,7 @@
         <v>8133267</v>
       </c>
       <c r="O208">
-        <v>2719324</v>
+        <v>2719319</v>
       </c>
       <c r="P208">
         <v>3945</v>
@@ -10694,7 +10694,7 @@
         <v>8038963</v>
       </c>
       <c r="O209">
-        <v>2707766</v>
+        <v>2707761</v>
       </c>
       <c r="P209">
         <v>3954</v>
@@ -10747,7 +10747,7 @@
         <v>7908330</v>
       </c>
       <c r="O210">
-        <v>2680331</v>
+        <v>2680326</v>
       </c>
       <c r="P210">
         <v>3955</v>
@@ -10800,7 +10800,7 @@
         <v>7873641</v>
       </c>
       <c r="O211">
-        <v>2671972</v>
+        <v>2671969</v>
       </c>
       <c r="P211">
         <v>3950</v>
@@ -10853,7 +10853,7 @@
         <v>7781838</v>
       </c>
       <c r="O212">
-        <v>2637232</v>
+        <v>2637231</v>
       </c>
       <c r="P212">
         <v>3967</v>
@@ -11877,7 +11877,7 @@
         <v>32598</v>
       </c>
       <c r="B232">
-        <v>1361131</v>
+        <v>1361136</v>
       </c>
       <c r="D232">
         <v>652549</v>
@@ -11886,7 +11886,7 @@
         <v>176192</v>
       </c>
       <c r="F232">
-        <v>11588964</v>
+        <v>11588992</v>
       </c>
       <c r="G232">
         <v>10451849</v>
@@ -30203,7 +30203,7 @@
         <v>14347</v>
       </c>
       <c r="R566">
-        <v>266595</v>
+        <v>267025</v>
       </c>
     </row>
     <row r="567">
@@ -30259,7 +30259,7 @@
         <v>14354</v>
       </c>
       <c r="R567">
-        <v>274636</v>
+        <v>275638</v>
       </c>
     </row>
     <row r="568">
@@ -30315,7 +30315,7 @@
         <v>14356</v>
       </c>
       <c r="R568">
-        <v>274776</v>
+        <v>275640</v>
       </c>
     </row>
     <row r="569">
@@ -30371,7 +30371,7 @@
         <v>14368</v>
       </c>
       <c r="R569">
-        <v>267969</v>
+        <v>267752</v>
       </c>
     </row>
     <row r="570">
@@ -30427,7 +30427,7 @@
         <v>14358</v>
       </c>
       <c r="R570">
-        <v>275703</v>
+        <v>274777</v>
       </c>
     </row>
     <row r="571">
@@ -30483,7 +30483,7 @@
         <v>14381</v>
       </c>
       <c r="R571">
-        <v>276109</v>
+        <v>276096</v>
       </c>
     </row>
     <row r="572">
@@ -30539,7 +30539,7 @@
         <v>14390</v>
       </c>
       <c r="R572">
-        <v>275397</v>
+        <v>275423</v>
       </c>
     </row>
     <row r="573">
@@ -30595,7 +30595,7 @@
         <v>14339</v>
       </c>
       <c r="R573">
-        <v>275328</v>
+        <v>275382</v>
       </c>
     </row>
     <row r="574">
@@ -30651,7 +30651,7 @@
         <v>14390</v>
       </c>
       <c r="R574">
-        <v>275771</v>
+        <v>275268</v>
       </c>
     </row>
     <row r="575">
@@ -30707,7 +30707,7 @@
         <v>14407</v>
       </c>
       <c r="R575">
-        <v>280661</v>
+        <v>281006</v>
       </c>
     </row>
     <row r="576">
@@ -30763,7 +30763,7 @@
         <v>14427</v>
       </c>
       <c r="R576">
-        <v>284111</v>
+        <v>284408</v>
       </c>
     </row>
     <row r="577">
@@ -30819,7 +30819,7 @@
         <v>14431</v>
       </c>
       <c r="R577">
-        <v>279665</v>
+        <v>279803</v>
       </c>
     </row>
     <row r="578">
@@ -30875,7 +30875,7 @@
         <v>14428</v>
       </c>
       <c r="R578">
-        <v>278783</v>
+        <v>278536</v>
       </c>
     </row>
     <row r="579">
@@ -30931,7 +30931,7 @@
         <v>14473</v>
       </c>
       <c r="R579">
-        <v>280360</v>
+        <v>281407</v>
       </c>
     </row>
     <row r="580">
@@ -30987,7 +30987,7 @@
         <v>14471</v>
       </c>
       <c r="R580">
-        <v>282473</v>
+        <v>283722</v>
       </c>
     </row>
     <row r="581">
@@ -31043,7 +31043,7 @@
         <v>14467</v>
       </c>
       <c r="R581">
-        <v>289162</v>
+        <v>288622</v>
       </c>
     </row>
     <row r="582">
@@ -31099,7 +31099,7 @@
         <v>14482</v>
       </c>
       <c r="R582">
-        <v>290466</v>
+        <v>290059</v>
       </c>
     </row>
     <row r="583">
@@ -31155,7 +31155,7 @@
         <v>14505</v>
       </c>
       <c r="R583">
-        <v>291146</v>
+        <v>290567</v>
       </c>
     </row>
     <row r="584">
@@ -31211,7 +31211,7 @@
         <v>14462</v>
       </c>
       <c r="R584">
-        <v>294360</v>
+        <v>294781</v>
       </c>
     </row>
     <row r="585">
@@ -31267,7 +31267,7 @@
         <v>14493</v>
       </c>
       <c r="R585">
-        <v>299829</v>
+        <v>299258</v>
       </c>
     </row>
     <row r="586">
@@ -31323,7 +31323,7 @@
         <v>14486</v>
       </c>
       <c r="R586">
-        <v>287931</v>
+        <v>288216</v>
       </c>
     </row>
     <row r="587">
@@ -31379,7 +31379,7 @@
         <v>14491</v>
       </c>
       <c r="R587">
-        <v>287640</v>
+        <v>287133</v>
       </c>
     </row>
     <row r="588">
@@ -31435,7 +31435,7 @@
         <v>14499</v>
       </c>
       <c r="R588">
-        <v>285463</v>
+        <v>285853</v>
       </c>
     </row>
     <row r="589">
@@ -31491,7 +31491,7 @@
         <v>14527</v>
       </c>
       <c r="R589">
-        <v>285137</v>
+        <v>285645</v>
       </c>
     </row>
     <row r="590">
@@ -31547,7 +31547,7 @@
         <v>14527</v>
       </c>
       <c r="R590">
-        <v>295509</v>
+        <v>295719</v>
       </c>
     </row>
     <row r="591">
@@ -31603,7 +31603,7 @@
         <v>14533</v>
       </c>
       <c r="R591">
-        <v>304175</v>
+        <v>305067</v>
       </c>
     </row>
     <row r="592">
@@ -31659,7 +31659,7 @@
         <v>14567</v>
       </c>
       <c r="R592">
-        <v>305358</v>
+        <v>306010</v>
       </c>
     </row>
     <row r="593">
@@ -31715,7 +31715,7 @@
         <v>14600</v>
       </c>
       <c r="R593">
-        <v>324193</v>
+        <v>323581</v>
       </c>
     </row>
     <row r="594">
@@ -31771,7 +31771,7 @@
         <v>14583</v>
       </c>
       <c r="R594">
-        <v>320559</v>
+        <v>319247</v>
       </c>
     </row>
     <row r="595">
@@ -31827,7 +31827,7 @@
         <v>14601</v>
       </c>
       <c r="R595">
-        <v>317102</v>
+        <v>317261</v>
       </c>
     </row>
     <row r="596">
@@ -31883,7 +31883,7 @@
         <v>14552</v>
       </c>
       <c r="R596">
-        <v>324286</v>
+        <v>324076</v>
       </c>
     </row>
     <row r="597">
@@ -31939,7 +31939,7 @@
         <v>14558</v>
       </c>
       <c r="R597">
-        <v>320318</v>
+        <v>320471</v>
       </c>
     </row>
     <row r="598">
@@ -31995,7 +31995,7 @@
         <v>14582</v>
       </c>
       <c r="R598">
-        <v>326917</v>
+        <v>326913</v>
       </c>
     </row>
     <row r="599">
@@ -32051,7 +32051,7 @@
         <v>14594</v>
       </c>
       <c r="R599">
-        <v>322260</v>
+        <v>321971</v>
       </c>
     </row>
     <row r="600">
@@ -32107,7 +32107,7 @@
         <v>14619</v>
       </c>
       <c r="R600">
-        <v>323761</v>
+        <v>323942</v>
       </c>
     </row>
     <row r="601">
@@ -32163,7 +32163,7 @@
         <v>14638</v>
       </c>
       <c r="R601">
-        <v>326944</v>
+        <v>327795</v>
       </c>
     </row>
     <row r="602">
@@ -32219,7 +32219,7 @@
         <v>14666</v>
       </c>
       <c r="R602">
-        <v>342465</v>
+        <v>341963</v>
       </c>
     </row>
     <row r="603">
@@ -32275,7 +32275,7 @@
         <v>14697</v>
       </c>
       <c r="R603">
-        <v>342340</v>
+        <v>343097</v>
       </c>
     </row>
     <row r="604">
@@ -32331,7 +32331,7 @@
         <v>14692</v>
       </c>
       <c r="R604">
-        <v>345379</v>
+        <v>346286</v>
       </c>
     </row>
     <row r="605">
@@ -32387,7 +32387,7 @@
         <v>13925</v>
       </c>
       <c r="R605">
-        <v>338360</v>
+        <v>337598</v>
       </c>
     </row>
     <row r="606">
@@ -32443,7 +32443,7 @@
         <v>13460</v>
       </c>
       <c r="R606">
-        <v>347467</v>
+        <v>346584</v>
       </c>
     </row>
     <row r="607">
@@ -32499,7 +32499,7 @@
         <v>13485</v>
       </c>
       <c r="R607">
-        <v>342861</v>
+        <v>342378</v>
       </c>
     </row>
     <row r="608">
@@ -32555,7 +32555,7 @@
         <v>13559</v>
       </c>
       <c r="R608">
-        <v>336827</v>
+        <v>336713</v>
       </c>
     </row>
     <row r="609">
@@ -32611,7 +32611,7 @@
         <v>13715</v>
       </c>
       <c r="R609">
-        <v>334578</v>
+        <v>335100</v>
       </c>
     </row>
     <row r="610">
@@ -32667,7 +32667,7 @@
         <v>13718</v>
       </c>
       <c r="R610">
-        <v>335229</v>
+        <v>334831</v>
       </c>
     </row>
     <row r="611">
@@ -32723,7 +32723,7 @@
         <v>13710</v>
       </c>
       <c r="R611">
-        <v>337981</v>
+        <v>337476</v>
       </c>
     </row>
     <row r="612">
@@ -32779,7 +32779,7 @@
         <v>13711</v>
       </c>
       <c r="R612">
-        <v>342927</v>
+        <v>343612</v>
       </c>
     </row>
     <row r="613">
@@ -32835,7 +32835,7 @@
         <v>13698</v>
       </c>
       <c r="R613">
-        <v>343016</v>
+        <v>343531</v>
       </c>
     </row>
     <row r="614">
@@ -32891,7 +32891,7 @@
         <v>13746</v>
       </c>
       <c r="R614">
-        <v>345102</v>
+        <v>345096</v>
       </c>
     </row>
     <row r="615">
@@ -32947,7 +32947,7 @@
         <v>13733</v>
       </c>
       <c r="R615">
-        <v>335151</v>
+        <v>336315</v>
       </c>
     </row>
     <row r="616">
@@ -33003,7 +33003,7 @@
         <v>13781</v>
       </c>
       <c r="R616">
-        <v>336955</v>
+        <v>336681</v>
       </c>
     </row>
     <row r="617">
@@ -33059,7 +33059,7 @@
         <v>13830</v>
       </c>
       <c r="R617">
-        <v>335574</v>
+        <v>334978</v>
       </c>
     </row>
     <row r="618">
@@ -33115,7 +33115,7 @@
         <v>13854</v>
       </c>
       <c r="R618">
-        <v>338521</v>
+        <v>337801</v>
       </c>
     </row>
     <row r="619">
@@ -33171,7 +33171,7 @@
         <v>13941</v>
       </c>
       <c r="R619">
-        <v>329746</v>
+        <v>328950</v>
       </c>
     </row>
     <row r="620">
@@ -33227,7 +33227,7 @@
         <v>14023</v>
       </c>
       <c r="R620">
-        <v>328919</v>
+        <v>329615</v>
       </c>
     </row>
     <row r="621">
@@ -33283,7 +33283,7 @@
         <v>14053</v>
       </c>
       <c r="R621">
-        <v>333989</v>
+        <v>334864</v>
       </c>
     </row>
     <row r="622">
@@ -33291,28 +33291,28 @@
         <v>44469</v>
       </c>
       <c r="B622">
-        <v>1410079</v>
+        <v>1402997</v>
       </c>
       <c r="C622">
         <v>2479.4</v>
       </c>
       <c r="D622">
-        <v>478045</v>
+        <v>470934</v>
       </c>
       <c r="E622">
-        <v>305612</v>
+        <v>305938</v>
       </c>
       <c r="F622">
-        <v>10026882</v>
+        <v>10017146</v>
       </c>
       <c r="G622">
-        <v>8091977</v>
+        <v>8091653</v>
       </c>
       <c r="H622">
-        <v>2683520</v>
+        <v>2683144</v>
       </c>
       <c r="I622">
-        <v>352.04</v>
+        <v>352.03</v>
       </c>
       <c r="J622">
         <v>29.08</v>
@@ -33339,7 +33339,7 @@
         <v>14047</v>
       </c>
       <c r="R622">
-        <v>326840</v>
+        <v>326687</v>
       </c>
     </row>
     <row r="623">
@@ -33395,7 +33395,7 @@
         <v>14022</v>
       </c>
       <c r="R623">
-        <v>327373</v>
+        <v>326597</v>
       </c>
     </row>
     <row r="624">
@@ -33451,7 +33451,7 @@
         <v>14028</v>
       </c>
       <c r="R624">
-        <v>331380</v>
+        <v>331859</v>
       </c>
     </row>
     <row r="625">
@@ -33507,7 +33507,7 @@
         <v>14063</v>
       </c>
       <c r="R625">
-        <v>331492</v>
+        <v>331023</v>
       </c>
     </row>
     <row r="626">
@@ -33563,7 +33563,7 @@
         <v>14084</v>
       </c>
       <c r="R626">
-        <v>334244</v>
+        <v>336477</v>
       </c>
     </row>
     <row r="627">
@@ -33619,7 +33619,7 @@
         <v>14099</v>
       </c>
       <c r="R627">
-        <v>338416</v>
+        <v>342490</v>
       </c>
     </row>
     <row r="628">
@@ -33675,7 +33675,7 @@
         <v>14118</v>
       </c>
       <c r="R628">
-        <v>339417</v>
+        <v>342356</v>
       </c>
     </row>
     <row r="629">
@@ -33731,7 +33731,7 @@
         <v>14140</v>
       </c>
       <c r="R629">
-        <v>345062</v>
+        <v>348326</v>
       </c>
     </row>
     <row r="630">
@@ -33787,7 +33787,7 @@
         <v>14153</v>
       </c>
       <c r="R630">
-        <v>339178</v>
+        <v>343789</v>
       </c>
     </row>
     <row r="631">
@@ -33843,7 +33843,7 @@
         <v>14161</v>
       </c>
       <c r="R631">
-        <v>342484</v>
+        <v>347954</v>
       </c>
     </row>
     <row r="632">
@@ -33899,7 +33899,7 @@
         <v>14272</v>
       </c>
       <c r="R632">
-        <v>350972</v>
+        <v>359534</v>
       </c>
     </row>
     <row r="633">
@@ -33955,7 +33955,7 @@
         <v>14266</v>
       </c>
       <c r="R633">
-        <v>350286</v>
+        <v>361704</v>
       </c>
     </row>
     <row r="634">
@@ -33963,28 +33963,28 @@
         <v>44834</v>
       </c>
       <c r="B634">
-        <v>733018</v>
+        <v>733057</v>
       </c>
       <c r="C634">
         <v>1218.6</v>
       </c>
       <c r="D634">
-        <v>288095</v>
+        <v>290773</v>
       </c>
       <c r="E634">
-        <v>102816</v>
+        <v>102751</v>
       </c>
       <c r="F634">
-        <v>5707657</v>
+        <v>5708130</v>
       </c>
       <c r="G634">
-        <v>4191883</v>
+        <v>4186799</v>
       </c>
       <c r="H634">
-        <v>1657330</v>
+        <v>1656473</v>
       </c>
       <c r="I634">
-        <v>404.1</v>
+        <v>404.38</v>
       </c>
       <c r="J634">
         <v>29.51</v>
@@ -34011,7 +34011,7 @@
         <v>14260</v>
       </c>
       <c r="R634">
-        <v>355116</v>
+        <v>366800</v>
       </c>
     </row>
     <row r="635">
@@ -34067,7 +34067,7 @@
         <v>14287</v>
       </c>
       <c r="R635">
-        <v>354474</v>
+        <v>366024</v>
       </c>
     </row>
     <row r="636">
@@ -34123,7 +34123,7 @@
         <v>14328</v>
       </c>
       <c r="R636">
-        <v>359543</v>
+        <v>367116</v>
       </c>
     </row>
     <row r="637">
@@ -34179,7 +34179,7 @@
         <v>14360</v>
       </c>
       <c r="R637">
-        <v>361033</v>
+        <v>372938</v>
       </c>
     </row>
     <row r="638">
@@ -34235,7 +34235,7 @@
         <v>14402</v>
       </c>
       <c r="R638">
-        <v>364867</v>
+        <v>378357</v>
       </c>
     </row>
     <row r="639">
@@ -34291,7 +34291,7 @@
         <v>14430</v>
       </c>
       <c r="R639">
-        <v>371673</v>
+        <v>387772</v>
       </c>
     </row>
     <row r="640">
@@ -34347,7 +34347,7 @@
         <v>14457</v>
       </c>
       <c r="R640">
-        <v>374555</v>
+        <v>394738</v>
       </c>
     </row>
     <row r="641">
@@ -34403,7 +34403,7 @@
         <v>14482</v>
       </c>
       <c r="R641">
-        <v>382073</v>
+        <v>403577</v>
       </c>
     </row>
     <row r="642">
@@ -34459,7 +34459,7 @@
         <v>14508</v>
       </c>
       <c r="R642">
-        <v>388978</v>
+        <v>411117</v>
       </c>
     </row>
     <row r="643">
@@ -34515,7 +34515,7 @@
         <v>14536</v>
       </c>
       <c r="R643">
-        <v>396538</v>
+        <v>418667</v>
       </c>
     </row>
     <row r="644">
@@ -34571,7 +34571,7 @@
         <v>14564</v>
       </c>
       <c r="R644">
-        <v>404059</v>
+        <v>417761</v>
       </c>
     </row>
     <row r="645">
@@ -34627,7 +34627,7 @@
         <v>14585</v>
       </c>
       <c r="R645">
-        <v>407847</v>
+        <v>420853</v>
       </c>
     </row>
     <row r="646">
@@ -34683,7 +34683,7 @@
         <v>14612</v>
       </c>
       <c r="R646">
-        <v>418897</v>
+        <v>429575</v>
       </c>
     </row>
     <row r="647">
@@ -34739,7 +34739,7 @@
         <v>14642</v>
       </c>
       <c r="R647">
-        <v>432334</v>
+        <v>440206</v>
       </c>
     </row>
     <row r="648">
@@ -34759,7 +34759,7 @@
         <v>151099</v>
       </c>
       <c r="F648">
-        <v>6835461</v>
+        <v>6834816</v>
       </c>
       <c r="G648">
         <v>5679700</v>
@@ -34795,7 +34795,7 @@
         <v>14665</v>
       </c>
       <c r="R648">
-        <v>440095</v>
+        <v>445839</v>
       </c>
     </row>
     <row r="649">
@@ -34815,7 +34815,7 @@
         <v>159293</v>
       </c>
       <c r="F649">
-        <v>8154128</v>
+        <v>8153463</v>
       </c>
       <c r="G649">
         <v>6415249</v>
@@ -34851,7 +34851,7 @@
         <v>14711</v>
       </c>
       <c r="R649">
-        <v>446894</v>
+        <v>446422</v>
       </c>
     </row>
     <row r="650">
@@ -34859,7 +34859,7 @@
         <v>45322</v>
       </c>
       <c r="B650">
-        <v>1249757</v>
+        <v>1249509</v>
       </c>
       <c r="C650">
         <v>2050.7</v>
@@ -34871,7 +34871,7 @@
         <v>184503</v>
       </c>
       <c r="F650">
-        <v>9547638</v>
+        <v>9544615</v>
       </c>
       <c r="G650">
         <v>8366985</v>
@@ -34907,7 +34907,7 @@
         <v>14742</v>
       </c>
       <c r="R650">
-        <v>445408</v>
+        <v>442338</v>
       </c>
     </row>
     <row r="651">
@@ -34915,7 +34915,7 @@
         <v>45351</v>
       </c>
       <c r="B651">
-        <v>881185</v>
+        <v>880875</v>
       </c>
       <c r="C651">
         <v>2059.2</v>
@@ -34927,7 +34927,7 @@
         <v>157469</v>
       </c>
       <c r="F651">
-        <v>8525643</v>
+        <v>8521590</v>
       </c>
       <c r="G651">
         <v>7382243</v>
@@ -34963,7 +34963,7 @@
         <v>14776</v>
       </c>
       <c r="R651">
-        <v>448458</v>
+        <v>445503</v>
       </c>
     </row>
     <row r="652">
@@ -34971,7 +34971,7 @@
         <v>45382</v>
       </c>
       <c r="B652">
-        <v>844605</v>
+        <v>844295</v>
       </c>
       <c r="C652">
         <v>2000.4</v>
@@ -34983,10 +34983,10 @@
         <v>163774</v>
       </c>
       <c r="F652">
-        <v>8835172</v>
+        <v>8831427</v>
       </c>
       <c r="G652">
-        <v>7328647</v>
+        <v>7328646</v>
       </c>
       <c r="H652">
         <v>3287976</v>
@@ -35019,7 +35019,7 @@
         <v>14832</v>
       </c>
       <c r="R652">
-        <v>453062</v>
+        <v>450173</v>
       </c>
     </row>
     <row r="653">
@@ -35027,55 +35027,55 @@
         <v>45412</v>
       </c>
       <c r="B653">
-        <v>913252</v>
+        <v>901400</v>
       </c>
       <c r="C653">
         <v>1807.6</v>
       </c>
       <c r="D653">
-        <v>398632</v>
+        <v>383175</v>
       </c>
       <c r="E653">
-        <v>184164</v>
+        <v>185615</v>
       </c>
       <c r="F653">
-        <v>8023953</v>
+        <v>7954081</v>
       </c>
       <c r="G653">
-        <v>7141893</v>
+        <v>7093475</v>
       </c>
       <c r="H653">
-        <v>3190590</v>
+        <v>3176634</v>
       </c>
       <c r="I653">
-        <v>454.58</v>
+        <v>455.85</v>
       </c>
       <c r="J653">
-        <v>37.41</v>
+        <v>37.44</v>
       </c>
       <c r="K653">
-        <v>15.07</v>
+        <v>15.11</v>
       </c>
       <c r="L653">
-        <v>447</v>
+        <v>447.1</v>
       </c>
       <c r="M653">
-        <v>34735901</v>
+        <v>34721945</v>
       </c>
       <c r="N653">
-        <v>5248787</v>
+        <v>5233330</v>
       </c>
       <c r="O653">
-        <v>1923972</v>
+        <v>1925423</v>
       </c>
       <c r="P653">
-        <v>5450</v>
+        <v>5448</v>
       </c>
       <c r="Q653">
-        <v>14831</v>
+        <v>14828</v>
       </c>
       <c r="R653">
-        <v>451154</v>
+        <v>450938</v>
       </c>
     </row>
     <row r="654">
@@ -35083,49 +35083,161 @@
         <v>45443</v>
       </c>
       <c r="B654">
-        <v>849074</v>
+        <v>879487</v>
+      </c>
+      <c r="C654">
+        <v>1650</v>
       </c>
       <c r="D654">
-        <v>370357</v>
+        <v>378972</v>
       </c>
       <c r="E654">
-        <v>165347</v>
+        <v>168510</v>
       </c>
       <c r="F654">
-        <v>7881011</v>
+        <v>7049818</v>
       </c>
       <c r="G654">
-        <v>6680702</v>
+        <v>6013043</v>
       </c>
       <c r="H654">
-        <v>2920528</v>
+        <v>2693740</v>
       </c>
       <c r="I654">
-        <v>444.88</v>
+        <v>455.84</v>
       </c>
       <c r="J654">
-        <v>37.32</v>
+        <v>37.41</v>
       </c>
       <c r="K654">
-        <v>15.23</v>
+        <v>15.11</v>
       </c>
       <c r="L654">
-        <v>447.46</v>
+        <v>448.43</v>
       </c>
       <c r="M654">
-        <v>35008688</v>
+        <v>34767944</v>
       </c>
       <c r="N654">
-        <v>5229689</v>
+        <v>5222847</v>
       </c>
       <c r="O654">
-        <v>1933627</v>
+        <v>1938241</v>
       </c>
       <c r="P654">
-        <v>5455</v>
+        <v>5429</v>
       </c>
       <c r="Q654">
-        <v>14865</v>
+        <v>14856</v>
+      </c>
+      <c r="R654">
+        <v>449378</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="2">
+        <v>45473</v>
+      </c>
+      <c r="B655">
+        <v>968210</v>
+      </c>
+      <c r="C655">
+        <v>1736.8</v>
+      </c>
+      <c r="D655">
+        <v>405557</v>
+      </c>
+      <c r="E655">
+        <v>159554</v>
+      </c>
+      <c r="F655">
+        <v>7674764</v>
+      </c>
+      <c r="G655">
+        <v>6015491</v>
+      </c>
+      <c r="H655">
+        <v>2623405</v>
+      </c>
+      <c r="I655">
+        <v>444.03</v>
+      </c>
+      <c r="J655">
+        <v>37.87</v>
+      </c>
+      <c r="K655">
+        <v>15.22</v>
+      </c>
+      <c r="L655">
+        <v>449.09</v>
+      </c>
+      <c r="M655">
+        <v>34952546</v>
+      </c>
+      <c r="N655">
+        <v>5207295</v>
+      </c>
+      <c r="O655">
+        <v>1962179</v>
+      </c>
+      <c r="P655">
+        <v>5445</v>
+      </c>
+      <c r="Q655">
+        <v>14881</v>
+      </c>
+      <c r="R655">
+        <v>449209</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="2">
+        <v>45504</v>
+      </c>
+      <c r="B656">
+        <v>1066319</v>
+      </c>
+      <c r="D656">
+        <v>522165</v>
+      </c>
+      <c r="E656">
+        <v>181919</v>
+      </c>
+      <c r="F656">
+        <v>8487231</v>
+      </c>
+      <c r="G656">
+        <v>7347356</v>
+      </c>
+      <c r="H656">
+        <v>3164038</v>
+      </c>
+      <c r="I656">
+        <v>438.16</v>
+      </c>
+      <c r="J656">
+        <v>38</v>
+      </c>
+      <c r="K656">
+        <v>15.18</v>
+      </c>
+      <c r="L656">
+        <v>450.23</v>
+      </c>
+      <c r="M656">
+        <v>35310421</v>
+      </c>
+      <c r="N656">
+        <v>5259475</v>
+      </c>
+      <c r="O656">
+        <v>1978724</v>
+      </c>
+      <c r="P656">
+        <v>5452</v>
+      </c>
+      <c r="Q656">
+        <v>14890</v>
       </c>
     </row>
   </sheetData>

--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R656"/>
+  <dimension ref="A1:R657"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4784,13 +4784,13 @@
         <v>210661</v>
       </c>
       <c r="F98">
-        <v>13886955</v>
+        <v>13886954</v>
       </c>
       <c r="G98">
-        <v>11076388</v>
+        <v>11076387</v>
       </c>
       <c r="H98">
-        <v>904869</v>
+        <v>904868</v>
       </c>
       <c r="I98">
         <v>84.12</v>
@@ -4858,7 +4858,7 @@
         <v>79.84</v>
       </c>
       <c r="M99">
-        <v>8586178</v>
+        <v>8586177</v>
       </c>
       <c r="N99">
         <v>7675188</v>
@@ -5176,7 +5176,7 @@
         <v>82.48999999999999</v>
       </c>
       <c r="M105">
-        <v>8358618</v>
+        <v>8358617</v>
       </c>
       <c r="N105">
         <v>7677889</v>
@@ -6592,10 +6592,10 @@
         <v>9516801</v>
       </c>
       <c r="H132">
-        <v>935438</v>
+        <v>935451</v>
       </c>
       <c r="I132">
-        <v>100.7</v>
+        <v>100.71</v>
       </c>
       <c r="J132">
         <v>32.75</v>
@@ -6607,7 +6607,7 @@
         <v>99.05</v>
       </c>
       <c r="M132">
-        <v>14066985</v>
+        <v>14066998</v>
       </c>
       <c r="N132">
         <v>9919645</v>
@@ -6660,7 +6660,7 @@
         <v>99.53</v>
       </c>
       <c r="M133">
-        <v>14469437</v>
+        <v>14469450</v>
       </c>
       <c r="N133">
         <v>9992123</v>
@@ -6713,7 +6713,7 @@
         <v>100.2</v>
       </c>
       <c r="M134">
-        <v>14605072</v>
+        <v>14605086</v>
       </c>
       <c r="N134">
         <v>9946214</v>
@@ -6766,7 +6766,7 @@
         <v>100.72</v>
       </c>
       <c r="M135">
-        <v>14690509</v>
+        <v>14690523</v>
       </c>
       <c r="N135">
         <v>9890722</v>
@@ -6819,7 +6819,7 @@
         <v>101.31</v>
       </c>
       <c r="M136">
-        <v>14866968</v>
+        <v>14866982</v>
       </c>
       <c r="N136">
         <v>9919839</v>
@@ -6872,7 +6872,7 @@
         <v>101.83</v>
       </c>
       <c r="M137">
-        <v>14861486</v>
+        <v>14861500</v>
       </c>
       <c r="N137">
         <v>9793604</v>
@@ -6925,7 +6925,7 @@
         <v>102.25</v>
       </c>
       <c r="M138">
-        <v>14670878</v>
+        <v>14670892</v>
       </c>
       <c r="N138">
         <v>9476838</v>
@@ -6978,7 +6978,7 @@
         <v>102.61</v>
       </c>
       <c r="M139">
-        <v>14467103</v>
+        <v>14467117</v>
       </c>
       <c r="N139">
         <v>9214474</v>
@@ -7004,7 +7004,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823631</v>
+        <v>823634</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -7031,10 +7031,10 @@
         <v>103.08</v>
       </c>
       <c r="M140">
-        <v>14131883</v>
+        <v>14131897</v>
       </c>
       <c r="N140">
-        <v>8935467</v>
+        <v>8935470</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -7084,10 +7084,10 @@
         <v>103.59</v>
       </c>
       <c r="M141">
-        <v>13894180</v>
+        <v>13894193</v>
       </c>
       <c r="N141">
-        <v>8781982</v>
+        <v>8781985</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -7137,10 +7137,10 @@
         <v>104.14</v>
       </c>
       <c r="M142">
-        <v>13750086</v>
+        <v>13750100</v>
       </c>
       <c r="N142">
-        <v>8776250</v>
+        <v>8776253</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -7190,10 +7190,10 @@
         <v>104.75</v>
       </c>
       <c r="M143">
-        <v>13621955</v>
+        <v>13621969</v>
       </c>
       <c r="N143">
-        <v>8836692</v>
+        <v>8836695</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -7246,7 +7246,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042500</v>
+        <v>9042503</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -7299,7 +7299,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9395120</v>
+        <v>9395123</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -7352,7 +7352,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9715984</v>
+        <v>9715987</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -7405,7 +7405,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916815</v>
+        <v>9916818</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -7458,7 +7458,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176448</v>
+        <v>10176451</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -7511,7 +7511,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10402029</v>
+        <v>10402032</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -7564,7 +7564,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586429</v>
+        <v>10586432</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -7617,7 +7617,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834342</v>
+        <v>10834345</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -9442,7 +9442,7 @@
         <v>1488338</v>
       </c>
       <c r="D186">
-        <v>590390</v>
+        <v>590395</v>
       </c>
       <c r="E186">
         <v>232183</v>
@@ -9451,10 +9451,10 @@
         <v>10937527</v>
       </c>
       <c r="G186">
-        <v>9816965</v>
+        <v>9817067</v>
       </c>
       <c r="H186">
-        <v>1208882</v>
+        <v>1208866</v>
       </c>
       <c r="I186">
         <v>127.37</v>
@@ -9469,10 +9469,10 @@
         <v>125.18</v>
       </c>
       <c r="M186">
-        <v>13889671</v>
+        <v>13889655</v>
       </c>
       <c r="N186">
-        <v>8211195</v>
+        <v>8211200</v>
       </c>
       <c r="O186">
         <v>2510371</v>
@@ -9522,10 +9522,10 @@
         <v>125.48</v>
       </c>
       <c r="M187">
-        <v>13965904</v>
+        <v>13965888</v>
       </c>
       <c r="N187">
-        <v>8231186</v>
+        <v>8231191</v>
       </c>
       <c r="O187">
         <v>2506811</v>
@@ -9575,10 +9575,10 @@
         <v>125.89</v>
       </c>
       <c r="M188">
-        <v>14177137</v>
+        <v>14177122</v>
       </c>
       <c r="N188">
-        <v>8310972</v>
+        <v>8310977</v>
       </c>
       <c r="O188">
         <v>2528409</v>
@@ -9628,10 +9628,10 @@
         <v>126.37</v>
       </c>
       <c r="M189">
-        <v>14260445</v>
+        <v>14260429</v>
       </c>
       <c r="N189">
-        <v>8315332</v>
+        <v>8315337</v>
       </c>
       <c r="O189">
         <v>2521451</v>
@@ -9681,10 +9681,10 @@
         <v>126.79</v>
       </c>
       <c r="M190">
-        <v>14422772</v>
+        <v>14422756</v>
       </c>
       <c r="N190">
-        <v>8370913</v>
+        <v>8370918</v>
       </c>
       <c r="O190">
         <v>2540055</v>
@@ -9707,7 +9707,7 @@
         <v>1667576</v>
       </c>
       <c r="D191">
-        <v>573569</v>
+        <v>573568</v>
       </c>
       <c r="E191">
         <v>207672</v>
@@ -9716,10 +9716,10 @@
         <v>9966680</v>
       </c>
       <c r="G191">
-        <v>8670752</v>
+        <v>8670741</v>
       </c>
       <c r="H191">
-        <v>1073112</v>
+        <v>1073113</v>
       </c>
       <c r="I191">
         <v>128.59</v>
@@ -9734,10 +9734,10 @@
         <v>127.14</v>
       </c>
       <c r="M191">
-        <v>14527982</v>
+        <v>14527966</v>
       </c>
       <c r="N191">
-        <v>8368456</v>
+        <v>8368460</v>
       </c>
       <c r="O191">
         <v>2551083</v>
@@ -9787,10 +9787,10 @@
         <v>127.59</v>
       </c>
       <c r="M192">
-        <v>14532757</v>
+        <v>14532741</v>
       </c>
       <c r="N192">
-        <v>8290030</v>
+        <v>8290034</v>
       </c>
       <c r="O192">
         <v>2547705</v>
@@ -9840,10 +9840,10 @@
         <v>128.14</v>
       </c>
       <c r="M193">
-        <v>14761280</v>
+        <v>14761265</v>
       </c>
       <c r="N193">
-        <v>8365122</v>
+        <v>8365126</v>
       </c>
       <c r="O193">
         <v>2572353</v>
@@ -9872,7 +9872,7 @@
         <v>235008</v>
       </c>
       <c r="F194">
-        <v>14729055</v>
+        <v>14729053</v>
       </c>
       <c r="G194">
         <v>13027499</v>
@@ -9893,10 +9893,10 @@
         <v>128.88</v>
       </c>
       <c r="M194">
-        <v>14843961</v>
+        <v>14843945</v>
       </c>
       <c r="N194">
-        <v>8388009</v>
+        <v>8388013</v>
       </c>
       <c r="O194">
         <v>2570153</v>
@@ -9946,10 +9946,10 @@
         <v>129.54</v>
       </c>
       <c r="M195">
-        <v>14888892</v>
+        <v>14888876</v>
       </c>
       <c r="N195">
-        <v>8325481</v>
+        <v>8325485</v>
       </c>
       <c r="O195">
         <v>2571042</v>
@@ -9978,7 +9978,7 @@
         <v>219934</v>
       </c>
       <c r="F196">
-        <v>13097739</v>
+        <v>13097740</v>
       </c>
       <c r="G196">
         <v>11730221</v>
@@ -9999,10 +9999,10 @@
         <v>130.2</v>
       </c>
       <c r="M196">
-        <v>14967573</v>
+        <v>14967558</v>
       </c>
       <c r="N196">
-        <v>8319977</v>
+        <v>8319981</v>
       </c>
       <c r="O196">
         <v>2563116</v>
@@ -10052,10 +10052,10 @@
         <v>130.86</v>
       </c>
       <c r="M197">
-        <v>15089718</v>
+        <v>15089702</v>
       </c>
       <c r="N197">
-        <v>8341441</v>
+        <v>8341445</v>
       </c>
       <c r="O197">
         <v>2566571</v>
@@ -10108,7 +10108,7 @@
         <v>15141561</v>
       </c>
       <c r="N198">
-        <v>8330329</v>
+        <v>8330328</v>
       </c>
       <c r="O198">
         <v>2567372</v>
@@ -10161,7 +10161,7 @@
         <v>15309105</v>
       </c>
       <c r="N199">
-        <v>8356577</v>
+        <v>8356576</v>
       </c>
       <c r="O199">
         <v>2587921</v>
@@ -10214,7 +10214,7 @@
         <v>15440715</v>
       </c>
       <c r="N200">
-        <v>8350596</v>
+        <v>8350595</v>
       </c>
       <c r="O200">
         <v>2599970</v>
@@ -10267,7 +10267,7 @@
         <v>15510489</v>
       </c>
       <c r="N201">
-        <v>8368339</v>
+        <v>8368338</v>
       </c>
       <c r="O201">
         <v>2605542</v>
@@ -10296,7 +10296,7 @@
         <v>211859</v>
       </c>
       <c r="F202">
-        <v>10071177</v>
+        <v>10071171</v>
       </c>
       <c r="G202">
         <v>8724780</v>
@@ -10320,7 +10320,7 @@
         <v>15673799</v>
       </c>
       <c r="N202">
-        <v>8381896</v>
+        <v>8381895</v>
       </c>
       <c r="O202">
         <v>2635459</v>
@@ -10349,7 +10349,7 @@
         <v>223173</v>
       </c>
       <c r="F203">
-        <v>9851292</v>
+        <v>9851281</v>
       </c>
       <c r="G203">
         <v>8695175</v>
@@ -11886,7 +11886,7 @@
         <v>176192</v>
       </c>
       <c r="F232">
-        <v>11588992</v>
+        <v>11588994</v>
       </c>
       <c r="G232">
         <v>10451849</v>
@@ -34709,7 +34709,7 @@
         <v>6110566</v>
       </c>
       <c r="H647">
-        <v>2678275</v>
+        <v>2678276</v>
       </c>
       <c r="I647">
         <v>446.34</v>
@@ -34724,7 +34724,7 @@
         <v>434.3</v>
       </c>
       <c r="M647">
-        <v>31413215</v>
+        <v>31413216</v>
       </c>
       <c r="N647">
         <v>5142501</v>
@@ -34765,7 +34765,7 @@
         <v>5679700</v>
       </c>
       <c r="H648">
-        <v>2508710</v>
+        <v>2508711</v>
       </c>
       <c r="I648">
         <v>451.54</v>
@@ -34780,7 +34780,7 @@
         <v>436.61</v>
       </c>
       <c r="M648">
-        <v>32051378</v>
+        <v>32051380</v>
       </c>
       <c r="N648">
         <v>5181107</v>
@@ -34809,7 +34809,7 @@
         <v>1818.4</v>
       </c>
       <c r="D649">
-        <v>466261</v>
+        <v>465439</v>
       </c>
       <c r="E649">
         <v>159293</v>
@@ -34818,13 +34818,13 @@
         <v>8153463</v>
       </c>
       <c r="G649">
-        <v>6415249</v>
+        <v>6408927</v>
       </c>
       <c r="H649">
-        <v>2852284</v>
+        <v>2849571</v>
       </c>
       <c r="I649">
-        <v>452.62</v>
+        <v>452.63</v>
       </c>
       <c r="J649">
         <v>36.48</v>
@@ -34836,10 +34836,10 @@
         <v>438.95</v>
       </c>
       <c r="M649">
-        <v>32666450</v>
+        <v>32663739</v>
       </c>
       <c r="N649">
-        <v>5181111</v>
+        <v>5180289</v>
       </c>
       <c r="O649">
         <v>1772185</v>
@@ -34865,7 +34865,7 @@
         <v>2050.7</v>
       </c>
       <c r="D650">
-        <v>680599</v>
+        <v>680509</v>
       </c>
       <c r="E650">
         <v>184503</v>
@@ -34874,10 +34874,10 @@
         <v>9544615</v>
       </c>
       <c r="G650">
-        <v>8366985</v>
+        <v>8366645</v>
       </c>
       <c r="H650">
-        <v>3777341</v>
+        <v>3777200</v>
       </c>
       <c r="I650">
         <v>459.4</v>
@@ -34886,16 +34886,16 @@
         <v>36.64</v>
       </c>
       <c r="K650">
-        <v>14.74</v>
+        <v>14.75</v>
       </c>
       <c r="L650">
         <v>442</v>
       </c>
       <c r="M650">
-        <v>33327769</v>
+        <v>33324918</v>
       </c>
       <c r="N650">
-        <v>5207154</v>
+        <v>5206242</v>
       </c>
       <c r="O650">
         <v>1816373</v>
@@ -34948,10 +34948,10 @@
         <v>444.04</v>
       </c>
       <c r="M651">
-        <v>33847411</v>
+        <v>33844560</v>
       </c>
       <c r="N651">
-        <v>5225616</v>
+        <v>5224704</v>
       </c>
       <c r="O651">
         <v>1855195</v>
@@ -35004,10 +35004,10 @@
         <v>445.39</v>
       </c>
       <c r="M652">
-        <v>34159401</v>
+        <v>34156550</v>
       </c>
       <c r="N652">
-        <v>5218358</v>
+        <v>5217446</v>
       </c>
       <c r="O652">
         <v>1888538</v>
@@ -35057,13 +35057,13 @@
         <v>15.11</v>
       </c>
       <c r="L653">
-        <v>447.1</v>
+        <v>447.11</v>
       </c>
       <c r="M653">
-        <v>34721945</v>
+        <v>34719094</v>
       </c>
       <c r="N653">
-        <v>5233330</v>
+        <v>5232418</v>
       </c>
       <c r="O653">
         <v>1925423</v>
@@ -35116,10 +35116,10 @@
         <v>448.43</v>
       </c>
       <c r="M654">
-        <v>34767944</v>
+        <v>34765093</v>
       </c>
       <c r="N654">
-        <v>5222847</v>
+        <v>5221935</v>
       </c>
       <c r="O654">
         <v>1938241</v>
@@ -35131,7 +35131,7 @@
         <v>14856</v>
       </c>
       <c r="R654">
-        <v>449378</v>
+        <v>450559</v>
       </c>
     </row>
     <row r="655">
@@ -35163,7 +35163,7 @@
         <v>444.03</v>
       </c>
       <c r="J655">
-        <v>37.87</v>
+        <v>37.88</v>
       </c>
       <c r="K655">
         <v>15.22</v>
@@ -35172,22 +35172,22 @@
         <v>449.09</v>
       </c>
       <c r="M655">
-        <v>34952546</v>
+        <v>34949694</v>
       </c>
       <c r="N655">
-        <v>5207295</v>
+        <v>5206383</v>
       </c>
       <c r="O655">
         <v>1962179</v>
       </c>
       <c r="P655">
-        <v>5445</v>
+        <v>5436</v>
       </c>
       <c r="Q655">
-        <v>14881</v>
+        <v>14868</v>
       </c>
       <c r="R655">
-        <v>449209</v>
+        <v>449858</v>
       </c>
     </row>
     <row r="656">
@@ -35197,6 +35197,9 @@
       <c r="B656">
         <v>1066319</v>
       </c>
+      <c r="C656">
+        <v>1901</v>
+      </c>
       <c r="D656">
         <v>522165</v>
       </c>
@@ -35204,19 +35207,19 @@
         <v>181919</v>
       </c>
       <c r="F656">
-        <v>8487231</v>
+        <v>8487223</v>
       </c>
       <c r="G656">
-        <v>7347356</v>
+        <v>7347349</v>
       </c>
       <c r="H656">
-        <v>3164038</v>
+        <v>3164037</v>
       </c>
       <c r="I656">
         <v>438.16</v>
       </c>
       <c r="J656">
-        <v>38</v>
+        <v>38.01</v>
       </c>
       <c r="K656">
         <v>15.18</v>
@@ -35225,19 +35228,72 @@
         <v>450.23</v>
       </c>
       <c r="M656">
-        <v>35310421</v>
+        <v>35307569</v>
       </c>
       <c r="N656">
-        <v>5259475</v>
+        <v>5258563</v>
       </c>
       <c r="O656">
         <v>1978724</v>
       </c>
       <c r="P656">
-        <v>5452</v>
+        <v>5446</v>
       </c>
       <c r="Q656">
-        <v>14890</v>
+        <v>14873</v>
+      </c>
+      <c r="R656">
+        <v>449601</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B657">
+        <v>812630</v>
+      </c>
+      <c r="D657">
+        <v>389995</v>
+      </c>
+      <c r="E657">
+        <v>164964</v>
+      </c>
+      <c r="F657">
+        <v>7524620</v>
+      </c>
+      <c r="G657">
+        <v>6370866</v>
+      </c>
+      <c r="H657">
+        <v>2762037</v>
+      </c>
+      <c r="I657">
+        <v>440.66</v>
+      </c>
+      <c r="J657">
+        <v>38.04</v>
+      </c>
+      <c r="K657">
+        <v>15.24</v>
+      </c>
+      <c r="L657">
+        <v>450.81</v>
+      </c>
+      <c r="M657">
+        <v>35261743</v>
+      </c>
+      <c r="N657">
+        <v>5222708</v>
+      </c>
+      <c r="O657">
+        <v>1987566</v>
+      </c>
+      <c r="P657">
+        <v>5447</v>
+      </c>
+      <c r="Q657">
+        <v>14895</v>
       </c>
     </row>
   </sheetData>
